--- a/backend/templates/176-18cp-ww.xlsx
+++ b/backend/templates/176-18cp-ww.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cursor AI Projects\SwansonIndiaPortal\backend\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04AEE60E-9BE9-4CE6-891F-F72CB2A16E8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61DC212A-D734-42E5-B918-E29350F1B5C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1452,7 +1452,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="263">
+  <cellXfs count="267">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -1569,48 +1569,371 @@
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="20" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="21" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="21" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1620,31 +1943,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1653,17 +1951,60 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1673,98 +2014,44 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="27" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -1772,189 +2059,40 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="29" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="34" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="24" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="14" fillId="2" borderId="37" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1964,13 +2102,126 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1984,26 +2235,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -2016,148 +2247,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="20" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="21" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2172,36 +2267,31 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2221,70 +2311,23 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -2295,42 +2338,11 @@
     <xf numFmtId="164" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="21" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -7738,965 +7750,1157 @@
   <dimension ref="A1:O79"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:E8"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="3" width="12.85546875" style="44" customWidth="1"/>
-    <col min="4" max="13" width="11.42578125" style="44" customWidth="1"/>
-    <col min="14" max="15" width="21.42578125" style="44" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="44"/>
+    <col min="1" max="3" width="12.85546875" style="42" customWidth="1"/>
+    <col min="4" max="13" width="11.42578125" style="42" customWidth="1"/>
+    <col min="14" max="15" width="21.42578125" style="42" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="42"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="144" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="43" t="s">
+      <c r="B1" s="144"/>
+      <c r="C1" s="144"/>
+      <c r="D1" s="144"/>
+      <c r="E1" s="144"/>
+      <c r="F1" s="144"/>
+      <c r="G1" s="144"/>
+      <c r="H1" s="144"/>
+      <c r="I1" s="144"/>
+      <c r="J1" s="144"/>
+      <c r="K1" s="144"/>
+      <c r="L1" s="144"/>
+      <c r="M1" s="144"/>
+      <c r="N1" s="145" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="43"/>
+      <c r="O1" s="145"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="147" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="46" t="s">
+      <c r="B2" s="147"/>
+      <c r="C2" s="147"/>
+      <c r="D2" s="147"/>
+      <c r="E2" s="147"/>
+      <c r="F2" s="147"/>
+      <c r="G2" s="147"/>
+      <c r="H2" s="147"/>
+      <c r="I2" s="147"/>
+      <c r="J2" s="147"/>
+      <c r="K2" s="147"/>
+      <c r="L2" s="147"/>
+      <c r="M2" s="147"/>
+      <c r="N2" s="146" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="46"/>
+      <c r="O2" s="146"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A3" s="45"/>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="47" t="s">
+      <c r="A3" s="147"/>
+      <c r="B3" s="147"/>
+      <c r="C3" s="147"/>
+      <c r="D3" s="147"/>
+      <c r="E3" s="147"/>
+      <c r="F3" s="147"/>
+      <c r="G3" s="147"/>
+      <c r="H3" s="147"/>
+      <c r="I3" s="147"/>
+      <c r="J3" s="147"/>
+      <c r="K3" s="147"/>
+      <c r="L3" s="147"/>
+      <c r="M3" s="147"/>
+      <c r="N3" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="O3" s="48"/>
-    </row>
-    <row r="4" spans="1:15" s="58" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A4" s="49" t="s">
+      <c r="O3" s="44"/>
+    </row>
+    <row r="4" spans="1:15" s="47" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A4" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="50"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="52" t="s">
+      <c r="B4" s="175"/>
+      <c r="C4" s="176"/>
+      <c r="D4" s="176"/>
+      <c r="E4" s="179" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="53"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="55" t="s">
+      <c r="F4" s="180"/>
+      <c r="G4" s="175"/>
+      <c r="H4" s="183"/>
+      <c r="I4" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="50"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="52" t="s">
+      <c r="J4" s="175"/>
+      <c r="K4" s="183"/>
+      <c r="L4" s="179" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="53"/>
-      <c r="N4" s="56"/>
-      <c r="O4" s="57"/>
-    </row>
-    <row r="5" spans="1:15" s="58" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A5" s="59" t="s">
+      <c r="M4" s="180"/>
+      <c r="N4" s="148"/>
+      <c r="O4" s="149"/>
+    </row>
+    <row r="5" spans="1:15" s="47" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A5" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="60"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="62" t="s">
+      <c r="B5" s="177"/>
+      <c r="C5" s="178"/>
+      <c r="D5" s="178"/>
+      <c r="E5" s="181" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="63"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="64"/>
-      <c r="I5" s="65" t="s">
+      <c r="F5" s="182"/>
+      <c r="G5" s="177"/>
+      <c r="H5" s="184"/>
+      <c r="I5" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="60"/>
-      <c r="K5" s="64"/>
-      <c r="L5" s="62" t="s">
+      <c r="J5" s="177"/>
+      <c r="K5" s="184"/>
+      <c r="L5" s="181" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="63"/>
-      <c r="N5" s="66"/>
-      <c r="O5" s="67"/>
+      <c r="M5" s="182"/>
+      <c r="N5" s="150"/>
+      <c r="O5" s="151"/>
     </row>
     <row r="6" spans="1:15" thickBot="1">
-      <c r="A6" s="68" t="s">
+      <c r="A6" s="138" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="69"/>
-      <c r="C6" s="70"/>
-      <c r="D6" s="70"/>
-      <c r="E6" s="71"/>
-      <c r="F6" s="69"/>
-      <c r="G6" s="69"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="73"/>
-      <c r="J6" s="70"/>
-      <c r="K6" s="71"/>
-      <c r="L6" s="69"/>
-      <c r="M6" s="69"/>
-      <c r="N6" s="70"/>
-      <c r="O6" s="74"/>
-    </row>
-    <row r="7" spans="1:15" s="81" customFormat="1" ht="67.5" customHeight="1" thickBot="1">
-      <c r="A7" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="76"/>
-      <c r="C7" s="77"/>
-      <c r="D7" s="76" t="s">
+      <c r="B6" s="139"/>
+      <c r="C6" s="140"/>
+      <c r="D6" s="140"/>
+      <c r="E6" s="152"/>
+      <c r="F6" s="139"/>
+      <c r="G6" s="139"/>
+      <c r="H6" s="170"/>
+      <c r="I6" s="171"/>
+      <c r="J6" s="140"/>
+      <c r="K6" s="152"/>
+      <c r="L6" s="139"/>
+      <c r="M6" s="139"/>
+      <c r="N6" s="140"/>
+      <c r="O6" s="154"/>
+    </row>
+    <row r="7" spans="1:15" s="52" customFormat="1" ht="67.5" customHeight="1" thickBot="1">
+      <c r="A7" s="141" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="142"/>
+      <c r="C7" s="143"/>
+      <c r="D7" s="142" t="s">
         <v>102</v>
       </c>
-      <c r="E7" s="76"/>
-      <c r="F7" s="76" t="s">
+      <c r="E7" s="142"/>
+      <c r="F7" s="142" t="s">
         <v>103</v>
       </c>
-      <c r="G7" s="76"/>
-      <c r="H7" s="77" t="s">
+      <c r="G7" s="142"/>
+      <c r="H7" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="I7" s="78"/>
-      <c r="J7" s="77" t="s">
+      <c r="I7" s="153"/>
+      <c r="J7" s="143" t="s">
         <v>105</v>
       </c>
-      <c r="K7" s="78"/>
-      <c r="L7" s="76" t="s">
+      <c r="K7" s="153"/>
+      <c r="L7" s="142" t="s">
         <v>114</v>
       </c>
-      <c r="M7" s="76"/>
-      <c r="N7" s="79" t="s">
+      <c r="M7" s="142"/>
+      <c r="N7" s="50" t="s">
         <v>107</v>
       </c>
-      <c r="O7" s="80" t="s">
+      <c r="O7" s="51" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="18.600000000000001" customHeight="1">
-      <c r="A8" s="82"/>
-      <c r="B8" s="83"/>
-      <c r="C8" s="83"/>
-      <c r="D8" s="84"/>
-      <c r="E8" s="84"/>
-      <c r="F8" s="85"/>
-      <c r="G8" s="85"/>
-      <c r="H8" s="86"/>
-      <c r="I8" s="87"/>
-      <c r="J8" s="84"/>
-      <c r="K8" s="84"/>
-      <c r="L8" s="88"/>
-      <c r="M8" s="88"/>
-      <c r="N8" s="89"/>
-      <c r="O8" s="90"/>
+      <c r="A8" s="53"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="133"/>
+      <c r="E8" s="133"/>
+      <c r="F8" s="134"/>
+      <c r="G8" s="134"/>
+      <c r="H8" s="135"/>
+      <c r="I8" s="136"/>
+      <c r="J8" s="133"/>
+      <c r="K8" s="133"/>
+      <c r="L8" s="137"/>
+      <c r="M8" s="137"/>
+      <c r="N8" s="55"/>
+      <c r="O8" s="56"/>
     </row>
     <row r="9" spans="1:15" ht="18.600000000000001" customHeight="1">
-      <c r="A9" s="82"/>
-      <c r="B9" s="91"/>
-      <c r="C9" s="83"/>
-      <c r="D9" s="92"/>
-      <c r="E9" s="92"/>
-      <c r="F9" s="93"/>
-      <c r="G9" s="93"/>
-      <c r="H9" s="94"/>
-      <c r="I9" s="95"/>
-      <c r="J9" s="92"/>
-      <c r="K9" s="92"/>
-      <c r="L9" s="96"/>
-      <c r="M9" s="96"/>
-      <c r="N9" s="97"/>
-      <c r="O9" s="98"/>
+      <c r="A9" s="53"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="128"/>
+      <c r="E9" s="128"/>
+      <c r="F9" s="132"/>
+      <c r="G9" s="132"/>
+      <c r="H9" s="130"/>
+      <c r="I9" s="131"/>
+      <c r="J9" s="128"/>
+      <c r="K9" s="128"/>
+      <c r="L9" s="129"/>
+      <c r="M9" s="129"/>
+      <c r="N9" s="58"/>
+      <c r="O9" s="59"/>
     </row>
     <row r="10" spans="1:15" ht="18.600000000000001" customHeight="1">
-      <c r="A10" s="82"/>
-      <c r="B10" s="91"/>
-      <c r="C10" s="83"/>
-      <c r="D10" s="92"/>
-      <c r="E10" s="92"/>
-      <c r="F10" s="93"/>
-      <c r="G10" s="93"/>
-      <c r="H10" s="94"/>
-      <c r="I10" s="95"/>
-      <c r="J10" s="92"/>
-      <c r="K10" s="92"/>
-      <c r="L10" s="96"/>
-      <c r="M10" s="96"/>
-      <c r="N10" s="97"/>
-      <c r="O10" s="98"/>
+      <c r="A10" s="53"/>
+      <c r="B10" s="57"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="128"/>
+      <c r="E10" s="128"/>
+      <c r="F10" s="132"/>
+      <c r="G10" s="132"/>
+      <c r="H10" s="130"/>
+      <c r="I10" s="131"/>
+      <c r="J10" s="128"/>
+      <c r="K10" s="128"/>
+      <c r="L10" s="129"/>
+      <c r="M10" s="129"/>
+      <c r="N10" s="58"/>
+      <c r="O10" s="59"/>
     </row>
     <row r="11" spans="1:15" ht="18.600000000000001" customHeight="1">
-      <c r="A11" s="82"/>
-      <c r="B11" s="83"/>
-      <c r="C11" s="83"/>
-      <c r="D11" s="84"/>
-      <c r="E11" s="84"/>
-      <c r="F11" s="85"/>
-      <c r="G11" s="85"/>
-      <c r="H11" s="86"/>
-      <c r="I11" s="87"/>
-      <c r="J11" s="84"/>
-      <c r="K11" s="84"/>
-      <c r="L11" s="88"/>
-      <c r="M11" s="88"/>
-      <c r="N11" s="89"/>
-      <c r="O11" s="90"/>
+      <c r="A11" s="53"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="133"/>
+      <c r="E11" s="133"/>
+      <c r="F11" s="134"/>
+      <c r="G11" s="134"/>
+      <c r="H11" s="135"/>
+      <c r="I11" s="136"/>
+      <c r="J11" s="133"/>
+      <c r="K11" s="133"/>
+      <c r="L11" s="137"/>
+      <c r="M11" s="137"/>
+      <c r="N11" s="55"/>
+      <c r="O11" s="56"/>
     </row>
     <row r="12" spans="1:15" ht="18.600000000000001" customHeight="1">
-      <c r="A12" s="82"/>
-      <c r="B12" s="91"/>
-      <c r="C12" s="83"/>
-      <c r="D12" s="92"/>
-      <c r="E12" s="92"/>
-      <c r="F12" s="93"/>
-      <c r="G12" s="93"/>
-      <c r="H12" s="94"/>
-      <c r="I12" s="95"/>
-      <c r="J12" s="92"/>
-      <c r="K12" s="92"/>
-      <c r="L12" s="96"/>
-      <c r="M12" s="96"/>
-      <c r="N12" s="97"/>
-      <c r="O12" s="98"/>
+      <c r="A12" s="53"/>
+      <c r="B12" s="57"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="128"/>
+      <c r="E12" s="128"/>
+      <c r="F12" s="132"/>
+      <c r="G12" s="132"/>
+      <c r="H12" s="130"/>
+      <c r="I12" s="131"/>
+      <c r="J12" s="128"/>
+      <c r="K12" s="128"/>
+      <c r="L12" s="129"/>
+      <c r="M12" s="129"/>
+      <c r="N12" s="58"/>
+      <c r="O12" s="59"/>
     </row>
     <row r="13" spans="1:15" ht="18.600000000000001" customHeight="1">
-      <c r="A13" s="82"/>
-      <c r="B13" s="91"/>
-      <c r="C13" s="83"/>
-      <c r="D13" s="92"/>
-      <c r="E13" s="92"/>
-      <c r="F13" s="93"/>
-      <c r="G13" s="93"/>
-      <c r="H13" s="94"/>
-      <c r="I13" s="95"/>
-      <c r="J13" s="92"/>
-      <c r="K13" s="92"/>
-      <c r="L13" s="96"/>
-      <c r="M13" s="96"/>
-      <c r="N13" s="97"/>
-      <c r="O13" s="98"/>
+      <c r="A13" s="53"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="128"/>
+      <c r="E13" s="128"/>
+      <c r="F13" s="132"/>
+      <c r="G13" s="132"/>
+      <c r="H13" s="130"/>
+      <c r="I13" s="131"/>
+      <c r="J13" s="128"/>
+      <c r="K13" s="128"/>
+      <c r="L13" s="129"/>
+      <c r="M13" s="129"/>
+      <c r="N13" s="58"/>
+      <c r="O13" s="59"/>
     </row>
     <row r="14" spans="1:15" ht="18.600000000000001" customHeight="1">
-      <c r="A14" s="82"/>
-      <c r="B14" s="91"/>
-      <c r="C14" s="83"/>
-      <c r="D14" s="92"/>
-      <c r="E14" s="92"/>
-      <c r="F14" s="93"/>
-      <c r="G14" s="93"/>
-      <c r="H14" s="94"/>
-      <c r="I14" s="95"/>
-      <c r="J14" s="92"/>
-      <c r="K14" s="92"/>
-      <c r="L14" s="96"/>
-      <c r="M14" s="96"/>
-      <c r="N14" s="97"/>
-      <c r="O14" s="98"/>
+      <c r="A14" s="53"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="128"/>
+      <c r="E14" s="128"/>
+      <c r="F14" s="132"/>
+      <c r="G14" s="132"/>
+      <c r="H14" s="130"/>
+      <c r="I14" s="131"/>
+      <c r="J14" s="128"/>
+      <c r="K14" s="128"/>
+      <c r="L14" s="129"/>
+      <c r="M14" s="129"/>
+      <c r="N14" s="58"/>
+      <c r="O14" s="59"/>
     </row>
     <row r="15" spans="1:15" ht="18.600000000000001" customHeight="1">
-      <c r="A15" s="82"/>
-      <c r="B15" s="91"/>
-      <c r="C15" s="83"/>
-      <c r="D15" s="92"/>
-      <c r="E15" s="92"/>
-      <c r="F15" s="93"/>
-      <c r="G15" s="93"/>
-      <c r="H15" s="94"/>
-      <c r="I15" s="95"/>
-      <c r="J15" s="92"/>
-      <c r="K15" s="92"/>
-      <c r="L15" s="96"/>
-      <c r="M15" s="96"/>
-      <c r="N15" s="97"/>
-      <c r="O15" s="98"/>
+      <c r="A15" s="53"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="128"/>
+      <c r="E15" s="128"/>
+      <c r="F15" s="132"/>
+      <c r="G15" s="132"/>
+      <c r="H15" s="130"/>
+      <c r="I15" s="131"/>
+      <c r="J15" s="128"/>
+      <c r="K15" s="128"/>
+      <c r="L15" s="129"/>
+      <c r="M15" s="129"/>
+      <c r="N15" s="58"/>
+      <c r="O15" s="59"/>
     </row>
     <row r="16" spans="1:15" ht="18.600000000000001" customHeight="1">
-      <c r="A16" s="82"/>
-      <c r="B16" s="91"/>
-      <c r="C16" s="83"/>
-      <c r="D16" s="92"/>
-      <c r="E16" s="92"/>
-      <c r="F16" s="93"/>
-      <c r="G16" s="93"/>
-      <c r="H16" s="94"/>
-      <c r="I16" s="95"/>
-      <c r="J16" s="92"/>
-      <c r="K16" s="92"/>
-      <c r="L16" s="96"/>
-      <c r="M16" s="96"/>
-      <c r="N16" s="97"/>
-      <c r="O16" s="98"/>
+      <c r="A16" s="53"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="128"/>
+      <c r="E16" s="128"/>
+      <c r="F16" s="132"/>
+      <c r="G16" s="132"/>
+      <c r="H16" s="130"/>
+      <c r="I16" s="131"/>
+      <c r="J16" s="128"/>
+      <c r="K16" s="128"/>
+      <c r="L16" s="129"/>
+      <c r="M16" s="129"/>
+      <c r="N16" s="58"/>
+      <c r="O16" s="59"/>
     </row>
     <row r="17" spans="1:15" ht="18.600000000000001" customHeight="1">
-      <c r="A17" s="82"/>
-      <c r="B17" s="91"/>
-      <c r="C17" s="83"/>
-      <c r="D17" s="92"/>
-      <c r="E17" s="92"/>
-      <c r="F17" s="93"/>
-      <c r="G17" s="93"/>
-      <c r="H17" s="94"/>
-      <c r="I17" s="95"/>
-      <c r="J17" s="92"/>
-      <c r="K17" s="92"/>
-      <c r="L17" s="96"/>
-      <c r="M17" s="96"/>
-      <c r="N17" s="97"/>
-      <c r="O17" s="98"/>
+      <c r="A17" s="53"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="128"/>
+      <c r="E17" s="128"/>
+      <c r="F17" s="132"/>
+      <c r="G17" s="132"/>
+      <c r="H17" s="130"/>
+      <c r="I17" s="131"/>
+      <c r="J17" s="128"/>
+      <c r="K17" s="128"/>
+      <c r="L17" s="129"/>
+      <c r="M17" s="129"/>
+      <c r="N17" s="58"/>
+      <c r="O17" s="59"/>
     </row>
     <row r="18" spans="1:15" ht="18.600000000000001" customHeight="1">
-      <c r="A18" s="82"/>
-      <c r="B18" s="91"/>
-      <c r="C18" s="83"/>
-      <c r="D18" s="92"/>
-      <c r="E18" s="92"/>
-      <c r="F18" s="93"/>
-      <c r="G18" s="93"/>
-      <c r="H18" s="94"/>
-      <c r="I18" s="95"/>
-      <c r="J18" s="92"/>
-      <c r="K18" s="92"/>
-      <c r="L18" s="96"/>
-      <c r="M18" s="96"/>
-      <c r="N18" s="97"/>
-      <c r="O18" s="98"/>
+      <c r="A18" s="53"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="128"/>
+      <c r="E18" s="128"/>
+      <c r="F18" s="132"/>
+      <c r="G18" s="132"/>
+      <c r="H18" s="130"/>
+      <c r="I18" s="131"/>
+      <c r="J18" s="128"/>
+      <c r="K18" s="128"/>
+      <c r="L18" s="129"/>
+      <c r="M18" s="129"/>
+      <c r="N18" s="58"/>
+      <c r="O18" s="59"/>
     </row>
     <row r="19" spans="1:15" ht="18.600000000000001" customHeight="1">
-      <c r="A19" s="82"/>
-      <c r="B19" s="91"/>
-      <c r="C19" s="83"/>
-      <c r="D19" s="92"/>
-      <c r="E19" s="92"/>
-      <c r="F19" s="93"/>
-      <c r="G19" s="93"/>
-      <c r="H19" s="94"/>
-      <c r="I19" s="95"/>
-      <c r="J19" s="92"/>
-      <c r="K19" s="92"/>
-      <c r="L19" s="96"/>
-      <c r="M19" s="96"/>
-      <c r="N19" s="97"/>
-      <c r="O19" s="98"/>
+      <c r="A19" s="53"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="128"/>
+      <c r="E19" s="128"/>
+      <c r="F19" s="132"/>
+      <c r="G19" s="132"/>
+      <c r="H19" s="130"/>
+      <c r="I19" s="131"/>
+      <c r="J19" s="128"/>
+      <c r="K19" s="128"/>
+      <c r="L19" s="129"/>
+      <c r="M19" s="129"/>
+      <c r="N19" s="58"/>
+      <c r="O19" s="59"/>
     </row>
     <row r="20" spans="1:15" ht="18.600000000000001" customHeight="1">
-      <c r="A20" s="82"/>
-      <c r="B20" s="91"/>
-      <c r="C20" s="83"/>
-      <c r="D20" s="92"/>
-      <c r="E20" s="92"/>
-      <c r="F20" s="93"/>
-      <c r="G20" s="93"/>
-      <c r="H20" s="94"/>
-      <c r="I20" s="95"/>
-      <c r="J20" s="92"/>
-      <c r="K20" s="92"/>
-      <c r="L20" s="96"/>
-      <c r="M20" s="96"/>
-      <c r="N20" s="97"/>
-      <c r="O20" s="98"/>
+      <c r="A20" s="53"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="128"/>
+      <c r="E20" s="128"/>
+      <c r="F20" s="132"/>
+      <c r="G20" s="132"/>
+      <c r="H20" s="130"/>
+      <c r="I20" s="131"/>
+      <c r="J20" s="128"/>
+      <c r="K20" s="128"/>
+      <c r="L20" s="129"/>
+      <c r="M20" s="129"/>
+      <c r="N20" s="58"/>
+      <c r="O20" s="59"/>
     </row>
     <row r="21" spans="1:15" ht="18.600000000000001" customHeight="1">
-      <c r="A21" s="82"/>
-      <c r="B21" s="83"/>
-      <c r="C21" s="83"/>
-      <c r="D21" s="84"/>
-      <c r="E21" s="84"/>
-      <c r="F21" s="85"/>
-      <c r="G21" s="85"/>
-      <c r="H21" s="86"/>
-      <c r="I21" s="87"/>
-      <c r="J21" s="84"/>
-      <c r="K21" s="84"/>
-      <c r="L21" s="88"/>
-      <c r="M21" s="88"/>
-      <c r="N21" s="89"/>
-      <c r="O21" s="90"/>
+      <c r="A21" s="53"/>
+      <c r="B21" s="54"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="133"/>
+      <c r="E21" s="133"/>
+      <c r="F21" s="134"/>
+      <c r="G21" s="134"/>
+      <c r="H21" s="135"/>
+      <c r="I21" s="136"/>
+      <c r="J21" s="133"/>
+      <c r="K21" s="133"/>
+      <c r="L21" s="137"/>
+      <c r="M21" s="137"/>
+      <c r="N21" s="55"/>
+      <c r="O21" s="56"/>
     </row>
     <row r="22" spans="1:15" ht="18.600000000000001" customHeight="1">
-      <c r="A22" s="82"/>
-      <c r="B22" s="91"/>
-      <c r="C22" s="83"/>
-      <c r="D22" s="92"/>
-      <c r="E22" s="92"/>
-      <c r="F22" s="93"/>
-      <c r="G22" s="93"/>
-      <c r="H22" s="94"/>
-      <c r="I22" s="95"/>
-      <c r="J22" s="92"/>
-      <c r="K22" s="92"/>
-      <c r="L22" s="96"/>
-      <c r="M22" s="96"/>
-      <c r="N22" s="97"/>
-      <c r="O22" s="98"/>
+      <c r="A22" s="53"/>
+      <c r="B22" s="57"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="128"/>
+      <c r="E22" s="128"/>
+      <c r="F22" s="132"/>
+      <c r="G22" s="132"/>
+      <c r="H22" s="130"/>
+      <c r="I22" s="131"/>
+      <c r="J22" s="128"/>
+      <c r="K22" s="128"/>
+      <c r="L22" s="129"/>
+      <c r="M22" s="129"/>
+      <c r="N22" s="58"/>
+      <c r="O22" s="59"/>
     </row>
     <row r="23" spans="1:15" ht="18.600000000000001" customHeight="1">
-      <c r="A23" s="82"/>
-      <c r="B23" s="91"/>
-      <c r="C23" s="83"/>
-      <c r="D23" s="92"/>
-      <c r="E23" s="92"/>
-      <c r="F23" s="93"/>
-      <c r="G23" s="93"/>
-      <c r="H23" s="94"/>
-      <c r="I23" s="95"/>
-      <c r="J23" s="92"/>
-      <c r="K23" s="92"/>
-      <c r="L23" s="96"/>
-      <c r="M23" s="96"/>
-      <c r="N23" s="97"/>
-      <c r="O23" s="98"/>
+      <c r="A23" s="53"/>
+      <c r="B23" s="57"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="128"/>
+      <c r="E23" s="128"/>
+      <c r="F23" s="132"/>
+      <c r="G23" s="132"/>
+      <c r="H23" s="130"/>
+      <c r="I23" s="131"/>
+      <c r="J23" s="128"/>
+      <c r="K23" s="128"/>
+      <c r="L23" s="129"/>
+      <c r="M23" s="129"/>
+      <c r="N23" s="58"/>
+      <c r="O23" s="59"/>
     </row>
     <row r="24" spans="1:15" ht="18.600000000000001" customHeight="1">
-      <c r="A24" s="82"/>
-      <c r="B24" s="83"/>
-      <c r="C24" s="83"/>
-      <c r="D24" s="84"/>
-      <c r="E24" s="84"/>
-      <c r="F24" s="85"/>
-      <c r="G24" s="85"/>
-      <c r="H24" s="86"/>
-      <c r="I24" s="87"/>
-      <c r="J24" s="84"/>
-      <c r="K24" s="84"/>
-      <c r="L24" s="88"/>
-      <c r="M24" s="88"/>
-      <c r="N24" s="89"/>
-      <c r="O24" s="90"/>
+      <c r="A24" s="53"/>
+      <c r="B24" s="54"/>
+      <c r="C24" s="54"/>
+      <c r="D24" s="133"/>
+      <c r="E24" s="133"/>
+      <c r="F24" s="134"/>
+      <c r="G24" s="134"/>
+      <c r="H24" s="135"/>
+      <c r="I24" s="136"/>
+      <c r="J24" s="133"/>
+      <c r="K24" s="133"/>
+      <c r="L24" s="137"/>
+      <c r="M24" s="137"/>
+      <c r="N24" s="55"/>
+      <c r="O24" s="56"/>
     </row>
     <row r="25" spans="1:15" ht="18.600000000000001" customHeight="1">
-      <c r="A25" s="82"/>
-      <c r="B25" s="91"/>
-      <c r="C25" s="83"/>
-      <c r="D25" s="92"/>
-      <c r="E25" s="92"/>
-      <c r="F25" s="93"/>
-      <c r="G25" s="93"/>
-      <c r="H25" s="94"/>
-      <c r="I25" s="95"/>
-      <c r="J25" s="92"/>
-      <c r="K25" s="92"/>
-      <c r="L25" s="96"/>
-      <c r="M25" s="96"/>
-      <c r="N25" s="97"/>
-      <c r="O25" s="98"/>
+      <c r="A25" s="53"/>
+      <c r="B25" s="57"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="128"/>
+      <c r="E25" s="128"/>
+      <c r="F25" s="132"/>
+      <c r="G25" s="132"/>
+      <c r="H25" s="130"/>
+      <c r="I25" s="131"/>
+      <c r="J25" s="128"/>
+      <c r="K25" s="128"/>
+      <c r="L25" s="129"/>
+      <c r="M25" s="129"/>
+      <c r="N25" s="58"/>
+      <c r="O25" s="59"/>
     </row>
     <row r="26" spans="1:15" ht="18.600000000000001" customHeight="1">
-      <c r="A26" s="82"/>
-      <c r="B26" s="91"/>
-      <c r="C26" s="83"/>
-      <c r="D26" s="92"/>
-      <c r="E26" s="92"/>
-      <c r="F26" s="93"/>
-      <c r="G26" s="93"/>
-      <c r="H26" s="94"/>
-      <c r="I26" s="95"/>
-      <c r="J26" s="92"/>
-      <c r="K26" s="92"/>
-      <c r="L26" s="96"/>
-      <c r="M26" s="96"/>
-      <c r="N26" s="97"/>
-      <c r="O26" s="98"/>
+      <c r="A26" s="53"/>
+      <c r="B26" s="57"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="128"/>
+      <c r="E26" s="128"/>
+      <c r="F26" s="132"/>
+      <c r="G26" s="132"/>
+      <c r="H26" s="130"/>
+      <c r="I26" s="131"/>
+      <c r="J26" s="128"/>
+      <c r="K26" s="128"/>
+      <c r="L26" s="129"/>
+      <c r="M26" s="129"/>
+      <c r="N26" s="58"/>
+      <c r="O26" s="59"/>
     </row>
     <row r="27" spans="1:15" ht="18.600000000000001" customHeight="1">
-      <c r="A27" s="82"/>
-      <c r="B27" s="91"/>
-      <c r="C27" s="83"/>
-      <c r="D27" s="92"/>
-      <c r="E27" s="92"/>
-      <c r="F27" s="93"/>
-      <c r="G27" s="93"/>
-      <c r="H27" s="94"/>
-      <c r="I27" s="95"/>
-      <c r="J27" s="92"/>
-      <c r="K27" s="92"/>
-      <c r="L27" s="96"/>
-      <c r="M27" s="96"/>
-      <c r="N27" s="97"/>
-      <c r="O27" s="98"/>
+      <c r="A27" s="53"/>
+      <c r="B27" s="57"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="128"/>
+      <c r="E27" s="128"/>
+      <c r="F27" s="132"/>
+      <c r="G27" s="132"/>
+      <c r="H27" s="130"/>
+      <c r="I27" s="131"/>
+      <c r="J27" s="128"/>
+      <c r="K27" s="128"/>
+      <c r="L27" s="129"/>
+      <c r="M27" s="129"/>
+      <c r="N27" s="58"/>
+      <c r="O27" s="59"/>
     </row>
     <row r="28" spans="1:15" ht="18.600000000000001" customHeight="1">
-      <c r="A28" s="82"/>
-      <c r="B28" s="91"/>
-      <c r="C28" s="83"/>
-      <c r="D28" s="92"/>
-      <c r="E28" s="92"/>
-      <c r="F28" s="93"/>
-      <c r="G28" s="93"/>
-      <c r="H28" s="94"/>
-      <c r="I28" s="95"/>
-      <c r="J28" s="92"/>
-      <c r="K28" s="92"/>
-      <c r="L28" s="96"/>
-      <c r="M28" s="96"/>
-      <c r="N28" s="97"/>
-      <c r="O28" s="98"/>
+      <c r="A28" s="53"/>
+      <c r="B28" s="57"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="128"/>
+      <c r="E28" s="128"/>
+      <c r="F28" s="132"/>
+      <c r="G28" s="132"/>
+      <c r="H28" s="130"/>
+      <c r="I28" s="131"/>
+      <c r="J28" s="128"/>
+      <c r="K28" s="128"/>
+      <c r="L28" s="129"/>
+      <c r="M28" s="129"/>
+      <c r="N28" s="58"/>
+      <c r="O28" s="59"/>
     </row>
     <row r="29" spans="1:15" ht="18.600000000000001" customHeight="1">
-      <c r="A29" s="82"/>
-      <c r="B29" s="91"/>
-      <c r="C29" s="83"/>
-      <c r="D29" s="92"/>
-      <c r="E29" s="92"/>
-      <c r="F29" s="93"/>
-      <c r="G29" s="93"/>
-      <c r="H29" s="94"/>
-      <c r="I29" s="95"/>
-      <c r="J29" s="92"/>
-      <c r="K29" s="92"/>
-      <c r="L29" s="96"/>
-      <c r="M29" s="96"/>
-      <c r="N29" s="97"/>
-      <c r="O29" s="98"/>
+      <c r="A29" s="53"/>
+      <c r="B29" s="57"/>
+      <c r="C29" s="54"/>
+      <c r="D29" s="128"/>
+      <c r="E29" s="128"/>
+      <c r="F29" s="132"/>
+      <c r="G29" s="132"/>
+      <c r="H29" s="130"/>
+      <c r="I29" s="131"/>
+      <c r="J29" s="128"/>
+      <c r="K29" s="128"/>
+      <c r="L29" s="129"/>
+      <c r="M29" s="129"/>
+      <c r="N29" s="58"/>
+      <c r="O29" s="59"/>
     </row>
     <row r="30" spans="1:15" ht="18.600000000000001" customHeight="1">
-      <c r="A30" s="82"/>
-      <c r="B30" s="91"/>
-      <c r="C30" s="83"/>
-      <c r="D30" s="92"/>
-      <c r="E30" s="92"/>
-      <c r="F30" s="93"/>
-      <c r="G30" s="93"/>
-      <c r="H30" s="94"/>
-      <c r="I30" s="95"/>
-      <c r="J30" s="92"/>
-      <c r="K30" s="92"/>
-      <c r="L30" s="96"/>
-      <c r="M30" s="96"/>
-      <c r="N30" s="97"/>
-      <c r="O30" s="98"/>
+      <c r="A30" s="53"/>
+      <c r="B30" s="57"/>
+      <c r="C30" s="54"/>
+      <c r="D30" s="128"/>
+      <c r="E30" s="128"/>
+      <c r="F30" s="132"/>
+      <c r="G30" s="132"/>
+      <c r="H30" s="130"/>
+      <c r="I30" s="131"/>
+      <c r="J30" s="128"/>
+      <c r="K30" s="128"/>
+      <c r="L30" s="129"/>
+      <c r="M30" s="129"/>
+      <c r="N30" s="58"/>
+      <c r="O30" s="59"/>
     </row>
     <row r="31" spans="1:15" ht="18.600000000000001" customHeight="1">
-      <c r="A31" s="82"/>
-      <c r="B31" s="91"/>
-      <c r="C31" s="83"/>
-      <c r="D31" s="92"/>
-      <c r="E31" s="92"/>
-      <c r="F31" s="93"/>
-      <c r="G31" s="93"/>
-      <c r="H31" s="94"/>
-      <c r="I31" s="95"/>
-      <c r="J31" s="92"/>
-      <c r="K31" s="92"/>
-      <c r="L31" s="96"/>
-      <c r="M31" s="96"/>
-      <c r="N31" s="97"/>
-      <c r="O31" s="98"/>
+      <c r="A31" s="53"/>
+      <c r="B31" s="57"/>
+      <c r="C31" s="54"/>
+      <c r="D31" s="128"/>
+      <c r="E31" s="128"/>
+      <c r="F31" s="132"/>
+      <c r="G31" s="132"/>
+      <c r="H31" s="130"/>
+      <c r="I31" s="131"/>
+      <c r="J31" s="128"/>
+      <c r="K31" s="128"/>
+      <c r="L31" s="129"/>
+      <c r="M31" s="129"/>
+      <c r="N31" s="58"/>
+      <c r="O31" s="59"/>
     </row>
     <row r="32" spans="1:15" ht="18.600000000000001" customHeight="1">
-      <c r="A32" s="82"/>
-      <c r="B32" s="91"/>
-      <c r="C32" s="83"/>
-      <c r="D32" s="92"/>
-      <c r="E32" s="92"/>
-      <c r="F32" s="93"/>
-      <c r="G32" s="93"/>
-      <c r="H32" s="94"/>
-      <c r="I32" s="95"/>
-      <c r="J32" s="92"/>
-      <c r="K32" s="92"/>
-      <c r="L32" s="96"/>
-      <c r="M32" s="96"/>
-      <c r="N32" s="97"/>
-      <c r="O32" s="98"/>
+      <c r="A32" s="53"/>
+      <c r="B32" s="57"/>
+      <c r="C32" s="54"/>
+      <c r="D32" s="128"/>
+      <c r="E32" s="128"/>
+      <c r="F32" s="132"/>
+      <c r="G32" s="132"/>
+      <c r="H32" s="130"/>
+      <c r="I32" s="131"/>
+      <c r="J32" s="128"/>
+      <c r="K32" s="128"/>
+      <c r="L32" s="129"/>
+      <c r="M32" s="129"/>
+      <c r="N32" s="58"/>
+      <c r="O32" s="59"/>
     </row>
     <row r="33" spans="1:15" ht="18.600000000000001" customHeight="1">
-      <c r="A33" s="82"/>
-      <c r="B33" s="91"/>
-      <c r="C33" s="83"/>
-      <c r="D33" s="92"/>
-      <c r="E33" s="92"/>
-      <c r="F33" s="93"/>
-      <c r="G33" s="93"/>
-      <c r="H33" s="94"/>
-      <c r="I33" s="95"/>
-      <c r="J33" s="92"/>
-      <c r="K33" s="92"/>
-      <c r="L33" s="96"/>
-      <c r="M33" s="96"/>
-      <c r="N33" s="97"/>
-      <c r="O33" s="98"/>
+      <c r="A33" s="53"/>
+      <c r="B33" s="57"/>
+      <c r="C33" s="54"/>
+      <c r="D33" s="128"/>
+      <c r="E33" s="128"/>
+      <c r="F33" s="132"/>
+      <c r="G33" s="132"/>
+      <c r="H33" s="130"/>
+      <c r="I33" s="131"/>
+      <c r="J33" s="128"/>
+      <c r="K33" s="128"/>
+      <c r="L33" s="129"/>
+      <c r="M33" s="129"/>
+      <c r="N33" s="58"/>
+      <c r="O33" s="59"/>
     </row>
     <row r="34" spans="1:15" ht="18.600000000000001" customHeight="1">
-      <c r="A34" s="82"/>
-      <c r="B34" s="83"/>
-      <c r="C34" s="83"/>
-      <c r="D34" s="84"/>
-      <c r="E34" s="84"/>
-      <c r="F34" s="85"/>
-      <c r="G34" s="85"/>
-      <c r="H34" s="86"/>
-      <c r="I34" s="87"/>
-      <c r="J34" s="84"/>
-      <c r="K34" s="84"/>
-      <c r="L34" s="88"/>
-      <c r="M34" s="88"/>
-      <c r="N34" s="89"/>
-      <c r="O34" s="90"/>
+      <c r="A34" s="53"/>
+      <c r="B34" s="54"/>
+      <c r="C34" s="54"/>
+      <c r="D34" s="133"/>
+      <c r="E34" s="133"/>
+      <c r="F34" s="134"/>
+      <c r="G34" s="134"/>
+      <c r="H34" s="135"/>
+      <c r="I34" s="136"/>
+      <c r="J34" s="133"/>
+      <c r="K34" s="133"/>
+      <c r="L34" s="137"/>
+      <c r="M34" s="137"/>
+      <c r="N34" s="55"/>
+      <c r="O34" s="56"/>
     </row>
     <row r="35" spans="1:15" ht="18.600000000000001" customHeight="1">
-      <c r="A35" s="82"/>
-      <c r="B35" s="91"/>
-      <c r="C35" s="83"/>
-      <c r="D35" s="92"/>
-      <c r="E35" s="92"/>
-      <c r="F35" s="93"/>
-      <c r="G35" s="93"/>
-      <c r="H35" s="94"/>
-      <c r="I35" s="95"/>
-      <c r="J35" s="92"/>
-      <c r="K35" s="92"/>
-      <c r="L35" s="96"/>
-      <c r="M35" s="96"/>
-      <c r="N35" s="97"/>
-      <c r="O35" s="98"/>
+      <c r="A35" s="53"/>
+      <c r="B35" s="57"/>
+      <c r="C35" s="54"/>
+      <c r="D35" s="128"/>
+      <c r="E35" s="128"/>
+      <c r="F35" s="132"/>
+      <c r="G35" s="132"/>
+      <c r="H35" s="130"/>
+      <c r="I35" s="131"/>
+      <c r="J35" s="128"/>
+      <c r="K35" s="128"/>
+      <c r="L35" s="129"/>
+      <c r="M35" s="129"/>
+      <c r="N35" s="58"/>
+      <c r="O35" s="59"/>
     </row>
     <row r="36" spans="1:15" ht="18.600000000000001" customHeight="1">
-      <c r="A36" s="82"/>
-      <c r="B36" s="91"/>
-      <c r="C36" s="83"/>
-      <c r="D36" s="92"/>
-      <c r="E36" s="92"/>
-      <c r="F36" s="93"/>
-      <c r="G36" s="93"/>
-      <c r="H36" s="94"/>
-      <c r="I36" s="95"/>
-      <c r="J36" s="92"/>
-      <c r="K36" s="92"/>
-      <c r="L36" s="96"/>
-      <c r="M36" s="96"/>
-      <c r="N36" s="97"/>
-      <c r="O36" s="98"/>
+      <c r="A36" s="53"/>
+      <c r="B36" s="57"/>
+      <c r="C36" s="54"/>
+      <c r="D36" s="128"/>
+      <c r="E36" s="128"/>
+      <c r="F36" s="132"/>
+      <c r="G36" s="132"/>
+      <c r="H36" s="130"/>
+      <c r="I36" s="131"/>
+      <c r="J36" s="128"/>
+      <c r="K36" s="128"/>
+      <c r="L36" s="129"/>
+      <c r="M36" s="129"/>
+      <c r="N36" s="58"/>
+      <c r="O36" s="59"/>
     </row>
     <row r="37" spans="1:15" ht="18.600000000000001" customHeight="1" thickBot="1">
-      <c r="A37" s="82"/>
-      <c r="B37" s="83"/>
-      <c r="C37" s="83"/>
-      <c r="D37" s="84"/>
-      <c r="E37" s="84"/>
-      <c r="F37" s="85"/>
-      <c r="G37" s="85"/>
-      <c r="H37" s="86"/>
-      <c r="I37" s="87"/>
-      <c r="J37" s="84"/>
-      <c r="K37" s="84"/>
-      <c r="L37" s="88"/>
-      <c r="M37" s="88"/>
-      <c r="N37" s="89"/>
-      <c r="O37" s="90"/>
+      <c r="A37" s="53"/>
+      <c r="B37" s="54"/>
+      <c r="C37" s="54"/>
+      <c r="D37" s="133"/>
+      <c r="E37" s="133"/>
+      <c r="F37" s="134"/>
+      <c r="G37" s="134"/>
+      <c r="H37" s="135"/>
+      <c r="I37" s="136"/>
+      <c r="J37" s="133"/>
+      <c r="K37" s="133"/>
+      <c r="L37" s="137"/>
+      <c r="M37" s="137"/>
+      <c r="N37" s="55"/>
+      <c r="O37" s="56"/>
     </row>
     <row r="38" spans="1:15" ht="18.600000000000001" customHeight="1">
-      <c r="A38" s="99"/>
-      <c r="B38" s="100"/>
-      <c r="C38" s="100" t="s">
+      <c r="A38" s="185"/>
+      <c r="B38" s="186"/>
+      <c r="C38" s="186" t="s">
         <v>23</v>
       </c>
-      <c r="D38" s="101" t="e">
+      <c r="D38" s="165" t="e">
         <f>AVERAGE(D8:E37)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E38" s="101"/>
-      <c r="F38" s="102" t="e">
+      <c r="E38" s="165"/>
+      <c r="F38" s="159" t="e">
         <f>AVERAGE(F8:G37)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G38" s="102"/>
-      <c r="H38" s="103" t="e">
+      <c r="G38" s="159"/>
+      <c r="H38" s="162" t="e">
         <f>AVERAGE(H8:I37)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I38" s="103"/>
-      <c r="J38" s="101" t="e">
+      <c r="I38" s="162"/>
+      <c r="J38" s="165" t="e">
         <f>AVERAGE(J8:K37)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K38" s="101"/>
-      <c r="L38" s="104" t="e">
+      <c r="K38" s="165"/>
+      <c r="L38" s="167" t="e">
         <f>AVERAGE(L8:M37)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M38" s="104"/>
-      <c r="N38" s="105" t="e">
+      <c r="M38" s="167"/>
+      <c r="N38" s="60" t="e">
         <f>AVERAGE(N8:N37)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O38" s="106" t="e">
+      <c r="O38" s="61" t="e">
         <f>AVERAGE(O8:O37)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="39" spans="1:15" ht="18.600000000000001" customHeight="1">
-      <c r="A39" s="107"/>
-      <c r="B39" s="108"/>
-      <c r="C39" s="108" t="s">
+      <c r="A39" s="187"/>
+      <c r="B39" s="188"/>
+      <c r="C39" s="188" t="s">
         <v>24</v>
       </c>
-      <c r="D39" s="109">
+      <c r="D39" s="166">
         <f>MIN(D8:E37)</f>
         <v>0</v>
       </c>
-      <c r="E39" s="109"/>
-      <c r="F39" s="110">
+      <c r="E39" s="166"/>
+      <c r="F39" s="160">
         <f>MIN(F8:G37)</f>
         <v>0</v>
       </c>
-      <c r="G39" s="110"/>
-      <c r="H39" s="111">
+      <c r="G39" s="160"/>
+      <c r="H39" s="163">
         <f>MIN(H8:I37)</f>
         <v>0</v>
       </c>
-      <c r="I39" s="111"/>
-      <c r="J39" s="109">
+      <c r="I39" s="163"/>
+      <c r="J39" s="166">
         <f>MIN(J8:K37)</f>
         <v>0</v>
       </c>
-      <c r="K39" s="109"/>
-      <c r="L39" s="112">
+      <c r="K39" s="166"/>
+      <c r="L39" s="168">
         <f>MIN(L8:M37)</f>
         <v>0</v>
       </c>
-      <c r="M39" s="112"/>
-      <c r="N39" s="113">
+      <c r="M39" s="168"/>
+      <c r="N39" s="62">
         <f>MIN(N8:N37)</f>
         <v>0</v>
       </c>
-      <c r="O39" s="114">
+      <c r="O39" s="63">
         <f>MIN(O8:O37)</f>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:15" ht="18.600000000000001" customHeight="1" thickBot="1">
-      <c r="A40" s="115"/>
-      <c r="B40" s="116"/>
-      <c r="C40" s="116" t="s">
+      <c r="A40" s="189"/>
+      <c r="B40" s="190"/>
+      <c r="C40" s="190" t="s">
         <v>25</v>
       </c>
-      <c r="D40" s="117">
+      <c r="D40" s="158">
         <f>MAX(D8:E37)</f>
         <v>0</v>
       </c>
-      <c r="E40" s="117"/>
-      <c r="F40" s="118">
+      <c r="E40" s="158"/>
+      <c r="F40" s="161">
         <f>MAX(F8:G37)</f>
         <v>0</v>
       </c>
-      <c r="G40" s="118"/>
-      <c r="H40" s="119">
+      <c r="G40" s="161"/>
+      <c r="H40" s="164">
         <f>MAX(H8:I37)</f>
         <v>0</v>
       </c>
-      <c r="I40" s="119"/>
-      <c r="J40" s="117">
+      <c r="I40" s="164"/>
+      <c r="J40" s="158">
         <f>MAX(J8:K37)</f>
         <v>0</v>
       </c>
-      <c r="K40" s="117"/>
-      <c r="L40" s="120">
+      <c r="K40" s="158"/>
+      <c r="L40" s="156">
         <f>MAX(L8:M37)</f>
         <v>0</v>
       </c>
-      <c r="M40" s="120"/>
-      <c r="N40" s="121">
+      <c r="M40" s="156"/>
+      <c r="N40" s="64">
         <f>MAX(N8:N37)</f>
         <v>0</v>
       </c>
-      <c r="O40" s="122">
+      <c r="O40" s="65">
         <f>MAX(O8:O37)</f>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:15" ht="16.5" customHeight="1">
-      <c r="A41" s="123" t="s">
+      <c r="A41" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="B41" s="124"/>
-      <c r="C41" s="124"/>
-      <c r="D41" s="125" t="s">
+      <c r="B41" s="191"/>
+      <c r="C41" s="191"/>
+      <c r="D41" s="192" t="s">
         <v>13</v>
       </c>
-      <c r="E41" s="125"/>
-      <c r="F41" s="126"/>
-      <c r="G41" s="127"/>
-      <c r="H41" s="127"/>
-      <c r="I41" s="127"/>
-      <c r="J41" s="127"/>
-      <c r="K41" s="128" t="s">
+      <c r="E41" s="192"/>
+      <c r="F41" s="67"/>
+      <c r="G41" s="68"/>
+      <c r="H41" s="68"/>
+      <c r="I41" s="68"/>
+      <c r="J41" s="68"/>
+      <c r="K41" s="155" t="s">
         <v>14</v>
       </c>
-      <c r="L41" s="128"/>
-      <c r="M41" s="129"/>
-      <c r="N41" s="129"/>
-      <c r="O41" s="123" t="s">
+      <c r="L41" s="155"/>
+      <c r="M41" s="157"/>
+      <c r="N41" s="157"/>
+      <c r="O41" s="66" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="42" spans="1:15" ht="16.5" customHeight="1">
-      <c r="A42" s="123"/>
-      <c r="B42" s="130"/>
-      <c r="C42" s="130"/>
-      <c r="D42" s="48"/>
-      <c r="E42" s="48"/>
-      <c r="F42" s="123"/>
-      <c r="G42" s="127"/>
-      <c r="H42" s="127"/>
-      <c r="I42" s="127"/>
-      <c r="J42" s="127"/>
-      <c r="K42" s="131"/>
-      <c r="L42" s="131"/>
-      <c r="M42" s="129"/>
-      <c r="N42" s="129"/>
-      <c r="O42" s="131"/>
-    </row>
-    <row r="43" spans="1:15" s="134" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A43" s="132" t="s">
+      <c r="A42" s="66"/>
+      <c r="B42" s="174"/>
+      <c r="C42" s="174"/>
+      <c r="D42" s="44"/>
+      <c r="E42" s="44"/>
+      <c r="F42" s="66"/>
+      <c r="G42" s="68"/>
+      <c r="H42" s="68"/>
+      <c r="I42" s="68"/>
+      <c r="J42" s="68"/>
+      <c r="K42" s="69"/>
+      <c r="L42" s="69"/>
+      <c r="M42" s="157"/>
+      <c r="N42" s="157"/>
+      <c r="O42" s="69"/>
+    </row>
+    <row r="43" spans="1:15" s="72" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A43" s="172" t="s">
         <v>12</v>
       </c>
-      <c r="B43" s="132"/>
-      <c r="C43" s="132"/>
-      <c r="D43" s="133"/>
-      <c r="E43" s="133"/>
-      <c r="F43" s="133"/>
-      <c r="G43" s="47" t="s">
+      <c r="B43" s="172"/>
+      <c r="C43" s="172"/>
+      <c r="D43" s="71"/>
+      <c r="E43" s="71"/>
+      <c r="F43" s="71"/>
+      <c r="G43" s="43" t="s">
         <v>112</v>
       </c>
-      <c r="H43" s="132" t="s">
+      <c r="H43" s="172" t="s">
         <v>121</v>
       </c>
-      <c r="I43" s="132"/>
-      <c r="J43" s="132"/>
-      <c r="K43" s="132"/>
-      <c r="L43" s="133"/>
-      <c r="M43" s="133"/>
-      <c r="N43" s="133"/>
-      <c r="O43" s="133"/>
+      <c r="I43" s="172"/>
+      <c r="J43" s="172"/>
+      <c r="K43" s="172"/>
+      <c r="L43" s="71"/>
+      <c r="M43" s="71"/>
+      <c r="N43" s="71"/>
+      <c r="O43" s="71"/>
     </row>
     <row r="44" spans="1:15" ht="16.5" customHeight="1">
-      <c r="A44" s="135" t="s">
+      <c r="A44" s="173" t="s">
         <v>21</v>
       </c>
-      <c r="B44" s="135"/>
-      <c r="C44" s="136"/>
-      <c r="D44" s="127"/>
-      <c r="E44" s="127"/>
-      <c r="F44" s="127"/>
-      <c r="G44" s="127"/>
-      <c r="H44" s="127"/>
-      <c r="I44" s="127"/>
-      <c r="J44" s="127"/>
-      <c r="K44" s="127"/>
-      <c r="L44" s="127"/>
-      <c r="M44" s="127"/>
-      <c r="N44" s="127" t="s">
+      <c r="B44" s="173"/>
+      <c r="C44" s="73"/>
+      <c r="D44" s="68"/>
+      <c r="E44" s="68"/>
+      <c r="F44" s="68"/>
+      <c r="G44" s="68"/>
+      <c r="H44" s="68"/>
+      <c r="I44" s="68"/>
+      <c r="J44" s="68"/>
+      <c r="K44" s="68"/>
+      <c r="L44" s="68"/>
+      <c r="M44" s="68"/>
+      <c r="N44" s="68" t="s">
         <v>111</v>
       </c>
-      <c r="O44" s="127"/>
+      <c r="O44" s="68"/>
     </row>
     <row r="45" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A45" s="127"/>
-      <c r="B45" s="127"/>
-      <c r="C45" s="127"/>
-      <c r="D45" s="127"/>
-      <c r="E45" s="127"/>
-      <c r="F45" s="127"/>
-      <c r="G45" s="127"/>
-      <c r="H45" s="127"/>
-      <c r="I45" s="127"/>
-      <c r="J45" s="127"/>
-      <c r="K45" s="127"/>
-      <c r="L45" s="127"/>
-      <c r="M45" s="127"/>
-      <c r="N45" s="127"/>
-      <c r="O45" s="127"/>
+      <c r="A45" s="68"/>
+      <c r="B45" s="68"/>
+      <c r="C45" s="68"/>
+      <c r="D45" s="68"/>
+      <c r="E45" s="68"/>
+      <c r="F45" s="68"/>
+      <c r="G45" s="68"/>
+      <c r="H45" s="68"/>
+      <c r="I45" s="68"/>
+      <c r="J45" s="68"/>
+      <c r="K45" s="68"/>
+      <c r="L45" s="68"/>
+      <c r="M45" s="68"/>
+      <c r="N45" s="68"/>
+      <c r="O45" s="68"/>
     </row>
     <row r="48" spans="1:15" ht="15.75" customHeight="1">
-      <c r="B48" s="137" t="s">
+      <c r="B48" s="74" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="52" spans="13:13" ht="15.75" customHeight="1">
-      <c r="M52" s="138"/>
+      <c r="M52" s="75"/>
     </row>
     <row r="76" spans="3:15" ht="15.75" customHeight="1">
-      <c r="C76" s="139"/>
-      <c r="D76" s="139"/>
-      <c r="E76" s="139"/>
-      <c r="I76" s="139"/>
-      <c r="J76" s="139"/>
-      <c r="K76" s="139"/>
-      <c r="L76" s="139"/>
-      <c r="M76" s="139"/>
-      <c r="N76" s="139"/>
-      <c r="O76" s="139"/>
+      <c r="C76" s="169"/>
+      <c r="D76" s="169"/>
+      <c r="E76" s="169"/>
+      <c r="I76" s="169"/>
+      <c r="J76" s="169"/>
+      <c r="K76" s="169"/>
+      <c r="L76" s="169"/>
+      <c r="M76" s="169"/>
+      <c r="N76" s="169"/>
+      <c r="O76" s="169"/>
     </row>
     <row r="77" spans="3:15" ht="15.75" customHeight="1">
-      <c r="C77" s="139"/>
-      <c r="D77" s="139"/>
-      <c r="E77" s="139"/>
-      <c r="F77" s="139"/>
-      <c r="I77" s="139"/>
-      <c r="J77" s="139"/>
-      <c r="K77" s="139"/>
-      <c r="L77" s="139"/>
-      <c r="M77" s="139"/>
-      <c r="N77" s="139"/>
-      <c r="O77" s="139"/>
+      <c r="C77" s="169"/>
+      <c r="D77" s="169"/>
+      <c r="E77" s="169"/>
+      <c r="F77" s="169"/>
+      <c r="I77" s="169"/>
+      <c r="J77" s="169"/>
+      <c r="K77" s="169"/>
+      <c r="L77" s="169"/>
+      <c r="M77" s="169"/>
+      <c r="N77" s="169"/>
+      <c r="O77" s="169"/>
     </row>
     <row r="78" spans="3:15" ht="15.75" customHeight="1">
-      <c r="C78" s="139"/>
-      <c r="D78" s="139"/>
-      <c r="E78" s="139"/>
-      <c r="I78" s="139"/>
-      <c r="J78" s="139"/>
-      <c r="K78" s="139"/>
-      <c r="L78" s="139"/>
-      <c r="M78" s="139"/>
-      <c r="N78" s="139"/>
-      <c r="O78" s="139"/>
+      <c r="C78" s="169"/>
+      <c r="D78" s="169"/>
+      <c r="E78" s="169"/>
+      <c r="I78" s="169"/>
+      <c r="J78" s="169"/>
+      <c r="K78" s="169"/>
+      <c r="L78" s="169"/>
+      <c r="M78" s="169"/>
+      <c r="N78" s="169"/>
+      <c r="O78" s="169"/>
     </row>
     <row r="79" spans="3:15" ht="15.75" customHeight="1">
-      <c r="C79" s="139"/>
-      <c r="D79" s="139"/>
-      <c r="E79" s="139"/>
+      <c r="C79" s="169"/>
+      <c r="D79" s="169"/>
+      <c r="E79" s="169"/>
     </row>
   </sheetData>
   <mergeCells count="216">
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="C79:E79"/>
+    <mergeCell ref="I76:K76"/>
+    <mergeCell ref="L76:O76"/>
+    <mergeCell ref="L77:O77"/>
+    <mergeCell ref="L78:O78"/>
+    <mergeCell ref="I77:K77"/>
+    <mergeCell ref="I78:K78"/>
+    <mergeCell ref="C76:E76"/>
+    <mergeCell ref="C77:F77"/>
+    <mergeCell ref="C78:E78"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="A2:M3"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
     <mergeCell ref="J16:K16"/>
     <mergeCell ref="L16:M16"/>
     <mergeCell ref="H14:I14"/>
@@ -8721,198 +8925,6 @@
     <mergeCell ref="J24:K24"/>
     <mergeCell ref="L24:M24"/>
     <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="A2:M3"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="C79:E79"/>
-    <mergeCell ref="I76:K76"/>
-    <mergeCell ref="L76:O76"/>
-    <mergeCell ref="L77:O77"/>
-    <mergeCell ref="L78:O78"/>
-    <mergeCell ref="I77:K77"/>
-    <mergeCell ref="I78:K78"/>
-    <mergeCell ref="C76:E76"/>
-    <mergeCell ref="C77:F77"/>
-    <mergeCell ref="C78:E78"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="H43:K43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:I9"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <conditionalFormatting sqref="H6">
@@ -8944,1519 +8956,1519 @@
   <dimension ref="A1:O70"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="M42" sqref="M42:N42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="3" width="14" style="185" customWidth="1"/>
-    <col min="4" max="15" width="14.28515625" style="185" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="185"/>
+    <col min="1" max="3" width="14" style="93" customWidth="1"/>
+    <col min="4" max="15" width="14.28515625" style="93" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="93"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="141" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A1" s="140" t="s">
+    <row r="1" spans="1:15" s="76" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A1" s="193" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="140"/>
-      <c r="C1" s="140"/>
-      <c r="D1" s="140"/>
-      <c r="E1" s="140"/>
-      <c r="F1" s="140"/>
-      <c r="G1" s="140"/>
-      <c r="H1" s="140"/>
-      <c r="I1" s="140"/>
-      <c r="J1" s="140"/>
-      <c r="K1" s="140"/>
-      <c r="L1" s="140"/>
-      <c r="M1" s="140"/>
-      <c r="N1" s="43" t="s">
+      <c r="B1" s="193"/>
+      <c r="C1" s="193"/>
+      <c r="D1" s="193"/>
+      <c r="E1" s="193"/>
+      <c r="F1" s="193"/>
+      <c r="G1" s="193"/>
+      <c r="H1" s="193"/>
+      <c r="I1" s="193"/>
+      <c r="J1" s="193"/>
+      <c r="K1" s="193"/>
+      <c r="L1" s="193"/>
+      <c r="M1" s="193"/>
+      <c r="N1" s="145" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="43"/>
-    </row>
-    <row r="2" spans="1:15" s="141" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A2" s="142" t="s">
+      <c r="O1" s="145"/>
+    </row>
+    <row r="2" spans="1:15" s="76" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A2" s="194" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="142"/>
-      <c r="C2" s="142"/>
-      <c r="D2" s="142"/>
-      <c r="E2" s="142"/>
-      <c r="F2" s="142"/>
-      <c r="G2" s="142"/>
-      <c r="H2" s="142"/>
-      <c r="I2" s="142"/>
-      <c r="J2" s="142"/>
-      <c r="K2" s="142"/>
-      <c r="L2" s="142"/>
-      <c r="M2" s="142"/>
-      <c r="N2" s="46" t="s">
+      <c r="B2" s="194"/>
+      <c r="C2" s="194"/>
+      <c r="D2" s="194"/>
+      <c r="E2" s="194"/>
+      <c r="F2" s="194"/>
+      <c r="G2" s="194"/>
+      <c r="H2" s="194"/>
+      <c r="I2" s="194"/>
+      <c r="J2" s="194"/>
+      <c r="K2" s="194"/>
+      <c r="L2" s="194"/>
+      <c r="M2" s="194"/>
+      <c r="N2" s="146" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="46"/>
-    </row>
-    <row r="3" spans="1:15" s="141" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="142"/>
-      <c r="B3" s="142"/>
-      <c r="C3" s="142"/>
-      <c r="D3" s="142"/>
-      <c r="E3" s="142"/>
-      <c r="F3" s="142"/>
-      <c r="G3" s="142"/>
-      <c r="H3" s="142"/>
-      <c r="I3" s="142"/>
-      <c r="J3" s="142"/>
-      <c r="K3" s="142"/>
-      <c r="L3" s="142"/>
-      <c r="M3" s="142"/>
-      <c r="N3" s="47" t="s">
+      <c r="O2" s="146"/>
+    </row>
+    <row r="3" spans="1:15" s="76" customFormat="1" ht="16.5" thickBot="1">
+      <c r="A3" s="194"/>
+      <c r="B3" s="194"/>
+      <c r="C3" s="194"/>
+      <c r="D3" s="194"/>
+      <c r="E3" s="194"/>
+      <c r="F3" s="194"/>
+      <c r="G3" s="194"/>
+      <c r="H3" s="194"/>
+      <c r="I3" s="194"/>
+      <c r="J3" s="194"/>
+      <c r="K3" s="194"/>
+      <c r="L3" s="194"/>
+      <c r="M3" s="194"/>
+      <c r="N3" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="O3" s="48"/>
-    </row>
-    <row r="4" spans="1:15" s="153" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A4" s="143" t="s">
+      <c r="O3" s="44"/>
+    </row>
+    <row r="4" spans="1:15" s="79" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A4" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="144">
+      <c r="B4" s="196">
         <f>Page1!B4</f>
         <v>0</v>
       </c>
-      <c r="C4" s="145"/>
-      <c r="D4" s="146"/>
-      <c r="E4" s="147" t="s">
+      <c r="C4" s="210"/>
+      <c r="D4" s="211"/>
+      <c r="E4" s="212" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="148"/>
-      <c r="G4" s="144">
+      <c r="F4" s="213"/>
+      <c r="G4" s="196">
         <f>Page1!G4</f>
         <v>0</v>
       </c>
-      <c r="H4" s="146"/>
-      <c r="I4" s="149" t="s">
+      <c r="H4" s="211"/>
+      <c r="I4" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="150">
+      <c r="J4" s="214">
         <f>Page1!J4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="150"/>
-      <c r="L4" s="151" t="s">
+      <c r="K4" s="214"/>
+      <c r="L4" s="195" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="151">
+      <c r="M4" s="195">
         <f>Page1!N4</f>
         <v>0</v>
       </c>
-      <c r="N4" s="144">
+      <c r="N4" s="196">
         <f>Page1!N4</f>
         <v>0</v>
       </c>
-      <c r="O4" s="152"/>
-    </row>
-    <row r="5" spans="1:15" s="153" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
-      <c r="A5" s="154" t="s">
+      <c r="O4" s="197"/>
+    </row>
+    <row r="5" spans="1:15" s="79" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+      <c r="A5" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="70">
+      <c r="B5" s="140">
         <f>Page1!B5</f>
         <v>0</v>
       </c>
-      <c r="C5" s="155"/>
-      <c r="D5" s="71"/>
-      <c r="E5" s="156" t="s">
+      <c r="C5" s="215"/>
+      <c r="D5" s="152"/>
+      <c r="E5" s="216" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="157"/>
-      <c r="G5" s="70">
+      <c r="F5" s="217"/>
+      <c r="G5" s="140">
         <f>Page1!G5</f>
         <v>0</v>
       </c>
-      <c r="H5" s="71"/>
-      <c r="I5" s="158" t="s">
+      <c r="H5" s="152"/>
+      <c r="I5" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="69">
+      <c r="J5" s="139">
         <f>Page1!J5</f>
         <v>0</v>
       </c>
-      <c r="K5" s="69"/>
-      <c r="L5" s="159" t="s">
+      <c r="K5" s="139"/>
+      <c r="L5" s="225" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="159">
+      <c r="M5" s="225">
         <f>Page1!N5</f>
         <v>0</v>
       </c>
-      <c r="N5" s="70">
+      <c r="N5" s="140">
         <f>Page1!N5</f>
         <v>0</v>
       </c>
-      <c r="O5" s="74"/>
-    </row>
-    <row r="6" spans="1:15" s="163" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A6" s="160" t="s">
+      <c r="O5" s="154"/>
+    </row>
+    <row r="6" spans="1:15" s="82" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A6" s="198" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="161"/>
-      <c r="C6" s="161"/>
-      <c r="D6" s="161"/>
-      <c r="E6" s="161"/>
-      <c r="F6" s="161"/>
-      <c r="G6" s="161"/>
-      <c r="H6" s="161"/>
-      <c r="I6" s="161"/>
-      <c r="J6" s="161"/>
-      <c r="K6" s="161"/>
-      <c r="L6" s="161"/>
-      <c r="M6" s="161"/>
-      <c r="N6" s="161"/>
-      <c r="O6" s="162"/>
-    </row>
-    <row r="7" spans="1:15" s="163" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A7" s="164" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="165"/>
-      <c r="C7" s="166"/>
-      <c r="D7" s="167" t="s">
+      <c r="B6" s="199"/>
+      <c r="C6" s="199"/>
+      <c r="D6" s="199"/>
+      <c r="E6" s="199"/>
+      <c r="F6" s="199"/>
+      <c r="G6" s="199"/>
+      <c r="H6" s="199"/>
+      <c r="I6" s="199"/>
+      <c r="J6" s="199"/>
+      <c r="K6" s="199"/>
+      <c r="L6" s="199"/>
+      <c r="M6" s="199"/>
+      <c r="N6" s="199"/>
+      <c r="O6" s="218"/>
+    </row>
+    <row r="7" spans="1:15" s="82" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A7" s="233" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="234"/>
+      <c r="C7" s="235"/>
+      <c r="D7" s="206" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="167"/>
-      <c r="F7" s="167"/>
-      <c r="G7" s="167"/>
-      <c r="H7" s="168" t="s">
+      <c r="E7" s="206"/>
+      <c r="F7" s="206"/>
+      <c r="G7" s="206"/>
+      <c r="H7" s="207" t="s">
         <v>119</v>
       </c>
-      <c r="I7" s="169"/>
-      <c r="J7" s="169"/>
-      <c r="K7" s="170"/>
-      <c r="L7" s="168" t="s">
+      <c r="I7" s="208"/>
+      <c r="J7" s="208"/>
+      <c r="K7" s="209"/>
+      <c r="L7" s="207" t="s">
         <v>120</v>
       </c>
-      <c r="M7" s="169"/>
-      <c r="N7" s="169"/>
-      <c r="O7" s="171"/>
-    </row>
-    <row r="8" spans="1:15" s="163" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A8" s="172"/>
-      <c r="B8" s="173"/>
-      <c r="C8" s="174"/>
-      <c r="D8" s="175">
+      <c r="M7" s="208"/>
+      <c r="N7" s="208"/>
+      <c r="O7" s="230"/>
+    </row>
+    <row r="8" spans="1:15" s="82" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A8" s="236"/>
+      <c r="B8" s="237"/>
+      <c r="C8" s="238"/>
+      <c r="D8" s="83">
         <v>1</v>
       </c>
-      <c r="E8" s="175">
+      <c r="E8" s="83">
         <v>2</v>
       </c>
-      <c r="F8" s="175">
+      <c r="F8" s="83">
         <v>3</v>
       </c>
-      <c r="G8" s="175" t="s">
+      <c r="G8" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="176">
+      <c r="H8" s="84">
         <v>1</v>
       </c>
-      <c r="I8" s="175">
+      <c r="I8" s="83">
         <v>2</v>
       </c>
-      <c r="J8" s="175">
+      <c r="J8" s="83">
         <v>3</v>
       </c>
-      <c r="K8" s="175" t="s">
+      <c r="K8" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="L8" s="175">
+      <c r="L8" s="83">
         <v>1</v>
       </c>
-      <c r="M8" s="175">
+      <c r="M8" s="83">
         <v>2</v>
       </c>
-      <c r="N8" s="175">
+      <c r="N8" s="83">
         <v>3</v>
       </c>
-      <c r="O8" s="177" t="s">
+      <c r="O8" s="85" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="18" customHeight="1">
-      <c r="A9" s="178">
+      <c r="A9" s="86">
         <f>Page1!A8</f>
         <v>0</v>
       </c>
-      <c r="B9" s="179">
+      <c r="B9" s="87">
         <f>Page1!B8</f>
         <v>0</v>
       </c>
-      <c r="C9" s="179">
+      <c r="C9" s="87">
         <f>Page1!C8</f>
         <v>0</v>
       </c>
-      <c r="D9" s="180"/>
-      <c r="E9" s="180"/>
-      <c r="F9" s="180"/>
-      <c r="G9" s="181" t="e">
+      <c r="D9" s="88"/>
+      <c r="E9" s="88"/>
+      <c r="F9" s="88"/>
+      <c r="G9" s="89" t="e">
         <f>AVERAGE(D9:F9)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H9" s="182"/>
-      <c r="I9" s="182"/>
-      <c r="J9" s="182"/>
-      <c r="K9" s="183" t="e">
+      <c r="H9" s="90"/>
+      <c r="I9" s="90"/>
+      <c r="J9" s="90"/>
+      <c r="K9" s="91" t="e">
         <f>AVERAGE(H9:J9)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L9" s="182"/>
-      <c r="M9" s="182"/>
-      <c r="N9" s="182"/>
-      <c r="O9" s="184" t="e">
+      <c r="L9" s="90"/>
+      <c r="M9" s="90"/>
+      <c r="N9" s="90"/>
+      <c r="O9" s="92" t="e">
         <f>AVERAGE(L9:N9)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="18" customHeight="1">
-      <c r="A10" s="178">
+      <c r="A10" s="86">
         <f>Page1!A9</f>
         <v>0</v>
       </c>
-      <c r="B10" s="179">
+      <c r="B10" s="87">
         <f>Page1!B9</f>
         <v>0</v>
       </c>
-      <c r="C10" s="179">
+      <c r="C10" s="87">
         <f>Page1!C9</f>
         <v>0</v>
       </c>
-      <c r="D10" s="180"/>
-      <c r="E10" s="180"/>
-      <c r="F10" s="180"/>
-      <c r="G10" s="181" t="e">
+      <c r="D10" s="88"/>
+      <c r="E10" s="88"/>
+      <c r="F10" s="88"/>
+      <c r="G10" s="89" t="e">
         <f t="shared" ref="G10:G38" si="0">AVERAGE(D10:F10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H10" s="182"/>
-      <c r="I10" s="182"/>
-      <c r="J10" s="182"/>
-      <c r="K10" s="183" t="e">
+      <c r="H10" s="90"/>
+      <c r="I10" s="90"/>
+      <c r="J10" s="90"/>
+      <c r="K10" s="91" t="e">
         <f t="shared" ref="K10:K38" si="1">AVERAGE(H10:J10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L10" s="186"/>
-      <c r="M10" s="186"/>
-      <c r="N10" s="186"/>
-      <c r="O10" s="184" t="e">
+      <c r="L10" s="94"/>
+      <c r="M10" s="94"/>
+      <c r="N10" s="94"/>
+      <c r="O10" s="92" t="e">
         <f t="shared" ref="O10:O38" si="2">AVERAGE(L10:N10)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="18" customHeight="1">
-      <c r="A11" s="178">
+      <c r="A11" s="86">
         <f>Page1!A10</f>
         <v>0</v>
       </c>
-      <c r="B11" s="179">
+      <c r="B11" s="87">
         <f>Page1!B10</f>
         <v>0</v>
       </c>
-      <c r="C11" s="179">
+      <c r="C11" s="87">
         <f>Page1!C10</f>
         <v>0</v>
       </c>
-      <c r="D11" s="180"/>
-      <c r="E11" s="180"/>
-      <c r="F11" s="180"/>
-      <c r="G11" s="181" t="e">
+      <c r="D11" s="88"/>
+      <c r="E11" s="88"/>
+      <c r="F11" s="88"/>
+      <c r="G11" s="89" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H11" s="182"/>
-      <c r="I11" s="182"/>
-      <c r="J11" s="182"/>
-      <c r="K11" s="183" t="e">
+      <c r="H11" s="90"/>
+      <c r="I11" s="90"/>
+      <c r="J11" s="90"/>
+      <c r="K11" s="91" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L11" s="182"/>
-      <c r="M11" s="182"/>
-      <c r="N11" s="182"/>
-      <c r="O11" s="184" t="e">
+      <c r="L11" s="90"/>
+      <c r="M11" s="90"/>
+      <c r="N11" s="90"/>
+      <c r="O11" s="92" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="18" customHeight="1">
-      <c r="A12" s="178">
+      <c r="A12" s="86">
         <f>Page1!A11</f>
         <v>0</v>
       </c>
-      <c r="B12" s="179">
+      <c r="B12" s="87">
         <f>Page1!B11</f>
         <v>0</v>
       </c>
-      <c r="C12" s="179">
+      <c r="C12" s="87">
         <f>Page1!C11</f>
         <v>0</v>
       </c>
-      <c r="D12" s="180"/>
-      <c r="E12" s="180"/>
-      <c r="F12" s="180"/>
-      <c r="G12" s="181" t="e">
+      <c r="D12" s="88"/>
+      <c r="E12" s="88"/>
+      <c r="F12" s="88"/>
+      <c r="G12" s="89" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H12" s="182"/>
-      <c r="I12" s="182"/>
-      <c r="J12" s="182"/>
-      <c r="K12" s="183" t="e">
+      <c r="H12" s="90"/>
+      <c r="I12" s="90"/>
+      <c r="J12" s="90"/>
+      <c r="K12" s="91" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L12" s="182"/>
-      <c r="M12" s="182"/>
-      <c r="N12" s="182"/>
-      <c r="O12" s="184" t="e">
+      <c r="L12" s="90"/>
+      <c r="M12" s="90"/>
+      <c r="N12" s="90"/>
+      <c r="O12" s="92" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="18" customHeight="1">
-      <c r="A13" s="178">
+      <c r="A13" s="86">
         <f>Page1!A12</f>
         <v>0</v>
       </c>
-      <c r="B13" s="179">
+      <c r="B13" s="87">
         <f>Page1!B12</f>
         <v>0</v>
       </c>
-      <c r="C13" s="179">
+      <c r="C13" s="87">
         <f>Page1!C12</f>
         <v>0</v>
       </c>
-      <c r="D13" s="180"/>
-      <c r="E13" s="180"/>
-      <c r="F13" s="180"/>
-      <c r="G13" s="181" t="e">
+      <c r="D13" s="88"/>
+      <c r="E13" s="88"/>
+      <c r="F13" s="88"/>
+      <c r="G13" s="89" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H13" s="182"/>
-      <c r="I13" s="182"/>
-      <c r="J13" s="182"/>
-      <c r="K13" s="183" t="e">
+      <c r="H13" s="90"/>
+      <c r="I13" s="90"/>
+      <c r="J13" s="90"/>
+      <c r="K13" s="91" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L13" s="186"/>
-      <c r="M13" s="186"/>
-      <c r="N13" s="186"/>
-      <c r="O13" s="184" t="e">
+      <c r="L13" s="94"/>
+      <c r="M13" s="94"/>
+      <c r="N13" s="94"/>
+      <c r="O13" s="92" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="18" customHeight="1">
-      <c r="A14" s="178">
+      <c r="A14" s="86">
         <f>Page1!A13</f>
         <v>0</v>
       </c>
-      <c r="B14" s="179">
+      <c r="B14" s="87">
         <f>Page1!B13</f>
         <v>0</v>
       </c>
-      <c r="C14" s="179">
+      <c r="C14" s="87">
         <f>Page1!C13</f>
         <v>0</v>
       </c>
-      <c r="D14" s="180"/>
-      <c r="E14" s="180"/>
-      <c r="F14" s="180"/>
-      <c r="G14" s="181" t="e">
+      <c r="D14" s="88"/>
+      <c r="E14" s="88"/>
+      <c r="F14" s="88"/>
+      <c r="G14" s="89" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H14" s="182"/>
-      <c r="I14" s="182"/>
-      <c r="J14" s="182"/>
-      <c r="K14" s="183" t="e">
+      <c r="H14" s="90"/>
+      <c r="I14" s="90"/>
+      <c r="J14" s="90"/>
+      <c r="K14" s="91" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L14" s="182"/>
-      <c r="M14" s="182"/>
-      <c r="N14" s="182"/>
-      <c r="O14" s="184" t="e">
+      <c r="L14" s="90"/>
+      <c r="M14" s="90"/>
+      <c r="N14" s="90"/>
+      <c r="O14" s="92" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="18" customHeight="1">
-      <c r="A15" s="178">
+      <c r="A15" s="86">
         <f>Page1!A14</f>
         <v>0</v>
       </c>
-      <c r="B15" s="179">
+      <c r="B15" s="87">
         <f>Page1!B14</f>
         <v>0</v>
       </c>
-      <c r="C15" s="179">
+      <c r="C15" s="87">
         <f>Page1!C14</f>
         <v>0</v>
       </c>
-      <c r="D15" s="180"/>
-      <c r="E15" s="180"/>
-      <c r="F15" s="180"/>
-      <c r="G15" s="181" t="e">
+      <c r="D15" s="88"/>
+      <c r="E15" s="88"/>
+      <c r="F15" s="88"/>
+      <c r="G15" s="89" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H15" s="182"/>
-      <c r="I15" s="182"/>
-      <c r="J15" s="182"/>
-      <c r="K15" s="183" t="e">
+      <c r="H15" s="90"/>
+      <c r="I15" s="90"/>
+      <c r="J15" s="90"/>
+      <c r="K15" s="91" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L15" s="182"/>
-      <c r="M15" s="182"/>
-      <c r="N15" s="182"/>
-      <c r="O15" s="184" t="e">
+      <c r="L15" s="90"/>
+      <c r="M15" s="90"/>
+      <c r="N15" s="90"/>
+      <c r="O15" s="92" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="18" customHeight="1">
-      <c r="A16" s="178">
+      <c r="A16" s="86">
         <f>Page1!A15</f>
         <v>0</v>
       </c>
-      <c r="B16" s="179">
+      <c r="B16" s="87">
         <f>Page1!B15</f>
         <v>0</v>
       </c>
-      <c r="C16" s="179">
+      <c r="C16" s="87">
         <f>Page1!C15</f>
         <v>0</v>
       </c>
-      <c r="D16" s="180"/>
-      <c r="E16" s="180"/>
-      <c r="F16" s="180"/>
-      <c r="G16" s="181" t="e">
+      <c r="D16" s="88"/>
+      <c r="E16" s="88"/>
+      <c r="F16" s="88"/>
+      <c r="G16" s="89" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H16" s="182"/>
-      <c r="I16" s="182"/>
-      <c r="J16" s="182"/>
-      <c r="K16" s="183" t="e">
+      <c r="H16" s="90"/>
+      <c r="I16" s="90"/>
+      <c r="J16" s="90"/>
+      <c r="K16" s="91" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L16" s="182"/>
-      <c r="M16" s="182"/>
-      <c r="N16" s="182"/>
-      <c r="O16" s="184" t="e">
+      <c r="L16" s="90"/>
+      <c r="M16" s="90"/>
+      <c r="N16" s="90"/>
+      <c r="O16" s="92" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="18" customHeight="1">
-      <c r="A17" s="178">
+      <c r="A17" s="86">
         <f>Page1!A16</f>
         <v>0</v>
       </c>
-      <c r="B17" s="179">
+      <c r="B17" s="87">
         <f>Page1!B16</f>
         <v>0</v>
       </c>
-      <c r="C17" s="179">
+      <c r="C17" s="87">
         <f>Page1!C16</f>
         <v>0</v>
       </c>
-      <c r="D17" s="180"/>
-      <c r="E17" s="180"/>
-      <c r="F17" s="180"/>
-      <c r="G17" s="181" t="e">
+      <c r="D17" s="88"/>
+      <c r="E17" s="88"/>
+      <c r="F17" s="88"/>
+      <c r="G17" s="89" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H17" s="182"/>
-      <c r="I17" s="182"/>
-      <c r="J17" s="182"/>
-      <c r="K17" s="183" t="e">
+      <c r="H17" s="90"/>
+      <c r="I17" s="90"/>
+      <c r="J17" s="90"/>
+      <c r="K17" s="91" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L17" s="182"/>
-      <c r="M17" s="182"/>
-      <c r="N17" s="182"/>
-      <c r="O17" s="184" t="e">
+      <c r="L17" s="90"/>
+      <c r="M17" s="90"/>
+      <c r="N17" s="90"/>
+      <c r="O17" s="92" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="18" customHeight="1">
-      <c r="A18" s="178">
+      <c r="A18" s="86">
         <f>Page1!A17</f>
         <v>0</v>
       </c>
-      <c r="B18" s="179">
+      <c r="B18" s="87">
         <f>Page1!B17</f>
         <v>0</v>
       </c>
-      <c r="C18" s="179">
+      <c r="C18" s="87">
         <f>Page1!C17</f>
         <v>0</v>
       </c>
-      <c r="D18" s="180"/>
-      <c r="E18" s="180"/>
-      <c r="F18" s="180"/>
-      <c r="G18" s="181" t="e">
+      <c r="D18" s="88"/>
+      <c r="E18" s="88"/>
+      <c r="F18" s="88"/>
+      <c r="G18" s="89" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H18" s="182"/>
-      <c r="I18" s="182"/>
-      <c r="J18" s="182"/>
-      <c r="K18" s="183" t="e">
+      <c r="H18" s="90"/>
+      <c r="I18" s="90"/>
+      <c r="J18" s="90"/>
+      <c r="K18" s="91" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L18" s="182"/>
-      <c r="M18" s="182"/>
-      <c r="N18" s="182"/>
-      <c r="O18" s="184" t="e">
+      <c r="L18" s="90"/>
+      <c r="M18" s="90"/>
+      <c r="N18" s="90"/>
+      <c r="O18" s="92" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="18" customHeight="1">
-      <c r="A19" s="178">
+      <c r="A19" s="86">
         <f>Page1!A18</f>
         <v>0</v>
       </c>
-      <c r="B19" s="179">
+      <c r="B19" s="87">
         <f>Page1!B18</f>
         <v>0</v>
       </c>
-      <c r="C19" s="179">
+      <c r="C19" s="87">
         <f>Page1!C18</f>
         <v>0</v>
       </c>
-      <c r="D19" s="180"/>
-      <c r="E19" s="180"/>
-      <c r="F19" s="180"/>
-      <c r="G19" s="181" t="e">
+      <c r="D19" s="88"/>
+      <c r="E19" s="88"/>
+      <c r="F19" s="88"/>
+      <c r="G19" s="89" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H19" s="182"/>
-      <c r="I19" s="182"/>
-      <c r="J19" s="182"/>
-      <c r="K19" s="183" t="e">
+      <c r="H19" s="90"/>
+      <c r="I19" s="90"/>
+      <c r="J19" s="90"/>
+      <c r="K19" s="91" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L19" s="182"/>
-      <c r="M19" s="182"/>
-      <c r="N19" s="182"/>
-      <c r="O19" s="184" t="e">
+      <c r="L19" s="90"/>
+      <c r="M19" s="90"/>
+      <c r="N19" s="90"/>
+      <c r="O19" s="92" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="18" customHeight="1">
-      <c r="A20" s="178">
+      <c r="A20" s="86">
         <f>Page1!A19</f>
         <v>0</v>
       </c>
-      <c r="B20" s="179">
+      <c r="B20" s="87">
         <f>Page1!B19</f>
         <v>0</v>
       </c>
-      <c r="C20" s="179">
+      <c r="C20" s="87">
         <f>Page1!C19</f>
         <v>0</v>
       </c>
-      <c r="D20" s="180"/>
-      <c r="E20" s="180"/>
-      <c r="F20" s="180"/>
-      <c r="G20" s="181" t="e">
+      <c r="D20" s="88"/>
+      <c r="E20" s="88"/>
+      <c r="F20" s="88"/>
+      <c r="G20" s="89" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H20" s="182"/>
-      <c r="I20" s="182"/>
-      <c r="J20" s="182"/>
-      <c r="K20" s="183" t="e">
+      <c r="H20" s="90"/>
+      <c r="I20" s="90"/>
+      <c r="J20" s="90"/>
+      <c r="K20" s="91" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L20" s="182"/>
-      <c r="M20" s="182"/>
-      <c r="N20" s="182"/>
-      <c r="O20" s="184" t="e">
+      <c r="L20" s="90"/>
+      <c r="M20" s="90"/>
+      <c r="N20" s="90"/>
+      <c r="O20" s="92" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="18" customHeight="1">
-      <c r="A21" s="178">
+      <c r="A21" s="86">
         <f>Page1!A20</f>
         <v>0</v>
       </c>
-      <c r="B21" s="179">
+      <c r="B21" s="87">
         <f>Page1!B20</f>
         <v>0</v>
       </c>
-      <c r="C21" s="179">
+      <c r="C21" s="87">
         <f>Page1!C20</f>
         <v>0</v>
       </c>
-      <c r="D21" s="180"/>
-      <c r="E21" s="180"/>
-      <c r="F21" s="180"/>
-      <c r="G21" s="181" t="e">
+      <c r="D21" s="88"/>
+      <c r="E21" s="88"/>
+      <c r="F21" s="88"/>
+      <c r="G21" s="89" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H21" s="182"/>
-      <c r="I21" s="182"/>
-      <c r="J21" s="182"/>
-      <c r="K21" s="183" t="e">
+      <c r="H21" s="90"/>
+      <c r="I21" s="90"/>
+      <c r="J21" s="90"/>
+      <c r="K21" s="91" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L21" s="182"/>
-      <c r="M21" s="182"/>
-      <c r="N21" s="182"/>
-      <c r="O21" s="184" t="e">
+      <c r="L21" s="90"/>
+      <c r="M21" s="90"/>
+      <c r="N21" s="90"/>
+      <c r="O21" s="92" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="18" customHeight="1">
-      <c r="A22" s="178">
+      <c r="A22" s="86">
         <f>Page1!A21</f>
         <v>0</v>
       </c>
-      <c r="B22" s="179">
+      <c r="B22" s="87">
         <f>Page1!B21</f>
         <v>0</v>
       </c>
-      <c r="C22" s="179">
+      <c r="C22" s="87">
         <f>Page1!C21</f>
         <v>0</v>
       </c>
-      <c r="D22" s="180"/>
-      <c r="E22" s="180"/>
-      <c r="F22" s="180"/>
-      <c r="G22" s="181" t="e">
+      <c r="D22" s="88"/>
+      <c r="E22" s="88"/>
+      <c r="F22" s="88"/>
+      <c r="G22" s="89" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H22" s="182"/>
-      <c r="I22" s="182"/>
-      <c r="J22" s="182"/>
-      <c r="K22" s="183" t="e">
+      <c r="H22" s="90"/>
+      <c r="I22" s="90"/>
+      <c r="J22" s="90"/>
+      <c r="K22" s="91" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L22" s="182"/>
-      <c r="M22" s="182"/>
-      <c r="N22" s="182"/>
-      <c r="O22" s="184" t="e">
+      <c r="L22" s="90"/>
+      <c r="M22" s="90"/>
+      <c r="N22" s="90"/>
+      <c r="O22" s="92" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="18" customHeight="1">
-      <c r="A23" s="178">
+      <c r="A23" s="86">
         <f>Page1!A22</f>
         <v>0</v>
       </c>
-      <c r="B23" s="179">
+      <c r="B23" s="87">
         <f>Page1!B22</f>
         <v>0</v>
       </c>
-      <c r="C23" s="179">
+      <c r="C23" s="87">
         <f>Page1!C22</f>
         <v>0</v>
       </c>
-      <c r="D23" s="180"/>
-      <c r="E23" s="180"/>
-      <c r="F23" s="180"/>
-      <c r="G23" s="181" t="e">
+      <c r="D23" s="88"/>
+      <c r="E23" s="88"/>
+      <c r="F23" s="88"/>
+      <c r="G23" s="89" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H23" s="182"/>
-      <c r="I23" s="182"/>
-      <c r="J23" s="182"/>
-      <c r="K23" s="183" t="e">
+      <c r="H23" s="90"/>
+      <c r="I23" s="90"/>
+      <c r="J23" s="90"/>
+      <c r="K23" s="91" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L23" s="186"/>
-      <c r="M23" s="186"/>
-      <c r="N23" s="186"/>
-      <c r="O23" s="184" t="e">
+      <c r="L23" s="94"/>
+      <c r="M23" s="94"/>
+      <c r="N23" s="94"/>
+      <c r="O23" s="92" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="18" customHeight="1">
-      <c r="A24" s="178">
+      <c r="A24" s="86">
         <f>Page1!A23</f>
         <v>0</v>
       </c>
-      <c r="B24" s="179">
+      <c r="B24" s="87">
         <f>Page1!B23</f>
         <v>0</v>
       </c>
-      <c r="C24" s="179">
+      <c r="C24" s="87">
         <f>Page1!C23</f>
         <v>0</v>
       </c>
-      <c r="D24" s="180"/>
-      <c r="E24" s="180"/>
-      <c r="F24" s="180"/>
-      <c r="G24" s="181" t="e">
+      <c r="D24" s="88"/>
+      <c r="E24" s="88"/>
+      <c r="F24" s="88"/>
+      <c r="G24" s="89" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H24" s="182"/>
-      <c r="I24" s="182"/>
-      <c r="J24" s="182"/>
-      <c r="K24" s="183" t="e">
+      <c r="H24" s="90"/>
+      <c r="I24" s="90"/>
+      <c r="J24" s="90"/>
+      <c r="K24" s="91" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L24" s="182"/>
-      <c r="M24" s="182"/>
-      <c r="N24" s="182"/>
-      <c r="O24" s="184" t="e">
+      <c r="L24" s="90"/>
+      <c r="M24" s="90"/>
+      <c r="N24" s="90"/>
+      <c r="O24" s="92" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="18" customHeight="1">
-      <c r="A25" s="178">
+      <c r="A25" s="86">
         <f>Page1!A24</f>
         <v>0</v>
       </c>
-      <c r="B25" s="179">
+      <c r="B25" s="87">
         <f>Page1!B24</f>
         <v>0</v>
       </c>
-      <c r="C25" s="179">
+      <c r="C25" s="87">
         <f>Page1!C24</f>
         <v>0</v>
       </c>
-      <c r="D25" s="180"/>
-      <c r="E25" s="180"/>
-      <c r="F25" s="180"/>
-      <c r="G25" s="181" t="e">
+      <c r="D25" s="88"/>
+      <c r="E25" s="88"/>
+      <c r="F25" s="88"/>
+      <c r="G25" s="89" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H25" s="182"/>
-      <c r="I25" s="182"/>
-      <c r="J25" s="182"/>
-      <c r="K25" s="183" t="e">
+      <c r="H25" s="90"/>
+      <c r="I25" s="90"/>
+      <c r="J25" s="90"/>
+      <c r="K25" s="91" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L25" s="182"/>
-      <c r="M25" s="182"/>
-      <c r="N25" s="182"/>
-      <c r="O25" s="184" t="e">
+      <c r="L25" s="90"/>
+      <c r="M25" s="90"/>
+      <c r="N25" s="90"/>
+      <c r="O25" s="92" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="18" customHeight="1">
-      <c r="A26" s="178">
+      <c r="A26" s="86">
         <f>Page1!A25</f>
         <v>0</v>
       </c>
-      <c r="B26" s="179">
+      <c r="B26" s="87">
         <f>Page1!B25</f>
         <v>0</v>
       </c>
-      <c r="C26" s="179">
+      <c r="C26" s="87">
         <f>Page1!C25</f>
         <v>0</v>
       </c>
-      <c r="D26" s="180"/>
-      <c r="E26" s="180"/>
-      <c r="F26" s="180"/>
-      <c r="G26" s="181" t="e">
+      <c r="D26" s="88"/>
+      <c r="E26" s="88"/>
+      <c r="F26" s="88"/>
+      <c r="G26" s="89" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H26" s="182"/>
-      <c r="I26" s="182"/>
-      <c r="J26" s="182"/>
-      <c r="K26" s="183" t="e">
+      <c r="H26" s="90"/>
+      <c r="I26" s="90"/>
+      <c r="J26" s="90"/>
+      <c r="K26" s="91" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L26" s="186"/>
-      <c r="M26" s="186"/>
-      <c r="N26" s="186"/>
-      <c r="O26" s="184" t="e">
+      <c r="L26" s="94"/>
+      <c r="M26" s="94"/>
+      <c r="N26" s="94"/>
+      <c r="O26" s="92" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="18" customHeight="1">
-      <c r="A27" s="178">
+      <c r="A27" s="86">
         <f>Page1!A26</f>
         <v>0</v>
       </c>
-      <c r="B27" s="179">
+      <c r="B27" s="87">
         <f>Page1!B26</f>
         <v>0</v>
       </c>
-      <c r="C27" s="179">
+      <c r="C27" s="87">
         <f>Page1!C26</f>
         <v>0</v>
       </c>
-      <c r="D27" s="180"/>
-      <c r="E27" s="180"/>
-      <c r="F27" s="180"/>
-      <c r="G27" s="181" t="e">
+      <c r="D27" s="88"/>
+      <c r="E27" s="88"/>
+      <c r="F27" s="88"/>
+      <c r="G27" s="89" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H27" s="182"/>
-      <c r="I27" s="182"/>
-      <c r="J27" s="182"/>
-      <c r="K27" s="183" t="e">
+      <c r="H27" s="90"/>
+      <c r="I27" s="90"/>
+      <c r="J27" s="90"/>
+      <c r="K27" s="91" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L27" s="182"/>
-      <c r="M27" s="182"/>
-      <c r="N27" s="182"/>
-      <c r="O27" s="184" t="e">
+      <c r="L27" s="90"/>
+      <c r="M27" s="90"/>
+      <c r="N27" s="90"/>
+      <c r="O27" s="92" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="18" customHeight="1">
-      <c r="A28" s="178">
+      <c r="A28" s="86">
         <f>Page1!A27</f>
         <v>0</v>
       </c>
-      <c r="B28" s="179">
+      <c r="B28" s="87">
         <f>Page1!B27</f>
         <v>0</v>
       </c>
-      <c r="C28" s="179">
+      <c r="C28" s="87">
         <f>Page1!C27</f>
         <v>0</v>
       </c>
-      <c r="D28" s="180"/>
-      <c r="E28" s="180"/>
-      <c r="F28" s="180"/>
-      <c r="G28" s="181" t="e">
+      <c r="D28" s="88"/>
+      <c r="E28" s="88"/>
+      <c r="F28" s="88"/>
+      <c r="G28" s="89" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H28" s="182"/>
-      <c r="I28" s="182"/>
-      <c r="J28" s="182"/>
-      <c r="K28" s="183" t="e">
+      <c r="H28" s="90"/>
+      <c r="I28" s="90"/>
+      <c r="J28" s="90"/>
+      <c r="K28" s="91" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L28" s="182"/>
-      <c r="M28" s="182"/>
-      <c r="N28" s="182"/>
-      <c r="O28" s="184" t="e">
+      <c r="L28" s="90"/>
+      <c r="M28" s="90"/>
+      <c r="N28" s="90"/>
+      <c r="O28" s="92" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="18" customHeight="1">
-      <c r="A29" s="178">
+      <c r="A29" s="86">
         <f>Page1!A28</f>
         <v>0</v>
       </c>
-      <c r="B29" s="179">
+      <c r="B29" s="87">
         <f>Page1!B28</f>
         <v>0</v>
       </c>
-      <c r="C29" s="179">
+      <c r="C29" s="87">
         <f>Page1!C28</f>
         <v>0</v>
       </c>
-      <c r="D29" s="180"/>
-      <c r="E29" s="180"/>
-      <c r="F29" s="180"/>
-      <c r="G29" s="181" t="e">
+      <c r="D29" s="88"/>
+      <c r="E29" s="88"/>
+      <c r="F29" s="88"/>
+      <c r="G29" s="89" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H29" s="182"/>
-      <c r="I29" s="182"/>
-      <c r="J29" s="182"/>
-      <c r="K29" s="183" t="e">
+      <c r="H29" s="90"/>
+      <c r="I29" s="90"/>
+      <c r="J29" s="90"/>
+      <c r="K29" s="91" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L29" s="182"/>
-      <c r="M29" s="182"/>
-      <c r="N29" s="182"/>
-      <c r="O29" s="184" t="e">
+      <c r="L29" s="90"/>
+      <c r="M29" s="90"/>
+      <c r="N29" s="90"/>
+      <c r="O29" s="92" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="18" customHeight="1">
-      <c r="A30" s="178">
+      <c r="A30" s="86">
         <f>Page1!A29</f>
         <v>0</v>
       </c>
-      <c r="B30" s="179">
+      <c r="B30" s="87">
         <f>Page1!B29</f>
         <v>0</v>
       </c>
-      <c r="C30" s="179">
+      <c r="C30" s="87">
         <f>Page1!C29</f>
         <v>0</v>
       </c>
-      <c r="D30" s="180"/>
-      <c r="E30" s="180"/>
-      <c r="F30" s="180"/>
-      <c r="G30" s="181" t="e">
+      <c r="D30" s="88"/>
+      <c r="E30" s="88"/>
+      <c r="F30" s="88"/>
+      <c r="G30" s="89" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H30" s="182"/>
-      <c r="I30" s="182"/>
-      <c r="J30" s="182"/>
-      <c r="K30" s="183" t="e">
+      <c r="H30" s="90"/>
+      <c r="I30" s="90"/>
+      <c r="J30" s="90"/>
+      <c r="K30" s="91" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L30" s="182"/>
-      <c r="M30" s="182"/>
-      <c r="N30" s="182"/>
-      <c r="O30" s="184" t="e">
+      <c r="L30" s="90"/>
+      <c r="M30" s="90"/>
+      <c r="N30" s="90"/>
+      <c r="O30" s="92" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="18" customHeight="1">
-      <c r="A31" s="178">
+      <c r="A31" s="86">
         <f>Page1!A30</f>
         <v>0</v>
       </c>
-      <c r="B31" s="179">
+      <c r="B31" s="87">
         <f>Page1!B30</f>
         <v>0</v>
       </c>
-      <c r="C31" s="179">
+      <c r="C31" s="87">
         <f>Page1!C30</f>
         <v>0</v>
       </c>
-      <c r="D31" s="180"/>
-      <c r="E31" s="180"/>
-      <c r="F31" s="180"/>
-      <c r="G31" s="181" t="e">
+      <c r="D31" s="88"/>
+      <c r="E31" s="88"/>
+      <c r="F31" s="88"/>
+      <c r="G31" s="89" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H31" s="182"/>
-      <c r="I31" s="182"/>
-      <c r="J31" s="182"/>
-      <c r="K31" s="183" t="e">
+      <c r="H31" s="90"/>
+      <c r="I31" s="90"/>
+      <c r="J31" s="90"/>
+      <c r="K31" s="91" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L31" s="182"/>
-      <c r="M31" s="182"/>
-      <c r="N31" s="182"/>
-      <c r="O31" s="184" t="e">
+      <c r="L31" s="90"/>
+      <c r="M31" s="90"/>
+      <c r="N31" s="90"/>
+      <c r="O31" s="92" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="18" customHeight="1">
-      <c r="A32" s="178">
+      <c r="A32" s="86">
         <f>Page1!A31</f>
         <v>0</v>
       </c>
-      <c r="B32" s="179">
+      <c r="B32" s="87">
         <f>Page1!B31</f>
         <v>0</v>
       </c>
-      <c r="C32" s="179">
+      <c r="C32" s="87">
         <f>Page1!C31</f>
         <v>0</v>
       </c>
-      <c r="D32" s="180"/>
-      <c r="E32" s="180"/>
-      <c r="F32" s="180"/>
-      <c r="G32" s="181" t="e">
+      <c r="D32" s="88"/>
+      <c r="E32" s="88"/>
+      <c r="F32" s="88"/>
+      <c r="G32" s="89" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H32" s="182"/>
-      <c r="I32" s="182"/>
-      <c r="J32" s="182"/>
-      <c r="K32" s="183" t="e">
+      <c r="H32" s="90"/>
+      <c r="I32" s="90"/>
+      <c r="J32" s="90"/>
+      <c r="K32" s="91" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L32" s="182"/>
-      <c r="M32" s="182"/>
-      <c r="N32" s="182"/>
-      <c r="O32" s="184" t="e">
+      <c r="L32" s="90"/>
+      <c r="M32" s="90"/>
+      <c r="N32" s="90"/>
+      <c r="O32" s="92" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="18" customHeight="1">
-      <c r="A33" s="178">
+      <c r="A33" s="86">
         <f>Page1!A32</f>
         <v>0</v>
       </c>
-      <c r="B33" s="179">
+      <c r="B33" s="87">
         <f>Page1!B32</f>
         <v>0</v>
       </c>
-      <c r="C33" s="179">
+      <c r="C33" s="87">
         <f>Page1!C32</f>
         <v>0</v>
       </c>
-      <c r="D33" s="180"/>
-      <c r="E33" s="180"/>
-      <c r="F33" s="180"/>
-      <c r="G33" s="181" t="e">
+      <c r="D33" s="88"/>
+      <c r="E33" s="88"/>
+      <c r="F33" s="88"/>
+      <c r="G33" s="89" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H33" s="182"/>
-      <c r="I33" s="182"/>
-      <c r="J33" s="182"/>
-      <c r="K33" s="183" t="e">
+      <c r="H33" s="90"/>
+      <c r="I33" s="90"/>
+      <c r="J33" s="90"/>
+      <c r="K33" s="91" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L33" s="182"/>
-      <c r="M33" s="182"/>
-      <c r="N33" s="182"/>
-      <c r="O33" s="184" t="e">
+      <c r="L33" s="90"/>
+      <c r="M33" s="90"/>
+      <c r="N33" s="90"/>
+      <c r="O33" s="92" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="34" spans="1:15" ht="18" customHeight="1">
-      <c r="A34" s="178">
+      <c r="A34" s="86">
         <f>Page1!A33</f>
         <v>0</v>
       </c>
-      <c r="B34" s="179">
+      <c r="B34" s="87">
         <f>Page1!B33</f>
         <v>0</v>
       </c>
-      <c r="C34" s="179">
+      <c r="C34" s="87">
         <f>Page1!C33</f>
         <v>0</v>
       </c>
-      <c r="D34" s="180"/>
-      <c r="E34" s="180"/>
-      <c r="F34" s="180"/>
-      <c r="G34" s="181" t="e">
+      <c r="D34" s="88"/>
+      <c r="E34" s="88"/>
+      <c r="F34" s="88"/>
+      <c r="G34" s="89" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H34" s="182"/>
-      <c r="I34" s="182"/>
-      <c r="J34" s="182"/>
-      <c r="K34" s="183" t="e">
+      <c r="H34" s="90"/>
+      <c r="I34" s="90"/>
+      <c r="J34" s="90"/>
+      <c r="K34" s="91" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L34" s="182"/>
-      <c r="M34" s="182"/>
-      <c r="N34" s="182"/>
-      <c r="O34" s="184" t="e">
+      <c r="L34" s="90"/>
+      <c r="M34" s="90"/>
+      <c r="N34" s="90"/>
+      <c r="O34" s="92" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="35" spans="1:15" ht="18" customHeight="1">
-      <c r="A35" s="178">
+      <c r="A35" s="86">
         <f>Page1!A34</f>
         <v>0</v>
       </c>
-      <c r="B35" s="179">
+      <c r="B35" s="87">
         <f>Page1!B34</f>
         <v>0</v>
       </c>
-      <c r="C35" s="179">
+      <c r="C35" s="87">
         <f>Page1!C34</f>
         <v>0</v>
       </c>
-      <c r="D35" s="180"/>
-      <c r="E35" s="180"/>
-      <c r="F35" s="180"/>
-      <c r="G35" s="181" t="e">
+      <c r="D35" s="88"/>
+      <c r="E35" s="88"/>
+      <c r="F35" s="88"/>
+      <c r="G35" s="89" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H35" s="182"/>
-      <c r="I35" s="182"/>
-      <c r="J35" s="182"/>
-      <c r="K35" s="183" t="e">
+      <c r="H35" s="90"/>
+      <c r="I35" s="90"/>
+      <c r="J35" s="90"/>
+      <c r="K35" s="91" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L35" s="182"/>
-      <c r="M35" s="182"/>
-      <c r="N35" s="182"/>
-      <c r="O35" s="184" t="e">
+      <c r="L35" s="90"/>
+      <c r="M35" s="90"/>
+      <c r="N35" s="90"/>
+      <c r="O35" s="92" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="36" spans="1:15" ht="18" customHeight="1">
-      <c r="A36" s="178">
+      <c r="A36" s="86">
         <f>Page1!A35</f>
         <v>0</v>
       </c>
-      <c r="B36" s="179">
+      <c r="B36" s="87">
         <f>Page1!B35</f>
         <v>0</v>
       </c>
-      <c r="C36" s="179">
+      <c r="C36" s="87">
         <f>Page1!C35</f>
         <v>0</v>
       </c>
-      <c r="D36" s="180"/>
-      <c r="E36" s="180"/>
-      <c r="F36" s="180"/>
-      <c r="G36" s="181" t="e">
+      <c r="D36" s="88"/>
+      <c r="E36" s="88"/>
+      <c r="F36" s="88"/>
+      <c r="G36" s="89" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H36" s="182"/>
-      <c r="I36" s="182"/>
-      <c r="J36" s="182"/>
-      <c r="K36" s="183" t="e">
+      <c r="H36" s="90"/>
+      <c r="I36" s="90"/>
+      <c r="J36" s="90"/>
+      <c r="K36" s="91" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L36" s="186"/>
-      <c r="M36" s="186"/>
-      <c r="N36" s="186"/>
-      <c r="O36" s="184" t="e">
+      <c r="L36" s="94"/>
+      <c r="M36" s="94"/>
+      <c r="N36" s="94"/>
+      <c r="O36" s="92" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="18" customHeight="1">
-      <c r="A37" s="178">
+      <c r="A37" s="86">
         <f>Page1!A36</f>
         <v>0</v>
       </c>
-      <c r="B37" s="179">
+      <c r="B37" s="87">
         <f>Page1!B36</f>
         <v>0</v>
       </c>
-      <c r="C37" s="179">
+      <c r="C37" s="87">
         <f>Page1!C36</f>
         <v>0</v>
       </c>
-      <c r="D37" s="180"/>
-      <c r="E37" s="180"/>
-      <c r="F37" s="180"/>
-      <c r="G37" s="181" t="e">
+      <c r="D37" s="88"/>
+      <c r="E37" s="88"/>
+      <c r="F37" s="88"/>
+      <c r="G37" s="89" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H37" s="182"/>
-      <c r="I37" s="182"/>
-      <c r="J37" s="182"/>
-      <c r="K37" s="183" t="e">
+      <c r="H37" s="90"/>
+      <c r="I37" s="90"/>
+      <c r="J37" s="90"/>
+      <c r="K37" s="91" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L37" s="182"/>
-      <c r="M37" s="182"/>
-      <c r="N37" s="182"/>
-      <c r="O37" s="184" t="e">
+      <c r="L37" s="90"/>
+      <c r="M37" s="90"/>
+      <c r="N37" s="90"/>
+      <c r="O37" s="92" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="38" spans="1:15" ht="18" customHeight="1" thickBot="1">
-      <c r="A38" s="178">
+      <c r="A38" s="86">
         <f>Page1!A37</f>
         <v>0</v>
       </c>
-      <c r="B38" s="179">
+      <c r="B38" s="87">
         <f>Page1!B37</f>
         <v>0</v>
       </c>
-      <c r="C38" s="179">
+      <c r="C38" s="87">
         <f>Page1!C37</f>
         <v>0</v>
       </c>
-      <c r="D38" s="180"/>
-      <c r="E38" s="180"/>
-      <c r="F38" s="180"/>
-      <c r="G38" s="187" t="e">
+      <c r="D38" s="88"/>
+      <c r="E38" s="88"/>
+      <c r="F38" s="88"/>
+      <c r="G38" s="95" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H38" s="182"/>
-      <c r="I38" s="182"/>
-      <c r="J38" s="182"/>
-      <c r="K38" s="188" t="e">
+      <c r="H38" s="90"/>
+      <c r="I38" s="90"/>
+      <c r="J38" s="90"/>
+      <c r="K38" s="96" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L38" s="189"/>
-      <c r="M38" s="189"/>
-      <c r="N38" s="189"/>
-      <c r="O38" s="190" t="e">
+      <c r="L38" s="97"/>
+      <c r="M38" s="97"/>
+      <c r="N38" s="97"/>
+      <c r="O38" s="98" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="39" spans="1:15" ht="18" customHeight="1">
-      <c r="A39" s="191"/>
-      <c r="B39" s="192"/>
-      <c r="C39" s="192" t="s">
+      <c r="A39" s="99"/>
+      <c r="B39" s="100"/>
+      <c r="C39" s="100" t="s">
         <v>23</v>
       </c>
-      <c r="D39" s="193" t="e">
+      <c r="D39" s="219" t="e">
         <f>AVERAGE(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E39" s="194"/>
-      <c r="F39" s="194"/>
-      <c r="G39" s="195"/>
-      <c r="H39" s="196" t="e">
+      <c r="E39" s="220"/>
+      <c r="F39" s="220"/>
+      <c r="G39" s="221"/>
+      <c r="H39" s="222" t="e">
         <f>AVERAGE(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I39" s="197"/>
-      <c r="J39" s="197"/>
-      <c r="K39" s="198"/>
-      <c r="L39" s="196" t="e">
+      <c r="I39" s="223"/>
+      <c r="J39" s="223"/>
+      <c r="K39" s="239"/>
+      <c r="L39" s="222" t="e">
         <f>AVERAGE(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M39" s="197"/>
-      <c r="N39" s="197"/>
-      <c r="O39" s="199"/>
+      <c r="M39" s="223"/>
+      <c r="N39" s="223"/>
+      <c r="O39" s="224"/>
     </row>
     <row r="40" spans="1:15" ht="18" customHeight="1">
-      <c r="A40" s="200"/>
-      <c r="B40" s="201"/>
-      <c r="C40" s="202" t="s">
+      <c r="A40" s="101"/>
+      <c r="B40" s="102"/>
+      <c r="C40" s="103" t="s">
         <v>24</v>
       </c>
-      <c r="D40" s="203" t="e">
+      <c r="D40" s="200" t="e">
         <f>MIN(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E40" s="204"/>
-      <c r="F40" s="204"/>
-      <c r="G40" s="205"/>
-      <c r="H40" s="206" t="e">
+      <c r="E40" s="201"/>
+      <c r="F40" s="201"/>
+      <c r="G40" s="202"/>
+      <c r="H40" s="226" t="e">
         <f>MIN(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I40" s="207"/>
-      <c r="J40" s="207"/>
-      <c r="K40" s="208"/>
-      <c r="L40" s="206" t="e">
+      <c r="I40" s="227"/>
+      <c r="J40" s="227"/>
+      <c r="K40" s="228"/>
+      <c r="L40" s="226" t="e">
         <f>MIN(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M40" s="207"/>
-      <c r="N40" s="207"/>
-      <c r="O40" s="209"/>
+      <c r="M40" s="227"/>
+      <c r="N40" s="227"/>
+      <c r="O40" s="229"/>
     </row>
     <row r="41" spans="1:15" ht="18" customHeight="1" thickBot="1">
-      <c r="A41" s="210"/>
-      <c r="B41" s="211"/>
-      <c r="C41" s="212" t="s">
+      <c r="A41" s="104"/>
+      <c r="B41" s="105"/>
+      <c r="C41" s="106" t="s">
         <v>25</v>
       </c>
-      <c r="D41" s="213" t="e">
+      <c r="D41" s="241" t="e">
         <f>MAX(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E41" s="214"/>
-      <c r="F41" s="214"/>
-      <c r="G41" s="215"/>
-      <c r="H41" s="216" t="e">
+      <c r="E41" s="242"/>
+      <c r="F41" s="242"/>
+      <c r="G41" s="243"/>
+      <c r="H41" s="203" t="e">
         <f>MAX(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I41" s="217"/>
-      <c r="J41" s="217"/>
-      <c r="K41" s="218"/>
-      <c r="L41" s="216" t="e">
+      <c r="I41" s="204"/>
+      <c r="J41" s="204"/>
+      <c r="K41" s="205"/>
+      <c r="L41" s="203" t="e">
         <f>MAX(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M41" s="217"/>
-      <c r="N41" s="217"/>
-      <c r="O41" s="219"/>
-    </row>
-    <row r="42" spans="1:15" s="44" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A42" s="123" t="s">
+      <c r="M41" s="204"/>
+      <c r="N41" s="204"/>
+      <c r="O41" s="240"/>
+    </row>
+    <row r="42" spans="1:15" s="42" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A42" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="B42" s="124"/>
-      <c r="C42" s="124"/>
-      <c r="D42" s="125" t="s">
+      <c r="B42" s="191"/>
+      <c r="C42" s="191"/>
+      <c r="D42" s="192" t="s">
         <v>13</v>
       </c>
-      <c r="E42" s="125"/>
-      <c r="F42" s="126"/>
-      <c r="G42" s="127"/>
-      <c r="H42" s="127"/>
-      <c r="I42" s="127"/>
-      <c r="J42" s="127"/>
-      <c r="K42" s="220" t="s">
+      <c r="E42" s="192"/>
+      <c r="F42" s="67"/>
+      <c r="G42" s="68"/>
+      <c r="H42" s="68"/>
+      <c r="I42" s="68"/>
+      <c r="J42" s="68"/>
+      <c r="K42" s="107"/>
+      <c r="L42" s="127" t="s">
         <v>14</v>
       </c>
-      <c r="L42" s="221"/>
-      <c r="M42" s="221"/>
-      <c r="N42" s="221"/>
-      <c r="O42" s="123" t="s">
+      <c r="M42" s="232"/>
+      <c r="N42" s="232"/>
+      <c r="O42" s="66" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:15" s="44" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A43" s="123"/>
-      <c r="B43" s="130"/>
-      <c r="C43" s="130"/>
-      <c r="D43" s="48"/>
-      <c r="E43" s="48"/>
-      <c r="F43" s="123"/>
-      <c r="G43" s="127"/>
-      <c r="H43" s="127"/>
-      <c r="I43" s="127"/>
-      <c r="J43" s="127"/>
-      <c r="K43" s="131"/>
-      <c r="L43" s="129"/>
-      <c r="M43" s="129"/>
-      <c r="N43" s="129"/>
-      <c r="O43" s="131"/>
-    </row>
-    <row r="44" spans="1:15" s="134" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A44" s="132" t="s">
+    <row r="43" spans="1:15" s="42" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A43" s="66"/>
+      <c r="B43" s="174"/>
+      <c r="C43" s="174"/>
+      <c r="D43" s="44"/>
+      <c r="E43" s="44"/>
+      <c r="F43" s="66"/>
+      <c r="G43" s="68"/>
+      <c r="H43" s="68"/>
+      <c r="I43" s="68"/>
+      <c r="J43" s="68"/>
+      <c r="K43" s="69"/>
+      <c r="L43" s="266"/>
+      <c r="M43" s="157"/>
+      <c r="N43" s="157"/>
+      <c r="O43" s="69"/>
+    </row>
+    <row r="44" spans="1:15" s="72" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A44" s="172" t="s">
         <v>12</v>
       </c>
-      <c r="B44" s="132"/>
-      <c r="C44" s="132"/>
-      <c r="D44" s="133"/>
-      <c r="E44" s="133"/>
-      <c r="F44" s="133"/>
-      <c r="G44" s="47" t="s">
+      <c r="B44" s="172"/>
+      <c r="C44" s="172"/>
+      <c r="D44" s="71"/>
+      <c r="E44" s="71"/>
+      <c r="F44" s="71"/>
+      <c r="G44" s="43" t="s">
         <v>112</v>
       </c>
-      <c r="H44" s="132" t="s">
+      <c r="H44" s="172" t="s">
         <v>121</v>
       </c>
-      <c r="I44" s="132"/>
-      <c r="J44" s="132"/>
-      <c r="K44" s="132"/>
-      <c r="L44" s="133"/>
-      <c r="M44" s="133"/>
-      <c r="N44" s="133"/>
-      <c r="O44" s="133"/>
-    </row>
-    <row r="45" spans="1:15" s="44" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A45" s="135" t="s">
+      <c r="I44" s="172"/>
+      <c r="J44" s="172"/>
+      <c r="K44" s="172"/>
+      <c r="L44" s="71"/>
+      <c r="M44" s="71"/>
+      <c r="N44" s="71"/>
+      <c r="O44" s="71"/>
+    </row>
+    <row r="45" spans="1:15" s="42" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A45" s="173" t="s">
         <v>21</v>
       </c>
-      <c r="B45" s="135"/>
-      <c r="C45" s="136"/>
-      <c r="D45" s="127"/>
-      <c r="E45" s="127"/>
-      <c r="F45" s="127"/>
-      <c r="G45" s="127"/>
-      <c r="H45" s="127"/>
-      <c r="I45" s="127"/>
-      <c r="J45" s="127"/>
-      <c r="K45" s="127"/>
-      <c r="L45" s="127"/>
-      <c r="M45" s="222" t="s">
+      <c r="B45" s="173"/>
+      <c r="C45" s="73"/>
+      <c r="D45" s="68"/>
+      <c r="E45" s="68"/>
+      <c r="F45" s="68"/>
+      <c r="G45" s="68"/>
+      <c r="H45" s="68"/>
+      <c r="I45" s="68"/>
+      <c r="J45" s="68"/>
+      <c r="K45" s="68"/>
+      <c r="L45" s="68"/>
+      <c r="M45" s="231" t="s">
         <v>110</v>
       </c>
-      <c r="N45" s="222"/>
-      <c r="O45" s="127"/>
-    </row>
-    <row r="56" s="185" customFormat="1"/>
-    <row r="57" s="185" customFormat="1"/>
-    <row r="58" s="185" customFormat="1"/>
-    <row r="59" s="185" customFormat="1"/>
-    <row r="60" s="185" customFormat="1"/>
-    <row r="61" s="185" customFormat="1"/>
-    <row r="62" s="185" customFormat="1"/>
-    <row r="63" s="185" customFormat="1"/>
-    <row r="64" s="185" customFormat="1"/>
-    <row r="65" s="185" customFormat="1"/>
-    <row r="66" s="185" customFormat="1"/>
-    <row r="67" s="185" customFormat="1"/>
-    <row r="68" s="185" customFormat="1"/>
-    <row r="69" s="185" customFormat="1"/>
-    <row r="70" s="185" customFormat="1"/>
+      <c r="N45" s="231"/>
+      <c r="O45" s="68"/>
+    </row>
+    <row r="56" s="93" customFormat="1"/>
+    <row r="57" s="93" customFormat="1"/>
+    <row r="58" s="93" customFormat="1"/>
+    <row r="59" s="93" customFormat="1"/>
+    <row r="60" s="93" customFormat="1"/>
+    <row r="61" s="93" customFormat="1"/>
+    <row r="62" s="93" customFormat="1"/>
+    <row r="63" s="93" customFormat="1"/>
+    <row r="64" s="93" customFormat="1"/>
+    <row r="65" s="93" customFormat="1"/>
+    <row r="66" s="93" customFormat="1"/>
+    <row r="67" s="93" customFormat="1"/>
+    <row r="68" s="93" customFormat="1"/>
+    <row r="69" s="93" customFormat="1"/>
+    <row r="70" s="93" customFormat="1"/>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="L41:O41"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="L39:O39"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="L40:O40"/>
+    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="D6:O6"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="A7:C8"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="N1:O1"/>
     <mergeCell ref="A2:M3"/>
     <mergeCell ref="N2:O2"/>
     <mergeCell ref="L4:M4"/>
     <mergeCell ref="N4:O4"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="H41:K41"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="H7:K7"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="J4:K4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="D6:O6"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="L39:O39"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="H40:K40"/>
-    <mergeCell ref="L40:O40"/>
-    <mergeCell ref="L7:O7"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="H44:K44"/>
-    <mergeCell ref="L42:N42"/>
-    <mergeCell ref="L43:N43"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="A7:C8"/>
-    <mergeCell ref="H39:K39"/>
-    <mergeCell ref="L41:O41"/>
-    <mergeCell ref="D41:G41"/>
   </mergeCells>
   <conditionalFormatting sqref="D9:G41">
     <cfRule type="cellIs" dxfId="8" priority="3" operator="lessThan">
@@ -10475,7 +10487,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A42 O42 D42:E42 K42" xr:uid="{45ABDD73-FBE0-4C03-84A2-918E737F5E13}">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A42 O42 D42:E42 K42:L42" xr:uid="{45ABDD73-FBE0-4C03-84A2-918E737F5E13}">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -10493,1464 +10505,1488 @@
   <dimension ref="A1:O45"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="3" width="14" style="185" customWidth="1"/>
-    <col min="4" max="15" width="14.28515625" style="185" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="185"/>
+    <col min="1" max="3" width="14" style="93" customWidth="1"/>
+    <col min="4" max="15" width="14.28515625" style="93" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="93"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="141" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A1" s="140" t="s">
+    <row r="1" spans="1:15" s="76" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A1" s="193" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="140"/>
-      <c r="C1" s="140"/>
-      <c r="D1" s="140"/>
-      <c r="E1" s="140"/>
-      <c r="F1" s="140"/>
-      <c r="G1" s="140"/>
-      <c r="H1" s="140"/>
-      <c r="I1" s="140"/>
-      <c r="J1" s="140"/>
-      <c r="K1" s="140"/>
-      <c r="L1" s="140"/>
-      <c r="M1" s="140"/>
-      <c r="N1" s="43" t="s">
+      <c r="B1" s="193"/>
+      <c r="C1" s="193"/>
+      <c r="D1" s="193"/>
+      <c r="E1" s="193"/>
+      <c r="F1" s="193"/>
+      <c r="G1" s="193"/>
+      <c r="H1" s="193"/>
+      <c r="I1" s="193"/>
+      <c r="J1" s="193"/>
+      <c r="K1" s="193"/>
+      <c r="L1" s="193"/>
+      <c r="M1" s="193"/>
+      <c r="N1" s="145" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="43"/>
-    </row>
-    <row r="2" spans="1:15" s="141" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A2" s="142" t="s">
+      <c r="O1" s="145"/>
+    </row>
+    <row r="2" spans="1:15" s="76" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A2" s="194" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="142"/>
-      <c r="C2" s="142"/>
-      <c r="D2" s="142"/>
-      <c r="E2" s="142"/>
-      <c r="F2" s="142"/>
-      <c r="G2" s="142"/>
-      <c r="H2" s="142"/>
-      <c r="I2" s="142"/>
-      <c r="J2" s="142"/>
-      <c r="K2" s="142"/>
-      <c r="L2" s="142"/>
-      <c r="M2" s="142"/>
-      <c r="N2" s="46" t="s">
+      <c r="B2" s="194"/>
+      <c r="C2" s="194"/>
+      <c r="D2" s="194"/>
+      <c r="E2" s="194"/>
+      <c r="F2" s="194"/>
+      <c r="G2" s="194"/>
+      <c r="H2" s="194"/>
+      <c r="I2" s="194"/>
+      <c r="J2" s="194"/>
+      <c r="K2" s="194"/>
+      <c r="L2" s="194"/>
+      <c r="M2" s="194"/>
+      <c r="N2" s="146" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="46"/>
-    </row>
-    <row r="3" spans="1:15" s="141" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="142"/>
-      <c r="B3" s="142"/>
-      <c r="C3" s="142"/>
-      <c r="D3" s="142"/>
-      <c r="E3" s="142"/>
-      <c r="F3" s="142"/>
-      <c r="G3" s="142"/>
-      <c r="H3" s="142"/>
-      <c r="I3" s="142"/>
-      <c r="J3" s="142"/>
-      <c r="K3" s="142"/>
-      <c r="L3" s="142"/>
-      <c r="M3" s="142"/>
-      <c r="N3" s="47" t="s">
+      <c r="O2" s="146"/>
+    </row>
+    <row r="3" spans="1:15" s="76" customFormat="1" ht="16.5" thickBot="1">
+      <c r="A3" s="194"/>
+      <c r="B3" s="194"/>
+      <c r="C3" s="194"/>
+      <c r="D3" s="194"/>
+      <c r="E3" s="194"/>
+      <c r="F3" s="194"/>
+      <c r="G3" s="194"/>
+      <c r="H3" s="194"/>
+      <c r="I3" s="194"/>
+      <c r="J3" s="194"/>
+      <c r="K3" s="194"/>
+      <c r="L3" s="194"/>
+      <c r="M3" s="194"/>
+      <c r="N3" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="O3" s="48"/>
-    </row>
-    <row r="4" spans="1:15" s="153" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A4" s="143" t="s">
+      <c r="O3" s="44"/>
+    </row>
+    <row r="4" spans="1:15" s="79" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A4" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="144">
+      <c r="B4" s="196">
         <f>Page1!B4</f>
         <v>0</v>
       </c>
-      <c r="C4" s="145"/>
-      <c r="D4" s="146"/>
-      <c r="E4" s="147" t="s">
+      <c r="C4" s="210"/>
+      <c r="D4" s="211"/>
+      <c r="E4" s="212" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="148"/>
-      <c r="G4" s="144">
+      <c r="F4" s="213"/>
+      <c r="G4" s="196">
         <f>Page1!G4</f>
         <v>0</v>
       </c>
-      <c r="H4" s="146"/>
-      <c r="I4" s="149" t="s">
+      <c r="H4" s="211"/>
+      <c r="I4" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="150">
+      <c r="J4" s="214">
         <f>Page1!J4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="150"/>
-      <c r="L4" s="151" t="s">
+      <c r="K4" s="214"/>
+      <c r="L4" s="195" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="151">
+      <c r="M4" s="195">
         <f>Page1!N4</f>
         <v>0</v>
       </c>
-      <c r="N4" s="144">
+      <c r="N4" s="196">
         <f>Page1!N4</f>
         <v>0</v>
       </c>
-      <c r="O4" s="152"/>
-    </row>
-    <row r="5" spans="1:15" s="153" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
-      <c r="A5" s="154" t="s">
+      <c r="O4" s="197"/>
+    </row>
+    <row r="5" spans="1:15" s="79" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+      <c r="A5" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="70">
+      <c r="B5" s="140">
         <f>Page1!B5</f>
         <v>0</v>
       </c>
-      <c r="C5" s="155"/>
-      <c r="D5" s="71"/>
-      <c r="E5" s="156" t="s">
+      <c r="C5" s="215"/>
+      <c r="D5" s="152"/>
+      <c r="E5" s="216" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="157"/>
-      <c r="G5" s="70">
+      <c r="F5" s="217"/>
+      <c r="G5" s="140">
         <f>Page1!G5</f>
         <v>0</v>
       </c>
-      <c r="H5" s="71"/>
-      <c r="I5" s="158" t="s">
+      <c r="H5" s="152"/>
+      <c r="I5" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="69">
+      <c r="J5" s="139">
         <f>Page1!J5</f>
         <v>0</v>
       </c>
-      <c r="K5" s="69"/>
-      <c r="L5" s="159" t="s">
+      <c r="K5" s="139"/>
+      <c r="L5" s="225" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="159">
+      <c r="M5" s="225">
         <f>Page1!N5</f>
         <v>0</v>
       </c>
-      <c r="N5" s="70">
+      <c r="N5" s="140">
         <f>Page1!N5</f>
         <v>0</v>
       </c>
-      <c r="O5" s="74"/>
-    </row>
-    <row r="6" spans="1:15" s="163" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A6" s="160" t="s">
+      <c r="O5" s="154"/>
+    </row>
+    <row r="6" spans="1:15" s="82" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A6" s="198" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="161"/>
-      <c r="C6" s="161"/>
-      <c r="D6" s="161"/>
-      <c r="E6" s="161"/>
-      <c r="F6" s="161"/>
-      <c r="G6" s="161"/>
-      <c r="H6" s="161"/>
-      <c r="I6" s="161"/>
-      <c r="J6" s="161"/>
-      <c r="K6" s="161"/>
-      <c r="L6" s="161"/>
-      <c r="M6" s="161"/>
-      <c r="N6" s="161"/>
-      <c r="O6" s="162"/>
-    </row>
-    <row r="7" spans="1:15" s="163" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A7" s="164" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="165"/>
-      <c r="C7" s="166"/>
-      <c r="D7" s="167" t="s">
+      <c r="B6" s="199"/>
+      <c r="C6" s="199"/>
+      <c r="D6" s="199"/>
+      <c r="E6" s="199"/>
+      <c r="F6" s="199"/>
+      <c r="G6" s="199"/>
+      <c r="H6" s="199"/>
+      <c r="I6" s="199"/>
+      <c r="J6" s="199"/>
+      <c r="K6" s="199"/>
+      <c r="L6" s="199"/>
+      <c r="M6" s="199"/>
+      <c r="N6" s="199"/>
+      <c r="O6" s="218"/>
+    </row>
+    <row r="7" spans="1:15" s="82" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A7" s="233" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="234"/>
+      <c r="C7" s="235"/>
+      <c r="D7" s="206" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="167"/>
-      <c r="F7" s="167"/>
-      <c r="G7" s="167"/>
-      <c r="H7" s="168" t="s">
+      <c r="E7" s="206"/>
+      <c r="F7" s="206"/>
+      <c r="G7" s="206"/>
+      <c r="H7" s="207" t="s">
         <v>118</v>
       </c>
-      <c r="I7" s="169"/>
-      <c r="J7" s="169"/>
-      <c r="K7" s="170"/>
-      <c r="L7" s="168" t="s">
+      <c r="I7" s="208"/>
+      <c r="J7" s="208"/>
+      <c r="K7" s="209"/>
+      <c r="L7" s="207" t="s">
         <v>29</v>
       </c>
-      <c r="M7" s="169"/>
-      <c r="N7" s="169"/>
-      <c r="O7" s="171"/>
-    </row>
-    <row r="8" spans="1:15" s="163" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A8" s="172"/>
-      <c r="B8" s="173"/>
-      <c r="C8" s="174"/>
-      <c r="D8" s="175">
+      <c r="M7" s="208"/>
+      <c r="N7" s="208"/>
+      <c r="O7" s="230"/>
+    </row>
+    <row r="8" spans="1:15" s="82" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A8" s="236"/>
+      <c r="B8" s="237"/>
+      <c r="C8" s="238"/>
+      <c r="D8" s="83">
         <v>1</v>
       </c>
-      <c r="E8" s="175">
+      <c r="E8" s="83">
         <v>2</v>
       </c>
-      <c r="F8" s="175">
+      <c r="F8" s="83">
         <v>3</v>
       </c>
-      <c r="G8" s="175" t="s">
+      <c r="G8" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="176">
+      <c r="H8" s="84">
         <v>1</v>
       </c>
-      <c r="I8" s="175">
+      <c r="I8" s="83">
         <v>2</v>
       </c>
-      <c r="J8" s="175">
+      <c r="J8" s="83">
         <v>3</v>
       </c>
-      <c r="K8" s="175" t="s">
+      <c r="K8" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="L8" s="175">
+      <c r="L8" s="83">
         <v>1</v>
       </c>
-      <c r="M8" s="175">
+      <c r="M8" s="83">
         <v>2</v>
       </c>
-      <c r="N8" s="175">
+      <c r="N8" s="83">
         <v>3</v>
       </c>
-      <c r="O8" s="177" t="s">
+      <c r="O8" s="85" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="18" customHeight="1">
-      <c r="A9" s="178">
+      <c r="A9" s="86">
         <f>Page1!A8</f>
         <v>0</v>
       </c>
-      <c r="B9" s="179">
+      <c r="B9" s="87">
         <f>Page1!B8</f>
         <v>0</v>
       </c>
-      <c r="C9" s="179">
+      <c r="C9" s="87">
         <f>Page1!C8</f>
         <v>0</v>
       </c>
-      <c r="D9" s="180"/>
-      <c r="E9" s="180"/>
-      <c r="F9" s="180"/>
-      <c r="G9" s="181" t="e">
+      <c r="D9" s="88"/>
+      <c r="E9" s="88"/>
+      <c r="F9" s="88"/>
+      <c r="G9" s="89" t="e">
         <f>AVERAGE(D9:F9)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H9" s="182"/>
-      <c r="I9" s="182"/>
-      <c r="J9" s="182"/>
-      <c r="K9" s="183" t="e">
+      <c r="H9" s="90"/>
+      <c r="I9" s="90"/>
+      <c r="J9" s="90"/>
+      <c r="K9" s="91" t="e">
         <f>AVERAGE(H9:J9)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L9" s="182"/>
-      <c r="M9" s="182"/>
-      <c r="N9" s="182"/>
-      <c r="O9" s="184" t="e">
+      <c r="L9" s="90"/>
+      <c r="M9" s="90"/>
+      <c r="N9" s="90"/>
+      <c r="O9" s="92" t="e">
         <f>AVERAGE(L9:N9)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="18" customHeight="1">
-      <c r="A10" s="178">
+      <c r="A10" s="86">
         <f>Page1!A9</f>
         <v>0</v>
       </c>
-      <c r="B10" s="179">
+      <c r="B10" s="87">
         <f>Page1!B9</f>
         <v>0</v>
       </c>
-      <c r="C10" s="179">
+      <c r="C10" s="87">
         <f>Page1!C9</f>
         <v>0</v>
       </c>
-      <c r="D10" s="180"/>
-      <c r="E10" s="180"/>
-      <c r="F10" s="180"/>
-      <c r="G10" s="181" t="e">
+      <c r="D10" s="88"/>
+      <c r="E10" s="88"/>
+      <c r="F10" s="88"/>
+      <c r="G10" s="89" t="e">
         <f t="shared" ref="G10:G38" si="0">AVERAGE(D10:F10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H10" s="182"/>
-      <c r="I10" s="182"/>
-      <c r="J10" s="182"/>
-      <c r="K10" s="183" t="e">
+      <c r="H10" s="90"/>
+      <c r="I10" s="90"/>
+      <c r="J10" s="90"/>
+      <c r="K10" s="91" t="e">
         <f t="shared" ref="K10:K38" si="1">AVERAGE(H10:J10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L10" s="186"/>
-      <c r="M10" s="186"/>
-      <c r="N10" s="186"/>
-      <c r="O10" s="184" t="e">
+      <c r="L10" s="94"/>
+      <c r="M10" s="94"/>
+      <c r="N10" s="94"/>
+      <c r="O10" s="92" t="e">
         <f t="shared" ref="O10:O38" si="2">AVERAGE(L10:N10)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="18" customHeight="1">
-      <c r="A11" s="178">
+      <c r="A11" s="86">
         <f>Page1!A10</f>
         <v>0</v>
       </c>
-      <c r="B11" s="179">
+      <c r="B11" s="87">
         <f>Page1!B10</f>
         <v>0</v>
       </c>
-      <c r="C11" s="179">
+      <c r="C11" s="87">
         <f>Page1!C10</f>
         <v>0</v>
       </c>
-      <c r="D11" s="180"/>
-      <c r="E11" s="180"/>
-      <c r="F11" s="180"/>
-      <c r="G11" s="181" t="e">
+      <c r="D11" s="88"/>
+      <c r="E11" s="88"/>
+      <c r="F11" s="88"/>
+      <c r="G11" s="89" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H11" s="182"/>
-      <c r="I11" s="182"/>
-      <c r="J11" s="182"/>
-      <c r="K11" s="183" t="e">
+      <c r="H11" s="90"/>
+      <c r="I11" s="90"/>
+      <c r="J11" s="90"/>
+      <c r="K11" s="91" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L11" s="182"/>
-      <c r="M11" s="182"/>
-      <c r="N11" s="182"/>
-      <c r="O11" s="184" t="e">
+      <c r="L11" s="90"/>
+      <c r="M11" s="90"/>
+      <c r="N11" s="90"/>
+      <c r="O11" s="92" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="18" customHeight="1">
-      <c r="A12" s="178">
+      <c r="A12" s="86">
         <f>Page1!A11</f>
         <v>0</v>
       </c>
-      <c r="B12" s="179">
+      <c r="B12" s="87">
         <f>Page1!B11</f>
         <v>0</v>
       </c>
-      <c r="C12" s="179">
+      <c r="C12" s="87">
         <f>Page1!C11</f>
         <v>0</v>
       </c>
-      <c r="D12" s="180"/>
-      <c r="E12" s="180"/>
-      <c r="F12" s="180"/>
-      <c r="G12" s="181" t="e">
+      <c r="D12" s="88"/>
+      <c r="E12" s="88"/>
+      <c r="F12" s="88"/>
+      <c r="G12" s="89" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H12" s="182"/>
-      <c r="I12" s="182"/>
-      <c r="J12" s="182"/>
-      <c r="K12" s="183" t="e">
+      <c r="H12" s="90"/>
+      <c r="I12" s="90"/>
+      <c r="J12" s="90"/>
+      <c r="K12" s="91" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L12" s="182"/>
-      <c r="M12" s="182"/>
-      <c r="N12" s="182"/>
-      <c r="O12" s="184" t="e">
+      <c r="L12" s="90"/>
+      <c r="M12" s="90"/>
+      <c r="N12" s="90"/>
+      <c r="O12" s="92" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="18" customHeight="1">
-      <c r="A13" s="178">
+      <c r="A13" s="86">
         <f>Page1!A12</f>
         <v>0</v>
       </c>
-      <c r="B13" s="179">
+      <c r="B13" s="87">
         <f>Page1!B12</f>
         <v>0</v>
       </c>
-      <c r="C13" s="179">
+      <c r="C13" s="87">
         <f>Page1!C12</f>
         <v>0</v>
       </c>
-      <c r="D13" s="180"/>
-      <c r="E13" s="180"/>
-      <c r="F13" s="180"/>
-      <c r="G13" s="181" t="e">
+      <c r="D13" s="88"/>
+      <c r="E13" s="88"/>
+      <c r="F13" s="88"/>
+      <c r="G13" s="89" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H13" s="182"/>
-      <c r="I13" s="182"/>
-      <c r="J13" s="182"/>
-      <c r="K13" s="183" t="e">
+      <c r="H13" s="90"/>
+      <c r="I13" s="90"/>
+      <c r="J13" s="90"/>
+      <c r="K13" s="91" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L13" s="186"/>
-      <c r="M13" s="186"/>
-      <c r="N13" s="186"/>
-      <c r="O13" s="184" t="e">
+      <c r="L13" s="94"/>
+      <c r="M13" s="94"/>
+      <c r="N13" s="94"/>
+      <c r="O13" s="92" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="18" customHeight="1">
-      <c r="A14" s="178">
+      <c r="A14" s="86">
         <f>Page1!A13</f>
         <v>0</v>
       </c>
-      <c r="B14" s="179">
+      <c r="B14" s="87">
         <f>Page1!B13</f>
         <v>0</v>
       </c>
-      <c r="C14" s="179">
+      <c r="C14" s="87">
         <f>Page1!C13</f>
         <v>0</v>
       </c>
-      <c r="D14" s="180"/>
-      <c r="E14" s="180"/>
-      <c r="F14" s="180"/>
-      <c r="G14" s="181" t="e">
+      <c r="D14" s="88"/>
+      <c r="E14" s="88"/>
+      <c r="F14" s="88"/>
+      <c r="G14" s="89" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H14" s="182"/>
-      <c r="I14" s="182"/>
-      <c r="J14" s="182"/>
-      <c r="K14" s="183" t="e">
+      <c r="H14" s="90"/>
+      <c r="I14" s="90"/>
+      <c r="J14" s="90"/>
+      <c r="K14" s="91" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L14" s="182"/>
-      <c r="M14" s="182"/>
-      <c r="N14" s="182"/>
-      <c r="O14" s="184" t="e">
+      <c r="L14" s="90"/>
+      <c r="M14" s="90"/>
+      <c r="N14" s="90"/>
+      <c r="O14" s="92" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="18" customHeight="1">
-      <c r="A15" s="178">
+      <c r="A15" s="86">
         <f>Page1!A14</f>
         <v>0</v>
       </c>
-      <c r="B15" s="179">
+      <c r="B15" s="87">
         <f>Page1!B14</f>
         <v>0</v>
       </c>
-      <c r="C15" s="179">
+      <c r="C15" s="87">
         <f>Page1!C14</f>
         <v>0</v>
       </c>
-      <c r="D15" s="180"/>
-      <c r="E15" s="180"/>
-      <c r="F15" s="180"/>
-      <c r="G15" s="181" t="e">
+      <c r="D15" s="88"/>
+      <c r="E15" s="88"/>
+      <c r="F15" s="88"/>
+      <c r="G15" s="89" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H15" s="182"/>
-      <c r="I15" s="182"/>
-      <c r="J15" s="182"/>
-      <c r="K15" s="183" t="e">
+      <c r="H15" s="90"/>
+      <c r="I15" s="90"/>
+      <c r="J15" s="90"/>
+      <c r="K15" s="91" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L15" s="182"/>
-      <c r="M15" s="182"/>
-      <c r="N15" s="182"/>
-      <c r="O15" s="184" t="e">
+      <c r="L15" s="90"/>
+      <c r="M15" s="90"/>
+      <c r="N15" s="90"/>
+      <c r="O15" s="92" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="18" customHeight="1">
-      <c r="A16" s="178">
+      <c r="A16" s="86">
         <f>Page1!A15</f>
         <v>0</v>
       </c>
-      <c r="B16" s="179">
+      <c r="B16" s="87">
         <f>Page1!B15</f>
         <v>0</v>
       </c>
-      <c r="C16" s="179">
+      <c r="C16" s="87">
         <f>Page1!C15</f>
         <v>0</v>
       </c>
-      <c r="D16" s="180"/>
-      <c r="E16" s="180"/>
-      <c r="F16" s="180"/>
-      <c r="G16" s="181" t="e">
+      <c r="D16" s="88"/>
+      <c r="E16" s="88"/>
+      <c r="F16" s="88"/>
+      <c r="G16" s="89" t="e">
         <f>AVERAGE(D16:F16)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H16" s="182"/>
-      <c r="I16" s="182"/>
-      <c r="J16" s="182"/>
-      <c r="K16" s="183" t="e">
+      <c r="H16" s="90"/>
+      <c r="I16" s="90"/>
+      <c r="J16" s="90"/>
+      <c r="K16" s="91" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L16" s="182"/>
-      <c r="M16" s="182"/>
-      <c r="N16" s="182"/>
-      <c r="O16" s="184" t="e">
+      <c r="L16" s="90"/>
+      <c r="M16" s="90"/>
+      <c r="N16" s="90"/>
+      <c r="O16" s="92" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="18" customHeight="1">
-      <c r="A17" s="178">
+      <c r="A17" s="86">
         <f>Page1!A16</f>
         <v>0</v>
       </c>
-      <c r="B17" s="179">
+      <c r="B17" s="87">
         <f>Page1!B16</f>
         <v>0</v>
       </c>
-      <c r="C17" s="179">
+      <c r="C17" s="87">
         <f>Page1!C16</f>
         <v>0</v>
       </c>
-      <c r="D17" s="180"/>
-      <c r="E17" s="180"/>
-      <c r="F17" s="180"/>
-      <c r="G17" s="181" t="e">
+      <c r="D17" s="88"/>
+      <c r="E17" s="88"/>
+      <c r="F17" s="88"/>
+      <c r="G17" s="89" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H17" s="182"/>
-      <c r="I17" s="182"/>
-      <c r="J17" s="182"/>
-      <c r="K17" s="183" t="e">
+      <c r="H17" s="90"/>
+      <c r="I17" s="90"/>
+      <c r="J17" s="90"/>
+      <c r="K17" s="91" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L17" s="182"/>
-      <c r="M17" s="182"/>
-      <c r="N17" s="182"/>
-      <c r="O17" s="184" t="e">
+      <c r="L17" s="90"/>
+      <c r="M17" s="90"/>
+      <c r="N17" s="90"/>
+      <c r="O17" s="92" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="18" customHeight="1">
-      <c r="A18" s="178">
+      <c r="A18" s="86">
         <f>Page1!A17</f>
         <v>0</v>
       </c>
-      <c r="B18" s="179">
+      <c r="B18" s="87">
         <f>Page1!B17</f>
         <v>0</v>
       </c>
-      <c r="C18" s="179">
+      <c r="C18" s="87">
         <f>Page1!C17</f>
         <v>0</v>
       </c>
-      <c r="D18" s="180"/>
-      <c r="E18" s="180"/>
-      <c r="F18" s="180"/>
-      <c r="G18" s="181" t="e">
+      <c r="D18" s="88"/>
+      <c r="E18" s="88"/>
+      <c r="F18" s="88"/>
+      <c r="G18" s="89" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H18" s="182"/>
-      <c r="I18" s="182"/>
-      <c r="J18" s="182"/>
-      <c r="K18" s="183" t="e">
+      <c r="H18" s="90"/>
+      <c r="I18" s="90"/>
+      <c r="J18" s="90"/>
+      <c r="K18" s="91" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L18" s="182"/>
-      <c r="M18" s="182"/>
-      <c r="N18" s="182"/>
-      <c r="O18" s="184" t="e">
+      <c r="L18" s="90"/>
+      <c r="M18" s="90"/>
+      <c r="N18" s="90"/>
+      <c r="O18" s="92" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="18" customHeight="1">
-      <c r="A19" s="178">
+      <c r="A19" s="86">
         <f>Page1!A18</f>
         <v>0</v>
       </c>
-      <c r="B19" s="179">
+      <c r="B19" s="87">
         <f>Page1!B18</f>
         <v>0</v>
       </c>
-      <c r="C19" s="179">
+      <c r="C19" s="87">
         <f>Page1!C18</f>
         <v>0</v>
       </c>
-      <c r="D19" s="180"/>
-      <c r="E19" s="180"/>
-      <c r="F19" s="180"/>
-      <c r="G19" s="181" t="e">
+      <c r="D19" s="88"/>
+      <c r="E19" s="88"/>
+      <c r="F19" s="88"/>
+      <c r="G19" s="89" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H19" s="182"/>
-      <c r="I19" s="182"/>
-      <c r="J19" s="182"/>
-      <c r="K19" s="183" t="e">
+      <c r="H19" s="90"/>
+      <c r="I19" s="90"/>
+      <c r="J19" s="90"/>
+      <c r="K19" s="91" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L19" s="182"/>
-      <c r="M19" s="182"/>
-      <c r="N19" s="182"/>
-      <c r="O19" s="184" t="e">
+      <c r="L19" s="90"/>
+      <c r="M19" s="90"/>
+      <c r="N19" s="90"/>
+      <c r="O19" s="92" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="18" customHeight="1">
-      <c r="A20" s="178">
+      <c r="A20" s="86">
         <f>Page1!A19</f>
         <v>0</v>
       </c>
-      <c r="B20" s="179">
+      <c r="B20" s="87">
         <f>Page1!B19</f>
         <v>0</v>
       </c>
-      <c r="C20" s="179">
+      <c r="C20" s="87">
         <f>Page1!C19</f>
         <v>0</v>
       </c>
-      <c r="D20" s="180"/>
-      <c r="E20" s="180"/>
-      <c r="F20" s="180"/>
-      <c r="G20" s="181" t="e">
+      <c r="D20" s="88"/>
+      <c r="E20" s="88"/>
+      <c r="F20" s="88"/>
+      <c r="G20" s="89" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H20" s="182"/>
-      <c r="I20" s="182"/>
-      <c r="J20" s="182"/>
-      <c r="K20" s="183" t="e">
+      <c r="H20" s="90"/>
+      <c r="I20" s="90"/>
+      <c r="J20" s="90"/>
+      <c r="K20" s="91" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L20" s="182"/>
-      <c r="M20" s="182"/>
-      <c r="N20" s="182"/>
-      <c r="O20" s="184" t="e">
+      <c r="L20" s="90"/>
+      <c r="M20" s="90"/>
+      <c r="N20" s="90"/>
+      <c r="O20" s="92" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="18" customHeight="1">
-      <c r="A21" s="178">
+      <c r="A21" s="86">
         <f>Page1!A20</f>
         <v>0</v>
       </c>
-      <c r="B21" s="179">
+      <c r="B21" s="87">
         <f>Page1!B20</f>
         <v>0</v>
       </c>
-      <c r="C21" s="179">
+      <c r="C21" s="87">
         <f>Page1!C20</f>
         <v>0</v>
       </c>
-      <c r="D21" s="180"/>
-      <c r="E21" s="180"/>
-      <c r="F21" s="180"/>
-      <c r="G21" s="181" t="e">
+      <c r="D21" s="88"/>
+      <c r="E21" s="88"/>
+      <c r="F21" s="88"/>
+      <c r="G21" s="89" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H21" s="182"/>
-      <c r="I21" s="182"/>
-      <c r="J21" s="182"/>
-      <c r="K21" s="183" t="e">
+      <c r="H21" s="90"/>
+      <c r="I21" s="90"/>
+      <c r="J21" s="90"/>
+      <c r="K21" s="91" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L21" s="182"/>
-      <c r="M21" s="182"/>
-      <c r="N21" s="182"/>
-      <c r="O21" s="184" t="e">
+      <c r="L21" s="90"/>
+      <c r="M21" s="90"/>
+      <c r="N21" s="90"/>
+      <c r="O21" s="92" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="18" customHeight="1">
-      <c r="A22" s="178">
+      <c r="A22" s="86">
         <f>Page1!A21</f>
         <v>0</v>
       </c>
-      <c r="B22" s="179">
+      <c r="B22" s="87">
         <f>Page1!B21</f>
         <v>0</v>
       </c>
-      <c r="C22" s="179">
+      <c r="C22" s="87">
         <f>Page1!C21</f>
         <v>0</v>
       </c>
-      <c r="D22" s="180"/>
-      <c r="E22" s="180"/>
-      <c r="F22" s="180"/>
-      <c r="G22" s="181" t="e">
+      <c r="D22" s="88"/>
+      <c r="E22" s="88"/>
+      <c r="F22" s="88"/>
+      <c r="G22" s="89" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H22" s="182"/>
-      <c r="I22" s="182"/>
-      <c r="J22" s="182"/>
-      <c r="K22" s="183" t="e">
+      <c r="H22" s="90"/>
+      <c r="I22" s="90"/>
+      <c r="J22" s="90"/>
+      <c r="K22" s="91" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L22" s="182"/>
-      <c r="M22" s="182"/>
-      <c r="N22" s="182"/>
-      <c r="O22" s="184" t="e">
+      <c r="L22" s="90"/>
+      <c r="M22" s="90"/>
+      <c r="N22" s="90"/>
+      <c r="O22" s="92" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="18" customHeight="1">
-      <c r="A23" s="178">
+      <c r="A23" s="86">
         <f>Page1!A22</f>
         <v>0</v>
       </c>
-      <c r="B23" s="179">
+      <c r="B23" s="87">
         <f>Page1!B22</f>
         <v>0</v>
       </c>
-      <c r="C23" s="179">
+      <c r="C23" s="87">
         <f>Page1!C22</f>
         <v>0</v>
       </c>
-      <c r="D23" s="180"/>
-      <c r="E23" s="180"/>
-      <c r="F23" s="180"/>
-      <c r="G23" s="181" t="e">
+      <c r="D23" s="88"/>
+      <c r="E23" s="88"/>
+      <c r="F23" s="88"/>
+      <c r="G23" s="89" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H23" s="182"/>
-      <c r="I23" s="182"/>
-      <c r="J23" s="182"/>
-      <c r="K23" s="183" t="e">
+      <c r="H23" s="90"/>
+      <c r="I23" s="90"/>
+      <c r="J23" s="90"/>
+      <c r="K23" s="91" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L23" s="186"/>
-      <c r="M23" s="186"/>
-      <c r="N23" s="186"/>
-      <c r="O23" s="184" t="e">
+      <c r="L23" s="94"/>
+      <c r="M23" s="94"/>
+      <c r="N23" s="94"/>
+      <c r="O23" s="92" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="18" customHeight="1">
-      <c r="A24" s="178">
+      <c r="A24" s="86">
         <f>Page1!A23</f>
         <v>0</v>
       </c>
-      <c r="B24" s="179">
+      <c r="B24" s="87">
         <f>Page1!B23</f>
         <v>0</v>
       </c>
-      <c r="C24" s="179">
+      <c r="C24" s="87">
         <f>Page1!C23</f>
         <v>0</v>
       </c>
-      <c r="D24" s="180"/>
-      <c r="E24" s="180"/>
-      <c r="F24" s="180"/>
-      <c r="G24" s="181" t="e">
+      <c r="D24" s="88"/>
+      <c r="E24" s="88"/>
+      <c r="F24" s="88"/>
+      <c r="G24" s="89" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H24" s="182"/>
-      <c r="I24" s="182"/>
-      <c r="J24" s="182"/>
-      <c r="K24" s="183" t="e">
+      <c r="H24" s="90"/>
+      <c r="I24" s="90"/>
+      <c r="J24" s="90"/>
+      <c r="K24" s="91" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L24" s="182"/>
-      <c r="M24" s="182"/>
-      <c r="N24" s="182"/>
-      <c r="O24" s="184" t="e">
+      <c r="L24" s="90"/>
+      <c r="M24" s="90"/>
+      <c r="N24" s="90"/>
+      <c r="O24" s="92" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="18" customHeight="1">
-      <c r="A25" s="178">
+      <c r="A25" s="86">
         <f>Page1!A24</f>
         <v>0</v>
       </c>
-      <c r="B25" s="179">
+      <c r="B25" s="87">
         <f>Page1!B24</f>
         <v>0</v>
       </c>
-      <c r="C25" s="179">
+      <c r="C25" s="87">
         <f>Page1!C24</f>
         <v>0</v>
       </c>
-      <c r="D25" s="180"/>
-      <c r="E25" s="180"/>
-      <c r="F25" s="180"/>
-      <c r="G25" s="181" t="e">
+      <c r="D25" s="88"/>
+      <c r="E25" s="88"/>
+      <c r="F25" s="88"/>
+      <c r="G25" s="89" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H25" s="182"/>
-      <c r="I25" s="182"/>
-      <c r="J25" s="182"/>
-      <c r="K25" s="183" t="e">
+      <c r="H25" s="90"/>
+      <c r="I25" s="90"/>
+      <c r="J25" s="90"/>
+      <c r="K25" s="91" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L25" s="182"/>
-      <c r="M25" s="182"/>
-      <c r="N25" s="182"/>
-      <c r="O25" s="184" t="e">
+      <c r="L25" s="90"/>
+      <c r="M25" s="90"/>
+      <c r="N25" s="90"/>
+      <c r="O25" s="92" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="18" customHeight="1">
-      <c r="A26" s="178">
+      <c r="A26" s="86">
         <f>Page1!A25</f>
         <v>0</v>
       </c>
-      <c r="B26" s="179">
+      <c r="B26" s="87">
         <f>Page1!B25</f>
         <v>0</v>
       </c>
-      <c r="C26" s="179">
+      <c r="C26" s="87">
         <f>Page1!C25</f>
         <v>0</v>
       </c>
-      <c r="D26" s="180"/>
-      <c r="E26" s="180"/>
-      <c r="F26" s="180"/>
-      <c r="G26" s="181" t="e">
+      <c r="D26" s="88"/>
+      <c r="E26" s="88"/>
+      <c r="F26" s="88"/>
+      <c r="G26" s="89" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H26" s="182"/>
-      <c r="I26" s="182"/>
-      <c r="J26" s="182"/>
-      <c r="K26" s="183" t="e">
+      <c r="H26" s="90"/>
+      <c r="I26" s="90"/>
+      <c r="J26" s="90"/>
+      <c r="K26" s="91" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L26" s="186"/>
-      <c r="M26" s="186"/>
-      <c r="N26" s="186"/>
-      <c r="O26" s="184" t="e">
+      <c r="L26" s="94"/>
+      <c r="M26" s="94"/>
+      <c r="N26" s="94"/>
+      <c r="O26" s="92" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="18" customHeight="1">
-      <c r="A27" s="178">
+      <c r="A27" s="86">
         <f>Page1!A26</f>
         <v>0</v>
       </c>
-      <c r="B27" s="179">
+      <c r="B27" s="87">
         <f>Page1!B26</f>
         <v>0</v>
       </c>
-      <c r="C27" s="179">
+      <c r="C27" s="87">
         <f>Page1!C26</f>
         <v>0</v>
       </c>
-      <c r="D27" s="180"/>
-      <c r="E27" s="180"/>
-      <c r="F27" s="180"/>
-      <c r="G27" s="181" t="e">
+      <c r="D27" s="88"/>
+      <c r="E27" s="88"/>
+      <c r="F27" s="88"/>
+      <c r="G27" s="89" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H27" s="182"/>
-      <c r="I27" s="182"/>
-      <c r="J27" s="182"/>
-      <c r="K27" s="183" t="e">
+      <c r="H27" s="90"/>
+      <c r="I27" s="90"/>
+      <c r="J27" s="90"/>
+      <c r="K27" s="91" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L27" s="182"/>
-      <c r="M27" s="182"/>
-      <c r="N27" s="182"/>
-      <c r="O27" s="184" t="e">
+      <c r="L27" s="90"/>
+      <c r="M27" s="90"/>
+      <c r="N27" s="90"/>
+      <c r="O27" s="92" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="18" customHeight="1">
-      <c r="A28" s="178">
+      <c r="A28" s="86">
         <f>Page1!A27</f>
         <v>0</v>
       </c>
-      <c r="B28" s="179">
+      <c r="B28" s="87">
         <f>Page1!B27</f>
         <v>0</v>
       </c>
-      <c r="C28" s="179">
+      <c r="C28" s="87">
         <f>Page1!C27</f>
         <v>0</v>
       </c>
-      <c r="D28" s="180"/>
-      <c r="E28" s="180"/>
-      <c r="F28" s="180"/>
-      <c r="G28" s="181" t="e">
+      <c r="D28" s="88"/>
+      <c r="E28" s="88"/>
+      <c r="F28" s="88"/>
+      <c r="G28" s="89" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H28" s="182"/>
-      <c r="I28" s="182"/>
-      <c r="J28" s="182"/>
-      <c r="K28" s="183" t="e">
+      <c r="H28" s="90"/>
+      <c r="I28" s="90"/>
+      <c r="J28" s="90"/>
+      <c r="K28" s="91" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L28" s="182"/>
-      <c r="M28" s="182"/>
-      <c r="N28" s="182"/>
-      <c r="O28" s="184" t="e">
+      <c r="L28" s="90"/>
+      <c r="M28" s="90"/>
+      <c r="N28" s="90"/>
+      <c r="O28" s="92" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="18" customHeight="1">
-      <c r="A29" s="178">
+      <c r="A29" s="86">
         <f>Page1!A28</f>
         <v>0</v>
       </c>
-      <c r="B29" s="179">
+      <c r="B29" s="87">
         <f>Page1!B28</f>
         <v>0</v>
       </c>
-      <c r="C29" s="179">
+      <c r="C29" s="87">
         <f>Page1!C28</f>
         <v>0</v>
       </c>
-      <c r="D29" s="180"/>
-      <c r="E29" s="180"/>
-      <c r="F29" s="180"/>
-      <c r="G29" s="181" t="e">
+      <c r="D29" s="88"/>
+      <c r="E29" s="88"/>
+      <c r="F29" s="88"/>
+      <c r="G29" s="89" t="e">
         <f>AVERAGE(D29:F29)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H29" s="182"/>
-      <c r="I29" s="182"/>
-      <c r="J29" s="182"/>
-      <c r="K29" s="183" t="e">
+      <c r="H29" s="90"/>
+      <c r="I29" s="90"/>
+      <c r="J29" s="90"/>
+      <c r="K29" s="91" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L29" s="182"/>
-      <c r="M29" s="182"/>
-      <c r="N29" s="182"/>
-      <c r="O29" s="184" t="e">
+      <c r="L29" s="90"/>
+      <c r="M29" s="90"/>
+      <c r="N29" s="90"/>
+      <c r="O29" s="92" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="18" customHeight="1">
-      <c r="A30" s="178">
+      <c r="A30" s="86">
         <f>Page1!A29</f>
         <v>0</v>
       </c>
-      <c r="B30" s="179">
+      <c r="B30" s="87">
         <f>Page1!B29</f>
         <v>0</v>
       </c>
-      <c r="C30" s="179">
+      <c r="C30" s="87">
         <f>Page1!C29</f>
         <v>0</v>
       </c>
-      <c r="D30" s="180"/>
-      <c r="E30" s="180"/>
-      <c r="F30" s="180"/>
-      <c r="G30" s="181" t="e">
+      <c r="D30" s="88"/>
+      <c r="E30" s="88"/>
+      <c r="F30" s="88"/>
+      <c r="G30" s="89" t="e">
         <f>AVERAGE(D30:F30)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H30" s="182"/>
-      <c r="I30" s="182"/>
-      <c r="J30" s="182"/>
-      <c r="K30" s="183" t="e">
+      <c r="H30" s="90"/>
+      <c r="I30" s="90"/>
+      <c r="J30" s="90"/>
+      <c r="K30" s="91" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L30" s="182"/>
-      <c r="M30" s="182"/>
-      <c r="N30" s="182"/>
-      <c r="O30" s="184" t="e">
+      <c r="L30" s="90"/>
+      <c r="M30" s="90"/>
+      <c r="N30" s="90"/>
+      <c r="O30" s="92" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="18" customHeight="1">
-      <c r="A31" s="178">
+      <c r="A31" s="86">
         <f>Page1!A30</f>
         <v>0</v>
       </c>
-      <c r="B31" s="179">
+      <c r="B31" s="87">
         <f>Page1!B30</f>
         <v>0</v>
       </c>
-      <c r="C31" s="179">
+      <c r="C31" s="87">
         <f>Page1!C30</f>
         <v>0</v>
       </c>
-      <c r="D31" s="180"/>
-      <c r="E31" s="180"/>
-      <c r="F31" s="180"/>
-      <c r="G31" s="181" t="e">
+      <c r="D31" s="88"/>
+      <c r="E31" s="88"/>
+      <c r="F31" s="88"/>
+      <c r="G31" s="89" t="e">
         <f>AVERAGE(D31:F31)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H31" s="182"/>
-      <c r="I31" s="182"/>
-      <c r="J31" s="182"/>
-      <c r="K31" s="183" t="e">
+      <c r="H31" s="90"/>
+      <c r="I31" s="90"/>
+      <c r="J31" s="90"/>
+      <c r="K31" s="91" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L31" s="182"/>
-      <c r="M31" s="182"/>
-      <c r="N31" s="182"/>
-      <c r="O31" s="184" t="e">
+      <c r="L31" s="90"/>
+      <c r="M31" s="90"/>
+      <c r="N31" s="90"/>
+      <c r="O31" s="92" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="18" customHeight="1">
-      <c r="A32" s="178">
+      <c r="A32" s="86">
         <f>Page1!A31</f>
         <v>0</v>
       </c>
-      <c r="B32" s="179">
+      <c r="B32" s="87">
         <f>Page1!B31</f>
         <v>0</v>
       </c>
-      <c r="C32" s="179">
+      <c r="C32" s="87">
         <f>Page1!C31</f>
         <v>0</v>
       </c>
-      <c r="D32" s="180"/>
-      <c r="E32" s="180"/>
-      <c r="F32" s="180"/>
-      <c r="G32" s="181" t="e">
+      <c r="D32" s="88"/>
+      <c r="E32" s="88"/>
+      <c r="F32" s="88"/>
+      <c r="G32" s="89" t="e">
         <f>AVERAGE(D32:F32)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H32" s="182"/>
-      <c r="I32" s="182"/>
-      <c r="J32" s="182"/>
-      <c r="K32" s="183" t="e">
+      <c r="H32" s="90"/>
+      <c r="I32" s="90"/>
+      <c r="J32" s="90"/>
+      <c r="K32" s="91" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L32" s="182"/>
-      <c r="M32" s="182"/>
-      <c r="N32" s="182"/>
-      <c r="O32" s="184" t="e">
+      <c r="L32" s="90"/>
+      <c r="M32" s="90"/>
+      <c r="N32" s="90"/>
+      <c r="O32" s="92" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="18" customHeight="1">
-      <c r="A33" s="178">
+      <c r="A33" s="86">
         <f>Page1!A32</f>
         <v>0</v>
       </c>
-      <c r="B33" s="179">
+      <c r="B33" s="87">
         <f>Page1!B32</f>
         <v>0</v>
       </c>
-      <c r="C33" s="179">
+      <c r="C33" s="87">
         <f>Page1!C32</f>
         <v>0</v>
       </c>
-      <c r="D33" s="180"/>
-      <c r="E33" s="180"/>
-      <c r="F33" s="180"/>
-      <c r="G33" s="181" t="e">
+      <c r="D33" s="88"/>
+      <c r="E33" s="88"/>
+      <c r="F33" s="88"/>
+      <c r="G33" s="89" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H33" s="182"/>
-      <c r="I33" s="182"/>
-      <c r="J33" s="182"/>
-      <c r="K33" s="183" t="e">
+      <c r="H33" s="90"/>
+      <c r="I33" s="90"/>
+      <c r="J33" s="90"/>
+      <c r="K33" s="91" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L33" s="182"/>
-      <c r="M33" s="182"/>
-      <c r="N33" s="182"/>
-      <c r="O33" s="184" t="e">
+      <c r="L33" s="90"/>
+      <c r="M33" s="90"/>
+      <c r="N33" s="90"/>
+      <c r="O33" s="92" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="34" spans="1:15" ht="18" customHeight="1">
-      <c r="A34" s="178">
+      <c r="A34" s="86">
         <f>Page1!A33</f>
         <v>0</v>
       </c>
-      <c r="B34" s="179">
+      <c r="B34" s="87">
         <f>Page1!B33</f>
         <v>0</v>
       </c>
-      <c r="C34" s="179">
+      <c r="C34" s="87">
         <f>Page1!C33</f>
         <v>0</v>
       </c>
-      <c r="D34" s="180"/>
-      <c r="E34" s="180"/>
-      <c r="F34" s="180"/>
-      <c r="G34" s="181" t="e">
+      <c r="D34" s="88"/>
+      <c r="E34" s="88"/>
+      <c r="F34" s="88"/>
+      <c r="G34" s="89" t="e">
         <f>AVERAGE(D34:F34)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H34" s="182"/>
-      <c r="I34" s="182"/>
-      <c r="J34" s="182"/>
-      <c r="K34" s="183" t="e">
+      <c r="H34" s="90"/>
+      <c r="I34" s="90"/>
+      <c r="J34" s="90"/>
+      <c r="K34" s="91" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L34" s="182"/>
-      <c r="M34" s="182"/>
-      <c r="N34" s="182"/>
-      <c r="O34" s="184" t="e">
+      <c r="L34" s="90"/>
+      <c r="M34" s="90"/>
+      <c r="N34" s="90"/>
+      <c r="O34" s="92" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="35" spans="1:15" ht="18" customHeight="1">
-      <c r="A35" s="178">
+      <c r="A35" s="86">
         <f>Page1!A34</f>
         <v>0</v>
       </c>
-      <c r="B35" s="179">
+      <c r="B35" s="87">
         <f>Page1!B34</f>
         <v>0</v>
       </c>
-      <c r="C35" s="179">
+      <c r="C35" s="87">
         <f>Page1!C34</f>
         <v>0</v>
       </c>
-      <c r="D35" s="180"/>
-      <c r="E35" s="180"/>
-      <c r="F35" s="180"/>
-      <c r="G35" s="181" t="e">
+      <c r="D35" s="88"/>
+      <c r="E35" s="88"/>
+      <c r="F35" s="88"/>
+      <c r="G35" s="89" t="e">
         <f>AVERAGE(D35:F35)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H35" s="182"/>
-      <c r="I35" s="182"/>
-      <c r="J35" s="182"/>
-      <c r="K35" s="183" t="e">
+      <c r="H35" s="90"/>
+      <c r="I35" s="90"/>
+      <c r="J35" s="90"/>
+      <c r="K35" s="91" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L35" s="182"/>
-      <c r="M35" s="182"/>
-      <c r="N35" s="182"/>
-      <c r="O35" s="184" t="e">
+      <c r="L35" s="90"/>
+      <c r="M35" s="90"/>
+      <c r="N35" s="90"/>
+      <c r="O35" s="92" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="36" spans="1:15" ht="18" customHeight="1">
-      <c r="A36" s="178">
+      <c r="A36" s="86">
         <f>Page1!A35</f>
         <v>0</v>
       </c>
-      <c r="B36" s="179">
+      <c r="B36" s="87">
         <f>Page1!B35</f>
         <v>0</v>
       </c>
-      <c r="C36" s="179">
+      <c r="C36" s="87">
         <f>Page1!C35</f>
         <v>0</v>
       </c>
-      <c r="D36" s="180"/>
-      <c r="E36" s="180"/>
-      <c r="F36" s="180"/>
-      <c r="G36" s="181" t="e">
+      <c r="D36" s="88"/>
+      <c r="E36" s="88"/>
+      <c r="F36" s="88"/>
+      <c r="G36" s="89" t="e">
         <f>AVERAGE(D36:F36)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H36" s="182"/>
-      <c r="I36" s="182"/>
-      <c r="J36" s="182"/>
-      <c r="K36" s="183" t="e">
+      <c r="H36" s="90"/>
+      <c r="I36" s="90"/>
+      <c r="J36" s="90"/>
+      <c r="K36" s="91" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L36" s="186"/>
-      <c r="M36" s="186"/>
-      <c r="N36" s="186"/>
-      <c r="O36" s="184" t="e">
+      <c r="L36" s="94"/>
+      <c r="M36" s="94"/>
+      <c r="N36" s="94"/>
+      <c r="O36" s="92" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="18" customHeight="1">
-      <c r="A37" s="178">
+      <c r="A37" s="86">
         <f>Page1!A36</f>
         <v>0</v>
       </c>
-      <c r="B37" s="179">
+      <c r="B37" s="87">
         <f>Page1!B36</f>
         <v>0</v>
       </c>
-      <c r="C37" s="179">
+      <c r="C37" s="87">
         <f>Page1!C36</f>
         <v>0</v>
       </c>
-      <c r="D37" s="180"/>
-      <c r="E37" s="180"/>
-      <c r="F37" s="180"/>
-      <c r="G37" s="181" t="e">
+      <c r="D37" s="88"/>
+      <c r="E37" s="88"/>
+      <c r="F37" s="88"/>
+      <c r="G37" s="89" t="e">
         <f>AVERAGE(D37:F37)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H37" s="182"/>
-      <c r="I37" s="182"/>
-      <c r="J37" s="182"/>
-      <c r="K37" s="183" t="e">
+      <c r="H37" s="90"/>
+      <c r="I37" s="90"/>
+      <c r="J37" s="90"/>
+      <c r="K37" s="91" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L37" s="182"/>
-      <c r="M37" s="182"/>
-      <c r="N37" s="182"/>
-      <c r="O37" s="184" t="e">
+      <c r="L37" s="90"/>
+      <c r="M37" s="90"/>
+      <c r="N37" s="90"/>
+      <c r="O37" s="92" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="38" spans="1:15" ht="18" customHeight="1" thickBot="1">
-      <c r="A38" s="178">
+      <c r="A38" s="86">
         <f>Page1!A37</f>
         <v>0</v>
       </c>
-      <c r="B38" s="179">
+      <c r="B38" s="87">
         <f>Page1!B37</f>
         <v>0</v>
       </c>
-      <c r="C38" s="179">
+      <c r="C38" s="87">
         <f>Page1!C37</f>
         <v>0</v>
       </c>
-      <c r="D38" s="180"/>
-      <c r="E38" s="180"/>
-      <c r="F38" s="180"/>
-      <c r="G38" s="187" t="e">
+      <c r="D38" s="88"/>
+      <c r="E38" s="88"/>
+      <c r="F38" s="88"/>
+      <c r="G38" s="95" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H38" s="182"/>
-      <c r="I38" s="182"/>
-      <c r="J38" s="182"/>
-      <c r="K38" s="188" t="e">
+      <c r="H38" s="90"/>
+      <c r="I38" s="90"/>
+      <c r="J38" s="90"/>
+      <c r="K38" s="96" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L38" s="189"/>
-      <c r="M38" s="189"/>
-      <c r="N38" s="189"/>
-      <c r="O38" s="190" t="e">
+      <c r="L38" s="97"/>
+      <c r="M38" s="97"/>
+      <c r="N38" s="97"/>
+      <c r="O38" s="98" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="39" spans="1:15" ht="18" customHeight="1">
-      <c r="A39" s="191"/>
-      <c r="B39" s="192"/>
-      <c r="C39" s="192" t="s">
+      <c r="A39" s="99"/>
+      <c r="B39" s="100"/>
+      <c r="C39" s="100" t="s">
         <v>23</v>
       </c>
-      <c r="D39" s="193" t="e">
+      <c r="D39" s="219" t="e">
         <f>AVERAGE(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E39" s="194"/>
-      <c r="F39" s="194"/>
-      <c r="G39" s="195"/>
-      <c r="H39" s="196" t="e">
+      <c r="E39" s="220"/>
+      <c r="F39" s="220"/>
+      <c r="G39" s="221"/>
+      <c r="H39" s="222" t="e">
         <f>AVERAGE(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I39" s="197"/>
-      <c r="J39" s="197"/>
-      <c r="K39" s="198"/>
-      <c r="L39" s="196" t="e">
+      <c r="I39" s="223"/>
+      <c r="J39" s="223"/>
+      <c r="K39" s="239"/>
+      <c r="L39" s="222" t="e">
         <f>AVERAGE(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M39" s="197"/>
-      <c r="N39" s="197"/>
-      <c r="O39" s="199"/>
+      <c r="M39" s="223"/>
+      <c r="N39" s="223"/>
+      <c r="O39" s="224"/>
     </row>
     <row r="40" spans="1:15" ht="18" customHeight="1">
-      <c r="A40" s="200"/>
-      <c r="B40" s="201"/>
-      <c r="C40" s="202" t="s">
+      <c r="A40" s="101"/>
+      <c r="B40" s="102"/>
+      <c r="C40" s="103" t="s">
         <v>24</v>
       </c>
-      <c r="D40" s="203" t="e">
+      <c r="D40" s="200" t="e">
         <f>MIN(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E40" s="204"/>
-      <c r="F40" s="204"/>
-      <c r="G40" s="205"/>
-      <c r="H40" s="206" t="e">
+      <c r="E40" s="201"/>
+      <c r="F40" s="201"/>
+      <c r="G40" s="202"/>
+      <c r="H40" s="226" t="e">
         <f>MIN(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I40" s="207"/>
-      <c r="J40" s="207"/>
-      <c r="K40" s="208"/>
-      <c r="L40" s="206" t="e">
+      <c r="I40" s="227"/>
+      <c r="J40" s="227"/>
+      <c r="K40" s="228"/>
+      <c r="L40" s="226" t="e">
         <f>MIN(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M40" s="207"/>
-      <c r="N40" s="207"/>
-      <c r="O40" s="209"/>
+      <c r="M40" s="227"/>
+      <c r="N40" s="227"/>
+      <c r="O40" s="229"/>
     </row>
     <row r="41" spans="1:15" ht="18" customHeight="1" thickBot="1">
-      <c r="A41" s="210"/>
-      <c r="B41" s="211"/>
-      <c r="C41" s="212" t="s">
+      <c r="A41" s="104"/>
+      <c r="B41" s="105"/>
+      <c r="C41" s="106" t="s">
         <v>25</v>
       </c>
-      <c r="D41" s="213" t="e">
+      <c r="D41" s="241" t="e">
         <f>MAX(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E41" s="214"/>
-      <c r="F41" s="214"/>
-      <c r="G41" s="215"/>
-      <c r="H41" s="216" t="e">
+      <c r="E41" s="242"/>
+      <c r="F41" s="242"/>
+      <c r="G41" s="243"/>
+      <c r="H41" s="203" t="e">
         <f>MAX(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I41" s="217"/>
-      <c r="J41" s="217"/>
-      <c r="K41" s="218"/>
-      <c r="L41" s="216" t="e">
+      <c r="I41" s="204"/>
+      <c r="J41" s="204"/>
+      <c r="K41" s="205"/>
+      <c r="L41" s="203" t="e">
         <f>MAX(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M41" s="217"/>
-      <c r="N41" s="217"/>
-      <c r="O41" s="219"/>
-    </row>
-    <row r="42" spans="1:15" s="44" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A42" s="123" t="s">
+      <c r="M41" s="204"/>
+      <c r="N41" s="204"/>
+      <c r="O41" s="240"/>
+    </row>
+    <row r="42" spans="1:15" s="42" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A42" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="B42" s="124"/>
-      <c r="C42" s="124"/>
-      <c r="D42" s="125" t="s">
+      <c r="B42" s="191"/>
+      <c r="C42" s="191"/>
+      <c r="D42" s="192" t="s">
         <v>13</v>
       </c>
-      <c r="E42" s="125"/>
-      <c r="F42" s="126"/>
-      <c r="G42" s="127"/>
-      <c r="H42" s="127"/>
-      <c r="I42" s="127"/>
-      <c r="J42" s="127"/>
-      <c r="K42" s="48" t="s">
+      <c r="E42" s="192"/>
+      <c r="F42" s="67"/>
+      <c r="G42" s="68"/>
+      <c r="H42" s="68"/>
+      <c r="I42" s="68"/>
+      <c r="J42" s="68"/>
+      <c r="K42" s="127"/>
+      <c r="L42" s="127" t="s">
         <v>14</v>
       </c>
-      <c r="L42" s="221"/>
-      <c r="M42" s="221"/>
-      <c r="N42" s="221"/>
-      <c r="O42" s="123" t="s">
+      <c r="M42" s="232"/>
+      <c r="N42" s="232"/>
+      <c r="O42" s="70" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:15" s="44" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A43" s="123"/>
-      <c r="B43" s="130"/>
-      <c r="C43" s="130"/>
-      <c r="D43" s="48"/>
-      <c r="E43" s="48"/>
-      <c r="F43" s="123"/>
-      <c r="G43" s="127"/>
-      <c r="H43" s="127"/>
-      <c r="I43" s="127"/>
-      <c r="J43" s="127"/>
-      <c r="K43" s="131"/>
-      <c r="L43" s="129"/>
-      <c r="M43" s="129"/>
-      <c r="N43" s="129"/>
-      <c r="O43" s="131"/>
-    </row>
-    <row r="44" spans="1:15" s="134" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A44" s="132" t="s">
+    <row r="43" spans="1:15" s="42" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A43" s="66"/>
+      <c r="B43" s="174"/>
+      <c r="C43" s="174"/>
+      <c r="D43" s="44"/>
+      <c r="E43" s="44"/>
+      <c r="F43" s="66"/>
+      <c r="G43" s="68"/>
+      <c r="H43" s="68"/>
+      <c r="I43" s="68"/>
+      <c r="J43" s="68"/>
+      <c r="K43" s="108"/>
+      <c r="L43" s="266"/>
+      <c r="M43" s="157"/>
+      <c r="N43" s="157"/>
+      <c r="O43" s="108"/>
+    </row>
+    <row r="44" spans="1:15" s="72" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A44" s="172" t="s">
         <v>12</v>
       </c>
-      <c r="B44" s="132"/>
-      <c r="C44" s="132"/>
-      <c r="D44" s="133"/>
-      <c r="E44" s="133"/>
-      <c r="F44" s="133"/>
-      <c r="G44" s="47" t="s">
+      <c r="B44" s="172"/>
+      <c r="C44" s="172"/>
+      <c r="D44" s="71"/>
+      <c r="E44" s="71"/>
+      <c r="F44" s="71"/>
+      <c r="G44" s="43" t="s">
         <v>112</v>
       </c>
-      <c r="H44" s="132" t="s">
+      <c r="H44" s="172" t="s">
         <v>121</v>
       </c>
-      <c r="I44" s="132"/>
-      <c r="J44" s="132"/>
-      <c r="K44" s="132"/>
-      <c r="L44" s="133"/>
-      <c r="M44" s="133"/>
-      <c r="N44" s="133"/>
-      <c r="O44" s="133"/>
-    </row>
-    <row r="45" spans="1:15" s="44" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A45" s="135" t="s">
+      <c r="I44" s="172"/>
+      <c r="J44" s="172"/>
+      <c r="K44" s="172"/>
+      <c r="L44" s="71"/>
+      <c r="M44" s="71"/>
+      <c r="N44" s="71"/>
+      <c r="O44" s="71"/>
+    </row>
+    <row r="45" spans="1:15" s="42" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A45" s="173" t="s">
         <v>21</v>
       </c>
-      <c r="B45" s="135"/>
-      <c r="C45" s="136"/>
-      <c r="D45" s="127"/>
-      <c r="E45" s="127"/>
-      <c r="F45" s="127"/>
-      <c r="G45" s="127"/>
-      <c r="H45" s="127"/>
-      <c r="I45" s="127"/>
-      <c r="J45" s="127"/>
-      <c r="K45" s="127"/>
-      <c r="L45" s="127"/>
-      <c r="M45" s="222" t="s">
+      <c r="B45" s="173"/>
+      <c r="C45" s="73"/>
+      <c r="D45" s="68"/>
+      <c r="E45" s="68"/>
+      <c r="F45" s="68"/>
+      <c r="G45" s="68"/>
+      <c r="H45" s="68"/>
+      <c r="I45" s="68"/>
+      <c r="J45" s="68"/>
+      <c r="K45" s="68"/>
+      <c r="L45" s="68"/>
+      <c r="M45" s="231" t="s">
         <v>109</v>
       </c>
-      <c r="N45" s="222"/>
-      <c r="O45" s="127"/>
+      <c r="N45" s="231"/>
+      <c r="O45" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="L41:O41"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="L39:O39"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="L40:O40"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:O6"/>
+    <mergeCell ref="A7:C8"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="L7:O7"/>
     <mergeCell ref="L5:M5"/>
     <mergeCell ref="N5:O5"/>
     <mergeCell ref="A1:M1"/>
@@ -11967,30 +12003,6 @@
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="J5:K5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:O6"/>
-    <mergeCell ref="A7:C8"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="L7:O7"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="H41:K41"/>
-    <mergeCell ref="L41:O41"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="H39:K39"/>
-    <mergeCell ref="L39:O39"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="H40:K40"/>
-    <mergeCell ref="L40:O40"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="H44:K44"/>
-    <mergeCell ref="L42:N42"/>
-    <mergeCell ref="L43:N43"/>
   </mergeCells>
   <conditionalFormatting sqref="D9:G41">
     <cfRule type="cellIs" dxfId="5" priority="3" operator="lessThan">
@@ -12009,7 +12021,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A42 O42 K42:L42 D42:E42" xr:uid="{57F93CD4-FB5F-44F7-918C-968C6859F4F9}">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A42 O42 D42:E42 K42:L42" xr:uid="{57F93CD4-FB5F-44F7-918C-968C6859F4F9}">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -12027,1256 +12039,1256 @@
   <dimension ref="A1:O45"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7:O41"/>
+      <selection activeCell="R41" sqref="R41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="3" width="14" style="242" customWidth="1"/>
-    <col min="4" max="15" width="13.42578125" style="242" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="242"/>
+    <col min="1" max="3" width="14" style="117" customWidth="1"/>
+    <col min="4" max="15" width="13.42578125" style="117" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="117"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="224" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A1" s="223" t="s">
+    <row r="1" spans="1:15" s="109" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A1" s="244" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="223"/>
-      <c r="C1" s="223"/>
-      <c r="D1" s="223"/>
-      <c r="E1" s="223"/>
-      <c r="F1" s="223"/>
-      <c r="G1" s="223"/>
-      <c r="H1" s="223"/>
-      <c r="I1" s="223"/>
-      <c r="J1" s="223"/>
-      <c r="K1" s="223"/>
-      <c r="L1" s="223"/>
-      <c r="M1" s="223"/>
-      <c r="N1" s="43" t="s">
+      <c r="B1" s="244"/>
+      <c r="C1" s="244"/>
+      <c r="D1" s="244"/>
+      <c r="E1" s="244"/>
+      <c r="F1" s="244"/>
+      <c r="G1" s="244"/>
+      <c r="H1" s="244"/>
+      <c r="I1" s="244"/>
+      <c r="J1" s="244"/>
+      <c r="K1" s="244"/>
+      <c r="L1" s="244"/>
+      <c r="M1" s="244"/>
+      <c r="N1" s="145" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="43"/>
-    </row>
-    <row r="2" spans="1:15" s="224" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A2" s="45" t="s">
+      <c r="O1" s="145"/>
+    </row>
+    <row r="2" spans="1:15" s="109" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A2" s="147" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="46" t="s">
+      <c r="B2" s="147"/>
+      <c r="C2" s="147"/>
+      <c r="D2" s="147"/>
+      <c r="E2" s="147"/>
+      <c r="F2" s="147"/>
+      <c r="G2" s="147"/>
+      <c r="H2" s="147"/>
+      <c r="I2" s="147"/>
+      <c r="J2" s="147"/>
+      <c r="K2" s="147"/>
+      <c r="L2" s="147"/>
+      <c r="M2" s="147"/>
+      <c r="N2" s="146" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="46"/>
-    </row>
-    <row r="3" spans="1:15" s="224" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="45"/>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="47" t="s">
+      <c r="O2" s="146"/>
+    </row>
+    <row r="3" spans="1:15" s="109" customFormat="1" ht="16.5" thickBot="1">
+      <c r="A3" s="147"/>
+      <c r="B3" s="147"/>
+      <c r="C3" s="147"/>
+      <c r="D3" s="147"/>
+      <c r="E3" s="147"/>
+      <c r="F3" s="147"/>
+      <c r="G3" s="147"/>
+      <c r="H3" s="147"/>
+      <c r="I3" s="147"/>
+      <c r="J3" s="147"/>
+      <c r="K3" s="147"/>
+      <c r="L3" s="147"/>
+      <c r="M3" s="147"/>
+      <c r="N3" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="O3" s="48"/>
-    </row>
-    <row r="4" spans="1:15" s="133" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A4" s="143" t="s">
+      <c r="O3" s="44"/>
+    </row>
+    <row r="4" spans="1:15" s="71" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A4" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="144">
+      <c r="B4" s="196">
         <f>Page1!B4</f>
         <v>0</v>
       </c>
-      <c r="C4" s="145"/>
-      <c r="D4" s="146"/>
-      <c r="E4" s="147" t="s">
+      <c r="C4" s="210"/>
+      <c r="D4" s="211"/>
+      <c r="E4" s="212" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="148"/>
-      <c r="G4" s="144">
+      <c r="F4" s="213"/>
+      <c r="G4" s="196">
         <f>Page1!G4</f>
         <v>0</v>
       </c>
-      <c r="H4" s="146"/>
-      <c r="I4" s="149" t="s">
+      <c r="H4" s="211"/>
+      <c r="I4" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="150">
+      <c r="J4" s="214">
         <f>Page1!J4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="150"/>
-      <c r="L4" s="151" t="s">
+      <c r="K4" s="214"/>
+      <c r="L4" s="195" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="151">
+      <c r="M4" s="195">
         <f>Page1!N4</f>
         <v>0</v>
       </c>
-      <c r="N4" s="144">
+      <c r="N4" s="196">
         <f>Page1!N4</f>
         <v>0</v>
       </c>
-      <c r="O4" s="152"/>
-    </row>
-    <row r="5" spans="1:15" s="133" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
-      <c r="A5" s="154" t="s">
+      <c r="O4" s="197"/>
+    </row>
+    <row r="5" spans="1:15" s="71" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+      <c r="A5" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="70">
+      <c r="B5" s="140">
         <f>Page1!B5</f>
         <v>0</v>
       </c>
-      <c r="C5" s="155"/>
-      <c r="D5" s="71"/>
-      <c r="E5" s="156" t="s">
+      <c r="C5" s="215"/>
+      <c r="D5" s="152"/>
+      <c r="E5" s="216" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="157"/>
-      <c r="G5" s="70">
+      <c r="F5" s="217"/>
+      <c r="G5" s="140">
         <f>Page1!G5</f>
         <v>0</v>
       </c>
-      <c r="H5" s="71"/>
-      <c r="I5" s="158" t="s">
+      <c r="H5" s="152"/>
+      <c r="I5" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="69">
+      <c r="J5" s="139">
         <f>Page1!J5</f>
         <v>0</v>
       </c>
-      <c r="K5" s="69"/>
-      <c r="L5" s="159" t="s">
+      <c r="K5" s="139"/>
+      <c r="L5" s="225" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="159">
+      <c r="M5" s="225">
         <f>Page1!N5</f>
         <v>0</v>
       </c>
-      <c r="N5" s="70">
+      <c r="N5" s="140">
         <f>Page1!N5</f>
         <v>0</v>
       </c>
-      <c r="O5" s="74"/>
-    </row>
-    <row r="6" spans="1:15" s="230" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A6" s="225" t="s">
+      <c r="O5" s="154"/>
+    </row>
+    <row r="6" spans="1:15" s="110" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A6" s="251" t="s">
         <v>113</v>
       </c>
-      <c r="B6" s="226"/>
-      <c r="C6" s="226"/>
-      <c r="D6" s="227"/>
-      <c r="E6" s="227"/>
-      <c r="F6" s="227"/>
-      <c r="G6" s="228"/>
-      <c r="H6" s="229"/>
-      <c r="I6" s="227"/>
-      <c r="J6" s="227"/>
-      <c r="K6" s="227"/>
-      <c r="L6" s="227"/>
-      <c r="M6" s="227"/>
-      <c r="N6" s="227"/>
-      <c r="O6" s="228"/>
-    </row>
-    <row r="7" spans="1:15" s="134" customFormat="1" ht="30" customHeight="1">
-      <c r="A7" s="231" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="150"/>
-      <c r="C7" s="150"/>
-      <c r="D7" s="145" t="s">
+      <c r="B6" s="252"/>
+      <c r="C6" s="252"/>
+      <c r="D6" s="253"/>
+      <c r="E6" s="253"/>
+      <c r="F6" s="253"/>
+      <c r="G6" s="254"/>
+      <c r="H6" s="255"/>
+      <c r="I6" s="253"/>
+      <c r="J6" s="253"/>
+      <c r="K6" s="253"/>
+      <c r="L6" s="253"/>
+      <c r="M6" s="253"/>
+      <c r="N6" s="253"/>
+      <c r="O6" s="254"/>
+    </row>
+    <row r="7" spans="1:15" s="72" customFormat="1" ht="30" customHeight="1">
+      <c r="A7" s="245" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="214"/>
+      <c r="C7" s="214"/>
+      <c r="D7" s="210" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="145"/>
-      <c r="F7" s="145"/>
-      <c r="G7" s="145"/>
-      <c r="H7" s="232"/>
-      <c r="I7" s="233"/>
-      <c r="J7" s="233"/>
-      <c r="K7" s="233"/>
-      <c r="L7" s="233"/>
-      <c r="M7" s="233"/>
-      <c r="N7" s="233"/>
-      <c r="O7" s="234"/>
-    </row>
-    <row r="8" spans="1:15" s="134" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="A8" s="68"/>
-      <c r="B8" s="69"/>
-      <c r="C8" s="69"/>
-      <c r="D8" s="235">
+      <c r="E7" s="210"/>
+      <c r="F7" s="210"/>
+      <c r="G7" s="210"/>
+      <c r="H7" s="246"/>
+      <c r="I7" s="247"/>
+      <c r="J7" s="247"/>
+      <c r="K7" s="247"/>
+      <c r="L7" s="247"/>
+      <c r="M7" s="247"/>
+      <c r="N7" s="247"/>
+      <c r="O7" s="248"/>
+    </row>
+    <row r="8" spans="1:15" s="72" customFormat="1" ht="30" customHeight="1" thickBot="1">
+      <c r="A8" s="138"/>
+      <c r="B8" s="139"/>
+      <c r="C8" s="139"/>
+      <c r="D8" s="111">
         <v>1</v>
       </c>
-      <c r="E8" s="236">
+      <c r="E8" s="112">
         <v>2</v>
       </c>
-      <c r="F8" s="236">
+      <c r="F8" s="112">
         <v>3</v>
       </c>
-      <c r="G8" s="237" t="s">
+      <c r="G8" s="113" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="164"/>
-      <c r="I8" s="165"/>
-      <c r="J8" s="165"/>
-      <c r="K8" s="165"/>
-      <c r="L8" s="165"/>
-      <c r="M8" s="165"/>
-      <c r="N8" s="165"/>
-      <c r="O8" s="238"/>
+      <c r="H8" s="233"/>
+      <c r="I8" s="234"/>
+      <c r="J8" s="234"/>
+      <c r="K8" s="234"/>
+      <c r="L8" s="234"/>
+      <c r="M8" s="234"/>
+      <c r="N8" s="234"/>
+      <c r="O8" s="249"/>
     </row>
     <row r="9" spans="1:15" ht="18" customHeight="1">
-      <c r="A9" s="178">
+      <c r="A9" s="86">
         <f>Page1!A8</f>
         <v>0</v>
       </c>
-      <c r="B9" s="179">
+      <c r="B9" s="87">
         <f>Page1!B8</f>
         <v>0</v>
       </c>
-      <c r="C9" s="179">
+      <c r="C9" s="87">
         <f>Page1!C8</f>
         <v>0</v>
       </c>
-      <c r="D9" s="239"/>
-      <c r="E9" s="240"/>
-      <c r="F9" s="240"/>
-      <c r="G9" s="241" t="e">
+      <c r="D9" s="114"/>
+      <c r="E9" s="115"/>
+      <c r="F9" s="115"/>
+      <c r="G9" s="116" t="e">
         <f>AVERAGE(D9:F9)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H9" s="164"/>
-      <c r="I9" s="165"/>
-      <c r="J9" s="165"/>
-      <c r="K9" s="165"/>
-      <c r="L9" s="165"/>
-      <c r="M9" s="165"/>
-      <c r="N9" s="165"/>
-      <c r="O9" s="238"/>
+      <c r="H9" s="233"/>
+      <c r="I9" s="234"/>
+      <c r="J9" s="234"/>
+      <c r="K9" s="234"/>
+      <c r="L9" s="234"/>
+      <c r="M9" s="234"/>
+      <c r="N9" s="234"/>
+      <c r="O9" s="249"/>
     </row>
     <row r="10" spans="1:15" ht="18" customHeight="1">
-      <c r="A10" s="178">
+      <c r="A10" s="86">
         <f>Page1!A9</f>
         <v>0</v>
       </c>
-      <c r="B10" s="179">
+      <c r="B10" s="87">
         <f>Page1!B9</f>
         <v>0</v>
       </c>
-      <c r="C10" s="179">
+      <c r="C10" s="87">
         <f>Page1!C9</f>
         <v>0</v>
       </c>
-      <c r="D10" s="182"/>
-      <c r="E10" s="182"/>
-      <c r="F10" s="182"/>
-      <c r="G10" s="241" t="e">
+      <c r="D10" s="90"/>
+      <c r="E10" s="90"/>
+      <c r="F10" s="90"/>
+      <c r="G10" s="116" t="e">
         <f t="shared" ref="G10:G38" si="0">AVERAGE(D10:F10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H10" s="164"/>
-      <c r="I10" s="165"/>
-      <c r="J10" s="165"/>
-      <c r="K10" s="165"/>
-      <c r="L10" s="165"/>
-      <c r="M10" s="165"/>
-      <c r="N10" s="165"/>
-      <c r="O10" s="238"/>
+      <c r="H10" s="233"/>
+      <c r="I10" s="234"/>
+      <c r="J10" s="234"/>
+      <c r="K10" s="234"/>
+      <c r="L10" s="234"/>
+      <c r="M10" s="234"/>
+      <c r="N10" s="234"/>
+      <c r="O10" s="249"/>
     </row>
     <row r="11" spans="1:15" ht="18" customHeight="1">
-      <c r="A11" s="178">
+      <c r="A11" s="86">
         <f>Page1!A10</f>
         <v>0</v>
       </c>
-      <c r="B11" s="179">
+      <c r="B11" s="87">
         <f>Page1!B10</f>
         <v>0</v>
       </c>
-      <c r="C11" s="179">
+      <c r="C11" s="87">
         <f>Page1!C10</f>
         <v>0</v>
       </c>
-      <c r="D11" s="240"/>
-      <c r="E11" s="240"/>
-      <c r="F11" s="240"/>
-      <c r="G11" s="241" t="e">
+      <c r="D11" s="115"/>
+      <c r="E11" s="115"/>
+      <c r="F11" s="115"/>
+      <c r="G11" s="116" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H11" s="164"/>
-      <c r="I11" s="165"/>
-      <c r="J11" s="165"/>
-      <c r="K11" s="165"/>
-      <c r="L11" s="165"/>
-      <c r="M11" s="165"/>
-      <c r="N11" s="165"/>
-      <c r="O11" s="238"/>
+      <c r="H11" s="233"/>
+      <c r="I11" s="234"/>
+      <c r="J11" s="234"/>
+      <c r="K11" s="234"/>
+      <c r="L11" s="234"/>
+      <c r="M11" s="234"/>
+      <c r="N11" s="234"/>
+      <c r="O11" s="249"/>
     </row>
     <row r="12" spans="1:15" ht="18" customHeight="1">
-      <c r="A12" s="178">
+      <c r="A12" s="86">
         <f>Page1!A11</f>
         <v>0</v>
       </c>
-      <c r="B12" s="179">
+      <c r="B12" s="87">
         <f>Page1!B11</f>
         <v>0</v>
       </c>
-      <c r="C12" s="179">
+      <c r="C12" s="87">
         <f>Page1!C11</f>
         <v>0</v>
       </c>
-      <c r="D12" s="182"/>
-      <c r="E12" s="182"/>
-      <c r="F12" s="182"/>
-      <c r="G12" s="241" t="e">
+      <c r="D12" s="90"/>
+      <c r="E12" s="90"/>
+      <c r="F12" s="90"/>
+      <c r="G12" s="116" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H12" s="164"/>
-      <c r="I12" s="165"/>
-      <c r="J12" s="165"/>
-      <c r="K12" s="165"/>
-      <c r="L12" s="165"/>
-      <c r="M12" s="165"/>
-      <c r="N12" s="165"/>
-      <c r="O12" s="238"/>
+      <c r="H12" s="233"/>
+      <c r="I12" s="234"/>
+      <c r="J12" s="234"/>
+      <c r="K12" s="234"/>
+      <c r="L12" s="234"/>
+      <c r="M12" s="234"/>
+      <c r="N12" s="234"/>
+      <c r="O12" s="249"/>
     </row>
     <row r="13" spans="1:15" ht="18" customHeight="1">
-      <c r="A13" s="178">
+      <c r="A13" s="86">
         <f>Page1!A12</f>
         <v>0</v>
       </c>
-      <c r="B13" s="179">
+      <c r="B13" s="87">
         <f>Page1!B12</f>
         <v>0</v>
       </c>
-      <c r="C13" s="179">
+      <c r="C13" s="87">
         <f>Page1!C12</f>
         <v>0</v>
       </c>
-      <c r="D13" s="243"/>
-      <c r="E13" s="243"/>
-      <c r="F13" s="243"/>
-      <c r="G13" s="241" t="e">
+      <c r="D13" s="118"/>
+      <c r="E13" s="118"/>
+      <c r="F13" s="118"/>
+      <c r="G13" s="116" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H13" s="164"/>
-      <c r="I13" s="165"/>
-      <c r="J13" s="165"/>
-      <c r="K13" s="165"/>
-      <c r="L13" s="165"/>
-      <c r="M13" s="165"/>
-      <c r="N13" s="165"/>
-      <c r="O13" s="238"/>
+      <c r="H13" s="233"/>
+      <c r="I13" s="234"/>
+      <c r="J13" s="234"/>
+      <c r="K13" s="234"/>
+      <c r="L13" s="234"/>
+      <c r="M13" s="234"/>
+      <c r="N13" s="234"/>
+      <c r="O13" s="249"/>
     </row>
     <row r="14" spans="1:15" ht="18" customHeight="1">
-      <c r="A14" s="178">
+      <c r="A14" s="86">
         <f>Page1!A13</f>
         <v>0</v>
       </c>
-      <c r="B14" s="179">
+      <c r="B14" s="87">
         <f>Page1!B13</f>
         <v>0</v>
       </c>
-      <c r="C14" s="179">
+      <c r="C14" s="87">
         <f>Page1!C13</f>
         <v>0</v>
       </c>
-      <c r="D14" s="182"/>
-      <c r="E14" s="182"/>
-      <c r="F14" s="182"/>
-      <c r="G14" s="241" t="e">
+      <c r="D14" s="90"/>
+      <c r="E14" s="90"/>
+      <c r="F14" s="90"/>
+      <c r="G14" s="116" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H14" s="164"/>
-      <c r="I14" s="165"/>
-      <c r="J14" s="165"/>
-      <c r="K14" s="165"/>
-      <c r="L14" s="165"/>
-      <c r="M14" s="165"/>
-      <c r="N14" s="165"/>
-      <c r="O14" s="238"/>
+      <c r="H14" s="233"/>
+      <c r="I14" s="234"/>
+      <c r="J14" s="234"/>
+      <c r="K14" s="234"/>
+      <c r="L14" s="234"/>
+      <c r="M14" s="234"/>
+      <c r="N14" s="234"/>
+      <c r="O14" s="249"/>
     </row>
     <row r="15" spans="1:15" ht="18" customHeight="1">
-      <c r="A15" s="178">
+      <c r="A15" s="86">
         <f>Page1!A14</f>
         <v>0</v>
       </c>
-      <c r="B15" s="179">
+      <c r="B15" s="87">
         <f>Page1!B14</f>
         <v>0</v>
       </c>
-      <c r="C15" s="179">
+      <c r="C15" s="87">
         <f>Page1!C14</f>
         <v>0</v>
       </c>
-      <c r="D15" s="240"/>
-      <c r="E15" s="240"/>
-      <c r="F15" s="240"/>
-      <c r="G15" s="241" t="e">
+      <c r="D15" s="115"/>
+      <c r="E15" s="115"/>
+      <c r="F15" s="115"/>
+      <c r="G15" s="116" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H15" s="164"/>
-      <c r="I15" s="165"/>
-      <c r="J15" s="165"/>
-      <c r="K15" s="165"/>
-      <c r="L15" s="165"/>
-      <c r="M15" s="165"/>
-      <c r="N15" s="165"/>
-      <c r="O15" s="238"/>
+      <c r="H15" s="233"/>
+      <c r="I15" s="234"/>
+      <c r="J15" s="234"/>
+      <c r="K15" s="234"/>
+      <c r="L15" s="234"/>
+      <c r="M15" s="234"/>
+      <c r="N15" s="234"/>
+      <c r="O15" s="249"/>
     </row>
     <row r="16" spans="1:15" ht="18" customHeight="1">
-      <c r="A16" s="178">
+      <c r="A16" s="86">
         <f>Page1!A15</f>
         <v>0</v>
       </c>
-      <c r="B16" s="179">
+      <c r="B16" s="87">
         <f>Page1!B15</f>
         <v>0</v>
       </c>
-      <c r="C16" s="179">
+      <c r="C16" s="87">
         <f>Page1!C15</f>
         <v>0</v>
       </c>
-      <c r="D16" s="240"/>
-      <c r="E16" s="240"/>
-      <c r="F16" s="240"/>
-      <c r="G16" s="241" t="e">
+      <c r="D16" s="115"/>
+      <c r="E16" s="115"/>
+      <c r="F16" s="115"/>
+      <c r="G16" s="116" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H16" s="164"/>
-      <c r="I16" s="165"/>
-      <c r="J16" s="165"/>
-      <c r="K16" s="165"/>
-      <c r="L16" s="165"/>
-      <c r="M16" s="165"/>
-      <c r="N16" s="165"/>
-      <c r="O16" s="238"/>
+      <c r="H16" s="233"/>
+      <c r="I16" s="234"/>
+      <c r="J16" s="234"/>
+      <c r="K16" s="234"/>
+      <c r="L16" s="234"/>
+      <c r="M16" s="234"/>
+      <c r="N16" s="234"/>
+      <c r="O16" s="249"/>
     </row>
     <row r="17" spans="1:15" ht="18" customHeight="1">
-      <c r="A17" s="178">
+      <c r="A17" s="86">
         <f>Page1!A16</f>
         <v>0</v>
       </c>
-      <c r="B17" s="179">
+      <c r="B17" s="87">
         <f>Page1!B16</f>
         <v>0</v>
       </c>
-      <c r="C17" s="179">
+      <c r="C17" s="87">
         <f>Page1!C16</f>
         <v>0</v>
       </c>
-      <c r="D17" s="182"/>
-      <c r="E17" s="182"/>
-      <c r="F17" s="182"/>
-      <c r="G17" s="241" t="e">
+      <c r="D17" s="90"/>
+      <c r="E17" s="90"/>
+      <c r="F17" s="90"/>
+      <c r="G17" s="116" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H17" s="164"/>
-      <c r="I17" s="165"/>
-      <c r="J17" s="165"/>
-      <c r="K17" s="165"/>
-      <c r="L17" s="165"/>
-      <c r="M17" s="165"/>
-      <c r="N17" s="165"/>
-      <c r="O17" s="238"/>
+      <c r="H17" s="233"/>
+      <c r="I17" s="234"/>
+      <c r="J17" s="234"/>
+      <c r="K17" s="234"/>
+      <c r="L17" s="234"/>
+      <c r="M17" s="234"/>
+      <c r="N17" s="234"/>
+      <c r="O17" s="249"/>
     </row>
     <row r="18" spans="1:15" ht="18" customHeight="1">
-      <c r="A18" s="178">
+      <c r="A18" s="86">
         <f>Page1!A17</f>
         <v>0</v>
       </c>
-      <c r="B18" s="179">
+      <c r="B18" s="87">
         <f>Page1!B17</f>
         <v>0</v>
       </c>
-      <c r="C18" s="179">
+      <c r="C18" s="87">
         <f>Page1!C17</f>
         <v>0</v>
       </c>
-      <c r="D18" s="240"/>
-      <c r="E18" s="240"/>
-      <c r="F18" s="240"/>
-      <c r="G18" s="241" t="e">
+      <c r="D18" s="115"/>
+      <c r="E18" s="115"/>
+      <c r="F18" s="115"/>
+      <c r="G18" s="116" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H18" s="164"/>
-      <c r="I18" s="165"/>
-      <c r="J18" s="165"/>
-      <c r="K18" s="165"/>
-      <c r="L18" s="165"/>
-      <c r="M18" s="165"/>
-      <c r="N18" s="165"/>
-      <c r="O18" s="238"/>
+      <c r="H18" s="233"/>
+      <c r="I18" s="234"/>
+      <c r="J18" s="234"/>
+      <c r="K18" s="234"/>
+      <c r="L18" s="234"/>
+      <c r="M18" s="234"/>
+      <c r="N18" s="234"/>
+      <c r="O18" s="249"/>
     </row>
     <row r="19" spans="1:15" ht="18" customHeight="1">
-      <c r="A19" s="178">
+      <c r="A19" s="86">
         <f>Page1!A18</f>
         <v>0</v>
       </c>
-      <c r="B19" s="179">
+      <c r="B19" s="87">
         <f>Page1!B18</f>
         <v>0</v>
       </c>
-      <c r="C19" s="179">
+      <c r="C19" s="87">
         <f>Page1!C18</f>
         <v>0</v>
       </c>
-      <c r="D19" s="240"/>
-      <c r="E19" s="240"/>
-      <c r="F19" s="240"/>
-      <c r="G19" s="241" t="e">
+      <c r="D19" s="115"/>
+      <c r="E19" s="115"/>
+      <c r="F19" s="115"/>
+      <c r="G19" s="116" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H19" s="164"/>
-      <c r="I19" s="165"/>
-      <c r="J19" s="165"/>
-      <c r="K19" s="165"/>
-      <c r="L19" s="165"/>
-      <c r="M19" s="165"/>
-      <c r="N19" s="165"/>
-      <c r="O19" s="238"/>
+      <c r="H19" s="233"/>
+      <c r="I19" s="234"/>
+      <c r="J19" s="234"/>
+      <c r="K19" s="234"/>
+      <c r="L19" s="234"/>
+      <c r="M19" s="234"/>
+      <c r="N19" s="234"/>
+      <c r="O19" s="249"/>
     </row>
     <row r="20" spans="1:15" ht="18" customHeight="1">
-      <c r="A20" s="178">
+      <c r="A20" s="86">
         <f>Page1!A19</f>
         <v>0</v>
       </c>
-      <c r="B20" s="179">
+      <c r="B20" s="87">
         <f>Page1!B19</f>
         <v>0</v>
       </c>
-      <c r="C20" s="179">
+      <c r="C20" s="87">
         <f>Page1!C19</f>
         <v>0</v>
       </c>
-      <c r="D20" s="182"/>
-      <c r="E20" s="182"/>
-      <c r="F20" s="182"/>
-      <c r="G20" s="241" t="e">
+      <c r="D20" s="90"/>
+      <c r="E20" s="90"/>
+      <c r="F20" s="90"/>
+      <c r="G20" s="116" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H20" s="164"/>
-      <c r="I20" s="165"/>
-      <c r="J20" s="165"/>
-      <c r="K20" s="165"/>
-      <c r="L20" s="165"/>
-      <c r="M20" s="165"/>
-      <c r="N20" s="165"/>
-      <c r="O20" s="238"/>
+      <c r="H20" s="233"/>
+      <c r="I20" s="234"/>
+      <c r="J20" s="234"/>
+      <c r="K20" s="234"/>
+      <c r="L20" s="234"/>
+      <c r="M20" s="234"/>
+      <c r="N20" s="234"/>
+      <c r="O20" s="249"/>
     </row>
     <row r="21" spans="1:15" ht="18" customHeight="1">
-      <c r="A21" s="178">
+      <c r="A21" s="86">
         <f>Page1!A20</f>
         <v>0</v>
       </c>
-      <c r="B21" s="179">
+      <c r="B21" s="87">
         <f>Page1!B20</f>
         <v>0</v>
       </c>
-      <c r="C21" s="179">
+      <c r="C21" s="87">
         <f>Page1!C20</f>
         <v>0</v>
       </c>
-      <c r="D21" s="240"/>
-      <c r="E21" s="240"/>
-      <c r="F21" s="240"/>
-      <c r="G21" s="241" t="e">
+      <c r="D21" s="115"/>
+      <c r="E21" s="115"/>
+      <c r="F21" s="115"/>
+      <c r="G21" s="116" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H21" s="164"/>
-      <c r="I21" s="165"/>
-      <c r="J21" s="165"/>
-      <c r="K21" s="165"/>
-      <c r="L21" s="165"/>
-      <c r="M21" s="165"/>
-      <c r="N21" s="165"/>
-      <c r="O21" s="238"/>
+      <c r="H21" s="233"/>
+      <c r="I21" s="234"/>
+      <c r="J21" s="234"/>
+      <c r="K21" s="234"/>
+      <c r="L21" s="234"/>
+      <c r="M21" s="234"/>
+      <c r="N21" s="234"/>
+      <c r="O21" s="249"/>
     </row>
     <row r="22" spans="1:15" ht="18" customHeight="1">
-      <c r="A22" s="178">
+      <c r="A22" s="86">
         <f>Page1!A21</f>
         <v>0</v>
       </c>
-      <c r="B22" s="179">
+      <c r="B22" s="87">
         <f>Page1!B21</f>
         <v>0</v>
       </c>
-      <c r="C22" s="179">
+      <c r="C22" s="87">
         <f>Page1!C21</f>
         <v>0</v>
       </c>
-      <c r="D22" s="240"/>
-      <c r="E22" s="240"/>
-      <c r="F22" s="240"/>
-      <c r="G22" s="241" t="e">
+      <c r="D22" s="115"/>
+      <c r="E22" s="115"/>
+      <c r="F22" s="115"/>
+      <c r="G22" s="116" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H22" s="164"/>
-      <c r="I22" s="165"/>
-      <c r="J22" s="165"/>
-      <c r="K22" s="165"/>
-      <c r="L22" s="165"/>
-      <c r="M22" s="165"/>
-      <c r="N22" s="165"/>
-      <c r="O22" s="238"/>
+      <c r="H22" s="233"/>
+      <c r="I22" s="234"/>
+      <c r="J22" s="234"/>
+      <c r="K22" s="234"/>
+      <c r="L22" s="234"/>
+      <c r="M22" s="234"/>
+      <c r="N22" s="234"/>
+      <c r="O22" s="249"/>
     </row>
     <row r="23" spans="1:15" ht="18" customHeight="1">
-      <c r="A23" s="178">
+      <c r="A23" s="86">
         <f>Page1!A22</f>
         <v>0</v>
       </c>
-      <c r="B23" s="179">
+      <c r="B23" s="87">
         <f>Page1!B22</f>
         <v>0</v>
       </c>
-      <c r="C23" s="179">
+      <c r="C23" s="87">
         <f>Page1!C22</f>
         <v>0</v>
       </c>
-      <c r="D23" s="182"/>
-      <c r="E23" s="182"/>
-      <c r="F23" s="182"/>
-      <c r="G23" s="241" t="e">
+      <c r="D23" s="90"/>
+      <c r="E23" s="90"/>
+      <c r="F23" s="90"/>
+      <c r="G23" s="116" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H23" s="164"/>
-      <c r="I23" s="165"/>
-      <c r="J23" s="165"/>
-      <c r="K23" s="165"/>
-      <c r="L23" s="165"/>
-      <c r="M23" s="165"/>
-      <c r="N23" s="165"/>
-      <c r="O23" s="238"/>
+      <c r="H23" s="233"/>
+      <c r="I23" s="234"/>
+      <c r="J23" s="234"/>
+      <c r="K23" s="234"/>
+      <c r="L23" s="234"/>
+      <c r="M23" s="234"/>
+      <c r="N23" s="234"/>
+      <c r="O23" s="249"/>
     </row>
     <row r="24" spans="1:15" ht="18" customHeight="1">
-      <c r="A24" s="178">
+      <c r="A24" s="86">
         <f>Page1!A23</f>
         <v>0</v>
       </c>
-      <c r="B24" s="179">
+      <c r="B24" s="87">
         <f>Page1!B23</f>
         <v>0</v>
       </c>
-      <c r="C24" s="179">
+      <c r="C24" s="87">
         <f>Page1!C23</f>
         <v>0</v>
       </c>
-      <c r="D24" s="240"/>
-      <c r="E24" s="240"/>
-      <c r="F24" s="240"/>
-      <c r="G24" s="241" t="e">
+      <c r="D24" s="115"/>
+      <c r="E24" s="115"/>
+      <c r="F24" s="115"/>
+      <c r="G24" s="116" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H24" s="164"/>
-      <c r="I24" s="165"/>
-      <c r="J24" s="165"/>
-      <c r="K24" s="165"/>
-      <c r="L24" s="165"/>
-      <c r="M24" s="165"/>
-      <c r="N24" s="165"/>
-      <c r="O24" s="238"/>
+      <c r="H24" s="233"/>
+      <c r="I24" s="234"/>
+      <c r="J24" s="234"/>
+      <c r="K24" s="234"/>
+      <c r="L24" s="234"/>
+      <c r="M24" s="234"/>
+      <c r="N24" s="234"/>
+      <c r="O24" s="249"/>
     </row>
     <row r="25" spans="1:15" ht="18" customHeight="1">
-      <c r="A25" s="178">
+      <c r="A25" s="86">
         <f>Page1!A24</f>
         <v>0</v>
       </c>
-      <c r="B25" s="179">
+      <c r="B25" s="87">
         <f>Page1!B24</f>
         <v>0</v>
       </c>
-      <c r="C25" s="179">
+      <c r="C25" s="87">
         <f>Page1!C24</f>
         <v>0</v>
       </c>
-      <c r="D25" s="182"/>
-      <c r="E25" s="182"/>
-      <c r="F25" s="182"/>
-      <c r="G25" s="244" t="e">
+      <c r="D25" s="90"/>
+      <c r="E25" s="90"/>
+      <c r="F25" s="90"/>
+      <c r="G25" s="119" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H25" s="164"/>
-      <c r="I25" s="165"/>
-      <c r="J25" s="165"/>
-      <c r="K25" s="165"/>
-      <c r="L25" s="165"/>
-      <c r="M25" s="165"/>
-      <c r="N25" s="165"/>
-      <c r="O25" s="238"/>
+      <c r="H25" s="233"/>
+      <c r="I25" s="234"/>
+      <c r="J25" s="234"/>
+      <c r="K25" s="234"/>
+      <c r="L25" s="234"/>
+      <c r="M25" s="234"/>
+      <c r="N25" s="234"/>
+      <c r="O25" s="249"/>
     </row>
     <row r="26" spans="1:15" ht="18" customHeight="1">
-      <c r="A26" s="178">
+      <c r="A26" s="86">
         <f>Page1!A25</f>
         <v>0</v>
       </c>
-      <c r="B26" s="179">
+      <c r="B26" s="87">
         <f>Page1!B25</f>
         <v>0</v>
       </c>
-      <c r="C26" s="179">
+      <c r="C26" s="87">
         <f>Page1!C25</f>
         <v>0</v>
       </c>
-      <c r="D26" s="243"/>
-      <c r="E26" s="243"/>
-      <c r="F26" s="243"/>
-      <c r="G26" s="241" t="e">
+      <c r="D26" s="118"/>
+      <c r="E26" s="118"/>
+      <c r="F26" s="118"/>
+      <c r="G26" s="116" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H26" s="164"/>
-      <c r="I26" s="165"/>
-      <c r="J26" s="165"/>
-      <c r="K26" s="165"/>
-      <c r="L26" s="165"/>
-      <c r="M26" s="165"/>
-      <c r="N26" s="165"/>
-      <c r="O26" s="238"/>
+      <c r="H26" s="233"/>
+      <c r="I26" s="234"/>
+      <c r="J26" s="234"/>
+      <c r="K26" s="234"/>
+      <c r="L26" s="234"/>
+      <c r="M26" s="234"/>
+      <c r="N26" s="234"/>
+      <c r="O26" s="249"/>
     </row>
     <row r="27" spans="1:15" ht="18" customHeight="1">
-      <c r="A27" s="178">
+      <c r="A27" s="86">
         <f>Page1!A26</f>
         <v>0</v>
       </c>
-      <c r="B27" s="179">
+      <c r="B27" s="87">
         <f>Page1!B26</f>
         <v>0</v>
       </c>
-      <c r="C27" s="179">
+      <c r="C27" s="87">
         <f>Page1!C26</f>
         <v>0</v>
       </c>
-      <c r="D27" s="182"/>
-      <c r="E27" s="182"/>
-      <c r="F27" s="182"/>
-      <c r="G27" s="241" t="e">
+      <c r="D27" s="90"/>
+      <c r="E27" s="90"/>
+      <c r="F27" s="90"/>
+      <c r="G27" s="116" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H27" s="164"/>
-      <c r="I27" s="165"/>
-      <c r="J27" s="165"/>
-      <c r="K27" s="165"/>
-      <c r="L27" s="165"/>
-      <c r="M27" s="165"/>
-      <c r="N27" s="165"/>
-      <c r="O27" s="238"/>
+      <c r="H27" s="233"/>
+      <c r="I27" s="234"/>
+      <c r="J27" s="234"/>
+      <c r="K27" s="234"/>
+      <c r="L27" s="234"/>
+      <c r="M27" s="234"/>
+      <c r="N27" s="234"/>
+      <c r="O27" s="249"/>
     </row>
     <row r="28" spans="1:15" ht="18" customHeight="1">
-      <c r="A28" s="178">
+      <c r="A28" s="86">
         <f>Page1!A27</f>
         <v>0</v>
       </c>
-      <c r="B28" s="179">
+      <c r="B28" s="87">
         <f>Page1!B27</f>
         <v>0</v>
       </c>
-      <c r="C28" s="179">
+      <c r="C28" s="87">
         <f>Page1!C27</f>
         <v>0</v>
       </c>
-      <c r="D28" s="240"/>
-      <c r="E28" s="240"/>
-      <c r="F28" s="240"/>
-      <c r="G28" s="241" t="e">
+      <c r="D28" s="115"/>
+      <c r="E28" s="115"/>
+      <c r="F28" s="115"/>
+      <c r="G28" s="116" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H28" s="164"/>
-      <c r="I28" s="165"/>
-      <c r="J28" s="165"/>
-      <c r="K28" s="165"/>
-      <c r="L28" s="165"/>
-      <c r="M28" s="165"/>
-      <c r="N28" s="165"/>
-      <c r="O28" s="238"/>
+      <c r="H28" s="233"/>
+      <c r="I28" s="234"/>
+      <c r="J28" s="234"/>
+      <c r="K28" s="234"/>
+      <c r="L28" s="234"/>
+      <c r="M28" s="234"/>
+      <c r="N28" s="234"/>
+      <c r="O28" s="249"/>
     </row>
     <row r="29" spans="1:15" ht="18" customHeight="1">
-      <c r="A29" s="178">
+      <c r="A29" s="86">
         <f>Page1!A28</f>
         <v>0</v>
       </c>
-      <c r="B29" s="179">
+      <c r="B29" s="87">
         <f>Page1!B28</f>
         <v>0</v>
       </c>
-      <c r="C29" s="179">
+      <c r="C29" s="87">
         <f>Page1!C28</f>
         <v>0</v>
       </c>
-      <c r="D29" s="240"/>
-      <c r="E29" s="240"/>
-      <c r="F29" s="240"/>
-      <c r="G29" s="241" t="e">
+      <c r="D29" s="115"/>
+      <c r="E29" s="115"/>
+      <c r="F29" s="115"/>
+      <c r="G29" s="116" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H29" s="164"/>
-      <c r="I29" s="165"/>
-      <c r="J29" s="165"/>
-      <c r="K29" s="165"/>
-      <c r="L29" s="165"/>
-      <c r="M29" s="165"/>
-      <c r="N29" s="165"/>
-      <c r="O29" s="238"/>
+      <c r="H29" s="233"/>
+      <c r="I29" s="234"/>
+      <c r="J29" s="234"/>
+      <c r="K29" s="234"/>
+      <c r="L29" s="234"/>
+      <c r="M29" s="234"/>
+      <c r="N29" s="234"/>
+      <c r="O29" s="249"/>
     </row>
     <row r="30" spans="1:15" ht="18" customHeight="1">
-      <c r="A30" s="178">
+      <c r="A30" s="86">
         <f>Page1!A29</f>
         <v>0</v>
       </c>
-      <c r="B30" s="179">
+      <c r="B30" s="87">
         <f>Page1!B29</f>
         <v>0</v>
       </c>
-      <c r="C30" s="179">
+      <c r="C30" s="87">
         <f>Page1!C29</f>
         <v>0</v>
       </c>
-      <c r="D30" s="182"/>
-      <c r="E30" s="182"/>
-      <c r="F30" s="182"/>
-      <c r="G30" s="241" t="e">
+      <c r="D30" s="90"/>
+      <c r="E30" s="90"/>
+      <c r="F30" s="90"/>
+      <c r="G30" s="116" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H30" s="164"/>
-      <c r="I30" s="165"/>
-      <c r="J30" s="165"/>
-      <c r="K30" s="165"/>
-      <c r="L30" s="165"/>
-      <c r="M30" s="165"/>
-      <c r="N30" s="165"/>
-      <c r="O30" s="238"/>
+      <c r="H30" s="233"/>
+      <c r="I30" s="234"/>
+      <c r="J30" s="234"/>
+      <c r="K30" s="234"/>
+      <c r="L30" s="234"/>
+      <c r="M30" s="234"/>
+      <c r="N30" s="234"/>
+      <c r="O30" s="249"/>
     </row>
     <row r="31" spans="1:15" ht="18" customHeight="1">
-      <c r="A31" s="178">
+      <c r="A31" s="86">
         <f>Page1!A30</f>
         <v>0</v>
       </c>
-      <c r="B31" s="179">
+      <c r="B31" s="87">
         <f>Page1!B30</f>
         <v>0</v>
       </c>
-      <c r="C31" s="179">
+      <c r="C31" s="87">
         <f>Page1!C30</f>
         <v>0</v>
       </c>
-      <c r="D31" s="240"/>
-      <c r="E31" s="240"/>
-      <c r="F31" s="240"/>
-      <c r="G31" s="241" t="e">
+      <c r="D31" s="115"/>
+      <c r="E31" s="115"/>
+      <c r="F31" s="115"/>
+      <c r="G31" s="116" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H31" s="164"/>
-      <c r="I31" s="165"/>
-      <c r="J31" s="165"/>
-      <c r="K31" s="165"/>
-      <c r="L31" s="165"/>
-      <c r="M31" s="165"/>
-      <c r="N31" s="165"/>
-      <c r="O31" s="238"/>
+      <c r="H31" s="233"/>
+      <c r="I31" s="234"/>
+      <c r="J31" s="234"/>
+      <c r="K31" s="234"/>
+      <c r="L31" s="234"/>
+      <c r="M31" s="234"/>
+      <c r="N31" s="234"/>
+      <c r="O31" s="249"/>
     </row>
     <row r="32" spans="1:15" ht="18" customHeight="1">
-      <c r="A32" s="178">
+      <c r="A32" s="86">
         <f>Page1!A31</f>
         <v>0</v>
       </c>
-      <c r="B32" s="179">
+      <c r="B32" s="87">
         <f>Page1!B31</f>
         <v>0</v>
       </c>
-      <c r="C32" s="179">
+      <c r="C32" s="87">
         <f>Page1!C31</f>
         <v>0</v>
       </c>
-      <c r="D32" s="240"/>
-      <c r="E32" s="240"/>
-      <c r="F32" s="240"/>
-      <c r="G32" s="241" t="e">
+      <c r="D32" s="115"/>
+      <c r="E32" s="115"/>
+      <c r="F32" s="115"/>
+      <c r="G32" s="116" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H32" s="164"/>
-      <c r="I32" s="165"/>
-      <c r="J32" s="165"/>
-      <c r="K32" s="165"/>
-      <c r="L32" s="165"/>
-      <c r="M32" s="165"/>
-      <c r="N32" s="165"/>
-      <c r="O32" s="238"/>
+      <c r="H32" s="233"/>
+      <c r="I32" s="234"/>
+      <c r="J32" s="234"/>
+      <c r="K32" s="234"/>
+      <c r="L32" s="234"/>
+      <c r="M32" s="234"/>
+      <c r="N32" s="234"/>
+      <c r="O32" s="249"/>
     </row>
     <row r="33" spans="1:15" ht="18" customHeight="1">
-      <c r="A33" s="178">
+      <c r="A33" s="86">
         <f>Page1!A32</f>
         <v>0</v>
       </c>
-      <c r="B33" s="179">
+      <c r="B33" s="87">
         <f>Page1!B32</f>
         <v>0</v>
       </c>
-      <c r="C33" s="179">
+      <c r="C33" s="87">
         <f>Page1!C32</f>
         <v>0</v>
       </c>
-      <c r="D33" s="182"/>
-      <c r="E33" s="182"/>
-      <c r="F33" s="182"/>
-      <c r="G33" s="241" t="e">
+      <c r="D33" s="90"/>
+      <c r="E33" s="90"/>
+      <c r="F33" s="90"/>
+      <c r="G33" s="116" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H33" s="164"/>
-      <c r="I33" s="165"/>
-      <c r="J33" s="165"/>
-      <c r="K33" s="165"/>
-      <c r="L33" s="165"/>
-      <c r="M33" s="165"/>
-      <c r="N33" s="165"/>
-      <c r="O33" s="238"/>
+      <c r="H33" s="233"/>
+      <c r="I33" s="234"/>
+      <c r="J33" s="234"/>
+      <c r="K33" s="234"/>
+      <c r="L33" s="234"/>
+      <c r="M33" s="234"/>
+      <c r="N33" s="234"/>
+      <c r="O33" s="249"/>
     </row>
     <row r="34" spans="1:15" ht="18" customHeight="1">
-      <c r="A34" s="178">
+      <c r="A34" s="86">
         <f>Page1!A33</f>
         <v>0</v>
       </c>
-      <c r="B34" s="179">
+      <c r="B34" s="87">
         <f>Page1!B33</f>
         <v>0</v>
       </c>
-      <c r="C34" s="179">
+      <c r="C34" s="87">
         <f>Page1!C33</f>
         <v>0</v>
       </c>
-      <c r="D34" s="240"/>
-      <c r="E34" s="240"/>
-      <c r="F34" s="240"/>
-      <c r="G34" s="241" t="e">
+      <c r="D34" s="115"/>
+      <c r="E34" s="115"/>
+      <c r="F34" s="115"/>
+      <c r="G34" s="116" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H34" s="164"/>
-      <c r="I34" s="165"/>
-      <c r="J34" s="165"/>
-      <c r="K34" s="165"/>
-      <c r="L34" s="165"/>
-      <c r="M34" s="165"/>
-      <c r="N34" s="165"/>
-      <c r="O34" s="238"/>
+      <c r="H34" s="233"/>
+      <c r="I34" s="234"/>
+      <c r="J34" s="234"/>
+      <c r="K34" s="234"/>
+      <c r="L34" s="234"/>
+      <c r="M34" s="234"/>
+      <c r="N34" s="234"/>
+      <c r="O34" s="249"/>
     </row>
     <row r="35" spans="1:15" ht="18" customHeight="1">
-      <c r="A35" s="178">
+      <c r="A35" s="86">
         <f>Page1!A34</f>
         <v>0</v>
       </c>
-      <c r="B35" s="179">
+      <c r="B35" s="87">
         <f>Page1!B34</f>
         <v>0</v>
       </c>
-      <c r="C35" s="179">
+      <c r="C35" s="87">
         <f>Page1!C34</f>
         <v>0</v>
       </c>
-      <c r="D35" s="240"/>
-      <c r="E35" s="240"/>
-      <c r="F35" s="240"/>
-      <c r="G35" s="241" t="e">
+      <c r="D35" s="115"/>
+      <c r="E35" s="115"/>
+      <c r="F35" s="115"/>
+      <c r="G35" s="116" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H35" s="164"/>
-      <c r="I35" s="165"/>
-      <c r="J35" s="165"/>
-      <c r="K35" s="165"/>
-      <c r="L35" s="165"/>
-      <c r="M35" s="165"/>
-      <c r="N35" s="165"/>
-      <c r="O35" s="238"/>
+      <c r="H35" s="233"/>
+      <c r="I35" s="234"/>
+      <c r="J35" s="234"/>
+      <c r="K35" s="234"/>
+      <c r="L35" s="234"/>
+      <c r="M35" s="234"/>
+      <c r="N35" s="234"/>
+      <c r="O35" s="249"/>
     </row>
     <row r="36" spans="1:15" ht="18" customHeight="1">
-      <c r="A36" s="178">
+      <c r="A36" s="86">
         <f>Page1!A35</f>
         <v>0</v>
       </c>
-      <c r="B36" s="179">
+      <c r="B36" s="87">
         <f>Page1!B35</f>
         <v>0</v>
       </c>
-      <c r="C36" s="179">
+      <c r="C36" s="87">
         <f>Page1!C35</f>
         <v>0</v>
       </c>
-      <c r="D36" s="182"/>
-      <c r="E36" s="182"/>
-      <c r="F36" s="182"/>
-      <c r="G36" s="241" t="e">
+      <c r="D36" s="90"/>
+      <c r="E36" s="90"/>
+      <c r="F36" s="90"/>
+      <c r="G36" s="116" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H36" s="164"/>
-      <c r="I36" s="165"/>
-      <c r="J36" s="165"/>
-      <c r="K36" s="165"/>
-      <c r="L36" s="165"/>
-      <c r="M36" s="165"/>
-      <c r="N36" s="165"/>
-      <c r="O36" s="238"/>
+      <c r="H36" s="233"/>
+      <c r="I36" s="234"/>
+      <c r="J36" s="234"/>
+      <c r="K36" s="234"/>
+      <c r="L36" s="234"/>
+      <c r="M36" s="234"/>
+      <c r="N36" s="234"/>
+      <c r="O36" s="249"/>
     </row>
     <row r="37" spans="1:15" ht="18" customHeight="1">
-      <c r="A37" s="178">
+      <c r="A37" s="86">
         <f>Page1!A36</f>
         <v>0</v>
       </c>
-      <c r="B37" s="179">
+      <c r="B37" s="87">
         <f>Page1!B36</f>
         <v>0</v>
       </c>
-      <c r="C37" s="179">
+      <c r="C37" s="87">
         <f>Page1!C36</f>
         <v>0</v>
       </c>
-      <c r="D37" s="240"/>
-      <c r="E37" s="240"/>
-      <c r="F37" s="240"/>
-      <c r="G37" s="241" t="e">
+      <c r="D37" s="115"/>
+      <c r="E37" s="115"/>
+      <c r="F37" s="115"/>
+      <c r="G37" s="116" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H37" s="164"/>
-      <c r="I37" s="165"/>
-      <c r="J37" s="165"/>
-      <c r="K37" s="165"/>
-      <c r="L37" s="165"/>
-      <c r="M37" s="165"/>
-      <c r="N37" s="165"/>
-      <c r="O37" s="238"/>
+      <c r="H37" s="233"/>
+      <c r="I37" s="234"/>
+      <c r="J37" s="234"/>
+      <c r="K37" s="234"/>
+      <c r="L37" s="234"/>
+      <c r="M37" s="234"/>
+      <c r="N37" s="234"/>
+      <c r="O37" s="249"/>
     </row>
     <row r="38" spans="1:15" ht="18" customHeight="1" thickBot="1">
-      <c r="A38" s="178">
+      <c r="A38" s="86">
         <f>Page1!A37</f>
         <v>0</v>
       </c>
-      <c r="B38" s="179">
+      <c r="B38" s="87">
         <f>Page1!B37</f>
         <v>0</v>
       </c>
-      <c r="C38" s="179">
+      <c r="C38" s="87">
         <f>Page1!C37</f>
         <v>0</v>
       </c>
-      <c r="D38" s="189"/>
-      <c r="E38" s="240"/>
-      <c r="F38" s="189"/>
-      <c r="G38" s="245" t="e">
+      <c r="D38" s="97"/>
+      <c r="E38" s="115"/>
+      <c r="F38" s="97"/>
+      <c r="G38" s="120" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H38" s="164"/>
-      <c r="I38" s="165"/>
-      <c r="J38" s="165"/>
-      <c r="K38" s="165"/>
-      <c r="L38" s="165"/>
-      <c r="M38" s="165"/>
-      <c r="N38" s="165"/>
-      <c r="O38" s="238"/>
-    </row>
-    <row r="39" spans="1:15" s="134" customFormat="1" ht="18" customHeight="1">
-      <c r="A39" s="246"/>
-      <c r="B39" s="247"/>
-      <c r="C39" s="247" t="s">
+      <c r="H38" s="233"/>
+      <c r="I38" s="234"/>
+      <c r="J38" s="234"/>
+      <c r="K38" s="234"/>
+      <c r="L38" s="234"/>
+      <c r="M38" s="234"/>
+      <c r="N38" s="234"/>
+      <c r="O38" s="249"/>
+    </row>
+    <row r="39" spans="1:15" s="72" customFormat="1" ht="18" customHeight="1">
+      <c r="A39" s="121"/>
+      <c r="B39" s="122"/>
+      <c r="C39" s="122" t="s">
         <v>23</v>
       </c>
-      <c r="D39" s="248"/>
-      <c r="E39" s="249"/>
-      <c r="F39" s="249"/>
-      <c r="G39" s="250" t="e">
+      <c r="D39" s="262"/>
+      <c r="E39" s="263"/>
+      <c r="F39" s="263"/>
+      <c r="G39" s="264" t="e">
         <f>AVERAGE(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H39" s="164"/>
-      <c r="I39" s="165"/>
-      <c r="J39" s="165"/>
-      <c r="K39" s="165"/>
-      <c r="L39" s="165"/>
-      <c r="M39" s="165"/>
-      <c r="N39" s="165"/>
-      <c r="O39" s="238"/>
-    </row>
-    <row r="40" spans="1:15" s="134" customFormat="1" ht="18" customHeight="1">
-      <c r="A40" s="251"/>
-      <c r="B40" s="252"/>
-      <c r="C40" s="252" t="s">
+      <c r="H39" s="233"/>
+      <c r="I39" s="234"/>
+      <c r="J39" s="234"/>
+      <c r="K39" s="234"/>
+      <c r="L39" s="234"/>
+      <c r="M39" s="234"/>
+      <c r="N39" s="234"/>
+      <c r="O39" s="249"/>
+    </row>
+    <row r="40" spans="1:15" s="72" customFormat="1" ht="18" customHeight="1">
+      <c r="A40" s="123"/>
+      <c r="B40" s="124"/>
+      <c r="C40" s="124" t="s">
         <v>24</v>
       </c>
-      <c r="D40" s="253"/>
-      <c r="E40" s="254"/>
-      <c r="F40" s="254"/>
-      <c r="G40" s="255" t="e">
+      <c r="D40" s="256"/>
+      <c r="E40" s="257"/>
+      <c r="F40" s="257"/>
+      <c r="G40" s="258" t="e">
         <f>MIN(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H40" s="164"/>
-      <c r="I40" s="165"/>
-      <c r="J40" s="165"/>
-      <c r="K40" s="165"/>
-      <c r="L40" s="165"/>
-      <c r="M40" s="165"/>
-      <c r="N40" s="165"/>
-      <c r="O40" s="238"/>
-    </row>
-    <row r="41" spans="1:15" s="134" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A41" s="256"/>
-      <c r="B41" s="257"/>
-      <c r="C41" s="257" t="s">
+      <c r="H40" s="233"/>
+      <c r="I40" s="234"/>
+      <c r="J40" s="234"/>
+      <c r="K40" s="234"/>
+      <c r="L40" s="234"/>
+      <c r="M40" s="234"/>
+      <c r="N40" s="234"/>
+      <c r="O40" s="249"/>
+    </row>
+    <row r="41" spans="1:15" s="72" customFormat="1" ht="18" customHeight="1" thickBot="1">
+      <c r="A41" s="125"/>
+      <c r="B41" s="126"/>
+      <c r="C41" s="126" t="s">
         <v>25</v>
       </c>
-      <c r="D41" s="258"/>
-      <c r="E41" s="259"/>
-      <c r="F41" s="259"/>
-      <c r="G41" s="260" t="e">
+      <c r="D41" s="259"/>
+      <c r="E41" s="260"/>
+      <c r="F41" s="260"/>
+      <c r="G41" s="261" t="e">
         <f>MAX(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H41" s="172"/>
-      <c r="I41" s="173"/>
-      <c r="J41" s="173"/>
-      <c r="K41" s="173"/>
-      <c r="L41" s="173"/>
-      <c r="M41" s="173"/>
-      <c r="N41" s="173"/>
-      <c r="O41" s="261"/>
-    </row>
-    <row r="42" spans="1:15" s="44" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A42" s="123" t="s">
+      <c r="H41" s="236"/>
+      <c r="I41" s="237"/>
+      <c r="J41" s="237"/>
+      <c r="K41" s="237"/>
+      <c r="L41" s="237"/>
+      <c r="M41" s="237"/>
+      <c r="N41" s="237"/>
+      <c r="O41" s="250"/>
+    </row>
+    <row r="42" spans="1:15" s="42" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A42" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="B42" s="124"/>
-      <c r="C42" s="124"/>
-      <c r="D42" s="125" t="s">
+      <c r="B42" s="191"/>
+      <c r="C42" s="191"/>
+      <c r="D42" s="192" t="s">
         <v>13</v>
       </c>
-      <c r="E42" s="125"/>
-      <c r="F42" s="126"/>
-      <c r="G42" s="127"/>
-      <c r="H42" s="127"/>
-      <c r="I42" s="127"/>
-      <c r="J42" s="262" t="s">
+      <c r="E42" s="192"/>
+      <c r="F42" s="67"/>
+      <c r="G42" s="68"/>
+      <c r="H42" s="68"/>
+      <c r="I42" s="68"/>
+      <c r="J42" s="265"/>
+      <c r="K42" s="265"/>
+      <c r="L42" s="127" t="s">
         <v>14</v>
       </c>
-      <c r="K42" s="262"/>
-      <c r="L42" s="221"/>
-      <c r="M42" s="221"/>
-      <c r="N42" s="221"/>
-      <c r="O42" s="123" t="s">
+      <c r="M42" s="232"/>
+      <c r="N42" s="232"/>
+      <c r="O42" s="66" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:15" s="44" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A43" s="123"/>
-      <c r="B43" s="130"/>
-      <c r="C43" s="130"/>
-      <c r="D43" s="48"/>
-      <c r="E43" s="48"/>
-      <c r="F43" s="123"/>
-      <c r="G43" s="127"/>
-      <c r="H43" s="127"/>
-      <c r="I43" s="127"/>
-      <c r="J43" s="127"/>
-      <c r="K43" s="131"/>
-      <c r="L43" s="129"/>
-      <c r="M43" s="129"/>
-      <c r="N43" s="129"/>
-      <c r="O43" s="131"/>
-    </row>
-    <row r="44" spans="1:15" s="134" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A44" s="132" t="s">
+    <row r="43" spans="1:15" s="42" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A43" s="66"/>
+      <c r="B43" s="174"/>
+      <c r="C43" s="174"/>
+      <c r="D43" s="44"/>
+      <c r="E43" s="44"/>
+      <c r="F43" s="66"/>
+      <c r="G43" s="68"/>
+      <c r="H43" s="68"/>
+      <c r="I43" s="68"/>
+      <c r="J43" s="68"/>
+      <c r="K43" s="69"/>
+      <c r="L43" s="266"/>
+      <c r="M43" s="157"/>
+      <c r="N43" s="157"/>
+      <c r="O43" s="69"/>
+    </row>
+    <row r="44" spans="1:15" s="72" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A44" s="172" t="s">
         <v>12</v>
       </c>
-      <c r="B44" s="132"/>
-      <c r="C44" s="132"/>
-      <c r="D44" s="133"/>
-      <c r="E44" s="133"/>
-      <c r="F44" s="133"/>
-      <c r="G44" s="47" t="s">
+      <c r="B44" s="172"/>
+      <c r="C44" s="172"/>
+      <c r="D44" s="71"/>
+      <c r="E44" s="71"/>
+      <c r="F44" s="71"/>
+      <c r="G44" s="43" t="s">
         <v>112</v>
       </c>
-      <c r="H44" s="132" t="s">
+      <c r="H44" s="172" t="s">
         <v>121</v>
       </c>
-      <c r="I44" s="132"/>
-      <c r="J44" s="132"/>
-      <c r="K44" s="132"/>
-      <c r="L44" s="133"/>
-      <c r="M44" s="133"/>
-      <c r="N44" s="133"/>
-      <c r="O44" s="133"/>
-    </row>
-    <row r="45" spans="1:15" s="44" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A45" s="135" t="s">
+      <c r="I44" s="172"/>
+      <c r="J44" s="172"/>
+      <c r="K44" s="172"/>
+      <c r="L44" s="71"/>
+      <c r="M44" s="71"/>
+      <c r="N44" s="71"/>
+      <c r="O44" s="71"/>
+    </row>
+    <row r="45" spans="1:15" s="42" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A45" s="173" t="s">
         <v>21</v>
       </c>
-      <c r="B45" s="135"/>
-      <c r="C45" s="136"/>
-      <c r="D45" s="127"/>
-      <c r="E45" s="127"/>
-      <c r="F45" s="127"/>
-      <c r="G45" s="127"/>
-      <c r="H45" s="127"/>
-      <c r="I45" s="127"/>
-      <c r="J45" s="127"/>
-      <c r="K45" s="127"/>
-      <c r="L45" s="127"/>
-      <c r="M45" s="222" t="s">
+      <c r="B45" s="173"/>
+      <c r="C45" s="73"/>
+      <c r="D45" s="68"/>
+      <c r="E45" s="68"/>
+      <c r="F45" s="68"/>
+      <c r="G45" s="68"/>
+      <c r="H45" s="68"/>
+      <c r="I45" s="68"/>
+      <c r="J45" s="68"/>
+      <c r="K45" s="68"/>
+      <c r="L45" s="68"/>
+      <c r="M45" s="231" t="s">
         <v>108</v>
       </c>
-      <c r="N45" s="222"/>
-      <c r="O45" s="127"/>
+      <c r="N45" s="231"/>
+      <c r="O45" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="A2:M3"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="M43:N43"/>
     <mergeCell ref="A7:C8"/>
     <mergeCell ref="D7:G7"/>
     <mergeCell ref="H7:O41"/>
@@ -13292,16 +13304,16 @@
     <mergeCell ref="D39:G39"/>
     <mergeCell ref="L5:M5"/>
     <mergeCell ref="N5:O5"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="H44:K44"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="L42:N42"/>
-    <mergeCell ref="L43:N43"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="A2:M3"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="N4:O4"/>
   </mergeCells>
   <conditionalFormatting sqref="D9:G38">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">

--- a/backend/templates/176-18cp-ww.xlsx
+++ b/backend/templates/176-18cp-ww.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cursor AI Projects\SwansonIndiaPortal\backend\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61DC212A-D734-42E5-B918-E29350F1B5C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1BBA6DB-EF55-4E73-9C4B-42B55C0C7F42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1865,11 +1865,84 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="27" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="29" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="34" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="24" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="2" borderId="37" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1881,7 +1954,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1889,28 +1970,73 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1918,9 +2044,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1954,128 +2077,166 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="27" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="29" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="34" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="24" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="2" borderId="37" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2094,54 +2255,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2157,118 +2270,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2338,29 +2341,57 @@
     <xf numFmtId="164" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="常规 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="21">
     <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
       <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
       <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2419,6 +2450,87 @@
         <strike/>
         <color rgb="FFFF0000"/>
       </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -7762,61 +7874,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A1" s="144" t="s">
+      <c r="A1" s="184" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="144"/>
-      <c r="C1" s="144"/>
-      <c r="D1" s="144"/>
-      <c r="E1" s="144"/>
-      <c r="F1" s="144"/>
-      <c r="G1" s="144"/>
-      <c r="H1" s="144"/>
-      <c r="I1" s="144"/>
-      <c r="J1" s="144"/>
-      <c r="K1" s="144"/>
-      <c r="L1" s="144"/>
-      <c r="M1" s="144"/>
-      <c r="N1" s="145" t="s">
+      <c r="B1" s="184"/>
+      <c r="C1" s="184"/>
+      <c r="D1" s="184"/>
+      <c r="E1" s="184"/>
+      <c r="F1" s="184"/>
+      <c r="G1" s="184"/>
+      <c r="H1" s="184"/>
+      <c r="I1" s="184"/>
+      <c r="J1" s="184"/>
+      <c r="K1" s="184"/>
+      <c r="L1" s="184"/>
+      <c r="M1" s="184"/>
+      <c r="N1" s="185" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="145"/>
+      <c r="O1" s="185"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A2" s="147" t="s">
+      <c r="A2" s="187" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="147"/>
-      <c r="C2" s="147"/>
-      <c r="D2" s="147"/>
-      <c r="E2" s="147"/>
-      <c r="F2" s="147"/>
-      <c r="G2" s="147"/>
-      <c r="H2" s="147"/>
-      <c r="I2" s="147"/>
-      <c r="J2" s="147"/>
-      <c r="K2" s="147"/>
-      <c r="L2" s="147"/>
-      <c r="M2" s="147"/>
-      <c r="N2" s="146" t="s">
+      <c r="B2" s="187"/>
+      <c r="C2" s="187"/>
+      <c r="D2" s="187"/>
+      <c r="E2" s="187"/>
+      <c r="F2" s="187"/>
+      <c r="G2" s="187"/>
+      <c r="H2" s="187"/>
+      <c r="I2" s="187"/>
+      <c r="J2" s="187"/>
+      <c r="K2" s="187"/>
+      <c r="L2" s="187"/>
+      <c r="M2" s="187"/>
+      <c r="N2" s="186" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="146"/>
+      <c r="O2" s="186"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A3" s="147"/>
-      <c r="B3" s="147"/>
-      <c r="C3" s="147"/>
-      <c r="D3" s="147"/>
-      <c r="E3" s="147"/>
-      <c r="F3" s="147"/>
-      <c r="G3" s="147"/>
-      <c r="H3" s="147"/>
-      <c r="I3" s="147"/>
-      <c r="J3" s="147"/>
-      <c r="K3" s="147"/>
-      <c r="L3" s="147"/>
-      <c r="M3" s="147"/>
+      <c r="A3" s="187"/>
+      <c r="B3" s="187"/>
+      <c r="C3" s="187"/>
+      <c r="D3" s="187"/>
+      <c r="E3" s="187"/>
+      <c r="F3" s="187"/>
+      <c r="G3" s="187"/>
+      <c r="H3" s="187"/>
+      <c r="I3" s="187"/>
+      <c r="J3" s="187"/>
+      <c r="K3" s="187"/>
+      <c r="L3" s="187"/>
+      <c r="M3" s="187"/>
       <c r="N3" s="43" t="s">
         <v>20</v>
       </c>
@@ -7826,97 +7938,97 @@
       <c r="A4" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="175"/>
-      <c r="C4" s="176"/>
-      <c r="D4" s="176"/>
-      <c r="E4" s="179" t="s">
+      <c r="B4" s="133"/>
+      <c r="C4" s="134"/>
+      <c r="D4" s="134"/>
+      <c r="E4" s="137" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="180"/>
-      <c r="G4" s="175"/>
-      <c r="H4" s="183"/>
+      <c r="F4" s="138"/>
+      <c r="G4" s="133"/>
+      <c r="H4" s="141"/>
       <c r="I4" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="175"/>
-      <c r="K4" s="183"/>
-      <c r="L4" s="179" t="s">
+      <c r="J4" s="133"/>
+      <c r="K4" s="141"/>
+      <c r="L4" s="137" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="180"/>
-      <c r="N4" s="148"/>
-      <c r="O4" s="149"/>
+      <c r="M4" s="138"/>
+      <c r="N4" s="188"/>
+      <c r="O4" s="189"/>
     </row>
     <row r="5" spans="1:15" s="47" customFormat="1" ht="23.25" customHeight="1">
       <c r="A5" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="177"/>
-      <c r="C5" s="178"/>
-      <c r="D5" s="178"/>
-      <c r="E5" s="181" t="s">
+      <c r="B5" s="135"/>
+      <c r="C5" s="136"/>
+      <c r="D5" s="136"/>
+      <c r="E5" s="139" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="182"/>
-      <c r="G5" s="177"/>
-      <c r="H5" s="184"/>
+      <c r="F5" s="140"/>
+      <c r="G5" s="135"/>
+      <c r="H5" s="142"/>
       <c r="I5" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="177"/>
-      <c r="K5" s="184"/>
-      <c r="L5" s="181" t="s">
+      <c r="J5" s="135"/>
+      <c r="K5" s="142"/>
+      <c r="L5" s="139" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="182"/>
-      <c r="N5" s="150"/>
-      <c r="O5" s="151"/>
+      <c r="M5" s="140"/>
+      <c r="N5" s="190"/>
+      <c r="O5" s="191"/>
     </row>
     <row r="6" spans="1:15" thickBot="1">
-      <c r="A6" s="138" t="s">
+      <c r="A6" s="180" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="139"/>
-      <c r="C6" s="140"/>
-      <c r="D6" s="140"/>
-      <c r="E6" s="152"/>
-      <c r="F6" s="139"/>
-      <c r="G6" s="139"/>
-      <c r="H6" s="170"/>
-      <c r="I6" s="171"/>
-      <c r="J6" s="140"/>
-      <c r="K6" s="152"/>
-      <c r="L6" s="139"/>
-      <c r="M6" s="139"/>
-      <c r="N6" s="140"/>
-      <c r="O6" s="154"/>
+      <c r="B6" s="165"/>
+      <c r="C6" s="181"/>
+      <c r="D6" s="181"/>
+      <c r="E6" s="192"/>
+      <c r="F6" s="165"/>
+      <c r="G6" s="165"/>
+      <c r="H6" s="161"/>
+      <c r="I6" s="162"/>
+      <c r="J6" s="181"/>
+      <c r="K6" s="192"/>
+      <c r="L6" s="165"/>
+      <c r="M6" s="165"/>
+      <c r="N6" s="181"/>
+      <c r="O6" s="193"/>
     </row>
     <row r="7" spans="1:15" s="52" customFormat="1" ht="67.5" customHeight="1" thickBot="1">
-      <c r="A7" s="141" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="142"/>
-      <c r="C7" s="143"/>
-      <c r="D7" s="142" t="s">
+      <c r="A7" s="182" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="183"/>
+      <c r="C7" s="163"/>
+      <c r="D7" s="183" t="s">
         <v>102</v>
       </c>
-      <c r="E7" s="142"/>
-      <c r="F7" s="142" t="s">
+      <c r="E7" s="183"/>
+      <c r="F7" s="183" t="s">
         <v>103</v>
       </c>
-      <c r="G7" s="142"/>
-      <c r="H7" s="143" t="s">
+      <c r="G7" s="183"/>
+      <c r="H7" s="163" t="s">
         <v>104</v>
       </c>
-      <c r="I7" s="153"/>
-      <c r="J7" s="143" t="s">
+      <c r="I7" s="164"/>
+      <c r="J7" s="163" t="s">
         <v>105</v>
       </c>
-      <c r="K7" s="153"/>
-      <c r="L7" s="142" t="s">
+      <c r="K7" s="164"/>
+      <c r="L7" s="183" t="s">
         <v>114</v>
       </c>
-      <c r="M7" s="142"/>
+      <c r="M7" s="183"/>
       <c r="N7" s="50" t="s">
         <v>107</v>
       </c>
@@ -7928,16 +8040,16 @@
       <c r="A8" s="53"/>
       <c r="B8" s="54"/>
       <c r="C8" s="54"/>
-      <c r="D8" s="133"/>
-      <c r="E8" s="133"/>
-      <c r="F8" s="134"/>
-      <c r="G8" s="134"/>
-      <c r="H8" s="135"/>
-      <c r="I8" s="136"/>
-      <c r="J8" s="133"/>
-      <c r="K8" s="133"/>
-      <c r="L8" s="137"/>
-      <c r="M8" s="137"/>
+      <c r="D8" s="159"/>
+      <c r="E8" s="159"/>
+      <c r="F8" s="156"/>
+      <c r="G8" s="156"/>
+      <c r="H8" s="157"/>
+      <c r="I8" s="158"/>
+      <c r="J8" s="159"/>
+      <c r="K8" s="159"/>
+      <c r="L8" s="160"/>
+      <c r="M8" s="160"/>
       <c r="N8" s="55"/>
       <c r="O8" s="56"/>
     </row>
@@ -7945,16 +8057,16 @@
       <c r="A9" s="53"/>
       <c r="B9" s="57"/>
       <c r="C9" s="54"/>
-      <c r="D9" s="128"/>
-      <c r="E9" s="128"/>
-      <c r="F9" s="132"/>
-      <c r="G9" s="132"/>
-      <c r="H9" s="130"/>
-      <c r="I9" s="131"/>
-      <c r="J9" s="128"/>
-      <c r="K9" s="128"/>
-      <c r="L9" s="129"/>
-      <c r="M9" s="129"/>
+      <c r="D9" s="152"/>
+      <c r="E9" s="152"/>
+      <c r="F9" s="153"/>
+      <c r="G9" s="153"/>
+      <c r="H9" s="154"/>
+      <c r="I9" s="155"/>
+      <c r="J9" s="152"/>
+      <c r="K9" s="152"/>
+      <c r="L9" s="151"/>
+      <c r="M9" s="151"/>
       <c r="N9" s="58"/>
       <c r="O9" s="59"/>
     </row>
@@ -7962,16 +8074,16 @@
       <c r="A10" s="53"/>
       <c r="B10" s="57"/>
       <c r="C10" s="54"/>
-      <c r="D10" s="128"/>
-      <c r="E10" s="128"/>
-      <c r="F10" s="132"/>
-      <c r="G10" s="132"/>
-      <c r="H10" s="130"/>
-      <c r="I10" s="131"/>
-      <c r="J10" s="128"/>
-      <c r="K10" s="128"/>
-      <c r="L10" s="129"/>
-      <c r="M10" s="129"/>
+      <c r="D10" s="152"/>
+      <c r="E10" s="152"/>
+      <c r="F10" s="153"/>
+      <c r="G10" s="153"/>
+      <c r="H10" s="154"/>
+      <c r="I10" s="155"/>
+      <c r="J10" s="152"/>
+      <c r="K10" s="152"/>
+      <c r="L10" s="151"/>
+      <c r="M10" s="151"/>
       <c r="N10" s="58"/>
       <c r="O10" s="59"/>
     </row>
@@ -7979,16 +8091,16 @@
       <c r="A11" s="53"/>
       <c r="B11" s="54"/>
       <c r="C11" s="54"/>
-      <c r="D11" s="133"/>
-      <c r="E11" s="133"/>
-      <c r="F11" s="134"/>
-      <c r="G11" s="134"/>
-      <c r="H11" s="135"/>
-      <c r="I11" s="136"/>
-      <c r="J11" s="133"/>
-      <c r="K11" s="133"/>
-      <c r="L11" s="137"/>
-      <c r="M11" s="137"/>
+      <c r="D11" s="159"/>
+      <c r="E11" s="159"/>
+      <c r="F11" s="156"/>
+      <c r="G11" s="156"/>
+      <c r="H11" s="157"/>
+      <c r="I11" s="158"/>
+      <c r="J11" s="159"/>
+      <c r="K11" s="159"/>
+      <c r="L11" s="160"/>
+      <c r="M11" s="160"/>
       <c r="N11" s="55"/>
       <c r="O11" s="56"/>
     </row>
@@ -7996,16 +8108,16 @@
       <c r="A12" s="53"/>
       <c r="B12" s="57"/>
       <c r="C12" s="54"/>
-      <c r="D12" s="128"/>
-      <c r="E12" s="128"/>
-      <c r="F12" s="132"/>
-      <c r="G12" s="132"/>
-      <c r="H12" s="130"/>
-      <c r="I12" s="131"/>
-      <c r="J12" s="128"/>
-      <c r="K12" s="128"/>
-      <c r="L12" s="129"/>
-      <c r="M12" s="129"/>
+      <c r="D12" s="152"/>
+      <c r="E12" s="152"/>
+      <c r="F12" s="153"/>
+      <c r="G12" s="153"/>
+      <c r="H12" s="154"/>
+      <c r="I12" s="155"/>
+      <c r="J12" s="152"/>
+      <c r="K12" s="152"/>
+      <c r="L12" s="151"/>
+      <c r="M12" s="151"/>
       <c r="N12" s="58"/>
       <c r="O12" s="59"/>
     </row>
@@ -8013,16 +8125,16 @@
       <c r="A13" s="53"/>
       <c r="B13" s="57"/>
       <c r="C13" s="54"/>
-      <c r="D13" s="128"/>
-      <c r="E13" s="128"/>
-      <c r="F13" s="132"/>
-      <c r="G13" s="132"/>
-      <c r="H13" s="130"/>
-      <c r="I13" s="131"/>
-      <c r="J13" s="128"/>
-      <c r="K13" s="128"/>
-      <c r="L13" s="129"/>
-      <c r="M13" s="129"/>
+      <c r="D13" s="152"/>
+      <c r="E13" s="152"/>
+      <c r="F13" s="153"/>
+      <c r="G13" s="153"/>
+      <c r="H13" s="154"/>
+      <c r="I13" s="155"/>
+      <c r="J13" s="152"/>
+      <c r="K13" s="152"/>
+      <c r="L13" s="151"/>
+      <c r="M13" s="151"/>
       <c r="N13" s="58"/>
       <c r="O13" s="59"/>
     </row>
@@ -8030,16 +8142,16 @@
       <c r="A14" s="53"/>
       <c r="B14" s="57"/>
       <c r="C14" s="54"/>
-      <c r="D14" s="128"/>
-      <c r="E14" s="128"/>
-      <c r="F14" s="132"/>
-      <c r="G14" s="132"/>
-      <c r="H14" s="130"/>
-      <c r="I14" s="131"/>
-      <c r="J14" s="128"/>
-      <c r="K14" s="128"/>
-      <c r="L14" s="129"/>
-      <c r="M14" s="129"/>
+      <c r="D14" s="152"/>
+      <c r="E14" s="152"/>
+      <c r="F14" s="153"/>
+      <c r="G14" s="153"/>
+      <c r="H14" s="154"/>
+      <c r="I14" s="155"/>
+      <c r="J14" s="152"/>
+      <c r="K14" s="152"/>
+      <c r="L14" s="151"/>
+      <c r="M14" s="151"/>
       <c r="N14" s="58"/>
       <c r="O14" s="59"/>
     </row>
@@ -8047,16 +8159,16 @@
       <c r="A15" s="53"/>
       <c r="B15" s="57"/>
       <c r="C15" s="54"/>
-      <c r="D15" s="128"/>
-      <c r="E15" s="128"/>
-      <c r="F15" s="132"/>
-      <c r="G15" s="132"/>
-      <c r="H15" s="130"/>
-      <c r="I15" s="131"/>
-      <c r="J15" s="128"/>
-      <c r="K15" s="128"/>
-      <c r="L15" s="129"/>
-      <c r="M15" s="129"/>
+      <c r="D15" s="152"/>
+      <c r="E15" s="152"/>
+      <c r="F15" s="153"/>
+      <c r="G15" s="153"/>
+      <c r="H15" s="154"/>
+      <c r="I15" s="155"/>
+      <c r="J15" s="152"/>
+      <c r="K15" s="152"/>
+      <c r="L15" s="151"/>
+      <c r="M15" s="151"/>
       <c r="N15" s="58"/>
       <c r="O15" s="59"/>
     </row>
@@ -8064,16 +8176,16 @@
       <c r="A16" s="53"/>
       <c r="B16" s="57"/>
       <c r="C16" s="54"/>
-      <c r="D16" s="128"/>
-      <c r="E16" s="128"/>
-      <c r="F16" s="132"/>
-      <c r="G16" s="132"/>
-      <c r="H16" s="130"/>
-      <c r="I16" s="131"/>
-      <c r="J16" s="128"/>
-      <c r="K16" s="128"/>
-      <c r="L16" s="129"/>
-      <c r="M16" s="129"/>
+      <c r="D16" s="152"/>
+      <c r="E16" s="152"/>
+      <c r="F16" s="153"/>
+      <c r="G16" s="153"/>
+      <c r="H16" s="154"/>
+      <c r="I16" s="155"/>
+      <c r="J16" s="152"/>
+      <c r="K16" s="152"/>
+      <c r="L16" s="151"/>
+      <c r="M16" s="151"/>
       <c r="N16" s="58"/>
       <c r="O16" s="59"/>
     </row>
@@ -8081,16 +8193,16 @@
       <c r="A17" s="53"/>
       <c r="B17" s="57"/>
       <c r="C17" s="54"/>
-      <c r="D17" s="128"/>
-      <c r="E17" s="128"/>
-      <c r="F17" s="132"/>
-      <c r="G17" s="132"/>
-      <c r="H17" s="130"/>
-      <c r="I17" s="131"/>
-      <c r="J17" s="128"/>
-      <c r="K17" s="128"/>
-      <c r="L17" s="129"/>
-      <c r="M17" s="129"/>
+      <c r="D17" s="152"/>
+      <c r="E17" s="152"/>
+      <c r="F17" s="153"/>
+      <c r="G17" s="153"/>
+      <c r="H17" s="154"/>
+      <c r="I17" s="155"/>
+      <c r="J17" s="152"/>
+      <c r="K17" s="152"/>
+      <c r="L17" s="151"/>
+      <c r="M17" s="151"/>
       <c r="N17" s="58"/>
       <c r="O17" s="59"/>
     </row>
@@ -8098,16 +8210,16 @@
       <c r="A18" s="53"/>
       <c r="B18" s="57"/>
       <c r="C18" s="54"/>
-      <c r="D18" s="128"/>
-      <c r="E18" s="128"/>
-      <c r="F18" s="132"/>
-      <c r="G18" s="132"/>
-      <c r="H18" s="130"/>
-      <c r="I18" s="131"/>
-      <c r="J18" s="128"/>
-      <c r="K18" s="128"/>
-      <c r="L18" s="129"/>
-      <c r="M18" s="129"/>
+      <c r="D18" s="152"/>
+      <c r="E18" s="152"/>
+      <c r="F18" s="153"/>
+      <c r="G18" s="153"/>
+      <c r="H18" s="154"/>
+      <c r="I18" s="155"/>
+      <c r="J18" s="152"/>
+      <c r="K18" s="152"/>
+      <c r="L18" s="151"/>
+      <c r="M18" s="151"/>
       <c r="N18" s="58"/>
       <c r="O18" s="59"/>
     </row>
@@ -8115,16 +8227,16 @@
       <c r="A19" s="53"/>
       <c r="B19" s="57"/>
       <c r="C19" s="54"/>
-      <c r="D19" s="128"/>
-      <c r="E19" s="128"/>
-      <c r="F19" s="132"/>
-      <c r="G19" s="132"/>
-      <c r="H19" s="130"/>
-      <c r="I19" s="131"/>
-      <c r="J19" s="128"/>
-      <c r="K19" s="128"/>
-      <c r="L19" s="129"/>
-      <c r="M19" s="129"/>
+      <c r="D19" s="152"/>
+      <c r="E19" s="152"/>
+      <c r="F19" s="153"/>
+      <c r="G19" s="153"/>
+      <c r="H19" s="154"/>
+      <c r="I19" s="155"/>
+      <c r="J19" s="152"/>
+      <c r="K19" s="152"/>
+      <c r="L19" s="151"/>
+      <c r="M19" s="151"/>
       <c r="N19" s="58"/>
       <c r="O19" s="59"/>
     </row>
@@ -8132,16 +8244,16 @@
       <c r="A20" s="53"/>
       <c r="B20" s="57"/>
       <c r="C20" s="54"/>
-      <c r="D20" s="128"/>
-      <c r="E20" s="128"/>
-      <c r="F20" s="132"/>
-      <c r="G20" s="132"/>
-      <c r="H20" s="130"/>
-      <c r="I20" s="131"/>
-      <c r="J20" s="128"/>
-      <c r="K20" s="128"/>
-      <c r="L20" s="129"/>
-      <c r="M20" s="129"/>
+      <c r="D20" s="152"/>
+      <c r="E20" s="152"/>
+      <c r="F20" s="153"/>
+      <c r="G20" s="153"/>
+      <c r="H20" s="154"/>
+      <c r="I20" s="155"/>
+      <c r="J20" s="152"/>
+      <c r="K20" s="152"/>
+      <c r="L20" s="151"/>
+      <c r="M20" s="151"/>
       <c r="N20" s="58"/>
       <c r="O20" s="59"/>
     </row>
@@ -8149,16 +8261,16 @@
       <c r="A21" s="53"/>
       <c r="B21" s="54"/>
       <c r="C21" s="54"/>
-      <c r="D21" s="133"/>
-      <c r="E21" s="133"/>
-      <c r="F21" s="134"/>
-      <c r="G21" s="134"/>
-      <c r="H21" s="135"/>
-      <c r="I21" s="136"/>
-      <c r="J21" s="133"/>
-      <c r="K21" s="133"/>
-      <c r="L21" s="137"/>
-      <c r="M21" s="137"/>
+      <c r="D21" s="159"/>
+      <c r="E21" s="159"/>
+      <c r="F21" s="156"/>
+      <c r="G21" s="156"/>
+      <c r="H21" s="157"/>
+      <c r="I21" s="158"/>
+      <c r="J21" s="159"/>
+      <c r="K21" s="159"/>
+      <c r="L21" s="160"/>
+      <c r="M21" s="160"/>
       <c r="N21" s="55"/>
       <c r="O21" s="56"/>
     </row>
@@ -8166,16 +8278,16 @@
       <c r="A22" s="53"/>
       <c r="B22" s="57"/>
       <c r="C22" s="54"/>
-      <c r="D22" s="128"/>
-      <c r="E22" s="128"/>
-      <c r="F22" s="132"/>
-      <c r="G22" s="132"/>
-      <c r="H22" s="130"/>
-      <c r="I22" s="131"/>
-      <c r="J22" s="128"/>
-      <c r="K22" s="128"/>
-      <c r="L22" s="129"/>
-      <c r="M22" s="129"/>
+      <c r="D22" s="152"/>
+      <c r="E22" s="152"/>
+      <c r="F22" s="153"/>
+      <c r="G22" s="153"/>
+      <c r="H22" s="154"/>
+      <c r="I22" s="155"/>
+      <c r="J22" s="152"/>
+      <c r="K22" s="152"/>
+      <c r="L22" s="151"/>
+      <c r="M22" s="151"/>
       <c r="N22" s="58"/>
       <c r="O22" s="59"/>
     </row>
@@ -8183,16 +8295,16 @@
       <c r="A23" s="53"/>
       <c r="B23" s="57"/>
       <c r="C23" s="54"/>
-      <c r="D23" s="128"/>
-      <c r="E23" s="128"/>
-      <c r="F23" s="132"/>
-      <c r="G23" s="132"/>
-      <c r="H23" s="130"/>
-      <c r="I23" s="131"/>
-      <c r="J23" s="128"/>
-      <c r="K23" s="128"/>
-      <c r="L23" s="129"/>
-      <c r="M23" s="129"/>
+      <c r="D23" s="152"/>
+      <c r="E23" s="152"/>
+      <c r="F23" s="153"/>
+      <c r="G23" s="153"/>
+      <c r="H23" s="154"/>
+      <c r="I23" s="155"/>
+      <c r="J23" s="152"/>
+      <c r="K23" s="152"/>
+      <c r="L23" s="151"/>
+      <c r="M23" s="151"/>
       <c r="N23" s="58"/>
       <c r="O23" s="59"/>
     </row>
@@ -8200,16 +8312,16 @@
       <c r="A24" s="53"/>
       <c r="B24" s="54"/>
       <c r="C24" s="54"/>
-      <c r="D24" s="133"/>
-      <c r="E24" s="133"/>
-      <c r="F24" s="134"/>
-      <c r="G24" s="134"/>
-      <c r="H24" s="135"/>
-      <c r="I24" s="136"/>
-      <c r="J24" s="133"/>
-      <c r="K24" s="133"/>
-      <c r="L24" s="137"/>
-      <c r="M24" s="137"/>
+      <c r="D24" s="159"/>
+      <c r="E24" s="159"/>
+      <c r="F24" s="156"/>
+      <c r="G24" s="156"/>
+      <c r="H24" s="157"/>
+      <c r="I24" s="158"/>
+      <c r="J24" s="159"/>
+      <c r="K24" s="159"/>
+      <c r="L24" s="160"/>
+      <c r="M24" s="160"/>
       <c r="N24" s="55"/>
       <c r="O24" s="56"/>
     </row>
@@ -8217,16 +8329,16 @@
       <c r="A25" s="53"/>
       <c r="B25" s="57"/>
       <c r="C25" s="54"/>
-      <c r="D25" s="128"/>
-      <c r="E25" s="128"/>
-      <c r="F25" s="132"/>
-      <c r="G25" s="132"/>
-      <c r="H25" s="130"/>
-      <c r="I25" s="131"/>
-      <c r="J25" s="128"/>
-      <c r="K25" s="128"/>
-      <c r="L25" s="129"/>
-      <c r="M25" s="129"/>
+      <c r="D25" s="152"/>
+      <c r="E25" s="152"/>
+      <c r="F25" s="153"/>
+      <c r="G25" s="153"/>
+      <c r="H25" s="154"/>
+      <c r="I25" s="155"/>
+      <c r="J25" s="152"/>
+      <c r="K25" s="152"/>
+      <c r="L25" s="151"/>
+      <c r="M25" s="151"/>
       <c r="N25" s="58"/>
       <c r="O25" s="59"/>
     </row>
@@ -8234,16 +8346,16 @@
       <c r="A26" s="53"/>
       <c r="B26" s="57"/>
       <c r="C26" s="54"/>
-      <c r="D26" s="128"/>
-      <c r="E26" s="128"/>
-      <c r="F26" s="132"/>
-      <c r="G26" s="132"/>
-      <c r="H26" s="130"/>
-      <c r="I26" s="131"/>
-      <c r="J26" s="128"/>
-      <c r="K26" s="128"/>
-      <c r="L26" s="129"/>
-      <c r="M26" s="129"/>
+      <c r="D26" s="152"/>
+      <c r="E26" s="152"/>
+      <c r="F26" s="153"/>
+      <c r="G26" s="153"/>
+      <c r="H26" s="154"/>
+      <c r="I26" s="155"/>
+      <c r="J26" s="152"/>
+      <c r="K26" s="152"/>
+      <c r="L26" s="151"/>
+      <c r="M26" s="151"/>
       <c r="N26" s="58"/>
       <c r="O26" s="59"/>
     </row>
@@ -8251,16 +8363,16 @@
       <c r="A27" s="53"/>
       <c r="B27" s="57"/>
       <c r="C27" s="54"/>
-      <c r="D27" s="128"/>
-      <c r="E27" s="128"/>
-      <c r="F27" s="132"/>
-      <c r="G27" s="132"/>
-      <c r="H27" s="130"/>
-      <c r="I27" s="131"/>
-      <c r="J27" s="128"/>
-      <c r="K27" s="128"/>
-      <c r="L27" s="129"/>
-      <c r="M27" s="129"/>
+      <c r="D27" s="152"/>
+      <c r="E27" s="152"/>
+      <c r="F27" s="153"/>
+      <c r="G27" s="153"/>
+      <c r="H27" s="154"/>
+      <c r="I27" s="155"/>
+      <c r="J27" s="152"/>
+      <c r="K27" s="152"/>
+      <c r="L27" s="151"/>
+      <c r="M27" s="151"/>
       <c r="N27" s="58"/>
       <c r="O27" s="59"/>
     </row>
@@ -8268,16 +8380,16 @@
       <c r="A28" s="53"/>
       <c r="B28" s="57"/>
       <c r="C28" s="54"/>
-      <c r="D28" s="128"/>
-      <c r="E28" s="128"/>
-      <c r="F28" s="132"/>
-      <c r="G28" s="132"/>
-      <c r="H28" s="130"/>
-      <c r="I28" s="131"/>
-      <c r="J28" s="128"/>
-      <c r="K28" s="128"/>
-      <c r="L28" s="129"/>
-      <c r="M28" s="129"/>
+      <c r="D28" s="152"/>
+      <c r="E28" s="152"/>
+      <c r="F28" s="153"/>
+      <c r="G28" s="153"/>
+      <c r="H28" s="154"/>
+      <c r="I28" s="155"/>
+      <c r="J28" s="152"/>
+      <c r="K28" s="152"/>
+      <c r="L28" s="151"/>
+      <c r="M28" s="151"/>
       <c r="N28" s="58"/>
       <c r="O28" s="59"/>
     </row>
@@ -8285,16 +8397,16 @@
       <c r="A29" s="53"/>
       <c r="B29" s="57"/>
       <c r="C29" s="54"/>
-      <c r="D29" s="128"/>
-      <c r="E29" s="128"/>
-      <c r="F29" s="132"/>
-      <c r="G29" s="132"/>
-      <c r="H29" s="130"/>
-      <c r="I29" s="131"/>
-      <c r="J29" s="128"/>
-      <c r="K29" s="128"/>
-      <c r="L29" s="129"/>
-      <c r="M29" s="129"/>
+      <c r="D29" s="152"/>
+      <c r="E29" s="152"/>
+      <c r="F29" s="153"/>
+      <c r="G29" s="153"/>
+      <c r="H29" s="154"/>
+      <c r="I29" s="155"/>
+      <c r="J29" s="152"/>
+      <c r="K29" s="152"/>
+      <c r="L29" s="151"/>
+      <c r="M29" s="151"/>
       <c r="N29" s="58"/>
       <c r="O29" s="59"/>
     </row>
@@ -8302,16 +8414,16 @@
       <c r="A30" s="53"/>
       <c r="B30" s="57"/>
       <c r="C30" s="54"/>
-      <c r="D30" s="128"/>
-      <c r="E30" s="128"/>
-      <c r="F30" s="132"/>
-      <c r="G30" s="132"/>
-      <c r="H30" s="130"/>
-      <c r="I30" s="131"/>
-      <c r="J30" s="128"/>
-      <c r="K30" s="128"/>
-      <c r="L30" s="129"/>
-      <c r="M30" s="129"/>
+      <c r="D30" s="152"/>
+      <c r="E30" s="152"/>
+      <c r="F30" s="153"/>
+      <c r="G30" s="153"/>
+      <c r="H30" s="154"/>
+      <c r="I30" s="155"/>
+      <c r="J30" s="152"/>
+      <c r="K30" s="152"/>
+      <c r="L30" s="151"/>
+      <c r="M30" s="151"/>
       <c r="N30" s="58"/>
       <c r="O30" s="59"/>
     </row>
@@ -8319,16 +8431,16 @@
       <c r="A31" s="53"/>
       <c r="B31" s="57"/>
       <c r="C31" s="54"/>
-      <c r="D31" s="128"/>
-      <c r="E31" s="128"/>
-      <c r="F31" s="132"/>
-      <c r="G31" s="132"/>
-      <c r="H31" s="130"/>
-      <c r="I31" s="131"/>
-      <c r="J31" s="128"/>
-      <c r="K31" s="128"/>
-      <c r="L31" s="129"/>
-      <c r="M31" s="129"/>
+      <c r="D31" s="152"/>
+      <c r="E31" s="152"/>
+      <c r="F31" s="153"/>
+      <c r="G31" s="153"/>
+      <c r="H31" s="154"/>
+      <c r="I31" s="155"/>
+      <c r="J31" s="152"/>
+      <c r="K31" s="152"/>
+      <c r="L31" s="151"/>
+      <c r="M31" s="151"/>
       <c r="N31" s="58"/>
       <c r="O31" s="59"/>
     </row>
@@ -8336,16 +8448,16 @@
       <c r="A32" s="53"/>
       <c r="B32" s="57"/>
       <c r="C32" s="54"/>
-      <c r="D32" s="128"/>
-      <c r="E32" s="128"/>
-      <c r="F32" s="132"/>
-      <c r="G32" s="132"/>
-      <c r="H32" s="130"/>
-      <c r="I32" s="131"/>
-      <c r="J32" s="128"/>
-      <c r="K32" s="128"/>
-      <c r="L32" s="129"/>
-      <c r="M32" s="129"/>
+      <c r="D32" s="152"/>
+      <c r="E32" s="152"/>
+      <c r="F32" s="153"/>
+      <c r="G32" s="153"/>
+      <c r="H32" s="154"/>
+      <c r="I32" s="155"/>
+      <c r="J32" s="152"/>
+      <c r="K32" s="152"/>
+      <c r="L32" s="151"/>
+      <c r="M32" s="151"/>
       <c r="N32" s="58"/>
       <c r="O32" s="59"/>
     </row>
@@ -8353,16 +8465,16 @@
       <c r="A33" s="53"/>
       <c r="B33" s="57"/>
       <c r="C33" s="54"/>
-      <c r="D33" s="128"/>
-      <c r="E33" s="128"/>
-      <c r="F33" s="132"/>
-      <c r="G33" s="132"/>
-      <c r="H33" s="130"/>
-      <c r="I33" s="131"/>
-      <c r="J33" s="128"/>
-      <c r="K33" s="128"/>
-      <c r="L33" s="129"/>
-      <c r="M33" s="129"/>
+      <c r="D33" s="152"/>
+      <c r="E33" s="152"/>
+      <c r="F33" s="153"/>
+      <c r="G33" s="153"/>
+      <c r="H33" s="154"/>
+      <c r="I33" s="155"/>
+      <c r="J33" s="152"/>
+      <c r="K33" s="152"/>
+      <c r="L33" s="151"/>
+      <c r="M33" s="151"/>
       <c r="N33" s="58"/>
       <c r="O33" s="59"/>
     </row>
@@ -8370,16 +8482,16 @@
       <c r="A34" s="53"/>
       <c r="B34" s="54"/>
       <c r="C34" s="54"/>
-      <c r="D34" s="133"/>
-      <c r="E34" s="133"/>
-      <c r="F34" s="134"/>
-      <c r="G34" s="134"/>
-      <c r="H34" s="135"/>
-      <c r="I34" s="136"/>
-      <c r="J34" s="133"/>
-      <c r="K34" s="133"/>
-      <c r="L34" s="137"/>
-      <c r="M34" s="137"/>
+      <c r="D34" s="159"/>
+      <c r="E34" s="159"/>
+      <c r="F34" s="156"/>
+      <c r="G34" s="156"/>
+      <c r="H34" s="157"/>
+      <c r="I34" s="158"/>
+      <c r="J34" s="159"/>
+      <c r="K34" s="159"/>
+      <c r="L34" s="160"/>
+      <c r="M34" s="160"/>
       <c r="N34" s="55"/>
       <c r="O34" s="56"/>
     </row>
@@ -8387,16 +8499,16 @@
       <c r="A35" s="53"/>
       <c r="B35" s="57"/>
       <c r="C35" s="54"/>
-      <c r="D35" s="128"/>
-      <c r="E35" s="128"/>
-      <c r="F35" s="132"/>
-      <c r="G35" s="132"/>
-      <c r="H35" s="130"/>
-      <c r="I35" s="131"/>
-      <c r="J35" s="128"/>
-      <c r="K35" s="128"/>
-      <c r="L35" s="129"/>
-      <c r="M35" s="129"/>
+      <c r="D35" s="152"/>
+      <c r="E35" s="152"/>
+      <c r="F35" s="153"/>
+      <c r="G35" s="153"/>
+      <c r="H35" s="154"/>
+      <c r="I35" s="155"/>
+      <c r="J35" s="152"/>
+      <c r="K35" s="152"/>
+      <c r="L35" s="151"/>
+      <c r="M35" s="151"/>
       <c r="N35" s="58"/>
       <c r="O35" s="59"/>
     </row>
@@ -8404,16 +8516,16 @@
       <c r="A36" s="53"/>
       <c r="B36" s="57"/>
       <c r="C36" s="54"/>
-      <c r="D36" s="128"/>
-      <c r="E36" s="128"/>
-      <c r="F36" s="132"/>
-      <c r="G36" s="132"/>
-      <c r="H36" s="130"/>
-      <c r="I36" s="131"/>
-      <c r="J36" s="128"/>
-      <c r="K36" s="128"/>
-      <c r="L36" s="129"/>
-      <c r="M36" s="129"/>
+      <c r="D36" s="152"/>
+      <c r="E36" s="152"/>
+      <c r="F36" s="153"/>
+      <c r="G36" s="153"/>
+      <c r="H36" s="154"/>
+      <c r="I36" s="155"/>
+      <c r="J36" s="152"/>
+      <c r="K36" s="152"/>
+      <c r="L36" s="151"/>
+      <c r="M36" s="151"/>
       <c r="N36" s="58"/>
       <c r="O36" s="59"/>
     </row>
@@ -8421,50 +8533,50 @@
       <c r="A37" s="53"/>
       <c r="B37" s="54"/>
       <c r="C37" s="54"/>
-      <c r="D37" s="133"/>
-      <c r="E37" s="133"/>
-      <c r="F37" s="134"/>
-      <c r="G37" s="134"/>
-      <c r="H37" s="135"/>
-      <c r="I37" s="136"/>
-      <c r="J37" s="133"/>
-      <c r="K37" s="133"/>
-      <c r="L37" s="137"/>
-      <c r="M37" s="137"/>
+      <c r="D37" s="159"/>
+      <c r="E37" s="159"/>
+      <c r="F37" s="156"/>
+      <c r="G37" s="156"/>
+      <c r="H37" s="157"/>
+      <c r="I37" s="158"/>
+      <c r="J37" s="159"/>
+      <c r="K37" s="159"/>
+      <c r="L37" s="160"/>
+      <c r="M37" s="160"/>
       <c r="N37" s="55"/>
       <c r="O37" s="56"/>
     </row>
     <row r="38" spans="1:15" ht="18.600000000000001" customHeight="1">
-      <c r="A38" s="185"/>
-      <c r="B38" s="186"/>
-      <c r="C38" s="186" t="s">
+      <c r="A38" s="143"/>
+      <c r="B38" s="144"/>
+      <c r="C38" s="144" t="s">
         <v>23</v>
       </c>
-      <c r="D38" s="165" t="e">
+      <c r="D38" s="176" t="e">
         <f>AVERAGE(D8:E37)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E38" s="165"/>
-      <c r="F38" s="159" t="e">
+      <c r="E38" s="176"/>
+      <c r="F38" s="170" t="e">
         <f>AVERAGE(F8:G37)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G38" s="159"/>
-      <c r="H38" s="162" t="e">
+      <c r="G38" s="170"/>
+      <c r="H38" s="173" t="e">
         <f>AVERAGE(H8:I37)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I38" s="162"/>
-      <c r="J38" s="165" t="e">
+      <c r="I38" s="173"/>
+      <c r="J38" s="176" t="e">
         <f>AVERAGE(J8:K37)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K38" s="165"/>
-      <c r="L38" s="167" t="e">
+      <c r="K38" s="176"/>
+      <c r="L38" s="178" t="e">
         <f>AVERAGE(L8:M37)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M38" s="167"/>
+      <c r="M38" s="178"/>
       <c r="N38" s="60" t="e">
         <f>AVERAGE(N8:N37)</f>
         <v>#DIV/0!</v>
@@ -8475,36 +8587,36 @@
       </c>
     </row>
     <row r="39" spans="1:15" ht="18.600000000000001" customHeight="1">
-      <c r="A39" s="187"/>
-      <c r="B39" s="188"/>
-      <c r="C39" s="188" t="s">
+      <c r="A39" s="145"/>
+      <c r="B39" s="146"/>
+      <c r="C39" s="146" t="s">
         <v>24</v>
       </c>
-      <c r="D39" s="166">
+      <c r="D39" s="177">
         <f>MIN(D8:E37)</f>
         <v>0</v>
       </c>
-      <c r="E39" s="166"/>
-      <c r="F39" s="160">
+      <c r="E39" s="177"/>
+      <c r="F39" s="171">
         <f>MIN(F8:G37)</f>
         <v>0</v>
       </c>
-      <c r="G39" s="160"/>
-      <c r="H39" s="163">
+      <c r="G39" s="171"/>
+      <c r="H39" s="174">
         <f>MIN(H8:I37)</f>
         <v>0</v>
       </c>
-      <c r="I39" s="163"/>
-      <c r="J39" s="166">
+      <c r="I39" s="174"/>
+      <c r="J39" s="177">
         <f>MIN(J8:K37)</f>
         <v>0</v>
       </c>
-      <c r="K39" s="166"/>
-      <c r="L39" s="168">
+      <c r="K39" s="177"/>
+      <c r="L39" s="179">
         <f>MIN(L8:M37)</f>
         <v>0</v>
       </c>
-      <c r="M39" s="168"/>
+      <c r="M39" s="179"/>
       <c r="N39" s="62">
         <f>MIN(N8:N37)</f>
         <v>0</v>
@@ -8515,36 +8627,36 @@
       </c>
     </row>
     <row r="40" spans="1:15" ht="18.600000000000001" customHeight="1" thickBot="1">
-      <c r="A40" s="189"/>
-      <c r="B40" s="190"/>
-      <c r="C40" s="190" t="s">
+      <c r="A40" s="147"/>
+      <c r="B40" s="148"/>
+      <c r="C40" s="148" t="s">
         <v>25</v>
       </c>
-      <c r="D40" s="158">
+      <c r="D40" s="169">
         <f>MAX(D8:E37)</f>
         <v>0</v>
       </c>
-      <c r="E40" s="158"/>
-      <c r="F40" s="161">
+      <c r="E40" s="169"/>
+      <c r="F40" s="172">
         <f>MAX(F8:G37)</f>
         <v>0</v>
       </c>
-      <c r="G40" s="161"/>
-      <c r="H40" s="164">
+      <c r="G40" s="172"/>
+      <c r="H40" s="175">
         <f>MAX(H8:I37)</f>
         <v>0</v>
       </c>
-      <c r="I40" s="164"/>
-      <c r="J40" s="158">
+      <c r="I40" s="175"/>
+      <c r="J40" s="169">
         <f>MAX(J8:K37)</f>
         <v>0</v>
       </c>
-      <c r="K40" s="158"/>
-      <c r="L40" s="156">
+      <c r="K40" s="169"/>
+      <c r="L40" s="168">
         <f>MAX(L8:M37)</f>
         <v>0</v>
       </c>
-      <c r="M40" s="156"/>
+      <c r="M40" s="168"/>
       <c r="N40" s="64">
         <f>MAX(N8:N37)</f>
         <v>0</v>
@@ -8558,31 +8670,31 @@
       <c r="A41" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="B41" s="191"/>
-      <c r="C41" s="191"/>
-      <c r="D41" s="192" t="s">
+      <c r="B41" s="149"/>
+      <c r="C41" s="149"/>
+      <c r="D41" s="150" t="s">
         <v>13</v>
       </c>
-      <c r="E41" s="192"/>
+      <c r="E41" s="150"/>
       <c r="F41" s="67"/>
       <c r="G41" s="68"/>
       <c r="H41" s="68"/>
       <c r="I41" s="68"/>
       <c r="J41" s="68"/>
-      <c r="K41" s="155" t="s">
+      <c r="K41" s="167" t="s">
         <v>14</v>
       </c>
-      <c r="L41" s="155"/>
-      <c r="M41" s="157"/>
-      <c r="N41" s="157"/>
+      <c r="L41" s="167"/>
+      <c r="M41" s="132"/>
+      <c r="N41" s="132"/>
       <c r="O41" s="66" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="42" spans="1:15" ht="16.5" customHeight="1">
       <c r="A42" s="66"/>
-      <c r="B42" s="174"/>
-      <c r="C42" s="174"/>
+      <c r="B42" s="131"/>
+      <c r="C42" s="131"/>
       <c r="D42" s="44"/>
       <c r="E42" s="44"/>
       <c r="F42" s="66"/>
@@ -8592,38 +8704,38 @@
       <c r="J42" s="68"/>
       <c r="K42" s="69"/>
       <c r="L42" s="69"/>
-      <c r="M42" s="157"/>
-      <c r="N42" s="157"/>
+      <c r="M42" s="132"/>
+      <c r="N42" s="132"/>
       <c r="O42" s="69"/>
     </row>
     <row r="43" spans="1:15" s="72" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A43" s="172" t="s">
+      <c r="A43" s="129" t="s">
         <v>12</v>
       </c>
-      <c r="B43" s="172"/>
-      <c r="C43" s="172"/>
+      <c r="B43" s="129"/>
+      <c r="C43" s="129"/>
       <c r="D43" s="71"/>
       <c r="E43" s="71"/>
       <c r="F43" s="71"/>
       <c r="G43" s="43" t="s">
         <v>112</v>
       </c>
-      <c r="H43" s="172" t="s">
+      <c r="H43" s="129" t="s">
         <v>121</v>
       </c>
-      <c r="I43" s="172"/>
-      <c r="J43" s="172"/>
-      <c r="K43" s="172"/>
+      <c r="I43" s="129"/>
+      <c r="J43" s="129"/>
+      <c r="K43" s="129"/>
       <c r="L43" s="71"/>
       <c r="M43" s="71"/>
       <c r="N43" s="71"/>
       <c r="O43" s="71"/>
     </row>
     <row r="44" spans="1:15" ht="16.5" customHeight="1">
-      <c r="A44" s="173" t="s">
+      <c r="A44" s="130" t="s">
         <v>21</v>
       </c>
-      <c r="B44" s="173"/>
+      <c r="B44" s="130"/>
       <c r="C44" s="73"/>
       <c r="D44" s="68"/>
       <c r="E44" s="68"/>
@@ -8666,49 +8778,241 @@
       <c r="M52" s="75"/>
     </row>
     <row r="76" spans="3:15" ht="15.75" customHeight="1">
-      <c r="C76" s="169"/>
-      <c r="D76" s="169"/>
-      <c r="E76" s="169"/>
-      <c r="I76" s="169"/>
-      <c r="J76" s="169"/>
-      <c r="K76" s="169"/>
-      <c r="L76" s="169"/>
-      <c r="M76" s="169"/>
-      <c r="N76" s="169"/>
-      <c r="O76" s="169"/>
+      <c r="C76" s="166"/>
+      <c r="D76" s="166"/>
+      <c r="E76" s="166"/>
+      <c r="I76" s="166"/>
+      <c r="J76" s="166"/>
+      <c r="K76" s="166"/>
+      <c r="L76" s="166"/>
+      <c r="M76" s="166"/>
+      <c r="N76" s="166"/>
+      <c r="O76" s="166"/>
     </row>
     <row r="77" spans="3:15" ht="15.75" customHeight="1">
-      <c r="C77" s="169"/>
-      <c r="D77" s="169"/>
-      <c r="E77" s="169"/>
-      <c r="F77" s="169"/>
-      <c r="I77" s="169"/>
-      <c r="J77" s="169"/>
-      <c r="K77" s="169"/>
-      <c r="L77" s="169"/>
-      <c r="M77" s="169"/>
-      <c r="N77" s="169"/>
-      <c r="O77" s="169"/>
+      <c r="C77" s="166"/>
+      <c r="D77" s="166"/>
+      <c r="E77" s="166"/>
+      <c r="F77" s="166"/>
+      <c r="I77" s="166"/>
+      <c r="J77" s="166"/>
+      <c r="K77" s="166"/>
+      <c r="L77" s="166"/>
+      <c r="M77" s="166"/>
+      <c r="N77" s="166"/>
+      <c r="O77" s="166"/>
     </row>
     <row r="78" spans="3:15" ht="15.75" customHeight="1">
-      <c r="C78" s="169"/>
-      <c r="D78" s="169"/>
-      <c r="E78" s="169"/>
-      <c r="I78" s="169"/>
-      <c r="J78" s="169"/>
-      <c r="K78" s="169"/>
-      <c r="L78" s="169"/>
-      <c r="M78" s="169"/>
-      <c r="N78" s="169"/>
-      <c r="O78" s="169"/>
+      <c r="C78" s="166"/>
+      <c r="D78" s="166"/>
+      <c r="E78" s="166"/>
+      <c r="I78" s="166"/>
+      <c r="J78" s="166"/>
+      <c r="K78" s="166"/>
+      <c r="L78" s="166"/>
+      <c r="M78" s="166"/>
+      <c r="N78" s="166"/>
+      <c r="O78" s="166"/>
     </row>
     <row r="79" spans="3:15" ht="15.75" customHeight="1">
-      <c r="C79" s="169"/>
-      <c r="D79" s="169"/>
-      <c r="E79" s="169"/>
+      <c r="C79" s="166"/>
+      <c r="D79" s="166"/>
+      <c r="E79" s="166"/>
     </row>
   </sheetData>
   <mergeCells count="216">
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="A2:M3"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="C79:E79"/>
+    <mergeCell ref="I76:K76"/>
+    <mergeCell ref="L76:O76"/>
+    <mergeCell ref="L77:O77"/>
+    <mergeCell ref="L78:O78"/>
+    <mergeCell ref="I77:K77"/>
+    <mergeCell ref="I78:K78"/>
+    <mergeCell ref="C76:E76"/>
+    <mergeCell ref="C77:F77"/>
+    <mergeCell ref="C78:E78"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:K10"/>
     <mergeCell ref="H43:K43"/>
     <mergeCell ref="A44:B44"/>
     <mergeCell ref="B42:C42"/>
@@ -8733,198 +9037,6 @@
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="H9:I9"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="C79:E79"/>
-    <mergeCell ref="I76:K76"/>
-    <mergeCell ref="L76:O76"/>
-    <mergeCell ref="L77:O77"/>
-    <mergeCell ref="L78:O78"/>
-    <mergeCell ref="I77:K77"/>
-    <mergeCell ref="I78:K78"/>
-    <mergeCell ref="C76:E76"/>
-    <mergeCell ref="C77:F77"/>
-    <mergeCell ref="C78:E78"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="A2:M3"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="D17:E17"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <conditionalFormatting sqref="H6">
@@ -8956,7 +9068,7 @@
   <dimension ref="A1:O70"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="M42" sqref="M42:N42"/>
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -8967,61 +9079,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="76" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A1" s="193" t="s">
+      <c r="A1" s="235" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="193"/>
-      <c r="C1" s="193"/>
-      <c r="D1" s="193"/>
-      <c r="E1" s="193"/>
-      <c r="F1" s="193"/>
-      <c r="G1" s="193"/>
-      <c r="H1" s="193"/>
-      <c r="I1" s="193"/>
-      <c r="J1" s="193"/>
-      <c r="K1" s="193"/>
-      <c r="L1" s="193"/>
-      <c r="M1" s="193"/>
-      <c r="N1" s="145" t="s">
+      <c r="B1" s="235"/>
+      <c r="C1" s="235"/>
+      <c r="D1" s="235"/>
+      <c r="E1" s="235"/>
+      <c r="F1" s="235"/>
+      <c r="G1" s="235"/>
+      <c r="H1" s="235"/>
+      <c r="I1" s="235"/>
+      <c r="J1" s="235"/>
+      <c r="K1" s="235"/>
+      <c r="L1" s="235"/>
+      <c r="M1" s="235"/>
+      <c r="N1" s="185" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="145"/>
+      <c r="O1" s="185"/>
     </row>
     <row r="2" spans="1:15" s="76" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A2" s="194" t="s">
+      <c r="A2" s="236" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="194"/>
-      <c r="C2" s="194"/>
-      <c r="D2" s="194"/>
-      <c r="E2" s="194"/>
-      <c r="F2" s="194"/>
-      <c r="G2" s="194"/>
-      <c r="H2" s="194"/>
-      <c r="I2" s="194"/>
-      <c r="J2" s="194"/>
-      <c r="K2" s="194"/>
-      <c r="L2" s="194"/>
-      <c r="M2" s="194"/>
-      <c r="N2" s="146" t="s">
+      <c r="B2" s="236"/>
+      <c r="C2" s="236"/>
+      <c r="D2" s="236"/>
+      <c r="E2" s="236"/>
+      <c r="F2" s="236"/>
+      <c r="G2" s="236"/>
+      <c r="H2" s="236"/>
+      <c r="I2" s="236"/>
+      <c r="J2" s="236"/>
+      <c r="K2" s="236"/>
+      <c r="L2" s="236"/>
+      <c r="M2" s="236"/>
+      <c r="N2" s="186" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="146"/>
+      <c r="O2" s="186"/>
     </row>
     <row r="3" spans="1:15" s="76" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="194"/>
-      <c r="B3" s="194"/>
-      <c r="C3" s="194"/>
-      <c r="D3" s="194"/>
-      <c r="E3" s="194"/>
-      <c r="F3" s="194"/>
-      <c r="G3" s="194"/>
-      <c r="H3" s="194"/>
-      <c r="I3" s="194"/>
-      <c r="J3" s="194"/>
-      <c r="K3" s="194"/>
-      <c r="L3" s="194"/>
-      <c r="M3" s="194"/>
+      <c r="A3" s="236"/>
+      <c r="B3" s="236"/>
+      <c r="C3" s="236"/>
+      <c r="D3" s="236"/>
+      <c r="E3" s="236"/>
+      <c r="F3" s="236"/>
+      <c r="G3" s="236"/>
+      <c r="H3" s="236"/>
+      <c r="I3" s="236"/>
+      <c r="J3" s="236"/>
+      <c r="K3" s="236"/>
+      <c r="L3" s="236"/>
+      <c r="M3" s="236"/>
       <c r="N3" s="43" t="s">
         <v>19</v>
       </c>
@@ -9031,130 +9143,130 @@
       <c r="A4" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="196">
+      <c r="B4" s="238">
         <f>Page1!B4</f>
         <v>0</v>
       </c>
-      <c r="C4" s="210"/>
-      <c r="D4" s="211"/>
-      <c r="E4" s="212" t="s">
+      <c r="C4" s="240"/>
+      <c r="D4" s="241"/>
+      <c r="E4" s="242" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="213"/>
-      <c r="G4" s="196">
+      <c r="F4" s="243"/>
+      <c r="G4" s="238">
         <f>Page1!G4</f>
         <v>0</v>
       </c>
-      <c r="H4" s="211"/>
+      <c r="H4" s="241"/>
       <c r="I4" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="214">
+      <c r="J4" s="244">
         <f>Page1!J4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="214"/>
-      <c r="L4" s="195" t="s">
+      <c r="K4" s="244"/>
+      <c r="L4" s="237" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="195">
+      <c r="M4" s="237">
         <f>Page1!N4</f>
         <v>0</v>
       </c>
-      <c r="N4" s="196">
+      <c r="N4" s="238">
         <f>Page1!N4</f>
         <v>0</v>
       </c>
-      <c r="O4" s="197"/>
+      <c r="O4" s="239"/>
     </row>
     <row r="5" spans="1:15" s="79" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A5" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="140">
+      <c r="B5" s="181">
         <f>Page1!B5</f>
         <v>0</v>
       </c>
-      <c r="C5" s="215"/>
-      <c r="D5" s="152"/>
-      <c r="E5" s="216" t="s">
+      <c r="C5" s="214"/>
+      <c r="D5" s="192"/>
+      <c r="E5" s="215" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="217"/>
-      <c r="G5" s="140">
+      <c r="F5" s="216"/>
+      <c r="G5" s="181">
         <f>Page1!G5</f>
         <v>0</v>
       </c>
-      <c r="H5" s="152"/>
+      <c r="H5" s="192"/>
       <c r="I5" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="139">
+      <c r="J5" s="165">
         <f>Page1!J5</f>
         <v>0</v>
       </c>
-      <c r="K5" s="139"/>
-      <c r="L5" s="225" t="s">
+      <c r="K5" s="165"/>
+      <c r="L5" s="205" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="225">
+      <c r="M5" s="205">
         <f>Page1!N5</f>
         <v>0</v>
       </c>
-      <c r="N5" s="140">
+      <c r="N5" s="181">
         <f>Page1!N5</f>
         <v>0</v>
       </c>
-      <c r="O5" s="154"/>
+      <c r="O5" s="193"/>
     </row>
     <row r="6" spans="1:15" s="82" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A6" s="198" t="s">
+      <c r="A6" s="219" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="199"/>
-      <c r="C6" s="199"/>
-      <c r="D6" s="199"/>
-      <c r="E6" s="199"/>
-      <c r="F6" s="199"/>
-      <c r="G6" s="199"/>
-      <c r="H6" s="199"/>
-      <c r="I6" s="199"/>
-      <c r="J6" s="199"/>
-      <c r="K6" s="199"/>
-      <c r="L6" s="199"/>
-      <c r="M6" s="199"/>
-      <c r="N6" s="199"/>
+      <c r="B6" s="217"/>
+      <c r="C6" s="217"/>
+      <c r="D6" s="217"/>
+      <c r="E6" s="217"/>
+      <c r="F6" s="217"/>
+      <c r="G6" s="217"/>
+      <c r="H6" s="217"/>
+      <c r="I6" s="217"/>
+      <c r="J6" s="217"/>
+      <c r="K6" s="217"/>
+      <c r="L6" s="217"/>
+      <c r="M6" s="217"/>
+      <c r="N6" s="217"/>
       <c r="O6" s="218"/>
     </row>
     <row r="7" spans="1:15" s="82" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A7" s="233" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="234"/>
-      <c r="C7" s="235"/>
-      <c r="D7" s="206" t="s">
+      <c r="A7" s="229" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="230"/>
+      <c r="C7" s="231"/>
+      <c r="D7" s="224" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="206"/>
-      <c r="F7" s="206"/>
-      <c r="G7" s="206"/>
-      <c r="H7" s="207" t="s">
+      <c r="E7" s="224"/>
+      <c r="F7" s="224"/>
+      <c r="G7" s="224"/>
+      <c r="H7" s="210" t="s">
         <v>119</v>
       </c>
-      <c r="I7" s="208"/>
-      <c r="J7" s="208"/>
-      <c r="K7" s="209"/>
-      <c r="L7" s="207" t="s">
+      <c r="I7" s="211"/>
+      <c r="J7" s="211"/>
+      <c r="K7" s="225"/>
+      <c r="L7" s="210" t="s">
         <v>120</v>
       </c>
-      <c r="M7" s="208"/>
-      <c r="N7" s="208"/>
-      <c r="O7" s="230"/>
+      <c r="M7" s="211"/>
+      <c r="N7" s="211"/>
+      <c r="O7" s="212"/>
     </row>
     <row r="8" spans="1:15" s="82" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A8" s="236"/>
-      <c r="B8" s="237"/>
-      <c r="C8" s="238"/>
+      <c r="A8" s="232"/>
+      <c r="B8" s="233"/>
+      <c r="C8" s="234"/>
       <c r="D8" s="83">
         <v>1</v>
       </c>
@@ -10248,27 +10360,27 @@
       <c r="C39" s="100" t="s">
         <v>23</v>
       </c>
-      <c r="D39" s="219" t="e">
+      <c r="D39" s="226" t="e">
         <f>AVERAGE(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E39" s="220"/>
-      <c r="F39" s="220"/>
-      <c r="G39" s="221"/>
-      <c r="H39" s="222" t="e">
+      <c r="E39" s="227"/>
+      <c r="F39" s="227"/>
+      <c r="G39" s="228"/>
+      <c r="H39" s="202" t="e">
         <f>AVERAGE(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I39" s="223"/>
-      <c r="J39" s="223"/>
-      <c r="K39" s="239"/>
-      <c r="L39" s="222" t="e">
+      <c r="I39" s="203"/>
+      <c r="J39" s="203"/>
+      <c r="K39" s="213"/>
+      <c r="L39" s="202" t="e">
         <f>AVERAGE(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M39" s="223"/>
-      <c r="N39" s="223"/>
-      <c r="O39" s="224"/>
+      <c r="M39" s="203"/>
+      <c r="N39" s="203"/>
+      <c r="O39" s="204"/>
     </row>
     <row r="40" spans="1:15" ht="18" customHeight="1">
       <c r="A40" s="101"/>
@@ -10276,27 +10388,27 @@
       <c r="C40" s="103" t="s">
         <v>24</v>
       </c>
-      <c r="D40" s="200" t="e">
+      <c r="D40" s="220" t="e">
         <f>MIN(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E40" s="201"/>
-      <c r="F40" s="201"/>
-      <c r="G40" s="202"/>
-      <c r="H40" s="226" t="e">
+      <c r="E40" s="221"/>
+      <c r="F40" s="221"/>
+      <c r="G40" s="222"/>
+      <c r="H40" s="206" t="e">
         <f>MIN(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I40" s="227"/>
-      <c r="J40" s="227"/>
-      <c r="K40" s="228"/>
-      <c r="L40" s="226" t="e">
+      <c r="I40" s="207"/>
+      <c r="J40" s="207"/>
+      <c r="K40" s="208"/>
+      <c r="L40" s="206" t="e">
         <f>MIN(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M40" s="227"/>
-      <c r="N40" s="227"/>
-      <c r="O40" s="229"/>
+      <c r="M40" s="207"/>
+      <c r="N40" s="207"/>
+      <c r="O40" s="209"/>
     </row>
     <row r="41" spans="1:15" ht="18" customHeight="1" thickBot="1">
       <c r="A41" s="104"/>
@@ -10304,38 +10416,38 @@
       <c r="C41" s="106" t="s">
         <v>25</v>
       </c>
-      <c r="D41" s="241" t="e">
+      <c r="D41" s="197" t="e">
         <f>MAX(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E41" s="242"/>
-      <c r="F41" s="242"/>
-      <c r="G41" s="243"/>
-      <c r="H41" s="203" t="e">
+      <c r="E41" s="198"/>
+      <c r="F41" s="198"/>
+      <c r="G41" s="199"/>
+      <c r="H41" s="194" t="e">
         <f>MAX(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I41" s="204"/>
-      <c r="J41" s="204"/>
-      <c r="K41" s="205"/>
-      <c r="L41" s="203" t="e">
+      <c r="I41" s="195"/>
+      <c r="J41" s="195"/>
+      <c r="K41" s="223"/>
+      <c r="L41" s="194" t="e">
         <f>MAX(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M41" s="204"/>
-      <c r="N41" s="204"/>
-      <c r="O41" s="240"/>
+      <c r="M41" s="195"/>
+      <c r="N41" s="195"/>
+      <c r="O41" s="196"/>
     </row>
     <row r="42" spans="1:15" s="42" customFormat="1" ht="16.5" customHeight="1">
       <c r="A42" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="B42" s="191"/>
-      <c r="C42" s="191"/>
-      <c r="D42" s="192" t="s">
+      <c r="B42" s="149"/>
+      <c r="C42" s="149"/>
+      <c r="D42" s="150" t="s">
         <v>13</v>
       </c>
-      <c r="E42" s="192"/>
+      <c r="E42" s="150"/>
       <c r="F42" s="67"/>
       <c r="G42" s="68"/>
       <c r="H42" s="68"/>
@@ -10345,16 +10457,16 @@
       <c r="L42" s="127" t="s">
         <v>14</v>
       </c>
-      <c r="M42" s="232"/>
-      <c r="N42" s="232"/>
+      <c r="M42" s="200"/>
+      <c r="N42" s="200"/>
       <c r="O42" s="66" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:15" s="42" customFormat="1" ht="16.5" customHeight="1">
       <c r="A43" s="66"/>
-      <c r="B43" s="174"/>
-      <c r="C43" s="174"/>
+      <c r="B43" s="131"/>
+      <c r="C43" s="131"/>
       <c r="D43" s="44"/>
       <c r="E43" s="44"/>
       <c r="F43" s="66"/>
@@ -10363,39 +10475,39 @@
       <c r="I43" s="68"/>
       <c r="J43" s="68"/>
       <c r="K43" s="69"/>
-      <c r="L43" s="266"/>
-      <c r="M43" s="157"/>
-      <c r="N43" s="157"/>
+      <c r="L43" s="128"/>
+      <c r="M43" s="132"/>
+      <c r="N43" s="132"/>
       <c r="O43" s="69"/>
     </row>
     <row r="44" spans="1:15" s="72" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A44" s="172" t="s">
+      <c r="A44" s="129" t="s">
         <v>12</v>
       </c>
-      <c r="B44" s="172"/>
-      <c r="C44" s="172"/>
+      <c r="B44" s="129"/>
+      <c r="C44" s="129"/>
       <c r="D44" s="71"/>
       <c r="E44" s="71"/>
       <c r="F44" s="71"/>
       <c r="G44" s="43" t="s">
         <v>112</v>
       </c>
-      <c r="H44" s="172" t="s">
+      <c r="H44" s="129" t="s">
         <v>121</v>
       </c>
-      <c r="I44" s="172"/>
-      <c r="J44" s="172"/>
-      <c r="K44" s="172"/>
+      <c r="I44" s="129"/>
+      <c r="J44" s="129"/>
+      <c r="K44" s="129"/>
       <c r="L44" s="71"/>
       <c r="M44" s="71"/>
       <c r="N44" s="71"/>
       <c r="O44" s="71"/>
     </row>
     <row r="45" spans="1:15" s="42" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A45" s="173" t="s">
+      <c r="A45" s="130" t="s">
         <v>21</v>
       </c>
-      <c r="B45" s="173"/>
+      <c r="B45" s="130"/>
       <c r="C45" s="73"/>
       <c r="D45" s="68"/>
       <c r="E45" s="68"/>
@@ -10406,10 +10518,10 @@
       <c r="J45" s="68"/>
       <c r="K45" s="68"/>
       <c r="L45" s="68"/>
-      <c r="M45" s="231" t="s">
+      <c r="M45" s="201" t="s">
         <v>110</v>
       </c>
-      <c r="N45" s="231"/>
+      <c r="N45" s="201"/>
       <c r="O45" s="68"/>
     </row>
     <row r="56" s="93" customFormat="1"/>
@@ -10429,6 +10541,35 @@
     <row r="70" s="93" customFormat="1"/>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="A7:C8"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="A2:M3"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="D6:O6"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="L39:O39"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="L40:O40"/>
+    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="H39:K39"/>
     <mergeCell ref="L41:O41"/>
     <mergeCell ref="D41:G41"/>
     <mergeCell ref="M42:N42"/>
@@ -10440,48 +10581,19 @@
     <mergeCell ref="M45:N45"/>
     <mergeCell ref="H44:K44"/>
     <mergeCell ref="B42:C42"/>
-    <mergeCell ref="L39:O39"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="H40:K40"/>
-    <mergeCell ref="L40:O40"/>
-    <mergeCell ref="L7:O7"/>
-    <mergeCell ref="H39:K39"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="D6:O6"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="H41:K41"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="A7:C8"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="A2:M3"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="J4:K4"/>
   </mergeCells>
   <conditionalFormatting sqref="D9:G41">
-    <cfRule type="cellIs" dxfId="8" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="lessThan">
       <formula>350</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9:K41">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="lessThan">
-      <formula>9</formula>
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
+      <formula>9.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L9:O26 M27:O27 L28:O41">
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="notBetween">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="notBetween">
       <formula>2.5</formula>
       <formula>5.5</formula>
     </cfRule>
@@ -10505,7 +10617,7 @@
   <dimension ref="A1:O45"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -10516,61 +10628,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="76" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A1" s="193" t="s">
+      <c r="A1" s="235" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="193"/>
-      <c r="C1" s="193"/>
-      <c r="D1" s="193"/>
-      <c r="E1" s="193"/>
-      <c r="F1" s="193"/>
-      <c r="G1" s="193"/>
-      <c r="H1" s="193"/>
-      <c r="I1" s="193"/>
-      <c r="J1" s="193"/>
-      <c r="K1" s="193"/>
-      <c r="L1" s="193"/>
-      <c r="M1" s="193"/>
-      <c r="N1" s="145" t="s">
+      <c r="B1" s="235"/>
+      <c r="C1" s="235"/>
+      <c r="D1" s="235"/>
+      <c r="E1" s="235"/>
+      <c r="F1" s="235"/>
+      <c r="G1" s="235"/>
+      <c r="H1" s="235"/>
+      <c r="I1" s="235"/>
+      <c r="J1" s="235"/>
+      <c r="K1" s="235"/>
+      <c r="L1" s="235"/>
+      <c r="M1" s="235"/>
+      <c r="N1" s="185" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="145"/>
+      <c r="O1" s="185"/>
     </row>
     <row r="2" spans="1:15" s="76" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A2" s="194" t="s">
+      <c r="A2" s="236" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="194"/>
-      <c r="C2" s="194"/>
-      <c r="D2" s="194"/>
-      <c r="E2" s="194"/>
-      <c r="F2" s="194"/>
-      <c r="G2" s="194"/>
-      <c r="H2" s="194"/>
-      <c r="I2" s="194"/>
-      <c r="J2" s="194"/>
-      <c r="K2" s="194"/>
-      <c r="L2" s="194"/>
-      <c r="M2" s="194"/>
-      <c r="N2" s="146" t="s">
+      <c r="B2" s="236"/>
+      <c r="C2" s="236"/>
+      <c r="D2" s="236"/>
+      <c r="E2" s="236"/>
+      <c r="F2" s="236"/>
+      <c r="G2" s="236"/>
+      <c r="H2" s="236"/>
+      <c r="I2" s="236"/>
+      <c r="J2" s="236"/>
+      <c r="K2" s="236"/>
+      <c r="L2" s="236"/>
+      <c r="M2" s="236"/>
+      <c r="N2" s="186" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="146"/>
+      <c r="O2" s="186"/>
     </row>
     <row r="3" spans="1:15" s="76" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="194"/>
-      <c r="B3" s="194"/>
-      <c r="C3" s="194"/>
-      <c r="D3" s="194"/>
-      <c r="E3" s="194"/>
-      <c r="F3" s="194"/>
-      <c r="G3" s="194"/>
-      <c r="H3" s="194"/>
-      <c r="I3" s="194"/>
-      <c r="J3" s="194"/>
-      <c r="K3" s="194"/>
-      <c r="L3" s="194"/>
-      <c r="M3" s="194"/>
+      <c r="A3" s="236"/>
+      <c r="B3" s="236"/>
+      <c r="C3" s="236"/>
+      <c r="D3" s="236"/>
+      <c r="E3" s="236"/>
+      <c r="F3" s="236"/>
+      <c r="G3" s="236"/>
+      <c r="H3" s="236"/>
+      <c r="I3" s="236"/>
+      <c r="J3" s="236"/>
+      <c r="K3" s="236"/>
+      <c r="L3" s="236"/>
+      <c r="M3" s="236"/>
       <c r="N3" s="43" t="s">
         <v>19</v>
       </c>
@@ -10580,130 +10692,130 @@
       <c r="A4" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="196">
+      <c r="B4" s="238">
         <f>Page1!B4</f>
         <v>0</v>
       </c>
-      <c r="C4" s="210"/>
-      <c r="D4" s="211"/>
-      <c r="E4" s="212" t="s">
+      <c r="C4" s="240"/>
+      <c r="D4" s="241"/>
+      <c r="E4" s="242" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="213"/>
-      <c r="G4" s="196">
+      <c r="F4" s="243"/>
+      <c r="G4" s="238">
         <f>Page1!G4</f>
         <v>0</v>
       </c>
-      <c r="H4" s="211"/>
+      <c r="H4" s="241"/>
       <c r="I4" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="214">
+      <c r="J4" s="244">
         <f>Page1!J4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="214"/>
-      <c r="L4" s="195" t="s">
+      <c r="K4" s="244"/>
+      <c r="L4" s="237" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="195">
+      <c r="M4" s="237">
         <f>Page1!N4</f>
         <v>0</v>
       </c>
-      <c r="N4" s="196">
+      <c r="N4" s="238">
         <f>Page1!N4</f>
         <v>0</v>
       </c>
-      <c r="O4" s="197"/>
+      <c r="O4" s="239"/>
     </row>
     <row r="5" spans="1:15" s="79" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A5" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="140">
+      <c r="B5" s="181">
         <f>Page1!B5</f>
         <v>0</v>
       </c>
-      <c r="C5" s="215"/>
-      <c r="D5" s="152"/>
-      <c r="E5" s="216" t="s">
+      <c r="C5" s="214"/>
+      <c r="D5" s="192"/>
+      <c r="E5" s="215" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="217"/>
-      <c r="G5" s="140">
+      <c r="F5" s="216"/>
+      <c r="G5" s="181">
         <f>Page1!G5</f>
         <v>0</v>
       </c>
-      <c r="H5" s="152"/>
+      <c r="H5" s="192"/>
       <c r="I5" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="139">
+      <c r="J5" s="165">
         <f>Page1!J5</f>
         <v>0</v>
       </c>
-      <c r="K5" s="139"/>
-      <c r="L5" s="225" t="s">
+      <c r="K5" s="165"/>
+      <c r="L5" s="205" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="225">
+      <c r="M5" s="205">
         <f>Page1!N5</f>
         <v>0</v>
       </c>
-      <c r="N5" s="140">
+      <c r="N5" s="181">
         <f>Page1!N5</f>
         <v>0</v>
       </c>
-      <c r="O5" s="154"/>
+      <c r="O5" s="193"/>
     </row>
     <row r="6" spans="1:15" s="82" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A6" s="198" t="s">
+      <c r="A6" s="219" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="199"/>
-      <c r="C6" s="199"/>
-      <c r="D6" s="199"/>
-      <c r="E6" s="199"/>
-      <c r="F6" s="199"/>
-      <c r="G6" s="199"/>
-      <c r="H6" s="199"/>
-      <c r="I6" s="199"/>
-      <c r="J6" s="199"/>
-      <c r="K6" s="199"/>
-      <c r="L6" s="199"/>
-      <c r="M6" s="199"/>
-      <c r="N6" s="199"/>
+      <c r="B6" s="217"/>
+      <c r="C6" s="217"/>
+      <c r="D6" s="217"/>
+      <c r="E6" s="217"/>
+      <c r="F6" s="217"/>
+      <c r="G6" s="217"/>
+      <c r="H6" s="217"/>
+      <c r="I6" s="217"/>
+      <c r="J6" s="217"/>
+      <c r="K6" s="217"/>
+      <c r="L6" s="217"/>
+      <c r="M6" s="217"/>
+      <c r="N6" s="217"/>
       <c r="O6" s="218"/>
     </row>
     <row r="7" spans="1:15" s="82" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A7" s="233" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="234"/>
-      <c r="C7" s="235"/>
-      <c r="D7" s="206" t="s">
+      <c r="A7" s="229" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="230"/>
+      <c r="C7" s="231"/>
+      <c r="D7" s="224" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="206"/>
-      <c r="F7" s="206"/>
-      <c r="G7" s="206"/>
-      <c r="H7" s="207" t="s">
+      <c r="E7" s="224"/>
+      <c r="F7" s="224"/>
+      <c r="G7" s="224"/>
+      <c r="H7" s="210" t="s">
         <v>118</v>
       </c>
-      <c r="I7" s="208"/>
-      <c r="J7" s="208"/>
-      <c r="K7" s="209"/>
-      <c r="L7" s="207" t="s">
+      <c r="I7" s="211"/>
+      <c r="J7" s="211"/>
+      <c r="K7" s="225"/>
+      <c r="L7" s="210" t="s">
         <v>29</v>
       </c>
-      <c r="M7" s="208"/>
-      <c r="N7" s="208"/>
-      <c r="O7" s="230"/>
+      <c r="M7" s="211"/>
+      <c r="N7" s="211"/>
+      <c r="O7" s="212"/>
     </row>
     <row r="8" spans="1:15" s="82" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A8" s="236"/>
-      <c r="B8" s="237"/>
-      <c r="C8" s="238"/>
+      <c r="A8" s="232"/>
+      <c r="B8" s="233"/>
+      <c r="C8" s="234"/>
       <c r="D8" s="83">
         <v>1</v>
       </c>
@@ -11797,27 +11909,27 @@
       <c r="C39" s="100" t="s">
         <v>23</v>
       </c>
-      <c r="D39" s="219" t="e">
+      <c r="D39" s="226" t="e">
         <f>AVERAGE(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E39" s="220"/>
-      <c r="F39" s="220"/>
-      <c r="G39" s="221"/>
-      <c r="H39" s="222" t="e">
+      <c r="E39" s="227"/>
+      <c r="F39" s="227"/>
+      <c r="G39" s="228"/>
+      <c r="H39" s="202" t="e">
         <f>AVERAGE(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I39" s="223"/>
-      <c r="J39" s="223"/>
-      <c r="K39" s="239"/>
-      <c r="L39" s="222" t="e">
+      <c r="I39" s="203"/>
+      <c r="J39" s="203"/>
+      <c r="K39" s="213"/>
+      <c r="L39" s="202" t="e">
         <f>AVERAGE(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M39" s="223"/>
-      <c r="N39" s="223"/>
-      <c r="O39" s="224"/>
+      <c r="M39" s="203"/>
+      <c r="N39" s="203"/>
+      <c r="O39" s="204"/>
     </row>
     <row r="40" spans="1:15" ht="18" customHeight="1">
       <c r="A40" s="101"/>
@@ -11825,27 +11937,27 @@
       <c r="C40" s="103" t="s">
         <v>24</v>
       </c>
-      <c r="D40" s="200" t="e">
+      <c r="D40" s="220" t="e">
         <f>MIN(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E40" s="201"/>
-      <c r="F40" s="201"/>
-      <c r="G40" s="202"/>
-      <c r="H40" s="226" t="e">
+      <c r="E40" s="221"/>
+      <c r="F40" s="221"/>
+      <c r="G40" s="222"/>
+      <c r="H40" s="206" t="e">
         <f>MIN(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I40" s="227"/>
-      <c r="J40" s="227"/>
-      <c r="K40" s="228"/>
-      <c r="L40" s="226" t="e">
+      <c r="I40" s="207"/>
+      <c r="J40" s="207"/>
+      <c r="K40" s="208"/>
+      <c r="L40" s="206" t="e">
         <f>MIN(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M40" s="227"/>
-      <c r="N40" s="227"/>
-      <c r="O40" s="229"/>
+      <c r="M40" s="207"/>
+      <c r="N40" s="207"/>
+      <c r="O40" s="209"/>
     </row>
     <row r="41" spans="1:15" ht="18" customHeight="1" thickBot="1">
       <c r="A41" s="104"/>
@@ -11853,38 +11965,38 @@
       <c r="C41" s="106" t="s">
         <v>25</v>
       </c>
-      <c r="D41" s="241" t="e">
+      <c r="D41" s="197" t="e">
         <f>MAX(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E41" s="242"/>
-      <c r="F41" s="242"/>
-      <c r="G41" s="243"/>
-      <c r="H41" s="203" t="e">
+      <c r="E41" s="198"/>
+      <c r="F41" s="198"/>
+      <c r="G41" s="199"/>
+      <c r="H41" s="194" t="e">
         <f>MAX(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I41" s="204"/>
-      <c r="J41" s="204"/>
-      <c r="K41" s="205"/>
-      <c r="L41" s="203" t="e">
+      <c r="I41" s="195"/>
+      <c r="J41" s="195"/>
+      <c r="K41" s="223"/>
+      <c r="L41" s="194" t="e">
         <f>MAX(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M41" s="204"/>
-      <c r="N41" s="204"/>
-      <c r="O41" s="240"/>
+      <c r="M41" s="195"/>
+      <c r="N41" s="195"/>
+      <c r="O41" s="196"/>
     </row>
     <row r="42" spans="1:15" s="42" customFormat="1" ht="16.5" customHeight="1">
       <c r="A42" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="B42" s="191"/>
-      <c r="C42" s="191"/>
-      <c r="D42" s="192" t="s">
+      <c r="B42" s="149"/>
+      <c r="C42" s="149"/>
+      <c r="D42" s="150" t="s">
         <v>13</v>
       </c>
-      <c r="E42" s="192"/>
+      <c r="E42" s="150"/>
       <c r="F42" s="67"/>
       <c r="G42" s="68"/>
       <c r="H42" s="68"/>
@@ -11894,16 +12006,16 @@
       <c r="L42" s="127" t="s">
         <v>14</v>
       </c>
-      <c r="M42" s="232"/>
-      <c r="N42" s="232"/>
+      <c r="M42" s="200"/>
+      <c r="N42" s="200"/>
       <c r="O42" s="70" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:15" s="42" customFormat="1" ht="16.5" customHeight="1">
       <c r="A43" s="66"/>
-      <c r="B43" s="174"/>
-      <c r="C43" s="174"/>
+      <c r="B43" s="131"/>
+      <c r="C43" s="131"/>
       <c r="D43" s="44"/>
       <c r="E43" s="44"/>
       <c r="F43" s="66"/>
@@ -11912,39 +12024,39 @@
       <c r="I43" s="68"/>
       <c r="J43" s="68"/>
       <c r="K43" s="108"/>
-      <c r="L43" s="266"/>
-      <c r="M43" s="157"/>
-      <c r="N43" s="157"/>
+      <c r="L43" s="128"/>
+      <c r="M43" s="132"/>
+      <c r="N43" s="132"/>
       <c r="O43" s="108"/>
     </row>
     <row r="44" spans="1:15" s="72" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A44" s="172" t="s">
+      <c r="A44" s="129" t="s">
         <v>12</v>
       </c>
-      <c r="B44" s="172"/>
-      <c r="C44" s="172"/>
+      <c r="B44" s="129"/>
+      <c r="C44" s="129"/>
       <c r="D44" s="71"/>
       <c r="E44" s="71"/>
       <c r="F44" s="71"/>
       <c r="G44" s="43" t="s">
         <v>112</v>
       </c>
-      <c r="H44" s="172" t="s">
+      <c r="H44" s="129" t="s">
         <v>121</v>
       </c>
-      <c r="I44" s="172"/>
-      <c r="J44" s="172"/>
-      <c r="K44" s="172"/>
+      <c r="I44" s="129"/>
+      <c r="J44" s="129"/>
+      <c r="K44" s="129"/>
       <c r="L44" s="71"/>
       <c r="M44" s="71"/>
       <c r="N44" s="71"/>
       <c r="O44" s="71"/>
     </row>
     <row r="45" spans="1:15" s="42" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A45" s="173" t="s">
+      <c r="A45" s="130" t="s">
         <v>21</v>
       </c>
-      <c r="B45" s="173"/>
+      <c r="B45" s="130"/>
       <c r="C45" s="73"/>
       <c r="D45" s="68"/>
       <c r="E45" s="68"/>
@@ -11955,38 +12067,14 @@
       <c r="J45" s="68"/>
       <c r="K45" s="68"/>
       <c r="L45" s="68"/>
-      <c r="M45" s="231" t="s">
+      <c r="M45" s="201" t="s">
         <v>109</v>
       </c>
-      <c r="N45" s="231"/>
+      <c r="N45" s="201"/>
       <c r="O45" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="H44:K44"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="H41:K41"/>
-    <mergeCell ref="L41:O41"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="H39:K39"/>
-    <mergeCell ref="L39:O39"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="H40:K40"/>
-    <mergeCell ref="L40:O40"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:O6"/>
-    <mergeCell ref="A7:C8"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="L7:O7"/>
     <mergeCell ref="L5:M5"/>
     <mergeCell ref="N5:O5"/>
     <mergeCell ref="A1:M1"/>
@@ -12003,21 +12091,45 @@
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="J5:K5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:O6"/>
+    <mergeCell ref="A7:C8"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="L41:O41"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="L39:O39"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="L40:O40"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="M43:N43"/>
   </mergeCells>
   <conditionalFormatting sqref="D9:G41">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="lessThan">
-      <formula>350</formula>
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="lessThan">
+      <formula>400</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9:K41">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="lessThan">
-      <formula>9</formula>
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="lessThan">
+      <formula>6.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L9:O26 M27:O27 L28:O41">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="notBetween">
-      <formula>2.5</formula>
-      <formula>5.5</formula>
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="notBetween">
+      <formula>20</formula>
+      <formula>40</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -12039,7 +12151,7 @@
   <dimension ref="A1:O45"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="R41" sqref="R41"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -12050,61 +12162,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="109" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A1" s="244" t="s">
+      <c r="A1" s="266" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="244"/>
-      <c r="C1" s="244"/>
-      <c r="D1" s="244"/>
-      <c r="E1" s="244"/>
-      <c r="F1" s="244"/>
-      <c r="G1" s="244"/>
-      <c r="H1" s="244"/>
-      <c r="I1" s="244"/>
-      <c r="J1" s="244"/>
-      <c r="K1" s="244"/>
-      <c r="L1" s="244"/>
-      <c r="M1" s="244"/>
-      <c r="N1" s="145" t="s">
+      <c r="B1" s="266"/>
+      <c r="C1" s="266"/>
+      <c r="D1" s="266"/>
+      <c r="E1" s="266"/>
+      <c r="F1" s="266"/>
+      <c r="G1" s="266"/>
+      <c r="H1" s="266"/>
+      <c r="I1" s="266"/>
+      <c r="J1" s="266"/>
+      <c r="K1" s="266"/>
+      <c r="L1" s="266"/>
+      <c r="M1" s="266"/>
+      <c r="N1" s="185" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="145"/>
+      <c r="O1" s="185"/>
     </row>
     <row r="2" spans="1:15" s="109" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A2" s="147" t="s">
+      <c r="A2" s="187" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="147"/>
-      <c r="C2" s="147"/>
-      <c r="D2" s="147"/>
-      <c r="E2" s="147"/>
-      <c r="F2" s="147"/>
-      <c r="G2" s="147"/>
-      <c r="H2" s="147"/>
-      <c r="I2" s="147"/>
-      <c r="J2" s="147"/>
-      <c r="K2" s="147"/>
-      <c r="L2" s="147"/>
-      <c r="M2" s="147"/>
-      <c r="N2" s="146" t="s">
+      <c r="B2" s="187"/>
+      <c r="C2" s="187"/>
+      <c r="D2" s="187"/>
+      <c r="E2" s="187"/>
+      <c r="F2" s="187"/>
+      <c r="G2" s="187"/>
+      <c r="H2" s="187"/>
+      <c r="I2" s="187"/>
+      <c r="J2" s="187"/>
+      <c r="K2" s="187"/>
+      <c r="L2" s="187"/>
+      <c r="M2" s="187"/>
+      <c r="N2" s="186" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="146"/>
+      <c r="O2" s="186"/>
     </row>
     <row r="3" spans="1:15" s="109" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="147"/>
-      <c r="B3" s="147"/>
-      <c r="C3" s="147"/>
-      <c r="D3" s="147"/>
-      <c r="E3" s="147"/>
-      <c r="F3" s="147"/>
-      <c r="G3" s="147"/>
-      <c r="H3" s="147"/>
-      <c r="I3" s="147"/>
-      <c r="J3" s="147"/>
-      <c r="K3" s="147"/>
-      <c r="L3" s="147"/>
-      <c r="M3" s="147"/>
+      <c r="A3" s="187"/>
+      <c r="B3" s="187"/>
+      <c r="C3" s="187"/>
+      <c r="D3" s="187"/>
+      <c r="E3" s="187"/>
+      <c r="F3" s="187"/>
+      <c r="G3" s="187"/>
+      <c r="H3" s="187"/>
+      <c r="I3" s="187"/>
+      <c r="J3" s="187"/>
+      <c r="K3" s="187"/>
+      <c r="L3" s="187"/>
+      <c r="M3" s="187"/>
       <c r="N3" s="43" t="s">
         <v>19</v>
       </c>
@@ -12114,126 +12226,126 @@
       <c r="A4" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="196">
+      <c r="B4" s="238">
         <f>Page1!B4</f>
         <v>0</v>
       </c>
-      <c r="C4" s="210"/>
-      <c r="D4" s="211"/>
-      <c r="E4" s="212" t="s">
+      <c r="C4" s="240"/>
+      <c r="D4" s="241"/>
+      <c r="E4" s="242" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="213"/>
-      <c r="G4" s="196">
+      <c r="F4" s="243"/>
+      <c r="G4" s="238">
         <f>Page1!G4</f>
         <v>0</v>
       </c>
-      <c r="H4" s="211"/>
+      <c r="H4" s="241"/>
       <c r="I4" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="214">
+      <c r="J4" s="244">
         <f>Page1!J4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="214"/>
-      <c r="L4" s="195" t="s">
+      <c r="K4" s="244"/>
+      <c r="L4" s="237" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="195">
+      <c r="M4" s="237">
         <f>Page1!N4</f>
         <v>0</v>
       </c>
-      <c r="N4" s="196">
+      <c r="N4" s="238">
         <f>Page1!N4</f>
         <v>0</v>
       </c>
-      <c r="O4" s="197"/>
+      <c r="O4" s="239"/>
     </row>
     <row r="5" spans="1:15" s="71" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A5" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="140">
+      <c r="B5" s="181">
         <f>Page1!B5</f>
         <v>0</v>
       </c>
-      <c r="C5" s="215"/>
-      <c r="D5" s="152"/>
-      <c r="E5" s="216" t="s">
+      <c r="C5" s="214"/>
+      <c r="D5" s="192"/>
+      <c r="E5" s="215" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="217"/>
-      <c r="G5" s="140">
+      <c r="F5" s="216"/>
+      <c r="G5" s="181">
         <f>Page1!G5</f>
         <v>0</v>
       </c>
-      <c r="H5" s="152"/>
+      <c r="H5" s="192"/>
       <c r="I5" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="139">
+      <c r="J5" s="165">
         <f>Page1!J5</f>
         <v>0</v>
       </c>
-      <c r="K5" s="139"/>
-      <c r="L5" s="225" t="s">
+      <c r="K5" s="165"/>
+      <c r="L5" s="205" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="225">
+      <c r="M5" s="205">
         <f>Page1!N5</f>
         <v>0</v>
       </c>
-      <c r="N5" s="140">
+      <c r="N5" s="181">
         <f>Page1!N5</f>
         <v>0</v>
       </c>
-      <c r="O5" s="154"/>
+      <c r="O5" s="193"/>
     </row>
     <row r="6" spans="1:15" s="110" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A6" s="251" t="s">
+      <c r="A6" s="252" t="s">
         <v>113</v>
       </c>
-      <c r="B6" s="252"/>
-      <c r="C6" s="252"/>
-      <c r="D6" s="253"/>
-      <c r="E6" s="253"/>
-      <c r="F6" s="253"/>
-      <c r="G6" s="254"/>
-      <c r="H6" s="255"/>
-      <c r="I6" s="253"/>
-      <c r="J6" s="253"/>
-      <c r="K6" s="253"/>
-      <c r="L6" s="253"/>
-      <c r="M6" s="253"/>
-      <c r="N6" s="253"/>
-      <c r="O6" s="254"/>
+      <c r="B6" s="253"/>
+      <c r="C6" s="253"/>
+      <c r="D6" s="254"/>
+      <c r="E6" s="254"/>
+      <c r="F6" s="254"/>
+      <c r="G6" s="255"/>
+      <c r="H6" s="256"/>
+      <c r="I6" s="254"/>
+      <c r="J6" s="254"/>
+      <c r="K6" s="254"/>
+      <c r="L6" s="254"/>
+      <c r="M6" s="254"/>
+      <c r="N6" s="254"/>
+      <c r="O6" s="255"/>
     </row>
     <row r="7" spans="1:15" s="72" customFormat="1" ht="30" customHeight="1">
-      <c r="A7" s="245" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="214"/>
-      <c r="C7" s="214"/>
-      <c r="D7" s="210" t="s">
+      <c r="A7" s="246" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="244"/>
+      <c r="C7" s="244"/>
+      <c r="D7" s="240" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="210"/>
-      <c r="F7" s="210"/>
-      <c r="G7" s="210"/>
-      <c r="H7" s="246"/>
-      <c r="I7" s="247"/>
-      <c r="J7" s="247"/>
-      <c r="K7" s="247"/>
-      <c r="L7" s="247"/>
-      <c r="M7" s="247"/>
-      <c r="N7" s="247"/>
-      <c r="O7" s="248"/>
+      <c r="E7" s="240"/>
+      <c r="F7" s="240"/>
+      <c r="G7" s="240"/>
+      <c r="H7" s="247"/>
+      <c r="I7" s="248"/>
+      <c r="J7" s="248"/>
+      <c r="K7" s="248"/>
+      <c r="L7" s="248"/>
+      <c r="M7" s="248"/>
+      <c r="N7" s="248"/>
+      <c r="O7" s="249"/>
     </row>
     <row r="8" spans="1:15" s="72" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="A8" s="138"/>
-      <c r="B8" s="139"/>
-      <c r="C8" s="139"/>
+      <c r="A8" s="180"/>
+      <c r="B8" s="165"/>
+      <c r="C8" s="165"/>
       <c r="D8" s="111">
         <v>1</v>
       </c>
@@ -12246,14 +12358,14 @@
       <c r="G8" s="113" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="233"/>
-      <c r="I8" s="234"/>
-      <c r="J8" s="234"/>
-      <c r="K8" s="234"/>
-      <c r="L8" s="234"/>
-      <c r="M8" s="234"/>
-      <c r="N8" s="234"/>
-      <c r="O8" s="249"/>
+      <c r="H8" s="229"/>
+      <c r="I8" s="230"/>
+      <c r="J8" s="230"/>
+      <c r="K8" s="230"/>
+      <c r="L8" s="230"/>
+      <c r="M8" s="230"/>
+      <c r="N8" s="230"/>
+      <c r="O8" s="250"/>
     </row>
     <row r="9" spans="1:15" ht="18" customHeight="1">
       <c r="A9" s="86">
@@ -12275,14 +12387,14 @@
         <f>AVERAGE(D9:F9)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H9" s="233"/>
-      <c r="I9" s="234"/>
-      <c r="J9" s="234"/>
-      <c r="K9" s="234"/>
-      <c r="L9" s="234"/>
-      <c r="M9" s="234"/>
-      <c r="N9" s="234"/>
-      <c r="O9" s="249"/>
+      <c r="H9" s="229"/>
+      <c r="I9" s="230"/>
+      <c r="J9" s="230"/>
+      <c r="K9" s="230"/>
+      <c r="L9" s="230"/>
+      <c r="M9" s="230"/>
+      <c r="N9" s="230"/>
+      <c r="O9" s="250"/>
     </row>
     <row r="10" spans="1:15" ht="18" customHeight="1">
       <c r="A10" s="86">
@@ -12304,14 +12416,14 @@
         <f t="shared" ref="G10:G38" si="0">AVERAGE(D10:F10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H10" s="233"/>
-      <c r="I10" s="234"/>
-      <c r="J10" s="234"/>
-      <c r="K10" s="234"/>
-      <c r="L10" s="234"/>
-      <c r="M10" s="234"/>
-      <c r="N10" s="234"/>
-      <c r="O10" s="249"/>
+      <c r="H10" s="229"/>
+      <c r="I10" s="230"/>
+      <c r="J10" s="230"/>
+      <c r="K10" s="230"/>
+      <c r="L10" s="230"/>
+      <c r="M10" s="230"/>
+      <c r="N10" s="230"/>
+      <c r="O10" s="250"/>
     </row>
     <row r="11" spans="1:15" ht="18" customHeight="1">
       <c r="A11" s="86">
@@ -12333,14 +12445,14 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H11" s="233"/>
-      <c r="I11" s="234"/>
-      <c r="J11" s="234"/>
-      <c r="K11" s="234"/>
-      <c r="L11" s="234"/>
-      <c r="M11" s="234"/>
-      <c r="N11" s="234"/>
-      <c r="O11" s="249"/>
+      <c r="H11" s="229"/>
+      <c r="I11" s="230"/>
+      <c r="J11" s="230"/>
+      <c r="K11" s="230"/>
+      <c r="L11" s="230"/>
+      <c r="M11" s="230"/>
+      <c r="N11" s="230"/>
+      <c r="O11" s="250"/>
     </row>
     <row r="12" spans="1:15" ht="18" customHeight="1">
       <c r="A12" s="86">
@@ -12362,14 +12474,14 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H12" s="233"/>
-      <c r="I12" s="234"/>
-      <c r="J12" s="234"/>
-      <c r="K12" s="234"/>
-      <c r="L12" s="234"/>
-      <c r="M12" s="234"/>
-      <c r="N12" s="234"/>
-      <c r="O12" s="249"/>
+      <c r="H12" s="229"/>
+      <c r="I12" s="230"/>
+      <c r="J12" s="230"/>
+      <c r="K12" s="230"/>
+      <c r="L12" s="230"/>
+      <c r="M12" s="230"/>
+      <c r="N12" s="230"/>
+      <c r="O12" s="250"/>
     </row>
     <row r="13" spans="1:15" ht="18" customHeight="1">
       <c r="A13" s="86">
@@ -12391,14 +12503,14 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H13" s="233"/>
-      <c r="I13" s="234"/>
-      <c r="J13" s="234"/>
-      <c r="K13" s="234"/>
-      <c r="L13" s="234"/>
-      <c r="M13" s="234"/>
-      <c r="N13" s="234"/>
-      <c r="O13" s="249"/>
+      <c r="H13" s="229"/>
+      <c r="I13" s="230"/>
+      <c r="J13" s="230"/>
+      <c r="K13" s="230"/>
+      <c r="L13" s="230"/>
+      <c r="M13" s="230"/>
+      <c r="N13" s="230"/>
+      <c r="O13" s="250"/>
     </row>
     <row r="14" spans="1:15" ht="18" customHeight="1">
       <c r="A14" s="86">
@@ -12420,14 +12532,14 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H14" s="233"/>
-      <c r="I14" s="234"/>
-      <c r="J14" s="234"/>
-      <c r="K14" s="234"/>
-      <c r="L14" s="234"/>
-      <c r="M14" s="234"/>
-      <c r="N14" s="234"/>
-      <c r="O14" s="249"/>
+      <c r="H14" s="229"/>
+      <c r="I14" s="230"/>
+      <c r="J14" s="230"/>
+      <c r="K14" s="230"/>
+      <c r="L14" s="230"/>
+      <c r="M14" s="230"/>
+      <c r="N14" s="230"/>
+      <c r="O14" s="250"/>
     </row>
     <row r="15" spans="1:15" ht="18" customHeight="1">
       <c r="A15" s="86">
@@ -12449,14 +12561,14 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H15" s="233"/>
-      <c r="I15" s="234"/>
-      <c r="J15" s="234"/>
-      <c r="K15" s="234"/>
-      <c r="L15" s="234"/>
-      <c r="M15" s="234"/>
-      <c r="N15" s="234"/>
-      <c r="O15" s="249"/>
+      <c r="H15" s="229"/>
+      <c r="I15" s="230"/>
+      <c r="J15" s="230"/>
+      <c r="K15" s="230"/>
+      <c r="L15" s="230"/>
+      <c r="M15" s="230"/>
+      <c r="N15" s="230"/>
+      <c r="O15" s="250"/>
     </row>
     <row r="16" spans="1:15" ht="18" customHeight="1">
       <c r="A16" s="86">
@@ -12478,14 +12590,14 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H16" s="233"/>
-      <c r="I16" s="234"/>
-      <c r="J16" s="234"/>
-      <c r="K16" s="234"/>
-      <c r="L16" s="234"/>
-      <c r="M16" s="234"/>
-      <c r="N16" s="234"/>
-      <c r="O16" s="249"/>
+      <c r="H16" s="229"/>
+      <c r="I16" s="230"/>
+      <c r="J16" s="230"/>
+      <c r="K16" s="230"/>
+      <c r="L16" s="230"/>
+      <c r="M16" s="230"/>
+      <c r="N16" s="230"/>
+      <c r="O16" s="250"/>
     </row>
     <row r="17" spans="1:15" ht="18" customHeight="1">
       <c r="A17" s="86">
@@ -12507,14 +12619,14 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H17" s="233"/>
-      <c r="I17" s="234"/>
-      <c r="J17" s="234"/>
-      <c r="K17" s="234"/>
-      <c r="L17" s="234"/>
-      <c r="M17" s="234"/>
-      <c r="N17" s="234"/>
-      <c r="O17" s="249"/>
+      <c r="H17" s="229"/>
+      <c r="I17" s="230"/>
+      <c r="J17" s="230"/>
+      <c r="K17" s="230"/>
+      <c r="L17" s="230"/>
+      <c r="M17" s="230"/>
+      <c r="N17" s="230"/>
+      <c r="O17" s="250"/>
     </row>
     <row r="18" spans="1:15" ht="18" customHeight="1">
       <c r="A18" s="86">
@@ -12536,14 +12648,14 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H18" s="233"/>
-      <c r="I18" s="234"/>
-      <c r="J18" s="234"/>
-      <c r="K18" s="234"/>
-      <c r="L18" s="234"/>
-      <c r="M18" s="234"/>
-      <c r="N18" s="234"/>
-      <c r="O18" s="249"/>
+      <c r="H18" s="229"/>
+      <c r="I18" s="230"/>
+      <c r="J18" s="230"/>
+      <c r="K18" s="230"/>
+      <c r="L18" s="230"/>
+      <c r="M18" s="230"/>
+      <c r="N18" s="230"/>
+      <c r="O18" s="250"/>
     </row>
     <row r="19" spans="1:15" ht="18" customHeight="1">
       <c r="A19" s="86">
@@ -12565,14 +12677,14 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H19" s="233"/>
-      <c r="I19" s="234"/>
-      <c r="J19" s="234"/>
-      <c r="K19" s="234"/>
-      <c r="L19" s="234"/>
-      <c r="M19" s="234"/>
-      <c r="N19" s="234"/>
-      <c r="O19" s="249"/>
+      <c r="H19" s="229"/>
+      <c r="I19" s="230"/>
+      <c r="J19" s="230"/>
+      <c r="K19" s="230"/>
+      <c r="L19" s="230"/>
+      <c r="M19" s="230"/>
+      <c r="N19" s="230"/>
+      <c r="O19" s="250"/>
     </row>
     <row r="20" spans="1:15" ht="18" customHeight="1">
       <c r="A20" s="86">
@@ -12594,14 +12706,14 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H20" s="233"/>
-      <c r="I20" s="234"/>
-      <c r="J20" s="234"/>
-      <c r="K20" s="234"/>
-      <c r="L20" s="234"/>
-      <c r="M20" s="234"/>
-      <c r="N20" s="234"/>
-      <c r="O20" s="249"/>
+      <c r="H20" s="229"/>
+      <c r="I20" s="230"/>
+      <c r="J20" s="230"/>
+      <c r="K20" s="230"/>
+      <c r="L20" s="230"/>
+      <c r="M20" s="230"/>
+      <c r="N20" s="230"/>
+      <c r="O20" s="250"/>
     </row>
     <row r="21" spans="1:15" ht="18" customHeight="1">
       <c r="A21" s="86">
@@ -12623,14 +12735,14 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H21" s="233"/>
-      <c r="I21" s="234"/>
-      <c r="J21" s="234"/>
-      <c r="K21" s="234"/>
-      <c r="L21" s="234"/>
-      <c r="M21" s="234"/>
-      <c r="N21" s="234"/>
-      <c r="O21" s="249"/>
+      <c r="H21" s="229"/>
+      <c r="I21" s="230"/>
+      <c r="J21" s="230"/>
+      <c r="K21" s="230"/>
+      <c r="L21" s="230"/>
+      <c r="M21" s="230"/>
+      <c r="N21" s="230"/>
+      <c r="O21" s="250"/>
     </row>
     <row r="22" spans="1:15" ht="18" customHeight="1">
       <c r="A22" s="86">
@@ -12652,14 +12764,14 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H22" s="233"/>
-      <c r="I22" s="234"/>
-      <c r="J22" s="234"/>
-      <c r="K22" s="234"/>
-      <c r="L22" s="234"/>
-      <c r="M22" s="234"/>
-      <c r="N22" s="234"/>
-      <c r="O22" s="249"/>
+      <c r="H22" s="229"/>
+      <c r="I22" s="230"/>
+      <c r="J22" s="230"/>
+      <c r="K22" s="230"/>
+      <c r="L22" s="230"/>
+      <c r="M22" s="230"/>
+      <c r="N22" s="230"/>
+      <c r="O22" s="250"/>
     </row>
     <row r="23" spans="1:15" ht="18" customHeight="1">
       <c r="A23" s="86">
@@ -12681,14 +12793,14 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H23" s="233"/>
-      <c r="I23" s="234"/>
-      <c r="J23" s="234"/>
-      <c r="K23" s="234"/>
-      <c r="L23" s="234"/>
-      <c r="M23" s="234"/>
-      <c r="N23" s="234"/>
-      <c r="O23" s="249"/>
+      <c r="H23" s="229"/>
+      <c r="I23" s="230"/>
+      <c r="J23" s="230"/>
+      <c r="K23" s="230"/>
+      <c r="L23" s="230"/>
+      <c r="M23" s="230"/>
+      <c r="N23" s="230"/>
+      <c r="O23" s="250"/>
     </row>
     <row r="24" spans="1:15" ht="18" customHeight="1">
       <c r="A24" s="86">
@@ -12710,14 +12822,14 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H24" s="233"/>
-      <c r="I24" s="234"/>
-      <c r="J24" s="234"/>
-      <c r="K24" s="234"/>
-      <c r="L24" s="234"/>
-      <c r="M24" s="234"/>
-      <c r="N24" s="234"/>
-      <c r="O24" s="249"/>
+      <c r="H24" s="229"/>
+      <c r="I24" s="230"/>
+      <c r="J24" s="230"/>
+      <c r="K24" s="230"/>
+      <c r="L24" s="230"/>
+      <c r="M24" s="230"/>
+      <c r="N24" s="230"/>
+      <c r="O24" s="250"/>
     </row>
     <row r="25" spans="1:15" ht="18" customHeight="1">
       <c r="A25" s="86">
@@ -12739,14 +12851,14 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H25" s="233"/>
-      <c r="I25" s="234"/>
-      <c r="J25" s="234"/>
-      <c r="K25" s="234"/>
-      <c r="L25" s="234"/>
-      <c r="M25" s="234"/>
-      <c r="N25" s="234"/>
-      <c r="O25" s="249"/>
+      <c r="H25" s="229"/>
+      <c r="I25" s="230"/>
+      <c r="J25" s="230"/>
+      <c r="K25" s="230"/>
+      <c r="L25" s="230"/>
+      <c r="M25" s="230"/>
+      <c r="N25" s="230"/>
+      <c r="O25" s="250"/>
     </row>
     <row r="26" spans="1:15" ht="18" customHeight="1">
       <c r="A26" s="86">
@@ -12768,14 +12880,14 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H26" s="233"/>
-      <c r="I26" s="234"/>
-      <c r="J26" s="234"/>
-      <c r="K26" s="234"/>
-      <c r="L26" s="234"/>
-      <c r="M26" s="234"/>
-      <c r="N26" s="234"/>
-      <c r="O26" s="249"/>
+      <c r="H26" s="229"/>
+      <c r="I26" s="230"/>
+      <c r="J26" s="230"/>
+      <c r="K26" s="230"/>
+      <c r="L26" s="230"/>
+      <c r="M26" s="230"/>
+      <c r="N26" s="230"/>
+      <c r="O26" s="250"/>
     </row>
     <row r="27" spans="1:15" ht="18" customHeight="1">
       <c r="A27" s="86">
@@ -12797,14 +12909,14 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H27" s="233"/>
-      <c r="I27" s="234"/>
-      <c r="J27" s="234"/>
-      <c r="K27" s="234"/>
-      <c r="L27" s="234"/>
-      <c r="M27" s="234"/>
-      <c r="N27" s="234"/>
-      <c r="O27" s="249"/>
+      <c r="H27" s="229"/>
+      <c r="I27" s="230"/>
+      <c r="J27" s="230"/>
+      <c r="K27" s="230"/>
+      <c r="L27" s="230"/>
+      <c r="M27" s="230"/>
+      <c r="N27" s="230"/>
+      <c r="O27" s="250"/>
     </row>
     <row r="28" spans="1:15" ht="18" customHeight="1">
       <c r="A28" s="86">
@@ -12826,14 +12938,14 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H28" s="233"/>
-      <c r="I28" s="234"/>
-      <c r="J28" s="234"/>
-      <c r="K28" s="234"/>
-      <c r="L28" s="234"/>
-      <c r="M28" s="234"/>
-      <c r="N28" s="234"/>
-      <c r="O28" s="249"/>
+      <c r="H28" s="229"/>
+      <c r="I28" s="230"/>
+      <c r="J28" s="230"/>
+      <c r="K28" s="230"/>
+      <c r="L28" s="230"/>
+      <c r="M28" s="230"/>
+      <c r="N28" s="230"/>
+      <c r="O28" s="250"/>
     </row>
     <row r="29" spans="1:15" ht="18" customHeight="1">
       <c r="A29" s="86">
@@ -12855,14 +12967,14 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H29" s="233"/>
-      <c r="I29" s="234"/>
-      <c r="J29" s="234"/>
-      <c r="K29" s="234"/>
-      <c r="L29" s="234"/>
-      <c r="M29" s="234"/>
-      <c r="N29" s="234"/>
-      <c r="O29" s="249"/>
+      <c r="H29" s="229"/>
+      <c r="I29" s="230"/>
+      <c r="J29" s="230"/>
+      <c r="K29" s="230"/>
+      <c r="L29" s="230"/>
+      <c r="M29" s="230"/>
+      <c r="N29" s="230"/>
+      <c r="O29" s="250"/>
     </row>
     <row r="30" spans="1:15" ht="18" customHeight="1">
       <c r="A30" s="86">
@@ -12884,14 +12996,14 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H30" s="233"/>
-      <c r="I30" s="234"/>
-      <c r="J30" s="234"/>
-      <c r="K30" s="234"/>
-      <c r="L30" s="234"/>
-      <c r="M30" s="234"/>
-      <c r="N30" s="234"/>
-      <c r="O30" s="249"/>
+      <c r="H30" s="229"/>
+      <c r="I30" s="230"/>
+      <c r="J30" s="230"/>
+      <c r="K30" s="230"/>
+      <c r="L30" s="230"/>
+      <c r="M30" s="230"/>
+      <c r="N30" s="230"/>
+      <c r="O30" s="250"/>
     </row>
     <row r="31" spans="1:15" ht="18" customHeight="1">
       <c r="A31" s="86">
@@ -12913,14 +13025,14 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H31" s="233"/>
-      <c r="I31" s="234"/>
-      <c r="J31" s="234"/>
-      <c r="K31" s="234"/>
-      <c r="L31" s="234"/>
-      <c r="M31" s="234"/>
-      <c r="N31" s="234"/>
-      <c r="O31" s="249"/>
+      <c r="H31" s="229"/>
+      <c r="I31" s="230"/>
+      <c r="J31" s="230"/>
+      <c r="K31" s="230"/>
+      <c r="L31" s="230"/>
+      <c r="M31" s="230"/>
+      <c r="N31" s="230"/>
+      <c r="O31" s="250"/>
     </row>
     <row r="32" spans="1:15" ht="18" customHeight="1">
       <c r="A32" s="86">
@@ -12942,14 +13054,14 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H32" s="233"/>
-      <c r="I32" s="234"/>
-      <c r="J32" s="234"/>
-      <c r="K32" s="234"/>
-      <c r="L32" s="234"/>
-      <c r="M32" s="234"/>
-      <c r="N32" s="234"/>
-      <c r="O32" s="249"/>
+      <c r="H32" s="229"/>
+      <c r="I32" s="230"/>
+      <c r="J32" s="230"/>
+      <c r="K32" s="230"/>
+      <c r="L32" s="230"/>
+      <c r="M32" s="230"/>
+      <c r="N32" s="230"/>
+      <c r="O32" s="250"/>
     </row>
     <row r="33" spans="1:15" ht="18" customHeight="1">
       <c r="A33" s="86">
@@ -12971,14 +13083,14 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H33" s="233"/>
-      <c r="I33" s="234"/>
-      <c r="J33" s="234"/>
-      <c r="K33" s="234"/>
-      <c r="L33" s="234"/>
-      <c r="M33" s="234"/>
-      <c r="N33" s="234"/>
-      <c r="O33" s="249"/>
+      <c r="H33" s="229"/>
+      <c r="I33" s="230"/>
+      <c r="J33" s="230"/>
+      <c r="K33" s="230"/>
+      <c r="L33" s="230"/>
+      <c r="M33" s="230"/>
+      <c r="N33" s="230"/>
+      <c r="O33" s="250"/>
     </row>
     <row r="34" spans="1:15" ht="18" customHeight="1">
       <c r="A34" s="86">
@@ -13000,14 +13112,14 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H34" s="233"/>
-      <c r="I34" s="234"/>
-      <c r="J34" s="234"/>
-      <c r="K34" s="234"/>
-      <c r="L34" s="234"/>
-      <c r="M34" s="234"/>
-      <c r="N34" s="234"/>
-      <c r="O34" s="249"/>
+      <c r="H34" s="229"/>
+      <c r="I34" s="230"/>
+      <c r="J34" s="230"/>
+      <c r="K34" s="230"/>
+      <c r="L34" s="230"/>
+      <c r="M34" s="230"/>
+      <c r="N34" s="230"/>
+      <c r="O34" s="250"/>
     </row>
     <row r="35" spans="1:15" ht="18" customHeight="1">
       <c r="A35" s="86">
@@ -13029,14 +13141,14 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H35" s="233"/>
-      <c r="I35" s="234"/>
-      <c r="J35" s="234"/>
-      <c r="K35" s="234"/>
-      <c r="L35" s="234"/>
-      <c r="M35" s="234"/>
-      <c r="N35" s="234"/>
-      <c r="O35" s="249"/>
+      <c r="H35" s="229"/>
+      <c r="I35" s="230"/>
+      <c r="J35" s="230"/>
+      <c r="K35" s="230"/>
+      <c r="L35" s="230"/>
+      <c r="M35" s="230"/>
+      <c r="N35" s="230"/>
+      <c r="O35" s="250"/>
     </row>
     <row r="36" spans="1:15" ht="18" customHeight="1">
       <c r="A36" s="86">
@@ -13058,14 +13170,14 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H36" s="233"/>
-      <c r="I36" s="234"/>
-      <c r="J36" s="234"/>
-      <c r="K36" s="234"/>
-      <c r="L36" s="234"/>
-      <c r="M36" s="234"/>
-      <c r="N36" s="234"/>
-      <c r="O36" s="249"/>
+      <c r="H36" s="229"/>
+      <c r="I36" s="230"/>
+      <c r="J36" s="230"/>
+      <c r="K36" s="230"/>
+      <c r="L36" s="230"/>
+      <c r="M36" s="230"/>
+      <c r="N36" s="230"/>
+      <c r="O36" s="250"/>
     </row>
     <row r="37" spans="1:15" ht="18" customHeight="1">
       <c r="A37" s="86">
@@ -13087,14 +13199,14 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H37" s="233"/>
-      <c r="I37" s="234"/>
-      <c r="J37" s="234"/>
-      <c r="K37" s="234"/>
-      <c r="L37" s="234"/>
-      <c r="M37" s="234"/>
-      <c r="N37" s="234"/>
-      <c r="O37" s="249"/>
+      <c r="H37" s="229"/>
+      <c r="I37" s="230"/>
+      <c r="J37" s="230"/>
+      <c r="K37" s="230"/>
+      <c r="L37" s="230"/>
+      <c r="M37" s="230"/>
+      <c r="N37" s="230"/>
+      <c r="O37" s="250"/>
     </row>
     <row r="38" spans="1:15" ht="18" customHeight="1" thickBot="1">
       <c r="A38" s="86">
@@ -13116,14 +13228,14 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H38" s="233"/>
-      <c r="I38" s="234"/>
-      <c r="J38" s="234"/>
-      <c r="K38" s="234"/>
-      <c r="L38" s="234"/>
-      <c r="M38" s="234"/>
-      <c r="N38" s="234"/>
-      <c r="O38" s="249"/>
+      <c r="H38" s="229"/>
+      <c r="I38" s="230"/>
+      <c r="J38" s="230"/>
+      <c r="K38" s="230"/>
+      <c r="L38" s="230"/>
+      <c r="M38" s="230"/>
+      <c r="N38" s="230"/>
+      <c r="O38" s="250"/>
     </row>
     <row r="39" spans="1:15" s="72" customFormat="1" ht="18" customHeight="1">
       <c r="A39" s="121"/>
@@ -13131,21 +13243,24 @@
       <c r="C39" s="122" t="s">
         <v>23</v>
       </c>
-      <c r="D39" s="262"/>
-      <c r="E39" s="263"/>
-      <c r="F39" s="263"/>
-      <c r="G39" s="264" t="e">
+      <c r="D39" s="263" t="e">
         <f>AVERAGE(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H39" s="233"/>
-      <c r="I39" s="234"/>
-      <c r="J39" s="234"/>
-      <c r="K39" s="234"/>
-      <c r="L39" s="234"/>
-      <c r="M39" s="234"/>
-      <c r="N39" s="234"/>
-      <c r="O39" s="249"/>
+      <c r="E39" s="264"/>
+      <c r="F39" s="264"/>
+      <c r="G39" s="265" t="e">
+        <f>AVERAGE(G9:G38)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H39" s="229"/>
+      <c r="I39" s="230"/>
+      <c r="J39" s="230"/>
+      <c r="K39" s="230"/>
+      <c r="L39" s="230"/>
+      <c r="M39" s="230"/>
+      <c r="N39" s="230"/>
+      <c r="O39" s="250"/>
     </row>
     <row r="40" spans="1:15" s="72" customFormat="1" ht="18" customHeight="1">
       <c r="A40" s="123"/>
@@ -13153,21 +13268,24 @@
       <c r="C40" s="124" t="s">
         <v>24</v>
       </c>
-      <c r="D40" s="256"/>
-      <c r="E40" s="257"/>
-      <c r="F40" s="257"/>
-      <c r="G40" s="258" t="e">
+      <c r="D40" s="257" t="e">
         <f>MIN(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H40" s="233"/>
-      <c r="I40" s="234"/>
-      <c r="J40" s="234"/>
-      <c r="K40" s="234"/>
-      <c r="L40" s="234"/>
-      <c r="M40" s="234"/>
-      <c r="N40" s="234"/>
-      <c r="O40" s="249"/>
+      <c r="E40" s="258"/>
+      <c r="F40" s="258"/>
+      <c r="G40" s="259" t="e">
+        <f>MIN(G9:G38)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H40" s="229"/>
+      <c r="I40" s="230"/>
+      <c r="J40" s="230"/>
+      <c r="K40" s="230"/>
+      <c r="L40" s="230"/>
+      <c r="M40" s="230"/>
+      <c r="N40" s="230"/>
+      <c r="O40" s="250"/>
     </row>
     <row r="41" spans="1:15" s="72" customFormat="1" ht="18" customHeight="1" thickBot="1">
       <c r="A41" s="125"/>
@@ -13175,51 +13293,54 @@
       <c r="C41" s="126" t="s">
         <v>25</v>
       </c>
-      <c r="D41" s="259"/>
-      <c r="E41" s="260"/>
-      <c r="F41" s="260"/>
-      <c r="G41" s="261" t="e">
+      <c r="D41" s="260" t="e">
         <f>MAX(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H41" s="236"/>
-      <c r="I41" s="237"/>
-      <c r="J41" s="237"/>
-      <c r="K41" s="237"/>
-      <c r="L41" s="237"/>
-      <c r="M41" s="237"/>
-      <c r="N41" s="237"/>
-      <c r="O41" s="250"/>
+      <c r="E41" s="261"/>
+      <c r="F41" s="261"/>
+      <c r="G41" s="262" t="e">
+        <f>MAX(G9:G38)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H41" s="232"/>
+      <c r="I41" s="233"/>
+      <c r="J41" s="233"/>
+      <c r="K41" s="233"/>
+      <c r="L41" s="233"/>
+      <c r="M41" s="233"/>
+      <c r="N41" s="233"/>
+      <c r="O41" s="251"/>
     </row>
     <row r="42" spans="1:15" s="42" customFormat="1" ht="16.5" customHeight="1">
       <c r="A42" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="B42" s="191"/>
-      <c r="C42" s="191"/>
-      <c r="D42" s="192" t="s">
+      <c r="B42" s="149"/>
+      <c r="C42" s="149"/>
+      <c r="D42" s="150" t="s">
         <v>13</v>
       </c>
-      <c r="E42" s="192"/>
+      <c r="E42" s="150"/>
       <c r="F42" s="67"/>
       <c r="G42" s="68"/>
       <c r="H42" s="68"/>
       <c r="I42" s="68"/>
-      <c r="J42" s="265"/>
-      <c r="K42" s="265"/>
+      <c r="J42" s="245"/>
+      <c r="K42" s="245"/>
       <c r="L42" s="127" t="s">
         <v>14</v>
       </c>
-      <c r="M42" s="232"/>
-      <c r="N42" s="232"/>
+      <c r="M42" s="200"/>
+      <c r="N42" s="200"/>
       <c r="O42" s="66" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:15" s="42" customFormat="1" ht="16.5" customHeight="1">
       <c r="A43" s="66"/>
-      <c r="B43" s="174"/>
-      <c r="C43" s="174"/>
+      <c r="B43" s="131"/>
+      <c r="C43" s="131"/>
       <c r="D43" s="44"/>
       <c r="E43" s="44"/>
       <c r="F43" s="66"/>
@@ -13228,39 +13349,39 @@
       <c r="I43" s="68"/>
       <c r="J43" s="68"/>
       <c r="K43" s="69"/>
-      <c r="L43" s="266"/>
-      <c r="M43" s="157"/>
-      <c r="N43" s="157"/>
+      <c r="L43" s="128"/>
+      <c r="M43" s="132"/>
+      <c r="N43" s="132"/>
       <c r="O43" s="69"/>
     </row>
     <row r="44" spans="1:15" s="72" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A44" s="172" t="s">
+      <c r="A44" s="129" t="s">
         <v>12</v>
       </c>
-      <c r="B44" s="172"/>
-      <c r="C44" s="172"/>
+      <c r="B44" s="129"/>
+      <c r="C44" s="129"/>
       <c r="D44" s="71"/>
       <c r="E44" s="71"/>
       <c r="F44" s="71"/>
       <c r="G44" s="43" t="s">
         <v>112</v>
       </c>
-      <c r="H44" s="172" t="s">
+      <c r="H44" s="129" t="s">
         <v>121</v>
       </c>
-      <c r="I44" s="172"/>
-      <c r="J44" s="172"/>
-      <c r="K44" s="172"/>
+      <c r="I44" s="129"/>
+      <c r="J44" s="129"/>
+      <c r="K44" s="129"/>
       <c r="L44" s="71"/>
       <c r="M44" s="71"/>
       <c r="N44" s="71"/>
       <c r="O44" s="71"/>
     </row>
     <row r="45" spans="1:15" s="42" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A45" s="173" t="s">
+      <c r="A45" s="130" t="s">
         <v>21</v>
       </c>
-      <c r="B45" s="173"/>
+      <c r="B45" s="130"/>
       <c r="C45" s="73"/>
       <c r="D45" s="68"/>
       <c r="E45" s="68"/>
@@ -13271,24 +13392,24 @@
       <c r="J45" s="68"/>
       <c r="K45" s="68"/>
       <c r="L45" s="68"/>
-      <c r="M45" s="231" t="s">
+      <c r="M45" s="201" t="s">
         <v>108</v>
       </c>
-      <c r="N45" s="231"/>
+      <c r="N45" s="201"/>
       <c r="O45" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="H44:K44"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="A2:M3"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="N4:O4"/>
     <mergeCell ref="A7:C8"/>
     <mergeCell ref="D7:G7"/>
     <mergeCell ref="H7:O41"/>
@@ -13304,19 +13425,19 @@
     <mergeCell ref="D39:G39"/>
     <mergeCell ref="L5:M5"/>
     <mergeCell ref="N5:O5"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="A2:M3"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="M43:N43"/>
   </mergeCells>
   <conditionalFormatting sqref="D9:G38">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="20" priority="1" operator="greaterThan">
       <formula>11</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18188,10 +18309,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="AT3:AT16">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="19" priority="1" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",AT3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="18" priority="2" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",AT3)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/backend/templates/176-18cp-ww.xlsx
+++ b/backend/templates/176-18cp-ww.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cursor AI Projects\SwansonIndiaPortal\backend\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A51D1CC-90A6-4CD2-A3F8-016A90D13067}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81265C65-8719-4462-8400-3A200D345D8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2116,6 +2116,33 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -2143,13 +2170,65 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -2166,14 +2245,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -2190,76 +2261,18 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2292,19 +2305,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -2779,7 +2779,7 @@
   <dimension ref="A1:O79"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:E6"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -3996,61 +3996,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="44" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A1" s="233" t="s">
+      <c r="A1" s="237" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="233"/>
-      <c r="C1" s="233"/>
-      <c r="D1" s="233"/>
-      <c r="E1" s="233"/>
-      <c r="F1" s="233"/>
-      <c r="G1" s="233"/>
-      <c r="H1" s="233"/>
-      <c r="I1" s="233"/>
-      <c r="J1" s="233"/>
-      <c r="K1" s="233"/>
-      <c r="L1" s="233"/>
-      <c r="M1" s="233"/>
+      <c r="B1" s="237"/>
+      <c r="C1" s="237"/>
+      <c r="D1" s="237"/>
+      <c r="E1" s="237"/>
+      <c r="F1" s="237"/>
+      <c r="G1" s="237"/>
+      <c r="H1" s="237"/>
+      <c r="I1" s="237"/>
+      <c r="J1" s="237"/>
+      <c r="K1" s="237"/>
+      <c r="L1" s="237"/>
+      <c r="M1" s="237"/>
       <c r="N1" s="187" t="s">
         <v>26</v>
       </c>
       <c r="O1" s="187"/>
     </row>
     <row r="2" spans="1:15" s="44" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A2" s="234" t="s">
+      <c r="A2" s="238" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="234"/>
-      <c r="C2" s="234"/>
-      <c r="D2" s="234"/>
-      <c r="E2" s="234"/>
-      <c r="F2" s="234"/>
-      <c r="G2" s="234"/>
-      <c r="H2" s="234"/>
-      <c r="I2" s="234"/>
-      <c r="J2" s="234"/>
-      <c r="K2" s="234"/>
-      <c r="L2" s="234"/>
-      <c r="M2" s="234"/>
+      <c r="B2" s="238"/>
+      <c r="C2" s="238"/>
+      <c r="D2" s="238"/>
+      <c r="E2" s="238"/>
+      <c r="F2" s="238"/>
+      <c r="G2" s="238"/>
+      <c r="H2" s="238"/>
+      <c r="I2" s="238"/>
+      <c r="J2" s="238"/>
+      <c r="K2" s="238"/>
+      <c r="L2" s="238"/>
+      <c r="M2" s="238"/>
       <c r="N2" s="188" t="s">
         <v>27</v>
       </c>
       <c r="O2" s="188"/>
     </row>
     <row r="3" spans="1:15" s="44" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="234"/>
-      <c r="B3" s="234"/>
-      <c r="C3" s="234"/>
-      <c r="D3" s="234"/>
-      <c r="E3" s="234"/>
-      <c r="F3" s="234"/>
-      <c r="G3" s="234"/>
-      <c r="H3" s="234"/>
-      <c r="I3" s="234"/>
-      <c r="J3" s="234"/>
-      <c r="K3" s="234"/>
-      <c r="L3" s="234"/>
-      <c r="M3" s="234"/>
+      <c r="A3" s="238"/>
+      <c r="B3" s="238"/>
+      <c r="C3" s="238"/>
+      <c r="D3" s="238"/>
+      <c r="E3" s="238"/>
+      <c r="F3" s="238"/>
+      <c r="G3" s="238"/>
+      <c r="H3" s="238"/>
+      <c r="I3" s="238"/>
+      <c r="J3" s="238"/>
+      <c r="K3" s="238"/>
+      <c r="L3" s="238"/>
+      <c r="M3" s="238"/>
       <c r="N3" s="12" t="s">
         <v>19</v>
       </c>
@@ -4060,41 +4060,41 @@
       <c r="A4" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="236">
+      <c r="B4" s="240">
         <f>Page1!B4</f>
         <v>0</v>
       </c>
-      <c r="C4" s="238"/>
-      <c r="D4" s="239"/>
-      <c r="E4" s="240" t="s">
+      <c r="C4" s="242"/>
+      <c r="D4" s="243"/>
+      <c r="E4" s="244" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="241"/>
-      <c r="G4" s="236">
+      <c r="F4" s="245"/>
+      <c r="G4" s="240">
         <f>Page1!G4</f>
         <v>0</v>
       </c>
-      <c r="H4" s="239"/>
+      <c r="H4" s="243"/>
       <c r="I4" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="242">
+      <c r="J4" s="246">
         <f>Page1!J4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="242"/>
-      <c r="L4" s="235" t="s">
+      <c r="K4" s="246"/>
+      <c r="L4" s="239" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="235">
+      <c r="M4" s="239">
         <f>Page1!N4</f>
         <v>0</v>
       </c>
-      <c r="N4" s="236">
+      <c r="N4" s="240">
         <f>Page1!N4</f>
         <v>0</v>
       </c>
-      <c r="O4" s="237"/>
+      <c r="O4" s="241"/>
     </row>
     <row r="5" spans="1:15" s="47" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A5" s="48" t="s">
@@ -4104,12 +4104,12 @@
         <f>Page1!B5</f>
         <v>0</v>
       </c>
-      <c r="C5" s="244"/>
+      <c r="C5" s="234"/>
       <c r="D5" s="194"/>
-      <c r="E5" s="245" t="s">
+      <c r="E5" s="235" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="246"/>
+      <c r="F5" s="236"/>
       <c r="G5" s="183">
         <f>Page1!G5</f>
         <v>0</v>
@@ -4123,10 +4123,10 @@
         <v>0</v>
       </c>
       <c r="K5" s="167"/>
-      <c r="L5" s="224" t="s">
+      <c r="L5" s="214" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="224">
+      <c r="M5" s="214">
         <f>Page1!N5</f>
         <v>0</v>
       </c>
@@ -4137,53 +4137,53 @@
       <c r="O5" s="195"/>
     </row>
     <row r="6" spans="1:15" s="50" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A6" s="243" t="s">
+      <c r="A6" s="233" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="231"/>
-      <c r="C6" s="231"/>
-      <c r="D6" s="231"/>
-      <c r="E6" s="231"/>
-      <c r="F6" s="231"/>
-      <c r="G6" s="231"/>
-      <c r="H6" s="231"/>
-      <c r="I6" s="231"/>
-      <c r="J6" s="231"/>
-      <c r="K6" s="231"/>
-      <c r="L6" s="231"/>
-      <c r="M6" s="231"/>
-      <c r="N6" s="231"/>
-      <c r="O6" s="232"/>
+      <c r="B6" s="223"/>
+      <c r="C6" s="223"/>
+      <c r="D6" s="223"/>
+      <c r="E6" s="223"/>
+      <c r="F6" s="223"/>
+      <c r="G6" s="223"/>
+      <c r="H6" s="223"/>
+      <c r="I6" s="223"/>
+      <c r="J6" s="223"/>
+      <c r="K6" s="223"/>
+      <c r="L6" s="223"/>
+      <c r="M6" s="223"/>
+      <c r="N6" s="223"/>
+      <c r="O6" s="224"/>
     </row>
     <row r="7" spans="1:15" s="50" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A7" s="215" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="216"/>
-      <c r="C7" s="217"/>
-      <c r="D7" s="208" t="s">
+      <c r="A7" s="197" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="198"/>
+      <c r="C7" s="199"/>
+      <c r="D7" s="228" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="208"/>
-      <c r="F7" s="208"/>
-      <c r="G7" s="208"/>
-      <c r="H7" s="209" t="s">
+      <c r="E7" s="228"/>
+      <c r="F7" s="228"/>
+      <c r="G7" s="228"/>
+      <c r="H7" s="219" t="s">
         <v>119</v>
       </c>
-      <c r="I7" s="210"/>
-      <c r="J7" s="210"/>
-      <c r="K7" s="211"/>
-      <c r="L7" s="209" t="s">
+      <c r="I7" s="220"/>
+      <c r="J7" s="220"/>
+      <c r="K7" s="229"/>
+      <c r="L7" s="219" t="s">
         <v>120</v>
       </c>
-      <c r="M7" s="210"/>
-      <c r="N7" s="210"/>
-      <c r="O7" s="229"/>
+      <c r="M7" s="220"/>
+      <c r="N7" s="220"/>
+      <c r="O7" s="221"/>
     </row>
     <row r="8" spans="1:15" s="50" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A8" s="218"/>
-      <c r="B8" s="219"/>
-      <c r="C8" s="220"/>
+      <c r="A8" s="200"/>
+      <c r="B8" s="201"/>
+      <c r="C8" s="202"/>
       <c r="D8" s="51">
         <v>1</v>
       </c>
@@ -5277,27 +5277,27 @@
       <c r="C39" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="D39" s="212" t="e">
+      <c r="D39" s="230" t="e">
         <f>AVERAGE(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E39" s="213"/>
-      <c r="F39" s="213"/>
-      <c r="G39" s="214"/>
-      <c r="H39" s="221" t="e">
+      <c r="E39" s="231"/>
+      <c r="F39" s="231"/>
+      <c r="G39" s="232"/>
+      <c r="H39" s="211" t="e">
         <f>AVERAGE(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I39" s="222"/>
-      <c r="J39" s="222"/>
-      <c r="K39" s="230"/>
-      <c r="L39" s="221" t="e">
+      <c r="I39" s="212"/>
+      <c r="J39" s="212"/>
+      <c r="K39" s="222"/>
+      <c r="L39" s="211" t="e">
         <f>AVERAGE(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M39" s="222"/>
-      <c r="N39" s="222"/>
-      <c r="O39" s="223"/>
+      <c r="M39" s="212"/>
+      <c r="N39" s="212"/>
+      <c r="O39" s="213"/>
     </row>
     <row r="40" spans="1:15" ht="18" customHeight="1">
       <c r="A40" s="69"/>
@@ -5305,27 +5305,27 @@
       <c r="C40" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="D40" s="205" t="e">
+      <c r="D40" s="225" t="e">
         <f>MIN(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E40" s="206"/>
-      <c r="F40" s="206"/>
-      <c r="G40" s="207"/>
-      <c r="H40" s="225" t="e">
+      <c r="E40" s="226"/>
+      <c r="F40" s="226"/>
+      <c r="G40" s="227"/>
+      <c r="H40" s="215" t="e">
         <f>MIN(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I40" s="226"/>
-      <c r="J40" s="226"/>
-      <c r="K40" s="227"/>
-      <c r="L40" s="225" t="e">
+      <c r="I40" s="216"/>
+      <c r="J40" s="216"/>
+      <c r="K40" s="217"/>
+      <c r="L40" s="215" t="e">
         <f>MIN(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M40" s="226"/>
-      <c r="N40" s="226"/>
-      <c r="O40" s="228"/>
+      <c r="M40" s="216"/>
+      <c r="N40" s="216"/>
+      <c r="O40" s="218"/>
     </row>
     <row r="41" spans="1:15" ht="18" customHeight="1" thickBot="1">
       <c r="A41" s="72"/>
@@ -5333,27 +5333,27 @@
       <c r="C41" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="D41" s="199" t="e">
+      <c r="D41" s="206" t="e">
         <f>MAX(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E41" s="200"/>
-      <c r="F41" s="200"/>
-      <c r="G41" s="201"/>
-      <c r="H41" s="196" t="e">
+      <c r="E41" s="207"/>
+      <c r="F41" s="207"/>
+      <c r="G41" s="208"/>
+      <c r="H41" s="203" t="e">
         <f>MAX(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I41" s="197"/>
-      <c r="J41" s="197"/>
-      <c r="K41" s="204"/>
-      <c r="L41" s="196" t="e">
+      <c r="I41" s="204"/>
+      <c r="J41" s="204"/>
+      <c r="K41" s="210"/>
+      <c r="L41" s="203" t="e">
         <f>MAX(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M41" s="197"/>
-      <c r="N41" s="197"/>
-      <c r="O41" s="198"/>
+      <c r="M41" s="204"/>
+      <c r="N41" s="204"/>
+      <c r="O41" s="205"/>
     </row>
     <row r="42" spans="1:15" s="11" customFormat="1" ht="16.5" customHeight="1">
       <c r="A42" s="35" t="s">
@@ -5374,8 +5374,8 @@
       <c r="L42" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="M42" s="202"/>
-      <c r="N42" s="202"/>
+      <c r="M42" s="209"/>
+      <c r="N42" s="209"/>
       <c r="O42" s="35" t="s">
         <v>15</v>
       </c>
@@ -5435,10 +5435,10 @@
       <c r="J45" s="37"/>
       <c r="K45" s="37"/>
       <c r="L45" s="37"/>
-      <c r="M45" s="203" t="s">
+      <c r="M45" s="196" t="s">
         <v>110</v>
       </c>
-      <c r="N45" s="203"/>
+      <c r="N45" s="196"/>
       <c r="O45" s="37"/>
     </row>
     <row r="56" s="61" customFormat="1"/>
@@ -5471,7 +5471,6 @@
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="J4:K4"/>
-    <mergeCell ref="L39:O39"/>
     <mergeCell ref="L5:M5"/>
     <mergeCell ref="N5:O5"/>
     <mergeCell ref="H40:K40"/>
@@ -5490,6 +5489,8 @@
     <mergeCell ref="D41:G41"/>
     <mergeCell ref="M42:N42"/>
     <mergeCell ref="M43:N43"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="L39:O39"/>
     <mergeCell ref="A45:B45"/>
     <mergeCell ref="D42:E42"/>
     <mergeCell ref="B43:C43"/>
@@ -5497,7 +5498,6 @@
     <mergeCell ref="M45:N45"/>
     <mergeCell ref="H44:K44"/>
     <mergeCell ref="B42:C42"/>
-    <mergeCell ref="H41:K41"/>
   </mergeCells>
   <conditionalFormatting sqref="D9:G41">
     <cfRule type="cellIs" dxfId="8" priority="3" operator="lessThan">
@@ -5545,61 +5545,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="44" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A1" s="233" t="s">
+      <c r="A1" s="237" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="233"/>
-      <c r="C1" s="233"/>
-      <c r="D1" s="233"/>
-      <c r="E1" s="233"/>
-      <c r="F1" s="233"/>
-      <c r="G1" s="233"/>
-      <c r="H1" s="233"/>
-      <c r="I1" s="233"/>
-      <c r="J1" s="233"/>
-      <c r="K1" s="233"/>
-      <c r="L1" s="233"/>
-      <c r="M1" s="233"/>
+      <c r="B1" s="237"/>
+      <c r="C1" s="237"/>
+      <c r="D1" s="237"/>
+      <c r="E1" s="237"/>
+      <c r="F1" s="237"/>
+      <c r="G1" s="237"/>
+      <c r="H1" s="237"/>
+      <c r="I1" s="237"/>
+      <c r="J1" s="237"/>
+      <c r="K1" s="237"/>
+      <c r="L1" s="237"/>
+      <c r="M1" s="237"/>
       <c r="N1" s="187" t="s">
         <v>26</v>
       </c>
       <c r="O1" s="187"/>
     </row>
     <row r="2" spans="1:15" s="44" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A2" s="234" t="s">
+      <c r="A2" s="238" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="234"/>
-      <c r="C2" s="234"/>
-      <c r="D2" s="234"/>
-      <c r="E2" s="234"/>
-      <c r="F2" s="234"/>
-      <c r="G2" s="234"/>
-      <c r="H2" s="234"/>
-      <c r="I2" s="234"/>
-      <c r="J2" s="234"/>
-      <c r="K2" s="234"/>
-      <c r="L2" s="234"/>
-      <c r="M2" s="234"/>
+      <c r="B2" s="238"/>
+      <c r="C2" s="238"/>
+      <c r="D2" s="238"/>
+      <c r="E2" s="238"/>
+      <c r="F2" s="238"/>
+      <c r="G2" s="238"/>
+      <c r="H2" s="238"/>
+      <c r="I2" s="238"/>
+      <c r="J2" s="238"/>
+      <c r="K2" s="238"/>
+      <c r="L2" s="238"/>
+      <c r="M2" s="238"/>
       <c r="N2" s="188" t="s">
         <v>27</v>
       </c>
       <c r="O2" s="188"/>
     </row>
     <row r="3" spans="1:15" s="44" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="234"/>
-      <c r="B3" s="234"/>
-      <c r="C3" s="234"/>
-      <c r="D3" s="234"/>
-      <c r="E3" s="234"/>
-      <c r="F3" s="234"/>
-      <c r="G3" s="234"/>
-      <c r="H3" s="234"/>
-      <c r="I3" s="234"/>
-      <c r="J3" s="234"/>
-      <c r="K3" s="234"/>
-      <c r="L3" s="234"/>
-      <c r="M3" s="234"/>
+      <c r="A3" s="238"/>
+      <c r="B3" s="238"/>
+      <c r="C3" s="238"/>
+      <c r="D3" s="238"/>
+      <c r="E3" s="238"/>
+      <c r="F3" s="238"/>
+      <c r="G3" s="238"/>
+      <c r="H3" s="238"/>
+      <c r="I3" s="238"/>
+      <c r="J3" s="238"/>
+      <c r="K3" s="238"/>
+      <c r="L3" s="238"/>
+      <c r="M3" s="238"/>
       <c r="N3" s="12" t="s">
         <v>19</v>
       </c>
@@ -5609,41 +5609,41 @@
       <c r="A4" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="236">
+      <c r="B4" s="240">
         <f>Page1!B4</f>
         <v>0</v>
       </c>
-      <c r="C4" s="238"/>
-      <c r="D4" s="239"/>
-      <c r="E4" s="240" t="s">
+      <c r="C4" s="242"/>
+      <c r="D4" s="243"/>
+      <c r="E4" s="244" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="241"/>
-      <c r="G4" s="236">
+      <c r="F4" s="245"/>
+      <c r="G4" s="240">
         <f>Page1!G4</f>
         <v>0</v>
       </c>
-      <c r="H4" s="239"/>
+      <c r="H4" s="243"/>
       <c r="I4" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="242">
+      <c r="J4" s="246">
         <f>Page1!J4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="242"/>
-      <c r="L4" s="235" t="s">
+      <c r="K4" s="246"/>
+      <c r="L4" s="239" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="235">
+      <c r="M4" s="239">
         <f>Page1!N4</f>
         <v>0</v>
       </c>
-      <c r="N4" s="236">
+      <c r="N4" s="240">
         <f>Page1!N4</f>
         <v>0</v>
       </c>
-      <c r="O4" s="237"/>
+      <c r="O4" s="241"/>
     </row>
     <row r="5" spans="1:15" s="47" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A5" s="48" t="s">
@@ -5653,12 +5653,12 @@
         <f>Page1!B5</f>
         <v>0</v>
       </c>
-      <c r="C5" s="244"/>
+      <c r="C5" s="234"/>
       <c r="D5" s="194"/>
-      <c r="E5" s="245" t="s">
+      <c r="E5" s="235" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="246"/>
+      <c r="F5" s="236"/>
       <c r="G5" s="183">
         <f>Page1!G5</f>
         <v>0</v>
@@ -5672,10 +5672,10 @@
         <v>0</v>
       </c>
       <c r="K5" s="167"/>
-      <c r="L5" s="224" t="s">
+      <c r="L5" s="214" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="224">
+      <c r="M5" s="214">
         <f>Page1!N5</f>
         <v>0</v>
       </c>
@@ -5686,53 +5686,53 @@
       <c r="O5" s="195"/>
     </row>
     <row r="6" spans="1:15" s="50" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A6" s="243" t="s">
+      <c r="A6" s="233" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="231"/>
-      <c r="C6" s="231"/>
-      <c r="D6" s="231"/>
-      <c r="E6" s="231"/>
-      <c r="F6" s="231"/>
-      <c r="G6" s="231"/>
-      <c r="H6" s="231"/>
-      <c r="I6" s="231"/>
-      <c r="J6" s="231"/>
-      <c r="K6" s="231"/>
-      <c r="L6" s="231"/>
-      <c r="M6" s="231"/>
-      <c r="N6" s="231"/>
-      <c r="O6" s="232"/>
+      <c r="B6" s="223"/>
+      <c r="C6" s="223"/>
+      <c r="D6" s="223"/>
+      <c r="E6" s="223"/>
+      <c r="F6" s="223"/>
+      <c r="G6" s="223"/>
+      <c r="H6" s="223"/>
+      <c r="I6" s="223"/>
+      <c r="J6" s="223"/>
+      <c r="K6" s="223"/>
+      <c r="L6" s="223"/>
+      <c r="M6" s="223"/>
+      <c r="N6" s="223"/>
+      <c r="O6" s="224"/>
     </row>
     <row r="7" spans="1:15" s="50" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A7" s="215" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="216"/>
-      <c r="C7" s="217"/>
-      <c r="D7" s="208" t="s">
+      <c r="A7" s="197" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="198"/>
+      <c r="C7" s="199"/>
+      <c r="D7" s="228" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="208"/>
-      <c r="F7" s="208"/>
-      <c r="G7" s="208"/>
-      <c r="H7" s="209" t="s">
+      <c r="E7" s="228"/>
+      <c r="F7" s="228"/>
+      <c r="G7" s="228"/>
+      <c r="H7" s="219" t="s">
         <v>118</v>
       </c>
-      <c r="I7" s="210"/>
-      <c r="J7" s="210"/>
-      <c r="K7" s="211"/>
-      <c r="L7" s="209" t="s">
+      <c r="I7" s="220"/>
+      <c r="J7" s="220"/>
+      <c r="K7" s="229"/>
+      <c r="L7" s="219" t="s">
         <v>29</v>
       </c>
-      <c r="M7" s="210"/>
-      <c r="N7" s="210"/>
-      <c r="O7" s="229"/>
+      <c r="M7" s="220"/>
+      <c r="N7" s="220"/>
+      <c r="O7" s="221"/>
     </row>
     <row r="8" spans="1:15" s="50" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A8" s="218"/>
-      <c r="B8" s="219"/>
-      <c r="C8" s="220"/>
+      <c r="A8" s="200"/>
+      <c r="B8" s="201"/>
+      <c r="C8" s="202"/>
       <c r="D8" s="51">
         <v>1</v>
       </c>
@@ -6826,27 +6826,27 @@
       <c r="C39" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="D39" s="212" t="e">
+      <c r="D39" s="230" t="e">
         <f>AVERAGE(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E39" s="213"/>
-      <c r="F39" s="213"/>
-      <c r="G39" s="214"/>
-      <c r="H39" s="221" t="e">
+      <c r="E39" s="231"/>
+      <c r="F39" s="231"/>
+      <c r="G39" s="232"/>
+      <c r="H39" s="211" t="e">
         <f>AVERAGE(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I39" s="222"/>
-      <c r="J39" s="222"/>
-      <c r="K39" s="230"/>
-      <c r="L39" s="221" t="e">
+      <c r="I39" s="212"/>
+      <c r="J39" s="212"/>
+      <c r="K39" s="222"/>
+      <c r="L39" s="211" t="e">
         <f>AVERAGE(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M39" s="222"/>
-      <c r="N39" s="222"/>
-      <c r="O39" s="223"/>
+      <c r="M39" s="212"/>
+      <c r="N39" s="212"/>
+      <c r="O39" s="213"/>
     </row>
     <row r="40" spans="1:15" ht="18" customHeight="1">
       <c r="A40" s="69"/>
@@ -6854,27 +6854,27 @@
       <c r="C40" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="D40" s="205" t="e">
+      <c r="D40" s="225" t="e">
         <f>MIN(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E40" s="206"/>
-      <c r="F40" s="206"/>
-      <c r="G40" s="207"/>
-      <c r="H40" s="225" t="e">
+      <c r="E40" s="226"/>
+      <c r="F40" s="226"/>
+      <c r="G40" s="227"/>
+      <c r="H40" s="215" t="e">
         <f>MIN(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I40" s="226"/>
-      <c r="J40" s="226"/>
-      <c r="K40" s="227"/>
-      <c r="L40" s="225" t="e">
+      <c r="I40" s="216"/>
+      <c r="J40" s="216"/>
+      <c r="K40" s="217"/>
+      <c r="L40" s="215" t="e">
         <f>MIN(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M40" s="226"/>
-      <c r="N40" s="226"/>
-      <c r="O40" s="228"/>
+      <c r="M40" s="216"/>
+      <c r="N40" s="216"/>
+      <c r="O40" s="218"/>
     </row>
     <row r="41" spans="1:15" ht="18" customHeight="1" thickBot="1">
       <c r="A41" s="72"/>
@@ -6882,27 +6882,27 @@
       <c r="C41" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="D41" s="199" t="e">
+      <c r="D41" s="206" t="e">
         <f>MAX(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E41" s="200"/>
-      <c r="F41" s="200"/>
-      <c r="G41" s="201"/>
-      <c r="H41" s="196" t="e">
+      <c r="E41" s="207"/>
+      <c r="F41" s="207"/>
+      <c r="G41" s="208"/>
+      <c r="H41" s="203" t="e">
         <f>MAX(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I41" s="197"/>
-      <c r="J41" s="197"/>
-      <c r="K41" s="204"/>
-      <c r="L41" s="196" t="e">
+      <c r="I41" s="204"/>
+      <c r="J41" s="204"/>
+      <c r="K41" s="210"/>
+      <c r="L41" s="203" t="e">
         <f>MAX(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M41" s="197"/>
-      <c r="N41" s="197"/>
-      <c r="O41" s="198"/>
+      <c r="M41" s="204"/>
+      <c r="N41" s="204"/>
+      <c r="O41" s="205"/>
     </row>
     <row r="42" spans="1:15" s="11" customFormat="1" ht="16.5" customHeight="1">
       <c r="A42" s="35" t="s">
@@ -6923,8 +6923,8 @@
       <c r="L42" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="M42" s="202"/>
-      <c r="N42" s="202"/>
+      <c r="M42" s="209"/>
+      <c r="N42" s="209"/>
       <c r="O42" s="35" t="s">
         <v>15</v>
       </c>
@@ -6984,10 +6984,10 @@
       <c r="J45" s="37"/>
       <c r="K45" s="37"/>
       <c r="L45" s="37"/>
-      <c r="M45" s="203" t="s">
+      <c r="M45" s="196" t="s">
         <v>109</v>
       </c>
-      <c r="N45" s="203"/>
+      <c r="N45" s="196"/>
       <c r="O45" s="37"/>
     </row>
   </sheetData>
@@ -7143,41 +7143,41 @@
       <c r="A4" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="236">
+      <c r="B4" s="240">
         <f>Page1!B4</f>
         <v>0</v>
       </c>
-      <c r="C4" s="238"/>
-      <c r="D4" s="239"/>
-      <c r="E4" s="240" t="s">
+      <c r="C4" s="242"/>
+      <c r="D4" s="243"/>
+      <c r="E4" s="244" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="241"/>
-      <c r="G4" s="236">
+      <c r="F4" s="245"/>
+      <c r="G4" s="240">
         <f>Page1!G4</f>
         <v>0</v>
       </c>
-      <c r="H4" s="239"/>
+      <c r="H4" s="243"/>
       <c r="I4" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="242">
+      <c r="J4" s="246">
         <f>Page1!J4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="242"/>
-      <c r="L4" s="235" t="s">
+      <c r="K4" s="246"/>
+      <c r="L4" s="239" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="235">
+      <c r="M4" s="239">
         <f>Page1!N4</f>
         <v>0</v>
       </c>
-      <c r="N4" s="236">
+      <c r="N4" s="240">
         <f>Page1!N4</f>
         <v>0</v>
       </c>
-      <c r="O4" s="237"/>
+      <c r="O4" s="241"/>
     </row>
     <row r="5" spans="1:15" s="39" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A5" s="48" t="s">
@@ -7187,12 +7187,12 @@
         <f>Page1!B5</f>
         <v>0</v>
       </c>
-      <c r="C5" s="244"/>
+      <c r="C5" s="234"/>
       <c r="D5" s="194"/>
-      <c r="E5" s="245" t="s">
+      <c r="E5" s="235" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="246"/>
+      <c r="F5" s="236"/>
       <c r="G5" s="183">
         <f>Page1!G5</f>
         <v>0</v>
@@ -7206,10 +7206,10 @@
         <v>0</v>
       </c>
       <c r="K5" s="167"/>
-      <c r="L5" s="224" t="s">
+      <c r="L5" s="214" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="224">
+      <c r="M5" s="214">
         <f>Page1!N5</f>
         <v>0</v>
       </c>
@@ -7242,14 +7242,14 @@
       <c r="A7" s="248" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="242"/>
-      <c r="C7" s="242"/>
-      <c r="D7" s="238" t="s">
+      <c r="B7" s="246"/>
+      <c r="C7" s="246"/>
+      <c r="D7" s="242" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="238"/>
-      <c r="F7" s="238"/>
-      <c r="G7" s="238"/>
+      <c r="E7" s="242"/>
+      <c r="F7" s="242"/>
+      <c r="G7" s="242"/>
       <c r="H7" s="249"/>
       <c r="I7" s="250"/>
       <c r="J7" s="250"/>
@@ -7275,13 +7275,13 @@
       <c r="G8" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="215"/>
-      <c r="I8" s="216"/>
-      <c r="J8" s="216"/>
-      <c r="K8" s="216"/>
-      <c r="L8" s="216"/>
-      <c r="M8" s="216"/>
-      <c r="N8" s="216"/>
+      <c r="H8" s="197"/>
+      <c r="I8" s="198"/>
+      <c r="J8" s="198"/>
+      <c r="K8" s="198"/>
+      <c r="L8" s="198"/>
+      <c r="M8" s="198"/>
+      <c r="N8" s="198"/>
       <c r="O8" s="252"/>
     </row>
     <row r="9" spans="1:15" ht="18" customHeight="1">
@@ -7304,13 +7304,13 @@
         <f>AVERAGE(D9:F9)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H9" s="215"/>
-      <c r="I9" s="216"/>
-      <c r="J9" s="216"/>
-      <c r="K9" s="216"/>
-      <c r="L9" s="216"/>
-      <c r="M9" s="216"/>
-      <c r="N9" s="216"/>
+      <c r="H9" s="197"/>
+      <c r="I9" s="198"/>
+      <c r="J9" s="198"/>
+      <c r="K9" s="198"/>
+      <c r="L9" s="198"/>
+      <c r="M9" s="198"/>
+      <c r="N9" s="198"/>
       <c r="O9" s="252"/>
     </row>
     <row r="10" spans="1:15" ht="18" customHeight="1">
@@ -7333,13 +7333,13 @@
         <f t="shared" ref="G10:G38" si="0">AVERAGE(D10:F10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H10" s="215"/>
-      <c r="I10" s="216"/>
-      <c r="J10" s="216"/>
-      <c r="K10" s="216"/>
-      <c r="L10" s="216"/>
-      <c r="M10" s="216"/>
-      <c r="N10" s="216"/>
+      <c r="H10" s="197"/>
+      <c r="I10" s="198"/>
+      <c r="J10" s="198"/>
+      <c r="K10" s="198"/>
+      <c r="L10" s="198"/>
+      <c r="M10" s="198"/>
+      <c r="N10" s="198"/>
       <c r="O10" s="252"/>
     </row>
     <row r="11" spans="1:15" ht="18" customHeight="1">
@@ -7362,13 +7362,13 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H11" s="215"/>
-      <c r="I11" s="216"/>
-      <c r="J11" s="216"/>
-      <c r="K11" s="216"/>
-      <c r="L11" s="216"/>
-      <c r="M11" s="216"/>
-      <c r="N11" s="216"/>
+      <c r="H11" s="197"/>
+      <c r="I11" s="198"/>
+      <c r="J11" s="198"/>
+      <c r="K11" s="198"/>
+      <c r="L11" s="198"/>
+      <c r="M11" s="198"/>
+      <c r="N11" s="198"/>
       <c r="O11" s="252"/>
     </row>
     <row r="12" spans="1:15" ht="18" customHeight="1">
@@ -7391,13 +7391,13 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H12" s="215"/>
-      <c r="I12" s="216"/>
-      <c r="J12" s="216"/>
-      <c r="K12" s="216"/>
-      <c r="L12" s="216"/>
-      <c r="M12" s="216"/>
-      <c r="N12" s="216"/>
+      <c r="H12" s="197"/>
+      <c r="I12" s="198"/>
+      <c r="J12" s="198"/>
+      <c r="K12" s="198"/>
+      <c r="L12" s="198"/>
+      <c r="M12" s="198"/>
+      <c r="N12" s="198"/>
       <c r="O12" s="252"/>
     </row>
     <row r="13" spans="1:15" ht="18" customHeight="1">
@@ -7420,13 +7420,13 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H13" s="215"/>
-      <c r="I13" s="216"/>
-      <c r="J13" s="216"/>
-      <c r="K13" s="216"/>
-      <c r="L13" s="216"/>
-      <c r="M13" s="216"/>
-      <c r="N13" s="216"/>
+      <c r="H13" s="197"/>
+      <c r="I13" s="198"/>
+      <c r="J13" s="198"/>
+      <c r="K13" s="198"/>
+      <c r="L13" s="198"/>
+      <c r="M13" s="198"/>
+      <c r="N13" s="198"/>
       <c r="O13" s="252"/>
     </row>
     <row r="14" spans="1:15" ht="18" customHeight="1">
@@ -7449,13 +7449,13 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H14" s="215"/>
-      <c r="I14" s="216"/>
-      <c r="J14" s="216"/>
-      <c r="K14" s="216"/>
-      <c r="L14" s="216"/>
-      <c r="M14" s="216"/>
-      <c r="N14" s="216"/>
+      <c r="H14" s="197"/>
+      <c r="I14" s="198"/>
+      <c r="J14" s="198"/>
+      <c r="K14" s="198"/>
+      <c r="L14" s="198"/>
+      <c r="M14" s="198"/>
+      <c r="N14" s="198"/>
       <c r="O14" s="252"/>
     </row>
     <row r="15" spans="1:15" ht="18" customHeight="1">
@@ -7478,13 +7478,13 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H15" s="215"/>
-      <c r="I15" s="216"/>
-      <c r="J15" s="216"/>
-      <c r="K15" s="216"/>
-      <c r="L15" s="216"/>
-      <c r="M15" s="216"/>
-      <c r="N15" s="216"/>
+      <c r="H15" s="197"/>
+      <c r="I15" s="198"/>
+      <c r="J15" s="198"/>
+      <c r="K15" s="198"/>
+      <c r="L15" s="198"/>
+      <c r="M15" s="198"/>
+      <c r="N15" s="198"/>
       <c r="O15" s="252"/>
     </row>
     <row r="16" spans="1:15" ht="18" customHeight="1">
@@ -7507,13 +7507,13 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H16" s="215"/>
-      <c r="I16" s="216"/>
-      <c r="J16" s="216"/>
-      <c r="K16" s="216"/>
-      <c r="L16" s="216"/>
-      <c r="M16" s="216"/>
-      <c r="N16" s="216"/>
+      <c r="H16" s="197"/>
+      <c r="I16" s="198"/>
+      <c r="J16" s="198"/>
+      <c r="K16" s="198"/>
+      <c r="L16" s="198"/>
+      <c r="M16" s="198"/>
+      <c r="N16" s="198"/>
       <c r="O16" s="252"/>
     </row>
     <row r="17" spans="1:15" ht="18" customHeight="1">
@@ -7536,13 +7536,13 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H17" s="215"/>
-      <c r="I17" s="216"/>
-      <c r="J17" s="216"/>
-      <c r="K17" s="216"/>
-      <c r="L17" s="216"/>
-      <c r="M17" s="216"/>
-      <c r="N17" s="216"/>
+      <c r="H17" s="197"/>
+      <c r="I17" s="198"/>
+      <c r="J17" s="198"/>
+      <c r="K17" s="198"/>
+      <c r="L17" s="198"/>
+      <c r="M17" s="198"/>
+      <c r="N17" s="198"/>
       <c r="O17" s="252"/>
     </row>
     <row r="18" spans="1:15" ht="18" customHeight="1">
@@ -7565,13 +7565,13 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H18" s="215"/>
-      <c r="I18" s="216"/>
-      <c r="J18" s="216"/>
-      <c r="K18" s="216"/>
-      <c r="L18" s="216"/>
-      <c r="M18" s="216"/>
-      <c r="N18" s="216"/>
+      <c r="H18" s="197"/>
+      <c r="I18" s="198"/>
+      <c r="J18" s="198"/>
+      <c r="K18" s="198"/>
+      <c r="L18" s="198"/>
+      <c r="M18" s="198"/>
+      <c r="N18" s="198"/>
       <c r="O18" s="252"/>
     </row>
     <row r="19" spans="1:15" ht="18" customHeight="1">
@@ -7594,13 +7594,13 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H19" s="215"/>
-      <c r="I19" s="216"/>
-      <c r="J19" s="216"/>
-      <c r="K19" s="216"/>
-      <c r="L19" s="216"/>
-      <c r="M19" s="216"/>
-      <c r="N19" s="216"/>
+      <c r="H19" s="197"/>
+      <c r="I19" s="198"/>
+      <c r="J19" s="198"/>
+      <c r="K19" s="198"/>
+      <c r="L19" s="198"/>
+      <c r="M19" s="198"/>
+      <c r="N19" s="198"/>
       <c r="O19" s="252"/>
     </row>
     <row r="20" spans="1:15" ht="18" customHeight="1">
@@ -7623,13 +7623,13 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H20" s="215"/>
-      <c r="I20" s="216"/>
-      <c r="J20" s="216"/>
-      <c r="K20" s="216"/>
-      <c r="L20" s="216"/>
-      <c r="M20" s="216"/>
-      <c r="N20" s="216"/>
+      <c r="H20" s="197"/>
+      <c r="I20" s="198"/>
+      <c r="J20" s="198"/>
+      <c r="K20" s="198"/>
+      <c r="L20" s="198"/>
+      <c r="M20" s="198"/>
+      <c r="N20" s="198"/>
       <c r="O20" s="252"/>
     </row>
     <row r="21" spans="1:15" ht="18" customHeight="1">
@@ -7652,13 +7652,13 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H21" s="215"/>
-      <c r="I21" s="216"/>
-      <c r="J21" s="216"/>
-      <c r="K21" s="216"/>
-      <c r="L21" s="216"/>
-      <c r="M21" s="216"/>
-      <c r="N21" s="216"/>
+      <c r="H21" s="197"/>
+      <c r="I21" s="198"/>
+      <c r="J21" s="198"/>
+      <c r="K21" s="198"/>
+      <c r="L21" s="198"/>
+      <c r="M21" s="198"/>
+      <c r="N21" s="198"/>
       <c r="O21" s="252"/>
     </row>
     <row r="22" spans="1:15" ht="18" customHeight="1">
@@ -7681,13 +7681,13 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H22" s="215"/>
-      <c r="I22" s="216"/>
-      <c r="J22" s="216"/>
-      <c r="K22" s="216"/>
-      <c r="L22" s="216"/>
-      <c r="M22" s="216"/>
-      <c r="N22" s="216"/>
+      <c r="H22" s="197"/>
+      <c r="I22" s="198"/>
+      <c r="J22" s="198"/>
+      <c r="K22" s="198"/>
+      <c r="L22" s="198"/>
+      <c r="M22" s="198"/>
+      <c r="N22" s="198"/>
       <c r="O22" s="252"/>
     </row>
     <row r="23" spans="1:15" ht="18" customHeight="1">
@@ -7710,13 +7710,13 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H23" s="215"/>
-      <c r="I23" s="216"/>
-      <c r="J23" s="216"/>
-      <c r="K23" s="216"/>
-      <c r="L23" s="216"/>
-      <c r="M23" s="216"/>
-      <c r="N23" s="216"/>
+      <c r="H23" s="197"/>
+      <c r="I23" s="198"/>
+      <c r="J23" s="198"/>
+      <c r="K23" s="198"/>
+      <c r="L23" s="198"/>
+      <c r="M23" s="198"/>
+      <c r="N23" s="198"/>
       <c r="O23" s="252"/>
     </row>
     <row r="24" spans="1:15" ht="18" customHeight="1">
@@ -7739,13 +7739,13 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H24" s="215"/>
-      <c r="I24" s="216"/>
-      <c r="J24" s="216"/>
-      <c r="K24" s="216"/>
-      <c r="L24" s="216"/>
-      <c r="M24" s="216"/>
-      <c r="N24" s="216"/>
+      <c r="H24" s="197"/>
+      <c r="I24" s="198"/>
+      <c r="J24" s="198"/>
+      <c r="K24" s="198"/>
+      <c r="L24" s="198"/>
+      <c r="M24" s="198"/>
+      <c r="N24" s="198"/>
       <c r="O24" s="252"/>
     </row>
     <row r="25" spans="1:15" ht="18" customHeight="1">
@@ -7768,13 +7768,13 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H25" s="215"/>
-      <c r="I25" s="216"/>
-      <c r="J25" s="216"/>
-      <c r="K25" s="216"/>
-      <c r="L25" s="216"/>
-      <c r="M25" s="216"/>
-      <c r="N25" s="216"/>
+      <c r="H25" s="197"/>
+      <c r="I25" s="198"/>
+      <c r="J25" s="198"/>
+      <c r="K25" s="198"/>
+      <c r="L25" s="198"/>
+      <c r="M25" s="198"/>
+      <c r="N25" s="198"/>
       <c r="O25" s="252"/>
     </row>
     <row r="26" spans="1:15" ht="18" customHeight="1">
@@ -7797,13 +7797,13 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H26" s="215"/>
-      <c r="I26" s="216"/>
-      <c r="J26" s="216"/>
-      <c r="K26" s="216"/>
-      <c r="L26" s="216"/>
-      <c r="M26" s="216"/>
-      <c r="N26" s="216"/>
+      <c r="H26" s="197"/>
+      <c r="I26" s="198"/>
+      <c r="J26" s="198"/>
+      <c r="K26" s="198"/>
+      <c r="L26" s="198"/>
+      <c r="M26" s="198"/>
+      <c r="N26" s="198"/>
       <c r="O26" s="252"/>
     </row>
     <row r="27" spans="1:15" ht="18" customHeight="1">
@@ -7826,13 +7826,13 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H27" s="215"/>
-      <c r="I27" s="216"/>
-      <c r="J27" s="216"/>
-      <c r="K27" s="216"/>
-      <c r="L27" s="216"/>
-      <c r="M27" s="216"/>
-      <c r="N27" s="216"/>
+      <c r="H27" s="197"/>
+      <c r="I27" s="198"/>
+      <c r="J27" s="198"/>
+      <c r="K27" s="198"/>
+      <c r="L27" s="198"/>
+      <c r="M27" s="198"/>
+      <c r="N27" s="198"/>
       <c r="O27" s="252"/>
     </row>
     <row r="28" spans="1:15" ht="18" customHeight="1">
@@ -7855,13 +7855,13 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H28" s="215"/>
-      <c r="I28" s="216"/>
-      <c r="J28" s="216"/>
-      <c r="K28" s="216"/>
-      <c r="L28" s="216"/>
-      <c r="M28" s="216"/>
-      <c r="N28" s="216"/>
+      <c r="H28" s="197"/>
+      <c r="I28" s="198"/>
+      <c r="J28" s="198"/>
+      <c r="K28" s="198"/>
+      <c r="L28" s="198"/>
+      <c r="M28" s="198"/>
+      <c r="N28" s="198"/>
       <c r="O28" s="252"/>
     </row>
     <row r="29" spans="1:15" ht="18" customHeight="1">
@@ -7884,13 +7884,13 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H29" s="215"/>
-      <c r="I29" s="216"/>
-      <c r="J29" s="216"/>
-      <c r="K29" s="216"/>
-      <c r="L29" s="216"/>
-      <c r="M29" s="216"/>
-      <c r="N29" s="216"/>
+      <c r="H29" s="197"/>
+      <c r="I29" s="198"/>
+      <c r="J29" s="198"/>
+      <c r="K29" s="198"/>
+      <c r="L29" s="198"/>
+      <c r="M29" s="198"/>
+      <c r="N29" s="198"/>
       <c r="O29" s="252"/>
     </row>
     <row r="30" spans="1:15" ht="18" customHeight="1">
@@ -7913,13 +7913,13 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H30" s="215"/>
-      <c r="I30" s="216"/>
-      <c r="J30" s="216"/>
-      <c r="K30" s="216"/>
-      <c r="L30" s="216"/>
-      <c r="M30" s="216"/>
-      <c r="N30" s="216"/>
+      <c r="H30" s="197"/>
+      <c r="I30" s="198"/>
+      <c r="J30" s="198"/>
+      <c r="K30" s="198"/>
+      <c r="L30" s="198"/>
+      <c r="M30" s="198"/>
+      <c r="N30" s="198"/>
       <c r="O30" s="252"/>
     </row>
     <row r="31" spans="1:15" ht="18" customHeight="1">
@@ -7942,13 +7942,13 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H31" s="215"/>
-      <c r="I31" s="216"/>
-      <c r="J31" s="216"/>
-      <c r="K31" s="216"/>
-      <c r="L31" s="216"/>
-      <c r="M31" s="216"/>
-      <c r="N31" s="216"/>
+      <c r="H31" s="197"/>
+      <c r="I31" s="198"/>
+      <c r="J31" s="198"/>
+      <c r="K31" s="198"/>
+      <c r="L31" s="198"/>
+      <c r="M31" s="198"/>
+      <c r="N31" s="198"/>
       <c r="O31" s="252"/>
     </row>
     <row r="32" spans="1:15" ht="18" customHeight="1">
@@ -7971,13 +7971,13 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H32" s="215"/>
-      <c r="I32" s="216"/>
-      <c r="J32" s="216"/>
-      <c r="K32" s="216"/>
-      <c r="L32" s="216"/>
-      <c r="M32" s="216"/>
-      <c r="N32" s="216"/>
+      <c r="H32" s="197"/>
+      <c r="I32" s="198"/>
+      <c r="J32" s="198"/>
+      <c r="K32" s="198"/>
+      <c r="L32" s="198"/>
+      <c r="M32" s="198"/>
+      <c r="N32" s="198"/>
       <c r="O32" s="252"/>
     </row>
     <row r="33" spans="1:15" ht="18" customHeight="1">
@@ -8000,13 +8000,13 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H33" s="215"/>
-      <c r="I33" s="216"/>
-      <c r="J33" s="216"/>
-      <c r="K33" s="216"/>
-      <c r="L33" s="216"/>
-      <c r="M33" s="216"/>
-      <c r="N33" s="216"/>
+      <c r="H33" s="197"/>
+      <c r="I33" s="198"/>
+      <c r="J33" s="198"/>
+      <c r="K33" s="198"/>
+      <c r="L33" s="198"/>
+      <c r="M33" s="198"/>
+      <c r="N33" s="198"/>
       <c r="O33" s="252"/>
     </row>
     <row r="34" spans="1:15" ht="18" customHeight="1">
@@ -8029,13 +8029,13 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H34" s="215"/>
-      <c r="I34" s="216"/>
-      <c r="J34" s="216"/>
-      <c r="K34" s="216"/>
-      <c r="L34" s="216"/>
-      <c r="M34" s="216"/>
-      <c r="N34" s="216"/>
+      <c r="H34" s="197"/>
+      <c r="I34" s="198"/>
+      <c r="J34" s="198"/>
+      <c r="K34" s="198"/>
+      <c r="L34" s="198"/>
+      <c r="M34" s="198"/>
+      <c r="N34" s="198"/>
       <c r="O34" s="252"/>
     </row>
     <row r="35" spans="1:15" ht="18" customHeight="1">
@@ -8058,13 +8058,13 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H35" s="215"/>
-      <c r="I35" s="216"/>
-      <c r="J35" s="216"/>
-      <c r="K35" s="216"/>
-      <c r="L35" s="216"/>
-      <c r="M35" s="216"/>
-      <c r="N35" s="216"/>
+      <c r="H35" s="197"/>
+      <c r="I35" s="198"/>
+      <c r="J35" s="198"/>
+      <c r="K35" s="198"/>
+      <c r="L35" s="198"/>
+      <c r="M35" s="198"/>
+      <c r="N35" s="198"/>
       <c r="O35" s="252"/>
     </row>
     <row r="36" spans="1:15" ht="18" customHeight="1">
@@ -8087,13 +8087,13 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H36" s="215"/>
-      <c r="I36" s="216"/>
-      <c r="J36" s="216"/>
-      <c r="K36" s="216"/>
-      <c r="L36" s="216"/>
-      <c r="M36" s="216"/>
-      <c r="N36" s="216"/>
+      <c r="H36" s="197"/>
+      <c r="I36" s="198"/>
+      <c r="J36" s="198"/>
+      <c r="K36" s="198"/>
+      <c r="L36" s="198"/>
+      <c r="M36" s="198"/>
+      <c r="N36" s="198"/>
       <c r="O36" s="252"/>
     </row>
     <row r="37" spans="1:15" ht="18" customHeight="1">
@@ -8116,13 +8116,13 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H37" s="215"/>
-      <c r="I37" s="216"/>
-      <c r="J37" s="216"/>
-      <c r="K37" s="216"/>
-      <c r="L37" s="216"/>
-      <c r="M37" s="216"/>
-      <c r="N37" s="216"/>
+      <c r="H37" s="197"/>
+      <c r="I37" s="198"/>
+      <c r="J37" s="198"/>
+      <c r="K37" s="198"/>
+      <c r="L37" s="198"/>
+      <c r="M37" s="198"/>
+      <c r="N37" s="198"/>
       <c r="O37" s="252"/>
     </row>
     <row r="38" spans="1:15" ht="18" customHeight="1" thickBot="1">
@@ -8145,13 +8145,13 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H38" s="215"/>
-      <c r="I38" s="216"/>
-      <c r="J38" s="216"/>
-      <c r="K38" s="216"/>
-      <c r="L38" s="216"/>
-      <c r="M38" s="216"/>
-      <c r="N38" s="216"/>
+      <c r="H38" s="197"/>
+      <c r="I38" s="198"/>
+      <c r="J38" s="198"/>
+      <c r="K38" s="198"/>
+      <c r="L38" s="198"/>
+      <c r="M38" s="198"/>
+      <c r="N38" s="198"/>
       <c r="O38" s="252"/>
     </row>
     <row r="39" spans="1:15" s="40" customFormat="1" ht="18" customHeight="1">
@@ -8170,13 +8170,13 @@
         <f>AVERAGE(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H39" s="215"/>
-      <c r="I39" s="216"/>
-      <c r="J39" s="216"/>
-      <c r="K39" s="216"/>
-      <c r="L39" s="216"/>
-      <c r="M39" s="216"/>
-      <c r="N39" s="216"/>
+      <c r="H39" s="197"/>
+      <c r="I39" s="198"/>
+      <c r="J39" s="198"/>
+      <c r="K39" s="198"/>
+      <c r="L39" s="198"/>
+      <c r="M39" s="198"/>
+      <c r="N39" s="198"/>
       <c r="O39" s="252"/>
     </row>
     <row r="40" spans="1:15" s="40" customFormat="1" ht="18" customHeight="1">
@@ -8195,13 +8195,13 @@
         <f>MIN(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H40" s="215"/>
-      <c r="I40" s="216"/>
-      <c r="J40" s="216"/>
-      <c r="K40" s="216"/>
-      <c r="L40" s="216"/>
-      <c r="M40" s="216"/>
-      <c r="N40" s="216"/>
+      <c r="H40" s="197"/>
+      <c r="I40" s="198"/>
+      <c r="J40" s="198"/>
+      <c r="K40" s="198"/>
+      <c r="L40" s="198"/>
+      <c r="M40" s="198"/>
+      <c r="N40" s="198"/>
       <c r="O40" s="252"/>
     </row>
     <row r="41" spans="1:15" s="40" customFormat="1" ht="18" customHeight="1" thickBot="1">
@@ -8220,13 +8220,13 @@
         <f>MAX(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H41" s="218"/>
-      <c r="I41" s="219"/>
-      <c r="J41" s="219"/>
-      <c r="K41" s="219"/>
-      <c r="L41" s="219"/>
-      <c r="M41" s="219"/>
-      <c r="N41" s="219"/>
+      <c r="H41" s="200"/>
+      <c r="I41" s="201"/>
+      <c r="J41" s="201"/>
+      <c r="K41" s="201"/>
+      <c r="L41" s="201"/>
+      <c r="M41" s="201"/>
+      <c r="N41" s="201"/>
       <c r="O41" s="253"/>
     </row>
     <row r="42" spans="1:15" s="11" customFormat="1" ht="16.5" customHeight="1">
@@ -8248,8 +8248,8 @@
       <c r="L42" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="M42" s="202"/>
-      <c r="N42" s="202"/>
+      <c r="M42" s="209"/>
+      <c r="N42" s="209"/>
       <c r="O42" s="35" t="s">
         <v>15</v>
       </c>
@@ -8309,10 +8309,10 @@
       <c r="J45" s="37"/>
       <c r="K45" s="37"/>
       <c r="L45" s="37"/>
-      <c r="M45" s="203" t="s">
+      <c r="M45" s="196" t="s">
         <v>108</v>
       </c>
-      <c r="N45" s="203"/>
+      <c r="N45" s="196"/>
       <c r="O45" s="37"/>
     </row>
   </sheetData>
@@ -8374,7 +8374,7 @@
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P22" sqref="P22"/>
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8513,7 +8513,7 @@
         <f>Page4!G9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F3" s="115">
+      <c r="F3" s="119">
         <f>Page1!H8</f>
         <v>0</v>
       </c>
@@ -8534,7 +8534,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K3" s="119" t="e">
-        <f>Page2!K9</f>
+        <f>Page3!K9</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L3" s="119" t="e">
@@ -8575,7 +8575,7 @@
         <f>Page4!G10</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F4" s="115">
+      <c r="F4" s="119">
         <f>Page1!H9</f>
         <v>0</v>
       </c>
@@ -8596,7 +8596,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K4" s="119" t="e">
-        <f>Page2!K10</f>
+        <f>Page3!K10</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L4" s="119" t="e">
@@ -8639,7 +8639,7 @@
         <f>Page4!G11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F5" s="115">
+      <c r="F5" s="119">
         <f>Page1!H10</f>
         <v>0</v>
       </c>
@@ -8660,7 +8660,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K5" s="119" t="e">
-        <f>Page2!K11</f>
+        <f>Page3!K11</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L5" s="119" t="e">
@@ -8703,7 +8703,7 @@
         <f>Page4!G12</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F6" s="115">
+      <c r="F6" s="119">
         <f>Page1!H11</f>
         <v>0</v>
       </c>
@@ -8724,7 +8724,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K6" s="119" t="e">
-        <f>Page2!K12</f>
+        <f>Page3!K12</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L6" s="119" t="e">
@@ -8767,7 +8767,7 @@
         <f>Page4!G13</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F7" s="115">
+      <c r="F7" s="119">
         <f>Page1!H12</f>
         <v>0</v>
       </c>
@@ -8788,7 +8788,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K7" s="119" t="e">
-        <f>Page2!K13</f>
+        <f>Page3!K13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L7" s="119" t="e">
@@ -8831,7 +8831,7 @@
         <f>Page4!G14</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F8" s="115">
+      <c r="F8" s="119">
         <f>Page1!H13</f>
         <v>0</v>
       </c>
@@ -8852,7 +8852,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K8" s="119" t="e">
-        <f>Page2!K14</f>
+        <f>Page3!K14</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L8" s="119" t="e">
@@ -8895,7 +8895,7 @@
         <f>Page4!G15</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F9" s="115">
+      <c r="F9" s="119">
         <f>Page1!H14</f>
         <v>0</v>
       </c>
@@ -8916,7 +8916,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K9" s="119" t="e">
-        <f>Page2!K15</f>
+        <f>Page3!K15</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L9" s="119" t="e">
@@ -8959,7 +8959,7 @@
         <f>Page4!G16</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F10" s="115">
+      <c r="F10" s="119">
         <f>Page1!H15</f>
         <v>0</v>
       </c>
@@ -8980,7 +8980,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K10" s="119" t="e">
-        <f>Page2!K16</f>
+        <f>Page3!K16</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L10" s="119" t="e">
@@ -9023,7 +9023,7 @@
         <f>Page4!G17</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F11" s="115">
+      <c r="F11" s="119">
         <f>Page1!H16</f>
         <v>0</v>
       </c>
@@ -9044,7 +9044,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K11" s="119" t="e">
-        <f>Page2!K17</f>
+        <f>Page3!K17</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L11" s="119" t="e">
@@ -9087,7 +9087,7 @@
         <f>Page4!G18</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F12" s="115">
+      <c r="F12" s="119">
         <f>Page1!H17</f>
         <v>0</v>
       </c>
@@ -9108,7 +9108,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K12" s="119" t="e">
-        <f>Page2!K18</f>
+        <f>Page3!K18</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L12" s="119" t="e">
@@ -9151,7 +9151,7 @@
         <f>Page4!G19</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F13" s="115">
+      <c r="F13" s="119">
         <f>Page1!H18</f>
         <v>0</v>
       </c>
@@ -9172,7 +9172,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K13" s="119" t="e">
-        <f>Page2!K19</f>
+        <f>Page3!K19</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L13" s="119" t="e">
@@ -9215,7 +9215,7 @@
         <f>Page4!G20</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F14" s="115">
+      <c r="F14" s="119">
         <f>Page1!H19</f>
         <v>0</v>
       </c>
@@ -9236,7 +9236,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K14" s="119" t="e">
-        <f>Page2!K20</f>
+        <f>Page3!K20</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L14" s="119" t="e">
@@ -9279,7 +9279,7 @@
         <f>Page4!G21</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F15" s="115">
+      <c r="F15" s="119">
         <f>Page1!H20</f>
         <v>0</v>
       </c>
@@ -9300,7 +9300,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K15" s="119" t="e">
-        <f>Page2!K21</f>
+        <f>Page3!K21</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L15" s="119" t="e">
@@ -9343,7 +9343,7 @@
         <f>Page4!G22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F16" s="115">
+      <c r="F16" s="119">
         <f>Page1!H21</f>
         <v>0</v>
       </c>
@@ -9364,7 +9364,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K16" s="119" t="e">
-        <f>Page2!K22</f>
+        <f>Page3!K22</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L16" s="119" t="e">
@@ -9407,7 +9407,7 @@
         <f>Page4!G23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F17" s="115">
+      <c r="F17" s="119">
         <f>Page1!H22</f>
         <v>0</v>
       </c>
@@ -9428,7 +9428,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K17" s="119" t="e">
-        <f>Page2!K23</f>
+        <f>Page3!K23</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L17" s="119" t="e">
@@ -9471,7 +9471,7 @@
         <f>Page4!G24</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F18" s="115">
+      <c r="F18" s="119">
         <f>Page1!H23</f>
         <v>0</v>
       </c>
@@ -9492,7 +9492,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K18" s="119" t="e">
-        <f>Page2!K24</f>
+        <f>Page3!K24</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L18" s="119" t="e">
@@ -9535,7 +9535,7 @@
         <f>Page4!G25</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F19" s="115">
+      <c r="F19" s="119">
         <f>Page1!H24</f>
         <v>0</v>
       </c>
@@ -9556,7 +9556,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K19" s="119" t="e">
-        <f>Page2!K25</f>
+        <f>Page3!K25</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L19" s="119" t="e">
@@ -9599,7 +9599,7 @@
         <f>Page4!G26</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F20" s="115">
+      <c r="F20" s="119">
         <f>Page1!H25</f>
         <v>0</v>
       </c>
@@ -9620,7 +9620,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K20" s="119" t="e">
-        <f>Page2!K26</f>
+        <f>Page3!K26</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L20" s="119" t="e">
@@ -9663,7 +9663,7 @@
         <f>Page4!G27</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F21" s="115">
+      <c r="F21" s="119">
         <f>Page1!H26</f>
         <v>0</v>
       </c>
@@ -9684,7 +9684,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K21" s="119" t="e">
-        <f>Page2!K27</f>
+        <f>Page3!K27</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L21" s="119" t="e">
@@ -9727,7 +9727,7 @@
         <f>Page4!G28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F22" s="115">
+      <c r="F22" s="119">
         <f>Page1!H27</f>
         <v>0</v>
       </c>
@@ -9748,7 +9748,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K22" s="119" t="e">
-        <f>Page2!K28</f>
+        <f>Page3!K28</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L22" s="119" t="e">
@@ -9791,7 +9791,7 @@
         <f>Page4!G29</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F23" s="115">
+      <c r="F23" s="119">
         <f>Page1!H28</f>
         <v>0</v>
       </c>
@@ -9812,7 +9812,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K23" s="119" t="e">
-        <f>Page2!K29</f>
+        <f>Page3!K29</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L23" s="119" t="e">
@@ -9855,7 +9855,7 @@
         <f>Page4!G30</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F24" s="115">
+      <c r="F24" s="119">
         <f>Page1!H29</f>
         <v>0</v>
       </c>
@@ -9876,7 +9876,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K24" s="119" t="e">
-        <f>Page2!K30</f>
+        <f>Page3!K30</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L24" s="119" t="e">
@@ -9919,7 +9919,7 @@
         <f>Page4!G31</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F25" s="115">
+      <c r="F25" s="119">
         <f>Page1!H30</f>
         <v>0</v>
       </c>
@@ -9940,7 +9940,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K25" s="119" t="e">
-        <f>Page2!K31</f>
+        <f>Page3!K31</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L25" s="119" t="e">
@@ -9983,7 +9983,7 @@
         <f>Page4!G32</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F26" s="115">
+      <c r="F26" s="119">
         <f>Page1!H31</f>
         <v>0</v>
       </c>
@@ -10004,7 +10004,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K26" s="119" t="e">
-        <f>Page2!K32</f>
+        <f>Page3!K32</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L26" s="119" t="e">
@@ -10047,7 +10047,7 @@
         <f>Page4!G33</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F27" s="115">
+      <c r="F27" s="119">
         <f>Page1!H32</f>
         <v>0</v>
       </c>
@@ -10068,7 +10068,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K27" s="119" t="e">
-        <f>Page2!K33</f>
+        <f>Page3!K33</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L27" s="119" t="e">
@@ -10111,7 +10111,7 @@
         <f>Page4!G34</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F28" s="115">
+      <c r="F28" s="119">
         <f>Page1!H33</f>
         <v>0</v>
       </c>
@@ -10132,7 +10132,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K28" s="119" t="e">
-        <f>Page2!K34</f>
+        <f>Page3!K34</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L28" s="119" t="e">
@@ -10175,7 +10175,7 @@
         <f>Page4!G35</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F29" s="115">
+      <c r="F29" s="119">
         <f>Page1!H34</f>
         <v>0</v>
       </c>
@@ -10196,7 +10196,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K29" s="119" t="e">
-        <f>Page2!K35</f>
+        <f>Page3!K35</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L29" s="119" t="e">
@@ -10239,7 +10239,7 @@
         <f>Page4!G36</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F30" s="115">
+      <c r="F30" s="119">
         <f>Page1!H35</f>
         <v>0</v>
       </c>
@@ -10260,7 +10260,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K30" s="119" t="e">
-        <f>Page2!K36</f>
+        <f>Page3!K36</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L30" s="119" t="e">
@@ -10303,7 +10303,7 @@
         <f>Page4!G37</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F31" s="115">
+      <c r="F31" s="119">
         <f>Page1!H36</f>
         <v>0</v>
       </c>
@@ -10324,7 +10324,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K31" s="119" t="e">
-        <f>Page2!K37</f>
+        <f>Page3!K37</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L31" s="119" t="e">
@@ -10367,7 +10367,7 @@
         <f>Page4!G38</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F32" s="115">
+      <c r="F32" s="119">
         <f>Page1!H37</f>
         <v>0</v>
       </c>
@@ -10388,7 +10388,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K32" s="119" t="e">
-        <f>Page2!K38</f>
+        <f>Page3!K38</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L32" s="119" t="e">
@@ -10432,7 +10432,7 @@
   <dimension ref="A1:AT44"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AP25" sqref="AP25"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -11854,7 +11854,7 @@
     </row>
     <row r="10" spans="1:46" s="109" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="99">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="100" t="s">
         <v>55</v>
@@ -12030,7 +12030,7 @@
     </row>
     <row r="11" spans="1:46" s="109" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="99">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B11" s="100" t="s">
         <v>61</v>

--- a/backend/templates/176-18cp-ww.xlsx
+++ b/backend/templates/176-18cp-ww.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cursor AI Projects\SwansonIndiaPortal\backend\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81265C65-8719-4462-8400-3A200D345D8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F4EBC32-48EA-440F-A546-0EA645C9F714}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -549,11 +549,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="167" formatCode="[$-14009]dd\-mm\-yyyy;@"/>
   </numFmts>
   <fonts count="14">
     <font>
@@ -1853,10 +1852,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1904,6 +1899,155 @@
     <xf numFmtId="165" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1913,9 +2057,6 @@
     <xf numFmtId="49" fontId="11" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1970,154 +2111,133 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2174,211 +2294,90 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2791,61 +2790,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A1" s="186" t="s">
+      <c r="A1" s="146" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="186"/>
-      <c r="C1" s="186"/>
-      <c r="D1" s="186"/>
-      <c r="E1" s="186"/>
-      <c r="F1" s="186"/>
-      <c r="G1" s="186"/>
-      <c r="H1" s="186"/>
-      <c r="I1" s="186"/>
-      <c r="J1" s="186"/>
-      <c r="K1" s="186"/>
-      <c r="L1" s="186"/>
-      <c r="M1" s="186"/>
-      <c r="N1" s="187" t="s">
+      <c r="B1" s="146"/>
+      <c r="C1" s="146"/>
+      <c r="D1" s="146"/>
+      <c r="E1" s="146"/>
+      <c r="F1" s="146"/>
+      <c r="G1" s="146"/>
+      <c r="H1" s="146"/>
+      <c r="I1" s="146"/>
+      <c r="J1" s="146"/>
+      <c r="K1" s="146"/>
+      <c r="L1" s="146"/>
+      <c r="M1" s="146"/>
+      <c r="N1" s="147" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="187"/>
+      <c r="O1" s="147"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A2" s="189" t="s">
+      <c r="A2" s="149" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="189"/>
-      <c r="C2" s="189"/>
-      <c r="D2" s="189"/>
-      <c r="E2" s="189"/>
-      <c r="F2" s="189"/>
-      <c r="G2" s="189"/>
-      <c r="H2" s="189"/>
-      <c r="I2" s="189"/>
-      <c r="J2" s="189"/>
-      <c r="K2" s="189"/>
-      <c r="L2" s="189"/>
-      <c r="M2" s="189"/>
-      <c r="N2" s="188" t="s">
+      <c r="B2" s="149"/>
+      <c r="C2" s="149"/>
+      <c r="D2" s="149"/>
+      <c r="E2" s="149"/>
+      <c r="F2" s="149"/>
+      <c r="G2" s="149"/>
+      <c r="H2" s="149"/>
+      <c r="I2" s="149"/>
+      <c r="J2" s="149"/>
+      <c r="K2" s="149"/>
+      <c r="L2" s="149"/>
+      <c r="M2" s="149"/>
+      <c r="N2" s="148" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="188"/>
+      <c r="O2" s="148"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A3" s="189"/>
-      <c r="B3" s="189"/>
-      <c r="C3" s="189"/>
-      <c r="D3" s="189"/>
-      <c r="E3" s="189"/>
-      <c r="F3" s="189"/>
-      <c r="G3" s="189"/>
-      <c r="H3" s="189"/>
-      <c r="I3" s="189"/>
-      <c r="J3" s="189"/>
-      <c r="K3" s="189"/>
-      <c r="L3" s="189"/>
-      <c r="M3" s="189"/>
+      <c r="A3" s="149"/>
+      <c r="B3" s="149"/>
+      <c r="C3" s="149"/>
+      <c r="D3" s="149"/>
+      <c r="E3" s="149"/>
+      <c r="F3" s="149"/>
+      <c r="G3" s="149"/>
+      <c r="H3" s="149"/>
+      <c r="I3" s="149"/>
+      <c r="J3" s="149"/>
+      <c r="K3" s="149"/>
+      <c r="L3" s="149"/>
+      <c r="M3" s="149"/>
       <c r="N3" s="12" t="s">
         <v>20</v>
       </c>
@@ -2855,97 +2854,97 @@
       <c r="A4" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="135"/>
-      <c r="C4" s="136"/>
-      <c r="D4" s="136"/>
-      <c r="E4" s="139" t="s">
+      <c r="B4" s="177"/>
+      <c r="C4" s="178"/>
+      <c r="D4" s="178"/>
+      <c r="E4" s="181" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="140"/>
-      <c r="G4" s="135"/>
-      <c r="H4" s="143"/>
+      <c r="F4" s="182"/>
+      <c r="G4" s="177"/>
+      <c r="H4" s="185"/>
       <c r="I4" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="135"/>
-      <c r="K4" s="143"/>
-      <c r="L4" s="139" t="s">
+      <c r="J4" s="177"/>
+      <c r="K4" s="185"/>
+      <c r="L4" s="181" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="140"/>
-      <c r="N4" s="190"/>
-      <c r="O4" s="191"/>
+      <c r="M4" s="182"/>
+      <c r="N4" s="150"/>
+      <c r="O4" s="151"/>
     </row>
     <row r="5" spans="1:15" s="16" customFormat="1" ht="23.25" customHeight="1">
       <c r="A5" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="137"/>
-      <c r="C5" s="138"/>
-      <c r="D5" s="138"/>
-      <c r="E5" s="141" t="s">
+      <c r="B5" s="179"/>
+      <c r="C5" s="180"/>
+      <c r="D5" s="180"/>
+      <c r="E5" s="183" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="142"/>
-      <c r="G5" s="137"/>
-      <c r="H5" s="144"/>
+      <c r="F5" s="184"/>
+      <c r="G5" s="179"/>
+      <c r="H5" s="186"/>
       <c r="I5" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="137"/>
-      <c r="K5" s="144"/>
-      <c r="L5" s="141" t="s">
+      <c r="J5" s="179"/>
+      <c r="K5" s="186"/>
+      <c r="L5" s="183" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="142"/>
-      <c r="N5" s="192"/>
-      <c r="O5" s="193"/>
+      <c r="M5" s="184"/>
+      <c r="N5" s="152"/>
+      <c r="O5" s="153"/>
     </row>
     <row r="6" spans="1:15" thickBot="1">
-      <c r="A6" s="182" t="s">
+      <c r="A6" s="140" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="167"/>
-      <c r="C6" s="183"/>
-      <c r="D6" s="183"/>
-      <c r="E6" s="194"/>
-      <c r="F6" s="167"/>
-      <c r="G6" s="167"/>
-      <c r="H6" s="163"/>
-      <c r="I6" s="164"/>
-      <c r="J6" s="183"/>
-      <c r="K6" s="194"/>
-      <c r="L6" s="167"/>
-      <c r="M6" s="167"/>
-      <c r="N6" s="183"/>
-      <c r="O6" s="195"/>
+      <c r="B6" s="141"/>
+      <c r="C6" s="142"/>
+      <c r="D6" s="142"/>
+      <c r="E6" s="154"/>
+      <c r="F6" s="141"/>
+      <c r="G6" s="141"/>
+      <c r="H6" s="172"/>
+      <c r="I6" s="173"/>
+      <c r="J6" s="142"/>
+      <c r="K6" s="154"/>
+      <c r="L6" s="141"/>
+      <c r="M6" s="141"/>
+      <c r="N6" s="142"/>
+      <c r="O6" s="156"/>
     </row>
     <row r="7" spans="1:15" s="21" customFormat="1" ht="67.5" customHeight="1" thickBot="1">
-      <c r="A7" s="184" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="185"/>
-      <c r="C7" s="165"/>
-      <c r="D7" s="185" t="s">
+      <c r="A7" s="143" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="144"/>
+      <c r="C7" s="145"/>
+      <c r="D7" s="144" t="s">
         <v>102</v>
       </c>
-      <c r="E7" s="185"/>
-      <c r="F7" s="185" t="s">
+      <c r="E7" s="144"/>
+      <c r="F7" s="144" t="s">
         <v>103</v>
       </c>
-      <c r="G7" s="185"/>
-      <c r="H7" s="165" t="s">
+      <c r="G7" s="144"/>
+      <c r="H7" s="145" t="s">
         <v>104</v>
       </c>
-      <c r="I7" s="166"/>
-      <c r="J7" s="165" t="s">
+      <c r="I7" s="155"/>
+      <c r="J7" s="145" t="s">
         <v>105</v>
       </c>
-      <c r="K7" s="166"/>
-      <c r="L7" s="185" t="s">
+      <c r="K7" s="155"/>
+      <c r="L7" s="144" t="s">
         <v>114</v>
       </c>
-      <c r="M7" s="185"/>
+      <c r="M7" s="144"/>
       <c r="N7" s="19" t="s">
         <v>107</v>
       </c>
@@ -2957,16 +2956,16 @@
       <c r="A8" s="22"/>
       <c r="B8" s="23"/>
       <c r="C8" s="23"/>
-      <c r="D8" s="158"/>
-      <c r="E8" s="158"/>
-      <c r="F8" s="159"/>
-      <c r="G8" s="159"/>
-      <c r="H8" s="160"/>
-      <c r="I8" s="161"/>
-      <c r="J8" s="158"/>
-      <c r="K8" s="158"/>
-      <c r="L8" s="162"/>
-      <c r="M8" s="162"/>
+      <c r="D8" s="135"/>
+      <c r="E8" s="135"/>
+      <c r="F8" s="136"/>
+      <c r="G8" s="136"/>
+      <c r="H8" s="137"/>
+      <c r="I8" s="138"/>
+      <c r="J8" s="135"/>
+      <c r="K8" s="135"/>
+      <c r="L8" s="139"/>
+      <c r="M8" s="139"/>
       <c r="N8" s="24"/>
       <c r="O8" s="25"/>
     </row>
@@ -2974,16 +2973,16 @@
       <c r="A9" s="22"/>
       <c r="B9" s="26"/>
       <c r="C9" s="23"/>
-      <c r="D9" s="154"/>
-      <c r="E9" s="154"/>
-      <c r="F9" s="155"/>
-      <c r="G9" s="155"/>
-      <c r="H9" s="156"/>
-      <c r="I9" s="157"/>
-      <c r="J9" s="154"/>
-      <c r="K9" s="154"/>
-      <c r="L9" s="153"/>
-      <c r="M9" s="153"/>
+      <c r="D9" s="130"/>
+      <c r="E9" s="130"/>
+      <c r="F9" s="131"/>
+      <c r="G9" s="131"/>
+      <c r="H9" s="132"/>
+      <c r="I9" s="133"/>
+      <c r="J9" s="130"/>
+      <c r="K9" s="130"/>
+      <c r="L9" s="134"/>
+      <c r="M9" s="134"/>
       <c r="N9" s="27"/>
       <c r="O9" s="28"/>
     </row>
@@ -2991,16 +2990,16 @@
       <c r="A10" s="22"/>
       <c r="B10" s="26"/>
       <c r="C10" s="23"/>
-      <c r="D10" s="154"/>
-      <c r="E10" s="154"/>
-      <c r="F10" s="155"/>
-      <c r="G10" s="155"/>
-      <c r="H10" s="156"/>
-      <c r="I10" s="157"/>
-      <c r="J10" s="154"/>
-      <c r="K10" s="154"/>
-      <c r="L10" s="153"/>
-      <c r="M10" s="153"/>
+      <c r="D10" s="130"/>
+      <c r="E10" s="130"/>
+      <c r="F10" s="131"/>
+      <c r="G10" s="131"/>
+      <c r="H10" s="132"/>
+      <c r="I10" s="133"/>
+      <c r="J10" s="130"/>
+      <c r="K10" s="130"/>
+      <c r="L10" s="134"/>
+      <c r="M10" s="134"/>
       <c r="N10" s="27"/>
       <c r="O10" s="28"/>
     </row>
@@ -3008,16 +3007,16 @@
       <c r="A11" s="22"/>
       <c r="B11" s="23"/>
       <c r="C11" s="23"/>
-      <c r="D11" s="158"/>
-      <c r="E11" s="158"/>
-      <c r="F11" s="159"/>
-      <c r="G11" s="159"/>
-      <c r="H11" s="160"/>
-      <c r="I11" s="161"/>
-      <c r="J11" s="158"/>
-      <c r="K11" s="158"/>
-      <c r="L11" s="162"/>
-      <c r="M11" s="162"/>
+      <c r="D11" s="135"/>
+      <c r="E11" s="135"/>
+      <c r="F11" s="136"/>
+      <c r="G11" s="136"/>
+      <c r="H11" s="137"/>
+      <c r="I11" s="138"/>
+      <c r="J11" s="135"/>
+      <c r="K11" s="135"/>
+      <c r="L11" s="139"/>
+      <c r="M11" s="139"/>
       <c r="N11" s="24"/>
       <c r="O11" s="25"/>
     </row>
@@ -3025,16 +3024,16 @@
       <c r="A12" s="22"/>
       <c r="B12" s="26"/>
       <c r="C12" s="23"/>
-      <c r="D12" s="154"/>
-      <c r="E12" s="154"/>
-      <c r="F12" s="155"/>
-      <c r="G12" s="155"/>
-      <c r="H12" s="156"/>
-      <c r="I12" s="157"/>
-      <c r="J12" s="154"/>
-      <c r="K12" s="154"/>
-      <c r="L12" s="153"/>
-      <c r="M12" s="153"/>
+      <c r="D12" s="130"/>
+      <c r="E12" s="130"/>
+      <c r="F12" s="131"/>
+      <c r="G12" s="131"/>
+      <c r="H12" s="132"/>
+      <c r="I12" s="133"/>
+      <c r="J12" s="130"/>
+      <c r="K12" s="130"/>
+      <c r="L12" s="134"/>
+      <c r="M12" s="134"/>
       <c r="N12" s="27"/>
       <c r="O12" s="28"/>
     </row>
@@ -3042,16 +3041,16 @@
       <c r="A13" s="22"/>
       <c r="B13" s="26"/>
       <c r="C13" s="23"/>
-      <c r="D13" s="154"/>
-      <c r="E13" s="154"/>
-      <c r="F13" s="155"/>
-      <c r="G13" s="155"/>
-      <c r="H13" s="156"/>
-      <c r="I13" s="157"/>
-      <c r="J13" s="154"/>
-      <c r="K13" s="154"/>
-      <c r="L13" s="153"/>
-      <c r="M13" s="153"/>
+      <c r="D13" s="130"/>
+      <c r="E13" s="130"/>
+      <c r="F13" s="131"/>
+      <c r="G13" s="131"/>
+      <c r="H13" s="132"/>
+      <c r="I13" s="133"/>
+      <c r="J13" s="130"/>
+      <c r="K13" s="130"/>
+      <c r="L13" s="134"/>
+      <c r="M13" s="134"/>
       <c r="N13" s="27"/>
       <c r="O13" s="28"/>
     </row>
@@ -3059,16 +3058,16 @@
       <c r="A14" s="22"/>
       <c r="B14" s="26"/>
       <c r="C14" s="23"/>
-      <c r="D14" s="154"/>
-      <c r="E14" s="154"/>
-      <c r="F14" s="155"/>
-      <c r="G14" s="155"/>
-      <c r="H14" s="156"/>
-      <c r="I14" s="157"/>
-      <c r="J14" s="154"/>
-      <c r="K14" s="154"/>
-      <c r="L14" s="153"/>
-      <c r="M14" s="153"/>
+      <c r="D14" s="130"/>
+      <c r="E14" s="130"/>
+      <c r="F14" s="131"/>
+      <c r="G14" s="131"/>
+      <c r="H14" s="132"/>
+      <c r="I14" s="133"/>
+      <c r="J14" s="130"/>
+      <c r="K14" s="130"/>
+      <c r="L14" s="134"/>
+      <c r="M14" s="134"/>
       <c r="N14" s="27"/>
       <c r="O14" s="28"/>
     </row>
@@ -3076,16 +3075,16 @@
       <c r="A15" s="22"/>
       <c r="B15" s="26"/>
       <c r="C15" s="23"/>
-      <c r="D15" s="154"/>
-      <c r="E15" s="154"/>
-      <c r="F15" s="155"/>
-      <c r="G15" s="155"/>
-      <c r="H15" s="156"/>
-      <c r="I15" s="157"/>
-      <c r="J15" s="154"/>
-      <c r="K15" s="154"/>
-      <c r="L15" s="153"/>
-      <c r="M15" s="153"/>
+      <c r="D15" s="130"/>
+      <c r="E15" s="130"/>
+      <c r="F15" s="131"/>
+      <c r="G15" s="131"/>
+      <c r="H15" s="132"/>
+      <c r="I15" s="133"/>
+      <c r="J15" s="130"/>
+      <c r="K15" s="130"/>
+      <c r="L15" s="134"/>
+      <c r="M15" s="134"/>
       <c r="N15" s="27"/>
       <c r="O15" s="28"/>
     </row>
@@ -3093,16 +3092,16 @@
       <c r="A16" s="22"/>
       <c r="B16" s="26"/>
       <c r="C16" s="23"/>
-      <c r="D16" s="154"/>
-      <c r="E16" s="154"/>
-      <c r="F16" s="155"/>
-      <c r="G16" s="155"/>
-      <c r="H16" s="156"/>
-      <c r="I16" s="157"/>
-      <c r="J16" s="154"/>
-      <c r="K16" s="154"/>
-      <c r="L16" s="153"/>
-      <c r="M16" s="153"/>
+      <c r="D16" s="130"/>
+      <c r="E16" s="130"/>
+      <c r="F16" s="131"/>
+      <c r="G16" s="131"/>
+      <c r="H16" s="132"/>
+      <c r="I16" s="133"/>
+      <c r="J16" s="130"/>
+      <c r="K16" s="130"/>
+      <c r="L16" s="134"/>
+      <c r="M16" s="134"/>
       <c r="N16" s="27"/>
       <c r="O16" s="28"/>
     </row>
@@ -3110,16 +3109,16 @@
       <c r="A17" s="22"/>
       <c r="B17" s="26"/>
       <c r="C17" s="23"/>
-      <c r="D17" s="154"/>
-      <c r="E17" s="154"/>
-      <c r="F17" s="155"/>
-      <c r="G17" s="155"/>
-      <c r="H17" s="156"/>
-      <c r="I17" s="157"/>
-      <c r="J17" s="154"/>
-      <c r="K17" s="154"/>
-      <c r="L17" s="153"/>
-      <c r="M17" s="153"/>
+      <c r="D17" s="130"/>
+      <c r="E17" s="130"/>
+      <c r="F17" s="131"/>
+      <c r="G17" s="131"/>
+      <c r="H17" s="132"/>
+      <c r="I17" s="133"/>
+      <c r="J17" s="130"/>
+      <c r="K17" s="130"/>
+      <c r="L17" s="134"/>
+      <c r="M17" s="134"/>
       <c r="N17" s="27"/>
       <c r="O17" s="28"/>
     </row>
@@ -3127,16 +3126,16 @@
       <c r="A18" s="22"/>
       <c r="B18" s="26"/>
       <c r="C18" s="23"/>
-      <c r="D18" s="154"/>
-      <c r="E18" s="154"/>
-      <c r="F18" s="155"/>
-      <c r="G18" s="155"/>
-      <c r="H18" s="156"/>
-      <c r="I18" s="157"/>
-      <c r="J18" s="154"/>
-      <c r="K18" s="154"/>
-      <c r="L18" s="153"/>
-      <c r="M18" s="153"/>
+      <c r="D18" s="130"/>
+      <c r="E18" s="130"/>
+      <c r="F18" s="131"/>
+      <c r="G18" s="131"/>
+      <c r="H18" s="132"/>
+      <c r="I18" s="133"/>
+      <c r="J18" s="130"/>
+      <c r="K18" s="130"/>
+      <c r="L18" s="134"/>
+      <c r="M18" s="134"/>
       <c r="N18" s="27"/>
       <c r="O18" s="28"/>
     </row>
@@ -3144,16 +3143,16 @@
       <c r="A19" s="22"/>
       <c r="B19" s="26"/>
       <c r="C19" s="23"/>
-      <c r="D19" s="154"/>
-      <c r="E19" s="154"/>
-      <c r="F19" s="155"/>
-      <c r="G19" s="155"/>
-      <c r="H19" s="156"/>
-      <c r="I19" s="157"/>
-      <c r="J19" s="154"/>
-      <c r="K19" s="154"/>
-      <c r="L19" s="153"/>
-      <c r="M19" s="153"/>
+      <c r="D19" s="130"/>
+      <c r="E19" s="130"/>
+      <c r="F19" s="131"/>
+      <c r="G19" s="131"/>
+      <c r="H19" s="132"/>
+      <c r="I19" s="133"/>
+      <c r="J19" s="130"/>
+      <c r="K19" s="130"/>
+      <c r="L19" s="134"/>
+      <c r="M19" s="134"/>
       <c r="N19" s="27"/>
       <c r="O19" s="28"/>
     </row>
@@ -3161,16 +3160,16 @@
       <c r="A20" s="22"/>
       <c r="B20" s="26"/>
       <c r="C20" s="23"/>
-      <c r="D20" s="154"/>
-      <c r="E20" s="154"/>
-      <c r="F20" s="155"/>
-      <c r="G20" s="155"/>
-      <c r="H20" s="156"/>
-      <c r="I20" s="157"/>
-      <c r="J20" s="154"/>
-      <c r="K20" s="154"/>
-      <c r="L20" s="153"/>
-      <c r="M20" s="153"/>
+      <c r="D20" s="130"/>
+      <c r="E20" s="130"/>
+      <c r="F20" s="131"/>
+      <c r="G20" s="131"/>
+      <c r="H20" s="132"/>
+      <c r="I20" s="133"/>
+      <c r="J20" s="130"/>
+      <c r="K20" s="130"/>
+      <c r="L20" s="134"/>
+      <c r="M20" s="134"/>
       <c r="N20" s="27"/>
       <c r="O20" s="28"/>
     </row>
@@ -3178,16 +3177,16 @@
       <c r="A21" s="22"/>
       <c r="B21" s="23"/>
       <c r="C21" s="23"/>
-      <c r="D21" s="158"/>
-      <c r="E21" s="158"/>
-      <c r="F21" s="159"/>
-      <c r="G21" s="159"/>
-      <c r="H21" s="160"/>
-      <c r="I21" s="161"/>
-      <c r="J21" s="158"/>
-      <c r="K21" s="158"/>
-      <c r="L21" s="162"/>
-      <c r="M21" s="162"/>
+      <c r="D21" s="135"/>
+      <c r="E21" s="135"/>
+      <c r="F21" s="136"/>
+      <c r="G21" s="136"/>
+      <c r="H21" s="137"/>
+      <c r="I21" s="138"/>
+      <c r="J21" s="135"/>
+      <c r="K21" s="135"/>
+      <c r="L21" s="139"/>
+      <c r="M21" s="139"/>
       <c r="N21" s="24"/>
       <c r="O21" s="25"/>
     </row>
@@ -3195,16 +3194,16 @@
       <c r="A22" s="22"/>
       <c r="B22" s="26"/>
       <c r="C22" s="23"/>
-      <c r="D22" s="154"/>
-      <c r="E22" s="154"/>
-      <c r="F22" s="155"/>
-      <c r="G22" s="155"/>
-      <c r="H22" s="156"/>
-      <c r="I22" s="157"/>
-      <c r="J22" s="154"/>
-      <c r="K22" s="154"/>
-      <c r="L22" s="153"/>
-      <c r="M22" s="153"/>
+      <c r="D22" s="130"/>
+      <c r="E22" s="130"/>
+      <c r="F22" s="131"/>
+      <c r="G22" s="131"/>
+      <c r="H22" s="132"/>
+      <c r="I22" s="133"/>
+      <c r="J22" s="130"/>
+      <c r="K22" s="130"/>
+      <c r="L22" s="134"/>
+      <c r="M22" s="134"/>
       <c r="N22" s="27"/>
       <c r="O22" s="28"/>
     </row>
@@ -3212,16 +3211,16 @@
       <c r="A23" s="22"/>
       <c r="B23" s="26"/>
       <c r="C23" s="23"/>
-      <c r="D23" s="154"/>
-      <c r="E23" s="154"/>
-      <c r="F23" s="155"/>
-      <c r="G23" s="155"/>
-      <c r="H23" s="156"/>
-      <c r="I23" s="157"/>
-      <c r="J23" s="154"/>
-      <c r="K23" s="154"/>
-      <c r="L23" s="153"/>
-      <c r="M23" s="153"/>
+      <c r="D23" s="130"/>
+      <c r="E23" s="130"/>
+      <c r="F23" s="131"/>
+      <c r="G23" s="131"/>
+      <c r="H23" s="132"/>
+      <c r="I23" s="133"/>
+      <c r="J23" s="130"/>
+      <c r="K23" s="130"/>
+      <c r="L23" s="134"/>
+      <c r="M23" s="134"/>
       <c r="N23" s="27"/>
       <c r="O23" s="28"/>
     </row>
@@ -3229,16 +3228,16 @@
       <c r="A24" s="22"/>
       <c r="B24" s="23"/>
       <c r="C24" s="23"/>
-      <c r="D24" s="158"/>
-      <c r="E24" s="158"/>
-      <c r="F24" s="159"/>
-      <c r="G24" s="159"/>
-      <c r="H24" s="160"/>
-      <c r="I24" s="161"/>
-      <c r="J24" s="158"/>
-      <c r="K24" s="158"/>
-      <c r="L24" s="162"/>
-      <c r="M24" s="162"/>
+      <c r="D24" s="135"/>
+      <c r="E24" s="135"/>
+      <c r="F24" s="136"/>
+      <c r="G24" s="136"/>
+      <c r="H24" s="137"/>
+      <c r="I24" s="138"/>
+      <c r="J24" s="135"/>
+      <c r="K24" s="135"/>
+      <c r="L24" s="139"/>
+      <c r="M24" s="139"/>
       <c r="N24" s="24"/>
       <c r="O24" s="25"/>
     </row>
@@ -3246,16 +3245,16 @@
       <c r="A25" s="22"/>
       <c r="B25" s="26"/>
       <c r="C25" s="23"/>
-      <c r="D25" s="154"/>
-      <c r="E25" s="154"/>
-      <c r="F25" s="155"/>
-      <c r="G25" s="155"/>
-      <c r="H25" s="156"/>
-      <c r="I25" s="157"/>
-      <c r="J25" s="154"/>
-      <c r="K25" s="154"/>
-      <c r="L25" s="153"/>
-      <c r="M25" s="153"/>
+      <c r="D25" s="130"/>
+      <c r="E25" s="130"/>
+      <c r="F25" s="131"/>
+      <c r="G25" s="131"/>
+      <c r="H25" s="132"/>
+      <c r="I25" s="133"/>
+      <c r="J25" s="130"/>
+      <c r="K25" s="130"/>
+      <c r="L25" s="134"/>
+      <c r="M25" s="134"/>
       <c r="N25" s="27"/>
       <c r="O25" s="28"/>
     </row>
@@ -3263,16 +3262,16 @@
       <c r="A26" s="22"/>
       <c r="B26" s="26"/>
       <c r="C26" s="23"/>
-      <c r="D26" s="154"/>
-      <c r="E26" s="154"/>
-      <c r="F26" s="155"/>
-      <c r="G26" s="155"/>
-      <c r="H26" s="156"/>
-      <c r="I26" s="157"/>
-      <c r="J26" s="154"/>
-      <c r="K26" s="154"/>
-      <c r="L26" s="153"/>
-      <c r="M26" s="153"/>
+      <c r="D26" s="130"/>
+      <c r="E26" s="130"/>
+      <c r="F26" s="131"/>
+      <c r="G26" s="131"/>
+      <c r="H26" s="132"/>
+      <c r="I26" s="133"/>
+      <c r="J26" s="130"/>
+      <c r="K26" s="130"/>
+      <c r="L26" s="134"/>
+      <c r="M26" s="134"/>
       <c r="N26" s="27"/>
       <c r="O26" s="28"/>
     </row>
@@ -3280,16 +3279,16 @@
       <c r="A27" s="22"/>
       <c r="B27" s="26"/>
       <c r="C27" s="23"/>
-      <c r="D27" s="154"/>
-      <c r="E27" s="154"/>
-      <c r="F27" s="155"/>
-      <c r="G27" s="155"/>
-      <c r="H27" s="156"/>
-      <c r="I27" s="157"/>
-      <c r="J27" s="154"/>
-      <c r="K27" s="154"/>
-      <c r="L27" s="153"/>
-      <c r="M27" s="153"/>
+      <c r="D27" s="130"/>
+      <c r="E27" s="130"/>
+      <c r="F27" s="131"/>
+      <c r="G27" s="131"/>
+      <c r="H27" s="132"/>
+      <c r="I27" s="133"/>
+      <c r="J27" s="130"/>
+      <c r="K27" s="130"/>
+      <c r="L27" s="134"/>
+      <c r="M27" s="134"/>
       <c r="N27" s="27"/>
       <c r="O27" s="28"/>
     </row>
@@ -3297,16 +3296,16 @@
       <c r="A28" s="22"/>
       <c r="B28" s="26"/>
       <c r="C28" s="23"/>
-      <c r="D28" s="154"/>
-      <c r="E28" s="154"/>
-      <c r="F28" s="155"/>
-      <c r="G28" s="155"/>
-      <c r="H28" s="156"/>
-      <c r="I28" s="157"/>
-      <c r="J28" s="154"/>
-      <c r="K28" s="154"/>
-      <c r="L28" s="153"/>
-      <c r="M28" s="153"/>
+      <c r="D28" s="130"/>
+      <c r="E28" s="130"/>
+      <c r="F28" s="131"/>
+      <c r="G28" s="131"/>
+      <c r="H28" s="132"/>
+      <c r="I28" s="133"/>
+      <c r="J28" s="130"/>
+      <c r="K28" s="130"/>
+      <c r="L28" s="134"/>
+      <c r="M28" s="134"/>
       <c r="N28" s="27"/>
       <c r="O28" s="28"/>
     </row>
@@ -3314,16 +3313,16 @@
       <c r="A29" s="22"/>
       <c r="B29" s="26"/>
       <c r="C29" s="23"/>
-      <c r="D29" s="154"/>
-      <c r="E29" s="154"/>
-      <c r="F29" s="155"/>
-      <c r="G29" s="155"/>
-      <c r="H29" s="156"/>
-      <c r="I29" s="157"/>
-      <c r="J29" s="154"/>
-      <c r="K29" s="154"/>
-      <c r="L29" s="153"/>
-      <c r="M29" s="153"/>
+      <c r="D29" s="130"/>
+      <c r="E29" s="130"/>
+      <c r="F29" s="131"/>
+      <c r="G29" s="131"/>
+      <c r="H29" s="132"/>
+      <c r="I29" s="133"/>
+      <c r="J29" s="130"/>
+      <c r="K29" s="130"/>
+      <c r="L29" s="134"/>
+      <c r="M29" s="134"/>
       <c r="N29" s="27"/>
       <c r="O29" s="28"/>
     </row>
@@ -3331,16 +3330,16 @@
       <c r="A30" s="22"/>
       <c r="B30" s="26"/>
       <c r="C30" s="23"/>
-      <c r="D30" s="154"/>
-      <c r="E30" s="154"/>
-      <c r="F30" s="155"/>
-      <c r="G30" s="155"/>
-      <c r="H30" s="156"/>
-      <c r="I30" s="157"/>
-      <c r="J30" s="154"/>
-      <c r="K30" s="154"/>
-      <c r="L30" s="153"/>
-      <c r="M30" s="153"/>
+      <c r="D30" s="130"/>
+      <c r="E30" s="130"/>
+      <c r="F30" s="131"/>
+      <c r="G30" s="131"/>
+      <c r="H30" s="132"/>
+      <c r="I30" s="133"/>
+      <c r="J30" s="130"/>
+      <c r="K30" s="130"/>
+      <c r="L30" s="134"/>
+      <c r="M30" s="134"/>
       <c r="N30" s="27"/>
       <c r="O30" s="28"/>
     </row>
@@ -3348,16 +3347,16 @@
       <c r="A31" s="22"/>
       <c r="B31" s="26"/>
       <c r="C31" s="23"/>
-      <c r="D31" s="154"/>
-      <c r="E31" s="154"/>
-      <c r="F31" s="155"/>
-      <c r="G31" s="155"/>
-      <c r="H31" s="156"/>
-      <c r="I31" s="157"/>
-      <c r="J31" s="154"/>
-      <c r="K31" s="154"/>
-      <c r="L31" s="153"/>
-      <c r="M31" s="153"/>
+      <c r="D31" s="130"/>
+      <c r="E31" s="130"/>
+      <c r="F31" s="131"/>
+      <c r="G31" s="131"/>
+      <c r="H31" s="132"/>
+      <c r="I31" s="133"/>
+      <c r="J31" s="130"/>
+      <c r="K31" s="130"/>
+      <c r="L31" s="134"/>
+      <c r="M31" s="134"/>
       <c r="N31" s="27"/>
       <c r="O31" s="28"/>
     </row>
@@ -3365,16 +3364,16 @@
       <c r="A32" s="22"/>
       <c r="B32" s="26"/>
       <c r="C32" s="23"/>
-      <c r="D32" s="154"/>
-      <c r="E32" s="154"/>
-      <c r="F32" s="155"/>
-      <c r="G32" s="155"/>
-      <c r="H32" s="156"/>
-      <c r="I32" s="157"/>
-      <c r="J32" s="154"/>
-      <c r="K32" s="154"/>
-      <c r="L32" s="153"/>
-      <c r="M32" s="153"/>
+      <c r="D32" s="130"/>
+      <c r="E32" s="130"/>
+      <c r="F32" s="131"/>
+      <c r="G32" s="131"/>
+      <c r="H32" s="132"/>
+      <c r="I32" s="133"/>
+      <c r="J32" s="130"/>
+      <c r="K32" s="130"/>
+      <c r="L32" s="134"/>
+      <c r="M32" s="134"/>
       <c r="N32" s="27"/>
       <c r="O32" s="28"/>
     </row>
@@ -3382,16 +3381,16 @@
       <c r="A33" s="22"/>
       <c r="B33" s="26"/>
       <c r="C33" s="23"/>
-      <c r="D33" s="154"/>
-      <c r="E33" s="154"/>
-      <c r="F33" s="155"/>
-      <c r="G33" s="155"/>
-      <c r="H33" s="156"/>
-      <c r="I33" s="157"/>
-      <c r="J33" s="154"/>
-      <c r="K33" s="154"/>
-      <c r="L33" s="153"/>
-      <c r="M33" s="153"/>
+      <c r="D33" s="130"/>
+      <c r="E33" s="130"/>
+      <c r="F33" s="131"/>
+      <c r="G33" s="131"/>
+      <c r="H33" s="132"/>
+      <c r="I33" s="133"/>
+      <c r="J33" s="130"/>
+      <c r="K33" s="130"/>
+      <c r="L33" s="134"/>
+      <c r="M33" s="134"/>
       <c r="N33" s="27"/>
       <c r="O33" s="28"/>
     </row>
@@ -3399,16 +3398,16 @@
       <c r="A34" s="22"/>
       <c r="B34" s="23"/>
       <c r="C34" s="23"/>
-      <c r="D34" s="158"/>
-      <c r="E34" s="158"/>
-      <c r="F34" s="159"/>
-      <c r="G34" s="159"/>
-      <c r="H34" s="160"/>
-      <c r="I34" s="161"/>
-      <c r="J34" s="158"/>
-      <c r="K34" s="158"/>
-      <c r="L34" s="162"/>
-      <c r="M34" s="162"/>
+      <c r="D34" s="135"/>
+      <c r="E34" s="135"/>
+      <c r="F34" s="136"/>
+      <c r="G34" s="136"/>
+      <c r="H34" s="137"/>
+      <c r="I34" s="138"/>
+      <c r="J34" s="135"/>
+      <c r="K34" s="135"/>
+      <c r="L34" s="139"/>
+      <c r="M34" s="139"/>
       <c r="N34" s="24"/>
       <c r="O34" s="25"/>
     </row>
@@ -3416,16 +3415,16 @@
       <c r="A35" s="22"/>
       <c r="B35" s="26"/>
       <c r="C35" s="23"/>
-      <c r="D35" s="154"/>
-      <c r="E35" s="154"/>
-      <c r="F35" s="155"/>
-      <c r="G35" s="155"/>
-      <c r="H35" s="156"/>
-      <c r="I35" s="157"/>
-      <c r="J35" s="154"/>
-      <c r="K35" s="154"/>
-      <c r="L35" s="153"/>
-      <c r="M35" s="153"/>
+      <c r="D35" s="130"/>
+      <c r="E35" s="130"/>
+      <c r="F35" s="131"/>
+      <c r="G35" s="131"/>
+      <c r="H35" s="132"/>
+      <c r="I35" s="133"/>
+      <c r="J35" s="130"/>
+      <c r="K35" s="130"/>
+      <c r="L35" s="134"/>
+      <c r="M35" s="134"/>
       <c r="N35" s="27"/>
       <c r="O35" s="28"/>
     </row>
@@ -3433,16 +3432,16 @@
       <c r="A36" s="22"/>
       <c r="B36" s="26"/>
       <c r="C36" s="23"/>
-      <c r="D36" s="154"/>
-      <c r="E36" s="154"/>
-      <c r="F36" s="155"/>
-      <c r="G36" s="155"/>
-      <c r="H36" s="156"/>
-      <c r="I36" s="157"/>
-      <c r="J36" s="154"/>
-      <c r="K36" s="154"/>
-      <c r="L36" s="153"/>
-      <c r="M36" s="153"/>
+      <c r="D36" s="130"/>
+      <c r="E36" s="130"/>
+      <c r="F36" s="131"/>
+      <c r="G36" s="131"/>
+      <c r="H36" s="132"/>
+      <c r="I36" s="133"/>
+      <c r="J36" s="130"/>
+      <c r="K36" s="130"/>
+      <c r="L36" s="134"/>
+      <c r="M36" s="134"/>
       <c r="N36" s="27"/>
       <c r="O36" s="28"/>
     </row>
@@ -3450,50 +3449,50 @@
       <c r="A37" s="22"/>
       <c r="B37" s="23"/>
       <c r="C37" s="23"/>
-      <c r="D37" s="158"/>
-      <c r="E37" s="158"/>
-      <c r="F37" s="159"/>
-      <c r="G37" s="159"/>
-      <c r="H37" s="160"/>
-      <c r="I37" s="161"/>
-      <c r="J37" s="158"/>
-      <c r="K37" s="158"/>
-      <c r="L37" s="162"/>
-      <c r="M37" s="162"/>
+      <c r="D37" s="135"/>
+      <c r="E37" s="135"/>
+      <c r="F37" s="136"/>
+      <c r="G37" s="136"/>
+      <c r="H37" s="137"/>
+      <c r="I37" s="138"/>
+      <c r="J37" s="135"/>
+      <c r="K37" s="135"/>
+      <c r="L37" s="139"/>
+      <c r="M37" s="139"/>
       <c r="N37" s="24"/>
       <c r="O37" s="25"/>
     </row>
     <row r="38" spans="1:15" ht="18.600000000000001" customHeight="1">
-      <c r="A38" s="145"/>
-      <c r="B38" s="146"/>
-      <c r="C38" s="146" t="s">
+      <c r="A38" s="187"/>
+      <c r="B38" s="188"/>
+      <c r="C38" s="188" t="s">
         <v>23</v>
       </c>
-      <c r="D38" s="178" t="e">
+      <c r="D38" s="167" t="e">
         <f>AVERAGE(D8:E37)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E38" s="178"/>
-      <c r="F38" s="172" t="e">
+      <c r="E38" s="167"/>
+      <c r="F38" s="161" t="e">
         <f>AVERAGE(F8:G37)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G38" s="172"/>
-      <c r="H38" s="175" t="e">
+      <c r="G38" s="161"/>
+      <c r="H38" s="164" t="e">
         <f>AVERAGE(H8:I37)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I38" s="175"/>
-      <c r="J38" s="178" t="e">
+      <c r="I38" s="164"/>
+      <c r="J38" s="167" t="e">
         <f>AVERAGE(J8:K37)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K38" s="178"/>
-      <c r="L38" s="180" t="e">
+      <c r="K38" s="167"/>
+      <c r="L38" s="169" t="e">
         <f>AVERAGE(L8:M37)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M38" s="180"/>
+      <c r="M38" s="169"/>
       <c r="N38" s="29" t="e">
         <f>AVERAGE(N8:N37)</f>
         <v>#DIV/0!</v>
@@ -3504,36 +3503,36 @@
       </c>
     </row>
     <row r="39" spans="1:15" ht="18.600000000000001" customHeight="1">
-      <c r="A39" s="147"/>
-      <c r="B39" s="148"/>
-      <c r="C39" s="148" t="s">
+      <c r="A39" s="189"/>
+      <c r="B39" s="190"/>
+      <c r="C39" s="190" t="s">
         <v>24</v>
       </c>
-      <c r="D39" s="179">
+      <c r="D39" s="168">
         <f>MIN(D8:E37)</f>
         <v>0</v>
       </c>
-      <c r="E39" s="179"/>
-      <c r="F39" s="173">
+      <c r="E39" s="168"/>
+      <c r="F39" s="162">
         <f>MIN(F8:G37)</f>
         <v>0</v>
       </c>
-      <c r="G39" s="173"/>
-      <c r="H39" s="176">
+      <c r="G39" s="162"/>
+      <c r="H39" s="165">
         <f>MIN(H8:I37)</f>
         <v>0</v>
       </c>
-      <c r="I39" s="176"/>
-      <c r="J39" s="179">
+      <c r="I39" s="165"/>
+      <c r="J39" s="168">
         <f>MIN(J8:K37)</f>
         <v>0</v>
       </c>
-      <c r="K39" s="179"/>
-      <c r="L39" s="181">
+      <c r="K39" s="168"/>
+      <c r="L39" s="170">
         <f>MIN(L8:M37)</f>
         <v>0</v>
       </c>
-      <c r="M39" s="181"/>
+      <c r="M39" s="170"/>
       <c r="N39" s="31">
         <f>MIN(N8:N37)</f>
         <v>0</v>
@@ -3544,36 +3543,36 @@
       </c>
     </row>
     <row r="40" spans="1:15" ht="18.600000000000001" customHeight="1" thickBot="1">
-      <c r="A40" s="149"/>
-      <c r="B40" s="150"/>
-      <c r="C40" s="150" t="s">
+      <c r="A40" s="191"/>
+      <c r="B40" s="192"/>
+      <c r="C40" s="192" t="s">
         <v>25</v>
       </c>
-      <c r="D40" s="171">
+      <c r="D40" s="160">
         <f>MAX(D8:E37)</f>
         <v>0</v>
       </c>
-      <c r="E40" s="171"/>
-      <c r="F40" s="174">
+      <c r="E40" s="160"/>
+      <c r="F40" s="163">
         <f>MAX(F8:G37)</f>
         <v>0</v>
       </c>
-      <c r="G40" s="174"/>
-      <c r="H40" s="177">
+      <c r="G40" s="163"/>
+      <c r="H40" s="166">
         <f>MAX(H8:I37)</f>
         <v>0</v>
       </c>
-      <c r="I40" s="177"/>
-      <c r="J40" s="171">
+      <c r="I40" s="166"/>
+      <c r="J40" s="160">
         <f>MAX(J8:K37)</f>
         <v>0</v>
       </c>
-      <c r="K40" s="171"/>
-      <c r="L40" s="170">
+      <c r="K40" s="160"/>
+      <c r="L40" s="158">
         <f>MAX(L8:M37)</f>
         <v>0</v>
       </c>
-      <c r="M40" s="170"/>
+      <c r="M40" s="158"/>
       <c r="N40" s="33">
         <f>MAX(N8:N37)</f>
         <v>0</v>
@@ -3587,31 +3586,31 @@
       <c r="A41" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="B41" s="151"/>
-      <c r="C41" s="151"/>
-      <c r="D41" s="152" t="s">
+      <c r="B41" s="193"/>
+      <c r="C41" s="193"/>
+      <c r="D41" s="194" t="s">
         <v>13</v>
       </c>
-      <c r="E41" s="152"/>
+      <c r="E41" s="194"/>
       <c r="F41" s="36"/>
       <c r="G41" s="37"/>
       <c r="H41" s="37"/>
       <c r="I41" s="37"/>
       <c r="J41" s="37"/>
-      <c r="K41" s="169" t="s">
+      <c r="K41" s="157" t="s">
         <v>14</v>
       </c>
-      <c r="L41" s="169"/>
-      <c r="M41" s="134"/>
-      <c r="N41" s="134"/>
+      <c r="L41" s="157"/>
+      <c r="M41" s="159"/>
+      <c r="N41" s="159"/>
       <c r="O41" s="35" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="42" spans="1:15" ht="16.5" customHeight="1">
       <c r="A42" s="35"/>
-      <c r="B42" s="133"/>
-      <c r="C42" s="133"/>
+      <c r="B42" s="176"/>
+      <c r="C42" s="176"/>
       <c r="D42" s="13"/>
       <c r="E42" s="13"/>
       <c r="F42" s="35"/>
@@ -3621,38 +3620,38 @@
       <c r="J42" s="37"/>
       <c r="K42" s="38"/>
       <c r="L42" s="38"/>
-      <c r="M42" s="134"/>
-      <c r="N42" s="134"/>
+      <c r="M42" s="159"/>
+      <c r="N42" s="159"/>
       <c r="O42" s="38"/>
     </row>
     <row r="43" spans="1:15" s="40" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A43" s="131" t="s">
+      <c r="A43" s="174" t="s">
         <v>12</v>
       </c>
-      <c r="B43" s="131"/>
-      <c r="C43" s="131"/>
+      <c r="B43" s="174"/>
+      <c r="C43" s="174"/>
       <c r="D43" s="39"/>
       <c r="E43" s="39"/>
       <c r="F43" s="39"/>
       <c r="G43" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="H43" s="131" t="s">
+      <c r="H43" s="174" t="s">
         <v>121</v>
       </c>
-      <c r="I43" s="131"/>
-      <c r="J43" s="131"/>
-      <c r="K43" s="131"/>
+      <c r="I43" s="174"/>
+      <c r="J43" s="174"/>
+      <c r="K43" s="174"/>
       <c r="L43" s="39"/>
       <c r="M43" s="39"/>
       <c r="N43" s="39"/>
       <c r="O43" s="39"/>
     </row>
     <row r="44" spans="1:15" ht="16.5" customHeight="1">
-      <c r="A44" s="132" t="s">
+      <c r="A44" s="175" t="s">
         <v>21</v>
       </c>
-      <c r="B44" s="132"/>
+      <c r="B44" s="175"/>
       <c r="C44" s="41"/>
       <c r="D44" s="37"/>
       <c r="E44" s="37"/>
@@ -3695,98 +3694,192 @@
       <c r="M52" s="43"/>
     </row>
     <row r="76" spans="3:15" ht="15.75" customHeight="1">
-      <c r="C76" s="168"/>
-      <c r="D76" s="168"/>
-      <c r="E76" s="168"/>
-      <c r="I76" s="168"/>
-      <c r="J76" s="168"/>
-      <c r="K76" s="168"/>
-      <c r="L76" s="168"/>
-      <c r="M76" s="168"/>
-      <c r="N76" s="168"/>
-      <c r="O76" s="168"/>
+      <c r="C76" s="171"/>
+      <c r="D76" s="171"/>
+      <c r="E76" s="171"/>
+      <c r="I76" s="171"/>
+      <c r="J76" s="171"/>
+      <c r="K76" s="171"/>
+      <c r="L76" s="171"/>
+      <c r="M76" s="171"/>
+      <c r="N76" s="171"/>
+      <c r="O76" s="171"/>
     </row>
     <row r="77" spans="3:15" ht="15.75" customHeight="1">
-      <c r="C77" s="168"/>
-      <c r="D77" s="168"/>
-      <c r="E77" s="168"/>
-      <c r="F77" s="168"/>
-      <c r="I77" s="168"/>
-      <c r="J77" s="168"/>
-      <c r="K77" s="168"/>
-      <c r="L77" s="168"/>
-      <c r="M77" s="168"/>
-      <c r="N77" s="168"/>
-      <c r="O77" s="168"/>
+      <c r="C77" s="171"/>
+      <c r="D77" s="171"/>
+      <c r="E77" s="171"/>
+      <c r="F77" s="171"/>
+      <c r="I77" s="171"/>
+      <c r="J77" s="171"/>
+      <c r="K77" s="171"/>
+      <c r="L77" s="171"/>
+      <c r="M77" s="171"/>
+      <c r="N77" s="171"/>
+      <c r="O77" s="171"/>
     </row>
     <row r="78" spans="3:15" ht="15.75" customHeight="1">
-      <c r="C78" s="168"/>
-      <c r="D78" s="168"/>
-      <c r="E78" s="168"/>
-      <c r="I78" s="168"/>
-      <c r="J78" s="168"/>
-      <c r="K78" s="168"/>
-      <c r="L78" s="168"/>
-      <c r="M78" s="168"/>
-      <c r="N78" s="168"/>
-      <c r="O78" s="168"/>
+      <c r="C78" s="171"/>
+      <c r="D78" s="171"/>
+      <c r="E78" s="171"/>
+      <c r="I78" s="171"/>
+      <c r="J78" s="171"/>
+      <c r="K78" s="171"/>
+      <c r="L78" s="171"/>
+      <c r="M78" s="171"/>
+      <c r="N78" s="171"/>
+      <c r="O78" s="171"/>
     </row>
     <row r="79" spans="3:15" ht="15.75" customHeight="1">
-      <c r="C79" s="168"/>
-      <c r="D79" s="168"/>
-      <c r="E79" s="168"/>
+      <c r="C79" s="171"/>
+      <c r="D79" s="171"/>
+      <c r="E79" s="171"/>
     </row>
   </sheetData>
   <mergeCells count="216">
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="A2:M3"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="C79:E79"/>
+    <mergeCell ref="I76:K76"/>
+    <mergeCell ref="L76:O76"/>
+    <mergeCell ref="L77:O77"/>
+    <mergeCell ref="L78:O78"/>
+    <mergeCell ref="I77:K77"/>
+    <mergeCell ref="I78:K78"/>
+    <mergeCell ref="C76:E76"/>
+    <mergeCell ref="C77:F77"/>
+    <mergeCell ref="C78:E78"/>
     <mergeCell ref="K41:L41"/>
     <mergeCell ref="L40:M40"/>
     <mergeCell ref="M41:N41"/>
@@ -3811,149 +3904,55 @@
     <mergeCell ref="H37:I37"/>
     <mergeCell ref="J37:K37"/>
     <mergeCell ref="L37:M37"/>
-    <mergeCell ref="C79:E79"/>
-    <mergeCell ref="I76:K76"/>
-    <mergeCell ref="L76:O76"/>
-    <mergeCell ref="L77:O77"/>
-    <mergeCell ref="L78:O78"/>
-    <mergeCell ref="I77:K77"/>
-    <mergeCell ref="I78:K78"/>
-    <mergeCell ref="C76:E76"/>
-    <mergeCell ref="C77:F77"/>
-    <mergeCell ref="C78:E78"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="H43:K43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="A2:M3"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:K22"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="H6">
@@ -3996,61 +3995,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="44" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A1" s="237" t="s">
+      <c r="A1" s="200" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="237"/>
-      <c r="C1" s="237"/>
-      <c r="D1" s="237"/>
-      <c r="E1" s="237"/>
-      <c r="F1" s="237"/>
-      <c r="G1" s="237"/>
-      <c r="H1" s="237"/>
-      <c r="I1" s="237"/>
-      <c r="J1" s="237"/>
-      <c r="K1" s="237"/>
-      <c r="L1" s="237"/>
-      <c r="M1" s="237"/>
-      <c r="N1" s="187" t="s">
+      <c r="B1" s="200"/>
+      <c r="C1" s="200"/>
+      <c r="D1" s="200"/>
+      <c r="E1" s="200"/>
+      <c r="F1" s="200"/>
+      <c r="G1" s="200"/>
+      <c r="H1" s="200"/>
+      <c r="I1" s="200"/>
+      <c r="J1" s="200"/>
+      <c r="K1" s="200"/>
+      <c r="L1" s="200"/>
+      <c r="M1" s="200"/>
+      <c r="N1" s="147" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="187"/>
+      <c r="O1" s="147"/>
     </row>
     <row r="2" spans="1:15" s="44" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A2" s="238" t="s">
+      <c r="A2" s="201" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="238"/>
-      <c r="C2" s="238"/>
-      <c r="D2" s="238"/>
-      <c r="E2" s="238"/>
-      <c r="F2" s="238"/>
-      <c r="G2" s="238"/>
-      <c r="H2" s="238"/>
-      <c r="I2" s="238"/>
-      <c r="J2" s="238"/>
-      <c r="K2" s="238"/>
-      <c r="L2" s="238"/>
-      <c r="M2" s="238"/>
-      <c r="N2" s="188" t="s">
+      <c r="B2" s="201"/>
+      <c r="C2" s="201"/>
+      <c r="D2" s="201"/>
+      <c r="E2" s="201"/>
+      <c r="F2" s="201"/>
+      <c r="G2" s="201"/>
+      <c r="H2" s="201"/>
+      <c r="I2" s="201"/>
+      <c r="J2" s="201"/>
+      <c r="K2" s="201"/>
+      <c r="L2" s="201"/>
+      <c r="M2" s="201"/>
+      <c r="N2" s="148" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="188"/>
+      <c r="O2" s="148"/>
     </row>
     <row r="3" spans="1:15" s="44" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="238"/>
-      <c r="B3" s="238"/>
-      <c r="C3" s="238"/>
-      <c r="D3" s="238"/>
-      <c r="E3" s="238"/>
-      <c r="F3" s="238"/>
-      <c r="G3" s="238"/>
-      <c r="H3" s="238"/>
-      <c r="I3" s="238"/>
-      <c r="J3" s="238"/>
-      <c r="K3" s="238"/>
-      <c r="L3" s="238"/>
-      <c r="M3" s="238"/>
+      <c r="A3" s="201"/>
+      <c r="B3" s="201"/>
+      <c r="C3" s="201"/>
+      <c r="D3" s="201"/>
+      <c r="E3" s="201"/>
+      <c r="F3" s="201"/>
+      <c r="G3" s="201"/>
+      <c r="H3" s="201"/>
+      <c r="I3" s="201"/>
+      <c r="J3" s="201"/>
+      <c r="K3" s="201"/>
+      <c r="L3" s="201"/>
+      <c r="M3" s="201"/>
       <c r="N3" s="12" t="s">
         <v>19</v>
       </c>
@@ -4060,130 +4059,130 @@
       <c r="A4" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="240">
+      <c r="B4" s="203">
         <f>Page1!B4</f>
         <v>0</v>
       </c>
-      <c r="C4" s="242"/>
-      <c r="D4" s="243"/>
-      <c r="E4" s="244" t="s">
+      <c r="C4" s="205"/>
+      <c r="D4" s="206"/>
+      <c r="E4" s="207" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="245"/>
-      <c r="G4" s="240">
+      <c r="F4" s="208"/>
+      <c r="G4" s="203">
         <f>Page1!G4</f>
         <v>0</v>
       </c>
-      <c r="H4" s="243"/>
+      <c r="H4" s="206"/>
       <c r="I4" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="246">
+      <c r="J4" s="209">
         <f>Page1!J4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="246"/>
-      <c r="L4" s="239" t="s">
+      <c r="K4" s="209"/>
+      <c r="L4" s="202" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="239">
+      <c r="M4" s="202">
         <f>Page1!N4</f>
         <v>0</v>
       </c>
-      <c r="N4" s="240">
+      <c r="N4" s="203">
         <f>Page1!N4</f>
         <v>0</v>
       </c>
-      <c r="O4" s="241"/>
+      <c r="O4" s="204"/>
     </row>
     <row r="5" spans="1:15" s="47" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A5" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="183">
+      <c r="B5" s="142">
         <f>Page1!B5</f>
         <v>0</v>
       </c>
-      <c r="C5" s="234"/>
-      <c r="D5" s="194"/>
-      <c r="E5" s="235" t="s">
+      <c r="C5" s="197"/>
+      <c r="D5" s="154"/>
+      <c r="E5" s="198" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="236"/>
-      <c r="G5" s="183">
+      <c r="F5" s="199"/>
+      <c r="G5" s="142">
         <f>Page1!G5</f>
         <v>0</v>
       </c>
-      <c r="H5" s="194"/>
+      <c r="H5" s="154"/>
       <c r="I5" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="167">
+      <c r="J5" s="141">
         <f>Page1!J5</f>
         <v>0</v>
       </c>
-      <c r="K5" s="167"/>
-      <c r="L5" s="214" t="s">
+      <c r="K5" s="141"/>
+      <c r="L5" s="210" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="214">
+      <c r="M5" s="210">
         <f>Page1!N5</f>
         <v>0</v>
       </c>
-      <c r="N5" s="183">
+      <c r="N5" s="142">
         <f>Page1!N5</f>
         <v>0</v>
       </c>
-      <c r="O5" s="195"/>
+      <c r="O5" s="156"/>
     </row>
     <row r="6" spans="1:15" s="50" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A6" s="233" t="s">
+      <c r="A6" s="195" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="223"/>
-      <c r="C6" s="223"/>
-      <c r="D6" s="223"/>
-      <c r="E6" s="223"/>
-      <c r="F6" s="223"/>
-      <c r="G6" s="223"/>
-      <c r="H6" s="223"/>
-      <c r="I6" s="223"/>
-      <c r="J6" s="223"/>
-      <c r="K6" s="223"/>
-      <c r="L6" s="223"/>
-      <c r="M6" s="223"/>
-      <c r="N6" s="223"/>
-      <c r="O6" s="224"/>
+      <c r="B6" s="196"/>
+      <c r="C6" s="196"/>
+      <c r="D6" s="196"/>
+      <c r="E6" s="196"/>
+      <c r="F6" s="196"/>
+      <c r="G6" s="196"/>
+      <c r="H6" s="196"/>
+      <c r="I6" s="196"/>
+      <c r="J6" s="196"/>
+      <c r="K6" s="196"/>
+      <c r="L6" s="196"/>
+      <c r="M6" s="196"/>
+      <c r="N6" s="196"/>
+      <c r="O6" s="221"/>
     </row>
     <row r="7" spans="1:15" s="50" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A7" s="197" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="198"/>
-      <c r="C7" s="199"/>
-      <c r="D7" s="228" t="s">
+      <c r="A7" s="230" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="231"/>
+      <c r="C7" s="232"/>
+      <c r="D7" s="225" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="228"/>
-      <c r="F7" s="228"/>
-      <c r="G7" s="228"/>
-      <c r="H7" s="219" t="s">
+      <c r="E7" s="225"/>
+      <c r="F7" s="225"/>
+      <c r="G7" s="225"/>
+      <c r="H7" s="215" t="s">
         <v>119</v>
       </c>
-      <c r="I7" s="220"/>
-      <c r="J7" s="220"/>
-      <c r="K7" s="229"/>
-      <c r="L7" s="219" t="s">
+      <c r="I7" s="216"/>
+      <c r="J7" s="216"/>
+      <c r="K7" s="226"/>
+      <c r="L7" s="215" t="s">
         <v>120</v>
       </c>
-      <c r="M7" s="220"/>
-      <c r="N7" s="220"/>
-      <c r="O7" s="221"/>
+      <c r="M7" s="216"/>
+      <c r="N7" s="216"/>
+      <c r="O7" s="217"/>
     </row>
     <row r="8" spans="1:15" s="50" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A8" s="200"/>
-      <c r="B8" s="201"/>
-      <c r="C8" s="202"/>
+      <c r="A8" s="233"/>
+      <c r="B8" s="234"/>
+      <c r="C8" s="235"/>
       <c r="D8" s="51">
         <v>1</v>
       </c>
@@ -5277,27 +5276,27 @@
       <c r="C39" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="D39" s="230" t="e">
+      <c r="D39" s="227" t="e">
         <f>AVERAGE(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E39" s="231"/>
-      <c r="F39" s="231"/>
-      <c r="G39" s="232"/>
-      <c r="H39" s="211" t="e">
+      <c r="E39" s="228"/>
+      <c r="F39" s="228"/>
+      <c r="G39" s="229"/>
+      <c r="H39" s="218" t="e">
         <f>AVERAGE(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I39" s="212"/>
-      <c r="J39" s="212"/>
-      <c r="K39" s="222"/>
-      <c r="L39" s="211" t="e">
+      <c r="I39" s="219"/>
+      <c r="J39" s="219"/>
+      <c r="K39" s="220"/>
+      <c r="L39" s="218" t="e">
         <f>AVERAGE(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M39" s="212"/>
-      <c r="N39" s="212"/>
-      <c r="O39" s="213"/>
+      <c r="M39" s="219"/>
+      <c r="N39" s="219"/>
+      <c r="O39" s="244"/>
     </row>
     <row r="40" spans="1:15" ht="18" customHeight="1">
       <c r="A40" s="69"/>
@@ -5305,27 +5304,27 @@
       <c r="C40" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="D40" s="225" t="e">
+      <c r="D40" s="222" t="e">
         <f>MIN(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E40" s="226"/>
-      <c r="F40" s="226"/>
-      <c r="G40" s="227"/>
-      <c r="H40" s="215" t="e">
+      <c r="E40" s="223"/>
+      <c r="F40" s="223"/>
+      <c r="G40" s="224"/>
+      <c r="H40" s="211" t="e">
         <f>MIN(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I40" s="216"/>
-      <c r="J40" s="216"/>
-      <c r="K40" s="217"/>
-      <c r="L40" s="215" t="e">
+      <c r="I40" s="212"/>
+      <c r="J40" s="212"/>
+      <c r="K40" s="213"/>
+      <c r="L40" s="211" t="e">
         <f>MIN(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M40" s="216"/>
-      <c r="N40" s="216"/>
-      <c r="O40" s="218"/>
+      <c r="M40" s="212"/>
+      <c r="N40" s="212"/>
+      <c r="O40" s="214"/>
     </row>
     <row r="41" spans="1:15" ht="18" customHeight="1" thickBot="1">
       <c r="A41" s="72"/>
@@ -5333,38 +5332,38 @@
       <c r="C41" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="D41" s="206" t="e">
+      <c r="D41" s="239" t="e">
         <f>MAX(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E41" s="207"/>
-      <c r="F41" s="207"/>
-      <c r="G41" s="208"/>
-      <c r="H41" s="203" t="e">
+      <c r="E41" s="240"/>
+      <c r="F41" s="240"/>
+      <c r="G41" s="241"/>
+      <c r="H41" s="236" t="e">
         <f>MAX(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I41" s="204"/>
-      <c r="J41" s="204"/>
-      <c r="K41" s="210"/>
-      <c r="L41" s="203" t="e">
+      <c r="I41" s="237"/>
+      <c r="J41" s="237"/>
+      <c r="K41" s="243"/>
+      <c r="L41" s="236" t="e">
         <f>MAX(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M41" s="204"/>
-      <c r="N41" s="204"/>
-      <c r="O41" s="205"/>
+      <c r="M41" s="237"/>
+      <c r="N41" s="237"/>
+      <c r="O41" s="238"/>
     </row>
     <row r="42" spans="1:15" s="11" customFormat="1" ht="16.5" customHeight="1">
       <c r="A42" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="B42" s="151"/>
-      <c r="C42" s="151"/>
-      <c r="D42" s="152" t="s">
+      <c r="B42" s="193"/>
+      <c r="C42" s="193"/>
+      <c r="D42" s="194" t="s">
         <v>13</v>
       </c>
-      <c r="E42" s="152"/>
+      <c r="E42" s="194"/>
       <c r="F42" s="36"/>
       <c r="G42" s="37"/>
       <c r="H42" s="37"/>
@@ -5374,16 +5373,16 @@
       <c r="L42" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="M42" s="209"/>
-      <c r="N42" s="209"/>
+      <c r="M42" s="242"/>
+      <c r="N42" s="242"/>
       <c r="O42" s="35" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:15" s="11" customFormat="1" ht="16.5" customHeight="1">
       <c r="A43" s="35"/>
-      <c r="B43" s="133"/>
-      <c r="C43" s="133"/>
+      <c r="B43" s="176"/>
+      <c r="C43" s="176"/>
       <c r="D43" s="13"/>
       <c r="E43" s="13"/>
       <c r="F43" s="35"/>
@@ -5393,38 +5392,38 @@
       <c r="J43" s="37"/>
       <c r="K43" s="38"/>
       <c r="L43" s="94"/>
-      <c r="M43" s="134"/>
-      <c r="N43" s="134"/>
+      <c r="M43" s="159"/>
+      <c r="N43" s="159"/>
       <c r="O43" s="38"/>
     </row>
     <row r="44" spans="1:15" s="40" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A44" s="131" t="s">
+      <c r="A44" s="174" t="s">
         <v>12</v>
       </c>
-      <c r="B44" s="131"/>
-      <c r="C44" s="131"/>
+      <c r="B44" s="174"/>
+      <c r="C44" s="174"/>
       <c r="D44" s="39"/>
       <c r="E44" s="39"/>
       <c r="F44" s="39"/>
       <c r="G44" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="H44" s="131" t="s">
+      <c r="H44" s="174" t="s">
         <v>121</v>
       </c>
-      <c r="I44" s="131"/>
-      <c r="J44" s="131"/>
-      <c r="K44" s="131"/>
+      <c r="I44" s="174"/>
+      <c r="J44" s="174"/>
+      <c r="K44" s="174"/>
       <c r="L44" s="39"/>
       <c r="M44" s="39"/>
       <c r="N44" s="39"/>
       <c r="O44" s="39"/>
     </row>
     <row r="45" spans="1:15" s="11" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A45" s="132" t="s">
+      <c r="A45" s="175" t="s">
         <v>21</v>
       </c>
-      <c r="B45" s="132"/>
+      <c r="B45" s="175"/>
       <c r="C45" s="41"/>
       <c r="D45" s="37"/>
       <c r="E45" s="37"/>
@@ -5435,10 +5434,10 @@
       <c r="J45" s="37"/>
       <c r="K45" s="37"/>
       <c r="L45" s="37"/>
-      <c r="M45" s="196" t="s">
+      <c r="M45" s="245" t="s">
         <v>110</v>
       </c>
-      <c r="N45" s="196"/>
+      <c r="N45" s="245"/>
       <c r="O45" s="37"/>
     </row>
     <row r="56" s="61" customFormat="1"/>
@@ -5458,6 +5457,31 @@
     <row r="70" s="61" customFormat="1"/>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="A7:C8"/>
+    <mergeCell ref="L41:O41"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="L39:O39"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="L40:O40"/>
+    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="D6:O6"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="D39:G39"/>
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="E5:F5"/>
@@ -5473,31 +5497,6 @@
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="L5:M5"/>
     <mergeCell ref="N5:O5"/>
-    <mergeCell ref="H40:K40"/>
-    <mergeCell ref="L40:O40"/>
-    <mergeCell ref="L7:O7"/>
-    <mergeCell ref="H39:K39"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="D6:O6"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="A7:C8"/>
-    <mergeCell ref="L41:O41"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="H41:K41"/>
-    <mergeCell ref="L39:O39"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="H44:K44"/>
-    <mergeCell ref="B42:C42"/>
   </mergeCells>
   <conditionalFormatting sqref="D9:G41">
     <cfRule type="cellIs" dxfId="8" priority="3" operator="lessThan">
@@ -5545,61 +5544,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="44" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A1" s="237" t="s">
+      <c r="A1" s="200" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="237"/>
-      <c r="C1" s="237"/>
-      <c r="D1" s="237"/>
-      <c r="E1" s="237"/>
-      <c r="F1" s="237"/>
-      <c r="G1" s="237"/>
-      <c r="H1" s="237"/>
-      <c r="I1" s="237"/>
-      <c r="J1" s="237"/>
-      <c r="K1" s="237"/>
-      <c r="L1" s="237"/>
-      <c r="M1" s="237"/>
-      <c r="N1" s="187" t="s">
+      <c r="B1" s="200"/>
+      <c r="C1" s="200"/>
+      <c r="D1" s="200"/>
+      <c r="E1" s="200"/>
+      <c r="F1" s="200"/>
+      <c r="G1" s="200"/>
+      <c r="H1" s="200"/>
+      <c r="I1" s="200"/>
+      <c r="J1" s="200"/>
+      <c r="K1" s="200"/>
+      <c r="L1" s="200"/>
+      <c r="M1" s="200"/>
+      <c r="N1" s="147" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="187"/>
+      <c r="O1" s="147"/>
     </row>
     <row r="2" spans="1:15" s="44" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A2" s="238" t="s">
+      <c r="A2" s="201" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="238"/>
-      <c r="C2" s="238"/>
-      <c r="D2" s="238"/>
-      <c r="E2" s="238"/>
-      <c r="F2" s="238"/>
-      <c r="G2" s="238"/>
-      <c r="H2" s="238"/>
-      <c r="I2" s="238"/>
-      <c r="J2" s="238"/>
-      <c r="K2" s="238"/>
-      <c r="L2" s="238"/>
-      <c r="M2" s="238"/>
-      <c r="N2" s="188" t="s">
+      <c r="B2" s="201"/>
+      <c r="C2" s="201"/>
+      <c r="D2" s="201"/>
+      <c r="E2" s="201"/>
+      <c r="F2" s="201"/>
+      <c r="G2" s="201"/>
+      <c r="H2" s="201"/>
+      <c r="I2" s="201"/>
+      <c r="J2" s="201"/>
+      <c r="K2" s="201"/>
+      <c r="L2" s="201"/>
+      <c r="M2" s="201"/>
+      <c r="N2" s="148" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="188"/>
+      <c r="O2" s="148"/>
     </row>
     <row r="3" spans="1:15" s="44" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="238"/>
-      <c r="B3" s="238"/>
-      <c r="C3" s="238"/>
-      <c r="D3" s="238"/>
-      <c r="E3" s="238"/>
-      <c r="F3" s="238"/>
-      <c r="G3" s="238"/>
-      <c r="H3" s="238"/>
-      <c r="I3" s="238"/>
-      <c r="J3" s="238"/>
-      <c r="K3" s="238"/>
-      <c r="L3" s="238"/>
-      <c r="M3" s="238"/>
+      <c r="A3" s="201"/>
+      <c r="B3" s="201"/>
+      <c r="C3" s="201"/>
+      <c r="D3" s="201"/>
+      <c r="E3" s="201"/>
+      <c r="F3" s="201"/>
+      <c r="G3" s="201"/>
+      <c r="H3" s="201"/>
+      <c r="I3" s="201"/>
+      <c r="J3" s="201"/>
+      <c r="K3" s="201"/>
+      <c r="L3" s="201"/>
+      <c r="M3" s="201"/>
       <c r="N3" s="12" t="s">
         <v>19</v>
       </c>
@@ -5609,130 +5608,130 @@
       <c r="A4" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="240">
+      <c r="B4" s="203">
         <f>Page1!B4</f>
         <v>0</v>
       </c>
-      <c r="C4" s="242"/>
-      <c r="D4" s="243"/>
-      <c r="E4" s="244" t="s">
+      <c r="C4" s="205"/>
+      <c r="D4" s="206"/>
+      <c r="E4" s="207" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="245"/>
-      <c r="G4" s="240">
+      <c r="F4" s="208"/>
+      <c r="G4" s="203">
         <f>Page1!G4</f>
         <v>0</v>
       </c>
-      <c r="H4" s="243"/>
+      <c r="H4" s="206"/>
       <c r="I4" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="246">
+      <c r="J4" s="209">
         <f>Page1!J4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="246"/>
-      <c r="L4" s="239" t="s">
+      <c r="K4" s="209"/>
+      <c r="L4" s="202" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="239">
+      <c r="M4" s="202">
         <f>Page1!N4</f>
         <v>0</v>
       </c>
-      <c r="N4" s="240">
+      <c r="N4" s="203">
         <f>Page1!N4</f>
         <v>0</v>
       </c>
-      <c r="O4" s="241"/>
+      <c r="O4" s="204"/>
     </row>
     <row r="5" spans="1:15" s="47" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A5" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="183">
+      <c r="B5" s="142">
         <f>Page1!B5</f>
         <v>0</v>
       </c>
-      <c r="C5" s="234"/>
-      <c r="D5" s="194"/>
-      <c r="E5" s="235" t="s">
+      <c r="C5" s="197"/>
+      <c r="D5" s="154"/>
+      <c r="E5" s="198" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="236"/>
-      <c r="G5" s="183">
+      <c r="F5" s="199"/>
+      <c r="G5" s="142">
         <f>Page1!G5</f>
         <v>0</v>
       </c>
-      <c r="H5" s="194"/>
+      <c r="H5" s="154"/>
       <c r="I5" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="167">
+      <c r="J5" s="141">
         <f>Page1!J5</f>
         <v>0</v>
       </c>
-      <c r="K5" s="167"/>
-      <c r="L5" s="214" t="s">
+      <c r="K5" s="141"/>
+      <c r="L5" s="210" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="214">
+      <c r="M5" s="210">
         <f>Page1!N5</f>
         <v>0</v>
       </c>
-      <c r="N5" s="183">
+      <c r="N5" s="142">
         <f>Page1!N5</f>
         <v>0</v>
       </c>
-      <c r="O5" s="195"/>
+      <c r="O5" s="156"/>
     </row>
     <row r="6" spans="1:15" s="50" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A6" s="233" t="s">
+      <c r="A6" s="195" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="223"/>
-      <c r="C6" s="223"/>
-      <c r="D6" s="223"/>
-      <c r="E6" s="223"/>
-      <c r="F6" s="223"/>
-      <c r="G6" s="223"/>
-      <c r="H6" s="223"/>
-      <c r="I6" s="223"/>
-      <c r="J6" s="223"/>
-      <c r="K6" s="223"/>
-      <c r="L6" s="223"/>
-      <c r="M6" s="223"/>
-      <c r="N6" s="223"/>
-      <c r="O6" s="224"/>
+      <c r="B6" s="196"/>
+      <c r="C6" s="196"/>
+      <c r="D6" s="196"/>
+      <c r="E6" s="196"/>
+      <c r="F6" s="196"/>
+      <c r="G6" s="196"/>
+      <c r="H6" s="196"/>
+      <c r="I6" s="196"/>
+      <c r="J6" s="196"/>
+      <c r="K6" s="196"/>
+      <c r="L6" s="196"/>
+      <c r="M6" s="196"/>
+      <c r="N6" s="196"/>
+      <c r="O6" s="221"/>
     </row>
     <row r="7" spans="1:15" s="50" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A7" s="197" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="198"/>
-      <c r="C7" s="199"/>
-      <c r="D7" s="228" t="s">
+      <c r="A7" s="230" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="231"/>
+      <c r="C7" s="232"/>
+      <c r="D7" s="225" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="228"/>
-      <c r="F7" s="228"/>
-      <c r="G7" s="228"/>
-      <c r="H7" s="219" t="s">
+      <c r="E7" s="225"/>
+      <c r="F7" s="225"/>
+      <c r="G7" s="225"/>
+      <c r="H7" s="215" t="s">
         <v>118</v>
       </c>
-      <c r="I7" s="220"/>
-      <c r="J7" s="220"/>
-      <c r="K7" s="229"/>
-      <c r="L7" s="219" t="s">
+      <c r="I7" s="216"/>
+      <c r="J7" s="216"/>
+      <c r="K7" s="226"/>
+      <c r="L7" s="215" t="s">
         <v>29</v>
       </c>
-      <c r="M7" s="220"/>
-      <c r="N7" s="220"/>
-      <c r="O7" s="221"/>
+      <c r="M7" s="216"/>
+      <c r="N7" s="216"/>
+      <c r="O7" s="217"/>
     </row>
     <row r="8" spans="1:15" s="50" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A8" s="200"/>
-      <c r="B8" s="201"/>
-      <c r="C8" s="202"/>
+      <c r="A8" s="233"/>
+      <c r="B8" s="234"/>
+      <c r="C8" s="235"/>
       <c r="D8" s="51">
         <v>1</v>
       </c>
@@ -6826,27 +6825,27 @@
       <c r="C39" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="D39" s="230" t="e">
+      <c r="D39" s="227" t="e">
         <f>AVERAGE(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E39" s="231"/>
-      <c r="F39" s="231"/>
-      <c r="G39" s="232"/>
-      <c r="H39" s="211" t="e">
+      <c r="E39" s="228"/>
+      <c r="F39" s="228"/>
+      <c r="G39" s="229"/>
+      <c r="H39" s="218" t="e">
         <f>AVERAGE(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I39" s="212"/>
-      <c r="J39" s="212"/>
-      <c r="K39" s="222"/>
-      <c r="L39" s="211" t="e">
+      <c r="I39" s="219"/>
+      <c r="J39" s="219"/>
+      <c r="K39" s="220"/>
+      <c r="L39" s="218" t="e">
         <f>AVERAGE(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M39" s="212"/>
-      <c r="N39" s="212"/>
-      <c r="O39" s="213"/>
+      <c r="M39" s="219"/>
+      <c r="N39" s="219"/>
+      <c r="O39" s="244"/>
     </row>
     <row r="40" spans="1:15" ht="18" customHeight="1">
       <c r="A40" s="69"/>
@@ -6854,27 +6853,27 @@
       <c r="C40" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="D40" s="225" t="e">
+      <c r="D40" s="222" t="e">
         <f>MIN(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E40" s="226"/>
-      <c r="F40" s="226"/>
-      <c r="G40" s="227"/>
-      <c r="H40" s="215" t="e">
+      <c r="E40" s="223"/>
+      <c r="F40" s="223"/>
+      <c r="G40" s="224"/>
+      <c r="H40" s="211" t="e">
         <f>MIN(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I40" s="216"/>
-      <c r="J40" s="216"/>
-      <c r="K40" s="217"/>
-      <c r="L40" s="215" t="e">
+      <c r="I40" s="212"/>
+      <c r="J40" s="212"/>
+      <c r="K40" s="213"/>
+      <c r="L40" s="211" t="e">
         <f>MIN(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M40" s="216"/>
-      <c r="N40" s="216"/>
-      <c r="O40" s="218"/>
+      <c r="M40" s="212"/>
+      <c r="N40" s="212"/>
+      <c r="O40" s="214"/>
     </row>
     <row r="41" spans="1:15" ht="18" customHeight="1" thickBot="1">
       <c r="A41" s="72"/>
@@ -6882,38 +6881,38 @@
       <c r="C41" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="D41" s="206" t="e">
+      <c r="D41" s="239" t="e">
         <f>MAX(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E41" s="207"/>
-      <c r="F41" s="207"/>
-      <c r="G41" s="208"/>
-      <c r="H41" s="203" t="e">
+      <c r="E41" s="240"/>
+      <c r="F41" s="240"/>
+      <c r="G41" s="241"/>
+      <c r="H41" s="236" t="e">
         <f>MAX(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I41" s="204"/>
-      <c r="J41" s="204"/>
-      <c r="K41" s="210"/>
-      <c r="L41" s="203" t="e">
+      <c r="I41" s="237"/>
+      <c r="J41" s="237"/>
+      <c r="K41" s="243"/>
+      <c r="L41" s="236" t="e">
         <f>MAX(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M41" s="204"/>
-      <c r="N41" s="204"/>
-      <c r="O41" s="205"/>
+      <c r="M41" s="237"/>
+      <c r="N41" s="237"/>
+      <c r="O41" s="238"/>
     </row>
     <row r="42" spans="1:15" s="11" customFormat="1" ht="16.5" customHeight="1">
       <c r="A42" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="B42" s="151"/>
-      <c r="C42" s="151"/>
-      <c r="D42" s="152" t="s">
+      <c r="B42" s="193"/>
+      <c r="C42" s="193"/>
+      <c r="D42" s="194" t="s">
         <v>13</v>
       </c>
-      <c r="E42" s="152"/>
+      <c r="E42" s="194"/>
       <c r="F42" s="36"/>
       <c r="G42" s="37"/>
       <c r="H42" s="37"/>
@@ -6923,16 +6922,16 @@
       <c r="L42" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="M42" s="209"/>
-      <c r="N42" s="209"/>
+      <c r="M42" s="242"/>
+      <c r="N42" s="242"/>
       <c r="O42" s="35" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:15" s="11" customFormat="1" ht="16.5" customHeight="1">
       <c r="A43" s="35"/>
-      <c r="B43" s="133"/>
-      <c r="C43" s="133"/>
+      <c r="B43" s="176"/>
+      <c r="C43" s="176"/>
       <c r="D43" s="13"/>
       <c r="E43" s="13"/>
       <c r="F43" s="35"/>
@@ -6942,38 +6941,38 @@
       <c r="J43" s="37"/>
       <c r="K43" s="38"/>
       <c r="L43" s="94"/>
-      <c r="M43" s="134"/>
-      <c r="N43" s="134"/>
+      <c r="M43" s="159"/>
+      <c r="N43" s="159"/>
       <c r="O43" s="38"/>
     </row>
     <row r="44" spans="1:15" s="40" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A44" s="131" t="s">
+      <c r="A44" s="174" t="s">
         <v>12</v>
       </c>
-      <c r="B44" s="131"/>
-      <c r="C44" s="131"/>
+      <c r="B44" s="174"/>
+      <c r="C44" s="174"/>
       <c r="D44" s="39"/>
       <c r="E44" s="39"/>
       <c r="F44" s="39"/>
       <c r="G44" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="H44" s="131" t="s">
+      <c r="H44" s="174" t="s">
         <v>121</v>
       </c>
-      <c r="I44" s="131"/>
-      <c r="J44" s="131"/>
-      <c r="K44" s="131"/>
+      <c r="I44" s="174"/>
+      <c r="J44" s="174"/>
+      <c r="K44" s="174"/>
       <c r="L44" s="39"/>
       <c r="M44" s="39"/>
       <c r="N44" s="39"/>
       <c r="O44" s="39"/>
     </row>
     <row r="45" spans="1:15" s="11" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A45" s="132" t="s">
+      <c r="A45" s="175" t="s">
         <v>21</v>
       </c>
-      <c r="B45" s="132"/>
+      <c r="B45" s="175"/>
       <c r="C45" s="41"/>
       <c r="D45" s="37"/>
       <c r="E45" s="37"/>
@@ -6984,14 +6983,38 @@
       <c r="J45" s="37"/>
       <c r="K45" s="37"/>
       <c r="L45" s="37"/>
-      <c r="M45" s="196" t="s">
+      <c r="M45" s="245" t="s">
         <v>109</v>
       </c>
-      <c r="N45" s="196"/>
+      <c r="N45" s="245"/>
       <c r="O45" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="L41:O41"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="L39:O39"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="L40:O40"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:O6"/>
+    <mergeCell ref="A7:C8"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="L7:O7"/>
     <mergeCell ref="L5:M5"/>
     <mergeCell ref="N5:O5"/>
     <mergeCell ref="A1:M1"/>
@@ -7008,30 +7031,6 @@
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="J5:K5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:O6"/>
-    <mergeCell ref="A7:C8"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="L7:O7"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="H41:K41"/>
-    <mergeCell ref="L41:O41"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="H39:K39"/>
-    <mergeCell ref="L39:O39"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="H40:K40"/>
-    <mergeCell ref="L40:O40"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="H44:K44"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="M43:N43"/>
   </mergeCells>
   <conditionalFormatting sqref="D9:G41">
     <cfRule type="cellIs" dxfId="5" priority="3" operator="lessThan">
@@ -7079,61 +7078,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="76" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A1" s="268" t="s">
+      <c r="A1" s="246" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="268"/>
-      <c r="C1" s="268"/>
-      <c r="D1" s="268"/>
-      <c r="E1" s="268"/>
-      <c r="F1" s="268"/>
-      <c r="G1" s="268"/>
-      <c r="H1" s="268"/>
-      <c r="I1" s="268"/>
-      <c r="J1" s="268"/>
-      <c r="K1" s="268"/>
-      <c r="L1" s="268"/>
-      <c r="M1" s="268"/>
-      <c r="N1" s="187" t="s">
+      <c r="B1" s="246"/>
+      <c r="C1" s="246"/>
+      <c r="D1" s="246"/>
+      <c r="E1" s="246"/>
+      <c r="F1" s="246"/>
+      <c r="G1" s="246"/>
+      <c r="H1" s="246"/>
+      <c r="I1" s="246"/>
+      <c r="J1" s="246"/>
+      <c r="K1" s="246"/>
+      <c r="L1" s="246"/>
+      <c r="M1" s="246"/>
+      <c r="N1" s="147" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="187"/>
+      <c r="O1" s="147"/>
     </row>
     <row r="2" spans="1:15" s="76" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A2" s="189" t="s">
+      <c r="A2" s="149" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="189"/>
-      <c r="C2" s="189"/>
-      <c r="D2" s="189"/>
-      <c r="E2" s="189"/>
-      <c r="F2" s="189"/>
-      <c r="G2" s="189"/>
-      <c r="H2" s="189"/>
-      <c r="I2" s="189"/>
-      <c r="J2" s="189"/>
-      <c r="K2" s="189"/>
-      <c r="L2" s="189"/>
-      <c r="M2" s="189"/>
-      <c r="N2" s="188" t="s">
+      <c r="B2" s="149"/>
+      <c r="C2" s="149"/>
+      <c r="D2" s="149"/>
+      <c r="E2" s="149"/>
+      <c r="F2" s="149"/>
+      <c r="G2" s="149"/>
+      <c r="H2" s="149"/>
+      <c r="I2" s="149"/>
+      <c r="J2" s="149"/>
+      <c r="K2" s="149"/>
+      <c r="L2" s="149"/>
+      <c r="M2" s="149"/>
+      <c r="N2" s="148" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="188"/>
+      <c r="O2" s="148"/>
     </row>
     <row r="3" spans="1:15" s="76" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="189"/>
-      <c r="B3" s="189"/>
-      <c r="C3" s="189"/>
-      <c r="D3" s="189"/>
-      <c r="E3" s="189"/>
-      <c r="F3" s="189"/>
-      <c r="G3" s="189"/>
-      <c r="H3" s="189"/>
-      <c r="I3" s="189"/>
-      <c r="J3" s="189"/>
-      <c r="K3" s="189"/>
-      <c r="L3" s="189"/>
-      <c r="M3" s="189"/>
+      <c r="A3" s="149"/>
+      <c r="B3" s="149"/>
+      <c r="C3" s="149"/>
+      <c r="D3" s="149"/>
+      <c r="E3" s="149"/>
+      <c r="F3" s="149"/>
+      <c r="G3" s="149"/>
+      <c r="H3" s="149"/>
+      <c r="I3" s="149"/>
+      <c r="J3" s="149"/>
+      <c r="K3" s="149"/>
+      <c r="L3" s="149"/>
+      <c r="M3" s="149"/>
       <c r="N3" s="12" t="s">
         <v>19</v>
       </c>
@@ -7143,126 +7142,126 @@
       <c r="A4" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="240">
+      <c r="B4" s="203">
         <f>Page1!B4</f>
         <v>0</v>
       </c>
-      <c r="C4" s="242"/>
-      <c r="D4" s="243"/>
-      <c r="E4" s="244" t="s">
+      <c r="C4" s="205"/>
+      <c r="D4" s="206"/>
+      <c r="E4" s="207" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="245"/>
-      <c r="G4" s="240">
+      <c r="F4" s="208"/>
+      <c r="G4" s="203">
         <f>Page1!G4</f>
         <v>0</v>
       </c>
-      <c r="H4" s="243"/>
+      <c r="H4" s="206"/>
       <c r="I4" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="246">
+      <c r="J4" s="209">
         <f>Page1!J4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="246"/>
-      <c r="L4" s="239" t="s">
+      <c r="K4" s="209"/>
+      <c r="L4" s="202" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="239">
+      <c r="M4" s="202">
         <f>Page1!N4</f>
         <v>0</v>
       </c>
-      <c r="N4" s="240">
+      <c r="N4" s="203">
         <f>Page1!N4</f>
         <v>0</v>
       </c>
-      <c r="O4" s="241"/>
+      <c r="O4" s="204"/>
     </row>
     <row r="5" spans="1:15" s="39" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A5" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="183">
+      <c r="B5" s="142">
         <f>Page1!B5</f>
         <v>0</v>
       </c>
-      <c r="C5" s="234"/>
-      <c r="D5" s="194"/>
-      <c r="E5" s="235" t="s">
+      <c r="C5" s="197"/>
+      <c r="D5" s="154"/>
+      <c r="E5" s="198" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="236"/>
-      <c r="G5" s="183">
+      <c r="F5" s="199"/>
+      <c r="G5" s="142">
         <f>Page1!G5</f>
         <v>0</v>
       </c>
-      <c r="H5" s="194"/>
+      <c r="H5" s="154"/>
       <c r="I5" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="167">
+      <c r="J5" s="141">
         <f>Page1!J5</f>
         <v>0</v>
       </c>
-      <c r="K5" s="167"/>
-      <c r="L5" s="214" t="s">
+      <c r="K5" s="141"/>
+      <c r="L5" s="210" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="214">
+      <c r="M5" s="210">
         <f>Page1!N5</f>
         <v>0</v>
       </c>
-      <c r="N5" s="183">
+      <c r="N5" s="142">
         <f>Page1!N5</f>
         <v>0</v>
       </c>
-      <c r="O5" s="195"/>
+      <c r="O5" s="156"/>
     </row>
     <row r="6" spans="1:15" s="77" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A6" s="254" t="s">
+      <c r="A6" s="253" t="s">
         <v>113</v>
       </c>
-      <c r="B6" s="255"/>
-      <c r="C6" s="255"/>
-      <c r="D6" s="256"/>
-      <c r="E6" s="256"/>
-      <c r="F6" s="256"/>
-      <c r="G6" s="257"/>
-      <c r="H6" s="258"/>
-      <c r="I6" s="256"/>
-      <c r="J6" s="256"/>
-      <c r="K6" s="256"/>
-      <c r="L6" s="256"/>
-      <c r="M6" s="256"/>
-      <c r="N6" s="256"/>
-      <c r="O6" s="257"/>
+      <c r="B6" s="254"/>
+      <c r="C6" s="254"/>
+      <c r="D6" s="255"/>
+      <c r="E6" s="255"/>
+      <c r="F6" s="255"/>
+      <c r="G6" s="256"/>
+      <c r="H6" s="257"/>
+      <c r="I6" s="255"/>
+      <c r="J6" s="255"/>
+      <c r="K6" s="255"/>
+      <c r="L6" s="255"/>
+      <c r="M6" s="255"/>
+      <c r="N6" s="255"/>
+      <c r="O6" s="256"/>
     </row>
     <row r="7" spans="1:15" s="40" customFormat="1" ht="30" customHeight="1">
-      <c r="A7" s="248" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="246"/>
-      <c r="C7" s="246"/>
-      <c r="D7" s="242" t="s">
+      <c r="A7" s="247" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="209"/>
+      <c r="C7" s="209"/>
+      <c r="D7" s="205" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="242"/>
-      <c r="F7" s="242"/>
-      <c r="G7" s="242"/>
-      <c r="H7" s="249"/>
-      <c r="I7" s="250"/>
-      <c r="J7" s="250"/>
-      <c r="K7" s="250"/>
-      <c r="L7" s="250"/>
-      <c r="M7" s="250"/>
-      <c r="N7" s="250"/>
-      <c r="O7" s="251"/>
+      <c r="E7" s="205"/>
+      <c r="F7" s="205"/>
+      <c r="G7" s="205"/>
+      <c r="H7" s="248"/>
+      <c r="I7" s="249"/>
+      <c r="J7" s="249"/>
+      <c r="K7" s="249"/>
+      <c r="L7" s="249"/>
+      <c r="M7" s="249"/>
+      <c r="N7" s="249"/>
+      <c r="O7" s="250"/>
     </row>
     <row r="8" spans="1:15" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="A8" s="182"/>
-      <c r="B8" s="167"/>
-      <c r="C8" s="167"/>
+      <c r="A8" s="140"/>
+      <c r="B8" s="141"/>
+      <c r="C8" s="141"/>
       <c r="D8" s="78">
         <v>1</v>
       </c>
@@ -7275,14 +7274,14 @@
       <c r="G8" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="197"/>
-      <c r="I8" s="198"/>
-      <c r="J8" s="198"/>
-      <c r="K8" s="198"/>
-      <c r="L8" s="198"/>
-      <c r="M8" s="198"/>
-      <c r="N8" s="198"/>
-      <c r="O8" s="252"/>
+      <c r="H8" s="230"/>
+      <c r="I8" s="231"/>
+      <c r="J8" s="231"/>
+      <c r="K8" s="231"/>
+      <c r="L8" s="231"/>
+      <c r="M8" s="231"/>
+      <c r="N8" s="231"/>
+      <c r="O8" s="251"/>
     </row>
     <row r="9" spans="1:15" ht="18" customHeight="1">
       <c r="A9" s="54">
@@ -7304,14 +7303,14 @@
         <f>AVERAGE(D9:F9)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H9" s="197"/>
-      <c r="I9" s="198"/>
-      <c r="J9" s="198"/>
-      <c r="K9" s="198"/>
-      <c r="L9" s="198"/>
-      <c r="M9" s="198"/>
-      <c r="N9" s="198"/>
-      <c r="O9" s="252"/>
+      <c r="H9" s="230"/>
+      <c r="I9" s="231"/>
+      <c r="J9" s="231"/>
+      <c r="K9" s="231"/>
+      <c r="L9" s="231"/>
+      <c r="M9" s="231"/>
+      <c r="N9" s="231"/>
+      <c r="O9" s="251"/>
     </row>
     <row r="10" spans="1:15" ht="18" customHeight="1">
       <c r="A10" s="54">
@@ -7333,14 +7332,14 @@
         <f t="shared" ref="G10:G38" si="0">AVERAGE(D10:F10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H10" s="197"/>
-      <c r="I10" s="198"/>
-      <c r="J10" s="198"/>
-      <c r="K10" s="198"/>
-      <c r="L10" s="198"/>
-      <c r="M10" s="198"/>
-      <c r="N10" s="198"/>
-      <c r="O10" s="252"/>
+      <c r="H10" s="230"/>
+      <c r="I10" s="231"/>
+      <c r="J10" s="231"/>
+      <c r="K10" s="231"/>
+      <c r="L10" s="231"/>
+      <c r="M10" s="231"/>
+      <c r="N10" s="231"/>
+      <c r="O10" s="251"/>
     </row>
     <row r="11" spans="1:15" ht="18" customHeight="1">
       <c r="A11" s="54">
@@ -7362,14 +7361,14 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H11" s="197"/>
-      <c r="I11" s="198"/>
-      <c r="J11" s="198"/>
-      <c r="K11" s="198"/>
-      <c r="L11" s="198"/>
-      <c r="M11" s="198"/>
-      <c r="N11" s="198"/>
-      <c r="O11" s="252"/>
+      <c r="H11" s="230"/>
+      <c r="I11" s="231"/>
+      <c r="J11" s="231"/>
+      <c r="K11" s="231"/>
+      <c r="L11" s="231"/>
+      <c r="M11" s="231"/>
+      <c r="N11" s="231"/>
+      <c r="O11" s="251"/>
     </row>
     <row r="12" spans="1:15" ht="18" customHeight="1">
       <c r="A12" s="54">
@@ -7391,14 +7390,14 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H12" s="197"/>
-      <c r="I12" s="198"/>
-      <c r="J12" s="198"/>
-      <c r="K12" s="198"/>
-      <c r="L12" s="198"/>
-      <c r="M12" s="198"/>
-      <c r="N12" s="198"/>
-      <c r="O12" s="252"/>
+      <c r="H12" s="230"/>
+      <c r="I12" s="231"/>
+      <c r="J12" s="231"/>
+      <c r="K12" s="231"/>
+      <c r="L12" s="231"/>
+      <c r="M12" s="231"/>
+      <c r="N12" s="231"/>
+      <c r="O12" s="251"/>
     </row>
     <row r="13" spans="1:15" ht="18" customHeight="1">
       <c r="A13" s="54">
@@ -7420,14 +7419,14 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H13" s="197"/>
-      <c r="I13" s="198"/>
-      <c r="J13" s="198"/>
-      <c r="K13" s="198"/>
-      <c r="L13" s="198"/>
-      <c r="M13" s="198"/>
-      <c r="N13" s="198"/>
-      <c r="O13" s="252"/>
+      <c r="H13" s="230"/>
+      <c r="I13" s="231"/>
+      <c r="J13" s="231"/>
+      <c r="K13" s="231"/>
+      <c r="L13" s="231"/>
+      <c r="M13" s="231"/>
+      <c r="N13" s="231"/>
+      <c r="O13" s="251"/>
     </row>
     <row r="14" spans="1:15" ht="18" customHeight="1">
       <c r="A14" s="54">
@@ -7449,14 +7448,14 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H14" s="197"/>
-      <c r="I14" s="198"/>
-      <c r="J14" s="198"/>
-      <c r="K14" s="198"/>
-      <c r="L14" s="198"/>
-      <c r="M14" s="198"/>
-      <c r="N14" s="198"/>
-      <c r="O14" s="252"/>
+      <c r="H14" s="230"/>
+      <c r="I14" s="231"/>
+      <c r="J14" s="231"/>
+      <c r="K14" s="231"/>
+      <c r="L14" s="231"/>
+      <c r="M14" s="231"/>
+      <c r="N14" s="231"/>
+      <c r="O14" s="251"/>
     </row>
     <row r="15" spans="1:15" ht="18" customHeight="1">
       <c r="A15" s="54">
@@ -7478,14 +7477,14 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H15" s="197"/>
-      <c r="I15" s="198"/>
-      <c r="J15" s="198"/>
-      <c r="K15" s="198"/>
-      <c r="L15" s="198"/>
-      <c r="M15" s="198"/>
-      <c r="N15" s="198"/>
-      <c r="O15" s="252"/>
+      <c r="H15" s="230"/>
+      <c r="I15" s="231"/>
+      <c r="J15" s="231"/>
+      <c r="K15" s="231"/>
+      <c r="L15" s="231"/>
+      <c r="M15" s="231"/>
+      <c r="N15" s="231"/>
+      <c r="O15" s="251"/>
     </row>
     <row r="16" spans="1:15" ht="18" customHeight="1">
       <c r="A16" s="54">
@@ -7507,14 +7506,14 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H16" s="197"/>
-      <c r="I16" s="198"/>
-      <c r="J16" s="198"/>
-      <c r="K16" s="198"/>
-      <c r="L16" s="198"/>
-      <c r="M16" s="198"/>
-      <c r="N16" s="198"/>
-      <c r="O16" s="252"/>
+      <c r="H16" s="230"/>
+      <c r="I16" s="231"/>
+      <c r="J16" s="231"/>
+      <c r="K16" s="231"/>
+      <c r="L16" s="231"/>
+      <c r="M16" s="231"/>
+      <c r="N16" s="231"/>
+      <c r="O16" s="251"/>
     </row>
     <row r="17" spans="1:15" ht="18" customHeight="1">
       <c r="A17" s="54">
@@ -7536,14 +7535,14 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H17" s="197"/>
-      <c r="I17" s="198"/>
-      <c r="J17" s="198"/>
-      <c r="K17" s="198"/>
-      <c r="L17" s="198"/>
-      <c r="M17" s="198"/>
-      <c r="N17" s="198"/>
-      <c r="O17" s="252"/>
+      <c r="H17" s="230"/>
+      <c r="I17" s="231"/>
+      <c r="J17" s="231"/>
+      <c r="K17" s="231"/>
+      <c r="L17" s="231"/>
+      <c r="M17" s="231"/>
+      <c r="N17" s="231"/>
+      <c r="O17" s="251"/>
     </row>
     <row r="18" spans="1:15" ht="18" customHeight="1">
       <c r="A18" s="54">
@@ -7565,14 +7564,14 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H18" s="197"/>
-      <c r="I18" s="198"/>
-      <c r="J18" s="198"/>
-      <c r="K18" s="198"/>
-      <c r="L18" s="198"/>
-      <c r="M18" s="198"/>
-      <c r="N18" s="198"/>
-      <c r="O18" s="252"/>
+      <c r="H18" s="230"/>
+      <c r="I18" s="231"/>
+      <c r="J18" s="231"/>
+      <c r="K18" s="231"/>
+      <c r="L18" s="231"/>
+      <c r="M18" s="231"/>
+      <c r="N18" s="231"/>
+      <c r="O18" s="251"/>
     </row>
     <row r="19" spans="1:15" ht="18" customHeight="1">
       <c r="A19" s="54">
@@ -7594,14 +7593,14 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H19" s="197"/>
-      <c r="I19" s="198"/>
-      <c r="J19" s="198"/>
-      <c r="K19" s="198"/>
-      <c r="L19" s="198"/>
-      <c r="M19" s="198"/>
-      <c r="N19" s="198"/>
-      <c r="O19" s="252"/>
+      <c r="H19" s="230"/>
+      <c r="I19" s="231"/>
+      <c r="J19" s="231"/>
+      <c r="K19" s="231"/>
+      <c r="L19" s="231"/>
+      <c r="M19" s="231"/>
+      <c r="N19" s="231"/>
+      <c r="O19" s="251"/>
     </row>
     <row r="20" spans="1:15" ht="18" customHeight="1">
       <c r="A20" s="54">
@@ -7623,14 +7622,14 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H20" s="197"/>
-      <c r="I20" s="198"/>
-      <c r="J20" s="198"/>
-      <c r="K20" s="198"/>
-      <c r="L20" s="198"/>
-      <c r="M20" s="198"/>
-      <c r="N20" s="198"/>
-      <c r="O20" s="252"/>
+      <c r="H20" s="230"/>
+      <c r="I20" s="231"/>
+      <c r="J20" s="231"/>
+      <c r="K20" s="231"/>
+      <c r="L20" s="231"/>
+      <c r="M20" s="231"/>
+      <c r="N20" s="231"/>
+      <c r="O20" s="251"/>
     </row>
     <row r="21" spans="1:15" ht="18" customHeight="1">
       <c r="A21" s="54">
@@ -7652,14 +7651,14 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H21" s="197"/>
-      <c r="I21" s="198"/>
-      <c r="J21" s="198"/>
-      <c r="K21" s="198"/>
-      <c r="L21" s="198"/>
-      <c r="M21" s="198"/>
-      <c r="N21" s="198"/>
-      <c r="O21" s="252"/>
+      <c r="H21" s="230"/>
+      <c r="I21" s="231"/>
+      <c r="J21" s="231"/>
+      <c r="K21" s="231"/>
+      <c r="L21" s="231"/>
+      <c r="M21" s="231"/>
+      <c r="N21" s="231"/>
+      <c r="O21" s="251"/>
     </row>
     <row r="22" spans="1:15" ht="18" customHeight="1">
       <c r="A22" s="54">
@@ -7681,14 +7680,14 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H22" s="197"/>
-      <c r="I22" s="198"/>
-      <c r="J22" s="198"/>
-      <c r="K22" s="198"/>
-      <c r="L22" s="198"/>
-      <c r="M22" s="198"/>
-      <c r="N22" s="198"/>
-      <c r="O22" s="252"/>
+      <c r="H22" s="230"/>
+      <c r="I22" s="231"/>
+      <c r="J22" s="231"/>
+      <c r="K22" s="231"/>
+      <c r="L22" s="231"/>
+      <c r="M22" s="231"/>
+      <c r="N22" s="231"/>
+      <c r="O22" s="251"/>
     </row>
     <row r="23" spans="1:15" ht="18" customHeight="1">
       <c r="A23" s="54">
@@ -7710,14 +7709,14 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H23" s="197"/>
-      <c r="I23" s="198"/>
-      <c r="J23" s="198"/>
-      <c r="K23" s="198"/>
-      <c r="L23" s="198"/>
-      <c r="M23" s="198"/>
-      <c r="N23" s="198"/>
-      <c r="O23" s="252"/>
+      <c r="H23" s="230"/>
+      <c r="I23" s="231"/>
+      <c r="J23" s="231"/>
+      <c r="K23" s="231"/>
+      <c r="L23" s="231"/>
+      <c r="M23" s="231"/>
+      <c r="N23" s="231"/>
+      <c r="O23" s="251"/>
     </row>
     <row r="24" spans="1:15" ht="18" customHeight="1">
       <c r="A24" s="54">
@@ -7739,14 +7738,14 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H24" s="197"/>
-      <c r="I24" s="198"/>
-      <c r="J24" s="198"/>
-      <c r="K24" s="198"/>
-      <c r="L24" s="198"/>
-      <c r="M24" s="198"/>
-      <c r="N24" s="198"/>
-      <c r="O24" s="252"/>
+      <c r="H24" s="230"/>
+      <c r="I24" s="231"/>
+      <c r="J24" s="231"/>
+      <c r="K24" s="231"/>
+      <c r="L24" s="231"/>
+      <c r="M24" s="231"/>
+      <c r="N24" s="231"/>
+      <c r="O24" s="251"/>
     </row>
     <row r="25" spans="1:15" ht="18" customHeight="1">
       <c r="A25" s="54">
@@ -7768,14 +7767,14 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H25" s="197"/>
-      <c r="I25" s="198"/>
-      <c r="J25" s="198"/>
-      <c r="K25" s="198"/>
-      <c r="L25" s="198"/>
-      <c r="M25" s="198"/>
-      <c r="N25" s="198"/>
-      <c r="O25" s="252"/>
+      <c r="H25" s="230"/>
+      <c r="I25" s="231"/>
+      <c r="J25" s="231"/>
+      <c r="K25" s="231"/>
+      <c r="L25" s="231"/>
+      <c r="M25" s="231"/>
+      <c r="N25" s="231"/>
+      <c r="O25" s="251"/>
     </row>
     <row r="26" spans="1:15" ht="18" customHeight="1">
       <c r="A26" s="54">
@@ -7797,14 +7796,14 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H26" s="197"/>
-      <c r="I26" s="198"/>
-      <c r="J26" s="198"/>
-      <c r="K26" s="198"/>
-      <c r="L26" s="198"/>
-      <c r="M26" s="198"/>
-      <c r="N26" s="198"/>
-      <c r="O26" s="252"/>
+      <c r="H26" s="230"/>
+      <c r="I26" s="231"/>
+      <c r="J26" s="231"/>
+      <c r="K26" s="231"/>
+      <c r="L26" s="231"/>
+      <c r="M26" s="231"/>
+      <c r="N26" s="231"/>
+      <c r="O26" s="251"/>
     </row>
     <row r="27" spans="1:15" ht="18" customHeight="1">
       <c r="A27" s="54">
@@ -7826,14 +7825,14 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H27" s="197"/>
-      <c r="I27" s="198"/>
-      <c r="J27" s="198"/>
-      <c r="K27" s="198"/>
-      <c r="L27" s="198"/>
-      <c r="M27" s="198"/>
-      <c r="N27" s="198"/>
-      <c r="O27" s="252"/>
+      <c r="H27" s="230"/>
+      <c r="I27" s="231"/>
+      <c r="J27" s="231"/>
+      <c r="K27" s="231"/>
+      <c r="L27" s="231"/>
+      <c r="M27" s="231"/>
+      <c r="N27" s="231"/>
+      <c r="O27" s="251"/>
     </row>
     <row r="28" spans="1:15" ht="18" customHeight="1">
       <c r="A28" s="54">
@@ -7855,14 +7854,14 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H28" s="197"/>
-      <c r="I28" s="198"/>
-      <c r="J28" s="198"/>
-      <c r="K28" s="198"/>
-      <c r="L28" s="198"/>
-      <c r="M28" s="198"/>
-      <c r="N28" s="198"/>
-      <c r="O28" s="252"/>
+      <c r="H28" s="230"/>
+      <c r="I28" s="231"/>
+      <c r="J28" s="231"/>
+      <c r="K28" s="231"/>
+      <c r="L28" s="231"/>
+      <c r="M28" s="231"/>
+      <c r="N28" s="231"/>
+      <c r="O28" s="251"/>
     </row>
     <row r="29" spans="1:15" ht="18" customHeight="1">
       <c r="A29" s="54">
@@ -7884,14 +7883,14 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H29" s="197"/>
-      <c r="I29" s="198"/>
-      <c r="J29" s="198"/>
-      <c r="K29" s="198"/>
-      <c r="L29" s="198"/>
-      <c r="M29" s="198"/>
-      <c r="N29" s="198"/>
-      <c r="O29" s="252"/>
+      <c r="H29" s="230"/>
+      <c r="I29" s="231"/>
+      <c r="J29" s="231"/>
+      <c r="K29" s="231"/>
+      <c r="L29" s="231"/>
+      <c r="M29" s="231"/>
+      <c r="N29" s="231"/>
+      <c r="O29" s="251"/>
     </row>
     <row r="30" spans="1:15" ht="18" customHeight="1">
       <c r="A30" s="54">
@@ -7913,14 +7912,14 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H30" s="197"/>
-      <c r="I30" s="198"/>
-      <c r="J30" s="198"/>
-      <c r="K30" s="198"/>
-      <c r="L30" s="198"/>
-      <c r="M30" s="198"/>
-      <c r="N30" s="198"/>
-      <c r="O30" s="252"/>
+      <c r="H30" s="230"/>
+      <c r="I30" s="231"/>
+      <c r="J30" s="231"/>
+      <c r="K30" s="231"/>
+      <c r="L30" s="231"/>
+      <c r="M30" s="231"/>
+      <c r="N30" s="231"/>
+      <c r="O30" s="251"/>
     </row>
     <row r="31" spans="1:15" ht="18" customHeight="1">
       <c r="A31" s="54">
@@ -7942,14 +7941,14 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H31" s="197"/>
-      <c r="I31" s="198"/>
-      <c r="J31" s="198"/>
-      <c r="K31" s="198"/>
-      <c r="L31" s="198"/>
-      <c r="M31" s="198"/>
-      <c r="N31" s="198"/>
-      <c r="O31" s="252"/>
+      <c r="H31" s="230"/>
+      <c r="I31" s="231"/>
+      <c r="J31" s="231"/>
+      <c r="K31" s="231"/>
+      <c r="L31" s="231"/>
+      <c r="M31" s="231"/>
+      <c r="N31" s="231"/>
+      <c r="O31" s="251"/>
     </row>
     <row r="32" spans="1:15" ht="18" customHeight="1">
       <c r="A32" s="54">
@@ -7971,14 +7970,14 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H32" s="197"/>
-      <c r="I32" s="198"/>
-      <c r="J32" s="198"/>
-      <c r="K32" s="198"/>
-      <c r="L32" s="198"/>
-      <c r="M32" s="198"/>
-      <c r="N32" s="198"/>
-      <c r="O32" s="252"/>
+      <c r="H32" s="230"/>
+      <c r="I32" s="231"/>
+      <c r="J32" s="231"/>
+      <c r="K32" s="231"/>
+      <c r="L32" s="231"/>
+      <c r="M32" s="231"/>
+      <c r="N32" s="231"/>
+      <c r="O32" s="251"/>
     </row>
     <row r="33" spans="1:15" ht="18" customHeight="1">
       <c r="A33" s="54">
@@ -8000,14 +7999,14 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H33" s="197"/>
-      <c r="I33" s="198"/>
-      <c r="J33" s="198"/>
-      <c r="K33" s="198"/>
-      <c r="L33" s="198"/>
-      <c r="M33" s="198"/>
-      <c r="N33" s="198"/>
-      <c r="O33" s="252"/>
+      <c r="H33" s="230"/>
+      <c r="I33" s="231"/>
+      <c r="J33" s="231"/>
+      <c r="K33" s="231"/>
+      <c r="L33" s="231"/>
+      <c r="M33" s="231"/>
+      <c r="N33" s="231"/>
+      <c r="O33" s="251"/>
     </row>
     <row r="34" spans="1:15" ht="18" customHeight="1">
       <c r="A34" s="54">
@@ -8029,14 +8028,14 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H34" s="197"/>
-      <c r="I34" s="198"/>
-      <c r="J34" s="198"/>
-      <c r="K34" s="198"/>
-      <c r="L34" s="198"/>
-      <c r="M34" s="198"/>
-      <c r="N34" s="198"/>
-      <c r="O34" s="252"/>
+      <c r="H34" s="230"/>
+      <c r="I34" s="231"/>
+      <c r="J34" s="231"/>
+      <c r="K34" s="231"/>
+      <c r="L34" s="231"/>
+      <c r="M34" s="231"/>
+      <c r="N34" s="231"/>
+      <c r="O34" s="251"/>
     </row>
     <row r="35" spans="1:15" ht="18" customHeight="1">
       <c r="A35" s="54">
@@ -8058,14 +8057,14 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H35" s="197"/>
-      <c r="I35" s="198"/>
-      <c r="J35" s="198"/>
-      <c r="K35" s="198"/>
-      <c r="L35" s="198"/>
-      <c r="M35" s="198"/>
-      <c r="N35" s="198"/>
-      <c r="O35" s="252"/>
+      <c r="H35" s="230"/>
+      <c r="I35" s="231"/>
+      <c r="J35" s="231"/>
+      <c r="K35" s="231"/>
+      <c r="L35" s="231"/>
+      <c r="M35" s="231"/>
+      <c r="N35" s="231"/>
+      <c r="O35" s="251"/>
     </row>
     <row r="36" spans="1:15" ht="18" customHeight="1">
       <c r="A36" s="54">
@@ -8087,14 +8086,14 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H36" s="197"/>
-      <c r="I36" s="198"/>
-      <c r="J36" s="198"/>
-      <c r="K36" s="198"/>
-      <c r="L36" s="198"/>
-      <c r="M36" s="198"/>
-      <c r="N36" s="198"/>
-      <c r="O36" s="252"/>
+      <c r="H36" s="230"/>
+      <c r="I36" s="231"/>
+      <c r="J36" s="231"/>
+      <c r="K36" s="231"/>
+      <c r="L36" s="231"/>
+      <c r="M36" s="231"/>
+      <c r="N36" s="231"/>
+      <c r="O36" s="251"/>
     </row>
     <row r="37" spans="1:15" ht="18" customHeight="1">
       <c r="A37" s="54">
@@ -8116,14 +8115,14 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H37" s="197"/>
-      <c r="I37" s="198"/>
-      <c r="J37" s="198"/>
-      <c r="K37" s="198"/>
-      <c r="L37" s="198"/>
-      <c r="M37" s="198"/>
-      <c r="N37" s="198"/>
-      <c r="O37" s="252"/>
+      <c r="H37" s="230"/>
+      <c r="I37" s="231"/>
+      <c r="J37" s="231"/>
+      <c r="K37" s="231"/>
+      <c r="L37" s="231"/>
+      <c r="M37" s="231"/>
+      <c r="N37" s="231"/>
+      <c r="O37" s="251"/>
     </row>
     <row r="38" spans="1:15" ht="18" customHeight="1" thickBot="1">
       <c r="A38" s="54">
@@ -8145,14 +8144,14 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H38" s="197"/>
-      <c r="I38" s="198"/>
-      <c r="J38" s="198"/>
-      <c r="K38" s="198"/>
-      <c r="L38" s="198"/>
-      <c r="M38" s="198"/>
-      <c r="N38" s="198"/>
-      <c r="O38" s="252"/>
+      <c r="H38" s="230"/>
+      <c r="I38" s="231"/>
+      <c r="J38" s="231"/>
+      <c r="K38" s="231"/>
+      <c r="L38" s="231"/>
+      <c r="M38" s="231"/>
+      <c r="N38" s="231"/>
+      <c r="O38" s="251"/>
     </row>
     <row r="39" spans="1:15" s="40" customFormat="1" ht="18" customHeight="1">
       <c r="A39" s="88"/>
@@ -8160,24 +8159,24 @@
       <c r="C39" s="89" t="s">
         <v>23</v>
       </c>
-      <c r="D39" s="265" t="e">
+      <c r="D39" s="264" t="e">
         <f>AVERAGE(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E39" s="266"/>
-      <c r="F39" s="266"/>
-      <c r="G39" s="267" t="e">
+      <c r="E39" s="265"/>
+      <c r="F39" s="265"/>
+      <c r="G39" s="266" t="e">
         <f>AVERAGE(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H39" s="197"/>
-      <c r="I39" s="198"/>
-      <c r="J39" s="198"/>
-      <c r="K39" s="198"/>
-      <c r="L39" s="198"/>
-      <c r="M39" s="198"/>
-      <c r="N39" s="198"/>
-      <c r="O39" s="252"/>
+      <c r="H39" s="230"/>
+      <c r="I39" s="231"/>
+      <c r="J39" s="231"/>
+      <c r="K39" s="231"/>
+      <c r="L39" s="231"/>
+      <c r="M39" s="231"/>
+      <c r="N39" s="231"/>
+      <c r="O39" s="251"/>
     </row>
     <row r="40" spans="1:15" s="40" customFormat="1" ht="18" customHeight="1">
       <c r="A40" s="90"/>
@@ -8185,24 +8184,24 @@
       <c r="C40" s="91" t="s">
         <v>24</v>
       </c>
-      <c r="D40" s="259" t="e">
+      <c r="D40" s="258" t="e">
         <f>MIN(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E40" s="260"/>
-      <c r="F40" s="260"/>
-      <c r="G40" s="261" t="e">
+      <c r="E40" s="259"/>
+      <c r="F40" s="259"/>
+      <c r="G40" s="260" t="e">
         <f>MIN(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H40" s="197"/>
-      <c r="I40" s="198"/>
-      <c r="J40" s="198"/>
-      <c r="K40" s="198"/>
-      <c r="L40" s="198"/>
-      <c r="M40" s="198"/>
-      <c r="N40" s="198"/>
-      <c r="O40" s="252"/>
+      <c r="H40" s="230"/>
+      <c r="I40" s="231"/>
+      <c r="J40" s="231"/>
+      <c r="K40" s="231"/>
+      <c r="L40" s="231"/>
+      <c r="M40" s="231"/>
+      <c r="N40" s="231"/>
+      <c r="O40" s="251"/>
     </row>
     <row r="41" spans="1:15" s="40" customFormat="1" ht="18" customHeight="1" thickBot="1">
       <c r="A41" s="92"/>
@@ -8210,54 +8209,54 @@
       <c r="C41" s="93" t="s">
         <v>25</v>
       </c>
-      <c r="D41" s="262" t="e">
+      <c r="D41" s="261" t="e">
         <f>MAX(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E41" s="263"/>
-      <c r="F41" s="263"/>
-      <c r="G41" s="264" t="e">
+      <c r="E41" s="262"/>
+      <c r="F41" s="262"/>
+      <c r="G41" s="263" t="e">
         <f>MAX(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H41" s="200"/>
-      <c r="I41" s="201"/>
-      <c r="J41" s="201"/>
-      <c r="K41" s="201"/>
-      <c r="L41" s="201"/>
-      <c r="M41" s="201"/>
-      <c r="N41" s="201"/>
-      <c r="O41" s="253"/>
+      <c r="H41" s="233"/>
+      <c r="I41" s="234"/>
+      <c r="J41" s="234"/>
+      <c r="K41" s="234"/>
+      <c r="L41" s="234"/>
+      <c r="M41" s="234"/>
+      <c r="N41" s="234"/>
+      <c r="O41" s="252"/>
     </row>
     <row r="42" spans="1:15" s="11" customFormat="1" ht="16.5" customHeight="1">
       <c r="A42" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="B42" s="151"/>
-      <c r="C42" s="151"/>
-      <c r="D42" s="152" t="s">
+      <c r="B42" s="193"/>
+      <c r="C42" s="193"/>
+      <c r="D42" s="194" t="s">
         <v>13</v>
       </c>
-      <c r="E42" s="152"/>
+      <c r="E42" s="194"/>
       <c r="F42" s="36"/>
       <c r="G42" s="37"/>
       <c r="H42" s="37"/>
       <c r="I42" s="37"/>
-      <c r="J42" s="247"/>
-      <c r="K42" s="247"/>
+      <c r="J42" s="267"/>
+      <c r="K42" s="267"/>
       <c r="L42" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="M42" s="209"/>
-      <c r="N42" s="209"/>
+      <c r="M42" s="242"/>
+      <c r="N42" s="242"/>
       <c r="O42" s="35" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:15" s="11" customFormat="1" ht="16.5" customHeight="1">
       <c r="A43" s="35"/>
-      <c r="B43" s="133"/>
-      <c r="C43" s="133"/>
+      <c r="B43" s="176"/>
+      <c r="C43" s="176"/>
       <c r="D43" s="13"/>
       <c r="E43" s="13"/>
       <c r="F43" s="35"/>
@@ -8267,38 +8266,38 @@
       <c r="J43" s="37"/>
       <c r="K43" s="38"/>
       <c r="L43" s="94"/>
-      <c r="M43" s="134"/>
-      <c r="N43" s="134"/>
+      <c r="M43" s="159"/>
+      <c r="N43" s="159"/>
       <c r="O43" s="38"/>
     </row>
     <row r="44" spans="1:15" s="40" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A44" s="131" t="s">
+      <c r="A44" s="174" t="s">
         <v>12</v>
       </c>
-      <c r="B44" s="131"/>
-      <c r="C44" s="131"/>
+      <c r="B44" s="174"/>
+      <c r="C44" s="174"/>
       <c r="D44" s="39"/>
       <c r="E44" s="39"/>
       <c r="F44" s="39"/>
       <c r="G44" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="H44" s="131" t="s">
+      <c r="H44" s="174" t="s">
         <v>121</v>
       </c>
-      <c r="I44" s="131"/>
-      <c r="J44" s="131"/>
-      <c r="K44" s="131"/>
+      <c r="I44" s="174"/>
+      <c r="J44" s="174"/>
+      <c r="K44" s="174"/>
       <c r="L44" s="39"/>
       <c r="M44" s="39"/>
       <c r="N44" s="39"/>
       <c r="O44" s="39"/>
     </row>
     <row r="45" spans="1:15" s="11" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A45" s="132" t="s">
+      <c r="A45" s="175" t="s">
         <v>21</v>
       </c>
-      <c r="B45" s="132"/>
+      <c r="B45" s="175"/>
       <c r="C45" s="41"/>
       <c r="D45" s="37"/>
       <c r="E45" s="37"/>
@@ -8309,24 +8308,24 @@
       <c r="J45" s="37"/>
       <c r="K45" s="37"/>
       <c r="L45" s="37"/>
-      <c r="M45" s="196" t="s">
+      <c r="M45" s="245" t="s">
         <v>108</v>
       </c>
-      <c r="N45" s="196"/>
+      <c r="N45" s="245"/>
       <c r="O45" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="A2:M3"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="M43:N43"/>
     <mergeCell ref="A7:C8"/>
     <mergeCell ref="D7:G7"/>
     <mergeCell ref="H7:O41"/>
@@ -8342,16 +8341,16 @@
     <mergeCell ref="D39:G39"/>
     <mergeCell ref="L5:M5"/>
     <mergeCell ref="N5:O5"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="H44:K44"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="A2:M3"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="N4:O4"/>
   </mergeCells>
   <conditionalFormatting sqref="D9:G38">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
@@ -8374,12 +8373,12 @@
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" customWidth="1"/>
     <col min="2" max="2" width="7" customWidth="1"/>
     <col min="3" max="3" width="9.140625" customWidth="1"/>
     <col min="4" max="4" width="26.140625" customWidth="1"/>
@@ -8499,119 +8498,119 @@
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="116"/>
-      <c r="B3" s="117">
+      <c r="A3" s="268"/>
+      <c r="B3" s="116">
         <f>Page1!C8</f>
         <v>0</v>
       </c>
       <c r="C3" s="115"/>
-      <c r="D3" s="118">
+      <c r="D3" s="117">
         <f>Page1!L8</f>
         <v>0</v>
       </c>
-      <c r="E3" s="119" t="e">
+      <c r="E3" s="118" t="e">
         <f>Page4!G9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F3" s="119">
+      <c r="F3" s="118">
         <f>Page1!H8</f>
         <v>0</v>
       </c>
-      <c r="G3" s="120">
+      <c r="G3" s="119">
         <f>Page1!N8</f>
         <v>0</v>
       </c>
-      <c r="H3" s="120">
+      <c r="H3" s="119">
         <f>Page1!D8</f>
         <v>0</v>
       </c>
-      <c r="I3" s="118" t="e">
+      <c r="I3" s="117" t="e">
         <f>Page3!G9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J3" s="118" t="e">
+      <c r="J3" s="117" t="e">
         <f>Page2!G9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K3" s="119" t="e">
+      <c r="K3" s="118" t="e">
         <f>Page3!K9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L3" s="119" t="e">
+      <c r="L3" s="118" t="e">
         <f>Page2!K9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M3" s="119" t="e">
+      <c r="M3" s="118" t="e">
         <f>Page2!O9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N3" s="121">
+      <c r="N3" s="120">
         <f>Page1!F8</f>
         <v>0</v>
       </c>
-      <c r="O3" s="119" t="e">
+      <c r="O3" s="118" t="e">
         <f>Page3!O9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P3" s="122">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="122">
+      <c r="P3" s="121">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="121">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="116"/>
-      <c r="B4" s="117">
+      <c r="A4" s="268"/>
+      <c r="B4" s="116">
         <f>Page1!C9</f>
         <v>0</v>
       </c>
       <c r="C4" s="115"/>
-      <c r="D4" s="118">
+      <c r="D4" s="117">
         <f>Page1!L9</f>
         <v>0</v>
       </c>
-      <c r="E4" s="119" t="e">
+      <c r="E4" s="118" t="e">
         <f>Page4!G10</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F4" s="119">
+      <c r="F4" s="118">
         <f>Page1!H9</f>
         <v>0</v>
       </c>
-      <c r="G4" s="120">
+      <c r="G4" s="119">
         <f>Page1!N9</f>
         <v>0</v>
       </c>
-      <c r="H4" s="120">
+      <c r="H4" s="119">
         <f>Page1!D9</f>
         <v>0</v>
       </c>
-      <c r="I4" s="118" t="e">
+      <c r="I4" s="117" t="e">
         <f>Page3!G10</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J4" s="118" t="e">
+      <c r="J4" s="117" t="e">
         <f>Page2!G10</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K4" s="119" t="e">
+      <c r="K4" s="118" t="e">
         <f>Page3!K10</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L4" s="119" t="e">
+      <c r="L4" s="118" t="e">
         <f>Page2!K10</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M4" s="119" t="e">
+      <c r="M4" s="118" t="e">
         <f>Page2!O10</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N4" s="121">
+      <c r="N4" s="120">
         <f>Page1!F9</f>
         <v>0</v>
       </c>
-      <c r="O4" s="119" t="e">
+      <c r="O4" s="118" t="e">
         <f>Page3!O10</f>
         <v>#DIV/0!</v>
       </c>
@@ -8625,57 +8624,57 @@
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="116"/>
-      <c r="B5" s="117">
+      <c r="A5" s="268"/>
+      <c r="B5" s="116">
         <f>Page1!C10</f>
         <v>0</v>
       </c>
       <c r="C5" s="115"/>
-      <c r="D5" s="118">
+      <c r="D5" s="117">
         <f>Page1!L10</f>
         <v>0</v>
       </c>
-      <c r="E5" s="119" t="e">
+      <c r="E5" s="118" t="e">
         <f>Page4!G11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F5" s="119">
+      <c r="F5" s="118">
         <f>Page1!H10</f>
         <v>0</v>
       </c>
-      <c r="G5" s="120">
+      <c r="G5" s="119">
         <f>Page1!N10</f>
         <v>0</v>
       </c>
-      <c r="H5" s="120">
+      <c r="H5" s="119">
         <f>Page1!D10</f>
         <v>0</v>
       </c>
-      <c r="I5" s="118" t="e">
+      <c r="I5" s="117" t="e">
         <f>Page3!G11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J5" s="118" t="e">
+      <c r="J5" s="117" t="e">
         <f>Page2!G11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K5" s="119" t="e">
+      <c r="K5" s="118" t="e">
         <f>Page3!K11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L5" s="119" t="e">
+      <c r="L5" s="118" t="e">
         <f>Page2!K11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M5" s="119" t="e">
+      <c r="M5" s="118" t="e">
         <f>Page2!O11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N5" s="121">
+      <c r="N5" s="120">
         <f>Page1!F10</f>
         <v>0</v>
       </c>
-      <c r="O5" s="119" t="e">
+      <c r="O5" s="118" t="e">
         <f>Page3!O11</f>
         <v>#DIV/0!</v>
       </c>
@@ -8689,57 +8688,57 @@
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="116"/>
-      <c r="B6" s="117">
+      <c r="A6" s="268"/>
+      <c r="B6" s="116">
         <f>Page1!C11</f>
         <v>0</v>
       </c>
       <c r="C6" s="115"/>
-      <c r="D6" s="118">
+      <c r="D6" s="117">
         <f>Page1!L11</f>
         <v>0</v>
       </c>
-      <c r="E6" s="119" t="e">
+      <c r="E6" s="118" t="e">
         <f>Page4!G12</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F6" s="119">
+      <c r="F6" s="118">
         <f>Page1!H11</f>
         <v>0</v>
       </c>
-      <c r="G6" s="120">
+      <c r="G6" s="119">
         <f>Page1!N11</f>
         <v>0</v>
       </c>
-      <c r="H6" s="120">
+      <c r="H6" s="119">
         <f>Page1!D11</f>
         <v>0</v>
       </c>
-      <c r="I6" s="118" t="e">
+      <c r="I6" s="117" t="e">
         <f>Page3!G12</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J6" s="118" t="e">
+      <c r="J6" s="117" t="e">
         <f>Page2!G12</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K6" s="119" t="e">
+      <c r="K6" s="118" t="e">
         <f>Page3!K12</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L6" s="119" t="e">
+      <c r="L6" s="118" t="e">
         <f>Page2!K12</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M6" s="119" t="e">
+      <c r="M6" s="118" t="e">
         <f>Page2!O12</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N6" s="121">
+      <c r="N6" s="120">
         <f>Page1!F11</f>
         <v>0</v>
       </c>
-      <c r="O6" s="119" t="e">
+      <c r="O6" s="118" t="e">
         <f>Page3!O12</f>
         <v>#DIV/0!</v>
       </c>
@@ -8753,57 +8752,57 @@
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="116"/>
-      <c r="B7" s="117">
+      <c r="A7" s="268"/>
+      <c r="B7" s="116">
         <f>Page1!C12</f>
         <v>0</v>
       </c>
       <c r="C7" s="115"/>
-      <c r="D7" s="118">
+      <c r="D7" s="117">
         <f>Page1!L12</f>
         <v>0</v>
       </c>
-      <c r="E7" s="119" t="e">
+      <c r="E7" s="118" t="e">
         <f>Page4!G13</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F7" s="119">
+      <c r="F7" s="118">
         <f>Page1!H12</f>
         <v>0</v>
       </c>
-      <c r="G7" s="120">
+      <c r="G7" s="119">
         <f>Page1!N12</f>
         <v>0</v>
       </c>
-      <c r="H7" s="120">
+      <c r="H7" s="119">
         <f>Page1!D12</f>
         <v>0</v>
       </c>
-      <c r="I7" s="118" t="e">
+      <c r="I7" s="117" t="e">
         <f>Page3!G13</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J7" s="118" t="e">
+      <c r="J7" s="117" t="e">
         <f>Page2!G13</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K7" s="119" t="e">
+      <c r="K7" s="118" t="e">
         <f>Page3!K13</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L7" s="119" t="e">
+      <c r="L7" s="118" t="e">
         <f>Page2!K13</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M7" s="119" t="e">
+      <c r="M7" s="118" t="e">
         <f>Page2!O13</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N7" s="121">
+      <c r="N7" s="120">
         <f>Page1!F12</f>
         <v>0</v>
       </c>
-      <c r="O7" s="119" t="e">
+      <c r="O7" s="118" t="e">
         <f>Page3!O13</f>
         <v>#DIV/0!</v>
       </c>
@@ -8817,57 +8816,57 @@
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="116"/>
-      <c r="B8" s="117">
+      <c r="A8" s="268"/>
+      <c r="B8" s="116">
         <f>Page1!C13</f>
         <v>0</v>
       </c>
       <c r="C8" s="115"/>
-      <c r="D8" s="118">
+      <c r="D8" s="117">
         <f>Page1!L13</f>
         <v>0</v>
       </c>
-      <c r="E8" s="119" t="e">
+      <c r="E8" s="118" t="e">
         <f>Page4!G14</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F8" s="119">
+      <c r="F8" s="118">
         <f>Page1!H13</f>
         <v>0</v>
       </c>
-      <c r="G8" s="120">
+      <c r="G8" s="119">
         <f>Page1!N13</f>
         <v>0</v>
       </c>
-      <c r="H8" s="120">
+      <c r="H8" s="119">
         <f>Page1!D13</f>
         <v>0</v>
       </c>
-      <c r="I8" s="118" t="e">
+      <c r="I8" s="117" t="e">
         <f>Page3!G14</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J8" s="118" t="e">
+      <c r="J8" s="117" t="e">
         <f>Page2!G14</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K8" s="119" t="e">
+      <c r="K8" s="118" t="e">
         <f>Page3!K14</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L8" s="119" t="e">
+      <c r="L8" s="118" t="e">
         <f>Page2!K14</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M8" s="119" t="e">
+      <c r="M8" s="118" t="e">
         <f>Page2!O14</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N8" s="121">
+      <c r="N8" s="120">
         <f>Page1!F13</f>
         <v>0</v>
       </c>
-      <c r="O8" s="119" t="e">
+      <c r="O8" s="118" t="e">
         <f>Page3!O14</f>
         <v>#DIV/0!</v>
       </c>
@@ -8881,57 +8880,57 @@
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="116"/>
-      <c r="B9" s="117">
+      <c r="A9" s="268"/>
+      <c r="B9" s="116">
         <f>Page1!C14</f>
         <v>0</v>
       </c>
       <c r="C9" s="115"/>
-      <c r="D9" s="118">
+      <c r="D9" s="117">
         <f>Page1!L14</f>
         <v>0</v>
       </c>
-      <c r="E9" s="119" t="e">
+      <c r="E9" s="118" t="e">
         <f>Page4!G15</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F9" s="119">
+      <c r="F9" s="118">
         <f>Page1!H14</f>
         <v>0</v>
       </c>
-      <c r="G9" s="120">
+      <c r="G9" s="119">
         <f>Page1!N14</f>
         <v>0</v>
       </c>
-      <c r="H9" s="120">
+      <c r="H9" s="119">
         <f>Page1!D14</f>
         <v>0</v>
       </c>
-      <c r="I9" s="118" t="e">
+      <c r="I9" s="117" t="e">
         <f>Page3!G15</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J9" s="118" t="e">
+      <c r="J9" s="117" t="e">
         <f>Page2!G15</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K9" s="119" t="e">
+      <c r="K9" s="118" t="e">
         <f>Page3!K15</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L9" s="119" t="e">
+      <c r="L9" s="118" t="e">
         <f>Page2!K15</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M9" s="119" t="e">
+      <c r="M9" s="118" t="e">
         <f>Page2!O15</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N9" s="121">
+      <c r="N9" s="120">
         <f>Page1!F14</f>
         <v>0</v>
       </c>
-      <c r="O9" s="119" t="e">
+      <c r="O9" s="118" t="e">
         <f>Page3!O15</f>
         <v>#DIV/0!</v>
       </c>
@@ -8945,57 +8944,57 @@
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="116"/>
-      <c r="B10" s="117">
+      <c r="A10" s="268"/>
+      <c r="B10" s="116">
         <f>Page1!C15</f>
         <v>0</v>
       </c>
       <c r="C10" s="115"/>
-      <c r="D10" s="118">
+      <c r="D10" s="117">
         <f>Page1!L15</f>
         <v>0</v>
       </c>
-      <c r="E10" s="119" t="e">
+      <c r="E10" s="118" t="e">
         <f>Page4!G16</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F10" s="119">
+      <c r="F10" s="118">
         <f>Page1!H15</f>
         <v>0</v>
       </c>
-      <c r="G10" s="120">
+      <c r="G10" s="119">
         <f>Page1!N15</f>
         <v>0</v>
       </c>
-      <c r="H10" s="120">
+      <c r="H10" s="119">
         <f>Page1!D15</f>
         <v>0</v>
       </c>
-      <c r="I10" s="118" t="e">
+      <c r="I10" s="117" t="e">
         <f>Page3!G16</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J10" s="118" t="e">
+      <c r="J10" s="117" t="e">
         <f>Page2!G16</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K10" s="119" t="e">
+      <c r="K10" s="118" t="e">
         <f>Page3!K16</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L10" s="119" t="e">
+      <c r="L10" s="118" t="e">
         <f>Page2!K16</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M10" s="119" t="e">
+      <c r="M10" s="118" t="e">
         <f>Page2!O16</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N10" s="121">
+      <c r="N10" s="120">
         <f>Page1!F15</f>
         <v>0</v>
       </c>
-      <c r="O10" s="119" t="e">
+      <c r="O10" s="118" t="e">
         <f>Page3!O16</f>
         <v>#DIV/0!</v>
       </c>
@@ -9009,57 +9008,57 @@
       </c>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="116"/>
-      <c r="B11" s="117">
+      <c r="A11" s="268"/>
+      <c r="B11" s="116">
         <f>Page1!C16</f>
         <v>0</v>
       </c>
       <c r="C11" s="115"/>
-      <c r="D11" s="118">
+      <c r="D11" s="117">
         <f>Page1!L16</f>
         <v>0</v>
       </c>
-      <c r="E11" s="119" t="e">
+      <c r="E11" s="118" t="e">
         <f>Page4!G17</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F11" s="119">
+      <c r="F11" s="118">
         <f>Page1!H16</f>
         <v>0</v>
       </c>
-      <c r="G11" s="120">
+      <c r="G11" s="119">
         <f>Page1!N16</f>
         <v>0</v>
       </c>
-      <c r="H11" s="120">
+      <c r="H11" s="119">
         <f>Page1!D16</f>
         <v>0</v>
       </c>
-      <c r="I11" s="118" t="e">
+      <c r="I11" s="117" t="e">
         <f>Page3!G17</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J11" s="118" t="e">
+      <c r="J11" s="117" t="e">
         <f>Page2!G17</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K11" s="119" t="e">
+      <c r="K11" s="118" t="e">
         <f>Page3!K17</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L11" s="119" t="e">
+      <c r="L11" s="118" t="e">
         <f>Page2!K17</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M11" s="119" t="e">
+      <c r="M11" s="118" t="e">
         <f>Page2!O17</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N11" s="121">
+      <c r="N11" s="120">
         <f>Page1!F16</f>
         <v>0</v>
       </c>
-      <c r="O11" s="119" t="e">
+      <c r="O11" s="118" t="e">
         <f>Page3!O17</f>
         <v>#DIV/0!</v>
       </c>
@@ -9073,57 +9072,57 @@
       </c>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="116"/>
-      <c r="B12" s="117">
+      <c r="A12" s="268"/>
+      <c r="B12" s="116">
         <f>Page1!C17</f>
         <v>0</v>
       </c>
       <c r="C12" s="115"/>
-      <c r="D12" s="118">
+      <c r="D12" s="117">
         <f>Page1!L17</f>
         <v>0</v>
       </c>
-      <c r="E12" s="119" t="e">
+      <c r="E12" s="118" t="e">
         <f>Page4!G18</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F12" s="119">
+      <c r="F12" s="118">
         <f>Page1!H17</f>
         <v>0</v>
       </c>
-      <c r="G12" s="120">
+      <c r="G12" s="119">
         <f>Page1!N17</f>
         <v>0</v>
       </c>
-      <c r="H12" s="120">
+      <c r="H12" s="119">
         <f>Page1!D17</f>
         <v>0</v>
       </c>
-      <c r="I12" s="118" t="e">
+      <c r="I12" s="117" t="e">
         <f>Page3!G18</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J12" s="118" t="e">
+      <c r="J12" s="117" t="e">
         <f>Page2!G18</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K12" s="119" t="e">
+      <c r="K12" s="118" t="e">
         <f>Page3!K18</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L12" s="119" t="e">
+      <c r="L12" s="118" t="e">
         <f>Page2!K18</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M12" s="119" t="e">
+      <c r="M12" s="118" t="e">
         <f>Page2!O18</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N12" s="121">
+      <c r="N12" s="120">
         <f>Page1!F17</f>
         <v>0</v>
       </c>
-      <c r="O12" s="119" t="e">
+      <c r="O12" s="118" t="e">
         <f>Page3!O18</f>
         <v>#DIV/0!</v>
       </c>
@@ -9137,57 +9136,57 @@
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="116"/>
-      <c r="B13" s="117">
+      <c r="A13" s="268"/>
+      <c r="B13" s="116">
         <f>Page1!C18</f>
         <v>0</v>
       </c>
       <c r="C13" s="115"/>
-      <c r="D13" s="118">
+      <c r="D13" s="117">
         <f>Page1!L18</f>
         <v>0</v>
       </c>
-      <c r="E13" s="119" t="e">
+      <c r="E13" s="118" t="e">
         <f>Page4!G19</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F13" s="119">
+      <c r="F13" s="118">
         <f>Page1!H18</f>
         <v>0</v>
       </c>
-      <c r="G13" s="120">
+      <c r="G13" s="119">
         <f>Page1!N18</f>
         <v>0</v>
       </c>
-      <c r="H13" s="120">
+      <c r="H13" s="119">
         <f>Page1!D18</f>
         <v>0</v>
       </c>
-      <c r="I13" s="118" t="e">
+      <c r="I13" s="117" t="e">
         <f>Page3!G19</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J13" s="118" t="e">
+      <c r="J13" s="117" t="e">
         <f>Page2!G19</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K13" s="119" t="e">
+      <c r="K13" s="118" t="e">
         <f>Page3!K19</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L13" s="119" t="e">
+      <c r="L13" s="118" t="e">
         <f>Page2!K19</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M13" s="119" t="e">
+      <c r="M13" s="118" t="e">
         <f>Page2!O19</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N13" s="121">
+      <c r="N13" s="120">
         <f>Page1!F18</f>
         <v>0</v>
       </c>
-      <c r="O13" s="119" t="e">
+      <c r="O13" s="118" t="e">
         <f>Page3!O19</f>
         <v>#DIV/0!</v>
       </c>
@@ -9201,57 +9200,57 @@
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="116"/>
-      <c r="B14" s="117">
+      <c r="A14" s="268"/>
+      <c r="B14" s="116">
         <f>Page1!C19</f>
         <v>0</v>
       </c>
       <c r="C14" s="115"/>
-      <c r="D14" s="118">
+      <c r="D14" s="117">
         <f>Page1!L19</f>
         <v>0</v>
       </c>
-      <c r="E14" s="119" t="e">
+      <c r="E14" s="118" t="e">
         <f>Page4!G20</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F14" s="119">
+      <c r="F14" s="118">
         <f>Page1!H19</f>
         <v>0</v>
       </c>
-      <c r="G14" s="120">
+      <c r="G14" s="119">
         <f>Page1!N19</f>
         <v>0</v>
       </c>
-      <c r="H14" s="120">
+      <c r="H14" s="119">
         <f>Page1!D19</f>
         <v>0</v>
       </c>
-      <c r="I14" s="118" t="e">
+      <c r="I14" s="117" t="e">
         <f>Page3!G20</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J14" s="118" t="e">
+      <c r="J14" s="117" t="e">
         <f>Page2!G20</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K14" s="119" t="e">
+      <c r="K14" s="118" t="e">
         <f>Page3!K20</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L14" s="119" t="e">
+      <c r="L14" s="118" t="e">
         <f>Page2!K20</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M14" s="119" t="e">
+      <c r="M14" s="118" t="e">
         <f>Page2!O20</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N14" s="121">
+      <c r="N14" s="120">
         <f>Page1!F19</f>
         <v>0</v>
       </c>
-      <c r="O14" s="119" t="e">
+      <c r="O14" s="118" t="e">
         <f>Page3!O20</f>
         <v>#DIV/0!</v>
       </c>
@@ -9265,57 +9264,57 @@
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="116"/>
-      <c r="B15" s="117">
+      <c r="A15" s="268"/>
+      <c r="B15" s="116">
         <f>Page1!C20</f>
         <v>0</v>
       </c>
       <c r="C15" s="115"/>
-      <c r="D15" s="118">
+      <c r="D15" s="117">
         <f>Page1!L20</f>
         <v>0</v>
       </c>
-      <c r="E15" s="119" t="e">
+      <c r="E15" s="118" t="e">
         <f>Page4!G21</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F15" s="119">
+      <c r="F15" s="118">
         <f>Page1!H20</f>
         <v>0</v>
       </c>
-      <c r="G15" s="120">
+      <c r="G15" s="119">
         <f>Page1!N20</f>
         <v>0</v>
       </c>
-      <c r="H15" s="120">
+      <c r="H15" s="119">
         <f>Page1!D20</f>
         <v>0</v>
       </c>
-      <c r="I15" s="118" t="e">
+      <c r="I15" s="117" t="e">
         <f>Page3!G21</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J15" s="118" t="e">
+      <c r="J15" s="117" t="e">
         <f>Page2!G21</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K15" s="119" t="e">
+      <c r="K15" s="118" t="e">
         <f>Page3!K21</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L15" s="119" t="e">
+      <c r="L15" s="118" t="e">
         <f>Page2!K21</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M15" s="119" t="e">
+      <c r="M15" s="118" t="e">
         <f>Page2!O21</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N15" s="121">
+      <c r="N15" s="120">
         <f>Page1!F20</f>
         <v>0</v>
       </c>
-      <c r="O15" s="119" t="e">
+      <c r="O15" s="118" t="e">
         <f>Page3!O21</f>
         <v>#DIV/0!</v>
       </c>
@@ -9329,57 +9328,57 @@
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="116"/>
-      <c r="B16" s="117">
+      <c r="A16" s="268"/>
+      <c r="B16" s="116">
         <f>Page1!C21</f>
         <v>0</v>
       </c>
       <c r="C16" s="115"/>
-      <c r="D16" s="118">
+      <c r="D16" s="117">
         <f>Page1!L21</f>
         <v>0</v>
       </c>
-      <c r="E16" s="119" t="e">
+      <c r="E16" s="118" t="e">
         <f>Page4!G22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F16" s="119">
+      <c r="F16" s="118">
         <f>Page1!H21</f>
         <v>0</v>
       </c>
-      <c r="G16" s="120">
+      <c r="G16" s="119">
         <f>Page1!N21</f>
         <v>0</v>
       </c>
-      <c r="H16" s="120">
+      <c r="H16" s="119">
         <f>Page1!D21</f>
         <v>0</v>
       </c>
-      <c r="I16" s="118" t="e">
+      <c r="I16" s="117" t="e">
         <f>Page3!G22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J16" s="118" t="e">
+      <c r="J16" s="117" t="e">
         <f>Page2!G22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K16" s="119" t="e">
+      <c r="K16" s="118" t="e">
         <f>Page3!K22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L16" s="119" t="e">
+      <c r="L16" s="118" t="e">
         <f>Page2!K22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M16" s="119" t="e">
+      <c r="M16" s="118" t="e">
         <f>Page2!O22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N16" s="121">
+      <c r="N16" s="120">
         <f>Page1!F21</f>
         <v>0</v>
       </c>
-      <c r="O16" s="119" t="e">
+      <c r="O16" s="118" t="e">
         <f>Page3!O22</f>
         <v>#DIV/0!</v>
       </c>
@@ -9393,57 +9392,57 @@
       </c>
     </row>
     <row r="17" spans="1:17">
-      <c r="A17" s="116"/>
-      <c r="B17" s="117">
+      <c r="A17" s="268"/>
+      <c r="B17" s="116">
         <f>Page1!C22</f>
         <v>0</v>
       </c>
       <c r="C17" s="115"/>
-      <c r="D17" s="118">
+      <c r="D17" s="117">
         <f>Page1!L22</f>
         <v>0</v>
       </c>
-      <c r="E17" s="119" t="e">
+      <c r="E17" s="118" t="e">
         <f>Page4!G23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F17" s="119">
+      <c r="F17" s="118">
         <f>Page1!H22</f>
         <v>0</v>
       </c>
-      <c r="G17" s="120">
+      <c r="G17" s="119">
         <f>Page1!N22</f>
         <v>0</v>
       </c>
-      <c r="H17" s="120">
+      <c r="H17" s="119">
         <f>Page1!D22</f>
         <v>0</v>
       </c>
-      <c r="I17" s="118" t="e">
+      <c r="I17" s="117" t="e">
         <f>Page3!G23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J17" s="118" t="e">
+      <c r="J17" s="117" t="e">
         <f>Page2!G23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K17" s="119" t="e">
+      <c r="K17" s="118" t="e">
         <f>Page3!K23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L17" s="119" t="e">
+      <c r="L17" s="118" t="e">
         <f>Page2!K23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M17" s="119" t="e">
+      <c r="M17" s="118" t="e">
         <f>Page2!O23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N17" s="121">
+      <c r="N17" s="120">
         <f>Page1!F22</f>
         <v>0</v>
       </c>
-      <c r="O17" s="119" t="e">
+      <c r="O17" s="118" t="e">
         <f>Page3!O23</f>
         <v>#DIV/0!</v>
       </c>
@@ -9457,57 +9456,57 @@
       </c>
     </row>
     <row r="18" spans="1:17">
-      <c r="A18" s="116"/>
-      <c r="B18" s="117">
+      <c r="A18" s="268"/>
+      <c r="B18" s="116">
         <f>Page1!C23</f>
         <v>0</v>
       </c>
       <c r="C18" s="115"/>
-      <c r="D18" s="118">
+      <c r="D18" s="117">
         <f>Page1!L23</f>
         <v>0</v>
       </c>
-      <c r="E18" s="119" t="e">
+      <c r="E18" s="118" t="e">
         <f>Page4!G24</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F18" s="119">
+      <c r="F18" s="118">
         <f>Page1!H23</f>
         <v>0</v>
       </c>
-      <c r="G18" s="120">
+      <c r="G18" s="119">
         <f>Page1!N23</f>
         <v>0</v>
       </c>
-      <c r="H18" s="120">
+      <c r="H18" s="119">
         <f>Page1!D23</f>
         <v>0</v>
       </c>
-      <c r="I18" s="118" t="e">
+      <c r="I18" s="117" t="e">
         <f>Page3!G24</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J18" s="118" t="e">
+      <c r="J18" s="117" t="e">
         <f>Page2!G24</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K18" s="119" t="e">
+      <c r="K18" s="118" t="e">
         <f>Page3!K24</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L18" s="119" t="e">
+      <c r="L18" s="118" t="e">
         <f>Page2!K24</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M18" s="119" t="e">
+      <c r="M18" s="118" t="e">
         <f>Page2!O24</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N18" s="121">
+      <c r="N18" s="120">
         <f>Page1!F23</f>
         <v>0</v>
       </c>
-      <c r="O18" s="119" t="e">
+      <c r="O18" s="118" t="e">
         <f>Page3!O24</f>
         <v>#DIV/0!</v>
       </c>
@@ -9521,57 +9520,57 @@
       </c>
     </row>
     <row r="19" spans="1:17">
-      <c r="A19" s="116"/>
-      <c r="B19" s="117">
+      <c r="A19" s="268"/>
+      <c r="B19" s="116">
         <f>Page1!C24</f>
         <v>0</v>
       </c>
       <c r="C19" s="115"/>
-      <c r="D19" s="118">
+      <c r="D19" s="117">
         <f>Page1!L24</f>
         <v>0</v>
       </c>
-      <c r="E19" s="119" t="e">
+      <c r="E19" s="118" t="e">
         <f>Page4!G25</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F19" s="119">
+      <c r="F19" s="118">
         <f>Page1!H24</f>
         <v>0</v>
       </c>
-      <c r="G19" s="120">
+      <c r="G19" s="119">
         <f>Page1!N24</f>
         <v>0</v>
       </c>
-      <c r="H19" s="120">
+      <c r="H19" s="119">
         <f>Page1!D24</f>
         <v>0</v>
       </c>
-      <c r="I19" s="118" t="e">
+      <c r="I19" s="117" t="e">
         <f>Page3!G25</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J19" s="118" t="e">
+      <c r="J19" s="117" t="e">
         <f>Page2!G25</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K19" s="119" t="e">
+      <c r="K19" s="118" t="e">
         <f>Page3!K25</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L19" s="119" t="e">
+      <c r="L19" s="118" t="e">
         <f>Page2!K25</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M19" s="119" t="e">
+      <c r="M19" s="118" t="e">
         <f>Page2!O25</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N19" s="121">
+      <c r="N19" s="120">
         <f>Page1!F24</f>
         <v>0</v>
       </c>
-      <c r="O19" s="119" t="e">
+      <c r="O19" s="118" t="e">
         <f>Page3!O25</f>
         <v>#DIV/0!</v>
       </c>
@@ -9585,57 +9584,57 @@
       </c>
     </row>
     <row r="20" spans="1:17">
-      <c r="A20" s="116"/>
-      <c r="B20" s="117">
+      <c r="A20" s="268"/>
+      <c r="B20" s="116">
         <f>Page1!C25</f>
         <v>0</v>
       </c>
       <c r="C20" s="115"/>
-      <c r="D20" s="118">
+      <c r="D20" s="117">
         <f>Page1!L25</f>
         <v>0</v>
       </c>
-      <c r="E20" s="119" t="e">
+      <c r="E20" s="118" t="e">
         <f>Page4!G26</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F20" s="119">
+      <c r="F20" s="118">
         <f>Page1!H25</f>
         <v>0</v>
       </c>
-      <c r="G20" s="120">
+      <c r="G20" s="119">
         <f>Page1!N25</f>
         <v>0</v>
       </c>
-      <c r="H20" s="120">
+      <c r="H20" s="119">
         <f>Page1!D25</f>
         <v>0</v>
       </c>
-      <c r="I20" s="118" t="e">
+      <c r="I20" s="117" t="e">
         <f>Page3!G26</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J20" s="118" t="e">
+      <c r="J20" s="117" t="e">
         <f>Page2!G26</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K20" s="119" t="e">
+      <c r="K20" s="118" t="e">
         <f>Page3!K26</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L20" s="119" t="e">
+      <c r="L20" s="118" t="e">
         <f>Page2!K26</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M20" s="119" t="e">
+      <c r="M20" s="118" t="e">
         <f>Page2!O26</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N20" s="121">
+      <c r="N20" s="120">
         <f>Page1!F25</f>
         <v>0</v>
       </c>
-      <c r="O20" s="119" t="e">
+      <c r="O20" s="118" t="e">
         <f>Page3!O26</f>
         <v>#DIV/0!</v>
       </c>
@@ -9649,57 +9648,57 @@
       </c>
     </row>
     <row r="21" spans="1:17">
-      <c r="A21" s="116"/>
-      <c r="B21" s="117">
+      <c r="A21" s="268"/>
+      <c r="B21" s="116">
         <f>Page1!C26</f>
         <v>0</v>
       </c>
       <c r="C21" s="115"/>
-      <c r="D21" s="118">
+      <c r="D21" s="117">
         <f>Page1!L26</f>
         <v>0</v>
       </c>
-      <c r="E21" s="119" t="e">
+      <c r="E21" s="118" t="e">
         <f>Page4!G27</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F21" s="119">
+      <c r="F21" s="118">
         <f>Page1!H26</f>
         <v>0</v>
       </c>
-      <c r="G21" s="120">
+      <c r="G21" s="119">
         <f>Page1!N26</f>
         <v>0</v>
       </c>
-      <c r="H21" s="120">
+      <c r="H21" s="119">
         <f>Page1!D26</f>
         <v>0</v>
       </c>
-      <c r="I21" s="118" t="e">
+      <c r="I21" s="117" t="e">
         <f>Page3!G27</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J21" s="118" t="e">
+      <c r="J21" s="117" t="e">
         <f>Page2!G27</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K21" s="119" t="e">
+      <c r="K21" s="118" t="e">
         <f>Page3!K27</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L21" s="119" t="e">
+      <c r="L21" s="118" t="e">
         <f>Page2!K27</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M21" s="119" t="e">
+      <c r="M21" s="118" t="e">
         <f>Page2!O27</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N21" s="121">
+      <c r="N21" s="120">
         <f>Page1!F26</f>
         <v>0</v>
       </c>
-      <c r="O21" s="119" t="e">
+      <c r="O21" s="118" t="e">
         <f>Page3!O27</f>
         <v>#DIV/0!</v>
       </c>
@@ -9713,57 +9712,57 @@
       </c>
     </row>
     <row r="22" spans="1:17">
-      <c r="A22" s="116"/>
-      <c r="B22" s="117">
+      <c r="A22" s="268"/>
+      <c r="B22" s="116">
         <f>Page1!C27</f>
         <v>0</v>
       </c>
       <c r="C22" s="115"/>
-      <c r="D22" s="118">
+      <c r="D22" s="117">
         <f>Page1!L27</f>
         <v>0</v>
       </c>
-      <c r="E22" s="119" t="e">
+      <c r="E22" s="118" t="e">
         <f>Page4!G28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F22" s="119">
+      <c r="F22" s="118">
         <f>Page1!H27</f>
         <v>0</v>
       </c>
-      <c r="G22" s="120">
+      <c r="G22" s="119">
         <f>Page1!N27</f>
         <v>0</v>
       </c>
-      <c r="H22" s="120">
+      <c r="H22" s="119">
         <f>Page1!D27</f>
         <v>0</v>
       </c>
-      <c r="I22" s="118" t="e">
+      <c r="I22" s="117" t="e">
         <f>Page3!G28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J22" s="118" t="e">
+      <c r="J22" s="117" t="e">
         <f>Page2!G28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K22" s="119" t="e">
+      <c r="K22" s="118" t="e">
         <f>Page3!K28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L22" s="119" t="e">
+      <c r="L22" s="118" t="e">
         <f>Page2!K28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M22" s="119" t="e">
+      <c r="M22" s="118" t="e">
         <f>Page2!O28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N22" s="121">
+      <c r="N22" s="120">
         <f>Page1!F27</f>
         <v>0</v>
       </c>
-      <c r="O22" s="119" t="e">
+      <c r="O22" s="118" t="e">
         <f>Page3!O28</f>
         <v>#DIV/0!</v>
       </c>
@@ -9777,57 +9776,57 @@
       </c>
     </row>
     <row r="23" spans="1:17">
-      <c r="A23" s="116"/>
-      <c r="B23" s="117">
+      <c r="A23" s="268"/>
+      <c r="B23" s="116">
         <f>Page1!C28</f>
         <v>0</v>
       </c>
       <c r="C23" s="115"/>
-      <c r="D23" s="118">
+      <c r="D23" s="117">
         <f>Page1!L28</f>
         <v>0</v>
       </c>
-      <c r="E23" s="119" t="e">
+      <c r="E23" s="118" t="e">
         <f>Page4!G29</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F23" s="119">
+      <c r="F23" s="118">
         <f>Page1!H28</f>
         <v>0</v>
       </c>
-      <c r="G23" s="120">
+      <c r="G23" s="119">
         <f>Page1!N28</f>
         <v>0</v>
       </c>
-      <c r="H23" s="120">
+      <c r="H23" s="119">
         <f>Page1!D28</f>
         <v>0</v>
       </c>
-      <c r="I23" s="118" t="e">
+      <c r="I23" s="117" t="e">
         <f>Page3!G29</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J23" s="118" t="e">
+      <c r="J23" s="117" t="e">
         <f>Page2!G29</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K23" s="119" t="e">
+      <c r="K23" s="118" t="e">
         <f>Page3!K29</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L23" s="119" t="e">
+      <c r="L23" s="118" t="e">
         <f>Page2!K29</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M23" s="119" t="e">
+      <c r="M23" s="118" t="e">
         <f>Page2!O29</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N23" s="121">
+      <c r="N23" s="120">
         <f>Page1!F28</f>
         <v>0</v>
       </c>
-      <c r="O23" s="119" t="e">
+      <c r="O23" s="118" t="e">
         <f>Page3!O29</f>
         <v>#DIV/0!</v>
       </c>
@@ -9841,57 +9840,57 @@
       </c>
     </row>
     <row r="24" spans="1:17">
-      <c r="A24" s="116"/>
-      <c r="B24" s="117">
+      <c r="A24" s="268"/>
+      <c r="B24" s="116">
         <f>Page1!C29</f>
         <v>0</v>
       </c>
       <c r="C24" s="115"/>
-      <c r="D24" s="118">
+      <c r="D24" s="117">
         <f>Page1!L29</f>
         <v>0</v>
       </c>
-      <c r="E24" s="119" t="e">
+      <c r="E24" s="118" t="e">
         <f>Page4!G30</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F24" s="119">
+      <c r="F24" s="118">
         <f>Page1!H29</f>
         <v>0</v>
       </c>
-      <c r="G24" s="120">
+      <c r="G24" s="119">
         <f>Page1!N29</f>
         <v>0</v>
       </c>
-      <c r="H24" s="120">
+      <c r="H24" s="119">
         <f>Page1!D29</f>
         <v>0</v>
       </c>
-      <c r="I24" s="118" t="e">
+      <c r="I24" s="117" t="e">
         <f>Page3!G30</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J24" s="118" t="e">
+      <c r="J24" s="117" t="e">
         <f>Page2!G30</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K24" s="119" t="e">
+      <c r="K24" s="118" t="e">
         <f>Page3!K30</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L24" s="119" t="e">
+      <c r="L24" s="118" t="e">
         <f>Page2!K30</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M24" s="119" t="e">
+      <c r="M24" s="118" t="e">
         <f>Page2!O30</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N24" s="121">
+      <c r="N24" s="120">
         <f>Page1!F29</f>
         <v>0</v>
       </c>
-      <c r="O24" s="119" t="e">
+      <c r="O24" s="118" t="e">
         <f>Page3!O30</f>
         <v>#DIV/0!</v>
       </c>
@@ -9905,57 +9904,57 @@
       </c>
     </row>
     <row r="25" spans="1:17">
-      <c r="A25" s="116"/>
-      <c r="B25" s="117">
+      <c r="A25" s="268"/>
+      <c r="B25" s="116">
         <f>Page1!C30</f>
         <v>0</v>
       </c>
       <c r="C25" s="115"/>
-      <c r="D25" s="118">
+      <c r="D25" s="117">
         <f>Page1!L30</f>
         <v>0</v>
       </c>
-      <c r="E25" s="119" t="e">
+      <c r="E25" s="118" t="e">
         <f>Page4!G31</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F25" s="119">
+      <c r="F25" s="118">
         <f>Page1!H30</f>
         <v>0</v>
       </c>
-      <c r="G25" s="120">
+      <c r="G25" s="119">
         <f>Page1!N30</f>
         <v>0</v>
       </c>
-      <c r="H25" s="120">
+      <c r="H25" s="119">
         <f>Page1!D30</f>
         <v>0</v>
       </c>
-      <c r="I25" s="118" t="e">
+      <c r="I25" s="117" t="e">
         <f>Page3!G31</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J25" s="118" t="e">
+      <c r="J25" s="117" t="e">
         <f>Page2!G31</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K25" s="119" t="e">
+      <c r="K25" s="118" t="e">
         <f>Page3!K31</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L25" s="119" t="e">
+      <c r="L25" s="118" t="e">
         <f>Page2!K31</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M25" s="119" t="e">
+      <c r="M25" s="118" t="e">
         <f>Page2!O31</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N25" s="121">
+      <c r="N25" s="120">
         <f>Page1!F30</f>
         <v>0</v>
       </c>
-      <c r="O25" s="119" t="e">
+      <c r="O25" s="118" t="e">
         <f>Page3!O31</f>
         <v>#DIV/0!</v>
       </c>
@@ -9969,57 +9968,57 @@
       </c>
     </row>
     <row r="26" spans="1:17">
-      <c r="A26" s="116"/>
-      <c r="B26" s="117">
+      <c r="A26" s="268"/>
+      <c r="B26" s="116">
         <f>Page1!C31</f>
         <v>0</v>
       </c>
       <c r="C26" s="115"/>
-      <c r="D26" s="118">
+      <c r="D26" s="117">
         <f>Page1!L31</f>
         <v>0</v>
       </c>
-      <c r="E26" s="119" t="e">
+      <c r="E26" s="118" t="e">
         <f>Page4!G32</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F26" s="119">
+      <c r="F26" s="118">
         <f>Page1!H31</f>
         <v>0</v>
       </c>
-      <c r="G26" s="120">
+      <c r="G26" s="119">
         <f>Page1!N31</f>
         <v>0</v>
       </c>
-      <c r="H26" s="120">
+      <c r="H26" s="119">
         <f>Page1!D31</f>
         <v>0</v>
       </c>
-      <c r="I26" s="118" t="e">
+      <c r="I26" s="117" t="e">
         <f>Page3!G32</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J26" s="118" t="e">
+      <c r="J26" s="117" t="e">
         <f>Page2!G32</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K26" s="119" t="e">
+      <c r="K26" s="118" t="e">
         <f>Page3!K32</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L26" s="119" t="e">
+      <c r="L26" s="118" t="e">
         <f>Page2!K32</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M26" s="119" t="e">
+      <c r="M26" s="118" t="e">
         <f>Page2!O32</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N26" s="121">
+      <c r="N26" s="120">
         <f>Page1!F31</f>
         <v>0</v>
       </c>
-      <c r="O26" s="119" t="e">
+      <c r="O26" s="118" t="e">
         <f>Page3!O32</f>
         <v>#DIV/0!</v>
       </c>
@@ -10033,57 +10032,57 @@
       </c>
     </row>
     <row r="27" spans="1:17">
-      <c r="A27" s="116"/>
-      <c r="B27" s="117">
+      <c r="A27" s="268"/>
+      <c r="B27" s="116">
         <f>Page1!C32</f>
         <v>0</v>
       </c>
       <c r="C27" s="115"/>
-      <c r="D27" s="118">
+      <c r="D27" s="117">
         <f>Page1!L32</f>
         <v>0</v>
       </c>
-      <c r="E27" s="119" t="e">
+      <c r="E27" s="118" t="e">
         <f>Page4!G33</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F27" s="119">
+      <c r="F27" s="118">
         <f>Page1!H32</f>
         <v>0</v>
       </c>
-      <c r="G27" s="120">
+      <c r="G27" s="119">
         <f>Page1!N32</f>
         <v>0</v>
       </c>
-      <c r="H27" s="120">
+      <c r="H27" s="119">
         <f>Page1!D32</f>
         <v>0</v>
       </c>
-      <c r="I27" s="118" t="e">
+      <c r="I27" s="117" t="e">
         <f>Page3!G33</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J27" s="118" t="e">
+      <c r="J27" s="117" t="e">
         <f>Page2!G33</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K27" s="119" t="e">
+      <c r="K27" s="118" t="e">
         <f>Page3!K33</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L27" s="119" t="e">
+      <c r="L27" s="118" t="e">
         <f>Page2!K33</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M27" s="119" t="e">
+      <c r="M27" s="118" t="e">
         <f>Page2!O33</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N27" s="121">
+      <c r="N27" s="120">
         <f>Page1!F32</f>
         <v>0</v>
       </c>
-      <c r="O27" s="119" t="e">
+      <c r="O27" s="118" t="e">
         <f>Page3!O33</f>
         <v>#DIV/0!</v>
       </c>
@@ -10097,57 +10096,57 @@
       </c>
     </row>
     <row r="28" spans="1:17">
-      <c r="A28" s="116"/>
-      <c r="B28" s="117">
+      <c r="A28" s="268"/>
+      <c r="B28" s="116">
         <f>Page1!C33</f>
         <v>0</v>
       </c>
       <c r="C28" s="115"/>
-      <c r="D28" s="118">
+      <c r="D28" s="117">
         <f>Page1!L33</f>
         <v>0</v>
       </c>
-      <c r="E28" s="119" t="e">
+      <c r="E28" s="118" t="e">
         <f>Page4!G34</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F28" s="119">
+      <c r="F28" s="118">
         <f>Page1!H33</f>
         <v>0</v>
       </c>
-      <c r="G28" s="120">
+      <c r="G28" s="119">
         <f>Page1!N33</f>
         <v>0</v>
       </c>
-      <c r="H28" s="120">
+      <c r="H28" s="119">
         <f>Page1!D33</f>
         <v>0</v>
       </c>
-      <c r="I28" s="118" t="e">
+      <c r="I28" s="117" t="e">
         <f>Page3!G34</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J28" s="118" t="e">
+      <c r="J28" s="117" t="e">
         <f>Page2!G34</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K28" s="119" t="e">
+      <c r="K28" s="118" t="e">
         <f>Page3!K34</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L28" s="119" t="e">
+      <c r="L28" s="118" t="e">
         <f>Page2!K34</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M28" s="119" t="e">
+      <c r="M28" s="118" t="e">
         <f>Page2!O34</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N28" s="121">
+      <c r="N28" s="120">
         <f>Page1!F33</f>
         <v>0</v>
       </c>
-      <c r="O28" s="119" t="e">
+      <c r="O28" s="118" t="e">
         <f>Page3!O34</f>
         <v>#DIV/0!</v>
       </c>
@@ -10161,57 +10160,57 @@
       </c>
     </row>
     <row r="29" spans="1:17">
-      <c r="A29" s="116"/>
-      <c r="B29" s="117">
+      <c r="A29" s="268"/>
+      <c r="B29" s="116">
         <f>Page1!C34</f>
         <v>0</v>
       </c>
       <c r="C29" s="115"/>
-      <c r="D29" s="118">
+      <c r="D29" s="117">
         <f>Page1!L34</f>
         <v>0</v>
       </c>
-      <c r="E29" s="119" t="e">
+      <c r="E29" s="118" t="e">
         <f>Page4!G35</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F29" s="119">
+      <c r="F29" s="118">
         <f>Page1!H34</f>
         <v>0</v>
       </c>
-      <c r="G29" s="120">
+      <c r="G29" s="119">
         <f>Page1!N34</f>
         <v>0</v>
       </c>
-      <c r="H29" s="120">
+      <c r="H29" s="119">
         <f>Page1!D34</f>
         <v>0</v>
       </c>
-      <c r="I29" s="118" t="e">
+      <c r="I29" s="117" t="e">
         <f>Page3!G35</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J29" s="118" t="e">
+      <c r="J29" s="117" t="e">
         <f>Page2!G35</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K29" s="119" t="e">
+      <c r="K29" s="118" t="e">
         <f>Page3!K35</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L29" s="119" t="e">
+      <c r="L29" s="118" t="e">
         <f>Page2!K35</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M29" s="119" t="e">
+      <c r="M29" s="118" t="e">
         <f>Page2!O35</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N29" s="121">
+      <c r="N29" s="120">
         <f>Page1!F34</f>
         <v>0</v>
       </c>
-      <c r="O29" s="119" t="e">
+      <c r="O29" s="118" t="e">
         <f>Page3!O35</f>
         <v>#DIV/0!</v>
       </c>
@@ -10225,57 +10224,57 @@
       </c>
     </row>
     <row r="30" spans="1:17">
-      <c r="A30" s="116"/>
-      <c r="B30" s="117">
+      <c r="A30" s="268"/>
+      <c r="B30" s="116">
         <f>Page1!C35</f>
         <v>0</v>
       </c>
       <c r="C30" s="115"/>
-      <c r="D30" s="118">
+      <c r="D30" s="117">
         <f>Page1!L35</f>
         <v>0</v>
       </c>
-      <c r="E30" s="119" t="e">
+      <c r="E30" s="118" t="e">
         <f>Page4!G36</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F30" s="119">
+      <c r="F30" s="118">
         <f>Page1!H35</f>
         <v>0</v>
       </c>
-      <c r="G30" s="120">
+      <c r="G30" s="119">
         <f>Page1!N35</f>
         <v>0</v>
       </c>
-      <c r="H30" s="120">
+      <c r="H30" s="119">
         <f>Page1!D35</f>
         <v>0</v>
       </c>
-      <c r="I30" s="118" t="e">
+      <c r="I30" s="117" t="e">
         <f>Page3!G36</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J30" s="118" t="e">
+      <c r="J30" s="117" t="e">
         <f>Page2!G36</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K30" s="119" t="e">
+      <c r="K30" s="118" t="e">
         <f>Page3!K36</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L30" s="119" t="e">
+      <c r="L30" s="118" t="e">
         <f>Page2!K36</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M30" s="119" t="e">
+      <c r="M30" s="118" t="e">
         <f>Page2!O36</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N30" s="121">
+      <c r="N30" s="120">
         <f>Page1!F35</f>
         <v>0</v>
       </c>
-      <c r="O30" s="119" t="e">
+      <c r="O30" s="118" t="e">
         <f>Page3!O36</f>
         <v>#DIV/0!</v>
       </c>
@@ -10289,57 +10288,57 @@
       </c>
     </row>
     <row r="31" spans="1:17">
-      <c r="A31" s="116"/>
-      <c r="B31" s="117">
+      <c r="A31" s="268"/>
+      <c r="B31" s="116">
         <f>Page1!C36</f>
         <v>0</v>
       </c>
       <c r="C31" s="115"/>
-      <c r="D31" s="118">
+      <c r="D31" s="117">
         <f>Page1!L36</f>
         <v>0</v>
       </c>
-      <c r="E31" s="119" t="e">
+      <c r="E31" s="118" t="e">
         <f>Page4!G37</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F31" s="119">
+      <c r="F31" s="118">
         <f>Page1!H36</f>
         <v>0</v>
       </c>
-      <c r="G31" s="120">
+      <c r="G31" s="119">
         <f>Page1!N36</f>
         <v>0</v>
       </c>
-      <c r="H31" s="120">
+      <c r="H31" s="119">
         <f>Page1!D36</f>
         <v>0</v>
       </c>
-      <c r="I31" s="118" t="e">
+      <c r="I31" s="117" t="e">
         <f>Page3!G37</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J31" s="118" t="e">
+      <c r="J31" s="117" t="e">
         <f>Page2!G37</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K31" s="119" t="e">
+      <c r="K31" s="118" t="e">
         <f>Page3!K37</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L31" s="119" t="e">
+      <c r="L31" s="118" t="e">
         <f>Page2!K37</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M31" s="119" t="e">
+      <c r="M31" s="118" t="e">
         <f>Page2!O37</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N31" s="121">
+      <c r="N31" s="120">
         <f>Page1!F36</f>
         <v>0</v>
       </c>
-      <c r="O31" s="119" t="e">
+      <c r="O31" s="118" t="e">
         <f>Page3!O37</f>
         <v>#DIV/0!</v>
       </c>
@@ -10353,57 +10352,57 @@
       </c>
     </row>
     <row r="32" spans="1:17">
-      <c r="A32" s="116"/>
-      <c r="B32" s="117">
+      <c r="A32" s="268"/>
+      <c r="B32" s="116">
         <f>Page1!C37</f>
         <v>0</v>
       </c>
       <c r="C32" s="115"/>
-      <c r="D32" s="118">
+      <c r="D32" s="117">
         <f>Page1!L37</f>
         <v>0</v>
       </c>
-      <c r="E32" s="119" t="e">
+      <c r="E32" s="118" t="e">
         <f>Page4!G38</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F32" s="119">
+      <c r="F32" s="118">
         <f>Page1!H37</f>
         <v>0</v>
       </c>
-      <c r="G32" s="120">
+      <c r="G32" s="119">
         <f>Page1!N37</f>
         <v>0</v>
       </c>
-      <c r="H32" s="120">
+      <c r="H32" s="119">
         <f>Page1!D37</f>
         <v>0</v>
       </c>
-      <c r="I32" s="118" t="e">
+      <c r="I32" s="117" t="e">
         <f>Page3!G38</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J32" s="118" t="e">
+      <c r="J32" s="117" t="e">
         <f>Page2!G38</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K32" s="119" t="e">
+      <c r="K32" s="118" t="e">
         <f>Page3!K38</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L32" s="119" t="e">
+      <c r="L32" s="118" t="e">
         <f>Page2!K38</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M32" s="119" t="e">
+      <c r="M32" s="118" t="e">
         <f>Page2!O38</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N32" s="121">
+      <c r="N32" s="120">
         <f>Page1!F37</f>
         <v>0</v>
       </c>
-      <c r="O32" s="119" t="e">
+      <c r="O32" s="118" t="e">
         <f>Page3!O38</f>
         <v>#DIV/0!</v>
       </c>
@@ -10655,123 +10654,123 @@
       <c r="J3" s="103" t="s">
         <v>80</v>
       </c>
-      <c r="K3" s="123" cm="1">
+      <c r="K3" s="122" cm="1">
         <f t="array" ref="K3">INDEX(Page1!$L$8:$L$37, COLUMN(K3)-10)</f>
         <v>0</v>
       </c>
-      <c r="L3" s="123" cm="1">
+      <c r="L3" s="122" cm="1">
         <f t="array" ref="L3">INDEX(Page1!$L$8:$L$37, COLUMN(L3)-10)</f>
         <v>0</v>
       </c>
-      <c r="M3" s="123" cm="1">
+      <c r="M3" s="122" cm="1">
         <f t="array" ref="M3">INDEX(Page1!$L$8:$L$37, COLUMN(M3)-10)</f>
         <v>0</v>
       </c>
-      <c r="N3" s="123" cm="1">
+      <c r="N3" s="122" cm="1">
         <f t="array" ref="N3">INDEX(Page1!$L$8:$L$37, COLUMN(N3)-10)</f>
         <v>0</v>
       </c>
-      <c r="O3" s="123" cm="1">
+      <c r="O3" s="122" cm="1">
         <f t="array" ref="O3">INDEX(Page1!$L$8:$L$37, COLUMN(O3)-10)</f>
         <v>0</v>
       </c>
-      <c r="P3" s="123" cm="1">
+      <c r="P3" s="122" cm="1">
         <f t="array" ref="P3">INDEX(Page1!$L$8:$L$37, COLUMN(P3)-10)</f>
         <v>0</v>
       </c>
-      <c r="Q3" s="123" cm="1">
+      <c r="Q3" s="122" cm="1">
         <f t="array" ref="Q3">INDEX(Page1!$L$8:$L$37, COLUMN(Q3)-10)</f>
         <v>0</v>
       </c>
-      <c r="R3" s="123" cm="1">
+      <c r="R3" s="122" cm="1">
         <f t="array" ref="R3">INDEX(Page1!$L$8:$L$37, COLUMN(R3)-10)</f>
         <v>0</v>
       </c>
-      <c r="S3" s="123" cm="1">
+      <c r="S3" s="122" cm="1">
         <f t="array" ref="S3">INDEX(Page1!$L$8:$L$37, COLUMN(S3)-10)</f>
         <v>0</v>
       </c>
-      <c r="T3" s="123" cm="1">
+      <c r="T3" s="122" cm="1">
         <f t="array" ref="T3">INDEX(Page1!$L$8:$L$37, COLUMN(T3)-10)</f>
         <v>0</v>
       </c>
-      <c r="U3" s="123" cm="1">
+      <c r="U3" s="122" cm="1">
         <f t="array" ref="U3">INDEX(Page1!$L$8:$L$37, COLUMN(U3)-10)</f>
         <v>0</v>
       </c>
-      <c r="V3" s="123" cm="1">
+      <c r="V3" s="122" cm="1">
         <f t="array" ref="V3">INDEX(Page1!$L$8:$L$37, COLUMN(V3)-10)</f>
         <v>0</v>
       </c>
-      <c r="W3" s="123" cm="1">
+      <c r="W3" s="122" cm="1">
         <f t="array" ref="W3">INDEX(Page1!$L$8:$L$37, COLUMN(W3)-10)</f>
         <v>0</v>
       </c>
-      <c r="X3" s="123" cm="1">
+      <c r="X3" s="122" cm="1">
         <f t="array" ref="X3">INDEX(Page1!$L$8:$L$37, COLUMN(X3)-10)</f>
         <v>0</v>
       </c>
-      <c r="Y3" s="123" cm="1">
+      <c r="Y3" s="122" cm="1">
         <f t="array" ref="Y3">INDEX(Page1!$L$8:$L$37, COLUMN(Y3)-10)</f>
         <v>0</v>
       </c>
-      <c r="Z3" s="123" cm="1">
+      <c r="Z3" s="122" cm="1">
         <f t="array" ref="Z3">INDEX(Page1!$L$8:$L$37, COLUMN(Z3)-10)</f>
         <v>0</v>
       </c>
-      <c r="AA3" s="123" cm="1">
+      <c r="AA3" s="122" cm="1">
         <f t="array" ref="AA3">INDEX(Page1!$L$8:$L$37, COLUMN(AA3)-10)</f>
         <v>0</v>
       </c>
-      <c r="AB3" s="123" cm="1">
+      <c r="AB3" s="122" cm="1">
         <f t="array" ref="AB3">INDEX(Page1!$L$8:$L$37, COLUMN(AB3)-10)</f>
         <v>0</v>
       </c>
-      <c r="AC3" s="123" cm="1">
+      <c r="AC3" s="122" cm="1">
         <f t="array" ref="AC3">INDEX(Page1!$L$8:$L$37, COLUMN(AC3)-10)</f>
         <v>0</v>
       </c>
-      <c r="AD3" s="123" cm="1">
+      <c r="AD3" s="122" cm="1">
         <f t="array" ref="AD3">INDEX(Page1!$L$8:$L$37, COLUMN(AD3)-10)</f>
         <v>0</v>
       </c>
-      <c r="AE3" s="123" cm="1">
+      <c r="AE3" s="122" cm="1">
         <f t="array" ref="AE3">INDEX(Page1!$L$8:$L$37, COLUMN(AE3)-10)</f>
         <v>0</v>
       </c>
-      <c r="AF3" s="123" cm="1">
+      <c r="AF3" s="122" cm="1">
         <f t="array" ref="AF3">INDEX(Page1!$L$8:$L$37, COLUMN(AF3)-10)</f>
         <v>0</v>
       </c>
-      <c r="AG3" s="123" cm="1">
+      <c r="AG3" s="122" cm="1">
         <f t="array" ref="AG3">INDEX(Page1!$L$8:$L$37, COLUMN(AG3)-10)</f>
         <v>0</v>
       </c>
-      <c r="AH3" s="123" cm="1">
+      <c r="AH3" s="122" cm="1">
         <f t="array" ref="AH3">INDEX(Page1!$L$8:$L$37, COLUMN(AH3)-10)</f>
         <v>0</v>
       </c>
-      <c r="AI3" s="123" cm="1">
+      <c r="AI3" s="122" cm="1">
         <f t="array" ref="AI3">INDEX(Page1!$L$8:$L$37, COLUMN(AI3)-10)</f>
         <v>0</v>
       </c>
-      <c r="AJ3" s="123" cm="1">
+      <c r="AJ3" s="122" cm="1">
         <f t="array" ref="AJ3">INDEX(Page1!$L$8:$L$37, COLUMN(AJ3)-10)</f>
         <v>0</v>
       </c>
-      <c r="AK3" s="123" cm="1">
+      <c r="AK3" s="122" cm="1">
         <f t="array" ref="AK3">INDEX(Page1!$L$8:$L$37, COLUMN(AK3)-10)</f>
         <v>0</v>
       </c>
-      <c r="AL3" s="123" cm="1">
+      <c r="AL3" s="122" cm="1">
         <f t="array" ref="AL3">INDEX(Page1!$L$8:$L$37, COLUMN(AL3)-10)</f>
         <v>0</v>
       </c>
-      <c r="AM3" s="123" cm="1">
+      <c r="AM3" s="122" cm="1">
         <f t="array" ref="AM3">INDEX(Page1!$L$8:$L$37, COLUMN(AM3)-10)</f>
         <v>0</v>
       </c>
-      <c r="AN3" s="123" cm="1">
+      <c r="AN3" s="122" cm="1">
         <f t="array" ref="AN3">INDEX(Page1!$L$8:$L$37, COLUMN(AN3)-10)</f>
         <v>0</v>
       </c>
@@ -10829,127 +10828,127 @@
       <c r="J4" s="103" t="s">
         <v>80</v>
       </c>
-      <c r="K4" s="124" t="e" cm="1">
+      <c r="K4" s="123" t="e" cm="1">
         <f t="array" ref="K4">INDEX(Page4!$G$9:$G$38, COLUMN(K4)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L4" s="124" t="e" cm="1">
+      <c r="L4" s="123" t="e" cm="1">
         <f t="array" ref="L4">INDEX(Page4!$G$9:$G$38, COLUMN(L4)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M4" s="124" t="e" cm="1">
+      <c r="M4" s="123" t="e" cm="1">
         <f t="array" ref="M4">INDEX(Page4!$G$9:$G$38, COLUMN(M4)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N4" s="124" t="e" cm="1">
+      <c r="N4" s="123" t="e" cm="1">
         <f t="array" ref="N4">INDEX(Page4!$G$9:$G$38, COLUMN(N4)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O4" s="124" t="e" cm="1">
+      <c r="O4" s="123" t="e" cm="1">
         <f t="array" ref="O4">INDEX(Page4!$G$9:$G$38, COLUMN(O4)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P4" s="124" t="e" cm="1">
+      <c r="P4" s="123" t="e" cm="1">
         <f t="array" ref="P4">INDEX(Page4!$G$9:$G$38, COLUMN(P4)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q4" s="124" t="e" cm="1">
+      <c r="Q4" s="123" t="e" cm="1">
         <f t="array" ref="Q4">INDEX(Page4!$G$9:$G$38, COLUMN(Q4)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="R4" s="124" t="e" cm="1">
+      <c r="R4" s="123" t="e" cm="1">
         <f t="array" ref="R4">INDEX(Page4!$G$9:$G$38, COLUMN(R4)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="S4" s="124" t="e" cm="1">
+      <c r="S4" s="123" t="e" cm="1">
         <f t="array" ref="S4">INDEX(Page4!$G$9:$G$38, COLUMN(S4)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T4" s="124" t="e" cm="1">
+      <c r="T4" s="123" t="e" cm="1">
         <f t="array" ref="T4">INDEX(Page4!$G$9:$G$38, COLUMN(T4)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U4" s="124" t="e" cm="1">
+      <c r="U4" s="123" t="e" cm="1">
         <f t="array" ref="U4">INDEX(Page4!$G$9:$G$38, COLUMN(U4)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="V4" s="124" t="e" cm="1">
+      <c r="V4" s="123" t="e" cm="1">
         <f t="array" ref="V4">INDEX(Page4!$G$9:$G$38, COLUMN(V4)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="W4" s="124" t="e" cm="1">
+      <c r="W4" s="123" t="e" cm="1">
         <f t="array" ref="W4">INDEX(Page4!$G$9:$G$38, COLUMN(W4)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="X4" s="124" t="e" cm="1">
+      <c r="X4" s="123" t="e" cm="1">
         <f t="array" ref="X4">INDEX(Page4!$G$9:$G$38, COLUMN(X4)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Y4" s="124" t="e" cm="1">
+      <c r="Y4" s="123" t="e" cm="1">
         <f t="array" ref="Y4">INDEX(Page4!$G$9:$G$38, COLUMN(Y4)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Z4" s="124" t="e" cm="1">
+      <c r="Z4" s="123" t="e" cm="1">
         <f t="array" ref="Z4">INDEX(Page4!$G$9:$G$38, COLUMN(Z4)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA4" s="124" t="e" cm="1">
+      <c r="AA4" s="123" t="e" cm="1">
         <f t="array" ref="AA4">INDEX(Page4!$G$9:$G$38, COLUMN(AA4)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB4" s="124" t="e" cm="1">
+      <c r="AB4" s="123" t="e" cm="1">
         <f t="array" ref="AB4">INDEX(Page4!$G$9:$G$38, COLUMN(AB4)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC4" s="124" t="e" cm="1">
+      <c r="AC4" s="123" t="e" cm="1">
         <f t="array" ref="AC4">INDEX(Page4!$G$9:$G$38, COLUMN(AC4)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD4" s="124" t="e" cm="1">
+      <c r="AD4" s="123" t="e" cm="1">
         <f t="array" ref="AD4">INDEX(Page4!$G$9:$G$38, COLUMN(AD4)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE4" s="124" t="e" cm="1">
+      <c r="AE4" s="123" t="e" cm="1">
         <f t="array" ref="AE4">INDEX(Page4!$G$9:$G$38, COLUMN(AE4)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF4" s="124" t="e" cm="1">
+      <c r="AF4" s="123" t="e" cm="1">
         <f t="array" ref="AF4">INDEX(Page4!$G$9:$G$38, COLUMN(AF4)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG4" s="124" t="e" cm="1">
+      <c r="AG4" s="123" t="e" cm="1">
         <f t="array" ref="AG4">INDEX(Page4!$G$9:$G$38, COLUMN(AG4)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AH4" s="124" t="e" cm="1">
+      <c r="AH4" s="123" t="e" cm="1">
         <f t="array" ref="AH4">INDEX(Page4!$G$9:$G$38, COLUMN(AH4)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI4" s="124" t="e" cm="1">
+      <c r="AI4" s="123" t="e" cm="1">
         <f t="array" ref="AI4">INDEX(Page4!$G$9:$G$38, COLUMN(AI4)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AJ4" s="124" t="e" cm="1">
+      <c r="AJ4" s="123" t="e" cm="1">
         <f t="array" ref="AJ4">INDEX(Page4!$G$9:$G$38, COLUMN(AJ4)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AK4" s="124" t="e" cm="1">
+      <c r="AK4" s="123" t="e" cm="1">
         <f t="array" ref="AK4">INDEX(Page4!$G$9:$G$38, COLUMN(AK4)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AL4" s="124" t="e" cm="1">
+      <c r="AL4" s="123" t="e" cm="1">
         <f t="array" ref="AL4">INDEX(Page4!$G$9:$G$38, COLUMN(AL4)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AM4" s="124" t="e" cm="1">
+      <c r="AM4" s="123" t="e" cm="1">
         <f t="array" ref="AM4">INDEX(Page4!$G$9:$G$38, COLUMN(AM4)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AN4" s="124" t="e" cm="1">
+      <c r="AN4" s="123" t="e" cm="1">
         <f t="array" ref="AN4">INDEX(Page4!$G$9:$G$38, COLUMN(AN4)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AO4" s="127" t="e">
+      <c r="AO4" s="126" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -10961,11 +10960,11 @@
         <f>(I4-AO4)/(3*AP4)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AR4" s="128" t="e">
+      <c r="AR4" s="127" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AS4" s="128" t="e">
+      <c r="AS4" s="127" t="e">
         <f>MAX(K4:AN4)</f>
         <v>#DIV/0!</v>
       </c>
@@ -11005,127 +11004,127 @@
       <c r="J5" s="103" t="s">
         <v>80</v>
       </c>
-      <c r="K5" s="124" cm="1">
+      <c r="K5" s="123" cm="1">
         <f t="array" ref="K5">INDEX(Page1!$H$8:$H$37, COLUMN(K5)-10)</f>
         <v>0</v>
       </c>
-      <c r="L5" s="124" cm="1">
+      <c r="L5" s="123" cm="1">
         <f t="array" ref="L5">INDEX(Page1!$H$8:$H$37, COLUMN(L5)-10)</f>
         <v>0</v>
       </c>
-      <c r="M5" s="124" cm="1">
+      <c r="M5" s="123" cm="1">
         <f t="array" ref="M5">INDEX(Page1!$H$8:$H$37, COLUMN(M5)-10)</f>
         <v>0</v>
       </c>
-      <c r="N5" s="124" cm="1">
+      <c r="N5" s="123" cm="1">
         <f t="array" ref="N5">INDEX(Page1!$H$8:$H$37, COLUMN(N5)-10)</f>
         <v>0</v>
       </c>
-      <c r="O5" s="124" cm="1">
+      <c r="O5" s="123" cm="1">
         <f t="array" ref="O5">INDEX(Page1!$H$8:$H$37, COLUMN(O5)-10)</f>
         <v>0</v>
       </c>
-      <c r="P5" s="124" cm="1">
+      <c r="P5" s="123" cm="1">
         <f t="array" ref="P5">INDEX(Page1!$H$8:$H$37, COLUMN(P5)-10)</f>
         <v>0</v>
       </c>
-      <c r="Q5" s="124" cm="1">
+      <c r="Q5" s="123" cm="1">
         <f t="array" ref="Q5">INDEX(Page1!$H$8:$H$37, COLUMN(Q5)-10)</f>
         <v>0</v>
       </c>
-      <c r="R5" s="124" cm="1">
+      <c r="R5" s="123" cm="1">
         <f t="array" ref="R5">INDEX(Page1!$H$8:$H$37, COLUMN(R5)-10)</f>
         <v>0</v>
       </c>
-      <c r="S5" s="124" cm="1">
+      <c r="S5" s="123" cm="1">
         <f t="array" ref="S5">INDEX(Page1!$H$8:$H$37, COLUMN(S5)-10)</f>
         <v>0</v>
       </c>
-      <c r="T5" s="124" cm="1">
+      <c r="T5" s="123" cm="1">
         <f t="array" ref="T5">INDEX(Page1!$H$8:$H$37, COLUMN(T5)-10)</f>
         <v>0</v>
       </c>
-      <c r="U5" s="124" cm="1">
+      <c r="U5" s="123" cm="1">
         <f t="array" ref="U5">INDEX(Page1!$H$8:$H$37, COLUMN(U5)-10)</f>
         <v>0</v>
       </c>
-      <c r="V5" s="124" cm="1">
+      <c r="V5" s="123" cm="1">
         <f t="array" ref="V5">INDEX(Page1!$H$8:$H$37, COLUMN(V5)-10)</f>
         <v>0</v>
       </c>
-      <c r="W5" s="124" cm="1">
+      <c r="W5" s="123" cm="1">
         <f t="array" ref="W5">INDEX(Page1!$H$8:$H$37, COLUMN(W5)-10)</f>
         <v>0</v>
       </c>
-      <c r="X5" s="124" cm="1">
+      <c r="X5" s="123" cm="1">
         <f t="array" ref="X5">INDEX(Page1!$H$8:$H$37, COLUMN(X5)-10)</f>
         <v>0</v>
       </c>
-      <c r="Y5" s="124" cm="1">
+      <c r="Y5" s="123" cm="1">
         <f t="array" ref="Y5">INDEX(Page1!$H$8:$H$37, COLUMN(Y5)-10)</f>
         <v>0</v>
       </c>
-      <c r="Z5" s="124" cm="1">
+      <c r="Z5" s="123" cm="1">
         <f t="array" ref="Z5">INDEX(Page1!$H$8:$H$37, COLUMN(Z5)-10)</f>
         <v>0</v>
       </c>
-      <c r="AA5" s="124" cm="1">
+      <c r="AA5" s="123" cm="1">
         <f t="array" ref="AA5">INDEX(Page1!$H$8:$H$37, COLUMN(AA5)-10)</f>
         <v>0</v>
       </c>
-      <c r="AB5" s="124" cm="1">
+      <c r="AB5" s="123" cm="1">
         <f t="array" ref="AB5">INDEX(Page1!$H$8:$H$37, COLUMN(AB5)-10)</f>
         <v>0</v>
       </c>
-      <c r="AC5" s="124" cm="1">
+      <c r="AC5" s="123" cm="1">
         <f t="array" ref="AC5">INDEX(Page1!$H$8:$H$37, COLUMN(AC5)-10)</f>
         <v>0</v>
       </c>
-      <c r="AD5" s="124" cm="1">
+      <c r="AD5" s="123" cm="1">
         <f t="array" ref="AD5">INDEX(Page1!$H$8:$H$37, COLUMN(AD5)-10)</f>
         <v>0</v>
       </c>
-      <c r="AE5" s="124" cm="1">
+      <c r="AE5" s="123" cm="1">
         <f t="array" ref="AE5">INDEX(Page1!$H$8:$H$37, COLUMN(AE5)-10)</f>
         <v>0</v>
       </c>
-      <c r="AF5" s="124" cm="1">
+      <c r="AF5" s="123" cm="1">
         <f t="array" ref="AF5">INDEX(Page1!$H$8:$H$37, COLUMN(AF5)-10)</f>
         <v>0</v>
       </c>
-      <c r="AG5" s="124" cm="1">
+      <c r="AG5" s="123" cm="1">
         <f t="array" ref="AG5">INDEX(Page1!$H$8:$H$37, COLUMN(AG5)-10)</f>
         <v>0</v>
       </c>
-      <c r="AH5" s="124" cm="1">
+      <c r="AH5" s="123" cm="1">
         <f t="array" ref="AH5">INDEX(Page1!$H$8:$H$37, COLUMN(AH5)-10)</f>
         <v>0</v>
       </c>
-      <c r="AI5" s="124" cm="1">
+      <c r="AI5" s="123" cm="1">
         <f t="array" ref="AI5">INDEX(Page1!$H$8:$H$37, COLUMN(AI5)-10)</f>
         <v>0</v>
       </c>
-      <c r="AJ5" s="124" cm="1">
+      <c r="AJ5" s="123" cm="1">
         <f t="array" ref="AJ5">INDEX(Page1!$H$8:$H$37, COLUMN(AJ5)-10)</f>
         <v>0</v>
       </c>
-      <c r="AK5" s="124" cm="1">
+      <c r="AK5" s="123" cm="1">
         <f t="array" ref="AK5">INDEX(Page1!$H$8:$H$37, COLUMN(AK5)-10)</f>
         <v>0</v>
       </c>
-      <c r="AL5" s="124" cm="1">
+      <c r="AL5" s="123" cm="1">
         <f t="array" ref="AL5">INDEX(Page1!$H$8:$H$37, COLUMN(AL5)-10)</f>
         <v>0</v>
       </c>
-      <c r="AM5" s="124" cm="1">
+      <c r="AM5" s="123" cm="1">
         <f t="array" ref="AM5">INDEX(Page1!$H$8:$H$37, COLUMN(AM5)-10)</f>
         <v>0</v>
       </c>
-      <c r="AN5" s="124" cm="1">
+      <c r="AN5" s="123" cm="1">
         <f t="array" ref="AN5">INDEX(Page1!$H$8:$H$37, COLUMN(AN5)-10)</f>
         <v>0</v>
       </c>
-      <c r="AO5" s="127">
+      <c r="AO5" s="126">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -11137,11 +11136,11 @@
         <f>MIN((AO5-H5)/(3*AP5), (I5-AO5)/(3*AP5))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AR5" s="128">
+      <c r="AR5" s="127">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AS5" s="128">
+      <c r="AS5" s="127">
         <f>MAX(K5:AN5)</f>
         <v>0</v>
       </c>
@@ -11179,123 +11178,123 @@
       <c r="J6" s="103" t="s">
         <v>80</v>
       </c>
-      <c r="K6" s="125" cm="1">
+      <c r="K6" s="124" cm="1">
         <f t="array" ref="K6">INDEX(Page1!$N$8:$N$37, COLUMN(K6)-10)</f>
         <v>0</v>
       </c>
-      <c r="L6" s="125" cm="1">
+      <c r="L6" s="124" cm="1">
         <f t="array" ref="L6">INDEX(Page1!$N$8:$N$37, COLUMN(L6)-10)</f>
         <v>0</v>
       </c>
-      <c r="M6" s="125" cm="1">
+      <c r="M6" s="124" cm="1">
         <f t="array" ref="M6">INDEX(Page1!$N$8:$N$37, COLUMN(M6)-10)</f>
         <v>0</v>
       </c>
-      <c r="N6" s="125" cm="1">
+      <c r="N6" s="124" cm="1">
         <f t="array" ref="N6">INDEX(Page1!$N$8:$N$37, COLUMN(N6)-10)</f>
         <v>0</v>
       </c>
-      <c r="O6" s="125" cm="1">
+      <c r="O6" s="124" cm="1">
         <f t="array" ref="O6">INDEX(Page1!$N$8:$N$37, COLUMN(O6)-10)</f>
         <v>0</v>
       </c>
-      <c r="P6" s="125" cm="1">
+      <c r="P6" s="124" cm="1">
         <f t="array" ref="P6">INDEX(Page1!$N$8:$N$37, COLUMN(P6)-10)</f>
         <v>0</v>
       </c>
-      <c r="Q6" s="125" cm="1">
+      <c r="Q6" s="124" cm="1">
         <f t="array" ref="Q6">INDEX(Page1!$N$8:$N$37, COLUMN(Q6)-10)</f>
         <v>0</v>
       </c>
-      <c r="R6" s="125" cm="1">
+      <c r="R6" s="124" cm="1">
         <f t="array" ref="R6">INDEX(Page1!$N$8:$N$37, COLUMN(R6)-10)</f>
         <v>0</v>
       </c>
-      <c r="S6" s="125" cm="1">
+      <c r="S6" s="124" cm="1">
         <f t="array" ref="S6">INDEX(Page1!$N$8:$N$37, COLUMN(S6)-10)</f>
         <v>0</v>
       </c>
-      <c r="T6" s="125" cm="1">
+      <c r="T6" s="124" cm="1">
         <f t="array" ref="T6">INDEX(Page1!$N$8:$N$37, COLUMN(T6)-10)</f>
         <v>0</v>
       </c>
-      <c r="U6" s="125" cm="1">
+      <c r="U6" s="124" cm="1">
         <f t="array" ref="U6">INDEX(Page1!$N$8:$N$37, COLUMN(U6)-10)</f>
         <v>0</v>
       </c>
-      <c r="V6" s="125" cm="1">
+      <c r="V6" s="124" cm="1">
         <f t="array" ref="V6">INDEX(Page1!$N$8:$N$37, COLUMN(V6)-10)</f>
         <v>0</v>
       </c>
-      <c r="W6" s="125" cm="1">
+      <c r="W6" s="124" cm="1">
         <f t="array" ref="W6">INDEX(Page1!$N$8:$N$37, COLUMN(W6)-10)</f>
         <v>0</v>
       </c>
-      <c r="X6" s="125" cm="1">
+      <c r="X6" s="124" cm="1">
         <f t="array" ref="X6">INDEX(Page1!$N$8:$N$37, COLUMN(X6)-10)</f>
         <v>0</v>
       </c>
-      <c r="Y6" s="125" cm="1">
+      <c r="Y6" s="124" cm="1">
         <f t="array" ref="Y6">INDEX(Page1!$N$8:$N$37, COLUMN(Y6)-10)</f>
         <v>0</v>
       </c>
-      <c r="Z6" s="125" cm="1">
+      <c r="Z6" s="124" cm="1">
         <f t="array" ref="Z6">INDEX(Page1!$N$8:$N$37, COLUMN(Z6)-10)</f>
         <v>0</v>
       </c>
-      <c r="AA6" s="125" cm="1">
+      <c r="AA6" s="124" cm="1">
         <f t="array" ref="AA6">INDEX(Page1!$N$8:$N$37, COLUMN(AA6)-10)</f>
         <v>0</v>
       </c>
-      <c r="AB6" s="125" cm="1">
+      <c r="AB6" s="124" cm="1">
         <f t="array" ref="AB6">INDEX(Page1!$N$8:$N$37, COLUMN(AB6)-10)</f>
         <v>0</v>
       </c>
-      <c r="AC6" s="125" cm="1">
+      <c r="AC6" s="124" cm="1">
         <f t="array" ref="AC6">INDEX(Page1!$N$8:$N$37, COLUMN(AC6)-10)</f>
         <v>0</v>
       </c>
-      <c r="AD6" s="125" cm="1">
+      <c r="AD6" s="124" cm="1">
         <f t="array" ref="AD6">INDEX(Page1!$N$8:$N$37, COLUMN(AD6)-10)</f>
         <v>0</v>
       </c>
-      <c r="AE6" s="125" cm="1">
+      <c r="AE6" s="124" cm="1">
         <f t="array" ref="AE6">INDEX(Page1!$N$8:$N$37, COLUMN(AE6)-10)</f>
         <v>0</v>
       </c>
-      <c r="AF6" s="125" cm="1">
+      <c r="AF6" s="124" cm="1">
         <f t="array" ref="AF6">INDEX(Page1!$N$8:$N$37, COLUMN(AF6)-10)</f>
         <v>0</v>
       </c>
-      <c r="AG6" s="125" cm="1">
+      <c r="AG6" s="124" cm="1">
         <f t="array" ref="AG6">INDEX(Page1!$N$8:$N$37, COLUMN(AG6)-10)</f>
         <v>0</v>
       </c>
-      <c r="AH6" s="125" cm="1">
+      <c r="AH6" s="124" cm="1">
         <f t="array" ref="AH6">INDEX(Page1!$N$8:$N$37, COLUMN(AH6)-10)</f>
         <v>0</v>
       </c>
-      <c r="AI6" s="125" cm="1">
+      <c r="AI6" s="124" cm="1">
         <f t="array" ref="AI6">INDEX(Page1!$N$8:$N$37, COLUMN(AI6)-10)</f>
         <v>0</v>
       </c>
-      <c r="AJ6" s="125" cm="1">
+      <c r="AJ6" s="124" cm="1">
         <f t="array" ref="AJ6">INDEX(Page1!$N$8:$N$37, COLUMN(AJ6)-10)</f>
         <v>0</v>
       </c>
-      <c r="AK6" s="125" cm="1">
+      <c r="AK6" s="124" cm="1">
         <f t="array" ref="AK6">INDEX(Page1!$N$8:$N$37, COLUMN(AK6)-10)</f>
         <v>0</v>
       </c>
-      <c r="AL6" s="125" cm="1">
+      <c r="AL6" s="124" cm="1">
         <f t="array" ref="AL6">INDEX(Page1!$N$8:$N$37, COLUMN(AL6)-10)</f>
         <v>0</v>
       </c>
-      <c r="AM6" s="125" cm="1">
+      <c r="AM6" s="124" cm="1">
         <f t="array" ref="AM6">INDEX(Page1!$N$8:$N$37, COLUMN(AM6)-10)</f>
         <v>0</v>
       </c>
-      <c r="AN6" s="125" cm="1">
+      <c r="AN6" s="124" cm="1">
         <f t="array" ref="AN6">INDEX(Page1!$N$8:$N$37, COLUMN(AN6)-10)</f>
         <v>0</v>
       </c>
@@ -11355,123 +11354,123 @@
       <c r="J7" s="103" t="s">
         <v>54</v>
       </c>
-      <c r="K7" s="125" cm="1">
+      <c r="K7" s="124" cm="1">
         <f t="array" ref="K7">INDEX(Page1!$D$8:$D$37, COLUMN(K7)-10)</f>
         <v>0</v>
       </c>
-      <c r="L7" s="125" cm="1">
+      <c r="L7" s="124" cm="1">
         <f t="array" ref="L7">INDEX(Page1!$D$8:$D$37, COLUMN(L7)-10)</f>
         <v>0</v>
       </c>
-      <c r="M7" s="125" cm="1">
+      <c r="M7" s="124" cm="1">
         <f t="array" ref="M7">INDEX(Page1!$D$8:$D$37, COLUMN(M7)-10)</f>
         <v>0</v>
       </c>
-      <c r="N7" s="125" cm="1">
+      <c r="N7" s="124" cm="1">
         <f t="array" ref="N7">INDEX(Page1!$D$8:$D$37, COLUMN(N7)-10)</f>
         <v>0</v>
       </c>
-      <c r="O7" s="125" cm="1">
+      <c r="O7" s="124" cm="1">
         <f t="array" ref="O7">INDEX(Page1!$D$8:$D$37, COLUMN(O7)-10)</f>
         <v>0</v>
       </c>
-      <c r="P7" s="125" cm="1">
+      <c r="P7" s="124" cm="1">
         <f t="array" ref="P7">INDEX(Page1!$D$8:$D$37, COLUMN(P7)-10)</f>
         <v>0</v>
       </c>
-      <c r="Q7" s="125" cm="1">
+      <c r="Q7" s="124" cm="1">
         <f t="array" ref="Q7">INDEX(Page1!$D$8:$D$37, COLUMN(Q7)-10)</f>
         <v>0</v>
       </c>
-      <c r="R7" s="125" cm="1">
+      <c r="R7" s="124" cm="1">
         <f t="array" ref="R7">INDEX(Page1!$D$8:$D$37, COLUMN(R7)-10)</f>
         <v>0</v>
       </c>
-      <c r="S7" s="125" cm="1">
+      <c r="S7" s="124" cm="1">
         <f t="array" ref="S7">INDEX(Page1!$D$8:$D$37, COLUMN(S7)-10)</f>
         <v>0</v>
       </c>
-      <c r="T7" s="125" cm="1">
+      <c r="T7" s="124" cm="1">
         <f t="array" ref="T7">INDEX(Page1!$D$8:$D$37, COLUMN(T7)-10)</f>
         <v>0</v>
       </c>
-      <c r="U7" s="125" cm="1">
+      <c r="U7" s="124" cm="1">
         <f t="array" ref="U7">INDEX(Page1!$D$8:$D$37, COLUMN(U7)-10)</f>
         <v>0</v>
       </c>
-      <c r="V7" s="125" cm="1">
+      <c r="V7" s="124" cm="1">
         <f t="array" ref="V7">INDEX(Page1!$D$8:$D$37, COLUMN(V7)-10)</f>
         <v>0</v>
       </c>
-      <c r="W7" s="125" cm="1">
+      <c r="W7" s="124" cm="1">
         <f t="array" ref="W7">INDEX(Page1!$D$8:$D$37, COLUMN(W7)-10)</f>
         <v>0</v>
       </c>
-      <c r="X7" s="125" cm="1">
+      <c r="X7" s="124" cm="1">
         <f t="array" ref="X7">INDEX(Page1!$D$8:$D$37, COLUMN(X7)-10)</f>
         <v>0</v>
       </c>
-      <c r="Y7" s="125" cm="1">
+      <c r="Y7" s="124" cm="1">
         <f t="array" ref="Y7">INDEX(Page1!$D$8:$D$37, COLUMN(Y7)-10)</f>
         <v>0</v>
       </c>
-      <c r="Z7" s="125" cm="1">
+      <c r="Z7" s="124" cm="1">
         <f t="array" ref="Z7">INDEX(Page1!$D$8:$D$37, COLUMN(Z7)-10)</f>
         <v>0</v>
       </c>
-      <c r="AA7" s="125" cm="1">
+      <c r="AA7" s="124" cm="1">
         <f t="array" ref="AA7">INDEX(Page1!$D$8:$D$37, COLUMN(AA7)-10)</f>
         <v>0</v>
       </c>
-      <c r="AB7" s="125" cm="1">
+      <c r="AB7" s="124" cm="1">
         <f t="array" ref="AB7">INDEX(Page1!$D$8:$D$37, COLUMN(AB7)-10)</f>
         <v>0</v>
       </c>
-      <c r="AC7" s="125" cm="1">
+      <c r="AC7" s="124" cm="1">
         <f t="array" ref="AC7">INDEX(Page1!$D$8:$D$37, COLUMN(AC7)-10)</f>
         <v>0</v>
       </c>
-      <c r="AD7" s="125" cm="1">
+      <c r="AD7" s="124" cm="1">
         <f t="array" ref="AD7">INDEX(Page1!$D$8:$D$37, COLUMN(AD7)-10)</f>
         <v>0</v>
       </c>
-      <c r="AE7" s="125" cm="1">
+      <c r="AE7" s="124" cm="1">
         <f t="array" ref="AE7">INDEX(Page1!$D$8:$D$37, COLUMN(AE7)-10)</f>
         <v>0</v>
       </c>
-      <c r="AF7" s="125" cm="1">
+      <c r="AF7" s="124" cm="1">
         <f t="array" ref="AF7">INDEX(Page1!$D$8:$D$37, COLUMN(AF7)-10)</f>
         <v>0</v>
       </c>
-      <c r="AG7" s="125" cm="1">
+      <c r="AG7" s="124" cm="1">
         <f t="array" ref="AG7">INDEX(Page1!$D$8:$D$37, COLUMN(AG7)-10)</f>
         <v>0</v>
       </c>
-      <c r="AH7" s="125" cm="1">
+      <c r="AH7" s="124" cm="1">
         <f t="array" ref="AH7">INDEX(Page1!$D$8:$D$37, COLUMN(AH7)-10)</f>
         <v>0</v>
       </c>
-      <c r="AI7" s="125" cm="1">
+      <c r="AI7" s="124" cm="1">
         <f t="array" ref="AI7">INDEX(Page1!$D$8:$D$37, COLUMN(AI7)-10)</f>
         <v>0</v>
       </c>
-      <c r="AJ7" s="125" cm="1">
+      <c r="AJ7" s="124" cm="1">
         <f t="array" ref="AJ7">INDEX(Page1!$D$8:$D$37, COLUMN(AJ7)-10)</f>
         <v>0</v>
       </c>
-      <c r="AK7" s="125" cm="1">
+      <c r="AK7" s="124" cm="1">
         <f t="array" ref="AK7">INDEX(Page1!$D$8:$D$37, COLUMN(AK7)-10)</f>
         <v>0</v>
       </c>
-      <c r="AL7" s="125" cm="1">
+      <c r="AL7" s="124" cm="1">
         <f t="array" ref="AL7">INDEX(Page1!$D$8:$D$37, COLUMN(AL7)-10)</f>
         <v>0</v>
       </c>
-      <c r="AM7" s="125" cm="1">
+      <c r="AM7" s="124" cm="1">
         <f t="array" ref="AM7">INDEX(Page1!$D$8:$D$37, COLUMN(AM7)-10)</f>
         <v>0</v>
       </c>
-      <c r="AN7" s="125" cm="1">
+      <c r="AN7" s="124" cm="1">
         <f t="array" ref="AN7">INDEX(Page1!$D$8:$D$37, COLUMN(AN7)-10)</f>
         <v>0</v>
       </c>
@@ -11531,123 +11530,123 @@
       <c r="J8" s="103" t="s">
         <v>54</v>
       </c>
-      <c r="K8" s="123" t="e" cm="1">
+      <c r="K8" s="122" t="e" cm="1">
         <f t="array" ref="K8">INDEX(Page3!$G$9:$G$38, COLUMN(K8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L8" s="123" t="e" cm="1">
+      <c r="L8" s="122" t="e" cm="1">
         <f t="array" ref="L8">INDEX(Page3!$G$9:$G$38, COLUMN(L8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M8" s="123" t="e" cm="1">
+      <c r="M8" s="122" t="e" cm="1">
         <f t="array" ref="M8">INDEX(Page3!$G$9:$G$38, COLUMN(M8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N8" s="123" t="e" cm="1">
+      <c r="N8" s="122" t="e" cm="1">
         <f t="array" ref="N8">INDEX(Page3!$G$9:$G$38, COLUMN(N8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O8" s="123" t="e" cm="1">
+      <c r="O8" s="122" t="e" cm="1">
         <f t="array" ref="O8">INDEX(Page3!$G$9:$G$38, COLUMN(O8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P8" s="123" t="e" cm="1">
+      <c r="P8" s="122" t="e" cm="1">
         <f t="array" ref="P8">INDEX(Page3!$G$9:$G$38, COLUMN(P8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q8" s="123" t="e" cm="1">
+      <c r="Q8" s="122" t="e" cm="1">
         <f t="array" ref="Q8">INDEX(Page3!$G$9:$G$38, COLUMN(Q8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="R8" s="123" t="e" cm="1">
+      <c r="R8" s="122" t="e" cm="1">
         <f t="array" ref="R8">INDEX(Page3!$G$9:$G$38, COLUMN(R8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="S8" s="123" t="e" cm="1">
+      <c r="S8" s="122" t="e" cm="1">
         <f t="array" ref="S8">INDEX(Page3!$G$9:$G$38, COLUMN(S8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T8" s="123" t="e" cm="1">
+      <c r="T8" s="122" t="e" cm="1">
         <f t="array" ref="T8">INDEX(Page3!$G$9:$G$38, COLUMN(T8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U8" s="123" t="e" cm="1">
+      <c r="U8" s="122" t="e" cm="1">
         <f t="array" ref="U8">INDEX(Page3!$G$9:$G$38, COLUMN(U8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="V8" s="123" t="e" cm="1">
+      <c r="V8" s="122" t="e" cm="1">
         <f t="array" ref="V8">INDEX(Page3!$G$9:$G$38, COLUMN(V8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="W8" s="123" t="e" cm="1">
+      <c r="W8" s="122" t="e" cm="1">
         <f t="array" ref="W8">INDEX(Page3!$G$9:$G$38, COLUMN(W8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="X8" s="123" t="e" cm="1">
+      <c r="X8" s="122" t="e" cm="1">
         <f t="array" ref="X8">INDEX(Page3!$G$9:$G$38, COLUMN(X8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Y8" s="123" t="e" cm="1">
+      <c r="Y8" s="122" t="e" cm="1">
         <f t="array" ref="Y8">INDEX(Page3!$G$9:$G$38, COLUMN(Y8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Z8" s="123" t="e" cm="1">
+      <c r="Z8" s="122" t="e" cm="1">
         <f t="array" ref="Z8">INDEX(Page3!$G$9:$G$38, COLUMN(Z8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA8" s="123" t="e" cm="1">
+      <c r="AA8" s="122" t="e" cm="1">
         <f t="array" ref="AA8">INDEX(Page3!$G$9:$G$38, COLUMN(AA8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB8" s="123" t="e" cm="1">
+      <c r="AB8" s="122" t="e" cm="1">
         <f t="array" ref="AB8">INDEX(Page3!$G$9:$G$38, COLUMN(AB8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC8" s="123" t="e" cm="1">
+      <c r="AC8" s="122" t="e" cm="1">
         <f t="array" ref="AC8">INDEX(Page3!$G$9:$G$38, COLUMN(AC8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD8" s="123" t="e" cm="1">
+      <c r="AD8" s="122" t="e" cm="1">
         <f t="array" ref="AD8">INDEX(Page3!$G$9:$G$38, COLUMN(AD8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE8" s="123" t="e" cm="1">
+      <c r="AE8" s="122" t="e" cm="1">
         <f t="array" ref="AE8">INDEX(Page3!$G$9:$G$38, COLUMN(AE8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF8" s="123" t="e" cm="1">
+      <c r="AF8" s="122" t="e" cm="1">
         <f t="array" ref="AF8">INDEX(Page3!$G$9:$G$38, COLUMN(AF8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG8" s="123" t="e" cm="1">
+      <c r="AG8" s="122" t="e" cm="1">
         <f t="array" ref="AG8">INDEX(Page3!$G$9:$G$38, COLUMN(AG8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AH8" s="123" t="e" cm="1">
+      <c r="AH8" s="122" t="e" cm="1">
         <f t="array" ref="AH8">INDEX(Page3!$G$9:$G$38, COLUMN(AH8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI8" s="123" t="e" cm="1">
+      <c r="AI8" s="122" t="e" cm="1">
         <f t="array" ref="AI8">INDEX(Page3!$G$9:$G$38, COLUMN(AI8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AJ8" s="123" t="e" cm="1">
+      <c r="AJ8" s="122" t="e" cm="1">
         <f t="array" ref="AJ8">INDEX(Page3!$G$9:$G$38, COLUMN(AJ8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AK8" s="123" t="e" cm="1">
+      <c r="AK8" s="122" t="e" cm="1">
         <f t="array" ref="AK8">INDEX(Page3!$G$9:$G$38, COLUMN(AK8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AL8" s="123" t="e" cm="1">
+      <c r="AL8" s="122" t="e" cm="1">
         <f t="array" ref="AL8">INDEX(Page3!$G$9:$G$38, COLUMN(AL8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AM8" s="123" t="e" cm="1">
+      <c r="AM8" s="122" t="e" cm="1">
         <f t="array" ref="AM8">INDEX(Page3!$G$9:$G$38, COLUMN(AM8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AN8" s="123" t="e" cm="1">
+      <c r="AN8" s="122" t="e" cm="1">
         <f t="array" ref="AN8">INDEX(Page3!$G$9:$G$38, COLUMN(AN8)-10)</f>
         <v>#DIV/0!</v>
       </c>
@@ -11707,123 +11706,123 @@
       <c r="J9" s="103" t="s">
         <v>54</v>
       </c>
-      <c r="K9" s="123" t="e" cm="1">
+      <c r="K9" s="122" t="e" cm="1">
         <f t="array" ref="K9">INDEX(Page2!$G$9:$G$38, COLUMN(K9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L9" s="123" t="e" cm="1">
+      <c r="L9" s="122" t="e" cm="1">
         <f t="array" ref="L9">INDEX(Page2!$G$9:$G$38, COLUMN(L9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M9" s="123" t="e" cm="1">
+      <c r="M9" s="122" t="e" cm="1">
         <f t="array" ref="M9">INDEX(Page2!$G$9:$G$38, COLUMN(M9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N9" s="123" t="e" cm="1">
+      <c r="N9" s="122" t="e" cm="1">
         <f t="array" ref="N9">INDEX(Page2!$G$9:$G$38, COLUMN(N9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O9" s="123" t="e" cm="1">
+      <c r="O9" s="122" t="e" cm="1">
         <f t="array" ref="O9">INDEX(Page2!$G$9:$G$38, COLUMN(O9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P9" s="123" t="e" cm="1">
+      <c r="P9" s="122" t="e" cm="1">
         <f t="array" ref="P9">INDEX(Page2!$G$9:$G$38, COLUMN(P9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q9" s="123" t="e" cm="1">
+      <c r="Q9" s="122" t="e" cm="1">
         <f t="array" ref="Q9">INDEX(Page2!$G$9:$G$38, COLUMN(Q9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="R9" s="123" t="e" cm="1">
+      <c r="R9" s="122" t="e" cm="1">
         <f t="array" ref="R9">INDEX(Page2!$G$9:$G$38, COLUMN(R9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="S9" s="123" t="e" cm="1">
+      <c r="S9" s="122" t="e" cm="1">
         <f t="array" ref="S9">INDEX(Page2!$G$9:$G$38, COLUMN(S9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T9" s="123" t="e" cm="1">
+      <c r="T9" s="122" t="e" cm="1">
         <f t="array" ref="T9">INDEX(Page2!$G$9:$G$38, COLUMN(T9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U9" s="123" t="e" cm="1">
+      <c r="U9" s="122" t="e" cm="1">
         <f t="array" ref="U9">INDEX(Page2!$G$9:$G$38, COLUMN(U9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="V9" s="123" t="e" cm="1">
+      <c r="V9" s="122" t="e" cm="1">
         <f t="array" ref="V9">INDEX(Page2!$G$9:$G$38, COLUMN(V9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="W9" s="123" t="e" cm="1">
+      <c r="W9" s="122" t="e" cm="1">
         <f t="array" ref="W9">INDEX(Page2!$G$9:$G$38, COLUMN(W9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="X9" s="123" t="e" cm="1">
+      <c r="X9" s="122" t="e" cm="1">
         <f t="array" ref="X9">INDEX(Page2!$G$9:$G$38, COLUMN(X9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Y9" s="123" t="e" cm="1">
+      <c r="Y9" s="122" t="e" cm="1">
         <f t="array" ref="Y9">INDEX(Page2!$G$9:$G$38, COLUMN(Y9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Z9" s="123" t="e" cm="1">
+      <c r="Z9" s="122" t="e" cm="1">
         <f t="array" ref="Z9">INDEX(Page2!$G$9:$G$38, COLUMN(Z9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA9" s="123" t="e" cm="1">
+      <c r="AA9" s="122" t="e" cm="1">
         <f t="array" ref="AA9">INDEX(Page2!$G$9:$G$38, COLUMN(AA9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB9" s="123" t="e" cm="1">
+      <c r="AB9" s="122" t="e" cm="1">
         <f t="array" ref="AB9">INDEX(Page2!$G$9:$G$38, COLUMN(AB9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC9" s="123" t="e" cm="1">
+      <c r="AC9" s="122" t="e" cm="1">
         <f t="array" ref="AC9">INDEX(Page2!$G$9:$G$38, COLUMN(AC9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD9" s="123" t="e" cm="1">
+      <c r="AD9" s="122" t="e" cm="1">
         <f t="array" ref="AD9">INDEX(Page2!$G$9:$G$38, COLUMN(AD9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE9" s="123" t="e" cm="1">
+      <c r="AE9" s="122" t="e" cm="1">
         <f t="array" ref="AE9">INDEX(Page2!$G$9:$G$38, COLUMN(AE9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF9" s="123" t="e" cm="1">
+      <c r="AF9" s="122" t="e" cm="1">
         <f t="array" ref="AF9">INDEX(Page2!$G$9:$G$38, COLUMN(AF9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG9" s="123" t="e" cm="1">
+      <c r="AG9" s="122" t="e" cm="1">
         <f t="array" ref="AG9">INDEX(Page2!$G$9:$G$38, COLUMN(AG9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AH9" s="123" t="e" cm="1">
+      <c r="AH9" s="122" t="e" cm="1">
         <f t="array" ref="AH9">INDEX(Page2!$G$9:$G$38, COLUMN(AH9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI9" s="123" t="e" cm="1">
+      <c r="AI9" s="122" t="e" cm="1">
         <f t="array" ref="AI9">INDEX(Page2!$G$9:$G$38, COLUMN(AI9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AJ9" s="123" t="e" cm="1">
+      <c r="AJ9" s="122" t="e" cm="1">
         <f t="array" ref="AJ9">INDEX(Page2!$G$9:$G$38, COLUMN(AJ9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AK9" s="123" t="e" cm="1">
+      <c r="AK9" s="122" t="e" cm="1">
         <f t="array" ref="AK9">INDEX(Page2!$G$9:$G$38, COLUMN(AK9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AL9" s="123" t="e" cm="1">
+      <c r="AL9" s="122" t="e" cm="1">
         <f t="array" ref="AL9">INDEX(Page2!$G$9:$G$38, COLUMN(AL9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AM9" s="123" t="e" cm="1">
+      <c r="AM9" s="122" t="e" cm="1">
         <f t="array" ref="AM9">INDEX(Page2!$G$9:$G$38, COLUMN(AM9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AN9" s="123" t="e" cm="1">
+      <c r="AN9" s="122" t="e" cm="1">
         <f t="array" ref="AN9">INDEX(Page2!$G$9:$G$38, COLUMN(AN9)-10)</f>
         <v>#DIV/0!</v>
       </c>
@@ -11883,127 +11882,127 @@
       <c r="J10" s="103" t="s">
         <v>54</v>
       </c>
-      <c r="K10" s="124" t="e" cm="1">
+      <c r="K10" s="123" t="e" cm="1">
         <f t="array" ref="K10">INDEX(Page2!$K$9:$K$38, COLUMN(K10)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L10" s="124" t="e" cm="1">
+      <c r="L10" s="123" t="e" cm="1">
         <f t="array" ref="L10">INDEX(Page2!$K$9:$K$38, COLUMN(L10)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M10" s="124" t="e" cm="1">
+      <c r="M10" s="123" t="e" cm="1">
         <f t="array" ref="M10">INDEX(Page2!$K$9:$K$38, COLUMN(M10)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N10" s="124" t="e" cm="1">
+      <c r="N10" s="123" t="e" cm="1">
         <f t="array" ref="N10">INDEX(Page2!$K$9:$K$38, COLUMN(N10)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O10" s="124" t="e" cm="1">
+      <c r="O10" s="123" t="e" cm="1">
         <f t="array" ref="O10">INDEX(Page2!$K$9:$K$38, COLUMN(O10)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P10" s="124" t="e" cm="1">
+      <c r="P10" s="123" t="e" cm="1">
         <f t="array" ref="P10">INDEX(Page2!$K$9:$K$38, COLUMN(P10)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q10" s="124" t="e" cm="1">
+      <c r="Q10" s="123" t="e" cm="1">
         <f t="array" ref="Q10">INDEX(Page2!$K$9:$K$38, COLUMN(Q10)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="R10" s="124" t="e" cm="1">
+      <c r="R10" s="123" t="e" cm="1">
         <f t="array" ref="R10">INDEX(Page2!$K$9:$K$38, COLUMN(R10)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="S10" s="124" t="e" cm="1">
+      <c r="S10" s="123" t="e" cm="1">
         <f t="array" ref="S10">INDEX(Page2!$K$9:$K$38, COLUMN(S10)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T10" s="124" t="e" cm="1">
+      <c r="T10" s="123" t="e" cm="1">
         <f t="array" ref="T10">INDEX(Page2!$K$9:$K$38, COLUMN(T10)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U10" s="124" t="e" cm="1">
+      <c r="U10" s="123" t="e" cm="1">
         <f t="array" ref="U10">INDEX(Page2!$K$9:$K$38, COLUMN(U10)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="V10" s="124" t="e" cm="1">
+      <c r="V10" s="123" t="e" cm="1">
         <f t="array" ref="V10">INDEX(Page2!$K$9:$K$38, COLUMN(V10)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="W10" s="124" t="e" cm="1">
+      <c r="W10" s="123" t="e" cm="1">
         <f t="array" ref="W10">INDEX(Page2!$K$9:$K$38, COLUMN(W10)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="X10" s="124" t="e" cm="1">
+      <c r="X10" s="123" t="e" cm="1">
         <f t="array" ref="X10">INDEX(Page2!$K$9:$K$38, COLUMN(X10)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Y10" s="124" t="e" cm="1">
+      <c r="Y10" s="123" t="e" cm="1">
         <f t="array" ref="Y10">INDEX(Page2!$K$9:$K$38, COLUMN(Y10)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Z10" s="124" t="e" cm="1">
+      <c r="Z10" s="123" t="e" cm="1">
         <f t="array" ref="Z10">INDEX(Page2!$K$9:$K$38, COLUMN(Z10)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA10" s="124" t="e" cm="1">
+      <c r="AA10" s="123" t="e" cm="1">
         <f t="array" ref="AA10">INDEX(Page2!$K$9:$K$38, COLUMN(AA10)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB10" s="124" t="e" cm="1">
+      <c r="AB10" s="123" t="e" cm="1">
         <f t="array" ref="AB10">INDEX(Page2!$K$9:$K$38, COLUMN(AB10)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC10" s="124" t="e" cm="1">
+      <c r="AC10" s="123" t="e" cm="1">
         <f t="array" ref="AC10">INDEX(Page2!$K$9:$K$38, COLUMN(AC10)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD10" s="124" t="e" cm="1">
+      <c r="AD10" s="123" t="e" cm="1">
         <f t="array" ref="AD10">INDEX(Page2!$K$9:$K$38, COLUMN(AD10)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE10" s="124" t="e" cm="1">
+      <c r="AE10" s="123" t="e" cm="1">
         <f t="array" ref="AE10">INDEX(Page2!$K$9:$K$38, COLUMN(AE10)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF10" s="124" t="e" cm="1">
+      <c r="AF10" s="123" t="e" cm="1">
         <f t="array" ref="AF10">INDEX(Page2!$K$9:$K$38, COLUMN(AF10)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG10" s="124" t="e" cm="1">
+      <c r="AG10" s="123" t="e" cm="1">
         <f t="array" ref="AG10">INDEX(Page2!$K$9:$K$38, COLUMN(AG10)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AH10" s="124" t="e" cm="1">
+      <c r="AH10" s="123" t="e" cm="1">
         <f t="array" ref="AH10">INDEX(Page2!$K$9:$K$38, COLUMN(AH10)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI10" s="124" t="e" cm="1">
+      <c r="AI10" s="123" t="e" cm="1">
         <f t="array" ref="AI10">INDEX(Page2!$K$9:$K$38, COLUMN(AI10)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AJ10" s="124" t="e" cm="1">
+      <c r="AJ10" s="123" t="e" cm="1">
         <f t="array" ref="AJ10">INDEX(Page2!$K$9:$K$38, COLUMN(AJ10)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AK10" s="124" t="e" cm="1">
+      <c r="AK10" s="123" t="e" cm="1">
         <f t="array" ref="AK10">INDEX(Page2!$K$9:$K$38, COLUMN(AK10)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AL10" s="124" t="e" cm="1">
+      <c r="AL10" s="123" t="e" cm="1">
         <f t="array" ref="AL10">INDEX(Page2!$K$9:$K$38, COLUMN(AL10)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AM10" s="124" t="e" cm="1">
+      <c r="AM10" s="123" t="e" cm="1">
         <f t="array" ref="AM10">INDEX(Page2!$K$9:$K$38, COLUMN(AM10)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AN10" s="124" t="e" cm="1">
+      <c r="AN10" s="123" t="e" cm="1">
         <f t="array" ref="AN10">INDEX(Page2!$K$9:$K$38, COLUMN(AN10)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AO10" s="127" t="e">
+      <c r="AO10" s="126" t="e">
         <f t="shared" ref="AO10:AO16" si="5">AVERAGE(K10:AN10)</f>
         <v>#DIV/0!</v>
       </c>
@@ -12015,11 +12014,11 @@
         <f>(AO10-H10)/(3*AP10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AR10" s="128" t="e">
+      <c r="AR10" s="127" t="e">
         <f t="shared" ref="AR10" si="6">MIN(K10:AN10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AS10" s="128" t="e">
+      <c r="AS10" s="127" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
@@ -12059,127 +12058,127 @@
       <c r="J11" s="103" t="s">
         <v>54</v>
       </c>
-      <c r="K11" s="124" t="e" cm="1">
+      <c r="K11" s="123" t="e" cm="1">
         <f t="array" ref="K11">INDEX(Page3!$K$9:$K$38, COLUMN(K11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L11" s="124" t="e" cm="1">
+      <c r="L11" s="123" t="e" cm="1">
         <f t="array" ref="L11">INDEX(Page3!$K$9:$K$38, COLUMN(L11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M11" s="124" t="e" cm="1">
+      <c r="M11" s="123" t="e" cm="1">
         <f t="array" ref="M11">INDEX(Page3!$K$9:$K$38, COLUMN(M11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N11" s="124" t="e" cm="1">
+      <c r="N11" s="123" t="e" cm="1">
         <f t="array" ref="N11">INDEX(Page3!$K$9:$K$38, COLUMN(N11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O11" s="124" t="e" cm="1">
+      <c r="O11" s="123" t="e" cm="1">
         <f t="array" ref="O11">INDEX(Page3!$K$9:$K$38, COLUMN(O11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P11" s="124" t="e" cm="1">
+      <c r="P11" s="123" t="e" cm="1">
         <f t="array" ref="P11">INDEX(Page3!$K$9:$K$38, COLUMN(P11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q11" s="124" t="e" cm="1">
+      <c r="Q11" s="123" t="e" cm="1">
         <f t="array" ref="Q11">INDEX(Page3!$K$9:$K$38, COLUMN(Q11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="R11" s="124" t="e" cm="1">
+      <c r="R11" s="123" t="e" cm="1">
         <f t="array" ref="R11">INDEX(Page3!$K$9:$K$38, COLUMN(R11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="S11" s="124" t="e" cm="1">
+      <c r="S11" s="123" t="e" cm="1">
         <f t="array" ref="S11">INDEX(Page3!$K$9:$K$38, COLUMN(S11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T11" s="124" t="e" cm="1">
+      <c r="T11" s="123" t="e" cm="1">
         <f t="array" ref="T11">INDEX(Page3!$K$9:$K$38, COLUMN(T11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U11" s="124" t="e" cm="1">
+      <c r="U11" s="123" t="e" cm="1">
         <f t="array" ref="U11">INDEX(Page3!$K$9:$K$38, COLUMN(U11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="V11" s="124" t="e" cm="1">
+      <c r="V11" s="123" t="e" cm="1">
         <f t="array" ref="V11">INDEX(Page3!$K$9:$K$38, COLUMN(V11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="W11" s="124" t="e" cm="1">
+      <c r="W11" s="123" t="e" cm="1">
         <f t="array" ref="W11">INDEX(Page3!$K$9:$K$38, COLUMN(W11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="X11" s="124" t="e" cm="1">
+      <c r="X11" s="123" t="e" cm="1">
         <f t="array" ref="X11">INDEX(Page3!$K$9:$K$38, COLUMN(X11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Y11" s="124" t="e" cm="1">
+      <c r="Y11" s="123" t="e" cm="1">
         <f t="array" ref="Y11">INDEX(Page3!$K$9:$K$38, COLUMN(Y11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Z11" s="124" t="e" cm="1">
+      <c r="Z11" s="123" t="e" cm="1">
         <f t="array" ref="Z11">INDEX(Page3!$K$9:$K$38, COLUMN(Z11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA11" s="124" t="e" cm="1">
+      <c r="AA11" s="123" t="e" cm="1">
         <f t="array" ref="AA11">INDEX(Page3!$K$9:$K$38, COLUMN(AA11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB11" s="124" t="e" cm="1">
+      <c r="AB11" s="123" t="e" cm="1">
         <f t="array" ref="AB11">INDEX(Page3!$K$9:$K$38, COLUMN(AB11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC11" s="124" t="e" cm="1">
+      <c r="AC11" s="123" t="e" cm="1">
         <f t="array" ref="AC11">INDEX(Page3!$K$9:$K$38, COLUMN(AC11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD11" s="124" t="e" cm="1">
+      <c r="AD11" s="123" t="e" cm="1">
         <f t="array" ref="AD11">INDEX(Page3!$K$9:$K$38, COLUMN(AD11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE11" s="124" t="e" cm="1">
+      <c r="AE11" s="123" t="e" cm="1">
         <f t="array" ref="AE11">INDEX(Page3!$K$9:$K$38, COLUMN(AE11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF11" s="124" t="e" cm="1">
+      <c r="AF11" s="123" t="e" cm="1">
         <f t="array" ref="AF11">INDEX(Page3!$K$9:$K$38, COLUMN(AF11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG11" s="124" t="e" cm="1">
+      <c r="AG11" s="123" t="e" cm="1">
         <f t="array" ref="AG11">INDEX(Page3!$K$9:$K$38, COLUMN(AG11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AH11" s="124" t="e" cm="1">
+      <c r="AH11" s="123" t="e" cm="1">
         <f t="array" ref="AH11">INDEX(Page3!$K$9:$K$38, COLUMN(AH11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI11" s="124" t="e" cm="1">
+      <c r="AI11" s="123" t="e" cm="1">
         <f t="array" ref="AI11">INDEX(Page3!$K$9:$K$38, COLUMN(AI11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AJ11" s="124" t="e" cm="1">
+      <c r="AJ11" s="123" t="e" cm="1">
         <f t="array" ref="AJ11">INDEX(Page3!$K$9:$K$38, COLUMN(AJ11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AK11" s="124" t="e" cm="1">
+      <c r="AK11" s="123" t="e" cm="1">
         <f t="array" ref="AK11">INDEX(Page3!$K$9:$K$38, COLUMN(AK11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AL11" s="124" t="e" cm="1">
+      <c r="AL11" s="123" t="e" cm="1">
         <f t="array" ref="AL11">INDEX(Page3!$K$9:$K$38, COLUMN(AL11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AM11" s="124" t="e" cm="1">
+      <c r="AM11" s="123" t="e" cm="1">
         <f t="array" ref="AM11">INDEX(Page3!$K$9:$K$38, COLUMN(AM11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AN11" s="124" t="e" cm="1">
+      <c r="AN11" s="123" t="e" cm="1">
         <f t="array" ref="AN11">INDEX(Page3!$K$9:$K$38, COLUMN(AN11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AO11" s="127" t="e">
+      <c r="AO11" s="126" t="e">
         <f>AVERAGE(K11:AN11)</f>
         <v>#DIV/0!</v>
       </c>
@@ -12191,11 +12190,11 @@
         <f>(AO11-H11)/(3*AP11)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AR11" s="128" t="e">
+      <c r="AR11" s="127" t="e">
         <f>MIN(K11:AN11)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AS11" s="128" t="e">
+      <c r="AS11" s="127" t="e">
         <f>MAX(K11:AN11)</f>
         <v>#DIV/0!</v>
       </c>
@@ -12235,127 +12234,127 @@
       <c r="J12" s="103" t="s">
         <v>54</v>
       </c>
-      <c r="K12" s="124" t="e" cm="1">
+      <c r="K12" s="123" t="e" cm="1">
         <f t="array" ref="K12">INDEX(Page2!$O$9:$O$38, COLUMN(K12)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L12" s="124" t="e" cm="1">
+      <c r="L12" s="123" t="e" cm="1">
         <f t="array" ref="L12">INDEX(Page2!$O$9:$O$38, COLUMN(L12)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M12" s="124" t="e" cm="1">
+      <c r="M12" s="123" t="e" cm="1">
         <f t="array" ref="M12">INDEX(Page2!$O$9:$O$38, COLUMN(M12)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N12" s="124" t="e" cm="1">
+      <c r="N12" s="123" t="e" cm="1">
         <f t="array" ref="N12">INDEX(Page2!$O$9:$O$38, COLUMN(N12)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O12" s="124" t="e" cm="1">
+      <c r="O12" s="123" t="e" cm="1">
         <f t="array" ref="O12">INDEX(Page2!$O$9:$O$38, COLUMN(O12)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P12" s="124" t="e" cm="1">
+      <c r="P12" s="123" t="e" cm="1">
         <f t="array" ref="P12">INDEX(Page2!$O$9:$O$38, COLUMN(P12)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q12" s="124" t="e" cm="1">
+      <c r="Q12" s="123" t="e" cm="1">
         <f t="array" ref="Q12">INDEX(Page2!$O$9:$O$38, COLUMN(Q12)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="R12" s="124" t="e" cm="1">
+      <c r="R12" s="123" t="e" cm="1">
         <f t="array" ref="R12">INDEX(Page2!$O$9:$O$38, COLUMN(R12)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="S12" s="124" t="e" cm="1">
+      <c r="S12" s="123" t="e" cm="1">
         <f t="array" ref="S12">INDEX(Page2!$O$9:$O$38, COLUMN(S12)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T12" s="124" t="e" cm="1">
+      <c r="T12" s="123" t="e" cm="1">
         <f t="array" ref="T12">INDEX(Page2!$O$9:$O$38, COLUMN(T12)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U12" s="124" t="e" cm="1">
+      <c r="U12" s="123" t="e" cm="1">
         <f t="array" ref="U12">INDEX(Page2!$O$9:$O$38, COLUMN(U12)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="V12" s="124" t="e" cm="1">
+      <c r="V12" s="123" t="e" cm="1">
         <f t="array" ref="V12">INDEX(Page2!$O$9:$O$38, COLUMN(V12)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="W12" s="124" t="e" cm="1">
+      <c r="W12" s="123" t="e" cm="1">
         <f t="array" ref="W12">INDEX(Page2!$O$9:$O$38, COLUMN(W12)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="X12" s="124" t="e" cm="1">
+      <c r="X12" s="123" t="e" cm="1">
         <f t="array" ref="X12">INDEX(Page2!$O$9:$O$38, COLUMN(X12)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Y12" s="124" t="e" cm="1">
+      <c r="Y12" s="123" t="e" cm="1">
         <f t="array" ref="Y12">INDEX(Page2!$O$9:$O$38, COLUMN(Y12)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Z12" s="124" t="e" cm="1">
+      <c r="Z12" s="123" t="e" cm="1">
         <f t="array" ref="Z12">INDEX(Page2!$O$9:$O$38, COLUMN(Z12)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA12" s="124" t="e" cm="1">
+      <c r="AA12" s="123" t="e" cm="1">
         <f t="array" ref="AA12">INDEX(Page2!$O$9:$O$38, COLUMN(AA12)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB12" s="124" t="e" cm="1">
+      <c r="AB12" s="123" t="e" cm="1">
         <f t="array" ref="AB12">INDEX(Page2!$O$9:$O$38, COLUMN(AB12)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC12" s="124" t="e" cm="1">
+      <c r="AC12" s="123" t="e" cm="1">
         <f t="array" ref="AC12">INDEX(Page2!$O$9:$O$38, COLUMN(AC12)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD12" s="124" t="e" cm="1">
+      <c r="AD12" s="123" t="e" cm="1">
         <f t="array" ref="AD12">INDEX(Page2!$O$9:$O$38, COLUMN(AD12)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE12" s="124" t="e" cm="1">
+      <c r="AE12" s="123" t="e" cm="1">
         <f t="array" ref="AE12">INDEX(Page2!$O$9:$O$38, COLUMN(AE12)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF12" s="124" t="e" cm="1">
+      <c r="AF12" s="123" t="e" cm="1">
         <f t="array" ref="AF12">INDEX(Page2!$O$9:$O$38, COLUMN(AF12)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG12" s="124" t="e" cm="1">
+      <c r="AG12" s="123" t="e" cm="1">
         <f t="array" ref="AG12">INDEX(Page2!$O$9:$O$38, COLUMN(AG12)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AH12" s="124" t="e" cm="1">
+      <c r="AH12" s="123" t="e" cm="1">
         <f t="array" ref="AH12">INDEX(Page2!$O$9:$O$38, COLUMN(AH12)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI12" s="124" t="e" cm="1">
+      <c r="AI12" s="123" t="e" cm="1">
         <f t="array" ref="AI12">INDEX(Page2!$O$9:$O$38, COLUMN(AI12)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AJ12" s="124" t="e" cm="1">
+      <c r="AJ12" s="123" t="e" cm="1">
         <f t="array" ref="AJ12">INDEX(Page2!$O$9:$O$38, COLUMN(AJ12)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AK12" s="124" t="e" cm="1">
+      <c r="AK12" s="123" t="e" cm="1">
         <f t="array" ref="AK12">INDEX(Page2!$O$9:$O$38, COLUMN(AK12)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AL12" s="124" t="e" cm="1">
+      <c r="AL12" s="123" t="e" cm="1">
         <f t="array" ref="AL12">INDEX(Page2!$O$9:$O$38, COLUMN(AL12)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AM12" s="124" t="e" cm="1">
+      <c r="AM12" s="123" t="e" cm="1">
         <f t="array" ref="AM12">INDEX(Page2!$O$9:$O$38, COLUMN(AM12)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AN12" s="124" t="e" cm="1">
+      <c r="AN12" s="123" t="e" cm="1">
         <f t="array" ref="AN12">INDEX(Page2!$O$9:$O$38, COLUMN(AN12)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AO12" s="127" t="e">
+      <c r="AO12" s="126" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
@@ -12367,11 +12366,11 @@
         <f>MIN((AO12-H12)/(3*AP12), (I12-AO12)/(3*AP12))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AR12" s="128" t="e">
+      <c r="AR12" s="127" t="e">
         <f t="shared" ref="AR12:AR16" si="7">MIN(K12:AN12)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AS12" s="128" t="e">
+      <c r="AS12" s="127" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
@@ -12411,127 +12410,127 @@
       <c r="J13" s="113" t="s">
         <v>80</v>
       </c>
-      <c r="K13" s="126" cm="1">
+      <c r="K13" s="125" cm="1">
         <f t="array" ref="K13">INDEX(Page1!$F$8:$F$37, COLUMN(K13)-10)</f>
         <v>0</v>
       </c>
-      <c r="L13" s="126" cm="1">
+      <c r="L13" s="125" cm="1">
         <f t="array" ref="L13">INDEX(Page1!$F$8:$F$37, COLUMN(L13)-10)</f>
         <v>0</v>
       </c>
-      <c r="M13" s="126" cm="1">
+      <c r="M13" s="125" cm="1">
         <f t="array" ref="M13">INDEX(Page1!$F$8:$F$37, COLUMN(M13)-10)</f>
         <v>0</v>
       </c>
-      <c r="N13" s="126" cm="1">
+      <c r="N13" s="125" cm="1">
         <f t="array" ref="N13">INDEX(Page1!$F$8:$F$37, COLUMN(N13)-10)</f>
         <v>0</v>
       </c>
-      <c r="O13" s="126" cm="1">
+      <c r="O13" s="125" cm="1">
         <f t="array" ref="O13">INDEX(Page1!$F$8:$F$37, COLUMN(O13)-10)</f>
         <v>0</v>
       </c>
-      <c r="P13" s="126" cm="1">
+      <c r="P13" s="125" cm="1">
         <f t="array" ref="P13">INDEX(Page1!$F$8:$F$37, COLUMN(P13)-10)</f>
         <v>0</v>
       </c>
-      <c r="Q13" s="126" cm="1">
+      <c r="Q13" s="125" cm="1">
         <f t="array" ref="Q13">INDEX(Page1!$F$8:$F$37, COLUMN(Q13)-10)</f>
         <v>0</v>
       </c>
-      <c r="R13" s="126" cm="1">
+      <c r="R13" s="125" cm="1">
         <f t="array" ref="R13">INDEX(Page1!$F$8:$F$37, COLUMN(R13)-10)</f>
         <v>0</v>
       </c>
-      <c r="S13" s="126" cm="1">
+      <c r="S13" s="125" cm="1">
         <f t="array" ref="S13">INDEX(Page1!$F$8:$F$37, COLUMN(S13)-10)</f>
         <v>0</v>
       </c>
-      <c r="T13" s="126" cm="1">
+      <c r="T13" s="125" cm="1">
         <f t="array" ref="T13">INDEX(Page1!$F$8:$F$37, COLUMN(T13)-10)</f>
         <v>0</v>
       </c>
-      <c r="U13" s="126" cm="1">
+      <c r="U13" s="125" cm="1">
         <f t="array" ref="U13">INDEX(Page1!$F$8:$F$37, COLUMN(U13)-10)</f>
         <v>0</v>
       </c>
-      <c r="V13" s="126" cm="1">
+      <c r="V13" s="125" cm="1">
         <f t="array" ref="V13">INDEX(Page1!$F$8:$F$37, COLUMN(V13)-10)</f>
         <v>0</v>
       </c>
-      <c r="W13" s="126" cm="1">
+      <c r="W13" s="125" cm="1">
         <f t="array" ref="W13">INDEX(Page1!$F$8:$F$37, COLUMN(W13)-10)</f>
         <v>0</v>
       </c>
-      <c r="X13" s="126" cm="1">
+      <c r="X13" s="125" cm="1">
         <f t="array" ref="X13">INDEX(Page1!$F$8:$F$37, COLUMN(X13)-10)</f>
         <v>0</v>
       </c>
-      <c r="Y13" s="126" cm="1">
+      <c r="Y13" s="125" cm="1">
         <f t="array" ref="Y13">INDEX(Page1!$F$8:$F$37, COLUMN(Y13)-10)</f>
         <v>0</v>
       </c>
-      <c r="Z13" s="126" cm="1">
+      <c r="Z13" s="125" cm="1">
         <f t="array" ref="Z13">INDEX(Page1!$F$8:$F$37, COLUMN(Z13)-10)</f>
         <v>0</v>
       </c>
-      <c r="AA13" s="126" cm="1">
+      <c r="AA13" s="125" cm="1">
         <f t="array" ref="AA13">INDEX(Page1!$F$8:$F$37, COLUMN(AA13)-10)</f>
         <v>0</v>
       </c>
-      <c r="AB13" s="126" cm="1">
+      <c r="AB13" s="125" cm="1">
         <f t="array" ref="AB13">INDEX(Page1!$F$8:$F$37, COLUMN(AB13)-10)</f>
         <v>0</v>
       </c>
-      <c r="AC13" s="126" cm="1">
+      <c r="AC13" s="125" cm="1">
         <f t="array" ref="AC13">INDEX(Page1!$F$8:$F$37, COLUMN(AC13)-10)</f>
         <v>0</v>
       </c>
-      <c r="AD13" s="126" cm="1">
+      <c r="AD13" s="125" cm="1">
         <f t="array" ref="AD13">INDEX(Page1!$F$8:$F$37, COLUMN(AD13)-10)</f>
         <v>0</v>
       </c>
-      <c r="AE13" s="126" cm="1">
+      <c r="AE13" s="125" cm="1">
         <f t="array" ref="AE13">INDEX(Page1!$F$8:$F$37, COLUMN(AE13)-10)</f>
         <v>0</v>
       </c>
-      <c r="AF13" s="126" cm="1">
+      <c r="AF13" s="125" cm="1">
         <f t="array" ref="AF13">INDEX(Page1!$F$8:$F$37, COLUMN(AF13)-10)</f>
         <v>0</v>
       </c>
-      <c r="AG13" s="126" cm="1">
+      <c r="AG13" s="125" cm="1">
         <f t="array" ref="AG13">INDEX(Page1!$F$8:$F$37, COLUMN(AG13)-10)</f>
         <v>0</v>
       </c>
-      <c r="AH13" s="126" cm="1">
+      <c r="AH13" s="125" cm="1">
         <f t="array" ref="AH13">INDEX(Page1!$F$8:$F$37, COLUMN(AH13)-10)</f>
         <v>0</v>
       </c>
-      <c r="AI13" s="126" cm="1">
+      <c r="AI13" s="125" cm="1">
         <f t="array" ref="AI13">INDEX(Page1!$F$8:$F$37, COLUMN(AI13)-10)</f>
         <v>0</v>
       </c>
-      <c r="AJ13" s="126" cm="1">
+      <c r="AJ13" s="125" cm="1">
         <f t="array" ref="AJ13">INDEX(Page1!$F$8:$F$37, COLUMN(AJ13)-10)</f>
         <v>0</v>
       </c>
-      <c r="AK13" s="126" cm="1">
+      <c r="AK13" s="125" cm="1">
         <f t="array" ref="AK13">INDEX(Page1!$F$8:$F$37, COLUMN(AK13)-10)</f>
         <v>0</v>
       </c>
-      <c r="AL13" s="126" cm="1">
+      <c r="AL13" s="125" cm="1">
         <f t="array" ref="AL13">INDEX(Page1!$F$8:$F$37, COLUMN(AL13)-10)</f>
         <v>0</v>
       </c>
-      <c r="AM13" s="126" cm="1">
+      <c r="AM13" s="125" cm="1">
         <f t="array" ref="AM13">INDEX(Page1!$F$8:$F$37, COLUMN(AM13)-10)</f>
         <v>0</v>
       </c>
-      <c r="AN13" s="126" cm="1">
+      <c r="AN13" s="125" cm="1">
         <f t="array" ref="AN13">INDEX(Page1!$F$8:$F$37, COLUMN(AN13)-10)</f>
         <v>0</v>
       </c>
-      <c r="AO13" s="129">
+      <c r="AO13" s="128">
         <f>AVERAGE(K13:AN13)</f>
         <v>0</v>
       </c>
@@ -12543,11 +12542,11 @@
         <f>MIN((AO13-H13)/(3*AP13), (I13-AO13)/(3*AP13))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AR13" s="130">
+      <c r="AR13" s="129">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AS13" s="130">
+      <c r="AS13" s="129">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -12587,127 +12586,127 @@
       <c r="J14" s="113" t="s">
         <v>80</v>
       </c>
-      <c r="K14" s="124" t="e" cm="1">
+      <c r="K14" s="123" t="e" cm="1">
         <f t="array" ref="K14">INDEX(Page3!$O$9:$O$38, COLUMN(K14)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L14" s="124" t="e" cm="1">
+      <c r="L14" s="123" t="e" cm="1">
         <f t="array" ref="L14">INDEX(Page3!$O$9:$O$38, COLUMN(L14)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M14" s="124" t="e" cm="1">
+      <c r="M14" s="123" t="e" cm="1">
         <f t="array" ref="M14">INDEX(Page3!$O$9:$O$38, COLUMN(M14)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N14" s="124" t="e" cm="1">
+      <c r="N14" s="123" t="e" cm="1">
         <f t="array" ref="N14">INDEX(Page3!$O$9:$O$38, COLUMN(N14)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O14" s="124" t="e" cm="1">
+      <c r="O14" s="123" t="e" cm="1">
         <f t="array" ref="O14">INDEX(Page3!$O$9:$O$38, COLUMN(O14)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P14" s="124" t="e" cm="1">
+      <c r="P14" s="123" t="e" cm="1">
         <f t="array" ref="P14">INDEX(Page3!$O$9:$O$38, COLUMN(P14)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q14" s="124" t="e" cm="1">
+      <c r="Q14" s="123" t="e" cm="1">
         <f t="array" ref="Q14">INDEX(Page3!$O$9:$O$38, COLUMN(Q14)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="R14" s="124" t="e" cm="1">
+      <c r="R14" s="123" t="e" cm="1">
         <f t="array" ref="R14">INDEX(Page3!$O$9:$O$38, COLUMN(R14)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="S14" s="124" t="e" cm="1">
+      <c r="S14" s="123" t="e" cm="1">
         <f t="array" ref="S14">INDEX(Page3!$O$9:$O$38, COLUMN(S14)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T14" s="124" t="e" cm="1">
+      <c r="T14" s="123" t="e" cm="1">
         <f t="array" ref="T14">INDEX(Page3!$O$9:$O$38, COLUMN(T14)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U14" s="124" t="e" cm="1">
+      <c r="U14" s="123" t="e" cm="1">
         <f t="array" ref="U14">INDEX(Page3!$O$9:$O$38, COLUMN(U14)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="V14" s="124" t="e" cm="1">
+      <c r="V14" s="123" t="e" cm="1">
         <f t="array" ref="V14">INDEX(Page3!$O$9:$O$38, COLUMN(V14)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="W14" s="124" t="e" cm="1">
+      <c r="W14" s="123" t="e" cm="1">
         <f t="array" ref="W14">INDEX(Page3!$O$9:$O$38, COLUMN(W14)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="X14" s="124" t="e" cm="1">
+      <c r="X14" s="123" t="e" cm="1">
         <f t="array" ref="X14">INDEX(Page3!$O$9:$O$38, COLUMN(X14)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Y14" s="124" t="e" cm="1">
+      <c r="Y14" s="123" t="e" cm="1">
         <f t="array" ref="Y14">INDEX(Page3!$O$9:$O$38, COLUMN(Y14)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Z14" s="124" t="e" cm="1">
+      <c r="Z14" s="123" t="e" cm="1">
         <f t="array" ref="Z14">INDEX(Page3!$O$9:$O$38, COLUMN(Z14)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA14" s="124" t="e" cm="1">
+      <c r="AA14" s="123" t="e" cm="1">
         <f t="array" ref="AA14">INDEX(Page3!$O$9:$O$38, COLUMN(AA14)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB14" s="124" t="e" cm="1">
+      <c r="AB14" s="123" t="e" cm="1">
         <f t="array" ref="AB14">INDEX(Page3!$O$9:$O$38, COLUMN(AB14)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC14" s="124" t="e" cm="1">
+      <c r="AC14" s="123" t="e" cm="1">
         <f t="array" ref="AC14">INDEX(Page3!$O$9:$O$38, COLUMN(AC14)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD14" s="124" t="e" cm="1">
+      <c r="AD14" s="123" t="e" cm="1">
         <f t="array" ref="AD14">INDEX(Page3!$O$9:$O$38, COLUMN(AD14)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE14" s="124" t="e" cm="1">
+      <c r="AE14" s="123" t="e" cm="1">
         <f t="array" ref="AE14">INDEX(Page3!$O$9:$O$38, COLUMN(AE14)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF14" s="124" t="e" cm="1">
+      <c r="AF14" s="123" t="e" cm="1">
         <f t="array" ref="AF14">INDEX(Page3!$O$9:$O$38, COLUMN(AF14)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG14" s="124" t="e" cm="1">
+      <c r="AG14" s="123" t="e" cm="1">
         <f t="array" ref="AG14">INDEX(Page3!$O$9:$O$38, COLUMN(AG14)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AH14" s="124" t="e" cm="1">
+      <c r="AH14" s="123" t="e" cm="1">
         <f t="array" ref="AH14">INDEX(Page3!$O$9:$O$38, COLUMN(AH14)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI14" s="124" t="e" cm="1">
+      <c r="AI14" s="123" t="e" cm="1">
         <f t="array" ref="AI14">INDEX(Page3!$O$9:$O$38, COLUMN(AI14)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AJ14" s="124" t="e" cm="1">
+      <c r="AJ14" s="123" t="e" cm="1">
         <f t="array" ref="AJ14">INDEX(Page3!$O$9:$O$38, COLUMN(AJ14)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AK14" s="124" t="e" cm="1">
+      <c r="AK14" s="123" t="e" cm="1">
         <f t="array" ref="AK14">INDEX(Page3!$O$9:$O$38, COLUMN(AK14)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AL14" s="124" t="e" cm="1">
+      <c r="AL14" s="123" t="e" cm="1">
         <f t="array" ref="AL14">INDEX(Page3!$O$9:$O$38, COLUMN(AL14)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AM14" s="124" t="e" cm="1">
+      <c r="AM14" s="123" t="e" cm="1">
         <f t="array" ref="AM14">INDEX(Page3!$O$9:$O$38, COLUMN(AM14)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AN14" s="124" t="e" cm="1">
+      <c r="AN14" s="123" t="e" cm="1">
         <f t="array" ref="AN14">INDEX(Page3!$O$9:$O$38, COLUMN(AN14)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AO14" s="127" t="e">
+      <c r="AO14" s="126" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
@@ -12719,11 +12718,11 @@
         <f>MIN((AO14-H14)/(3*AP14), (I14-AO14)/(3*AP14))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AR14" s="128" t="e">
+      <c r="AR14" s="127" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AS14" s="128" t="e">
+      <c r="AS14" s="127" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
@@ -12763,123 +12762,123 @@
       <c r="J15" s="103" t="s">
         <v>54</v>
       </c>
-      <c r="K15" s="125" cm="1">
+      <c r="K15" s="124" cm="1">
         <f t="array" ref="K15">INDEX(Page1!$J$8:$J$37, COLUMN(K15)-10)</f>
         <v>0</v>
       </c>
-      <c r="L15" s="125" cm="1">
+      <c r="L15" s="124" cm="1">
         <f t="array" ref="L15">INDEX(Page1!$J$8:$J$37, COLUMN(L15)-10)</f>
         <v>0</v>
       </c>
-      <c r="M15" s="125" cm="1">
+      <c r="M15" s="124" cm="1">
         <f t="array" ref="M15">INDEX(Page1!$J$8:$J$37, COLUMN(M15)-10)</f>
         <v>0</v>
       </c>
-      <c r="N15" s="125" cm="1">
+      <c r="N15" s="124" cm="1">
         <f t="array" ref="N15">INDEX(Page1!$J$8:$J$37, COLUMN(N15)-10)</f>
         <v>0</v>
       </c>
-      <c r="O15" s="125" cm="1">
+      <c r="O15" s="124" cm="1">
         <f t="array" ref="O15">INDEX(Page1!$J$8:$J$37, COLUMN(O15)-10)</f>
         <v>0</v>
       </c>
-      <c r="P15" s="125" cm="1">
+      <c r="P15" s="124" cm="1">
         <f t="array" ref="P15">INDEX(Page1!$J$8:$J$37, COLUMN(P15)-10)</f>
         <v>0</v>
       </c>
-      <c r="Q15" s="125" cm="1">
+      <c r="Q15" s="124" cm="1">
         <f t="array" ref="Q15">INDEX(Page1!$J$8:$J$37, COLUMN(Q15)-10)</f>
         <v>0</v>
       </c>
-      <c r="R15" s="125" cm="1">
+      <c r="R15" s="124" cm="1">
         <f t="array" ref="R15">INDEX(Page1!$J$8:$J$37, COLUMN(R15)-10)</f>
         <v>0</v>
       </c>
-      <c r="S15" s="125" cm="1">
+      <c r="S15" s="124" cm="1">
         <f t="array" ref="S15">INDEX(Page1!$J$8:$J$37, COLUMN(S15)-10)</f>
         <v>0</v>
       </c>
-      <c r="T15" s="125" cm="1">
+      <c r="T15" s="124" cm="1">
         <f t="array" ref="T15">INDEX(Page1!$J$8:$J$37, COLUMN(T15)-10)</f>
         <v>0</v>
       </c>
-      <c r="U15" s="125" cm="1">
+      <c r="U15" s="124" cm="1">
         <f t="array" ref="U15">INDEX(Page1!$J$8:$J$37, COLUMN(U15)-10)</f>
         <v>0</v>
       </c>
-      <c r="V15" s="125" cm="1">
+      <c r="V15" s="124" cm="1">
         <f t="array" ref="V15">INDEX(Page1!$J$8:$J$37, COLUMN(V15)-10)</f>
         <v>0</v>
       </c>
-      <c r="W15" s="125" cm="1">
+      <c r="W15" s="124" cm="1">
         <f t="array" ref="W15">INDEX(Page1!$J$8:$J$37, COLUMN(W15)-10)</f>
         <v>0</v>
       </c>
-      <c r="X15" s="125" cm="1">
+      <c r="X15" s="124" cm="1">
         <f t="array" ref="X15">INDEX(Page1!$J$8:$J$37, COLUMN(X15)-10)</f>
         <v>0</v>
       </c>
-      <c r="Y15" s="125" cm="1">
+      <c r="Y15" s="124" cm="1">
         <f t="array" ref="Y15">INDEX(Page1!$J$8:$J$37, COLUMN(Y15)-10)</f>
         <v>0</v>
       </c>
-      <c r="Z15" s="125" cm="1">
+      <c r="Z15" s="124" cm="1">
         <f t="array" ref="Z15">INDEX(Page1!$J$8:$J$37, COLUMN(Z15)-10)</f>
         <v>0</v>
       </c>
-      <c r="AA15" s="125" cm="1">
+      <c r="AA15" s="124" cm="1">
         <f t="array" ref="AA15">INDEX(Page1!$J$8:$J$37, COLUMN(AA15)-10)</f>
         <v>0</v>
       </c>
-      <c r="AB15" s="125" cm="1">
+      <c r="AB15" s="124" cm="1">
         <f t="array" ref="AB15">INDEX(Page1!$J$8:$J$37, COLUMN(AB15)-10)</f>
         <v>0</v>
       </c>
-      <c r="AC15" s="125" cm="1">
+      <c r="AC15" s="124" cm="1">
         <f t="array" ref="AC15">INDEX(Page1!$J$8:$J$37, COLUMN(AC15)-10)</f>
         <v>0</v>
       </c>
-      <c r="AD15" s="125" cm="1">
+      <c r="AD15" s="124" cm="1">
         <f t="array" ref="AD15">INDEX(Page1!$J$8:$J$37, COLUMN(AD15)-10)</f>
         <v>0</v>
       </c>
-      <c r="AE15" s="125" cm="1">
+      <c r="AE15" s="124" cm="1">
         <f t="array" ref="AE15">INDEX(Page1!$J$8:$J$37, COLUMN(AE15)-10)</f>
         <v>0</v>
       </c>
-      <c r="AF15" s="125" cm="1">
+      <c r="AF15" s="124" cm="1">
         <f t="array" ref="AF15">INDEX(Page1!$J$8:$J$37, COLUMN(AF15)-10)</f>
         <v>0</v>
       </c>
-      <c r="AG15" s="125" cm="1">
+      <c r="AG15" s="124" cm="1">
         <f t="array" ref="AG15">INDEX(Page1!$J$8:$J$37, COLUMN(AG15)-10)</f>
         <v>0</v>
       </c>
-      <c r="AH15" s="125" cm="1">
+      <c r="AH15" s="124" cm="1">
         <f t="array" ref="AH15">INDEX(Page1!$J$8:$J$37, COLUMN(AH15)-10)</f>
         <v>0</v>
       </c>
-      <c r="AI15" s="125" cm="1">
+      <c r="AI15" s="124" cm="1">
         <f t="array" ref="AI15">INDEX(Page1!$J$8:$J$37, COLUMN(AI15)-10)</f>
         <v>0</v>
       </c>
-      <c r="AJ15" s="125" cm="1">
+      <c r="AJ15" s="124" cm="1">
         <f t="array" ref="AJ15">INDEX(Page1!$J$8:$J$37, COLUMN(AJ15)-10)</f>
         <v>0</v>
       </c>
-      <c r="AK15" s="125" cm="1">
+      <c r="AK15" s="124" cm="1">
         <f t="array" ref="AK15">INDEX(Page1!$J$8:$J$37, COLUMN(AK15)-10)</f>
         <v>0</v>
       </c>
-      <c r="AL15" s="125" cm="1">
+      <c r="AL15" s="124" cm="1">
         <f t="array" ref="AL15">INDEX(Page1!$J$8:$J$37, COLUMN(AL15)-10)</f>
         <v>0</v>
       </c>
-      <c r="AM15" s="125" cm="1">
+      <c r="AM15" s="124" cm="1">
         <f t="array" ref="AM15">INDEX(Page1!$J$8:$J$37, COLUMN(AM15)-10)</f>
         <v>0</v>
       </c>
-      <c r="AN15" s="125" cm="1">
+      <c r="AN15" s="124" cm="1">
         <f t="array" ref="AN15">INDEX(Page1!$J$8:$J$37, COLUMN(AN15)-10)</f>
         <v>0</v>
       </c>
@@ -12937,123 +12936,123 @@
       <c r="J16" s="103" t="s">
         <v>80</v>
       </c>
-      <c r="K16" s="125" cm="1">
+      <c r="K16" s="124" cm="1">
         <f t="array" ref="K16">INDEX(Page1!$O$8:$O$37, COLUMN(K16)-10)</f>
         <v>0</v>
       </c>
-      <c r="L16" s="125" cm="1">
+      <c r="L16" s="124" cm="1">
         <f t="array" ref="L16">INDEX(Page1!$O$8:$O$37, COLUMN(L16)-10)</f>
         <v>0</v>
       </c>
-      <c r="M16" s="125" cm="1">
+      <c r="M16" s="124" cm="1">
         <f t="array" ref="M16">INDEX(Page1!$O$8:$O$37, COLUMN(M16)-10)</f>
         <v>0</v>
       </c>
-      <c r="N16" s="125" cm="1">
+      <c r="N16" s="124" cm="1">
         <f t="array" ref="N16">INDEX(Page1!$O$8:$O$37, COLUMN(N16)-10)</f>
         <v>0</v>
       </c>
-      <c r="O16" s="125" cm="1">
+      <c r="O16" s="124" cm="1">
         <f t="array" ref="O16">INDEX(Page1!$O$8:$O$37, COLUMN(O16)-10)</f>
         <v>0</v>
       </c>
-      <c r="P16" s="125" cm="1">
+      <c r="P16" s="124" cm="1">
         <f t="array" ref="P16">INDEX(Page1!$O$8:$O$37, COLUMN(P16)-10)</f>
         <v>0</v>
       </c>
-      <c r="Q16" s="125" cm="1">
+      <c r="Q16" s="124" cm="1">
         <f t="array" ref="Q16">INDEX(Page1!$O$8:$O$37, COLUMN(Q16)-10)</f>
         <v>0</v>
       </c>
-      <c r="R16" s="125" cm="1">
+      <c r="R16" s="124" cm="1">
         <f t="array" ref="R16">INDEX(Page1!$O$8:$O$37, COLUMN(R16)-10)</f>
         <v>0</v>
       </c>
-      <c r="S16" s="125" cm="1">
+      <c r="S16" s="124" cm="1">
         <f t="array" ref="S16">INDEX(Page1!$O$8:$O$37, COLUMN(S16)-10)</f>
         <v>0</v>
       </c>
-      <c r="T16" s="125" cm="1">
+      <c r="T16" s="124" cm="1">
         <f t="array" ref="T16">INDEX(Page1!$O$8:$O$37, COLUMN(T16)-10)</f>
         <v>0</v>
       </c>
-      <c r="U16" s="125" cm="1">
+      <c r="U16" s="124" cm="1">
         <f t="array" ref="U16">INDEX(Page1!$O$8:$O$37, COLUMN(U16)-10)</f>
         <v>0</v>
       </c>
-      <c r="V16" s="125" cm="1">
+      <c r="V16" s="124" cm="1">
         <f t="array" ref="V16">INDEX(Page1!$O$8:$O$37, COLUMN(V16)-10)</f>
         <v>0</v>
       </c>
-      <c r="W16" s="125" cm="1">
+      <c r="W16" s="124" cm="1">
         <f t="array" ref="W16">INDEX(Page1!$O$8:$O$37, COLUMN(W16)-10)</f>
         <v>0</v>
       </c>
-      <c r="X16" s="125" cm="1">
+      <c r="X16" s="124" cm="1">
         <f t="array" ref="X16">INDEX(Page1!$O$8:$O$37, COLUMN(X16)-10)</f>
         <v>0</v>
       </c>
-      <c r="Y16" s="125" cm="1">
+      <c r="Y16" s="124" cm="1">
         <f t="array" ref="Y16">INDEX(Page1!$O$8:$O$37, COLUMN(Y16)-10)</f>
         <v>0</v>
       </c>
-      <c r="Z16" s="125" cm="1">
+      <c r="Z16" s="124" cm="1">
         <f t="array" ref="Z16">INDEX(Page1!$O$8:$O$37, COLUMN(Z16)-10)</f>
         <v>0</v>
       </c>
-      <c r="AA16" s="125" cm="1">
+      <c r="AA16" s="124" cm="1">
         <f t="array" ref="AA16">INDEX(Page1!$O$8:$O$37, COLUMN(AA16)-10)</f>
         <v>0</v>
       </c>
-      <c r="AB16" s="125" cm="1">
+      <c r="AB16" s="124" cm="1">
         <f t="array" ref="AB16">INDEX(Page1!$O$8:$O$37, COLUMN(AB16)-10)</f>
         <v>0</v>
       </c>
-      <c r="AC16" s="125" cm="1">
+      <c r="AC16" s="124" cm="1">
         <f t="array" ref="AC16">INDEX(Page1!$O$8:$O$37, COLUMN(AC16)-10)</f>
         <v>0</v>
       </c>
-      <c r="AD16" s="125" cm="1">
+      <c r="AD16" s="124" cm="1">
         <f t="array" ref="AD16">INDEX(Page1!$O$8:$O$37, COLUMN(AD16)-10)</f>
         <v>0</v>
       </c>
-      <c r="AE16" s="125" cm="1">
+      <c r="AE16" s="124" cm="1">
         <f t="array" ref="AE16">INDEX(Page1!$O$8:$O$37, COLUMN(AE16)-10)</f>
         <v>0</v>
       </c>
-      <c r="AF16" s="125" cm="1">
+      <c r="AF16" s="124" cm="1">
         <f t="array" ref="AF16">INDEX(Page1!$O$8:$O$37, COLUMN(AF16)-10)</f>
         <v>0</v>
       </c>
-      <c r="AG16" s="125" cm="1">
+      <c r="AG16" s="124" cm="1">
         <f t="array" ref="AG16">INDEX(Page1!$O$8:$O$37, COLUMN(AG16)-10)</f>
         <v>0</v>
       </c>
-      <c r="AH16" s="125" cm="1">
+      <c r="AH16" s="124" cm="1">
         <f t="array" ref="AH16">INDEX(Page1!$O$8:$O$37, COLUMN(AH16)-10)</f>
         <v>0</v>
       </c>
-      <c r="AI16" s="125" cm="1">
+      <c r="AI16" s="124" cm="1">
         <f t="array" ref="AI16">INDEX(Page1!$O$8:$O$37, COLUMN(AI16)-10)</f>
         <v>0</v>
       </c>
-      <c r="AJ16" s="125" cm="1">
+      <c r="AJ16" s="124" cm="1">
         <f t="array" ref="AJ16">INDEX(Page1!$O$8:$O$37, COLUMN(AJ16)-10)</f>
         <v>0</v>
       </c>
-      <c r="AK16" s="125" cm="1">
+      <c r="AK16" s="124" cm="1">
         <f t="array" ref="AK16">INDEX(Page1!$O$8:$O$37, COLUMN(AK16)-10)</f>
         <v>0</v>
       </c>
-      <c r="AL16" s="125" cm="1">
+      <c r="AL16" s="124" cm="1">
         <f t="array" ref="AL16">INDEX(Page1!$O$8:$O$37, COLUMN(AL16)-10)</f>
         <v>0</v>
       </c>
-      <c r="AM16" s="125" cm="1">
+      <c r="AM16" s="124" cm="1">
         <f t="array" ref="AM16">INDEX(Page1!$O$8:$O$37, COLUMN(AM16)-10)</f>
         <v>0</v>
       </c>
-      <c r="AN16" s="125" cm="1">
+      <c r="AN16" s="124" cm="1">
         <f t="array" ref="AN16">INDEX(Page1!$O$8:$O$37, COLUMN(AN16)-10)</f>
         <v>0</v>
       </c>

--- a/backend/templates/176-18cp-ww.xlsx
+++ b/backend/templates/176-18cp-ww.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cursor AI Projects\SwansonIndiaPortal\backend\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F4EBC32-48EA-440F-A546-0EA645C9F714}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4677CA05-A948-456D-B840-89E2B7E3175F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -549,10 +549,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="168" formatCode="[$-14009]dd\-mm\-yyyy;@"/>
   </numFmts>
   <fonts count="14">
     <font>
@@ -2163,6 +2164,117 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -2179,125 +2291,14 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2375,7 +2376,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -4152,37 +4153,37 @@
       <c r="L6" s="196"/>
       <c r="M6" s="196"/>
       <c r="N6" s="196"/>
-      <c r="O6" s="221"/>
+      <c r="O6" s="211"/>
     </row>
     <row r="7" spans="1:15" s="50" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A7" s="230" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="231"/>
-      <c r="C7" s="232"/>
-      <c r="D7" s="225" t="s">
+      <c r="A7" s="222" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="223"/>
+      <c r="C7" s="224"/>
+      <c r="D7" s="215" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="225"/>
-      <c r="F7" s="225"/>
-      <c r="G7" s="225"/>
-      <c r="H7" s="215" t="s">
+      <c r="E7" s="215"/>
+      <c r="F7" s="215"/>
+      <c r="G7" s="215"/>
+      <c r="H7" s="216" t="s">
         <v>119</v>
       </c>
-      <c r="I7" s="216"/>
-      <c r="J7" s="216"/>
-      <c r="K7" s="226"/>
-      <c r="L7" s="215" t="s">
+      <c r="I7" s="217"/>
+      <c r="J7" s="217"/>
+      <c r="K7" s="218"/>
+      <c r="L7" s="216" t="s">
         <v>120</v>
       </c>
-      <c r="M7" s="216"/>
-      <c r="N7" s="216"/>
-      <c r="O7" s="217"/>
+      <c r="M7" s="217"/>
+      <c r="N7" s="217"/>
+      <c r="O7" s="243"/>
     </row>
     <row r="8" spans="1:15" s="50" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A8" s="233"/>
-      <c r="B8" s="234"/>
-      <c r="C8" s="235"/>
+      <c r="A8" s="225"/>
+      <c r="B8" s="226"/>
+      <c r="C8" s="227"/>
       <c r="D8" s="51">
         <v>1</v>
       </c>
@@ -5276,27 +5277,27 @@
       <c r="C39" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="D39" s="227" t="e">
+      <c r="D39" s="219" t="e">
         <f>AVERAGE(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E39" s="228"/>
-      <c r="F39" s="228"/>
-      <c r="G39" s="229"/>
-      <c r="H39" s="218" t="e">
+      <c r="E39" s="220"/>
+      <c r="F39" s="220"/>
+      <c r="G39" s="221"/>
+      <c r="H39" s="236" t="e">
         <f>AVERAGE(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I39" s="219"/>
-      <c r="J39" s="219"/>
-      <c r="K39" s="220"/>
-      <c r="L39" s="218" t="e">
+      <c r="I39" s="237"/>
+      <c r="J39" s="237"/>
+      <c r="K39" s="244"/>
+      <c r="L39" s="236" t="e">
         <f>AVERAGE(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M39" s="219"/>
-      <c r="N39" s="219"/>
-      <c r="O39" s="244"/>
+      <c r="M39" s="237"/>
+      <c r="N39" s="237"/>
+      <c r="O39" s="238"/>
     </row>
     <row r="40" spans="1:15" ht="18" customHeight="1">
       <c r="A40" s="69"/>
@@ -5304,27 +5305,27 @@
       <c r="C40" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="D40" s="222" t="e">
+      <c r="D40" s="212" t="e">
         <f>MIN(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E40" s="223"/>
-      <c r="F40" s="223"/>
-      <c r="G40" s="224"/>
-      <c r="H40" s="211" t="e">
+      <c r="E40" s="213"/>
+      <c r="F40" s="213"/>
+      <c r="G40" s="214"/>
+      <c r="H40" s="239" t="e">
         <f>MIN(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I40" s="212"/>
-      <c r="J40" s="212"/>
-      <c r="K40" s="213"/>
-      <c r="L40" s="211" t="e">
+      <c r="I40" s="240"/>
+      <c r="J40" s="240"/>
+      <c r="K40" s="241"/>
+      <c r="L40" s="239" t="e">
         <f>MIN(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M40" s="212"/>
-      <c r="N40" s="212"/>
-      <c r="O40" s="214"/>
+      <c r="M40" s="240"/>
+      <c r="N40" s="240"/>
+      <c r="O40" s="242"/>
     </row>
     <row r="41" spans="1:15" ht="18" customHeight="1" thickBot="1">
       <c r="A41" s="72"/>
@@ -5332,27 +5333,27 @@
       <c r="C41" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="D41" s="239" t="e">
+      <c r="D41" s="231" t="e">
         <f>MAX(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E41" s="240"/>
-      <c r="F41" s="240"/>
-      <c r="G41" s="241"/>
-      <c r="H41" s="236" t="e">
+      <c r="E41" s="232"/>
+      <c r="F41" s="232"/>
+      <c r="G41" s="233"/>
+      <c r="H41" s="228" t="e">
         <f>MAX(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I41" s="237"/>
-      <c r="J41" s="237"/>
-      <c r="K41" s="243"/>
-      <c r="L41" s="236" t="e">
+      <c r="I41" s="229"/>
+      <c r="J41" s="229"/>
+      <c r="K41" s="235"/>
+      <c r="L41" s="228" t="e">
         <f>MAX(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M41" s="237"/>
-      <c r="N41" s="237"/>
-      <c r="O41" s="238"/>
+      <c r="M41" s="229"/>
+      <c r="N41" s="229"/>
+      <c r="O41" s="230"/>
     </row>
     <row r="42" spans="1:15" s="11" customFormat="1" ht="16.5" customHeight="1">
       <c r="A42" s="35" t="s">
@@ -5373,8 +5374,8 @@
       <c r="L42" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="M42" s="242"/>
-      <c r="N42" s="242"/>
+      <c r="M42" s="234"/>
+      <c r="N42" s="234"/>
       <c r="O42" s="35" t="s">
         <v>15</v>
       </c>
@@ -5475,7 +5476,6 @@
     <mergeCell ref="L40:O40"/>
     <mergeCell ref="L7:O7"/>
     <mergeCell ref="H39:K39"/>
-    <mergeCell ref="J5:K5"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="D6:O6"/>
     <mergeCell ref="D40:G40"/>
@@ -5497,6 +5497,7 @@
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="L5:M5"/>
     <mergeCell ref="N5:O5"/>
+    <mergeCell ref="J5:K5"/>
   </mergeCells>
   <conditionalFormatting sqref="D9:G41">
     <cfRule type="cellIs" dxfId="8" priority="3" operator="lessThan">
@@ -5701,37 +5702,37 @@
       <c r="L6" s="196"/>
       <c r="M6" s="196"/>
       <c r="N6" s="196"/>
-      <c r="O6" s="221"/>
+      <c r="O6" s="211"/>
     </row>
     <row r="7" spans="1:15" s="50" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A7" s="230" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="231"/>
-      <c r="C7" s="232"/>
-      <c r="D7" s="225" t="s">
+      <c r="A7" s="222" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="223"/>
+      <c r="C7" s="224"/>
+      <c r="D7" s="215" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="225"/>
-      <c r="F7" s="225"/>
-      <c r="G7" s="225"/>
-      <c r="H7" s="215" t="s">
+      <c r="E7" s="215"/>
+      <c r="F7" s="215"/>
+      <c r="G7" s="215"/>
+      <c r="H7" s="216" t="s">
         <v>118</v>
       </c>
-      <c r="I7" s="216"/>
-      <c r="J7" s="216"/>
-      <c r="K7" s="226"/>
-      <c r="L7" s="215" t="s">
+      <c r="I7" s="217"/>
+      <c r="J7" s="217"/>
+      <c r="K7" s="218"/>
+      <c r="L7" s="216" t="s">
         <v>29</v>
       </c>
-      <c r="M7" s="216"/>
-      <c r="N7" s="216"/>
-      <c r="O7" s="217"/>
+      <c r="M7" s="217"/>
+      <c r="N7" s="217"/>
+      <c r="O7" s="243"/>
     </row>
     <row r="8" spans="1:15" s="50" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A8" s="233"/>
-      <c r="B8" s="234"/>
-      <c r="C8" s="235"/>
+      <c r="A8" s="225"/>
+      <c r="B8" s="226"/>
+      <c r="C8" s="227"/>
       <c r="D8" s="51">
         <v>1</v>
       </c>
@@ -6825,27 +6826,27 @@
       <c r="C39" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="D39" s="227" t="e">
+      <c r="D39" s="219" t="e">
         <f>AVERAGE(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E39" s="228"/>
-      <c r="F39" s="228"/>
-      <c r="G39" s="229"/>
-      <c r="H39" s="218" t="e">
+      <c r="E39" s="220"/>
+      <c r="F39" s="220"/>
+      <c r="G39" s="221"/>
+      <c r="H39" s="236" t="e">
         <f>AVERAGE(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I39" s="219"/>
-      <c r="J39" s="219"/>
-      <c r="K39" s="220"/>
-      <c r="L39" s="218" t="e">
+      <c r="I39" s="237"/>
+      <c r="J39" s="237"/>
+      <c r="K39" s="244"/>
+      <c r="L39" s="236" t="e">
         <f>AVERAGE(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M39" s="219"/>
-      <c r="N39" s="219"/>
-      <c r="O39" s="244"/>
+      <c r="M39" s="237"/>
+      <c r="N39" s="237"/>
+      <c r="O39" s="238"/>
     </row>
     <row r="40" spans="1:15" ht="18" customHeight="1">
       <c r="A40" s="69"/>
@@ -6853,27 +6854,27 @@
       <c r="C40" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="D40" s="222" t="e">
+      <c r="D40" s="212" t="e">
         <f>MIN(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E40" s="223"/>
-      <c r="F40" s="223"/>
-      <c r="G40" s="224"/>
-      <c r="H40" s="211" t="e">
+      <c r="E40" s="213"/>
+      <c r="F40" s="213"/>
+      <c r="G40" s="214"/>
+      <c r="H40" s="239" t="e">
         <f>MIN(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I40" s="212"/>
-      <c r="J40" s="212"/>
-      <c r="K40" s="213"/>
-      <c r="L40" s="211" t="e">
+      <c r="I40" s="240"/>
+      <c r="J40" s="240"/>
+      <c r="K40" s="241"/>
+      <c r="L40" s="239" t="e">
         <f>MIN(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M40" s="212"/>
-      <c r="N40" s="212"/>
-      <c r="O40" s="214"/>
+      <c r="M40" s="240"/>
+      <c r="N40" s="240"/>
+      <c r="O40" s="242"/>
     </row>
     <row r="41" spans="1:15" ht="18" customHeight="1" thickBot="1">
       <c r="A41" s="72"/>
@@ -6881,27 +6882,27 @@
       <c r="C41" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="D41" s="239" t="e">
+      <c r="D41" s="231" t="e">
         <f>MAX(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E41" s="240"/>
-      <c r="F41" s="240"/>
-      <c r="G41" s="241"/>
-      <c r="H41" s="236" t="e">
+      <c r="E41" s="232"/>
+      <c r="F41" s="232"/>
+      <c r="G41" s="233"/>
+      <c r="H41" s="228" t="e">
         <f>MAX(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I41" s="237"/>
-      <c r="J41" s="237"/>
-      <c r="K41" s="243"/>
-      <c r="L41" s="236" t="e">
+      <c r="I41" s="229"/>
+      <c r="J41" s="229"/>
+      <c r="K41" s="235"/>
+      <c r="L41" s="228" t="e">
         <f>MAX(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M41" s="237"/>
-      <c r="N41" s="237"/>
-      <c r="O41" s="238"/>
+      <c r="M41" s="229"/>
+      <c r="N41" s="229"/>
+      <c r="O41" s="230"/>
     </row>
     <row r="42" spans="1:15" s="11" customFormat="1" ht="16.5" customHeight="1">
       <c r="A42" s="35" t="s">
@@ -6922,8 +6923,8 @@
       <c r="L42" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="M42" s="242"/>
-      <c r="N42" s="242"/>
+      <c r="M42" s="234"/>
+      <c r="N42" s="234"/>
       <c r="O42" s="35" t="s">
         <v>15</v>
       </c>
@@ -7274,13 +7275,13 @@
       <c r="G8" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="230"/>
-      <c r="I8" s="231"/>
-      <c r="J8" s="231"/>
-      <c r="K8" s="231"/>
-      <c r="L8" s="231"/>
-      <c r="M8" s="231"/>
-      <c r="N8" s="231"/>
+      <c r="H8" s="222"/>
+      <c r="I8" s="223"/>
+      <c r="J8" s="223"/>
+      <c r="K8" s="223"/>
+      <c r="L8" s="223"/>
+      <c r="M8" s="223"/>
+      <c r="N8" s="223"/>
       <c r="O8" s="251"/>
     </row>
     <row r="9" spans="1:15" ht="18" customHeight="1">
@@ -7303,13 +7304,13 @@
         <f>AVERAGE(D9:F9)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H9" s="230"/>
-      <c r="I9" s="231"/>
-      <c r="J9" s="231"/>
-      <c r="K9" s="231"/>
-      <c r="L9" s="231"/>
-      <c r="M9" s="231"/>
-      <c r="N9" s="231"/>
+      <c r="H9" s="222"/>
+      <c r="I9" s="223"/>
+      <c r="J9" s="223"/>
+      <c r="K9" s="223"/>
+      <c r="L9" s="223"/>
+      <c r="M9" s="223"/>
+      <c r="N9" s="223"/>
       <c r="O9" s="251"/>
     </row>
     <row r="10" spans="1:15" ht="18" customHeight="1">
@@ -7332,13 +7333,13 @@
         <f t="shared" ref="G10:G38" si="0">AVERAGE(D10:F10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H10" s="230"/>
-      <c r="I10" s="231"/>
-      <c r="J10" s="231"/>
-      <c r="K10" s="231"/>
-      <c r="L10" s="231"/>
-      <c r="M10" s="231"/>
-      <c r="N10" s="231"/>
+      <c r="H10" s="222"/>
+      <c r="I10" s="223"/>
+      <c r="J10" s="223"/>
+      <c r="K10" s="223"/>
+      <c r="L10" s="223"/>
+      <c r="M10" s="223"/>
+      <c r="N10" s="223"/>
       <c r="O10" s="251"/>
     </row>
     <row r="11" spans="1:15" ht="18" customHeight="1">
@@ -7361,13 +7362,13 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H11" s="230"/>
-      <c r="I11" s="231"/>
-      <c r="J11" s="231"/>
-      <c r="K11" s="231"/>
-      <c r="L11" s="231"/>
-      <c r="M11" s="231"/>
-      <c r="N11" s="231"/>
+      <c r="H11" s="222"/>
+      <c r="I11" s="223"/>
+      <c r="J11" s="223"/>
+      <c r="K11" s="223"/>
+      <c r="L11" s="223"/>
+      <c r="M11" s="223"/>
+      <c r="N11" s="223"/>
       <c r="O11" s="251"/>
     </row>
     <row r="12" spans="1:15" ht="18" customHeight="1">
@@ -7390,13 +7391,13 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H12" s="230"/>
-      <c r="I12" s="231"/>
-      <c r="J12" s="231"/>
-      <c r="K12" s="231"/>
-      <c r="L12" s="231"/>
-      <c r="M12" s="231"/>
-      <c r="N12" s="231"/>
+      <c r="H12" s="222"/>
+      <c r="I12" s="223"/>
+      <c r="J12" s="223"/>
+      <c r="K12" s="223"/>
+      <c r="L12" s="223"/>
+      <c r="M12" s="223"/>
+      <c r="N12" s="223"/>
       <c r="O12" s="251"/>
     </row>
     <row r="13" spans="1:15" ht="18" customHeight="1">
@@ -7419,13 +7420,13 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H13" s="230"/>
-      <c r="I13" s="231"/>
-      <c r="J13" s="231"/>
-      <c r="K13" s="231"/>
-      <c r="L13" s="231"/>
-      <c r="M13" s="231"/>
-      <c r="N13" s="231"/>
+      <c r="H13" s="222"/>
+      <c r="I13" s="223"/>
+      <c r="J13" s="223"/>
+      <c r="K13" s="223"/>
+      <c r="L13" s="223"/>
+      <c r="M13" s="223"/>
+      <c r="N13" s="223"/>
       <c r="O13" s="251"/>
     </row>
     <row r="14" spans="1:15" ht="18" customHeight="1">
@@ -7448,13 +7449,13 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H14" s="230"/>
-      <c r="I14" s="231"/>
-      <c r="J14" s="231"/>
-      <c r="K14" s="231"/>
-      <c r="L14" s="231"/>
-      <c r="M14" s="231"/>
-      <c r="N14" s="231"/>
+      <c r="H14" s="222"/>
+      <c r="I14" s="223"/>
+      <c r="J14" s="223"/>
+      <c r="K14" s="223"/>
+      <c r="L14" s="223"/>
+      <c r="M14" s="223"/>
+      <c r="N14" s="223"/>
       <c r="O14" s="251"/>
     </row>
     <row r="15" spans="1:15" ht="18" customHeight="1">
@@ -7477,13 +7478,13 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H15" s="230"/>
-      <c r="I15" s="231"/>
-      <c r="J15" s="231"/>
-      <c r="K15" s="231"/>
-      <c r="L15" s="231"/>
-      <c r="M15" s="231"/>
-      <c r="N15" s="231"/>
+      <c r="H15" s="222"/>
+      <c r="I15" s="223"/>
+      <c r="J15" s="223"/>
+      <c r="K15" s="223"/>
+      <c r="L15" s="223"/>
+      <c r="M15" s="223"/>
+      <c r="N15" s="223"/>
       <c r="O15" s="251"/>
     </row>
     <row r="16" spans="1:15" ht="18" customHeight="1">
@@ -7506,13 +7507,13 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H16" s="230"/>
-      <c r="I16" s="231"/>
-      <c r="J16" s="231"/>
-      <c r="K16" s="231"/>
-      <c r="L16" s="231"/>
-      <c r="M16" s="231"/>
-      <c r="N16" s="231"/>
+      <c r="H16" s="222"/>
+      <c r="I16" s="223"/>
+      <c r="J16" s="223"/>
+      <c r="K16" s="223"/>
+      <c r="L16" s="223"/>
+      <c r="M16" s="223"/>
+      <c r="N16" s="223"/>
       <c r="O16" s="251"/>
     </row>
     <row r="17" spans="1:15" ht="18" customHeight="1">
@@ -7535,13 +7536,13 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H17" s="230"/>
-      <c r="I17" s="231"/>
-      <c r="J17" s="231"/>
-      <c r="K17" s="231"/>
-      <c r="L17" s="231"/>
-      <c r="M17" s="231"/>
-      <c r="N17" s="231"/>
+      <c r="H17" s="222"/>
+      <c r="I17" s="223"/>
+      <c r="J17" s="223"/>
+      <c r="K17" s="223"/>
+      <c r="L17" s="223"/>
+      <c r="M17" s="223"/>
+      <c r="N17" s="223"/>
       <c r="O17" s="251"/>
     </row>
     <row r="18" spans="1:15" ht="18" customHeight="1">
@@ -7564,13 +7565,13 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H18" s="230"/>
-      <c r="I18" s="231"/>
-      <c r="J18" s="231"/>
-      <c r="K18" s="231"/>
-      <c r="L18" s="231"/>
-      <c r="M18" s="231"/>
-      <c r="N18" s="231"/>
+      <c r="H18" s="222"/>
+      <c r="I18" s="223"/>
+      <c r="J18" s="223"/>
+      <c r="K18" s="223"/>
+      <c r="L18" s="223"/>
+      <c r="M18" s="223"/>
+      <c r="N18" s="223"/>
       <c r="O18" s="251"/>
     </row>
     <row r="19" spans="1:15" ht="18" customHeight="1">
@@ -7593,13 +7594,13 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H19" s="230"/>
-      <c r="I19" s="231"/>
-      <c r="J19" s="231"/>
-      <c r="K19" s="231"/>
-      <c r="L19" s="231"/>
-      <c r="M19" s="231"/>
-      <c r="N19" s="231"/>
+      <c r="H19" s="222"/>
+      <c r="I19" s="223"/>
+      <c r="J19" s="223"/>
+      <c r="K19" s="223"/>
+      <c r="L19" s="223"/>
+      <c r="M19" s="223"/>
+      <c r="N19" s="223"/>
       <c r="O19" s="251"/>
     </row>
     <row r="20" spans="1:15" ht="18" customHeight="1">
@@ -7622,13 +7623,13 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H20" s="230"/>
-      <c r="I20" s="231"/>
-      <c r="J20" s="231"/>
-      <c r="K20" s="231"/>
-      <c r="L20" s="231"/>
-      <c r="M20" s="231"/>
-      <c r="N20" s="231"/>
+      <c r="H20" s="222"/>
+      <c r="I20" s="223"/>
+      <c r="J20" s="223"/>
+      <c r="K20" s="223"/>
+      <c r="L20" s="223"/>
+      <c r="M20" s="223"/>
+      <c r="N20" s="223"/>
       <c r="O20" s="251"/>
     </row>
     <row r="21" spans="1:15" ht="18" customHeight="1">
@@ -7651,13 +7652,13 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H21" s="230"/>
-      <c r="I21" s="231"/>
-      <c r="J21" s="231"/>
-      <c r="K21" s="231"/>
-      <c r="L21" s="231"/>
-      <c r="M21" s="231"/>
-      <c r="N21" s="231"/>
+      <c r="H21" s="222"/>
+      <c r="I21" s="223"/>
+      <c r="J21" s="223"/>
+      <c r="K21" s="223"/>
+      <c r="L21" s="223"/>
+      <c r="M21" s="223"/>
+      <c r="N21" s="223"/>
       <c r="O21" s="251"/>
     </row>
     <row r="22" spans="1:15" ht="18" customHeight="1">
@@ -7680,13 +7681,13 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H22" s="230"/>
-      <c r="I22" s="231"/>
-      <c r="J22" s="231"/>
-      <c r="K22" s="231"/>
-      <c r="L22" s="231"/>
-      <c r="M22" s="231"/>
-      <c r="N22" s="231"/>
+      <c r="H22" s="222"/>
+      <c r="I22" s="223"/>
+      <c r="J22" s="223"/>
+      <c r="K22" s="223"/>
+      <c r="L22" s="223"/>
+      <c r="M22" s="223"/>
+      <c r="N22" s="223"/>
       <c r="O22" s="251"/>
     </row>
     <row r="23" spans="1:15" ht="18" customHeight="1">
@@ -7709,13 +7710,13 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H23" s="230"/>
-      <c r="I23" s="231"/>
-      <c r="J23" s="231"/>
-      <c r="K23" s="231"/>
-      <c r="L23" s="231"/>
-      <c r="M23" s="231"/>
-      <c r="N23" s="231"/>
+      <c r="H23" s="222"/>
+      <c r="I23" s="223"/>
+      <c r="J23" s="223"/>
+      <c r="K23" s="223"/>
+      <c r="L23" s="223"/>
+      <c r="M23" s="223"/>
+      <c r="N23" s="223"/>
       <c r="O23" s="251"/>
     </row>
     <row r="24" spans="1:15" ht="18" customHeight="1">
@@ -7738,13 +7739,13 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H24" s="230"/>
-      <c r="I24" s="231"/>
-      <c r="J24" s="231"/>
-      <c r="K24" s="231"/>
-      <c r="L24" s="231"/>
-      <c r="M24" s="231"/>
-      <c r="N24" s="231"/>
+      <c r="H24" s="222"/>
+      <c r="I24" s="223"/>
+      <c r="J24" s="223"/>
+      <c r="K24" s="223"/>
+      <c r="L24" s="223"/>
+      <c r="M24" s="223"/>
+      <c r="N24" s="223"/>
       <c r="O24" s="251"/>
     </row>
     <row r="25" spans="1:15" ht="18" customHeight="1">
@@ -7767,13 +7768,13 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H25" s="230"/>
-      <c r="I25" s="231"/>
-      <c r="J25" s="231"/>
-      <c r="K25" s="231"/>
-      <c r="L25" s="231"/>
-      <c r="M25" s="231"/>
-      <c r="N25" s="231"/>
+      <c r="H25" s="222"/>
+      <c r="I25" s="223"/>
+      <c r="J25" s="223"/>
+      <c r="K25" s="223"/>
+      <c r="L25" s="223"/>
+      <c r="M25" s="223"/>
+      <c r="N25" s="223"/>
       <c r="O25" s="251"/>
     </row>
     <row r="26" spans="1:15" ht="18" customHeight="1">
@@ -7796,13 +7797,13 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H26" s="230"/>
-      <c r="I26" s="231"/>
-      <c r="J26" s="231"/>
-      <c r="K26" s="231"/>
-      <c r="L26" s="231"/>
-      <c r="M26" s="231"/>
-      <c r="N26" s="231"/>
+      <c r="H26" s="222"/>
+      <c r="I26" s="223"/>
+      <c r="J26" s="223"/>
+      <c r="K26" s="223"/>
+      <c r="L26" s="223"/>
+      <c r="M26" s="223"/>
+      <c r="N26" s="223"/>
       <c r="O26" s="251"/>
     </row>
     <row r="27" spans="1:15" ht="18" customHeight="1">
@@ -7825,13 +7826,13 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H27" s="230"/>
-      <c r="I27" s="231"/>
-      <c r="J27" s="231"/>
-      <c r="K27" s="231"/>
-      <c r="L27" s="231"/>
-      <c r="M27" s="231"/>
-      <c r="N27" s="231"/>
+      <c r="H27" s="222"/>
+      <c r="I27" s="223"/>
+      <c r="J27" s="223"/>
+      <c r="K27" s="223"/>
+      <c r="L27" s="223"/>
+      <c r="M27" s="223"/>
+      <c r="N27" s="223"/>
       <c r="O27" s="251"/>
     </row>
     <row r="28" spans="1:15" ht="18" customHeight="1">
@@ -7854,13 +7855,13 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H28" s="230"/>
-      <c r="I28" s="231"/>
-      <c r="J28" s="231"/>
-      <c r="K28" s="231"/>
-      <c r="L28" s="231"/>
-      <c r="M28" s="231"/>
-      <c r="N28" s="231"/>
+      <c r="H28" s="222"/>
+      <c r="I28" s="223"/>
+      <c r="J28" s="223"/>
+      <c r="K28" s="223"/>
+      <c r="L28" s="223"/>
+      <c r="M28" s="223"/>
+      <c r="N28" s="223"/>
       <c r="O28" s="251"/>
     </row>
     <row r="29" spans="1:15" ht="18" customHeight="1">
@@ -7883,13 +7884,13 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H29" s="230"/>
-      <c r="I29" s="231"/>
-      <c r="J29" s="231"/>
-      <c r="K29" s="231"/>
-      <c r="L29" s="231"/>
-      <c r="M29" s="231"/>
-      <c r="N29" s="231"/>
+      <c r="H29" s="222"/>
+      <c r="I29" s="223"/>
+      <c r="J29" s="223"/>
+      <c r="K29" s="223"/>
+      <c r="L29" s="223"/>
+      <c r="M29" s="223"/>
+      <c r="N29" s="223"/>
       <c r="O29" s="251"/>
     </row>
     <row r="30" spans="1:15" ht="18" customHeight="1">
@@ -7912,13 +7913,13 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H30" s="230"/>
-      <c r="I30" s="231"/>
-      <c r="J30" s="231"/>
-      <c r="K30" s="231"/>
-      <c r="L30" s="231"/>
-      <c r="M30" s="231"/>
-      <c r="N30" s="231"/>
+      <c r="H30" s="222"/>
+      <c r="I30" s="223"/>
+      <c r="J30" s="223"/>
+      <c r="K30" s="223"/>
+      <c r="L30" s="223"/>
+      <c r="M30" s="223"/>
+      <c r="N30" s="223"/>
       <c r="O30" s="251"/>
     </row>
     <row r="31" spans="1:15" ht="18" customHeight="1">
@@ -7941,13 +7942,13 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H31" s="230"/>
-      <c r="I31" s="231"/>
-      <c r="J31" s="231"/>
-      <c r="K31" s="231"/>
-      <c r="L31" s="231"/>
-      <c r="M31" s="231"/>
-      <c r="N31" s="231"/>
+      <c r="H31" s="222"/>
+      <c r="I31" s="223"/>
+      <c r="J31" s="223"/>
+      <c r="K31" s="223"/>
+      <c r="L31" s="223"/>
+      <c r="M31" s="223"/>
+      <c r="N31" s="223"/>
       <c r="O31" s="251"/>
     </row>
     <row r="32" spans="1:15" ht="18" customHeight="1">
@@ -7970,13 +7971,13 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H32" s="230"/>
-      <c r="I32" s="231"/>
-      <c r="J32" s="231"/>
-      <c r="K32" s="231"/>
-      <c r="L32" s="231"/>
-      <c r="M32" s="231"/>
-      <c r="N32" s="231"/>
+      <c r="H32" s="222"/>
+      <c r="I32" s="223"/>
+      <c r="J32" s="223"/>
+      <c r="K32" s="223"/>
+      <c r="L32" s="223"/>
+      <c r="M32" s="223"/>
+      <c r="N32" s="223"/>
       <c r="O32" s="251"/>
     </row>
     <row r="33" spans="1:15" ht="18" customHeight="1">
@@ -7999,13 +8000,13 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H33" s="230"/>
-      <c r="I33" s="231"/>
-      <c r="J33" s="231"/>
-      <c r="K33" s="231"/>
-      <c r="L33" s="231"/>
-      <c r="M33" s="231"/>
-      <c r="N33" s="231"/>
+      <c r="H33" s="222"/>
+      <c r="I33" s="223"/>
+      <c r="J33" s="223"/>
+      <c r="K33" s="223"/>
+      <c r="L33" s="223"/>
+      <c r="M33" s="223"/>
+      <c r="N33" s="223"/>
       <c r="O33" s="251"/>
     </row>
     <row r="34" spans="1:15" ht="18" customHeight="1">
@@ -8028,13 +8029,13 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H34" s="230"/>
-      <c r="I34" s="231"/>
-      <c r="J34" s="231"/>
-      <c r="K34" s="231"/>
-      <c r="L34" s="231"/>
-      <c r="M34" s="231"/>
-      <c r="N34" s="231"/>
+      <c r="H34" s="222"/>
+      <c r="I34" s="223"/>
+      <c r="J34" s="223"/>
+      <c r="K34" s="223"/>
+      <c r="L34" s="223"/>
+      <c r="M34" s="223"/>
+      <c r="N34" s="223"/>
       <c r="O34" s="251"/>
     </row>
     <row r="35" spans="1:15" ht="18" customHeight="1">
@@ -8057,13 +8058,13 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H35" s="230"/>
-      <c r="I35" s="231"/>
-      <c r="J35" s="231"/>
-      <c r="K35" s="231"/>
-      <c r="L35" s="231"/>
-      <c r="M35" s="231"/>
-      <c r="N35" s="231"/>
+      <c r="H35" s="222"/>
+      <c r="I35" s="223"/>
+      <c r="J35" s="223"/>
+      <c r="K35" s="223"/>
+      <c r="L35" s="223"/>
+      <c r="M35" s="223"/>
+      <c r="N35" s="223"/>
       <c r="O35" s="251"/>
     </row>
     <row r="36" spans="1:15" ht="18" customHeight="1">
@@ -8086,13 +8087,13 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H36" s="230"/>
-      <c r="I36" s="231"/>
-      <c r="J36" s="231"/>
-      <c r="K36" s="231"/>
-      <c r="L36" s="231"/>
-      <c r="M36" s="231"/>
-      <c r="N36" s="231"/>
+      <c r="H36" s="222"/>
+      <c r="I36" s="223"/>
+      <c r="J36" s="223"/>
+      <c r="K36" s="223"/>
+      <c r="L36" s="223"/>
+      <c r="M36" s="223"/>
+      <c r="N36" s="223"/>
       <c r="O36" s="251"/>
     </row>
     <row r="37" spans="1:15" ht="18" customHeight="1">
@@ -8115,13 +8116,13 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H37" s="230"/>
-      <c r="I37" s="231"/>
-      <c r="J37" s="231"/>
-      <c r="K37" s="231"/>
-      <c r="L37" s="231"/>
-      <c r="M37" s="231"/>
-      <c r="N37" s="231"/>
+      <c r="H37" s="222"/>
+      <c r="I37" s="223"/>
+      <c r="J37" s="223"/>
+      <c r="K37" s="223"/>
+      <c r="L37" s="223"/>
+      <c r="M37" s="223"/>
+      <c r="N37" s="223"/>
       <c r="O37" s="251"/>
     </row>
     <row r="38" spans="1:15" ht="18" customHeight="1" thickBot="1">
@@ -8144,13 +8145,13 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H38" s="230"/>
-      <c r="I38" s="231"/>
-      <c r="J38" s="231"/>
-      <c r="K38" s="231"/>
-      <c r="L38" s="231"/>
-      <c r="M38" s="231"/>
-      <c r="N38" s="231"/>
+      <c r="H38" s="222"/>
+      <c r="I38" s="223"/>
+      <c r="J38" s="223"/>
+      <c r="K38" s="223"/>
+      <c r="L38" s="223"/>
+      <c r="M38" s="223"/>
+      <c r="N38" s="223"/>
       <c r="O38" s="251"/>
     </row>
     <row r="39" spans="1:15" s="40" customFormat="1" ht="18" customHeight="1">
@@ -8169,13 +8170,13 @@
         <f>AVERAGE(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H39" s="230"/>
-      <c r="I39" s="231"/>
-      <c r="J39" s="231"/>
-      <c r="K39" s="231"/>
-      <c r="L39" s="231"/>
-      <c r="M39" s="231"/>
-      <c r="N39" s="231"/>
+      <c r="H39" s="222"/>
+      <c r="I39" s="223"/>
+      <c r="J39" s="223"/>
+      <c r="K39" s="223"/>
+      <c r="L39" s="223"/>
+      <c r="M39" s="223"/>
+      <c r="N39" s="223"/>
       <c r="O39" s="251"/>
     </row>
     <row r="40" spans="1:15" s="40" customFormat="1" ht="18" customHeight="1">
@@ -8194,13 +8195,13 @@
         <f>MIN(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H40" s="230"/>
-      <c r="I40" s="231"/>
-      <c r="J40" s="231"/>
-      <c r="K40" s="231"/>
-      <c r="L40" s="231"/>
-      <c r="M40" s="231"/>
-      <c r="N40" s="231"/>
+      <c r="H40" s="222"/>
+      <c r="I40" s="223"/>
+      <c r="J40" s="223"/>
+      <c r="K40" s="223"/>
+      <c r="L40" s="223"/>
+      <c r="M40" s="223"/>
+      <c r="N40" s="223"/>
       <c r="O40" s="251"/>
     </row>
     <row r="41" spans="1:15" s="40" customFormat="1" ht="18" customHeight="1" thickBot="1">
@@ -8219,13 +8220,13 @@
         <f>MAX(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H41" s="233"/>
-      <c r="I41" s="234"/>
-      <c r="J41" s="234"/>
-      <c r="K41" s="234"/>
-      <c r="L41" s="234"/>
-      <c r="M41" s="234"/>
-      <c r="N41" s="234"/>
+      <c r="H41" s="225"/>
+      <c r="I41" s="226"/>
+      <c r="J41" s="226"/>
+      <c r="K41" s="226"/>
+      <c r="L41" s="226"/>
+      <c r="M41" s="226"/>
+      <c r="N41" s="226"/>
       <c r="O41" s="252"/>
     </row>
     <row r="42" spans="1:15" s="11" customFormat="1" ht="16.5" customHeight="1">
@@ -8247,8 +8248,8 @@
       <c r="L42" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="M42" s="242"/>
-      <c r="N42" s="242"/>
+      <c r="M42" s="234"/>
+      <c r="N42" s="234"/>
       <c r="O42" s="35" t="s">
         <v>15</v>
       </c>
@@ -8373,12 +8374,12 @@
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
     <col min="2" max="2" width="7" customWidth="1"/>
     <col min="3" max="3" width="9.140625" customWidth="1"/>
     <col min="4" max="4" width="26.140625" customWidth="1"/>

--- a/backend/templates/176-18cp-ww.xlsx
+++ b/backend/templates/176-18cp-ww.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cursor AI Projects\SwansonIndiaPortal\backend\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21A236BE-5C87-4404-920D-9DB166143627}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12A26401-E48B-4955-9DD8-362E34FE6BB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1468,7 +1468,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="269">
+  <cellXfs count="263">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1904,6 +1904,155 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1913,9 +2062,6 @@
     <xf numFmtId="49" fontId="11" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1946,180 +2092,113 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="27" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="29" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="34" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="24" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="11" fillId="2" borderId="37" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -2198,14 +2277,6 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -2214,171 +2285,82 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2791,61 +2773,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A1" s="186" t="s">
+      <c r="A1" s="147" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="186"/>
-      <c r="C1" s="186"/>
-      <c r="D1" s="186"/>
-      <c r="E1" s="186"/>
-      <c r="F1" s="186"/>
-      <c r="G1" s="186"/>
-      <c r="H1" s="186"/>
-      <c r="I1" s="186"/>
-      <c r="J1" s="186"/>
-      <c r="K1" s="186"/>
-      <c r="L1" s="186"/>
-      <c r="M1" s="186"/>
-      <c r="N1" s="187" t="s">
+      <c r="B1" s="147"/>
+      <c r="C1" s="147"/>
+      <c r="D1" s="147"/>
+      <c r="E1" s="147"/>
+      <c r="F1" s="147"/>
+      <c r="G1" s="147"/>
+      <c r="H1" s="147"/>
+      <c r="I1" s="147"/>
+      <c r="J1" s="147"/>
+      <c r="K1" s="147"/>
+      <c r="L1" s="147"/>
+      <c r="M1" s="147"/>
+      <c r="N1" s="148" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="187"/>
+      <c r="O1" s="148"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A2" s="189" t="s">
+      <c r="A2" s="150" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="189"/>
-      <c r="C2" s="189"/>
-      <c r="D2" s="189"/>
-      <c r="E2" s="189"/>
-      <c r="F2" s="189"/>
-      <c r="G2" s="189"/>
-      <c r="H2" s="189"/>
-      <c r="I2" s="189"/>
-      <c r="J2" s="189"/>
-      <c r="K2" s="189"/>
-      <c r="L2" s="189"/>
-      <c r="M2" s="189"/>
-      <c r="N2" s="188" t="s">
+      <c r="B2" s="150"/>
+      <c r="C2" s="150"/>
+      <c r="D2" s="150"/>
+      <c r="E2" s="150"/>
+      <c r="F2" s="150"/>
+      <c r="G2" s="150"/>
+      <c r="H2" s="150"/>
+      <c r="I2" s="150"/>
+      <c r="J2" s="150"/>
+      <c r="K2" s="150"/>
+      <c r="L2" s="150"/>
+      <c r="M2" s="150"/>
+      <c r="N2" s="149" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="188"/>
+      <c r="O2" s="149"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A3" s="189"/>
-      <c r="B3" s="189"/>
-      <c r="C3" s="189"/>
-      <c r="D3" s="189"/>
-      <c r="E3" s="189"/>
-      <c r="F3" s="189"/>
-      <c r="G3" s="189"/>
-      <c r="H3" s="189"/>
-      <c r="I3" s="189"/>
-      <c r="J3" s="189"/>
-      <c r="K3" s="189"/>
-      <c r="L3" s="189"/>
-      <c r="M3" s="189"/>
+      <c r="A3" s="150"/>
+      <c r="B3" s="150"/>
+      <c r="C3" s="150"/>
+      <c r="D3" s="150"/>
+      <c r="E3" s="150"/>
+      <c r="F3" s="150"/>
+      <c r="G3" s="150"/>
+      <c r="H3" s="150"/>
+      <c r="I3" s="150"/>
+      <c r="J3" s="150"/>
+      <c r="K3" s="150"/>
+      <c r="L3" s="150"/>
+      <c r="M3" s="150"/>
       <c r="N3" s="12" t="s">
         <v>20</v>
       </c>
@@ -2855,97 +2837,97 @@
       <c r="A4" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="135"/>
-      <c r="C4" s="136"/>
-      <c r="D4" s="136"/>
-      <c r="E4" s="139" t="s">
+      <c r="B4" s="178"/>
+      <c r="C4" s="179"/>
+      <c r="D4" s="179"/>
+      <c r="E4" s="182" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="140"/>
-      <c r="G4" s="135"/>
-      <c r="H4" s="143"/>
+      <c r="F4" s="183"/>
+      <c r="G4" s="178"/>
+      <c r="H4" s="186"/>
       <c r="I4" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="135"/>
-      <c r="K4" s="143"/>
-      <c r="L4" s="139" t="s">
+      <c r="J4" s="178"/>
+      <c r="K4" s="186"/>
+      <c r="L4" s="182" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="140"/>
-      <c r="N4" s="190"/>
-      <c r="O4" s="191"/>
+      <c r="M4" s="183"/>
+      <c r="N4" s="151"/>
+      <c r="O4" s="152"/>
     </row>
     <row r="5" spans="1:15" s="16" customFormat="1" ht="23.25" customHeight="1">
       <c r="A5" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="137"/>
-      <c r="C5" s="138"/>
-      <c r="D5" s="138"/>
-      <c r="E5" s="141" t="s">
+      <c r="B5" s="180"/>
+      <c r="C5" s="181"/>
+      <c r="D5" s="181"/>
+      <c r="E5" s="184" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="142"/>
-      <c r="G5" s="137"/>
-      <c r="H5" s="144"/>
+      <c r="F5" s="185"/>
+      <c r="G5" s="180"/>
+      <c r="H5" s="187"/>
       <c r="I5" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="137"/>
-      <c r="K5" s="144"/>
-      <c r="L5" s="141" t="s">
+      <c r="J5" s="180"/>
+      <c r="K5" s="187"/>
+      <c r="L5" s="184" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="142"/>
-      <c r="N5" s="192"/>
-      <c r="O5" s="193"/>
+      <c r="M5" s="185"/>
+      <c r="N5" s="153"/>
+      <c r="O5" s="154"/>
     </row>
     <row r="6" spans="1:15" thickBot="1">
-      <c r="A6" s="182" t="s">
+      <c r="A6" s="141" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="167"/>
-      <c r="C6" s="183"/>
-      <c r="D6" s="183"/>
-      <c r="E6" s="194"/>
-      <c r="F6" s="167"/>
-      <c r="G6" s="167"/>
-      <c r="H6" s="163"/>
-      <c r="I6" s="164"/>
-      <c r="J6" s="183"/>
-      <c r="K6" s="194"/>
-      <c r="L6" s="167"/>
-      <c r="M6" s="167"/>
-      <c r="N6" s="183"/>
-      <c r="O6" s="195"/>
+      <c r="B6" s="142"/>
+      <c r="C6" s="143"/>
+      <c r="D6" s="143"/>
+      <c r="E6" s="155"/>
+      <c r="F6" s="142"/>
+      <c r="G6" s="142"/>
+      <c r="H6" s="173"/>
+      <c r="I6" s="174"/>
+      <c r="J6" s="143"/>
+      <c r="K6" s="155"/>
+      <c r="L6" s="142"/>
+      <c r="M6" s="142"/>
+      <c r="N6" s="143"/>
+      <c r="O6" s="157"/>
     </row>
     <row r="7" spans="1:15" s="20" customFormat="1" ht="67.5" customHeight="1" thickBot="1">
-      <c r="A7" s="184" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="185"/>
-      <c r="C7" s="165"/>
-      <c r="D7" s="185" t="s">
+      <c r="A7" s="144" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="145"/>
+      <c r="C7" s="146"/>
+      <c r="D7" s="145" t="s">
         <v>102</v>
       </c>
-      <c r="E7" s="185"/>
-      <c r="F7" s="185" t="s">
+      <c r="E7" s="145"/>
+      <c r="F7" s="145" t="s">
         <v>103</v>
       </c>
-      <c r="G7" s="185"/>
-      <c r="H7" s="165" t="s">
+      <c r="G7" s="145"/>
+      <c r="H7" s="146" t="s">
         <v>104</v>
       </c>
-      <c r="I7" s="166"/>
-      <c r="J7" s="165" t="s">
+      <c r="I7" s="156"/>
+      <c r="J7" s="146" t="s">
         <v>105</v>
       </c>
-      <c r="K7" s="166"/>
-      <c r="L7" s="185" t="s">
+      <c r="K7" s="156"/>
+      <c r="L7" s="145" t="s">
         <v>114</v>
       </c>
-      <c r="M7" s="185"/>
+      <c r="M7" s="145"/>
       <c r="N7" s="125" t="s">
         <v>107</v>
       </c>
@@ -2957,16 +2939,16 @@
       <c r="A8" s="21"/>
       <c r="B8" s="22"/>
       <c r="C8" s="22"/>
-      <c r="D8" s="158"/>
-      <c r="E8" s="158"/>
-      <c r="F8" s="159"/>
-      <c r="G8" s="159"/>
-      <c r="H8" s="160"/>
-      <c r="I8" s="161"/>
-      <c r="J8" s="158"/>
-      <c r="K8" s="158"/>
-      <c r="L8" s="162"/>
-      <c r="M8" s="162"/>
+      <c r="D8" s="136"/>
+      <c r="E8" s="136"/>
+      <c r="F8" s="137"/>
+      <c r="G8" s="137"/>
+      <c r="H8" s="138"/>
+      <c r="I8" s="139"/>
+      <c r="J8" s="136"/>
+      <c r="K8" s="136"/>
+      <c r="L8" s="140"/>
+      <c r="M8" s="140"/>
       <c r="N8" s="124"/>
       <c r="O8" s="23"/>
     </row>
@@ -2974,16 +2956,16 @@
       <c r="A9" s="21"/>
       <c r="B9" s="24"/>
       <c r="C9" s="22"/>
-      <c r="D9" s="154"/>
-      <c r="E9" s="154"/>
-      <c r="F9" s="155"/>
-      <c r="G9" s="155"/>
-      <c r="H9" s="156"/>
-      <c r="I9" s="157"/>
-      <c r="J9" s="154"/>
-      <c r="K9" s="154"/>
-      <c r="L9" s="153"/>
-      <c r="M9" s="153"/>
+      <c r="D9" s="131"/>
+      <c r="E9" s="131"/>
+      <c r="F9" s="132"/>
+      <c r="G9" s="132"/>
+      <c r="H9" s="133"/>
+      <c r="I9" s="134"/>
+      <c r="J9" s="131"/>
+      <c r="K9" s="131"/>
+      <c r="L9" s="135"/>
+      <c r="M9" s="135"/>
       <c r="N9" s="122"/>
       <c r="O9" s="25"/>
     </row>
@@ -2991,16 +2973,16 @@
       <c r="A10" s="21"/>
       <c r="B10" s="24"/>
       <c r="C10" s="22"/>
-      <c r="D10" s="154"/>
-      <c r="E10" s="154"/>
-      <c r="F10" s="155"/>
-      <c r="G10" s="155"/>
-      <c r="H10" s="156"/>
-      <c r="I10" s="157"/>
-      <c r="J10" s="154"/>
-      <c r="K10" s="154"/>
-      <c r="L10" s="153"/>
-      <c r="M10" s="153"/>
+      <c r="D10" s="131"/>
+      <c r="E10" s="131"/>
+      <c r="F10" s="132"/>
+      <c r="G10" s="132"/>
+      <c r="H10" s="133"/>
+      <c r="I10" s="134"/>
+      <c r="J10" s="131"/>
+      <c r="K10" s="131"/>
+      <c r="L10" s="135"/>
+      <c r="M10" s="135"/>
       <c r="N10" s="122"/>
       <c r="O10" s="25"/>
     </row>
@@ -3008,16 +2990,16 @@
       <c r="A11" s="21"/>
       <c r="B11" s="22"/>
       <c r="C11" s="22"/>
-      <c r="D11" s="158"/>
-      <c r="E11" s="158"/>
-      <c r="F11" s="159"/>
-      <c r="G11" s="159"/>
-      <c r="H11" s="160"/>
-      <c r="I11" s="161"/>
-      <c r="J11" s="158"/>
-      <c r="K11" s="158"/>
-      <c r="L11" s="162"/>
-      <c r="M11" s="162"/>
+      <c r="D11" s="136"/>
+      <c r="E11" s="136"/>
+      <c r="F11" s="137"/>
+      <c r="G11" s="137"/>
+      <c r="H11" s="138"/>
+      <c r="I11" s="139"/>
+      <c r="J11" s="136"/>
+      <c r="K11" s="136"/>
+      <c r="L11" s="140"/>
+      <c r="M11" s="140"/>
       <c r="N11" s="124"/>
       <c r="O11" s="23"/>
     </row>
@@ -3025,16 +3007,16 @@
       <c r="A12" s="21"/>
       <c r="B12" s="24"/>
       <c r="C12" s="22"/>
-      <c r="D12" s="154"/>
-      <c r="E12" s="154"/>
-      <c r="F12" s="155"/>
-      <c r="G12" s="155"/>
-      <c r="H12" s="156"/>
-      <c r="I12" s="157"/>
-      <c r="J12" s="154"/>
-      <c r="K12" s="154"/>
-      <c r="L12" s="153"/>
-      <c r="M12" s="153"/>
+      <c r="D12" s="131"/>
+      <c r="E12" s="131"/>
+      <c r="F12" s="132"/>
+      <c r="G12" s="132"/>
+      <c r="H12" s="133"/>
+      <c r="I12" s="134"/>
+      <c r="J12" s="131"/>
+      <c r="K12" s="131"/>
+      <c r="L12" s="135"/>
+      <c r="M12" s="135"/>
       <c r="N12" s="122"/>
       <c r="O12" s="25"/>
     </row>
@@ -3042,16 +3024,16 @@
       <c r="A13" s="21"/>
       <c r="B13" s="24"/>
       <c r="C13" s="22"/>
-      <c r="D13" s="154"/>
-      <c r="E13" s="154"/>
-      <c r="F13" s="155"/>
-      <c r="G13" s="155"/>
-      <c r="H13" s="156"/>
-      <c r="I13" s="157"/>
-      <c r="J13" s="154"/>
-      <c r="K13" s="154"/>
-      <c r="L13" s="153"/>
-      <c r="M13" s="153"/>
+      <c r="D13" s="131"/>
+      <c r="E13" s="131"/>
+      <c r="F13" s="132"/>
+      <c r="G13" s="132"/>
+      <c r="H13" s="133"/>
+      <c r="I13" s="134"/>
+      <c r="J13" s="131"/>
+      <c r="K13" s="131"/>
+      <c r="L13" s="135"/>
+      <c r="M13" s="135"/>
       <c r="N13" s="122"/>
       <c r="O13" s="25"/>
     </row>
@@ -3059,16 +3041,16 @@
       <c r="A14" s="21"/>
       <c r="B14" s="24"/>
       <c r="C14" s="22"/>
-      <c r="D14" s="154"/>
-      <c r="E14" s="154"/>
-      <c r="F14" s="155"/>
-      <c r="G14" s="155"/>
-      <c r="H14" s="156"/>
-      <c r="I14" s="157"/>
-      <c r="J14" s="154"/>
-      <c r="K14" s="154"/>
-      <c r="L14" s="153"/>
-      <c r="M14" s="153"/>
+      <c r="D14" s="131"/>
+      <c r="E14" s="131"/>
+      <c r="F14" s="132"/>
+      <c r="G14" s="132"/>
+      <c r="H14" s="133"/>
+      <c r="I14" s="134"/>
+      <c r="J14" s="131"/>
+      <c r="K14" s="131"/>
+      <c r="L14" s="135"/>
+      <c r="M14" s="135"/>
       <c r="N14" s="122"/>
       <c r="O14" s="25"/>
     </row>
@@ -3076,16 +3058,16 @@
       <c r="A15" s="21"/>
       <c r="B15" s="24"/>
       <c r="C15" s="22"/>
-      <c r="D15" s="154"/>
-      <c r="E15" s="154"/>
-      <c r="F15" s="155"/>
-      <c r="G15" s="155"/>
-      <c r="H15" s="156"/>
-      <c r="I15" s="157"/>
-      <c r="J15" s="154"/>
-      <c r="K15" s="154"/>
-      <c r="L15" s="153"/>
-      <c r="M15" s="153"/>
+      <c r="D15" s="131"/>
+      <c r="E15" s="131"/>
+      <c r="F15" s="132"/>
+      <c r="G15" s="132"/>
+      <c r="H15" s="133"/>
+      <c r="I15" s="134"/>
+      <c r="J15" s="131"/>
+      <c r="K15" s="131"/>
+      <c r="L15" s="135"/>
+      <c r="M15" s="135"/>
       <c r="N15" s="122"/>
       <c r="O15" s="25"/>
     </row>
@@ -3093,16 +3075,16 @@
       <c r="A16" s="21"/>
       <c r="B16" s="24"/>
       <c r="C16" s="22"/>
-      <c r="D16" s="154"/>
-      <c r="E16" s="154"/>
-      <c r="F16" s="155"/>
-      <c r="G16" s="155"/>
-      <c r="H16" s="156"/>
-      <c r="I16" s="157"/>
-      <c r="J16" s="154"/>
-      <c r="K16" s="154"/>
-      <c r="L16" s="153"/>
-      <c r="M16" s="153"/>
+      <c r="D16" s="131"/>
+      <c r="E16" s="131"/>
+      <c r="F16" s="132"/>
+      <c r="G16" s="132"/>
+      <c r="H16" s="133"/>
+      <c r="I16" s="134"/>
+      <c r="J16" s="131"/>
+      <c r="K16" s="131"/>
+      <c r="L16" s="135"/>
+      <c r="M16" s="135"/>
       <c r="N16" s="122"/>
       <c r="O16" s="25"/>
     </row>
@@ -3110,16 +3092,16 @@
       <c r="A17" s="21"/>
       <c r="B17" s="24"/>
       <c r="C17" s="22"/>
-      <c r="D17" s="154"/>
-      <c r="E17" s="154"/>
-      <c r="F17" s="155"/>
-      <c r="G17" s="155"/>
-      <c r="H17" s="156"/>
-      <c r="I17" s="157"/>
-      <c r="J17" s="154"/>
-      <c r="K17" s="154"/>
-      <c r="L17" s="153"/>
-      <c r="M17" s="153"/>
+      <c r="D17" s="131"/>
+      <c r="E17" s="131"/>
+      <c r="F17" s="132"/>
+      <c r="G17" s="132"/>
+      <c r="H17" s="133"/>
+      <c r="I17" s="134"/>
+      <c r="J17" s="131"/>
+      <c r="K17" s="131"/>
+      <c r="L17" s="135"/>
+      <c r="M17" s="135"/>
       <c r="N17" s="122"/>
       <c r="O17" s="25"/>
     </row>
@@ -3127,16 +3109,16 @@
       <c r="A18" s="21"/>
       <c r="B18" s="24"/>
       <c r="C18" s="22"/>
-      <c r="D18" s="154"/>
-      <c r="E18" s="154"/>
-      <c r="F18" s="155"/>
-      <c r="G18" s="155"/>
-      <c r="H18" s="156"/>
-      <c r="I18" s="157"/>
-      <c r="J18" s="154"/>
-      <c r="K18" s="154"/>
-      <c r="L18" s="153"/>
-      <c r="M18" s="153"/>
+      <c r="D18" s="131"/>
+      <c r="E18" s="131"/>
+      <c r="F18" s="132"/>
+      <c r="G18" s="132"/>
+      <c r="H18" s="133"/>
+      <c r="I18" s="134"/>
+      <c r="J18" s="131"/>
+      <c r="K18" s="131"/>
+      <c r="L18" s="135"/>
+      <c r="M18" s="135"/>
       <c r="N18" s="122"/>
       <c r="O18" s="25"/>
     </row>
@@ -3144,16 +3126,16 @@
       <c r="A19" s="21"/>
       <c r="B19" s="24"/>
       <c r="C19" s="22"/>
-      <c r="D19" s="154"/>
-      <c r="E19" s="154"/>
-      <c r="F19" s="155"/>
-      <c r="G19" s="155"/>
-      <c r="H19" s="156"/>
-      <c r="I19" s="157"/>
-      <c r="J19" s="154"/>
-      <c r="K19" s="154"/>
-      <c r="L19" s="153"/>
-      <c r="M19" s="153"/>
+      <c r="D19" s="131"/>
+      <c r="E19" s="131"/>
+      <c r="F19" s="132"/>
+      <c r="G19" s="132"/>
+      <c r="H19" s="133"/>
+      <c r="I19" s="134"/>
+      <c r="J19" s="131"/>
+      <c r="K19" s="131"/>
+      <c r="L19" s="135"/>
+      <c r="M19" s="135"/>
       <c r="N19" s="122"/>
       <c r="O19" s="25"/>
     </row>
@@ -3161,16 +3143,16 @@
       <c r="A20" s="21"/>
       <c r="B20" s="24"/>
       <c r="C20" s="22"/>
-      <c r="D20" s="154"/>
-      <c r="E20" s="154"/>
-      <c r="F20" s="155"/>
-      <c r="G20" s="155"/>
-      <c r="H20" s="156"/>
-      <c r="I20" s="157"/>
-      <c r="J20" s="154"/>
-      <c r="K20" s="154"/>
-      <c r="L20" s="153"/>
-      <c r="M20" s="153"/>
+      <c r="D20" s="131"/>
+      <c r="E20" s="131"/>
+      <c r="F20" s="132"/>
+      <c r="G20" s="132"/>
+      <c r="H20" s="133"/>
+      <c r="I20" s="134"/>
+      <c r="J20" s="131"/>
+      <c r="K20" s="131"/>
+      <c r="L20" s="135"/>
+      <c r="M20" s="135"/>
       <c r="N20" s="122"/>
       <c r="O20" s="25"/>
     </row>
@@ -3178,16 +3160,16 @@
       <c r="A21" s="21"/>
       <c r="B21" s="22"/>
       <c r="C21" s="22"/>
-      <c r="D21" s="158"/>
-      <c r="E21" s="158"/>
-      <c r="F21" s="159"/>
-      <c r="G21" s="159"/>
-      <c r="H21" s="160"/>
-      <c r="I21" s="161"/>
-      <c r="J21" s="158"/>
-      <c r="K21" s="158"/>
-      <c r="L21" s="162"/>
-      <c r="M21" s="162"/>
+      <c r="D21" s="136"/>
+      <c r="E21" s="136"/>
+      <c r="F21" s="137"/>
+      <c r="G21" s="137"/>
+      <c r="H21" s="138"/>
+      <c r="I21" s="139"/>
+      <c r="J21" s="136"/>
+      <c r="K21" s="136"/>
+      <c r="L21" s="140"/>
+      <c r="M21" s="140"/>
       <c r="N21" s="124"/>
       <c r="O21" s="23"/>
     </row>
@@ -3195,16 +3177,16 @@
       <c r="A22" s="21"/>
       <c r="B22" s="24"/>
       <c r="C22" s="22"/>
-      <c r="D22" s="154"/>
-      <c r="E22" s="154"/>
-      <c r="F22" s="155"/>
-      <c r="G22" s="155"/>
-      <c r="H22" s="156"/>
-      <c r="I22" s="157"/>
-      <c r="J22" s="154"/>
-      <c r="K22" s="154"/>
-      <c r="L22" s="153"/>
-      <c r="M22" s="153"/>
+      <c r="D22" s="131"/>
+      <c r="E22" s="131"/>
+      <c r="F22" s="132"/>
+      <c r="G22" s="132"/>
+      <c r="H22" s="133"/>
+      <c r="I22" s="134"/>
+      <c r="J22" s="131"/>
+      <c r="K22" s="131"/>
+      <c r="L22" s="135"/>
+      <c r="M22" s="135"/>
       <c r="N22" s="122"/>
       <c r="O22" s="25"/>
     </row>
@@ -3212,16 +3194,16 @@
       <c r="A23" s="21"/>
       <c r="B23" s="24"/>
       <c r="C23" s="22"/>
-      <c r="D23" s="154"/>
-      <c r="E23" s="154"/>
-      <c r="F23" s="155"/>
-      <c r="G23" s="155"/>
-      <c r="H23" s="156"/>
-      <c r="I23" s="157"/>
-      <c r="J23" s="154"/>
-      <c r="K23" s="154"/>
-      <c r="L23" s="153"/>
-      <c r="M23" s="153"/>
+      <c r="D23" s="131"/>
+      <c r="E23" s="131"/>
+      <c r="F23" s="132"/>
+      <c r="G23" s="132"/>
+      <c r="H23" s="133"/>
+      <c r="I23" s="134"/>
+      <c r="J23" s="131"/>
+      <c r="K23" s="131"/>
+      <c r="L23" s="135"/>
+      <c r="M23" s="135"/>
       <c r="N23" s="122"/>
       <c r="O23" s="25"/>
     </row>
@@ -3229,16 +3211,16 @@
       <c r="A24" s="21"/>
       <c r="B24" s="22"/>
       <c r="C24" s="22"/>
-      <c r="D24" s="158"/>
-      <c r="E24" s="158"/>
-      <c r="F24" s="159"/>
-      <c r="G24" s="159"/>
-      <c r="H24" s="160"/>
-      <c r="I24" s="161"/>
-      <c r="J24" s="158"/>
-      <c r="K24" s="158"/>
-      <c r="L24" s="162"/>
-      <c r="M24" s="162"/>
+      <c r="D24" s="136"/>
+      <c r="E24" s="136"/>
+      <c r="F24" s="137"/>
+      <c r="G24" s="137"/>
+      <c r="H24" s="138"/>
+      <c r="I24" s="139"/>
+      <c r="J24" s="136"/>
+      <c r="K24" s="136"/>
+      <c r="L24" s="140"/>
+      <c r="M24" s="140"/>
       <c r="N24" s="124"/>
       <c r="O24" s="23"/>
     </row>
@@ -3246,16 +3228,16 @@
       <c r="A25" s="21"/>
       <c r="B25" s="24"/>
       <c r="C25" s="22"/>
-      <c r="D25" s="154"/>
-      <c r="E25" s="154"/>
-      <c r="F25" s="155"/>
-      <c r="G25" s="155"/>
-      <c r="H25" s="156"/>
-      <c r="I25" s="157"/>
-      <c r="J25" s="154"/>
-      <c r="K25" s="154"/>
-      <c r="L25" s="153"/>
-      <c r="M25" s="153"/>
+      <c r="D25" s="131"/>
+      <c r="E25" s="131"/>
+      <c r="F25" s="132"/>
+      <c r="G25" s="132"/>
+      <c r="H25" s="133"/>
+      <c r="I25" s="134"/>
+      <c r="J25" s="131"/>
+      <c r="K25" s="131"/>
+      <c r="L25" s="135"/>
+      <c r="M25" s="135"/>
       <c r="N25" s="122"/>
       <c r="O25" s="25"/>
     </row>
@@ -3263,16 +3245,16 @@
       <c r="A26" s="21"/>
       <c r="B26" s="24"/>
       <c r="C26" s="22"/>
-      <c r="D26" s="154"/>
-      <c r="E26" s="154"/>
-      <c r="F26" s="155"/>
-      <c r="G26" s="155"/>
-      <c r="H26" s="156"/>
-      <c r="I26" s="157"/>
-      <c r="J26" s="154"/>
-      <c r="K26" s="154"/>
-      <c r="L26" s="153"/>
-      <c r="M26" s="153"/>
+      <c r="D26" s="131"/>
+      <c r="E26" s="131"/>
+      <c r="F26" s="132"/>
+      <c r="G26" s="132"/>
+      <c r="H26" s="133"/>
+      <c r="I26" s="134"/>
+      <c r="J26" s="131"/>
+      <c r="K26" s="131"/>
+      <c r="L26" s="135"/>
+      <c r="M26" s="135"/>
       <c r="N26" s="122"/>
       <c r="O26" s="25"/>
     </row>
@@ -3280,16 +3262,16 @@
       <c r="A27" s="21"/>
       <c r="B27" s="24"/>
       <c r="C27" s="22"/>
-      <c r="D27" s="154"/>
-      <c r="E27" s="154"/>
-      <c r="F27" s="155"/>
-      <c r="G27" s="155"/>
-      <c r="H27" s="156"/>
-      <c r="I27" s="157"/>
-      <c r="J27" s="154"/>
-      <c r="K27" s="154"/>
-      <c r="L27" s="153"/>
-      <c r="M27" s="153"/>
+      <c r="D27" s="131"/>
+      <c r="E27" s="131"/>
+      <c r="F27" s="132"/>
+      <c r="G27" s="132"/>
+      <c r="H27" s="133"/>
+      <c r="I27" s="134"/>
+      <c r="J27" s="131"/>
+      <c r="K27" s="131"/>
+      <c r="L27" s="135"/>
+      <c r="M27" s="135"/>
       <c r="N27" s="122"/>
       <c r="O27" s="25"/>
     </row>
@@ -3297,16 +3279,16 @@
       <c r="A28" s="21"/>
       <c r="B28" s="24"/>
       <c r="C28" s="22"/>
-      <c r="D28" s="154"/>
-      <c r="E28" s="154"/>
-      <c r="F28" s="155"/>
-      <c r="G28" s="155"/>
-      <c r="H28" s="156"/>
-      <c r="I28" s="157"/>
-      <c r="J28" s="154"/>
-      <c r="K28" s="154"/>
-      <c r="L28" s="153"/>
-      <c r="M28" s="153"/>
+      <c r="D28" s="131"/>
+      <c r="E28" s="131"/>
+      <c r="F28" s="132"/>
+      <c r="G28" s="132"/>
+      <c r="H28" s="133"/>
+      <c r="I28" s="134"/>
+      <c r="J28" s="131"/>
+      <c r="K28" s="131"/>
+      <c r="L28" s="135"/>
+      <c r="M28" s="135"/>
       <c r="N28" s="122"/>
       <c r="O28" s="25"/>
     </row>
@@ -3314,16 +3296,16 @@
       <c r="A29" s="21"/>
       <c r="B29" s="24"/>
       <c r="C29" s="22"/>
-      <c r="D29" s="154"/>
-      <c r="E29" s="154"/>
-      <c r="F29" s="155"/>
-      <c r="G29" s="155"/>
-      <c r="H29" s="156"/>
-      <c r="I29" s="157"/>
-      <c r="J29" s="154"/>
-      <c r="K29" s="154"/>
-      <c r="L29" s="153"/>
-      <c r="M29" s="153"/>
+      <c r="D29" s="131"/>
+      <c r="E29" s="131"/>
+      <c r="F29" s="132"/>
+      <c r="G29" s="132"/>
+      <c r="H29" s="133"/>
+      <c r="I29" s="134"/>
+      <c r="J29" s="131"/>
+      <c r="K29" s="131"/>
+      <c r="L29" s="135"/>
+      <c r="M29" s="135"/>
       <c r="N29" s="122"/>
       <c r="O29" s="25"/>
     </row>
@@ -3331,16 +3313,16 @@
       <c r="A30" s="21"/>
       <c r="B30" s="24"/>
       <c r="C30" s="22"/>
-      <c r="D30" s="154"/>
-      <c r="E30" s="154"/>
-      <c r="F30" s="155"/>
-      <c r="G30" s="155"/>
-      <c r="H30" s="156"/>
-      <c r="I30" s="157"/>
-      <c r="J30" s="154"/>
-      <c r="K30" s="154"/>
-      <c r="L30" s="153"/>
-      <c r="M30" s="153"/>
+      <c r="D30" s="131"/>
+      <c r="E30" s="131"/>
+      <c r="F30" s="132"/>
+      <c r="G30" s="132"/>
+      <c r="H30" s="133"/>
+      <c r="I30" s="134"/>
+      <c r="J30" s="131"/>
+      <c r="K30" s="131"/>
+      <c r="L30" s="135"/>
+      <c r="M30" s="135"/>
       <c r="N30" s="122"/>
       <c r="O30" s="25"/>
     </row>
@@ -3348,16 +3330,16 @@
       <c r="A31" s="21"/>
       <c r="B31" s="24"/>
       <c r="C31" s="22"/>
-      <c r="D31" s="154"/>
-      <c r="E31" s="154"/>
-      <c r="F31" s="155"/>
-      <c r="G31" s="155"/>
-      <c r="H31" s="156"/>
-      <c r="I31" s="157"/>
-      <c r="J31" s="154"/>
-      <c r="K31" s="154"/>
-      <c r="L31" s="153"/>
-      <c r="M31" s="153"/>
+      <c r="D31" s="131"/>
+      <c r="E31" s="131"/>
+      <c r="F31" s="132"/>
+      <c r="G31" s="132"/>
+      <c r="H31" s="133"/>
+      <c r="I31" s="134"/>
+      <c r="J31" s="131"/>
+      <c r="K31" s="131"/>
+      <c r="L31" s="135"/>
+      <c r="M31" s="135"/>
       <c r="N31" s="122"/>
       <c r="O31" s="25"/>
     </row>
@@ -3365,16 +3347,16 @@
       <c r="A32" s="21"/>
       <c r="B32" s="24"/>
       <c r="C32" s="22"/>
-      <c r="D32" s="154"/>
-      <c r="E32" s="154"/>
-      <c r="F32" s="155"/>
-      <c r="G32" s="155"/>
-      <c r="H32" s="156"/>
-      <c r="I32" s="157"/>
-      <c r="J32" s="154"/>
-      <c r="K32" s="154"/>
-      <c r="L32" s="153"/>
-      <c r="M32" s="153"/>
+      <c r="D32" s="131"/>
+      <c r="E32" s="131"/>
+      <c r="F32" s="132"/>
+      <c r="G32" s="132"/>
+      <c r="H32" s="133"/>
+      <c r="I32" s="134"/>
+      <c r="J32" s="131"/>
+      <c r="K32" s="131"/>
+      <c r="L32" s="135"/>
+      <c r="M32" s="135"/>
       <c r="N32" s="122"/>
       <c r="O32" s="25"/>
     </row>
@@ -3382,16 +3364,16 @@
       <c r="A33" s="21"/>
       <c r="B33" s="24"/>
       <c r="C33" s="22"/>
-      <c r="D33" s="154"/>
-      <c r="E33" s="154"/>
-      <c r="F33" s="155"/>
-      <c r="G33" s="155"/>
-      <c r="H33" s="156"/>
-      <c r="I33" s="157"/>
-      <c r="J33" s="154"/>
-      <c r="K33" s="154"/>
-      <c r="L33" s="153"/>
-      <c r="M33" s="153"/>
+      <c r="D33" s="131"/>
+      <c r="E33" s="131"/>
+      <c r="F33" s="132"/>
+      <c r="G33" s="132"/>
+      <c r="H33" s="133"/>
+      <c r="I33" s="134"/>
+      <c r="J33" s="131"/>
+      <c r="K33" s="131"/>
+      <c r="L33" s="135"/>
+      <c r="M33" s="135"/>
       <c r="N33" s="122"/>
       <c r="O33" s="25"/>
     </row>
@@ -3399,16 +3381,16 @@
       <c r="A34" s="21"/>
       <c r="B34" s="22"/>
       <c r="C34" s="22"/>
-      <c r="D34" s="158"/>
-      <c r="E34" s="158"/>
-      <c r="F34" s="159"/>
-      <c r="G34" s="159"/>
-      <c r="H34" s="160"/>
-      <c r="I34" s="161"/>
-      <c r="J34" s="158"/>
-      <c r="K34" s="158"/>
-      <c r="L34" s="162"/>
-      <c r="M34" s="162"/>
+      <c r="D34" s="136"/>
+      <c r="E34" s="136"/>
+      <c r="F34" s="137"/>
+      <c r="G34" s="137"/>
+      <c r="H34" s="138"/>
+      <c r="I34" s="139"/>
+      <c r="J34" s="136"/>
+      <c r="K34" s="136"/>
+      <c r="L34" s="140"/>
+      <c r="M34" s="140"/>
       <c r="N34" s="124"/>
       <c r="O34" s="23"/>
     </row>
@@ -3416,16 +3398,16 @@
       <c r="A35" s="21"/>
       <c r="B35" s="24"/>
       <c r="C35" s="22"/>
-      <c r="D35" s="154"/>
-      <c r="E35" s="154"/>
-      <c r="F35" s="155"/>
-      <c r="G35" s="155"/>
-      <c r="H35" s="156"/>
-      <c r="I35" s="157"/>
-      <c r="J35" s="154"/>
-      <c r="K35" s="154"/>
-      <c r="L35" s="153"/>
-      <c r="M35" s="153"/>
+      <c r="D35" s="131"/>
+      <c r="E35" s="131"/>
+      <c r="F35" s="132"/>
+      <c r="G35" s="132"/>
+      <c r="H35" s="133"/>
+      <c r="I35" s="134"/>
+      <c r="J35" s="131"/>
+      <c r="K35" s="131"/>
+      <c r="L35" s="135"/>
+      <c r="M35" s="135"/>
       <c r="N35" s="122"/>
       <c r="O35" s="25"/>
     </row>
@@ -3433,16 +3415,16 @@
       <c r="A36" s="21"/>
       <c r="B36" s="24"/>
       <c r="C36" s="22"/>
-      <c r="D36" s="154"/>
-      <c r="E36" s="154"/>
-      <c r="F36" s="155"/>
-      <c r="G36" s="155"/>
-      <c r="H36" s="156"/>
-      <c r="I36" s="157"/>
-      <c r="J36" s="154"/>
-      <c r="K36" s="154"/>
-      <c r="L36" s="153"/>
-      <c r="M36" s="153"/>
+      <c r="D36" s="131"/>
+      <c r="E36" s="131"/>
+      <c r="F36" s="132"/>
+      <c r="G36" s="132"/>
+      <c r="H36" s="133"/>
+      <c r="I36" s="134"/>
+      <c r="J36" s="131"/>
+      <c r="K36" s="131"/>
+      <c r="L36" s="135"/>
+      <c r="M36" s="135"/>
       <c r="N36" s="122"/>
       <c r="O36" s="25"/>
     </row>
@@ -3450,50 +3432,50 @@
       <c r="A37" s="21"/>
       <c r="B37" s="22"/>
       <c r="C37" s="22"/>
-      <c r="D37" s="158"/>
-      <c r="E37" s="158"/>
-      <c r="F37" s="159"/>
-      <c r="G37" s="159"/>
-      <c r="H37" s="160"/>
-      <c r="I37" s="161"/>
-      <c r="J37" s="158"/>
-      <c r="K37" s="158"/>
-      <c r="L37" s="162"/>
-      <c r="M37" s="162"/>
+      <c r="D37" s="136"/>
+      <c r="E37" s="136"/>
+      <c r="F37" s="137"/>
+      <c r="G37" s="137"/>
+      <c r="H37" s="138"/>
+      <c r="I37" s="139"/>
+      <c r="J37" s="136"/>
+      <c r="K37" s="136"/>
+      <c r="L37" s="140"/>
+      <c r="M37" s="140"/>
       <c r="N37" s="124"/>
       <c r="O37" s="23"/>
     </row>
     <row r="38" spans="1:15" ht="18.600000000000001" customHeight="1">
-      <c r="A38" s="145"/>
-      <c r="B38" s="146"/>
-      <c r="C38" s="146" t="s">
+      <c r="A38" s="60"/>
+      <c r="B38" s="60"/>
+      <c r="C38" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="D38" s="178" t="e">
+      <c r="D38" s="168" t="e">
         <f>AVERAGE(D8:E37)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E38" s="178"/>
-      <c r="F38" s="172" t="e">
+      <c r="E38" s="168"/>
+      <c r="F38" s="162" t="e">
         <f>AVERAGE(F8:G37)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G38" s="172"/>
-      <c r="H38" s="175" t="e">
+      <c r="G38" s="162"/>
+      <c r="H38" s="165" t="e">
         <f>AVERAGE(H8:I37)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I38" s="175"/>
-      <c r="J38" s="178" t="e">
+      <c r="I38" s="165"/>
+      <c r="J38" s="168" t="e">
         <f>AVERAGE(J8:K37)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K38" s="178"/>
-      <c r="L38" s="180" t="e">
+      <c r="K38" s="168"/>
+      <c r="L38" s="170" t="e">
         <f>AVERAGE(L8:M37)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M38" s="180"/>
+      <c r="M38" s="170"/>
       <c r="N38" s="127" t="e">
         <f>AVERAGE(N8:N37)</f>
         <v>#DIV/0!</v>
@@ -3504,36 +3486,36 @@
       </c>
     </row>
     <row r="39" spans="1:15" ht="18.600000000000001" customHeight="1">
-      <c r="A39" s="147"/>
-      <c r="B39" s="148"/>
-      <c r="C39" s="148" t="s">
+      <c r="A39" s="63"/>
+      <c r="B39" s="63"/>
+      <c r="C39" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="D39" s="179">
+      <c r="D39" s="169">
         <f>MIN(D8:E37)</f>
         <v>0</v>
       </c>
-      <c r="E39" s="179"/>
-      <c r="F39" s="173">
+      <c r="E39" s="169"/>
+      <c r="F39" s="163">
         <f>MIN(F8:G37)</f>
         <v>0</v>
       </c>
-      <c r="G39" s="173"/>
-      <c r="H39" s="176">
+      <c r="G39" s="163"/>
+      <c r="H39" s="166">
         <f>MIN(H8:I37)</f>
         <v>0</v>
       </c>
-      <c r="I39" s="176"/>
-      <c r="J39" s="179">
+      <c r="I39" s="166"/>
+      <c r="J39" s="169">
         <f>MIN(J8:K37)</f>
         <v>0</v>
       </c>
-      <c r="K39" s="179"/>
-      <c r="L39" s="181">
+      <c r="K39" s="169"/>
+      <c r="L39" s="171">
         <f>MIN(L8:M37)</f>
         <v>0</v>
       </c>
-      <c r="M39" s="181"/>
+      <c r="M39" s="171"/>
       <c r="N39" s="128">
         <f>MIN(N8:N37)</f>
         <v>0</v>
@@ -3544,36 +3526,36 @@
       </c>
     </row>
     <row r="40" spans="1:15" ht="18.600000000000001" customHeight="1" thickBot="1">
-      <c r="A40" s="149"/>
-      <c r="B40" s="150"/>
-      <c r="C40" s="150" t="s">
+      <c r="A40" s="66"/>
+      <c r="B40" s="66"/>
+      <c r="C40" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="D40" s="171">
+      <c r="D40" s="161">
         <f>MAX(D8:E37)</f>
         <v>0</v>
       </c>
-      <c r="E40" s="171"/>
-      <c r="F40" s="174">
+      <c r="E40" s="161"/>
+      <c r="F40" s="164">
         <f>MAX(F8:G37)</f>
         <v>0</v>
       </c>
-      <c r="G40" s="174"/>
-      <c r="H40" s="177">
+      <c r="G40" s="164"/>
+      <c r="H40" s="167">
         <f>MAX(H8:I37)</f>
         <v>0</v>
       </c>
-      <c r="I40" s="177"/>
-      <c r="J40" s="171">
+      <c r="I40" s="167"/>
+      <c r="J40" s="161">
         <f>MAX(J8:K37)</f>
         <v>0</v>
       </c>
-      <c r="K40" s="171"/>
-      <c r="L40" s="170">
+      <c r="K40" s="161"/>
+      <c r="L40" s="159">
         <f>MAX(L8:M37)</f>
         <v>0</v>
       </c>
-      <c r="M40" s="170"/>
+      <c r="M40" s="159"/>
       <c r="N40" s="126">
         <f>MAX(N8:N37)</f>
         <v>0</v>
@@ -3587,31 +3569,31 @@
       <c r="A41" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="B41" s="151"/>
-      <c r="C41" s="151"/>
-      <c r="D41" s="152" t="s">
+      <c r="B41" s="188"/>
+      <c r="C41" s="188"/>
+      <c r="D41" s="189" t="s">
         <v>13</v>
       </c>
-      <c r="E41" s="152"/>
+      <c r="E41" s="189"/>
       <c r="F41" s="30"/>
       <c r="G41" s="31"/>
       <c r="H41" s="31"/>
       <c r="I41" s="31"/>
       <c r="J41" s="31"/>
-      <c r="K41" s="169" t="s">
+      <c r="K41" s="158" t="s">
         <v>14</v>
       </c>
-      <c r="L41" s="169"/>
-      <c r="M41" s="134"/>
-      <c r="N41" s="134"/>
+      <c r="L41" s="158"/>
+      <c r="M41" s="160"/>
+      <c r="N41" s="160"/>
       <c r="O41" s="29" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="42" spans="1:15" ht="16.5" customHeight="1">
       <c r="A42" s="29"/>
-      <c r="B42" s="133"/>
-      <c r="C42" s="133"/>
+      <c r="B42" s="177"/>
+      <c r="C42" s="177"/>
       <c r="D42" s="13"/>
       <c r="E42" s="13"/>
       <c r="F42" s="29"/>
@@ -3621,38 +3603,38 @@
       <c r="J42" s="31"/>
       <c r="K42" s="32"/>
       <c r="L42" s="32"/>
-      <c r="M42" s="134"/>
-      <c r="N42" s="134"/>
+      <c r="M42" s="160"/>
+      <c r="N42" s="160"/>
       <c r="O42" s="32"/>
     </row>
     <row r="43" spans="1:15" s="34" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A43" s="131" t="s">
+      <c r="A43" s="175" t="s">
         <v>12</v>
       </c>
-      <c r="B43" s="131"/>
-      <c r="C43" s="131"/>
+      <c r="B43" s="175"/>
+      <c r="C43" s="175"/>
       <c r="D43" s="33"/>
       <c r="E43" s="33"/>
       <c r="F43" s="33"/>
       <c r="G43" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="H43" s="131" t="s">
+      <c r="H43" s="175" t="s">
         <v>121</v>
       </c>
-      <c r="I43" s="131"/>
-      <c r="J43" s="131"/>
-      <c r="K43" s="131"/>
+      <c r="I43" s="175"/>
+      <c r="J43" s="175"/>
+      <c r="K43" s="175"/>
       <c r="L43" s="33"/>
       <c r="M43" s="33"/>
       <c r="N43" s="33"/>
       <c r="O43" s="33"/>
     </row>
     <row r="44" spans="1:15" ht="16.5" customHeight="1">
-      <c r="A44" s="132" t="s">
+      <c r="A44" s="176" t="s">
         <v>21</v>
       </c>
-      <c r="B44" s="132"/>
+      <c r="B44" s="176"/>
       <c r="C44" s="35"/>
       <c r="D44" s="31"/>
       <c r="E44" s="31"/>
@@ -3695,98 +3677,189 @@
       <c r="M52" s="37"/>
     </row>
     <row r="76" spans="3:15" ht="15.75" customHeight="1">
-      <c r="C76" s="168"/>
-      <c r="D76" s="168"/>
-      <c r="E76" s="168"/>
-      <c r="I76" s="168"/>
-      <c r="J76" s="168"/>
-      <c r="K76" s="168"/>
-      <c r="L76" s="168"/>
-      <c r="M76" s="168"/>
-      <c r="N76" s="168"/>
-      <c r="O76" s="168"/>
+      <c r="C76" s="172"/>
+      <c r="D76" s="172"/>
+      <c r="E76" s="172"/>
+      <c r="I76" s="172"/>
+      <c r="J76" s="172"/>
+      <c r="K76" s="172"/>
+      <c r="L76" s="172"/>
+      <c r="M76" s="172"/>
+      <c r="N76" s="172"/>
+      <c r="O76" s="172"/>
     </row>
     <row r="77" spans="3:15" ht="15.75" customHeight="1">
-      <c r="C77" s="168"/>
-      <c r="D77" s="168"/>
-      <c r="E77" s="168"/>
-      <c r="F77" s="168"/>
-      <c r="I77" s="168"/>
-      <c r="J77" s="168"/>
-      <c r="K77" s="168"/>
-      <c r="L77" s="168"/>
-      <c r="M77" s="168"/>
-      <c r="N77" s="168"/>
-      <c r="O77" s="168"/>
+      <c r="C77" s="172"/>
+      <c r="D77" s="172"/>
+      <c r="E77" s="172"/>
+      <c r="F77" s="172"/>
+      <c r="I77" s="172"/>
+      <c r="J77" s="172"/>
+      <c r="K77" s="172"/>
+      <c r="L77" s="172"/>
+      <c r="M77" s="172"/>
+      <c r="N77" s="172"/>
+      <c r="O77" s="172"/>
     </row>
     <row r="78" spans="3:15" ht="15.75" customHeight="1">
-      <c r="C78" s="168"/>
-      <c r="D78" s="168"/>
-      <c r="E78" s="168"/>
-      <c r="I78" s="168"/>
-      <c r="J78" s="168"/>
-      <c r="K78" s="168"/>
-      <c r="L78" s="168"/>
-      <c r="M78" s="168"/>
-      <c r="N78" s="168"/>
-      <c r="O78" s="168"/>
+      <c r="C78" s="172"/>
+      <c r="D78" s="172"/>
+      <c r="E78" s="172"/>
+      <c r="I78" s="172"/>
+      <c r="J78" s="172"/>
+      <c r="K78" s="172"/>
+      <c r="L78" s="172"/>
+      <c r="M78" s="172"/>
+      <c r="N78" s="172"/>
+      <c r="O78" s="172"/>
     </row>
     <row r="79" spans="3:15" ht="15.75" customHeight="1">
-      <c r="C79" s="168"/>
-      <c r="D79" s="168"/>
-      <c r="E79" s="168"/>
+      <c r="C79" s="172"/>
+      <c r="D79" s="172"/>
+      <c r="E79" s="172"/>
     </row>
   </sheetData>
-  <mergeCells count="216">
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="A2:M3"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="L6:M6"/>
+  <mergeCells count="213">
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="C79:E79"/>
+    <mergeCell ref="I76:K76"/>
+    <mergeCell ref="L76:O76"/>
+    <mergeCell ref="L77:O77"/>
+    <mergeCell ref="L78:O78"/>
+    <mergeCell ref="I77:K77"/>
+    <mergeCell ref="I78:K78"/>
+    <mergeCell ref="C76:E76"/>
+    <mergeCell ref="C77:F77"/>
+    <mergeCell ref="C78:E78"/>
     <mergeCell ref="K41:L41"/>
     <mergeCell ref="L40:M40"/>
     <mergeCell ref="M41:N41"/>
@@ -3811,149 +3884,55 @@
     <mergeCell ref="H37:I37"/>
     <mergeCell ref="J37:K37"/>
     <mergeCell ref="L37:M37"/>
-    <mergeCell ref="C79:E79"/>
-    <mergeCell ref="I76:K76"/>
-    <mergeCell ref="L76:O76"/>
-    <mergeCell ref="L77:O77"/>
-    <mergeCell ref="L78:O78"/>
-    <mergeCell ref="I77:K77"/>
-    <mergeCell ref="I78:K78"/>
-    <mergeCell ref="C76:E76"/>
-    <mergeCell ref="C77:F77"/>
-    <mergeCell ref="C78:E78"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="H43:K43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="A2:M3"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:K22"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="H6">
@@ -3986,7 +3965,7 @@
   <dimension ref="A1:O70"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B4" sqref="B4:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -3997,61 +3976,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="38" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A1" s="235" t="s">
+      <c r="A1" s="195" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="235"/>
-      <c r="C1" s="235"/>
-      <c r="D1" s="235"/>
-      <c r="E1" s="235"/>
-      <c r="F1" s="235"/>
-      <c r="G1" s="235"/>
-      <c r="H1" s="235"/>
-      <c r="I1" s="235"/>
-      <c r="J1" s="235"/>
-      <c r="K1" s="235"/>
-      <c r="L1" s="235"/>
-      <c r="M1" s="235"/>
-      <c r="N1" s="187" t="s">
+      <c r="B1" s="195"/>
+      <c r="C1" s="195"/>
+      <c r="D1" s="195"/>
+      <c r="E1" s="195"/>
+      <c r="F1" s="195"/>
+      <c r="G1" s="195"/>
+      <c r="H1" s="195"/>
+      <c r="I1" s="195"/>
+      <c r="J1" s="195"/>
+      <c r="K1" s="195"/>
+      <c r="L1" s="195"/>
+      <c r="M1" s="195"/>
+      <c r="N1" s="148" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="187"/>
+      <c r="O1" s="148"/>
     </row>
     <row r="2" spans="1:15" s="38" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A2" s="236" t="s">
+      <c r="A2" s="196" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="236"/>
-      <c r="C2" s="236"/>
-      <c r="D2" s="236"/>
-      <c r="E2" s="236"/>
-      <c r="F2" s="236"/>
-      <c r="G2" s="236"/>
-      <c r="H2" s="236"/>
-      <c r="I2" s="236"/>
-      <c r="J2" s="236"/>
-      <c r="K2" s="236"/>
-      <c r="L2" s="236"/>
-      <c r="M2" s="236"/>
-      <c r="N2" s="188" t="s">
+      <c r="B2" s="196"/>
+      <c r="C2" s="196"/>
+      <c r="D2" s="196"/>
+      <c r="E2" s="196"/>
+      <c r="F2" s="196"/>
+      <c r="G2" s="196"/>
+      <c r="H2" s="196"/>
+      <c r="I2" s="196"/>
+      <c r="J2" s="196"/>
+      <c r="K2" s="196"/>
+      <c r="L2" s="196"/>
+      <c r="M2" s="196"/>
+      <c r="N2" s="149" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="188"/>
+      <c r="O2" s="149"/>
     </row>
     <row r="3" spans="1:15" s="38" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="236"/>
-      <c r="B3" s="236"/>
-      <c r="C3" s="236"/>
-      <c r="D3" s="236"/>
-      <c r="E3" s="236"/>
-      <c r="F3" s="236"/>
-      <c r="G3" s="236"/>
-      <c r="H3" s="236"/>
-      <c r="I3" s="236"/>
-      <c r="J3" s="236"/>
-      <c r="K3" s="236"/>
-      <c r="L3" s="236"/>
-      <c r="M3" s="236"/>
+      <c r="A3" s="196"/>
+      <c r="B3" s="196"/>
+      <c r="C3" s="196"/>
+      <c r="D3" s="196"/>
+      <c r="E3" s="196"/>
+      <c r="F3" s="196"/>
+      <c r="G3" s="196"/>
+      <c r="H3" s="196"/>
+      <c r="I3" s="196"/>
+      <c r="J3" s="196"/>
+      <c r="K3" s="196"/>
+      <c r="L3" s="196"/>
+      <c r="M3" s="196"/>
       <c r="N3" s="12" t="s">
         <v>19</v>
       </c>
@@ -4061,130 +4040,130 @@
       <c r="A4" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="238">
+      <c r="B4" s="198">
         <f>Page1!B4</f>
         <v>0</v>
       </c>
-      <c r="C4" s="240"/>
-      <c r="D4" s="241"/>
-      <c r="E4" s="242" t="s">
+      <c r="C4" s="200"/>
+      <c r="D4" s="201"/>
+      <c r="E4" s="202" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="243"/>
-      <c r="G4" s="238">
+      <c r="F4" s="203"/>
+      <c r="G4" s="198">
         <f>Page1!G4</f>
         <v>0</v>
       </c>
-      <c r="H4" s="241"/>
+      <c r="H4" s="201"/>
       <c r="I4" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="244">
+      <c r="J4" s="204">
         <f>Page1!J4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="244"/>
-      <c r="L4" s="237" t="s">
+      <c r="K4" s="204"/>
+      <c r="L4" s="197" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="237">
+      <c r="M4" s="197">
         <f>Page1!N4</f>
         <v>0</v>
       </c>
-      <c r="N4" s="238">
+      <c r="N4" s="198">
         <f>Page1!N4</f>
         <v>0</v>
       </c>
-      <c r="O4" s="239"/>
+      <c r="O4" s="199"/>
     </row>
     <row r="5" spans="1:15" s="41" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A5" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="183">
+      <c r="B5" s="143">
         <f>Page1!B5</f>
         <v>0</v>
       </c>
-      <c r="C5" s="232"/>
-      <c r="D5" s="194"/>
-      <c r="E5" s="233" t="s">
+      <c r="C5" s="192"/>
+      <c r="D5" s="155"/>
+      <c r="E5" s="193" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="234"/>
-      <c r="G5" s="183">
+      <c r="F5" s="194"/>
+      <c r="G5" s="143">
         <f>Page1!G5</f>
         <v>0</v>
       </c>
-      <c r="H5" s="194"/>
+      <c r="H5" s="155"/>
       <c r="I5" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="167">
+      <c r="J5" s="142">
         <f>Page1!J5</f>
         <v>0</v>
       </c>
-      <c r="K5" s="167"/>
-      <c r="L5" s="245" t="s">
+      <c r="K5" s="142"/>
+      <c r="L5" s="205" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="245">
+      <c r="M5" s="205">
         <f>Page1!N5</f>
         <v>0</v>
       </c>
-      <c r="N5" s="183">
+      <c r="N5" s="143">
         <f>Page1!N5</f>
         <v>0</v>
       </c>
-      <c r="O5" s="195"/>
+      <c r="O5" s="157"/>
     </row>
     <row r="6" spans="1:15" s="44" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A6" s="231" t="s">
+      <c r="A6" s="190" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="221"/>
-      <c r="C6" s="221"/>
-      <c r="D6" s="221"/>
-      <c r="E6" s="221"/>
-      <c r="F6" s="221"/>
-      <c r="G6" s="221"/>
-      <c r="H6" s="221"/>
-      <c r="I6" s="221"/>
-      <c r="J6" s="221"/>
-      <c r="K6" s="221"/>
-      <c r="L6" s="221"/>
-      <c r="M6" s="221"/>
-      <c r="N6" s="221"/>
-      <c r="O6" s="222"/>
+      <c r="B6" s="191"/>
+      <c r="C6" s="191"/>
+      <c r="D6" s="191"/>
+      <c r="E6" s="191"/>
+      <c r="F6" s="191"/>
+      <c r="G6" s="191"/>
+      <c r="H6" s="191"/>
+      <c r="I6" s="191"/>
+      <c r="J6" s="191"/>
+      <c r="K6" s="191"/>
+      <c r="L6" s="191"/>
+      <c r="M6" s="191"/>
+      <c r="N6" s="191"/>
+      <c r="O6" s="206"/>
     </row>
     <row r="7" spans="1:15" s="44" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A7" s="197" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="268"/>
-      <c r="C7" s="198"/>
-      <c r="D7" s="226" t="s">
+      <c r="A7" s="217" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="218"/>
+      <c r="C7" s="219"/>
+      <c r="D7" s="210" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="226"/>
-      <c r="F7" s="226"/>
-      <c r="G7" s="226"/>
-      <c r="H7" s="217" t="s">
+      <c r="E7" s="210"/>
+      <c r="F7" s="210"/>
+      <c r="G7" s="210"/>
+      <c r="H7" s="211" t="s">
         <v>119</v>
       </c>
-      <c r="I7" s="218"/>
-      <c r="J7" s="218"/>
-      <c r="K7" s="227"/>
-      <c r="L7" s="217" t="s">
+      <c r="I7" s="212"/>
+      <c r="J7" s="212"/>
+      <c r="K7" s="213"/>
+      <c r="L7" s="211" t="s">
         <v>120</v>
       </c>
-      <c r="M7" s="218"/>
-      <c r="N7" s="218"/>
-      <c r="O7" s="219"/>
+      <c r="M7" s="212"/>
+      <c r="N7" s="212"/>
+      <c r="O7" s="238"/>
     </row>
     <row r="8" spans="1:15" s="44" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A8" s="199"/>
-      <c r="B8" s="200"/>
-      <c r="C8" s="201"/>
+      <c r="A8" s="220"/>
+      <c r="B8" s="221"/>
+      <c r="C8" s="222"/>
       <c r="D8" s="45">
         <v>1</v>
       </c>
@@ -5278,27 +5257,27 @@
       <c r="C39" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="D39" s="228" t="e">
+      <c r="D39" s="214" t="e">
         <f>AVERAGE(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E39" s="229"/>
-      <c r="F39" s="229"/>
-      <c r="G39" s="230"/>
-      <c r="H39" s="210" t="e">
+      <c r="E39" s="215"/>
+      <c r="F39" s="215"/>
+      <c r="G39" s="216"/>
+      <c r="H39" s="231" t="e">
         <f>AVERAGE(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I39" s="211"/>
-      <c r="J39" s="211"/>
-      <c r="K39" s="220"/>
-      <c r="L39" s="210" t="e">
+      <c r="I39" s="232"/>
+      <c r="J39" s="232"/>
+      <c r="K39" s="239"/>
+      <c r="L39" s="231" t="e">
         <f>AVERAGE(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M39" s="211"/>
-      <c r="N39" s="211"/>
-      <c r="O39" s="212"/>
+      <c r="M39" s="232"/>
+      <c r="N39" s="232"/>
+      <c r="O39" s="233"/>
     </row>
     <row r="40" spans="1:15" ht="18" customHeight="1">
       <c r="A40" s="61"/>
@@ -5306,27 +5285,27 @@
       <c r="C40" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="D40" s="223" t="e">
+      <c r="D40" s="207" t="e">
         <f>MIN(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E40" s="224"/>
-      <c r="F40" s="224"/>
-      <c r="G40" s="225"/>
-      <c r="H40" s="213" t="e">
+      <c r="E40" s="208"/>
+      <c r="F40" s="208"/>
+      <c r="G40" s="209"/>
+      <c r="H40" s="234" t="e">
         <f>MIN(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I40" s="214"/>
-      <c r="J40" s="214"/>
-      <c r="K40" s="215"/>
-      <c r="L40" s="213" t="e">
+      <c r="I40" s="235"/>
+      <c r="J40" s="235"/>
+      <c r="K40" s="236"/>
+      <c r="L40" s="234" t="e">
         <f>MIN(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M40" s="214"/>
-      <c r="N40" s="214"/>
-      <c r="O40" s="216"/>
+      <c r="M40" s="235"/>
+      <c r="N40" s="235"/>
+      <c r="O40" s="237"/>
     </row>
     <row r="41" spans="1:15" ht="18" customHeight="1" thickBot="1">
       <c r="A41" s="64"/>
@@ -5334,38 +5313,38 @@
       <c r="C41" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="D41" s="205" t="e">
+      <c r="D41" s="226" t="e">
         <f>MAX(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E41" s="206"/>
-      <c r="F41" s="206"/>
-      <c r="G41" s="207"/>
-      <c r="H41" s="202" t="e">
+      <c r="E41" s="227"/>
+      <c r="F41" s="227"/>
+      <c r="G41" s="228"/>
+      <c r="H41" s="223" t="e">
         <f>MAX(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I41" s="203"/>
-      <c r="J41" s="203"/>
-      <c r="K41" s="209"/>
-      <c r="L41" s="202" t="e">
+      <c r="I41" s="224"/>
+      <c r="J41" s="224"/>
+      <c r="K41" s="230"/>
+      <c r="L41" s="223" t="e">
         <f>MAX(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M41" s="203"/>
-      <c r="N41" s="203"/>
-      <c r="O41" s="204"/>
+      <c r="M41" s="224"/>
+      <c r="N41" s="224"/>
+      <c r="O41" s="225"/>
     </row>
     <row r="42" spans="1:15" s="11" customFormat="1" ht="16.5" customHeight="1">
       <c r="A42" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="B42" s="151"/>
-      <c r="C42" s="151"/>
-      <c r="D42" s="152" t="s">
+      <c r="B42" s="188"/>
+      <c r="C42" s="188"/>
+      <c r="D42" s="189" t="s">
         <v>13</v>
       </c>
-      <c r="E42" s="152"/>
+      <c r="E42" s="189"/>
       <c r="F42" s="30"/>
       <c r="G42" s="31"/>
       <c r="H42" s="31"/>
@@ -5375,16 +5354,16 @@
       <c r="L42" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="M42" s="208"/>
-      <c r="N42" s="208"/>
+      <c r="M42" s="229"/>
+      <c r="N42" s="229"/>
       <c r="O42" s="29" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:15" s="11" customFormat="1" ht="16.5" customHeight="1">
       <c r="A43" s="29"/>
-      <c r="B43" s="133"/>
-      <c r="C43" s="133"/>
+      <c r="B43" s="177"/>
+      <c r="C43" s="177"/>
       <c r="D43" s="13"/>
       <c r="E43" s="13"/>
       <c r="F43" s="29"/>
@@ -5394,38 +5373,38 @@
       <c r="J43" s="31"/>
       <c r="K43" s="32"/>
       <c r="L43" s="86"/>
-      <c r="M43" s="134"/>
-      <c r="N43" s="134"/>
+      <c r="M43" s="160"/>
+      <c r="N43" s="160"/>
       <c r="O43" s="32"/>
     </row>
     <row r="44" spans="1:15" s="34" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A44" s="131" t="s">
+      <c r="A44" s="175" t="s">
         <v>12</v>
       </c>
-      <c r="B44" s="131"/>
-      <c r="C44" s="131"/>
+      <c r="B44" s="175"/>
+      <c r="C44" s="175"/>
       <c r="D44" s="33"/>
       <c r="E44" s="33"/>
       <c r="F44" s="33"/>
       <c r="G44" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="H44" s="131" t="s">
+      <c r="H44" s="175" t="s">
         <v>121</v>
       </c>
-      <c r="I44" s="131"/>
-      <c r="J44" s="131"/>
-      <c r="K44" s="131"/>
+      <c r="I44" s="175"/>
+      <c r="J44" s="175"/>
+      <c r="K44" s="175"/>
       <c r="L44" s="33"/>
       <c r="M44" s="33"/>
       <c r="N44" s="33"/>
       <c r="O44" s="33"/>
     </row>
     <row r="45" spans="1:15" s="11" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A45" s="132" t="s">
+      <c r="A45" s="176" t="s">
         <v>21</v>
       </c>
-      <c r="B45" s="132"/>
+      <c r="B45" s="176"/>
       <c r="C45" s="35"/>
       <c r="D45" s="31"/>
       <c r="E45" s="31"/>
@@ -5436,10 +5415,10 @@
       <c r="J45" s="31"/>
       <c r="K45" s="31"/>
       <c r="L45" s="31"/>
-      <c r="M45" s="196" t="s">
+      <c r="M45" s="240" t="s">
         <v>110</v>
       </c>
-      <c r="N45" s="196"/>
+      <c r="N45" s="240"/>
       <c r="O45" s="31"/>
     </row>
     <row r="56" s="53" customFormat="1"/>
@@ -5459,6 +5438,30 @@
     <row r="70" s="53" customFormat="1"/>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="A7:C8"/>
+    <mergeCell ref="L41:O41"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="L39:O39"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="L40:O40"/>
+    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="D6:O6"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="D39:G39"/>
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="E5:F5"/>
@@ -5475,30 +5478,6 @@
     <mergeCell ref="L5:M5"/>
     <mergeCell ref="N5:O5"/>
     <mergeCell ref="J5:K5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="D6:O6"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="A7:C8"/>
-    <mergeCell ref="L41:O41"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="H41:K41"/>
-    <mergeCell ref="L39:O39"/>
-    <mergeCell ref="H40:K40"/>
-    <mergeCell ref="L40:O40"/>
-    <mergeCell ref="L7:O7"/>
-    <mergeCell ref="H39:K39"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="H44:K44"/>
-    <mergeCell ref="B42:C42"/>
   </mergeCells>
   <conditionalFormatting sqref="D9:G41">
     <cfRule type="cellIs" dxfId="8" priority="3" operator="lessThan">
@@ -5547,61 +5526,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="38" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A1" s="235" t="s">
+      <c r="A1" s="195" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="235"/>
-      <c r="C1" s="235"/>
-      <c r="D1" s="235"/>
-      <c r="E1" s="235"/>
-      <c r="F1" s="235"/>
-      <c r="G1" s="235"/>
-      <c r="H1" s="235"/>
-      <c r="I1" s="235"/>
-      <c r="J1" s="235"/>
-      <c r="K1" s="235"/>
-      <c r="L1" s="235"/>
-      <c r="M1" s="235"/>
-      <c r="N1" s="187" t="s">
+      <c r="B1" s="195"/>
+      <c r="C1" s="195"/>
+      <c r="D1" s="195"/>
+      <c r="E1" s="195"/>
+      <c r="F1" s="195"/>
+      <c r="G1" s="195"/>
+      <c r="H1" s="195"/>
+      <c r="I1" s="195"/>
+      <c r="J1" s="195"/>
+      <c r="K1" s="195"/>
+      <c r="L1" s="195"/>
+      <c r="M1" s="195"/>
+      <c r="N1" s="148" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="187"/>
+      <c r="O1" s="148"/>
     </row>
     <row r="2" spans="1:15" s="38" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A2" s="236" t="s">
+      <c r="A2" s="196" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="236"/>
-      <c r="C2" s="236"/>
-      <c r="D2" s="236"/>
-      <c r="E2" s="236"/>
-      <c r="F2" s="236"/>
-      <c r="G2" s="236"/>
-      <c r="H2" s="236"/>
-      <c r="I2" s="236"/>
-      <c r="J2" s="236"/>
-      <c r="K2" s="236"/>
-      <c r="L2" s="236"/>
-      <c r="M2" s="236"/>
-      <c r="N2" s="188" t="s">
+      <c r="B2" s="196"/>
+      <c r="C2" s="196"/>
+      <c r="D2" s="196"/>
+      <c r="E2" s="196"/>
+      <c r="F2" s="196"/>
+      <c r="G2" s="196"/>
+      <c r="H2" s="196"/>
+      <c r="I2" s="196"/>
+      <c r="J2" s="196"/>
+      <c r="K2" s="196"/>
+      <c r="L2" s="196"/>
+      <c r="M2" s="196"/>
+      <c r="N2" s="149" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="188"/>
+      <c r="O2" s="149"/>
     </row>
     <row r="3" spans="1:15" s="38" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="236"/>
-      <c r="B3" s="236"/>
-      <c r="C3" s="236"/>
-      <c r="D3" s="236"/>
-      <c r="E3" s="236"/>
-      <c r="F3" s="236"/>
-      <c r="G3" s="236"/>
-      <c r="H3" s="236"/>
-      <c r="I3" s="236"/>
-      <c r="J3" s="236"/>
-      <c r="K3" s="236"/>
-      <c r="L3" s="236"/>
-      <c r="M3" s="236"/>
+      <c r="A3" s="196"/>
+      <c r="B3" s="196"/>
+      <c r="C3" s="196"/>
+      <c r="D3" s="196"/>
+      <c r="E3" s="196"/>
+      <c r="F3" s="196"/>
+      <c r="G3" s="196"/>
+      <c r="H3" s="196"/>
+      <c r="I3" s="196"/>
+      <c r="J3" s="196"/>
+      <c r="K3" s="196"/>
+      <c r="L3" s="196"/>
+      <c r="M3" s="196"/>
       <c r="N3" s="12" t="s">
         <v>19</v>
       </c>
@@ -5611,130 +5590,130 @@
       <c r="A4" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="238">
+      <c r="B4" s="198">
         <f>Page1!B4</f>
         <v>0</v>
       </c>
-      <c r="C4" s="240"/>
-      <c r="D4" s="241"/>
-      <c r="E4" s="242" t="s">
+      <c r="C4" s="200"/>
+      <c r="D4" s="201"/>
+      <c r="E4" s="202" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="243"/>
-      <c r="G4" s="238">
+      <c r="F4" s="203"/>
+      <c r="G4" s="198">
         <f>Page1!G4</f>
         <v>0</v>
       </c>
-      <c r="H4" s="241"/>
+      <c r="H4" s="201"/>
       <c r="I4" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="244">
+      <c r="J4" s="204">
         <f>Page1!J4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="244"/>
-      <c r="L4" s="237" t="s">
+      <c r="K4" s="204"/>
+      <c r="L4" s="197" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="237">
+      <c r="M4" s="197">
         <f>Page1!N4</f>
         <v>0</v>
       </c>
-      <c r="N4" s="238">
+      <c r="N4" s="198">
         <f>Page1!N4</f>
         <v>0</v>
       </c>
-      <c r="O4" s="239"/>
+      <c r="O4" s="199"/>
     </row>
     <row r="5" spans="1:15" s="41" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A5" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="183">
+      <c r="B5" s="143">
         <f>Page1!B5</f>
         <v>0</v>
       </c>
-      <c r="C5" s="232"/>
-      <c r="D5" s="194"/>
-      <c r="E5" s="233" t="s">
+      <c r="C5" s="192"/>
+      <c r="D5" s="155"/>
+      <c r="E5" s="193" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="234"/>
-      <c r="G5" s="183">
+      <c r="F5" s="194"/>
+      <c r="G5" s="143">
         <f>Page1!G5</f>
         <v>0</v>
       </c>
-      <c r="H5" s="194"/>
+      <c r="H5" s="155"/>
       <c r="I5" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="167">
+      <c r="J5" s="142">
         <f>Page1!J5</f>
         <v>0</v>
       </c>
-      <c r="K5" s="167"/>
-      <c r="L5" s="245" t="s">
+      <c r="K5" s="142"/>
+      <c r="L5" s="205" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="245">
+      <c r="M5" s="205">
         <f>Page1!N5</f>
         <v>0</v>
       </c>
-      <c r="N5" s="183">
+      <c r="N5" s="143">
         <f>Page1!N5</f>
         <v>0</v>
       </c>
-      <c r="O5" s="195"/>
+      <c r="O5" s="157"/>
     </row>
     <row r="6" spans="1:15" s="44" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A6" s="231" t="s">
+      <c r="A6" s="190" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="221"/>
-      <c r="C6" s="221"/>
-      <c r="D6" s="221"/>
-      <c r="E6" s="221"/>
-      <c r="F6" s="221"/>
-      <c r="G6" s="221"/>
-      <c r="H6" s="221"/>
-      <c r="I6" s="221"/>
-      <c r="J6" s="221"/>
-      <c r="K6" s="221"/>
-      <c r="L6" s="221"/>
-      <c r="M6" s="221"/>
-      <c r="N6" s="221"/>
-      <c r="O6" s="222"/>
+      <c r="B6" s="191"/>
+      <c r="C6" s="191"/>
+      <c r="D6" s="191"/>
+      <c r="E6" s="191"/>
+      <c r="F6" s="191"/>
+      <c r="G6" s="191"/>
+      <c r="H6" s="191"/>
+      <c r="I6" s="191"/>
+      <c r="J6" s="191"/>
+      <c r="K6" s="191"/>
+      <c r="L6" s="191"/>
+      <c r="M6" s="191"/>
+      <c r="N6" s="191"/>
+      <c r="O6" s="206"/>
     </row>
     <row r="7" spans="1:15" s="44" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A7" s="197" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="268"/>
-      <c r="C7" s="198"/>
-      <c r="D7" s="226" t="s">
+      <c r="A7" s="217" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="218"/>
+      <c r="C7" s="219"/>
+      <c r="D7" s="210" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="226"/>
-      <c r="F7" s="226"/>
-      <c r="G7" s="226"/>
-      <c r="H7" s="217" t="s">
+      <c r="E7" s="210"/>
+      <c r="F7" s="210"/>
+      <c r="G7" s="210"/>
+      <c r="H7" s="211" t="s">
         <v>118</v>
       </c>
-      <c r="I7" s="218"/>
-      <c r="J7" s="218"/>
-      <c r="K7" s="227"/>
-      <c r="L7" s="217" t="s">
+      <c r="I7" s="212"/>
+      <c r="J7" s="212"/>
+      <c r="K7" s="213"/>
+      <c r="L7" s="211" t="s">
         <v>29</v>
       </c>
-      <c r="M7" s="218"/>
-      <c r="N7" s="218"/>
-      <c r="O7" s="219"/>
+      <c r="M7" s="212"/>
+      <c r="N7" s="212"/>
+      <c r="O7" s="238"/>
     </row>
     <row r="8" spans="1:15" s="44" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A8" s="199"/>
-      <c r="B8" s="200"/>
-      <c r="C8" s="201"/>
+      <c r="A8" s="220"/>
+      <c r="B8" s="221"/>
+      <c r="C8" s="222"/>
       <c r="D8" s="45">
         <v>1</v>
       </c>
@@ -6828,27 +6807,27 @@
       <c r="C39" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="D39" s="228" t="e">
+      <c r="D39" s="214" t="e">
         <f>AVERAGE(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E39" s="229"/>
-      <c r="F39" s="229"/>
-      <c r="G39" s="230"/>
-      <c r="H39" s="210" t="e">
+      <c r="E39" s="215"/>
+      <c r="F39" s="215"/>
+      <c r="G39" s="216"/>
+      <c r="H39" s="231" t="e">
         <f>AVERAGE(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I39" s="211"/>
-      <c r="J39" s="211"/>
-      <c r="K39" s="220"/>
-      <c r="L39" s="210" t="e">
+      <c r="I39" s="232"/>
+      <c r="J39" s="232"/>
+      <c r="K39" s="239"/>
+      <c r="L39" s="231" t="e">
         <f>AVERAGE(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M39" s="211"/>
-      <c r="N39" s="211"/>
-      <c r="O39" s="212"/>
+      <c r="M39" s="232"/>
+      <c r="N39" s="232"/>
+      <c r="O39" s="233"/>
     </row>
     <row r="40" spans="1:15" ht="18" customHeight="1">
       <c r="A40" s="61"/>
@@ -6856,27 +6835,27 @@
       <c r="C40" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="D40" s="223" t="e">
+      <c r="D40" s="207" t="e">
         <f>MIN(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E40" s="224"/>
-      <c r="F40" s="224"/>
-      <c r="G40" s="225"/>
-      <c r="H40" s="213" t="e">
+      <c r="E40" s="208"/>
+      <c r="F40" s="208"/>
+      <c r="G40" s="209"/>
+      <c r="H40" s="234" t="e">
         <f>MIN(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I40" s="214"/>
-      <c r="J40" s="214"/>
-      <c r="K40" s="215"/>
-      <c r="L40" s="213" t="e">
+      <c r="I40" s="235"/>
+      <c r="J40" s="235"/>
+      <c r="K40" s="236"/>
+      <c r="L40" s="234" t="e">
         <f>MIN(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M40" s="214"/>
-      <c r="N40" s="214"/>
-      <c r="O40" s="216"/>
+      <c r="M40" s="235"/>
+      <c r="N40" s="235"/>
+      <c r="O40" s="237"/>
     </row>
     <row r="41" spans="1:15" ht="18" customHeight="1" thickBot="1">
       <c r="A41" s="64"/>
@@ -6884,38 +6863,38 @@
       <c r="C41" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="D41" s="205" t="e">
+      <c r="D41" s="226" t="e">
         <f>MAX(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E41" s="206"/>
-      <c r="F41" s="206"/>
-      <c r="G41" s="207"/>
-      <c r="H41" s="202" t="e">
+      <c r="E41" s="227"/>
+      <c r="F41" s="227"/>
+      <c r="G41" s="228"/>
+      <c r="H41" s="223" t="e">
         <f>MAX(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I41" s="203"/>
-      <c r="J41" s="203"/>
-      <c r="K41" s="209"/>
-      <c r="L41" s="202" t="e">
+      <c r="I41" s="224"/>
+      <c r="J41" s="224"/>
+      <c r="K41" s="230"/>
+      <c r="L41" s="223" t="e">
         <f>MAX(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M41" s="203"/>
-      <c r="N41" s="203"/>
-      <c r="O41" s="204"/>
+      <c r="M41" s="224"/>
+      <c r="N41" s="224"/>
+      <c r="O41" s="225"/>
     </row>
     <row r="42" spans="1:15" s="11" customFormat="1" ht="16.5" customHeight="1">
       <c r="A42" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="B42" s="151"/>
-      <c r="C42" s="151"/>
-      <c r="D42" s="152" t="s">
+      <c r="B42" s="188"/>
+      <c r="C42" s="188"/>
+      <c r="D42" s="189" t="s">
         <v>13</v>
       </c>
-      <c r="E42" s="152"/>
+      <c r="E42" s="189"/>
       <c r="F42" s="30"/>
       <c r="G42" s="31"/>
       <c r="H42" s="31"/>
@@ -6925,16 +6904,16 @@
       <c r="L42" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="M42" s="208"/>
-      <c r="N42" s="208"/>
+      <c r="M42" s="229"/>
+      <c r="N42" s="229"/>
       <c r="O42" s="29" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:15" s="11" customFormat="1" ht="16.5" customHeight="1">
       <c r="A43" s="29"/>
-      <c r="B43" s="133"/>
-      <c r="C43" s="133"/>
+      <c r="B43" s="177"/>
+      <c r="C43" s="177"/>
       <c r="D43" s="13"/>
       <c r="E43" s="13"/>
       <c r="F43" s="29"/>
@@ -6944,38 +6923,38 @@
       <c r="J43" s="31"/>
       <c r="K43" s="32"/>
       <c r="L43" s="86"/>
-      <c r="M43" s="134"/>
-      <c r="N43" s="134"/>
+      <c r="M43" s="160"/>
+      <c r="N43" s="160"/>
       <c r="O43" s="32"/>
     </row>
     <row r="44" spans="1:15" s="34" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A44" s="131" t="s">
+      <c r="A44" s="175" t="s">
         <v>12</v>
       </c>
-      <c r="B44" s="131"/>
-      <c r="C44" s="131"/>
+      <c r="B44" s="175"/>
+      <c r="C44" s="175"/>
       <c r="D44" s="33"/>
       <c r="E44" s="33"/>
       <c r="F44" s="33"/>
       <c r="G44" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="H44" s="131" t="s">
+      <c r="H44" s="175" t="s">
         <v>121</v>
       </c>
-      <c r="I44" s="131"/>
-      <c r="J44" s="131"/>
-      <c r="K44" s="131"/>
+      <c r="I44" s="175"/>
+      <c r="J44" s="175"/>
+      <c r="K44" s="175"/>
       <c r="L44" s="33"/>
       <c r="M44" s="33"/>
       <c r="N44" s="33"/>
       <c r="O44" s="33"/>
     </row>
     <row r="45" spans="1:15" s="11" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A45" s="132" t="s">
+      <c r="A45" s="176" t="s">
         <v>21</v>
       </c>
-      <c r="B45" s="132"/>
+      <c r="B45" s="176"/>
       <c r="C45" s="35"/>
       <c r="D45" s="31"/>
       <c r="E45" s="31"/>
@@ -6986,14 +6965,38 @@
       <c r="J45" s="31"/>
       <c r="K45" s="31"/>
       <c r="L45" s="31"/>
-      <c r="M45" s="196" t="s">
+      <c r="M45" s="240" t="s">
         <v>109</v>
       </c>
-      <c r="N45" s="196"/>
+      <c r="N45" s="240"/>
       <c r="O45" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="L41:O41"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="L39:O39"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="L40:O40"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:O6"/>
+    <mergeCell ref="A7:C8"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="L7:O7"/>
     <mergeCell ref="L5:M5"/>
     <mergeCell ref="N5:O5"/>
     <mergeCell ref="A1:M1"/>
@@ -7010,30 +7013,6 @@
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="J5:K5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:O6"/>
-    <mergeCell ref="A7:C8"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="L7:O7"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="H41:K41"/>
-    <mergeCell ref="L41:O41"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="H39:K39"/>
-    <mergeCell ref="L39:O39"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="H40:K40"/>
-    <mergeCell ref="L40:O40"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="H44:K44"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="M43:N43"/>
   </mergeCells>
   <conditionalFormatting sqref="D9:G41">
     <cfRule type="cellIs" dxfId="5" priority="3" operator="lessThan">
@@ -7082,61 +7061,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="68" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A1" s="267" t="s">
+      <c r="A1" s="241" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="267"/>
-      <c r="C1" s="267"/>
-      <c r="D1" s="267"/>
-      <c r="E1" s="267"/>
-      <c r="F1" s="267"/>
-      <c r="G1" s="267"/>
-      <c r="H1" s="267"/>
-      <c r="I1" s="267"/>
-      <c r="J1" s="267"/>
-      <c r="K1" s="267"/>
-      <c r="L1" s="267"/>
-      <c r="M1" s="267"/>
-      <c r="N1" s="187" t="s">
+      <c r="B1" s="241"/>
+      <c r="C1" s="241"/>
+      <c r="D1" s="241"/>
+      <c r="E1" s="241"/>
+      <c r="F1" s="241"/>
+      <c r="G1" s="241"/>
+      <c r="H1" s="241"/>
+      <c r="I1" s="241"/>
+      <c r="J1" s="241"/>
+      <c r="K1" s="241"/>
+      <c r="L1" s="241"/>
+      <c r="M1" s="241"/>
+      <c r="N1" s="148" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="187"/>
+      <c r="O1" s="148"/>
     </row>
     <row r="2" spans="1:15" s="68" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A2" s="189" t="s">
+      <c r="A2" s="150" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="189"/>
-      <c r="C2" s="189"/>
-      <c r="D2" s="189"/>
-      <c r="E2" s="189"/>
-      <c r="F2" s="189"/>
-      <c r="G2" s="189"/>
-      <c r="H2" s="189"/>
-      <c r="I2" s="189"/>
-      <c r="J2" s="189"/>
-      <c r="K2" s="189"/>
-      <c r="L2" s="189"/>
-      <c r="M2" s="189"/>
-      <c r="N2" s="188" t="s">
+      <c r="B2" s="150"/>
+      <c r="C2" s="150"/>
+      <c r="D2" s="150"/>
+      <c r="E2" s="150"/>
+      <c r="F2" s="150"/>
+      <c r="G2" s="150"/>
+      <c r="H2" s="150"/>
+      <c r="I2" s="150"/>
+      <c r="J2" s="150"/>
+      <c r="K2" s="150"/>
+      <c r="L2" s="150"/>
+      <c r="M2" s="150"/>
+      <c r="N2" s="149" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="188"/>
+      <c r="O2" s="149"/>
     </row>
     <row r="3" spans="1:15" s="68" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="189"/>
-      <c r="B3" s="189"/>
-      <c r="C3" s="189"/>
-      <c r="D3" s="189"/>
-      <c r="E3" s="189"/>
-      <c r="F3" s="189"/>
-      <c r="G3" s="189"/>
-      <c r="H3" s="189"/>
-      <c r="I3" s="189"/>
-      <c r="J3" s="189"/>
-      <c r="K3" s="189"/>
-      <c r="L3" s="189"/>
-      <c r="M3" s="189"/>
+      <c r="A3" s="150"/>
+      <c r="B3" s="150"/>
+      <c r="C3" s="150"/>
+      <c r="D3" s="150"/>
+      <c r="E3" s="150"/>
+      <c r="F3" s="150"/>
+      <c r="G3" s="150"/>
+      <c r="H3" s="150"/>
+      <c r="I3" s="150"/>
+      <c r="J3" s="150"/>
+      <c r="K3" s="150"/>
+      <c r="L3" s="150"/>
+      <c r="M3" s="150"/>
       <c r="N3" s="12" t="s">
         <v>19</v>
       </c>
@@ -7146,126 +7125,126 @@
       <c r="A4" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="238">
+      <c r="B4" s="198">
         <f>Page1!B4</f>
         <v>0</v>
       </c>
-      <c r="C4" s="240"/>
-      <c r="D4" s="241"/>
-      <c r="E4" s="242" t="s">
+      <c r="C4" s="200"/>
+      <c r="D4" s="201"/>
+      <c r="E4" s="202" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="243"/>
-      <c r="G4" s="238">
+      <c r="F4" s="203"/>
+      <c r="G4" s="198">
         <f>Page1!G4</f>
         <v>0</v>
       </c>
-      <c r="H4" s="241"/>
+      <c r="H4" s="201"/>
       <c r="I4" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="244">
+      <c r="J4" s="204">
         <f>Page1!J4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="244"/>
-      <c r="L4" s="237" t="s">
+      <c r="K4" s="204"/>
+      <c r="L4" s="197" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="237">
+      <c r="M4" s="197">
         <f>Page1!N4</f>
         <v>0</v>
       </c>
-      <c r="N4" s="238">
+      <c r="N4" s="198">
         <f>Page1!N4</f>
         <v>0</v>
       </c>
-      <c r="O4" s="239"/>
+      <c r="O4" s="199"/>
     </row>
     <row r="5" spans="1:15" s="33" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A5" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="183">
+      <c r="B5" s="143">
         <f>Page1!B5</f>
         <v>0</v>
       </c>
-      <c r="C5" s="232"/>
-      <c r="D5" s="194"/>
-      <c r="E5" s="233" t="s">
+      <c r="C5" s="192"/>
+      <c r="D5" s="155"/>
+      <c r="E5" s="193" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="234"/>
-      <c r="G5" s="183">
+      <c r="F5" s="194"/>
+      <c r="G5" s="143">
         <f>Page1!G5</f>
         <v>0</v>
       </c>
-      <c r="H5" s="194"/>
+      <c r="H5" s="155"/>
       <c r="I5" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="167">
+      <c r="J5" s="142">
         <f>Page1!J5</f>
         <v>0</v>
       </c>
-      <c r="K5" s="167"/>
-      <c r="L5" s="245" t="s">
+      <c r="K5" s="142"/>
+      <c r="L5" s="205" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="245">
+      <c r="M5" s="205">
         <f>Page1!N5</f>
         <v>0</v>
       </c>
-      <c r="N5" s="183">
+      <c r="N5" s="143">
         <f>Page1!N5</f>
         <v>0</v>
       </c>
-      <c r="O5" s="195"/>
+      <c r="O5" s="157"/>
     </row>
     <row r="6" spans="1:15" s="69" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A6" s="253" t="s">
+      <c r="A6" s="248" t="s">
         <v>113</v>
       </c>
-      <c r="B6" s="254"/>
-      <c r="C6" s="254"/>
-      <c r="D6" s="255"/>
-      <c r="E6" s="255"/>
-      <c r="F6" s="255"/>
-      <c r="G6" s="256"/>
-      <c r="H6" s="257"/>
-      <c r="I6" s="255"/>
-      <c r="J6" s="255"/>
-      <c r="K6" s="255"/>
-      <c r="L6" s="255"/>
-      <c r="M6" s="255"/>
-      <c r="N6" s="255"/>
-      <c r="O6" s="256"/>
+      <c r="B6" s="249"/>
+      <c r="C6" s="249"/>
+      <c r="D6" s="250"/>
+      <c r="E6" s="250"/>
+      <c r="F6" s="250"/>
+      <c r="G6" s="251"/>
+      <c r="H6" s="252"/>
+      <c r="I6" s="250"/>
+      <c r="J6" s="250"/>
+      <c r="K6" s="250"/>
+      <c r="L6" s="250"/>
+      <c r="M6" s="250"/>
+      <c r="N6" s="250"/>
+      <c r="O6" s="251"/>
     </row>
     <row r="7" spans="1:15" s="34" customFormat="1" ht="30" customHeight="1">
-      <c r="A7" s="247" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="244"/>
-      <c r="C7" s="244"/>
-      <c r="D7" s="240" t="s">
+      <c r="A7" s="242" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="204"/>
+      <c r="C7" s="204"/>
+      <c r="D7" s="200" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="240"/>
-      <c r="F7" s="240"/>
-      <c r="G7" s="240"/>
-      <c r="H7" s="248"/>
-      <c r="I7" s="249"/>
-      <c r="J7" s="249"/>
-      <c r="K7" s="249"/>
-      <c r="L7" s="249"/>
-      <c r="M7" s="249"/>
-      <c r="N7" s="249"/>
-      <c r="O7" s="250"/>
+      <c r="E7" s="200"/>
+      <c r="F7" s="200"/>
+      <c r="G7" s="200"/>
+      <c r="H7" s="243"/>
+      <c r="I7" s="244"/>
+      <c r="J7" s="244"/>
+      <c r="K7" s="244"/>
+      <c r="L7" s="244"/>
+      <c r="M7" s="244"/>
+      <c r="N7" s="244"/>
+      <c r="O7" s="245"/>
     </row>
     <row r="8" spans="1:15" s="34" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="A8" s="182"/>
-      <c r="B8" s="167"/>
-      <c r="C8" s="167"/>
+      <c r="A8" s="141"/>
+      <c r="B8" s="142"/>
+      <c r="C8" s="142"/>
       <c r="D8" s="70">
         <v>1</v>
       </c>
@@ -7278,14 +7257,14 @@
       <c r="G8" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="197"/>
-      <c r="I8" s="268"/>
-      <c r="J8" s="268"/>
-      <c r="K8" s="268"/>
-      <c r="L8" s="268"/>
-      <c r="M8" s="268"/>
-      <c r="N8" s="268"/>
-      <c r="O8" s="251"/>
+      <c r="H8" s="217"/>
+      <c r="I8" s="218"/>
+      <c r="J8" s="218"/>
+      <c r="K8" s="218"/>
+      <c r="L8" s="218"/>
+      <c r="M8" s="218"/>
+      <c r="N8" s="218"/>
+      <c r="O8" s="246"/>
     </row>
     <row r="9" spans="1:15" ht="18" customHeight="1">
       <c r="A9" s="47">
@@ -7307,14 +7286,14 @@
         <f>AVERAGE(D9:F9)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H9" s="197"/>
-      <c r="I9" s="268"/>
-      <c r="J9" s="268"/>
-      <c r="K9" s="268"/>
-      <c r="L9" s="268"/>
-      <c r="M9" s="268"/>
-      <c r="N9" s="268"/>
-      <c r="O9" s="251"/>
+      <c r="H9" s="217"/>
+      <c r="I9" s="218"/>
+      <c r="J9" s="218"/>
+      <c r="K9" s="218"/>
+      <c r="L9" s="218"/>
+      <c r="M9" s="218"/>
+      <c r="N9" s="218"/>
+      <c r="O9" s="246"/>
     </row>
     <row r="10" spans="1:15" ht="18" customHeight="1">
       <c r="A10" s="47">
@@ -7336,14 +7315,14 @@
         <f t="shared" ref="G10:G38" si="0">AVERAGE(D10:F10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H10" s="197"/>
-      <c r="I10" s="268"/>
-      <c r="J10" s="268"/>
-      <c r="K10" s="268"/>
-      <c r="L10" s="268"/>
-      <c r="M10" s="268"/>
-      <c r="N10" s="268"/>
-      <c r="O10" s="251"/>
+      <c r="H10" s="217"/>
+      <c r="I10" s="218"/>
+      <c r="J10" s="218"/>
+      <c r="K10" s="218"/>
+      <c r="L10" s="218"/>
+      <c r="M10" s="218"/>
+      <c r="N10" s="218"/>
+      <c r="O10" s="246"/>
     </row>
     <row r="11" spans="1:15" ht="18" customHeight="1">
       <c r="A11" s="47">
@@ -7365,14 +7344,14 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H11" s="197"/>
-      <c r="I11" s="268"/>
-      <c r="J11" s="268"/>
-      <c r="K11" s="268"/>
-      <c r="L11" s="268"/>
-      <c r="M11" s="268"/>
-      <c r="N11" s="268"/>
-      <c r="O11" s="251"/>
+      <c r="H11" s="217"/>
+      <c r="I11" s="218"/>
+      <c r="J11" s="218"/>
+      <c r="K11" s="218"/>
+      <c r="L11" s="218"/>
+      <c r="M11" s="218"/>
+      <c r="N11" s="218"/>
+      <c r="O11" s="246"/>
     </row>
     <row r="12" spans="1:15" ht="18" customHeight="1">
       <c r="A12" s="47">
@@ -7394,14 +7373,14 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H12" s="197"/>
-      <c r="I12" s="268"/>
-      <c r="J12" s="268"/>
-      <c r="K12" s="268"/>
-      <c r="L12" s="268"/>
-      <c r="M12" s="268"/>
-      <c r="N12" s="268"/>
-      <c r="O12" s="251"/>
+      <c r="H12" s="217"/>
+      <c r="I12" s="218"/>
+      <c r="J12" s="218"/>
+      <c r="K12" s="218"/>
+      <c r="L12" s="218"/>
+      <c r="M12" s="218"/>
+      <c r="N12" s="218"/>
+      <c r="O12" s="246"/>
     </row>
     <row r="13" spans="1:15" ht="18" customHeight="1">
       <c r="A13" s="47">
@@ -7423,14 +7402,14 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H13" s="197"/>
-      <c r="I13" s="268"/>
-      <c r="J13" s="268"/>
-      <c r="K13" s="268"/>
-      <c r="L13" s="268"/>
-      <c r="M13" s="268"/>
-      <c r="N13" s="268"/>
-      <c r="O13" s="251"/>
+      <c r="H13" s="217"/>
+      <c r="I13" s="218"/>
+      <c r="J13" s="218"/>
+      <c r="K13" s="218"/>
+      <c r="L13" s="218"/>
+      <c r="M13" s="218"/>
+      <c r="N13" s="218"/>
+      <c r="O13" s="246"/>
     </row>
     <row r="14" spans="1:15" ht="18" customHeight="1">
       <c r="A14" s="47">
@@ -7452,14 +7431,14 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H14" s="197"/>
-      <c r="I14" s="268"/>
-      <c r="J14" s="268"/>
-      <c r="K14" s="268"/>
-      <c r="L14" s="268"/>
-      <c r="M14" s="268"/>
-      <c r="N14" s="268"/>
-      <c r="O14" s="251"/>
+      <c r="H14" s="217"/>
+      <c r="I14" s="218"/>
+      <c r="J14" s="218"/>
+      <c r="K14" s="218"/>
+      <c r="L14" s="218"/>
+      <c r="M14" s="218"/>
+      <c r="N14" s="218"/>
+      <c r="O14" s="246"/>
     </row>
     <row r="15" spans="1:15" ht="18" customHeight="1">
       <c r="A15" s="47">
@@ -7481,14 +7460,14 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H15" s="197"/>
-      <c r="I15" s="268"/>
-      <c r="J15" s="268"/>
-      <c r="K15" s="268"/>
-      <c r="L15" s="268"/>
-      <c r="M15" s="268"/>
-      <c r="N15" s="268"/>
-      <c r="O15" s="251"/>
+      <c r="H15" s="217"/>
+      <c r="I15" s="218"/>
+      <c r="J15" s="218"/>
+      <c r="K15" s="218"/>
+      <c r="L15" s="218"/>
+      <c r="M15" s="218"/>
+      <c r="N15" s="218"/>
+      <c r="O15" s="246"/>
     </row>
     <row r="16" spans="1:15" ht="18" customHeight="1">
       <c r="A16" s="47">
@@ -7510,14 +7489,14 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H16" s="197"/>
-      <c r="I16" s="268"/>
-      <c r="J16" s="268"/>
-      <c r="K16" s="268"/>
-      <c r="L16" s="268"/>
-      <c r="M16" s="268"/>
-      <c r="N16" s="268"/>
-      <c r="O16" s="251"/>
+      <c r="H16" s="217"/>
+      <c r="I16" s="218"/>
+      <c r="J16" s="218"/>
+      <c r="K16" s="218"/>
+      <c r="L16" s="218"/>
+      <c r="M16" s="218"/>
+      <c r="N16" s="218"/>
+      <c r="O16" s="246"/>
     </row>
     <row r="17" spans="1:15" ht="18" customHeight="1">
       <c r="A17" s="47">
@@ -7539,14 +7518,14 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H17" s="197"/>
-      <c r="I17" s="268"/>
-      <c r="J17" s="268"/>
-      <c r="K17" s="268"/>
-      <c r="L17" s="268"/>
-      <c r="M17" s="268"/>
-      <c r="N17" s="268"/>
-      <c r="O17" s="251"/>
+      <c r="H17" s="217"/>
+      <c r="I17" s="218"/>
+      <c r="J17" s="218"/>
+      <c r="K17" s="218"/>
+      <c r="L17" s="218"/>
+      <c r="M17" s="218"/>
+      <c r="N17" s="218"/>
+      <c r="O17" s="246"/>
     </row>
     <row r="18" spans="1:15" ht="18" customHeight="1">
       <c r="A18" s="47">
@@ -7568,14 +7547,14 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H18" s="197"/>
-      <c r="I18" s="268"/>
-      <c r="J18" s="268"/>
-      <c r="K18" s="268"/>
-      <c r="L18" s="268"/>
-      <c r="M18" s="268"/>
-      <c r="N18" s="268"/>
-      <c r="O18" s="251"/>
+      <c r="H18" s="217"/>
+      <c r="I18" s="218"/>
+      <c r="J18" s="218"/>
+      <c r="K18" s="218"/>
+      <c r="L18" s="218"/>
+      <c r="M18" s="218"/>
+      <c r="N18" s="218"/>
+      <c r="O18" s="246"/>
     </row>
     <row r="19" spans="1:15" ht="18" customHeight="1">
       <c r="A19" s="47">
@@ -7597,14 +7576,14 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H19" s="197"/>
-      <c r="I19" s="268"/>
-      <c r="J19" s="268"/>
-      <c r="K19" s="268"/>
-      <c r="L19" s="268"/>
-      <c r="M19" s="268"/>
-      <c r="N19" s="268"/>
-      <c r="O19" s="251"/>
+      <c r="H19" s="217"/>
+      <c r="I19" s="218"/>
+      <c r="J19" s="218"/>
+      <c r="K19" s="218"/>
+      <c r="L19" s="218"/>
+      <c r="M19" s="218"/>
+      <c r="N19" s="218"/>
+      <c r="O19" s="246"/>
     </row>
     <row r="20" spans="1:15" ht="18" customHeight="1">
       <c r="A20" s="47">
@@ -7626,14 +7605,14 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H20" s="197"/>
-      <c r="I20" s="268"/>
-      <c r="J20" s="268"/>
-      <c r="K20" s="268"/>
-      <c r="L20" s="268"/>
-      <c r="M20" s="268"/>
-      <c r="N20" s="268"/>
-      <c r="O20" s="251"/>
+      <c r="H20" s="217"/>
+      <c r="I20" s="218"/>
+      <c r="J20" s="218"/>
+      <c r="K20" s="218"/>
+      <c r="L20" s="218"/>
+      <c r="M20" s="218"/>
+      <c r="N20" s="218"/>
+      <c r="O20" s="246"/>
     </row>
     <row r="21" spans="1:15" ht="18" customHeight="1">
       <c r="A21" s="47">
@@ -7655,14 +7634,14 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H21" s="197"/>
-      <c r="I21" s="268"/>
-      <c r="J21" s="268"/>
-      <c r="K21" s="268"/>
-      <c r="L21" s="268"/>
-      <c r="M21" s="268"/>
-      <c r="N21" s="268"/>
-      <c r="O21" s="251"/>
+      <c r="H21" s="217"/>
+      <c r="I21" s="218"/>
+      <c r="J21" s="218"/>
+      <c r="K21" s="218"/>
+      <c r="L21" s="218"/>
+      <c r="M21" s="218"/>
+      <c r="N21" s="218"/>
+      <c r="O21" s="246"/>
     </row>
     <row r="22" spans="1:15" ht="18" customHeight="1">
       <c r="A22" s="47">
@@ -7684,14 +7663,14 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H22" s="197"/>
-      <c r="I22" s="268"/>
-      <c r="J22" s="268"/>
-      <c r="K22" s="268"/>
-      <c r="L22" s="268"/>
-      <c r="M22" s="268"/>
-      <c r="N22" s="268"/>
-      <c r="O22" s="251"/>
+      <c r="H22" s="217"/>
+      <c r="I22" s="218"/>
+      <c r="J22" s="218"/>
+      <c r="K22" s="218"/>
+      <c r="L22" s="218"/>
+      <c r="M22" s="218"/>
+      <c r="N22" s="218"/>
+      <c r="O22" s="246"/>
     </row>
     <row r="23" spans="1:15" ht="18" customHeight="1">
       <c r="A23" s="47">
@@ -7713,14 +7692,14 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H23" s="197"/>
-      <c r="I23" s="268"/>
-      <c r="J23" s="268"/>
-      <c r="K23" s="268"/>
-      <c r="L23" s="268"/>
-      <c r="M23" s="268"/>
-      <c r="N23" s="268"/>
-      <c r="O23" s="251"/>
+      <c r="H23" s="217"/>
+      <c r="I23" s="218"/>
+      <c r="J23" s="218"/>
+      <c r="K23" s="218"/>
+      <c r="L23" s="218"/>
+      <c r="M23" s="218"/>
+      <c r="N23" s="218"/>
+      <c r="O23" s="246"/>
     </row>
     <row r="24" spans="1:15" ht="18" customHeight="1">
       <c r="A24" s="47">
@@ -7742,14 +7721,14 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H24" s="197"/>
-      <c r="I24" s="268"/>
-      <c r="J24" s="268"/>
-      <c r="K24" s="268"/>
-      <c r="L24" s="268"/>
-      <c r="M24" s="268"/>
-      <c r="N24" s="268"/>
-      <c r="O24" s="251"/>
+      <c r="H24" s="217"/>
+      <c r="I24" s="218"/>
+      <c r="J24" s="218"/>
+      <c r="K24" s="218"/>
+      <c r="L24" s="218"/>
+      <c r="M24" s="218"/>
+      <c r="N24" s="218"/>
+      <c r="O24" s="246"/>
     </row>
     <row r="25" spans="1:15" ht="18" customHeight="1">
       <c r="A25" s="47">
@@ -7771,14 +7750,14 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H25" s="197"/>
-      <c r="I25" s="268"/>
-      <c r="J25" s="268"/>
-      <c r="K25" s="268"/>
-      <c r="L25" s="268"/>
-      <c r="M25" s="268"/>
-      <c r="N25" s="268"/>
-      <c r="O25" s="251"/>
+      <c r="H25" s="217"/>
+      <c r="I25" s="218"/>
+      <c r="J25" s="218"/>
+      <c r="K25" s="218"/>
+      <c r="L25" s="218"/>
+      <c r="M25" s="218"/>
+      <c r="N25" s="218"/>
+      <c r="O25" s="246"/>
     </row>
     <row r="26" spans="1:15" ht="18" customHeight="1">
       <c r="A26" s="47">
@@ -7800,14 +7779,14 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H26" s="197"/>
-      <c r="I26" s="268"/>
-      <c r="J26" s="268"/>
-      <c r="K26" s="268"/>
-      <c r="L26" s="268"/>
-      <c r="M26" s="268"/>
-      <c r="N26" s="268"/>
-      <c r="O26" s="251"/>
+      <c r="H26" s="217"/>
+      <c r="I26" s="218"/>
+      <c r="J26" s="218"/>
+      <c r="K26" s="218"/>
+      <c r="L26" s="218"/>
+      <c r="M26" s="218"/>
+      <c r="N26" s="218"/>
+      <c r="O26" s="246"/>
     </row>
     <row r="27" spans="1:15" ht="18" customHeight="1">
       <c r="A27" s="47">
@@ -7829,14 +7808,14 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H27" s="197"/>
-      <c r="I27" s="268"/>
-      <c r="J27" s="268"/>
-      <c r="K27" s="268"/>
-      <c r="L27" s="268"/>
-      <c r="M27" s="268"/>
-      <c r="N27" s="268"/>
-      <c r="O27" s="251"/>
+      <c r="H27" s="217"/>
+      <c r="I27" s="218"/>
+      <c r="J27" s="218"/>
+      <c r="K27" s="218"/>
+      <c r="L27" s="218"/>
+      <c r="M27" s="218"/>
+      <c r="N27" s="218"/>
+      <c r="O27" s="246"/>
     </row>
     <row r="28" spans="1:15" ht="18" customHeight="1">
       <c r="A28" s="47">
@@ -7858,14 +7837,14 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H28" s="197"/>
-      <c r="I28" s="268"/>
-      <c r="J28" s="268"/>
-      <c r="K28" s="268"/>
-      <c r="L28" s="268"/>
-      <c r="M28" s="268"/>
-      <c r="N28" s="268"/>
-      <c r="O28" s="251"/>
+      <c r="H28" s="217"/>
+      <c r="I28" s="218"/>
+      <c r="J28" s="218"/>
+      <c r="K28" s="218"/>
+      <c r="L28" s="218"/>
+      <c r="M28" s="218"/>
+      <c r="N28" s="218"/>
+      <c r="O28" s="246"/>
     </row>
     <row r="29" spans="1:15" ht="18" customHeight="1">
       <c r="A29" s="47">
@@ -7887,14 +7866,14 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H29" s="197"/>
-      <c r="I29" s="268"/>
-      <c r="J29" s="268"/>
-      <c r="K29" s="268"/>
-      <c r="L29" s="268"/>
-      <c r="M29" s="268"/>
-      <c r="N29" s="268"/>
-      <c r="O29" s="251"/>
+      <c r="H29" s="217"/>
+      <c r="I29" s="218"/>
+      <c r="J29" s="218"/>
+      <c r="K29" s="218"/>
+      <c r="L29" s="218"/>
+      <c r="M29" s="218"/>
+      <c r="N29" s="218"/>
+      <c r="O29" s="246"/>
     </row>
     <row r="30" spans="1:15" ht="18" customHeight="1">
       <c r="A30" s="47">
@@ -7916,14 +7895,14 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H30" s="197"/>
-      <c r="I30" s="268"/>
-      <c r="J30" s="268"/>
-      <c r="K30" s="268"/>
-      <c r="L30" s="268"/>
-      <c r="M30" s="268"/>
-      <c r="N30" s="268"/>
-      <c r="O30" s="251"/>
+      <c r="H30" s="217"/>
+      <c r="I30" s="218"/>
+      <c r="J30" s="218"/>
+      <c r="K30" s="218"/>
+      <c r="L30" s="218"/>
+      <c r="M30" s="218"/>
+      <c r="N30" s="218"/>
+      <c r="O30" s="246"/>
     </row>
     <row r="31" spans="1:15" ht="18" customHeight="1">
       <c r="A31" s="47">
@@ -7945,14 +7924,14 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H31" s="197"/>
-      <c r="I31" s="268"/>
-      <c r="J31" s="268"/>
-      <c r="K31" s="268"/>
-      <c r="L31" s="268"/>
-      <c r="M31" s="268"/>
-      <c r="N31" s="268"/>
-      <c r="O31" s="251"/>
+      <c r="H31" s="217"/>
+      <c r="I31" s="218"/>
+      <c r="J31" s="218"/>
+      <c r="K31" s="218"/>
+      <c r="L31" s="218"/>
+      <c r="M31" s="218"/>
+      <c r="N31" s="218"/>
+      <c r="O31" s="246"/>
     </row>
     <row r="32" spans="1:15" ht="18" customHeight="1">
       <c r="A32" s="47">
@@ -7974,14 +7953,14 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H32" s="197"/>
-      <c r="I32" s="268"/>
-      <c r="J32" s="268"/>
-      <c r="K32" s="268"/>
-      <c r="L32" s="268"/>
-      <c r="M32" s="268"/>
-      <c r="N32" s="268"/>
-      <c r="O32" s="251"/>
+      <c r="H32" s="217"/>
+      <c r="I32" s="218"/>
+      <c r="J32" s="218"/>
+      <c r="K32" s="218"/>
+      <c r="L32" s="218"/>
+      <c r="M32" s="218"/>
+      <c r="N32" s="218"/>
+      <c r="O32" s="246"/>
     </row>
     <row r="33" spans="1:15" ht="18" customHeight="1">
       <c r="A33" s="47">
@@ -8003,14 +7982,14 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H33" s="197"/>
-      <c r="I33" s="268"/>
-      <c r="J33" s="268"/>
-      <c r="K33" s="268"/>
-      <c r="L33" s="268"/>
-      <c r="M33" s="268"/>
-      <c r="N33" s="268"/>
-      <c r="O33" s="251"/>
+      <c r="H33" s="217"/>
+      <c r="I33" s="218"/>
+      <c r="J33" s="218"/>
+      <c r="K33" s="218"/>
+      <c r="L33" s="218"/>
+      <c r="M33" s="218"/>
+      <c r="N33" s="218"/>
+      <c r="O33" s="246"/>
     </row>
     <row r="34" spans="1:15" ht="18" customHeight="1">
       <c r="A34" s="47">
@@ -8032,14 +8011,14 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H34" s="197"/>
-      <c r="I34" s="268"/>
-      <c r="J34" s="268"/>
-      <c r="K34" s="268"/>
-      <c r="L34" s="268"/>
-      <c r="M34" s="268"/>
-      <c r="N34" s="268"/>
-      <c r="O34" s="251"/>
+      <c r="H34" s="217"/>
+      <c r="I34" s="218"/>
+      <c r="J34" s="218"/>
+      <c r="K34" s="218"/>
+      <c r="L34" s="218"/>
+      <c r="M34" s="218"/>
+      <c r="N34" s="218"/>
+      <c r="O34" s="246"/>
     </row>
     <row r="35" spans="1:15" ht="18" customHeight="1">
       <c r="A35" s="47">
@@ -8061,14 +8040,14 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H35" s="197"/>
-      <c r="I35" s="268"/>
-      <c r="J35" s="268"/>
-      <c r="K35" s="268"/>
-      <c r="L35" s="268"/>
-      <c r="M35" s="268"/>
-      <c r="N35" s="268"/>
-      <c r="O35" s="251"/>
+      <c r="H35" s="217"/>
+      <c r="I35" s="218"/>
+      <c r="J35" s="218"/>
+      <c r="K35" s="218"/>
+      <c r="L35" s="218"/>
+      <c r="M35" s="218"/>
+      <c r="N35" s="218"/>
+      <c r="O35" s="246"/>
     </row>
     <row r="36" spans="1:15" ht="18" customHeight="1">
       <c r="A36" s="47">
@@ -8090,14 +8069,14 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H36" s="197"/>
-      <c r="I36" s="268"/>
-      <c r="J36" s="268"/>
-      <c r="K36" s="268"/>
-      <c r="L36" s="268"/>
-      <c r="M36" s="268"/>
-      <c r="N36" s="268"/>
-      <c r="O36" s="251"/>
+      <c r="H36" s="217"/>
+      <c r="I36" s="218"/>
+      <c r="J36" s="218"/>
+      <c r="K36" s="218"/>
+      <c r="L36" s="218"/>
+      <c r="M36" s="218"/>
+      <c r="N36" s="218"/>
+      <c r="O36" s="246"/>
     </row>
     <row r="37" spans="1:15" ht="18" customHeight="1">
       <c r="A37" s="47">
@@ -8119,14 +8098,14 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H37" s="197"/>
-      <c r="I37" s="268"/>
-      <c r="J37" s="268"/>
-      <c r="K37" s="268"/>
-      <c r="L37" s="268"/>
-      <c r="M37" s="268"/>
-      <c r="N37" s="268"/>
-      <c r="O37" s="251"/>
+      <c r="H37" s="217"/>
+      <c r="I37" s="218"/>
+      <c r="J37" s="218"/>
+      <c r="K37" s="218"/>
+      <c r="L37" s="218"/>
+      <c r="M37" s="218"/>
+      <c r="N37" s="218"/>
+      <c r="O37" s="246"/>
     </row>
     <row r="38" spans="1:15" ht="18" customHeight="1" thickBot="1">
       <c r="A38" s="47">
@@ -8148,14 +8127,14 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H38" s="197"/>
-      <c r="I38" s="268"/>
-      <c r="J38" s="268"/>
-      <c r="K38" s="268"/>
-      <c r="L38" s="268"/>
-      <c r="M38" s="268"/>
-      <c r="N38" s="268"/>
-      <c r="O38" s="251"/>
+      <c r="H38" s="217"/>
+      <c r="I38" s="218"/>
+      <c r="J38" s="218"/>
+      <c r="K38" s="218"/>
+      <c r="L38" s="218"/>
+      <c r="M38" s="218"/>
+      <c r="N38" s="218"/>
+      <c r="O38" s="246"/>
     </row>
     <row r="39" spans="1:15" s="34" customFormat="1" ht="18" customHeight="1">
       <c r="A39" s="80"/>
@@ -8163,24 +8142,24 @@
       <c r="C39" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="D39" s="264" t="e">
+      <c r="D39" s="259" t="e">
         <f>AVERAGE(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E39" s="265"/>
-      <c r="F39" s="265"/>
-      <c r="G39" s="266" t="e">
+      <c r="E39" s="260"/>
+      <c r="F39" s="260"/>
+      <c r="G39" s="261" t="e">
         <f>AVERAGE(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H39" s="197"/>
-      <c r="I39" s="268"/>
-      <c r="J39" s="268"/>
-      <c r="K39" s="268"/>
-      <c r="L39" s="268"/>
-      <c r="M39" s="268"/>
-      <c r="N39" s="268"/>
-      <c r="O39" s="251"/>
+      <c r="H39" s="217"/>
+      <c r="I39" s="218"/>
+      <c r="J39" s="218"/>
+      <c r="K39" s="218"/>
+      <c r="L39" s="218"/>
+      <c r="M39" s="218"/>
+      <c r="N39" s="218"/>
+      <c r="O39" s="246"/>
     </row>
     <row r="40" spans="1:15" s="34" customFormat="1" ht="18" customHeight="1">
       <c r="A40" s="82"/>
@@ -8188,24 +8167,24 @@
       <c r="C40" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="D40" s="258" t="e">
+      <c r="D40" s="253" t="e">
         <f>MIN(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E40" s="259"/>
-      <c r="F40" s="259"/>
-      <c r="G40" s="260" t="e">
+      <c r="E40" s="254"/>
+      <c r="F40" s="254"/>
+      <c r="G40" s="255" t="e">
         <f>MIN(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H40" s="197"/>
-      <c r="I40" s="268"/>
-      <c r="J40" s="268"/>
-      <c r="K40" s="268"/>
-      <c r="L40" s="268"/>
-      <c r="M40" s="268"/>
-      <c r="N40" s="268"/>
-      <c r="O40" s="251"/>
+      <c r="H40" s="217"/>
+      <c r="I40" s="218"/>
+      <c r="J40" s="218"/>
+      <c r="K40" s="218"/>
+      <c r="L40" s="218"/>
+      <c r="M40" s="218"/>
+      <c r="N40" s="218"/>
+      <c r="O40" s="246"/>
     </row>
     <row r="41" spans="1:15" s="34" customFormat="1" ht="18" customHeight="1" thickBot="1">
       <c r="A41" s="84"/>
@@ -8213,54 +8192,54 @@
       <c r="C41" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="D41" s="261" t="e">
+      <c r="D41" s="256" t="e">
         <f>MAX(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E41" s="262"/>
-      <c r="F41" s="262"/>
-      <c r="G41" s="263" t="e">
+      <c r="E41" s="257"/>
+      <c r="F41" s="257"/>
+      <c r="G41" s="258" t="e">
         <f>MAX(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H41" s="199"/>
-      <c r="I41" s="200"/>
-      <c r="J41" s="200"/>
-      <c r="K41" s="200"/>
-      <c r="L41" s="200"/>
-      <c r="M41" s="200"/>
-      <c r="N41" s="200"/>
-      <c r="O41" s="252"/>
+      <c r="H41" s="220"/>
+      <c r="I41" s="221"/>
+      <c r="J41" s="221"/>
+      <c r="K41" s="221"/>
+      <c r="L41" s="221"/>
+      <c r="M41" s="221"/>
+      <c r="N41" s="221"/>
+      <c r="O41" s="247"/>
     </row>
     <row r="42" spans="1:15" s="11" customFormat="1" ht="16.5" customHeight="1">
       <c r="A42" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="B42" s="151"/>
-      <c r="C42" s="151"/>
-      <c r="D42" s="152" t="s">
+      <c r="B42" s="188"/>
+      <c r="C42" s="188"/>
+      <c r="D42" s="189" t="s">
         <v>13</v>
       </c>
-      <c r="E42" s="152"/>
+      <c r="E42" s="189"/>
       <c r="F42" s="30"/>
       <c r="G42" s="31"/>
       <c r="H42" s="31"/>
       <c r="I42" s="31"/>
-      <c r="J42" s="246"/>
-      <c r="K42" s="246"/>
+      <c r="J42" s="262"/>
+      <c r="K42" s="262"/>
       <c r="L42" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="M42" s="208"/>
-      <c r="N42" s="208"/>
+      <c r="M42" s="229"/>
+      <c r="N42" s="229"/>
       <c r="O42" s="29" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:15" s="11" customFormat="1" ht="16.5" customHeight="1">
       <c r="A43" s="29"/>
-      <c r="B43" s="133"/>
-      <c r="C43" s="133"/>
+      <c r="B43" s="177"/>
+      <c r="C43" s="177"/>
       <c r="D43" s="13"/>
       <c r="E43" s="13"/>
       <c r="F43" s="29"/>
@@ -8270,38 +8249,38 @@
       <c r="J43" s="31"/>
       <c r="K43" s="32"/>
       <c r="L43" s="86"/>
-      <c r="M43" s="134"/>
-      <c r="N43" s="134"/>
+      <c r="M43" s="160"/>
+      <c r="N43" s="160"/>
       <c r="O43" s="32"/>
     </row>
     <row r="44" spans="1:15" s="34" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A44" s="131" t="s">
+      <c r="A44" s="175" t="s">
         <v>12</v>
       </c>
-      <c r="B44" s="131"/>
-      <c r="C44" s="131"/>
+      <c r="B44" s="175"/>
+      <c r="C44" s="175"/>
       <c r="D44" s="33"/>
       <c r="E44" s="33"/>
       <c r="F44" s="33"/>
       <c r="G44" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="H44" s="131" t="s">
+      <c r="H44" s="175" t="s">
         <v>121</v>
       </c>
-      <c r="I44" s="131"/>
-      <c r="J44" s="131"/>
-      <c r="K44" s="131"/>
+      <c r="I44" s="175"/>
+      <c r="J44" s="175"/>
+      <c r="K44" s="175"/>
       <c r="L44" s="33"/>
       <c r="M44" s="33"/>
       <c r="N44" s="33"/>
       <c r="O44" s="33"/>
     </row>
     <row r="45" spans="1:15" s="11" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A45" s="132" t="s">
+      <c r="A45" s="176" t="s">
         <v>21</v>
       </c>
-      <c r="B45" s="132"/>
+      <c r="B45" s="176"/>
       <c r="C45" s="35"/>
       <c r="D45" s="31"/>
       <c r="E45" s="31"/>
@@ -8312,24 +8291,24 @@
       <c r="J45" s="31"/>
       <c r="K45" s="31"/>
       <c r="L45" s="31"/>
-      <c r="M45" s="196" t="s">
+      <c r="M45" s="240" t="s">
         <v>108</v>
       </c>
-      <c r="N45" s="196"/>
+      <c r="N45" s="240"/>
       <c r="O45" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="A2:M3"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="M43:N43"/>
     <mergeCell ref="A7:C8"/>
     <mergeCell ref="D7:G7"/>
     <mergeCell ref="H7:O41"/>
@@ -8345,16 +8324,16 @@
     <mergeCell ref="D39:G39"/>
     <mergeCell ref="L5:M5"/>
     <mergeCell ref="N5:O5"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="H44:K44"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="A2:M3"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="N4:O4"/>
   </mergeCells>
   <conditionalFormatting sqref="D9:G38">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
